--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>N</t>
   </si>
@@ -70,9 +70,6 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
     <t>BRKM5</t>
   </si>
   <si>
@@ -82,40 +79,52 @@
     <t>JBSS3</t>
   </si>
   <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>EGIE3</t>
+  </si>
+  <si>
+    <t>RAIL3</t>
+  </si>
+  <si>
+    <t>CSAN3</t>
+  </si>
+  <si>
+    <t>BBDC3</t>
+  </si>
+  <si>
+    <t>SUZB3</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>RDOR3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
     <t>CVCB3</t>
   </si>
   <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>RAIL3</t>
-  </si>
-  <si>
-    <t>SUZB3</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>RDOR3</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>CMIN3</t>
-  </si>
-  <si>
     <t>SOMA3</t>
   </si>
   <si>
+    <t>SANB11</t>
+  </si>
+  <si>
     <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>CPFE3</t>
   </si>
 </sst>
 </file>
@@ -537,55 +546,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>4</v>
+        <v>1115</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.339388547519448</v>
+        <v>0.4749909128269552</v>
       </c>
       <c r="E2">
-        <v>0.481971418901445</v>
+        <v>0.6652598264417716</v>
       </c>
       <c r="F2">
-        <v>3.195724481516242E-07</v>
+        <v>0.009720145123267165</v>
       </c>
       <c r="G2">
-        <v>5.69109546634802</v>
+        <v>-11.95533562803829</v>
       </c>
       <c r="H2">
-        <v>0.5673910372116245</v>
+        <v>0.5824966450826224</v>
       </c>
       <c r="I2">
-        <v>2.832908323198412E-65</v>
+        <v>1.893107040619812E-51</v>
       </c>
       <c r="J2">
-        <v>12.60000038146973</v>
+        <v>19.70999908447266</v>
       </c>
       <c r="K2">
-        <v>11.57999992370605</v>
+        <v>52.31999969482422</v>
       </c>
       <c r="L2">
-        <v>0.6525872204385301</v>
+        <v>3.053167484394507</v>
       </c>
       <c r="M2">
-        <v>-0.4458345058917281</v>
+        <v>-2.991563791890833</v>
       </c>
       <c r="N2">
-        <v>0.1901703562043722</v>
+        <v>1.156014973552371</v>
       </c>
       <c r="O2">
-        <v>0.3385167474995958</v>
+        <v>1.189110419552009</v>
       </c>
       <c r="P2">
-        <v>0.006406484057275139</v>
+        <v>0.00970003170442962</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -593,506 +602,506 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1115</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0.4749323511032622</v>
+        <v>0.3467763208854334</v>
       </c>
       <c r="E3">
-        <v>0.6706017262494393</v>
+        <v>0.3259969725975798</v>
       </c>
       <c r="F3">
-        <v>0.005941323273186416</v>
+        <v>0.0002363312510146091</v>
       </c>
       <c r="G3">
-        <v>-12.05005882544864</v>
+        <v>0.9075837831908959</v>
       </c>
       <c r="H3">
-        <v>0.5840424630673654</v>
+        <v>1.794589334201294</v>
       </c>
       <c r="I3">
-        <v>2.741203372166772E-51</v>
+        <v>1.777774562453381E-41</v>
       </c>
       <c r="J3">
-        <v>20.04999923706055</v>
+        <v>51.97999954223633</v>
       </c>
       <c r="K3">
-        <v>52.18000030517578</v>
+        <v>30.45000076293945</v>
       </c>
       <c r="L3">
-        <v>3.051818091694358</v>
+        <v>6.10160044053265</v>
       </c>
       <c r="M3">
-        <v>-2.988785847505376</v>
+        <v>-4.251738213537664</v>
       </c>
       <c r="N3">
-        <v>1.155708990293148</v>
+        <v>2.012581525689127</v>
       </c>
       <c r="O3">
-        <v>1.62472216141845</v>
+        <v>-3.572830836546956</v>
       </c>
       <c r="P3">
-        <v>0.00967508052422442</v>
+        <v>0.01008873367575392</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>123</v>
+        <v>2790</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>0.3503676905639561</v>
+        <v>0.1257273008931782</v>
       </c>
       <c r="E4">
-        <v>0.3519344152375303</v>
+        <v>0.1044563171499082</v>
       </c>
       <c r="F4">
-        <v>0.0001857100881777193</v>
+        <v>0.002637265573877756</v>
       </c>
       <c r="G4">
-        <v>1.424715343759483</v>
+        <v>4.643908637873135</v>
       </c>
       <c r="H4">
-        <v>1.779529358380457</v>
+        <v>0.7007789824384906</v>
       </c>
       <c r="I4">
-        <v>3.82272337586056E-41</v>
+        <v>1.068905997947262E-38</v>
       </c>
       <c r="J4">
-        <v>51.79000091552734</v>
+        <v>24.46999931335449</v>
       </c>
       <c r="K4">
-        <v>30.13999938964844</v>
+        <v>29.52000045776367</v>
       </c>
       <c r="L4">
-        <v>6.052658626282593</v>
+        <v>1.588420320908494</v>
       </c>
       <c r="M4">
-        <v>-4.227384112742826</v>
+        <v>-1.805263255915488</v>
       </c>
       <c r="N4">
-        <v>1.995842656349071</v>
+        <v>0.6967114746660229</v>
       </c>
       <c r="O4">
-        <v>-3.269728203680572</v>
+        <v>-0.8609052068940457</v>
       </c>
       <c r="P4">
-        <v>0.009870349838157048</v>
+        <v>0.01116920065808688</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2790</v>
+        <v>372</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>0.1159629470055444</v>
+        <v>0.4635641740351788</v>
       </c>
       <c r="E5">
-        <v>0.1082336139093646</v>
+        <v>0.5787893669572078</v>
       </c>
       <c r="F5">
-        <v>0.002908704504418436</v>
+        <v>0.00118153131321904</v>
       </c>
       <c r="G5">
-        <v>4.407012845049407</v>
+        <v>-4.396844346426652</v>
       </c>
       <c r="H5">
-        <v>0.7101858047886839</v>
+        <v>0.6492923252689839</v>
       </c>
       <c r="I5">
-        <v>2.054364064693761E-38</v>
+        <v>2.742226314092667E-70</v>
       </c>
       <c r="J5">
-        <v>24.30999946594238</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="K5">
-        <v>29.75</v>
+        <v>23.95999908447266</v>
       </c>
       <c r="L5">
-        <v>1.599834588457242</v>
+        <v>0.5736362162288344</v>
       </c>
       <c r="M5">
-        <v>-1.790678163528998</v>
+        <v>-0.718436335839268</v>
       </c>
       <c r="N5">
-        <v>0.6951401761059757</v>
+        <v>0.2925657536026064</v>
       </c>
       <c r="O5">
-        <v>-1.22504107157037</v>
+        <v>0.5098009037206186</v>
       </c>
       <c r="P5">
-        <v>0.01106460819408782</v>
+        <v>0.01198648790438625</v>
       </c>
       <c r="Q5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" t="s">
         <v>21</v>
-      </c>
-      <c r="R5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1863</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>0.7436465322388868</v>
+        <v>0.3467763208854334</v>
       </c>
       <c r="E6">
-        <v>0.7592086843286481</v>
+        <v>0.7224220477661132</v>
       </c>
       <c r="F6">
-        <v>0.003411312104289343</v>
+        <v>0.0009481095549939222</v>
       </c>
       <c r="G6">
-        <v>-0.8641169567238844</v>
+        <v>37.6462382187447</v>
       </c>
       <c r="H6">
-        <v>0.2093641511919243</v>
+        <v>7.023498792458097</v>
       </c>
       <c r="I6">
-        <v>5.727211483865625E-59</v>
+        <v>1.6550337556082E-40</v>
       </c>
       <c r="J6">
-        <v>2.319999933242798</v>
+        <v>51.97999954223633</v>
       </c>
       <c r="K6">
-        <v>16.29000091552734</v>
+        <v>2.369999885559082</v>
       </c>
       <c r="L6">
-        <v>0.4646270839845483</v>
+        <v>6.255611256380185</v>
       </c>
       <c r="M6">
-        <v>-0.3282123858385715</v>
+        <v>-4.468952308355682</v>
       </c>
       <c r="N6">
-        <v>0.1797181657770741</v>
+        <v>2.046799257438539</v>
       </c>
       <c r="O6">
-        <v>-0.2264253246283694</v>
+        <v>-2.311930010858411</v>
       </c>
       <c r="P6">
-        <v>0.01128174669829104</v>
+        <v>0.01203693455050077</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>372</v>
+        <v>907</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>0.481971418901445</v>
+        <v>0.1214774943912167</v>
       </c>
       <c r="E7">
-        <v>0.5562522745241367</v>
+        <v>0.1320656545923724</v>
       </c>
       <c r="F7">
-        <v>0.0007175070372096044</v>
+        <v>0.0002486145237154945</v>
       </c>
       <c r="G7">
-        <v>-4.515537789583774</v>
+        <v>15.69646094261119</v>
       </c>
       <c r="H7">
-        <v>0.653671967703872</v>
+        <v>2.882376192446431</v>
       </c>
       <c r="I7">
-        <v>3.134518208767701E-70</v>
+        <v>9.741946996658233E-39</v>
       </c>
       <c r="J7">
-        <v>11.57999992370605</v>
+        <v>34.61000061035156</v>
       </c>
       <c r="K7">
-        <v>24.06999969482422</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="L7">
-        <v>0.5683806788607342</v>
+        <v>2.257928018083732</v>
       </c>
       <c r="M7">
-        <v>-0.7210904925373391</v>
+        <v>-2.690058902773941</v>
       </c>
       <c r="N7">
-        <v>0.2902265342281034</v>
+        <v>1.124511328059356</v>
       </c>
       <c r="O7">
-        <v>0.3616536501424825</v>
+        <v>1.359868215925907</v>
       </c>
       <c r="P7">
-        <v>0.0115233230889857</v>
+        <v>0.01253475947092459</v>
       </c>
       <c r="Q7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>19</v>
+        <v>2010</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>0.339388547519448</v>
+        <v>0.5768487055564022</v>
       </c>
       <c r="E8">
-        <v>0.4396670775094086</v>
+        <v>0.1936870063118066</v>
       </c>
       <c r="F8">
-        <v>0.001198765020155809</v>
+        <v>0.0055473128060148</v>
       </c>
       <c r="G8">
-        <v>9.129727974844691</v>
+        <v>11.96830990301402</v>
       </c>
       <c r="H8">
-        <v>0.6047684480487319</v>
+        <v>0.9969688125146663</v>
       </c>
       <c r="I8">
-        <v>1.544074574506818E-54</v>
+        <v>9.255957477947037E-40</v>
       </c>
       <c r="J8">
-        <v>12.60000038146973</v>
+        <v>43.59999847412109</v>
       </c>
       <c r="K8">
-        <v>5.130000114440918</v>
+        <v>29.26000022888184</v>
       </c>
       <c r="L8">
-        <v>0.6130411786714625</v>
+        <v>2.460380888739891</v>
       </c>
       <c r="M8">
-        <v>-0.6808638720665137</v>
+        <v>-1.99743557101489</v>
       </c>
       <c r="N8">
-        <v>0.229618998538298</v>
+        <v>0.8242022832588776</v>
       </c>
       <c r="O8">
-        <v>0.3678101989247846</v>
+        <v>2.460380888739888</v>
       </c>
       <c r="P8">
-        <v>0.01181385339065518</v>
+        <v>0.01373154816098214</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>107</v>
+        <v>3194</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>0.3503676905639561</v>
+        <v>0.2460718312978333</v>
       </c>
       <c r="E9">
-        <v>0.7436465322388868</v>
+        <v>0.649230410729239</v>
       </c>
       <c r="F9">
-        <v>0.0009158266334743957</v>
+        <v>0.003837322744816751</v>
       </c>
       <c r="G9">
-        <v>37.82401098924533</v>
+        <v>15.30831498340328</v>
       </c>
       <c r="H9">
-        <v>6.971568687615592</v>
+        <v>1.966148485447608</v>
       </c>
       <c r="I9">
-        <v>9.009478766302292E-40</v>
+        <v>1.404639329070044E-25</v>
       </c>
       <c r="J9">
-        <v>51.79000091552734</v>
+        <v>20.67000007629395</v>
       </c>
       <c r="K9">
-        <v>2.319999933242798</v>
+        <v>3.119999885559082</v>
       </c>
       <c r="L9">
-        <v>6.22843579487526</v>
+        <v>1.153503832186701</v>
       </c>
       <c r="M9">
-        <v>-4.463931110801184</v>
+        <v>-1.25713089347353</v>
       </c>
       <c r="N9">
-        <v>2.044443056173248</v>
+        <v>0.4922889807380613</v>
       </c>
       <c r="O9">
-        <v>-2.208048963583739</v>
+        <v>-0.7726979566980301</v>
       </c>
       <c r="P9">
-        <v>0.01192366720972945</v>
+        <v>0.01375450708357733</v>
       </c>
       <c r="Q9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>907</v>
+        <v>1703</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>0.1197771702984139</v>
+        <v>0.7989168677432636</v>
       </c>
       <c r="E10">
-        <v>0.1320083027885922</v>
+        <v>0.3355777897580094</v>
       </c>
       <c r="F10">
-        <v>0.0004048223527430536</v>
+        <v>0.0007780405476434403</v>
       </c>
       <c r="G10">
-        <v>15.56425164270062</v>
+        <v>-15.08130965536388</v>
       </c>
       <c r="H10">
-        <v>2.900338956720941</v>
+        <v>0.9764085872741282</v>
       </c>
       <c r="I10">
-        <v>9.357719559142147E-39</v>
+        <v>1.939533661593286E-50</v>
       </c>
       <c r="J10">
-        <v>35.31999969482422</v>
+        <v>14.76000022888184</v>
       </c>
       <c r="K10">
-        <v>6.079999923706055</v>
+        <v>31.43000030517578</v>
       </c>
       <c r="L10">
-        <v>2.282899619044215</v>
+        <v>1.425687825555261</v>
       </c>
       <c r="M10">
-        <v>-2.681433423127672</v>
+        <v>-1.18238993959174</v>
       </c>
       <c r="N10">
-        <v>1.122450926656149</v>
+        <v>0.650187415729841</v>
       </c>
       <c r="O10">
-        <v>2.121687416538585</v>
+        <v>-0.8472123117563868</v>
       </c>
       <c r="P10">
-        <v>0.01268386911514599</v>
+        <v>0.01399145159454523</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>3194</v>
+        <v>492</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>0.218834147513275</v>
+        <v>0.5286070005718915</v>
       </c>
       <c r="E11">
-        <v>0.5917896162432608</v>
+        <v>0.2728638011474096</v>
       </c>
       <c r="F11">
-        <v>0.004232539978198861</v>
+        <v>0.004687176757463536</v>
       </c>
       <c r="G11">
-        <v>15.43628800043372</v>
+        <v>-7.94119116369209</v>
       </c>
       <c r="H11">
-        <v>1.932115968810002</v>
+        <v>0.6309002816347684</v>
       </c>
       <c r="I11">
-        <v>8.106380520108892E-25</v>
+        <v>1.85078220233735E-47</v>
       </c>
       <c r="J11">
-        <v>20.73999977111816</v>
+        <v>12.27999973297119</v>
       </c>
       <c r="K11">
-        <v>3.200000047683716</v>
+        <v>33.22000122070312</v>
       </c>
       <c r="L11">
-        <v>1.138539809654755</v>
+        <v>0.9555837133364484</v>
       </c>
       <c r="M11">
-        <v>-1.280964411540261</v>
+        <v>-1.105539726693856</v>
       </c>
       <c r="N11">
-        <v>0.4894433742035448</v>
+        <v>0.430407680981109</v>
       </c>
       <c r="O11">
-        <v>-0.8790594216380336</v>
+        <v>-0.7373172293856705</v>
       </c>
       <c r="P11">
-        <v>0.01365467263432053</v>
+        <v>0.01454684943315685</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -70,61 +70,52 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>BRKM5</t>
-  </si>
-  <si>
-    <t>ARZZ3</t>
+    <t>BBDC3</t>
   </si>
   <si>
     <t>JBSS3</t>
   </si>
   <si>
+    <t>CASH3</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
     <t>B3SA3</t>
   </si>
   <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>EGIE3</t>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
   </si>
   <si>
     <t>RAIL3</t>
   </si>
   <si>
-    <t>CSAN3</t>
-  </si>
-  <si>
-    <t>BBDC3</t>
-  </si>
-  <si>
-    <t>SUZB3</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
+    <t>RENT3</t>
   </si>
   <si>
     <t>RDOR3</t>
   </si>
   <si>
-    <t>MULT3</t>
-  </si>
-  <si>
     <t>CVCB3</t>
   </si>
   <si>
-    <t>SOMA3</t>
-  </si>
-  <si>
-    <t>SANB11</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
     <t>CPFE3</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
+  </si>
+  <si>
+    <t>CMIN3</t>
+  </si>
+  <si>
+    <t>RRRP3</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
   </si>
 </sst>
 </file>
@@ -546,55 +537,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1115</v>
+        <v>536</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.4749909128269552</v>
+        <v>0.6365170064771335</v>
       </c>
       <c r="E2">
-        <v>0.6652598264417716</v>
+        <v>0.7819187490208226</v>
       </c>
       <c r="F2">
-        <v>0.009720145123267165</v>
+        <v>0.001792440635381988</v>
       </c>
       <c r="G2">
-        <v>-11.95533562803829</v>
+        <v>2.311882951719148</v>
       </c>
       <c r="H2">
-        <v>0.5824966450826224</v>
+        <v>0.1960890052279846</v>
       </c>
       <c r="I2">
-        <v>1.893107040619812E-51</v>
+        <v>3.176138292480951E-52</v>
       </c>
       <c r="J2">
-        <v>19.70999908447266</v>
+        <v>11.94999980926514</v>
       </c>
       <c r="K2">
-        <v>52.31999969482422</v>
+        <v>47</v>
       </c>
       <c r="L2">
-        <v>3.053167484394507</v>
+        <v>1.891197671606974</v>
       </c>
       <c r="M2">
-        <v>-2.991563791890833</v>
+        <v>-0.8500116525569048</v>
       </c>
       <c r="N2">
-        <v>1.156014973552371</v>
+        <v>0.3929732298341392</v>
       </c>
       <c r="O2">
-        <v>1.189110419552009</v>
+        <v>0.4219336118307115</v>
       </c>
       <c r="P2">
-        <v>0.00970003170442962</v>
+        <v>0.01271548298746022</v>
       </c>
       <c r="Q2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -602,506 +593,506 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>123</v>
+        <v>2790</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.3467763208854334</v>
+        <v>0.1650111913737593</v>
       </c>
       <c r="E3">
-        <v>0.3259969725975798</v>
+        <v>0.5393926949089202</v>
       </c>
       <c r="F3">
-        <v>0.0002363312510146091</v>
+        <v>0.007383160260782599</v>
       </c>
       <c r="G3">
-        <v>0.9075837831908959</v>
+        <v>6.394496056504786</v>
       </c>
       <c r="H3">
-        <v>1.794589334201294</v>
+        <v>0.6339602211224389</v>
       </c>
       <c r="I3">
-        <v>1.777774562453381E-41</v>
+        <v>1.934552828694187E-36</v>
       </c>
       <c r="J3">
-        <v>51.97999954223633</v>
+        <v>24.6200008392334</v>
       </c>
       <c r="K3">
-        <v>30.45000076293945</v>
+        <v>30.6200008392334</v>
       </c>
       <c r="L3">
-        <v>6.10160044053265</v>
+        <v>1.439478565141801</v>
       </c>
       <c r="M3">
-        <v>-4.251738213537664</v>
+        <v>-1.62119869333128</v>
       </c>
       <c r="N3">
-        <v>2.012581525689127</v>
+        <v>0.6755140355399787</v>
       </c>
       <c r="O3">
-        <v>-3.572830836546956</v>
+        <v>-1.186357720081055</v>
       </c>
       <c r="P3">
-        <v>0.01008873367575392</v>
+        <v>0.01312749322443552</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2790</v>
+        <v>1136</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.1257273008931782</v>
+        <v>0.2781836888322217</v>
       </c>
       <c r="E4">
-        <v>0.1044563171499082</v>
+        <v>0.8077862101348385</v>
       </c>
       <c r="F4">
-        <v>0.002637265573877756</v>
+        <v>0.002328442676937266</v>
       </c>
       <c r="G4">
-        <v>4.643908637873135</v>
+        <v>3.184497682137217</v>
       </c>
       <c r="H4">
-        <v>0.7007789824384906</v>
+        <v>0.6274788708355838</v>
       </c>
       <c r="I4">
-        <v>1.068905997947262E-38</v>
+        <v>7.500300046344241E-37</v>
       </c>
       <c r="J4">
-        <v>24.46999931335449</v>
+        <v>4.880000114440918</v>
       </c>
       <c r="K4">
-        <v>29.52000045776367</v>
+        <v>2.25</v>
       </c>
       <c r="L4">
-        <v>1.588420320908494</v>
+        <v>0.6042592064524941</v>
       </c>
       <c r="M4">
-        <v>-1.805263255915488</v>
+        <v>-0.4094142426550276</v>
       </c>
       <c r="N4">
-        <v>0.6967114746660229</v>
+        <v>0.2025846659854703</v>
       </c>
       <c r="O4">
-        <v>-0.8609052068940457</v>
+        <v>0.2836749729236374</v>
       </c>
       <c r="P4">
-        <v>0.01116920065808688</v>
+        <v>0.01312807726451702</v>
       </c>
       <c r="Q4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" t="s">
         <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>372</v>
+        <v>492</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.4635641740351788</v>
+        <v>0.6365170064771335</v>
       </c>
       <c r="E5">
-        <v>0.5787893669572078</v>
+        <v>0.3062951404675578</v>
       </c>
       <c r="F5">
-        <v>0.00118153131321904</v>
+        <v>0.0031820994570353</v>
       </c>
       <c r="G5">
-        <v>-4.396844346426652</v>
+        <v>-8.951568466241822</v>
       </c>
       <c r="H5">
-        <v>0.6492923252689839</v>
+        <v>0.6603839142357771</v>
       </c>
       <c r="I5">
-        <v>2.742226314092667E-70</v>
+        <v>1.595782808686781E-47</v>
       </c>
       <c r="J5">
-        <v>11.67000007629395</v>
+        <v>11.94999980926514</v>
       </c>
       <c r="K5">
-        <v>23.95999908447266</v>
+        <v>32.43999862670898</v>
       </c>
       <c r="L5">
-        <v>0.5736362162288344</v>
+        <v>0.9637632568767547</v>
       </c>
       <c r="M5">
-        <v>-0.718436335839268</v>
+        <v>-1.086642921393155</v>
       </c>
       <c r="N5">
-        <v>0.2925657536026064</v>
+        <v>0.4267642732539614</v>
       </c>
       <c r="O5">
-        <v>0.5098009037206186</v>
+        <v>-0.521284995402354</v>
       </c>
       <c r="P5">
-        <v>0.01198648790438625</v>
+        <v>0.01374241701993724</v>
       </c>
       <c r="Q5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>107</v>
+        <v>1192</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.3467763208854334</v>
+        <v>0.2781836888322217</v>
       </c>
       <c r="E6">
-        <v>0.7224220477661132</v>
+        <v>0.7984301062199597</v>
       </c>
       <c r="F6">
-        <v>0.0009481095549939222</v>
+        <v>0.003051991441180054</v>
       </c>
       <c r="G6">
-        <v>37.6462382187447</v>
+        <v>2.451424881798475</v>
       </c>
       <c r="H6">
-        <v>7.023498792458097</v>
+        <v>0.1414428885401346</v>
       </c>
       <c r="I6">
-        <v>1.6550337556082E-40</v>
+        <v>3.487179854798313E-36</v>
       </c>
       <c r="J6">
-        <v>51.97999954223633</v>
+        <v>4.880000114440918</v>
       </c>
       <c r="K6">
-        <v>2.369999885559082</v>
+        <v>15.60999965667725</v>
       </c>
       <c r="L6">
-        <v>6.255611256380185</v>
+        <v>0.5611282691822304</v>
       </c>
       <c r="M6">
-        <v>-4.468952308355682</v>
+        <v>-0.5583230430133046</v>
       </c>
       <c r="N6">
-        <v>2.046799257438539</v>
+        <v>0.2049676379866299</v>
       </c>
       <c r="O6">
-        <v>-2.311930010858411</v>
+        <v>0.220651791091504</v>
       </c>
       <c r="P6">
-        <v>0.01203693455050077</v>
+        <v>0.0138510870322981</v>
       </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="R6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>907</v>
+        <v>567</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.1214774943912167</v>
+        <v>0.5365348524438609</v>
       </c>
       <c r="E7">
-        <v>0.1320656545923724</v>
+        <v>0.3062951404675578</v>
       </c>
       <c r="F7">
-        <v>0.0002486145237154945</v>
+        <v>0.003235783667260797</v>
       </c>
       <c r="G7">
-        <v>15.69646094261119</v>
+        <v>-8.856376582515249</v>
       </c>
       <c r="H7">
-        <v>2.882376192446431</v>
+        <v>0.7057302564222981</v>
       </c>
       <c r="I7">
-        <v>9.741946996658233E-39</v>
+        <v>4.918466644421197E-40</v>
       </c>
       <c r="J7">
-        <v>34.61000061035156</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="K7">
-        <v>6.090000152587891</v>
+        <v>32.43999862670898</v>
       </c>
       <c r="L7">
-        <v>2.257928018083732</v>
+        <v>1.399647231719531</v>
       </c>
       <c r="M7">
-        <v>-2.690058902773941</v>
+        <v>-1.500877554641306</v>
       </c>
       <c r="N7">
-        <v>1.124511328059356</v>
+        <v>0.5408745913685742</v>
       </c>
       <c r="O7">
-        <v>1.359868215925907</v>
+        <v>-0.6675120810919992</v>
       </c>
       <c r="P7">
-        <v>0.01253475947092459</v>
+        <v>0.01387737435898436</v>
       </c>
       <c r="Q7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2010</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.5768487055564022</v>
+        <v>0.7288079068503154</v>
       </c>
       <c r="E8">
-        <v>0.1936870063118066</v>
+        <v>0.6438235110801924</v>
       </c>
       <c r="F8">
-        <v>0.0055473128060148</v>
+        <v>0.001691036401732018</v>
       </c>
       <c r="G8">
-        <v>11.96830990301402</v>
+        <v>6.254900599545424</v>
       </c>
       <c r="H8">
-        <v>0.9969688125146663</v>
+        <v>1.032533087283421</v>
       </c>
       <c r="I8">
-        <v>9.255957477947037E-40</v>
+        <v>1.700460355716663E-56</v>
       </c>
       <c r="J8">
-        <v>43.59999847412109</v>
+        <v>10.9399995803833</v>
       </c>
       <c r="K8">
-        <v>29.26000022888184</v>
+        <v>5.070000171661377</v>
       </c>
       <c r="L8">
-        <v>2.460380888739891</v>
+        <v>1.022995629900354</v>
       </c>
       <c r="M8">
-        <v>-1.99743557101489</v>
+        <v>-0.8320155740614155</v>
       </c>
       <c r="N8">
-        <v>0.8242022832588776</v>
+        <v>0.369970773593312</v>
       </c>
       <c r="O8">
-        <v>2.460380888739888</v>
+        <v>-0.5498439489351208</v>
       </c>
       <c r="P8">
-        <v>0.01373154816098214</v>
+        <v>0.013914121485244</v>
       </c>
       <c r="Q8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>3194</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.2460718312978333</v>
+        <v>0.441705210187398</v>
       </c>
       <c r="E9">
-        <v>0.649230410729239</v>
+        <v>0.4801178824593225</v>
       </c>
       <c r="F9">
-        <v>0.003837322744816751</v>
+        <v>0.006831613499231879</v>
       </c>
       <c r="G9">
-        <v>15.30831498340328</v>
+        <v>17.85719417826239</v>
       </c>
       <c r="H9">
-        <v>1.966148485447608</v>
+        <v>-0.1674876457710472</v>
       </c>
       <c r="I9">
-        <v>1.404639329070044E-25</v>
+        <v>1.039873425510647E-30</v>
       </c>
       <c r="J9">
-        <v>20.67000007629395</v>
+        <v>12.03999996185303</v>
       </c>
       <c r="K9">
-        <v>3.119999885559082</v>
+        <v>30.20999908447266</v>
       </c>
       <c r="L9">
-        <v>1.153503832186701</v>
+        <v>0.6042449131926801</v>
       </c>
       <c r="M9">
-        <v>-1.25713089347353</v>
+        <v>-0.8750136545156213</v>
       </c>
       <c r="N9">
-        <v>0.4922889807380613</v>
+        <v>0.3440037149903738</v>
       </c>
       <c r="O9">
-        <v>-0.7726979566980301</v>
+        <v>-0.757392591005547</v>
       </c>
       <c r="P9">
-        <v>0.01375450708357733</v>
+        <v>0.01464834073493769</v>
       </c>
       <c r="Q9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1703</v>
+        <v>2922</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.7989168677432636</v>
+        <v>0.1452134052582874</v>
       </c>
       <c r="E10">
-        <v>0.3355777897580094</v>
+        <v>0.4801178824593225</v>
       </c>
       <c r="F10">
-        <v>0.0007780405476434403</v>
+        <v>0.006334196441253691</v>
       </c>
       <c r="G10">
-        <v>-15.08130965536388</v>
+        <v>3.73302715721004</v>
       </c>
       <c r="H10">
-        <v>0.9764085872741282</v>
+        <v>-0.06274987510465753</v>
       </c>
       <c r="I10">
-        <v>1.939533661593286E-50</v>
+        <v>9.41037973671944E-21</v>
       </c>
       <c r="J10">
-        <v>14.76000022888184</v>
+        <v>1.539999961853027</v>
       </c>
       <c r="K10">
-        <v>31.43000030517578</v>
+        <v>30.20999908447266</v>
       </c>
       <c r="L10">
-        <v>1.425687825555261</v>
+        <v>0.4431194672406509</v>
       </c>
       <c r="M10">
-        <v>-1.18238993959174</v>
+        <v>-0.4898938218642179</v>
       </c>
       <c r="N10">
-        <v>0.650187415729841</v>
+        <v>0.1754716714065102</v>
       </c>
       <c r="O10">
-        <v>-0.8472123117563868</v>
+        <v>-0.2973535258945352</v>
       </c>
       <c r="P10">
-        <v>0.01399145159454523</v>
+        <v>0.01568916820283471</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>492</v>
+        <v>3212</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.5286070005718915</v>
+        <v>0.2165352210401799</v>
       </c>
       <c r="E11">
-        <v>0.2728638011474096</v>
+        <v>0.7208860975395859</v>
       </c>
       <c r="F11">
-        <v>0.004687176757463536</v>
+        <v>0.00810875413497591</v>
       </c>
       <c r="G11">
-        <v>-7.94119116369209</v>
+        <v>29.69903794566671</v>
       </c>
       <c r="H11">
-        <v>0.6309002816347684</v>
+        <v>-0.2065856913277039</v>
       </c>
       <c r="I11">
-        <v>1.85078220233735E-47</v>
+        <v>1.623404738212762E-16</v>
       </c>
       <c r="J11">
-        <v>12.27999973297119</v>
+        <v>20.97999954223633</v>
       </c>
       <c r="K11">
-        <v>33.22000122070312</v>
+        <v>38.97000122070312</v>
       </c>
       <c r="L11">
-        <v>0.9555837133364484</v>
+        <v>1.479830149801259</v>
       </c>
       <c r="M11">
-        <v>-1.105539726693856</v>
+        <v>-1.460975668372889</v>
       </c>
       <c r="N11">
-        <v>0.430407680981109</v>
+        <v>0.5968283038984514</v>
       </c>
       <c r="O11">
-        <v>-0.7373172293856705</v>
+        <v>-0.6683937602099608</v>
       </c>
       <c r="P11">
-        <v>0.01454684943315685</v>
+        <v>0.01570784477586207</v>
       </c>
       <c r="Q11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -68,6 +68,57 @@
   </si>
   <si>
     <t>acaoVende</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>EZTC3</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>CSAN3</t>
+  </si>
+  <si>
+    <t>KLBN11</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>BRFS3</t>
+  </si>
+  <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>PCAR3</t>
+  </si>
+  <si>
+    <t>PETR4</t>
+  </si>
+  <si>
+    <t>RRRP3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
   </si>
 </sst>
 </file>
@@ -425,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,6 +538,566 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:18">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>0.5857037817340043</v>
+      </c>
+      <c r="E2">
+        <v>0.8436413105639698</v>
+      </c>
+      <c r="F2">
+        <v>5.205305592395341E-05</v>
+      </c>
+      <c r="G2">
+        <v>9.815967927397235</v>
+      </c>
+      <c r="H2">
+        <v>1.117062507928293</v>
+      </c>
+      <c r="I2">
+        <v>2.744386313612979E-50</v>
+      </c>
+      <c r="J2">
+        <v>12.38000011444092</v>
+      </c>
+      <c r="K2">
+        <v>2.069999933242798</v>
+      </c>
+      <c r="L2">
+        <v>0.8078637687687351</v>
+      </c>
+      <c r="M2">
+        <v>-0.7285412482375335</v>
+      </c>
+      <c r="N2">
+        <v>0.2440649807034319</v>
+      </c>
+      <c r="O2">
+        <v>0.2517128702040834</v>
+      </c>
+      <c r="P2">
+        <v>0.01037755377428545</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>2328</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>0.5064759786250416</v>
+      </c>
+      <c r="E3">
+        <v>0.5724968074379667</v>
+      </c>
+      <c r="F3">
+        <v>0.0003113790744306021</v>
+      </c>
+      <c r="G3">
+        <v>-5.834426464514655</v>
+      </c>
+      <c r="H3">
+        <v>0.6759260225352836</v>
+      </c>
+      <c r="I3">
+        <v>9.430343839119707E-48</v>
+      </c>
+      <c r="J3">
+        <v>13.94999980926514</v>
+      </c>
+      <c r="K3">
+        <v>30.28000068664551</v>
+      </c>
+      <c r="L3">
+        <v>2.075593280552503</v>
+      </c>
+      <c r="M3">
+        <v>-1.585166682060837</v>
+      </c>
+      <c r="N3">
+        <v>0.6758433370261423</v>
+      </c>
+      <c r="O3">
+        <v>-0.6826141527101584</v>
+      </c>
+      <c r="P3">
+        <v>0.01064527441924691</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>2623</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>0.5724968074379667</v>
+      </c>
+      <c r="E4">
+        <v>0.9445523890755401</v>
+      </c>
+      <c r="F4">
+        <v>0.0003462181811094266</v>
+      </c>
+      <c r="G4">
+        <v>19.13203530612405</v>
+      </c>
+      <c r="H4">
+        <v>0.7118088817031993</v>
+      </c>
+      <c r="I4">
+        <v>7.765006396809152E-40</v>
+      </c>
+      <c r="J4">
+        <v>30.28000068664551</v>
+      </c>
+      <c r="K4">
+        <v>13.10000038146973</v>
+      </c>
+      <c r="L4">
+        <v>2.676814141268338</v>
+      </c>
+      <c r="M4">
+        <v>-2.554807712582601</v>
+      </c>
+      <c r="N4">
+        <v>1.022803156509328</v>
+      </c>
+      <c r="O4">
+        <v>1.823268758676011</v>
+      </c>
+      <c r="P4">
+        <v>0.01113681052691451</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>743</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>0.1732701542806638</v>
+      </c>
+      <c r="E5">
+        <v>0.5202868287094358</v>
+      </c>
+      <c r="F5">
+        <v>0.0003175845766263341</v>
+      </c>
+      <c r="G5">
+        <v>2.611616057729118</v>
+      </c>
+      <c r="H5">
+        <v>0.7522085282234469</v>
+      </c>
+      <c r="I5">
+        <v>4.342253981952328E-32</v>
+      </c>
+      <c r="J5">
+        <v>6.789999961853027</v>
+      </c>
+      <c r="K5">
+        <v>4.639999866485596</v>
+      </c>
+      <c r="L5">
+        <v>0.8663696773549905</v>
+      </c>
+      <c r="M5">
+        <v>-0.7637143580553971</v>
+      </c>
+      <c r="N5">
+        <v>0.2715469894750184</v>
+      </c>
+      <c r="O5">
+        <v>0.6881364335977902</v>
+      </c>
+      <c r="P5">
+        <v>0.01147370327637253</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>372</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>0.4072121622450147</v>
+      </c>
+      <c r="E6">
+        <v>0.5510635263279513</v>
+      </c>
+      <c r="F6">
+        <v>0.0005551686016062571</v>
+      </c>
+      <c r="G6">
+        <v>-3.745518673762567</v>
+      </c>
+      <c r="H6">
+        <v>0.6254521740075769</v>
+      </c>
+      <c r="I6">
+        <v>4.153093266719385E-72</v>
+      </c>
+      <c r="J6">
+        <v>11.57999992370605</v>
+      </c>
+      <c r="K6">
+        <v>24.02000045776367</v>
+      </c>
+      <c r="L6">
+        <v>0.598232348928164</v>
+      </c>
+      <c r="M6">
+        <v>-0.7092183274230237</v>
+      </c>
+      <c r="N6">
+        <v>0.2864840308484231</v>
+      </c>
+      <c r="O6">
+        <v>0.3021570914973424</v>
+      </c>
+      <c r="P6">
+        <v>0.01148487812316177</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>1703</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>0.846827601729345</v>
+      </c>
+      <c r="E7">
+        <v>0.3606826066283185</v>
+      </c>
+      <c r="F7">
+        <v>0.000501663321113199</v>
+      </c>
+      <c r="G7">
+        <v>-16.69436377882571</v>
+      </c>
+      <c r="H7">
+        <v>1.023703648408538</v>
+      </c>
+      <c r="I7">
+        <v>2.856081173844926E-53</v>
+      </c>
+      <c r="J7">
+        <v>14.51000022888184</v>
+      </c>
+      <c r="K7">
+        <v>31.29000091552734</v>
+      </c>
+      <c r="L7">
+        <v>1.459882471022368</v>
+      </c>
+      <c r="M7">
+        <v>-1.223485432998849</v>
+      </c>
+      <c r="N7">
+        <v>0.6581231866645655</v>
+      </c>
+      <c r="O7">
+        <v>-0.8273240882242945</v>
+      </c>
+      <c r="P7">
+        <v>0.01330933056885048</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>2816</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>0.5349776386876486</v>
+      </c>
+      <c r="E8">
+        <v>0.4438650382497611</v>
+      </c>
+      <c r="F8">
+        <v>0.0005106297595056598</v>
+      </c>
+      <c r="G8">
+        <v>26.49172791881433</v>
+      </c>
+      <c r="H8">
+        <v>-1.742666807983113</v>
+      </c>
+      <c r="I8">
+        <v>1.122387980776539E-33</v>
+      </c>
+      <c r="J8">
+        <v>21.81999969482422</v>
+      </c>
+      <c r="K8">
+        <v>3.089999914169312</v>
+      </c>
+      <c r="L8">
+        <v>2.378195629157872</v>
+      </c>
+      <c r="M8">
+        <v>-2.103929083412158</v>
+      </c>
+      <c r="N8">
+        <v>0.692496699392211</v>
+      </c>
+      <c r="O8">
+        <v>0.7131120631034111</v>
+      </c>
+      <c r="P8">
+        <v>0.01342467290356728</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>2883</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>0.5202868287094358</v>
+      </c>
+      <c r="E9">
+        <v>0.3776071843770726</v>
+      </c>
+      <c r="F9">
+        <v>0.002668732280121592</v>
+      </c>
+      <c r="G9">
+        <v>10.38731919019301</v>
+      </c>
+      <c r="H9">
+        <v>-0.1324055676679001</v>
+      </c>
+      <c r="I9">
+        <v>4.675637380601313E-28</v>
+      </c>
+      <c r="J9">
+        <v>4.639999866485596</v>
+      </c>
+      <c r="K9">
+        <v>37.27999877929688</v>
+      </c>
+      <c r="L9">
+        <v>0.5832591903192306</v>
+      </c>
+      <c r="M9">
+        <v>-0.8181354059151937</v>
+      </c>
+      <c r="N9">
+        <v>0.3119183264445409</v>
+      </c>
+      <c r="O9">
+        <v>-0.8112399226759894</v>
+      </c>
+      <c r="P9">
+        <v>0.01368483816085395</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>0.5857037817340043</v>
+      </c>
+      <c r="E10">
+        <v>0.448689810074096</v>
+      </c>
+      <c r="F10">
+        <v>0.001772999834174145</v>
+      </c>
+      <c r="G10">
+        <v>17.75754624478535</v>
+      </c>
+      <c r="H10">
+        <v>-0.164465053337353</v>
+      </c>
+      <c r="I10">
+        <v>1.779699233055436E-29</v>
+      </c>
+      <c r="J10">
+        <v>12.38000011444092</v>
+      </c>
+      <c r="K10">
+        <v>29.39999961853027</v>
+      </c>
+      <c r="L10">
+        <v>0.6190475826022137</v>
+      </c>
+      <c r="M10">
+        <v>-0.8698606435048202</v>
+      </c>
+      <c r="N10">
+        <v>0.349577671490328</v>
+      </c>
+      <c r="O10">
+        <v>-0.5422736249646904</v>
+      </c>
+      <c r="P10">
+        <v>0.01412552281088334</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>1038</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>0.6630013004429969</v>
+      </c>
+      <c r="E11">
+        <v>0.757323292920945</v>
+      </c>
+      <c r="F11">
+        <v>0.00255681627428025</v>
+      </c>
+      <c r="G11">
+        <v>31.52034523791286</v>
+      </c>
+      <c r="H11">
+        <v>-4.664858957093638</v>
+      </c>
+      <c r="I11">
+        <v>1.752782782998523E-27</v>
+      </c>
+      <c r="J11">
+        <v>19.14999961853027</v>
+      </c>
+      <c r="K11">
+        <v>3.019999980926514</v>
+      </c>
+      <c r="L11">
+        <v>2.062148436720285</v>
+      </c>
+      <c r="M11">
+        <v>-5.009150864782267</v>
+      </c>
+      <c r="N11">
+        <v>1.19306257648336</v>
+      </c>
+      <c r="O11">
+        <v>1.71752834206508</v>
+      </c>
+      <c r="P11">
+        <v>0.01436193461294615</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -79,46 +79,46 @@
     <t>HYPE3</t>
   </si>
   <si>
-    <t>BEEF3</t>
+    <t>BRFS3</t>
+  </si>
+  <si>
+    <t>SANB11</t>
+  </si>
+  <si>
+    <t>ARZZ3</t>
+  </si>
+  <si>
+    <t>BHIA3</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>BBSE3</t>
   </si>
   <si>
     <t>B3SA3</t>
   </si>
   <si>
+    <t>YDUQ3</t>
+  </si>
+  <si>
+    <t>COGN3</t>
+  </si>
+  <si>
     <t>CSAN3</t>
   </si>
   <si>
-    <t>KLBN11</t>
-  </si>
-  <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>PCAR3</t>
-  </si>
-  <si>
-    <t>PETR4</t>
-  </si>
-  <si>
-    <t>RRRP3</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
+    <t>VALE3</t>
+  </si>
+  <si>
+    <t>CIEL3</t>
+  </si>
+  <si>
+    <t>TOTS3</t>
+  </si>
+  <si>
+    <t>IRBR3</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -549,43 +549,43 @@
         <v>27</v>
       </c>
       <c r="D2">
-        <v>0.5857037817340043</v>
+        <v>0.7595272748280372</v>
       </c>
       <c r="E2">
-        <v>0.8436413105639698</v>
+        <v>0.7128922983827416</v>
       </c>
       <c r="F2">
-        <v>5.205305592395341E-05</v>
+        <v>4.100563695790659E-08</v>
       </c>
       <c r="G2">
-        <v>9.815967927397235</v>
+        <v>5.861298785837565</v>
       </c>
       <c r="H2">
-        <v>1.117062507928293</v>
+        <v>0.5546195264826199</v>
       </c>
       <c r="I2">
-        <v>2.744386313612979E-50</v>
+        <v>1.493293643441419E-65</v>
       </c>
       <c r="J2">
         <v>12.38000011444092</v>
       </c>
       <c r="K2">
-        <v>2.069999933242798</v>
+        <v>11.42000007629395</v>
       </c>
       <c r="L2">
-        <v>0.8078637687687351</v>
+        <v>0.6423413190630711</v>
       </c>
       <c r="M2">
-        <v>-0.7285412482375335</v>
+        <v>-0.4496035760887569</v>
       </c>
       <c r="N2">
-        <v>0.2440649807034319</v>
+        <v>0.1819904924072543</v>
       </c>
       <c r="O2">
-        <v>0.2517128702040834</v>
+        <v>0.1849462938577213</v>
       </c>
       <c r="P2">
-        <v>0.01037755377428545</v>
+        <v>0.005895355806430233</v>
       </c>
       <c r="Q2" t="s">
         <v>27</v>
@@ -605,43 +605,43 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>0.5064759786250416</v>
+        <v>0.7045149546746883</v>
       </c>
       <c r="E3">
-        <v>0.5724968074379667</v>
+        <v>0.7214607134997726</v>
       </c>
       <c r="F3">
-        <v>0.0003113790744306021</v>
+        <v>0.0005417999958209987</v>
       </c>
       <c r="G3">
-        <v>-5.834426464514655</v>
+        <v>-5.924651478266712</v>
       </c>
       <c r="H3">
-        <v>0.6759260225352836</v>
+        <v>0.6785544475640058</v>
       </c>
       <c r="I3">
-        <v>9.430343839119707E-48</v>
+        <v>3.836267292628031E-46</v>
       </c>
       <c r="J3">
-        <v>13.94999980926514</v>
+        <v>13.64999961853027</v>
       </c>
       <c r="K3">
-        <v>30.28000068664551</v>
+        <v>30.32999992370605</v>
       </c>
       <c r="L3">
-        <v>2.075593280552503</v>
+        <v>2.079193583371698</v>
       </c>
       <c r="M3">
-        <v>-1.585166682060837</v>
+        <v>-1.58930003756754</v>
       </c>
       <c r="N3">
-        <v>0.6758433370261423</v>
+        <v>0.6858907120663412</v>
       </c>
       <c r="O3">
-        <v>-0.6826141527101584</v>
+        <v>-1.005905246049718</v>
       </c>
       <c r="P3">
-        <v>0.01064527441924691</v>
+        <v>0.01096350718194109</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -661,43 +661,43 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>0.5724968074379667</v>
+        <v>0.7214607134997726</v>
       </c>
       <c r="E4">
-        <v>0.9445523890755401</v>
+        <v>0.9575722728343085</v>
       </c>
       <c r="F4">
-        <v>0.0003462181811094266</v>
+        <v>0.0004222111747554058</v>
       </c>
       <c r="G4">
-        <v>19.13203530612405</v>
+        <v>19.61469425577437</v>
       </c>
       <c r="H4">
-        <v>0.7118088817031993</v>
+        <v>0.6889774270470974</v>
       </c>
       <c r="I4">
-        <v>7.765006396809152E-40</v>
+        <v>9.413436312433836E-40</v>
       </c>
       <c r="J4">
-        <v>30.28000068664551</v>
+        <v>30.32999992370605</v>
       </c>
       <c r="K4">
-        <v>13.10000038146973</v>
+        <v>12.89999961853027</v>
       </c>
       <c r="L4">
-        <v>2.676814141268338</v>
+        <v>2.647894887720767</v>
       </c>
       <c r="M4">
-        <v>-2.554807712582601</v>
+        <v>-2.69834225499002</v>
       </c>
       <c r="N4">
-        <v>1.022803156509328</v>
+        <v>1.004556612263819</v>
       </c>
       <c r="O4">
-        <v>1.823268758676011</v>
+        <v>1.827497121848154</v>
       </c>
       <c r="P4">
-        <v>0.01113681052691451</v>
+        <v>0.01097827900072342</v>
       </c>
       <c r="Q4" t="s">
         <v>28</v>
@@ -708,343 +708,343 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>743</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.1732701542806638</v>
+        <v>0.7595272748280372</v>
       </c>
       <c r="E5">
-        <v>0.5202868287094358</v>
+        <v>0.8903079596497776</v>
       </c>
       <c r="F5">
-        <v>0.0003175845766263341</v>
+        <v>0.0008480376865120273</v>
       </c>
       <c r="G5">
-        <v>2.611616057729118</v>
+        <v>9.884855218512989</v>
       </c>
       <c r="H5">
-        <v>0.7522085282234469</v>
+        <v>1.09600222308765</v>
       </c>
       <c r="I5">
-        <v>4.342253981952328E-32</v>
+        <v>1.134262237867608E-50</v>
       </c>
       <c r="J5">
-        <v>6.789999961853027</v>
+        <v>12.38000011444092</v>
       </c>
       <c r="K5">
-        <v>4.639999866485596</v>
+        <v>2.039999961853027</v>
       </c>
       <c r="L5">
-        <v>0.8663696773549905</v>
+        <v>0.7922589976972674</v>
       </c>
       <c r="M5">
-        <v>-0.7637143580553971</v>
+        <v>-0.6759990404860847</v>
       </c>
       <c r="N5">
-        <v>0.2715469894750184</v>
+        <v>0.236320697320042</v>
       </c>
       <c r="O5">
-        <v>0.6881364335977902</v>
+        <v>0.2593004026382899</v>
       </c>
       <c r="P5">
-        <v>0.01147370327637253</v>
+        <v>0.01166926420657423</v>
       </c>
       <c r="Q5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>372</v>
+        <v>999</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.4072121622450147</v>
+        <v>0.8748876694798218</v>
       </c>
       <c r="E6">
-        <v>0.5510635263279513</v>
+        <v>0.9432212933451576</v>
       </c>
       <c r="F6">
-        <v>0.0005551686016062571</v>
+        <v>0.006118949391681491</v>
       </c>
       <c r="G6">
-        <v>-3.745518673762567</v>
+        <v>30.95025344681423</v>
       </c>
       <c r="H6">
-        <v>0.6254521740075769</v>
+        <v>-0.9300339469249684</v>
       </c>
       <c r="I6">
-        <v>4.153093266719385E-72</v>
+        <v>1.298195495645512E-36</v>
       </c>
       <c r="J6">
-        <v>11.57999992370605</v>
+        <v>19.36000061035156</v>
       </c>
       <c r="K6">
-        <v>24.02000045776367</v>
+        <v>14.32999992370605</v>
       </c>
       <c r="L6">
-        <v>0.598232348928164</v>
+        <v>1.749710008891299</v>
       </c>
       <c r="M6">
-        <v>-0.7092183274230237</v>
+        <v>-3.641570354568669</v>
       </c>
       <c r="N6">
-        <v>0.2864840308484231</v>
+        <v>0.9746700893951897</v>
       </c>
       <c r="O6">
-        <v>0.3021570914973424</v>
+        <v>1.737133552016175</v>
       </c>
       <c r="P6">
-        <v>0.01148487812316177</v>
+        <v>0.0123593826398489</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1703</v>
+        <v>3294</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>0.846827601729345</v>
+        <v>0.2898332087257849</v>
       </c>
       <c r="E7">
-        <v>0.3606826066283185</v>
+        <v>0.624184417752121</v>
       </c>
       <c r="F7">
-        <v>0.000501663321113199</v>
+        <v>0.0004047217815574514</v>
       </c>
       <c r="G7">
-        <v>-16.69436377882571</v>
+        <v>11.16140500443125</v>
       </c>
       <c r="H7">
-        <v>1.023703648408538</v>
+        <v>0.268103728809475</v>
       </c>
       <c r="I7">
-        <v>2.856081173844926E-53</v>
+        <v>1.046598536298762E-36</v>
       </c>
       <c r="J7">
-        <v>14.51000022888184</v>
+        <v>27.70000076293945</v>
       </c>
       <c r="K7">
-        <v>31.29000091552734</v>
+        <v>66.18000030517578</v>
       </c>
       <c r="L7">
-        <v>1.459882471022368</v>
+        <v>1.321405980213093</v>
       </c>
       <c r="M7">
-        <v>-1.223485432998849</v>
+        <v>-2.344180873067511</v>
       </c>
       <c r="N7">
-        <v>0.6581231866645655</v>
+        <v>0.6765400306978594</v>
       </c>
       <c r="O7">
-        <v>-0.8273240882242945</v>
+        <v>-1.204509095921622</v>
       </c>
       <c r="P7">
-        <v>0.01330933056885048</v>
+        <v>0.01280842050029687</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2816</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>0.5349776386876486</v>
+        <v>0.6243902534937392</v>
       </c>
       <c r="E8">
-        <v>0.4438650382497611</v>
+        <v>0.7214607134997726</v>
       </c>
       <c r="F8">
-        <v>0.0005106297595056598</v>
+        <v>0.003622115136716983</v>
       </c>
       <c r="G8">
-        <v>26.49172791881433</v>
+        <v>-8.194734568933601</v>
       </c>
       <c r="H8">
-        <v>-1.742666807983113</v>
+        <v>2.062458522367568</v>
       </c>
       <c r="I8">
-        <v>1.122387980776539E-33</v>
+        <v>8.125034792625497E-39</v>
       </c>
       <c r="J8">
-        <v>21.81999969482422</v>
+        <v>49.09000015258789</v>
       </c>
       <c r="K8">
-        <v>3.089999914169312</v>
+        <v>30.32999992370605</v>
       </c>
       <c r="L8">
-        <v>2.378195629157872</v>
+        <v>6.876308659273235</v>
       </c>
       <c r="M8">
-        <v>-2.103929083412158</v>
+        <v>-7.715252007786219</v>
       </c>
       <c r="N8">
-        <v>0.692496699392211</v>
+        <v>2.468997995671935</v>
       </c>
       <c r="O8">
-        <v>0.7131120631034111</v>
+        <v>-5.269632104533741</v>
       </c>
       <c r="P8">
-        <v>0.01342467290356728</v>
+        <v>0.0136903760257393</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2883</v>
+        <v>782</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
       </c>
       <c r="D9">
-        <v>0.5202868287094358</v>
+        <v>0.4660396825669833</v>
       </c>
       <c r="E9">
-        <v>0.3776071843770726</v>
+        <v>0.4108974554258022</v>
       </c>
       <c r="F9">
-        <v>0.002668732280121592</v>
+        <v>0.003117962075899576</v>
       </c>
       <c r="G9">
-        <v>10.38731919019301</v>
+        <v>26.92436124859959</v>
       </c>
       <c r="H9">
-        <v>-0.1324055676679001</v>
+        <v>-3.648941449103776</v>
       </c>
       <c r="I9">
-        <v>4.675637380601313E-28</v>
+        <v>1.949344787175072E-55</v>
       </c>
       <c r="J9">
-        <v>4.639999866485596</v>
+        <v>7.78000020980835</v>
       </c>
       <c r="K9">
-        <v>37.27999877929688</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="L9">
-        <v>0.5832591903192306</v>
+        <v>2.337462582155135</v>
       </c>
       <c r="M9">
-        <v>-0.8181354059151937</v>
+        <v>-2.561709451382793</v>
       </c>
       <c r="N9">
-        <v>0.3119183264445409</v>
+        <v>1.002246485572615</v>
       </c>
       <c r="O9">
-        <v>-0.8112399226759894</v>
+        <v>1.216731968815694</v>
       </c>
       <c r="P9">
-        <v>0.01368483816085395</v>
+        <v>0.01376969649873349</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>66</v>
+        <v>1380</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10">
-        <v>0.5857037817340043</v>
+        <v>0.8230280776715124</v>
       </c>
       <c r="E10">
-        <v>0.448689810074096</v>
+        <v>0.4384522939524907</v>
       </c>
       <c r="F10">
-        <v>0.001772999834174145</v>
+        <v>0.001961520843728756</v>
       </c>
       <c r="G10">
-        <v>17.75754624478535</v>
+        <v>18.89868459563712</v>
       </c>
       <c r="H10">
-        <v>-0.164465053337353</v>
+        <v>-0.3309602845583646</v>
       </c>
       <c r="I10">
-        <v>1.779699233055436E-29</v>
+        <v>2.560966792872992E-35</v>
       </c>
       <c r="J10">
-        <v>12.38000011444092</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="K10">
-        <v>29.39999961853027</v>
+        <v>28.70999908447266</v>
       </c>
       <c r="L10">
-        <v>0.6190475826022137</v>
+        <v>1.136172942164741</v>
       </c>
       <c r="M10">
-        <v>-0.8698606435048202</v>
+        <v>-1.331259996304055</v>
       </c>
       <c r="N10">
-        <v>0.349577671490328</v>
+        <v>0.47133668879295</v>
       </c>
       <c r="O10">
-        <v>-0.5422736249646904</v>
+        <v>0.9931852143530868</v>
       </c>
       <c r="P10">
-        <v>0.01412552281088334</v>
+        <v>0.01406641900830708</v>
       </c>
       <c r="Q10" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1038</v>
+        <v>664</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1053,43 +1053,43 @@
         <v>34</v>
       </c>
       <c r="D11">
-        <v>0.6630013004429969</v>
+        <v>0.4872916779245952</v>
       </c>
       <c r="E11">
-        <v>0.757323292920945</v>
+        <v>0.5218206708182963</v>
       </c>
       <c r="F11">
-        <v>0.00255681627428025</v>
+        <v>0.001315523150804846</v>
       </c>
       <c r="G11">
-        <v>31.52034523791286</v>
+        <v>41.63919691818328</v>
       </c>
       <c r="H11">
-        <v>-4.664858957093638</v>
+        <v>-0.2216986988247932</v>
       </c>
       <c r="I11">
-        <v>1.752782782998523E-27</v>
+        <v>8.528320886621358E-28</v>
       </c>
       <c r="J11">
-        <v>19.14999961853027</v>
+        <v>34.16999816894531</v>
       </c>
       <c r="K11">
-        <v>3.019999980926514</v>
+        <v>37.41999816894531</v>
       </c>
       <c r="L11">
-        <v>2.062148436720285</v>
+        <v>2.261727489022824</v>
       </c>
       <c r="M11">
-        <v>-5.009150864782267</v>
+        <v>-1.97221021803108</v>
       </c>
       <c r="N11">
-        <v>1.19306257648336</v>
+        <v>0.7316986135326463</v>
       </c>
       <c r="O11">
-        <v>1.71752834206508</v>
+        <v>0.8267661548433534</v>
       </c>
       <c r="P11">
-        <v>0.01436193461294615</v>
+        <v>0.01410142001935737</v>
       </c>
       <c r="Q11" t="s">
         <v>34</v>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -76,49 +76,43 @@
     <t>EZTC3</t>
   </si>
   <si>
+    <t>CVCB3</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
     <t>HYPE3</t>
   </si>
   <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
     <t>SANB11</t>
   </si>
   <si>
+    <t>RAIL3</t>
+  </si>
+  <si>
     <t>ARZZ3</t>
   </si>
   <si>
-    <t>BHIA3</t>
-  </si>
-  <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>BBSE3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>CMIN3</t>
   </si>
   <si>
     <t>YDUQ3</t>
   </si>
   <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>CSAN3</t>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>TOTS3</t>
   </si>
   <si>
     <t>VALE3</t>
   </si>
   <si>
-    <t>CIEL3</t>
-  </si>
-  <si>
-    <t>TOTS3</t>
-  </si>
-  <si>
-    <t>IRBR3</t>
+    <t>RAIZ4</t>
   </si>
 </sst>
 </file>
@@ -540,58 +534,58 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.7595272748280372</v>
+        <v>0.8101464707758799</v>
       </c>
       <c r="E2">
-        <v>0.7128922983827416</v>
+        <v>0.8046802484080967</v>
       </c>
       <c r="F2">
-        <v>4.100563695790659E-08</v>
+        <v>5.162807283955245E-05</v>
       </c>
       <c r="G2">
-        <v>5.861298785837565</v>
+        <v>5.603692837299915</v>
       </c>
       <c r="H2">
-        <v>0.5546195264826199</v>
+        <v>0.4562280152502629</v>
       </c>
       <c r="I2">
-        <v>1.493293643441419E-65</v>
+        <v>2.30418619715338E-59</v>
       </c>
       <c r="J2">
-        <v>12.38000011444092</v>
+        <v>12.10000038146973</v>
       </c>
       <c r="K2">
-        <v>11.42000007629395</v>
+        <v>14.84000015258789</v>
       </c>
       <c r="L2">
-        <v>0.6423413190630711</v>
+        <v>0.6588191616456385</v>
       </c>
       <c r="M2">
-        <v>-0.4496035760887569</v>
+        <v>-0.4944021564496595</v>
       </c>
       <c r="N2">
-        <v>0.1819904924072543</v>
+        <v>0.2051273766783422</v>
       </c>
       <c r="O2">
-        <v>0.1849462938577213</v>
+        <v>-0.2741162717589605</v>
       </c>
       <c r="P2">
-        <v>0.005895355806430233</v>
+        <v>0.008971204487342005</v>
       </c>
       <c r="Q2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -602,217 +596,217 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>0.7045149546746883</v>
+        <v>0.642647844132475</v>
       </c>
       <c r="E3">
-        <v>0.7214607134997726</v>
+        <v>0.6882665098993515</v>
       </c>
       <c r="F3">
-        <v>0.0005417999958209987</v>
+        <v>0.0005185419444283533</v>
       </c>
       <c r="G3">
-        <v>-5.924651478266712</v>
+        <v>-6.028066161639426</v>
       </c>
       <c r="H3">
-        <v>0.6785544475640058</v>
+        <v>0.6815210147392982</v>
       </c>
       <c r="I3">
-        <v>3.836267292628031E-46</v>
+        <v>1.797720520995621E-46</v>
       </c>
       <c r="J3">
-        <v>13.64999961853027</v>
+        <v>14.06999969482422</v>
       </c>
       <c r="K3">
-        <v>30.32999992370605</v>
+        <v>30.8700008392334</v>
       </c>
       <c r="L3">
-        <v>2.079193583371698</v>
+        <v>2.084836979651595</v>
       </c>
       <c r="M3">
-        <v>-1.58930003756754</v>
+        <v>-1.592380605008721</v>
       </c>
       <c r="N3">
-        <v>0.6858907120663412</v>
+        <v>0.6881998130688239</v>
       </c>
       <c r="O3">
-        <v>-1.005905246049718</v>
+        <v>-0.940488440493688</v>
       </c>
       <c r="P3">
-        <v>0.01096350718194109</v>
+        <v>0.01103739678357141</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2623</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.7214607134997726</v>
+        <v>0.8101464707758799</v>
       </c>
       <c r="E4">
-        <v>0.9575722728343085</v>
+        <v>0.7237566234600938</v>
       </c>
       <c r="F4">
-        <v>0.0004222111747554058</v>
+        <v>0.0007469342523861299</v>
       </c>
       <c r="G4">
-        <v>19.61469425577437</v>
+        <v>9.106267594794717</v>
       </c>
       <c r="H4">
-        <v>0.6889774270470974</v>
+        <v>0.6294471999487361</v>
       </c>
       <c r="I4">
-        <v>9.413436312433836E-40</v>
+        <v>2.021022536378778E-52</v>
       </c>
       <c r="J4">
-        <v>30.32999992370605</v>
+        <v>12.10000038146973</v>
       </c>
       <c r="K4">
-        <v>12.89999961853027</v>
+        <v>5.380000114440918</v>
       </c>
       <c r="L4">
-        <v>2.647894887720767</v>
+        <v>0.6197422627748104</v>
       </c>
       <c r="M4">
-        <v>-2.69834225499002</v>
+        <v>-0.676347380288302</v>
       </c>
       <c r="N4">
-        <v>1.004556612263819</v>
+        <v>0.231500689506084</v>
       </c>
       <c r="O4">
-        <v>1.827497121848154</v>
+        <v>-0.3926932210837064</v>
       </c>
       <c r="P4">
-        <v>0.01097827900072342</v>
+        <v>0.01144531302541999</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
+        <v>1863</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.7595272748280372</v>
+        <v>0.8888263282511657</v>
       </c>
       <c r="E5">
-        <v>0.8903079596497776</v>
+        <v>0.9683379699467246</v>
       </c>
       <c r="F5">
-        <v>0.0008480376865120273</v>
+        <v>0.003317040257493173</v>
       </c>
       <c r="G5">
-        <v>9.884855218512989</v>
+        <v>-0.7566833348877037</v>
       </c>
       <c r="H5">
-        <v>1.09600222308765</v>
+        <v>0.2039345270854437</v>
       </c>
       <c r="I5">
-        <v>1.134262237867608E-50</v>
+        <v>1.099021387963144E-63</v>
       </c>
       <c r="J5">
-        <v>12.38000011444092</v>
+        <v>2.039999961853027</v>
       </c>
       <c r="K5">
-        <v>2.039999961853027</v>
+        <v>12.52999973297119</v>
       </c>
       <c r="L5">
-        <v>0.7922589976972674</v>
+        <v>0.4601501689706824</v>
       </c>
       <c r="M5">
-        <v>-0.6759990404860847</v>
+        <v>-0.3525872743879672</v>
       </c>
       <c r="N5">
-        <v>0.236320697320042</v>
+        <v>0.1832881027138667</v>
       </c>
       <c r="O5">
-        <v>0.2593004026382899</v>
+        <v>0.2413837268165144</v>
       </c>
       <c r="P5">
-        <v>0.01166926420657423</v>
+        <v>0.0116716541247412</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>999</v>
+        <v>372</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.8748876694798218</v>
+        <v>0.7110494147972705</v>
       </c>
       <c r="E6">
-        <v>0.9432212933451576</v>
+        <v>0.7969374060514915</v>
       </c>
       <c r="F6">
-        <v>0.006118949391681491</v>
+        <v>0.001025015539564529</v>
       </c>
       <c r="G6">
-        <v>30.95025344681423</v>
+        <v>-3.42967164298895</v>
       </c>
       <c r="H6">
-        <v>-0.9300339469249684</v>
+        <v>0.6138176352092259</v>
       </c>
       <c r="I6">
-        <v>1.298195495645512E-36</v>
+        <v>5.801189386384635E-71</v>
       </c>
       <c r="J6">
-        <v>19.36000061035156</v>
+        <v>11.43000030517578</v>
       </c>
       <c r="K6">
-        <v>14.32999992370605</v>
+        <v>23.5</v>
       </c>
       <c r="L6">
-        <v>1.749710008891299</v>
+        <v>0.6122519203871803</v>
       </c>
       <c r="M6">
-        <v>-3.641570354568669</v>
+        <v>-0.7051254240314595</v>
       </c>
       <c r="N6">
-        <v>0.9746700893951897</v>
+        <v>0.2852994863797608</v>
       </c>
       <c r="O6">
-        <v>1.737133552016175</v>
+        <v>0.4349575207479219</v>
       </c>
       <c r="P6">
-        <v>0.0123593826398489</v>
+        <v>0.01175038257369051</v>
       </c>
       <c r="Q6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R6" t="s">
         <v>21</v>
@@ -820,282 +814,282 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>3294</v>
+        <v>2623</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.2898332087257849</v>
+        <v>0.6882665098993515</v>
       </c>
       <c r="E7">
-        <v>0.624184417752121</v>
+        <v>0.9683379699467246</v>
       </c>
       <c r="F7">
-        <v>0.0004047217815574514</v>
+        <v>0.001177940482691781</v>
       </c>
       <c r="G7">
-        <v>11.16140500443125</v>
+        <v>19.99378102306763</v>
       </c>
       <c r="H7">
-        <v>0.268103728809475</v>
+        <v>0.6696713510331327</v>
       </c>
       <c r="I7">
-        <v>1.046598536298762E-36</v>
+        <v>7.965298593799848E-39</v>
       </c>
       <c r="J7">
-        <v>27.70000076293945</v>
+        <v>30.8700008392334</v>
       </c>
       <c r="K7">
-        <v>66.18000030517578</v>
+        <v>12.52999973297119</v>
       </c>
       <c r="L7">
-        <v>1.321405980213093</v>
+        <v>2.652483166482305</v>
       </c>
       <c r="M7">
-        <v>-2.344180873067511</v>
+        <v>-2.790668424544819</v>
       </c>
       <c r="N7">
-        <v>0.6765400306978594</v>
+        <v>1.024812046626767</v>
       </c>
       <c r="O7">
-        <v>-1.204509095921622</v>
+        <v>2.48523796654216</v>
       </c>
       <c r="P7">
-        <v>0.01280842050029687</v>
+        <v>0.0118264192368969</v>
       </c>
       <c r="Q7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" t="s">
         <v>22</v>
-      </c>
-      <c r="R7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.6243902534937392</v>
+        <v>0.8101464707758799</v>
       </c>
       <c r="E8">
-        <v>0.7214607134997726</v>
+        <v>0.4219497408148984</v>
       </c>
       <c r="F8">
-        <v>0.003622115136716983</v>
+        <v>0.001163039452950222</v>
       </c>
       <c r="G8">
-        <v>-8.194734568933601</v>
+        <v>6.022486953369799</v>
       </c>
       <c r="H8">
-        <v>2.062458522367568</v>
+        <v>0.2221612911781599</v>
       </c>
       <c r="I8">
-        <v>8.125034792625497E-39</v>
+        <v>4.661296464169074E-38</v>
       </c>
       <c r="J8">
-        <v>49.09000015258789</v>
+        <v>12.10000038146973</v>
       </c>
       <c r="K8">
-        <v>30.32999992370605</v>
+        <v>29.03000068664551</v>
       </c>
       <c r="L8">
-        <v>6.876308659273235</v>
+        <v>0.7003885427365617</v>
       </c>
       <c r="M8">
-        <v>-7.715252007786219</v>
+        <v>-0.7753779393324312</v>
       </c>
       <c r="N8">
-        <v>2.468997995671935</v>
+        <v>0.2972556445844788</v>
       </c>
       <c r="O8">
-        <v>-5.269632104533741</v>
+        <v>-0.371829007348107</v>
       </c>
       <c r="P8">
-        <v>0.0136903760257393</v>
+        <v>0.0126013529679404</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>782</v>
+        <v>3294</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.4660396825669833</v>
+        <v>0.2765586448537881</v>
       </c>
       <c r="E9">
-        <v>0.4108974554258022</v>
+        <v>0.6218087673887593</v>
       </c>
       <c r="F9">
-        <v>0.003117962075899576</v>
+        <v>0.0003690284364639884</v>
       </c>
       <c r="G9">
-        <v>26.92436124859959</v>
+        <v>11.16273057818619</v>
       </c>
       <c r="H9">
-        <v>-3.648941449103776</v>
+        <v>0.2679650657688722</v>
       </c>
       <c r="I9">
-        <v>1.949344787175072E-55</v>
+        <v>1.350898297847533E-36</v>
       </c>
       <c r="J9">
-        <v>7.78000020980835</v>
+        <v>27.85000038146973</v>
       </c>
       <c r="K9">
-        <v>5.579999923706055</v>
+        <v>66.15000152587891</v>
       </c>
       <c r="L9">
-        <v>2.337462582155135</v>
+        <v>1.328943747759581</v>
       </c>
       <c r="M9">
-        <v>-2.561709451382793</v>
+        <v>-2.336109827474154</v>
       </c>
       <c r="N9">
-        <v>1.002246485572615</v>
+        <v>0.6800012873485979</v>
       </c>
       <c r="O9">
-        <v>1.216731968815694</v>
+        <v>-1.038619706209605</v>
       </c>
       <c r="P9">
-        <v>0.01376969649873349</v>
+        <v>0.01294318714530926</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1380</v>
+        <v>3194</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.8230280776715124</v>
+        <v>0.4225022630530911</v>
       </c>
       <c r="E10">
-        <v>0.4384522939524907</v>
+        <v>0.8755069136851276</v>
       </c>
       <c r="F10">
-        <v>0.001961520843728756</v>
+        <v>0.003569676812213681</v>
       </c>
       <c r="G10">
-        <v>18.89868459563712</v>
+        <v>14.65617515133508</v>
       </c>
       <c r="H10">
-        <v>-0.3309602845583646</v>
+        <v>2.143677233986689</v>
       </c>
       <c r="I10">
-        <v>2.560966792872992E-35</v>
+        <v>1.549980567250847E-31</v>
       </c>
       <c r="J10">
-        <v>10.39000034332275</v>
+        <v>20.30999946594238</v>
       </c>
       <c r="K10">
-        <v>28.70999908447266</v>
+        <v>2.940000057220459</v>
       </c>
       <c r="L10">
-        <v>1.136172942164741</v>
+        <v>1.249978661011028</v>
       </c>
       <c r="M10">
-        <v>-1.331259996304055</v>
+        <v>-1.214031070745676</v>
       </c>
       <c r="N10">
-        <v>0.47133668879295</v>
+        <v>0.5017720283182177</v>
       </c>
       <c r="O10">
-        <v>0.9931852143530868</v>
+        <v>-0.6485868759757532</v>
       </c>
       <c r="P10">
-        <v>0.01406641900830708</v>
+        <v>0.0139900604401992</v>
       </c>
       <c r="Q10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>664</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>0.4872916779245952</v>
+        <v>0.6102979819247042</v>
       </c>
       <c r="E11">
-        <v>0.5218206708182963</v>
+        <v>0.6882665098993515</v>
       </c>
       <c r="F11">
-        <v>0.001315523150804846</v>
+        <v>0.005727201141174022</v>
       </c>
       <c r="G11">
-        <v>41.63919691818328</v>
+        <v>-8.853154233719049</v>
       </c>
       <c r="H11">
-        <v>-0.2216986988247932</v>
+        <v>2.081346019855257</v>
       </c>
       <c r="I11">
-        <v>8.528320886621358E-28</v>
+        <v>1.1338565130806E-38</v>
       </c>
       <c r="J11">
-        <v>34.16999816894531</v>
+        <v>49.40999984741211</v>
       </c>
       <c r="K11">
-        <v>37.41999816894531</v>
+        <v>30.8700008392334</v>
       </c>
       <c r="L11">
-        <v>2.261727489022824</v>
+        <v>6.947547257996277</v>
       </c>
       <c r="M11">
-        <v>-1.97221021803108</v>
+        <v>-7.631390018017285</v>
       </c>
       <c r="N11">
-        <v>0.7316986135326463</v>
+        <v>2.514241364854253</v>
       </c>
       <c r="O11">
-        <v>0.8267661548433534</v>
+        <v>-5.987999298535726</v>
       </c>
       <c r="P11">
-        <v>0.01410142001935737</v>
+        <v>0.01439352550656419</v>
       </c>
       <c r="Q11" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -73,46 +73,52 @@
     <t>ABEV3</t>
   </si>
   <si>
-    <t>EZTC3</t>
-  </si>
-  <si>
-    <t>CVCB3</t>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>SANB11</t>
   </si>
   <si>
     <t>B3SA3</t>
   </si>
   <si>
+    <t>BBDC3</t>
+  </si>
+  <si>
+    <t>BHIA3</t>
+  </si>
+  <si>
+    <t>ARZZ3</t>
+  </si>
+  <si>
+    <t>CMIN3</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>VALE3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>TOTS3</t>
+  </si>
+  <si>
+    <t>RENT3</t>
+  </si>
+  <si>
+    <t>CIEL3</t>
+  </si>
+  <si>
     <t>HYPE3</t>
   </si>
   <si>
-    <t>SANB11</t>
-  </si>
-  <si>
-    <t>RAIL3</t>
-  </si>
-  <si>
-    <t>ARZZ3</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>CMIN3</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>TOTS3</t>
-  </si>
-  <si>
-    <t>VALE3</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
+    <t>ENGI11</t>
   </si>
 </sst>
 </file>
@@ -543,43 +549,43 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>0.8101464707758799</v>
+        <v>0.8321422971157941</v>
       </c>
       <c r="E2">
-        <v>0.8046802484080967</v>
+        <v>0.7992873452435965</v>
       </c>
       <c r="F2">
-        <v>5.162807283955245E-05</v>
+        <v>9.57764928214949E-05</v>
       </c>
       <c r="G2">
-        <v>5.603692837299915</v>
+        <v>5.568785475086147</v>
       </c>
       <c r="H2">
-        <v>0.4562280152502629</v>
+        <v>0.4582788945495905</v>
       </c>
       <c r="I2">
-        <v>2.30418619715338E-59</v>
+        <v>3.965858436708387E-59</v>
       </c>
       <c r="J2">
-        <v>12.10000038146973</v>
+        <v>12.02000045776367</v>
       </c>
       <c r="K2">
-        <v>14.84000015258789</v>
+        <v>14.89000034332275</v>
       </c>
       <c r="L2">
-        <v>0.6588191616456385</v>
+        <v>0.6614166492536846</v>
       </c>
       <c r="M2">
-        <v>-0.4944021564496595</v>
+        <v>-0.4933445983792879</v>
       </c>
       <c r="N2">
-        <v>0.2051273766783422</v>
+        <v>0.2075768982009713</v>
       </c>
       <c r="O2">
-        <v>-0.2741162717589605</v>
+        <v>-0.3725579145034494</v>
       </c>
       <c r="P2">
-        <v>0.008971204487342005</v>
+        <v>0.009297894660521853</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -590,170 +596,170 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2328</v>
+        <v>858</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.642647844132475</v>
+        <v>0.2069570566985771</v>
       </c>
       <c r="E3">
-        <v>0.6882665098993515</v>
+        <v>0.160450165412696</v>
       </c>
       <c r="F3">
-        <v>0.0005185419444283533</v>
+        <v>0.0001924302791751475</v>
       </c>
       <c r="G3">
-        <v>-6.028066161639426</v>
+        <v>-0.4537345084918778</v>
       </c>
       <c r="H3">
-        <v>0.6815210147392982</v>
+        <v>3.706296096934961</v>
       </c>
       <c r="I3">
-        <v>1.797720520995621E-46</v>
+        <v>3.320132117887214E-48</v>
       </c>
       <c r="J3">
-        <v>14.06999969482422</v>
+        <v>34.11000061035156</v>
       </c>
       <c r="K3">
-        <v>30.8700008392334</v>
+        <v>9.670000076293945</v>
       </c>
       <c r="L3">
-        <v>2.084836979651595</v>
+        <v>1.781533537169949</v>
       </c>
       <c r="M3">
-        <v>-1.592380605008721</v>
+        <v>-1.685798881330349</v>
       </c>
       <c r="N3">
-        <v>0.6881998130688239</v>
+        <v>0.7426068576351338</v>
       </c>
       <c r="O3">
-        <v>-0.940488440493688</v>
+        <v>-1.276148421285583</v>
       </c>
       <c r="P3">
-        <v>0.01103739678357141</v>
+        <v>0.01156937802912239</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>19</v>
+        <v>3294</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.8101464707758799</v>
+        <v>0.2542524183510776</v>
       </c>
       <c r="E4">
-        <v>0.7237566234600938</v>
+        <v>0.6150023594012769</v>
       </c>
       <c r="F4">
-        <v>0.0007469342523861299</v>
+        <v>7.771011199749826E-05</v>
       </c>
       <c r="G4">
-        <v>9.106267594794717</v>
+        <v>11.05838700988279</v>
       </c>
       <c r="H4">
-        <v>0.6294471999487361</v>
+        <v>0.2697193898231514</v>
       </c>
       <c r="I4">
-        <v>2.021022536378778E-52</v>
+        <v>2.118471728212619E-38</v>
       </c>
       <c r="J4">
-        <v>12.10000038146973</v>
+        <v>28.07999992370605</v>
       </c>
       <c r="K4">
-        <v>5.380000114440918</v>
+        <v>65.95999908447266</v>
       </c>
       <c r="L4">
-        <v>0.6197422627748104</v>
+        <v>1.321150925725725</v>
       </c>
       <c r="M4">
-        <v>-0.676347380288302</v>
+        <v>-2.350649526694426</v>
       </c>
       <c r="N4">
-        <v>0.231500689506084</v>
+        <v>0.6545227273200811</v>
       </c>
       <c r="O4">
-        <v>-0.3926932210837064</v>
+        <v>-0.7690777919763292</v>
       </c>
       <c r="P4">
-        <v>0.01144531302541999</v>
+        <v>0.01161293951526108</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1863</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>0.8888263282511657</v>
+        <v>0.8321422971157941</v>
       </c>
       <c r="E5">
-        <v>0.9683379699467246</v>
+        <v>0.7136341680983749</v>
       </c>
       <c r="F5">
-        <v>0.003317040257493173</v>
+        <v>0.0009066413663770959</v>
       </c>
       <c r="G5">
-        <v>-0.7566833348877037</v>
+        <v>9.068877527126025</v>
       </c>
       <c r="H5">
-        <v>0.2039345270854437</v>
+        <v>0.6346932075331693</v>
       </c>
       <c r="I5">
-        <v>1.099021387963144E-63</v>
+        <v>6.057568699367773E-52</v>
       </c>
       <c r="J5">
-        <v>2.039999961853027</v>
+        <v>12.02000045776367</v>
       </c>
       <c r="K5">
-        <v>12.52999973297119</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="L5">
-        <v>0.4601501689706824</v>
+        <v>0.6260954467580415</v>
       </c>
       <c r="M5">
-        <v>-0.3525872743879672</v>
+        <v>-0.6740396431698468</v>
       </c>
       <c r="N5">
-        <v>0.1832881027138667</v>
+        <v>0.2352497721008303</v>
       </c>
       <c r="O5">
-        <v>0.2413837268165144</v>
+        <v>-0.5460367881398627</v>
       </c>
       <c r="P5">
-        <v>0.0116716541247412</v>
+        <v>0.0116396643576226</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -767,43 +773,43 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>0.7110494147972705</v>
+        <v>0.7196117366968796</v>
       </c>
       <c r="E6">
-        <v>0.7969374060514915</v>
+        <v>0.8028451744913541</v>
       </c>
       <c r="F6">
-        <v>0.001025015539564529</v>
+        <v>0.001220768865523507</v>
       </c>
       <c r="G6">
-        <v>-3.42967164298895</v>
+        <v>-3.316991608309134</v>
       </c>
       <c r="H6">
-        <v>0.6138176352092259</v>
+        <v>0.6096618734802178</v>
       </c>
       <c r="I6">
-        <v>5.801189386384635E-71</v>
+        <v>8.868190416488281E-71</v>
       </c>
       <c r="J6">
-        <v>11.43000030517578</v>
+        <v>11.40999984741211</v>
       </c>
       <c r="K6">
-        <v>23.5</v>
+        <v>23.46999931335449</v>
       </c>
       <c r="L6">
-        <v>0.6122519203871803</v>
+        <v>0.6173971014170299</v>
       </c>
       <c r="M6">
-        <v>-0.7051254240314595</v>
+        <v>-0.7095993592972007</v>
       </c>
       <c r="N6">
-        <v>0.2852994863797608</v>
+        <v>0.2875090520560684</v>
       </c>
       <c r="O6">
-        <v>0.4349575207479219</v>
+        <v>0.4182277037621187</v>
       </c>
       <c r="P6">
-        <v>0.01175038257369051</v>
+        <v>0.01201599735229544</v>
       </c>
       <c r="Q6" t="s">
         <v>29</v>
@@ -814,282 +820,282 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2623</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.6882665098993515</v>
+        <v>0.8321422971157941</v>
       </c>
       <c r="E7">
-        <v>0.9683379699467246</v>
+        <v>0.485624585289682</v>
       </c>
       <c r="F7">
-        <v>0.001177940482691781</v>
+        <v>0.0006859488751801444</v>
       </c>
       <c r="G7">
-        <v>19.99378102306763</v>
+        <v>5.896213899979674</v>
       </c>
       <c r="H7">
-        <v>0.6696713510331327</v>
+        <v>0.2260005079941636</v>
       </c>
       <c r="I7">
-        <v>7.965298593799848E-39</v>
+        <v>2.57682366129843E-38</v>
       </c>
       <c r="J7">
-        <v>30.8700008392334</v>
+        <v>12.02000045776367</v>
       </c>
       <c r="K7">
-        <v>12.52999973297119</v>
+        <v>29.60000038146973</v>
       </c>
       <c r="L7">
-        <v>2.652483166482305</v>
+        <v>0.7209690602773904</v>
       </c>
       <c r="M7">
-        <v>-2.790668424544819</v>
+        <v>-0.7768516679358335</v>
       </c>
       <c r="N7">
-        <v>1.024812046626767</v>
+        <v>0.2982335790488871</v>
       </c>
       <c r="O7">
-        <v>2.48523796654216</v>
+        <v>-0.5658285650555968</v>
       </c>
       <c r="P7">
-        <v>0.0118264192368969</v>
+        <v>0.01210085341772209</v>
       </c>
       <c r="Q7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>75</v>
+        <v>536</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.8101464707758799</v>
+        <v>0.7005662844755225</v>
       </c>
       <c r="E8">
-        <v>0.4219497408148984</v>
+        <v>0.8483430758556708</v>
       </c>
       <c r="F8">
-        <v>0.001163039452950222</v>
+        <v>0.002424763494907054</v>
       </c>
       <c r="G8">
-        <v>6.022486953369799</v>
+        <v>2.781787097859574</v>
       </c>
       <c r="H8">
-        <v>0.2221612911781599</v>
+        <v>0.188053462327666</v>
       </c>
       <c r="I8">
-        <v>4.661296464169074E-38</v>
+        <v>7.632301961349155E-53</v>
       </c>
       <c r="J8">
-        <v>12.10000038146973</v>
+        <v>11.98999977111816</v>
       </c>
       <c r="K8">
-        <v>29.03000068664551</v>
+        <v>46.61999893188477</v>
       </c>
       <c r="L8">
-        <v>0.7003885427365617</v>
+        <v>1.841601917881677</v>
       </c>
       <c r="M8">
-        <v>-0.7753779393324312</v>
+        <v>-0.8376823574613095</v>
       </c>
       <c r="N8">
-        <v>0.2972556445844788</v>
+        <v>0.3942267021437258</v>
       </c>
       <c r="O8">
-        <v>-0.371829007348107</v>
+        <v>0.4411604604055679</v>
       </c>
       <c r="P8">
-        <v>0.0126013529679404</v>
+        <v>0.01327472545136094</v>
       </c>
       <c r="Q8" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>3294</v>
+        <v>782</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.2765586448537881</v>
+        <v>0.5605936301451149</v>
       </c>
       <c r="E9">
-        <v>0.6218087673887593</v>
+        <v>0.3366741836914197</v>
       </c>
       <c r="F9">
-        <v>0.0003690284364639884</v>
+        <v>0.00176474367511718</v>
       </c>
       <c r="G9">
-        <v>11.16273057818619</v>
+        <v>26.94114003299562</v>
       </c>
       <c r="H9">
-        <v>0.2679650657688722</v>
+        <v>-3.647722631781244</v>
       </c>
       <c r="I9">
-        <v>1.350898297847533E-36</v>
+        <v>2.779625126824843E-55</v>
       </c>
       <c r="J9">
-        <v>27.85000038146973</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="K9">
-        <v>66.15000152587891</v>
+        <v>5.590000152587891</v>
       </c>
       <c r="L9">
-        <v>1.328943747759581</v>
+        <v>2.31550254729162</v>
       </c>
       <c r="M9">
-        <v>-2.336109827474154</v>
+        <v>-2.584087287115555</v>
       </c>
       <c r="N9">
-        <v>0.6800012873485979</v>
+        <v>1.002029640846665</v>
       </c>
       <c r="O9">
-        <v>-1.038619706209605</v>
+        <v>1.009629978039378</v>
       </c>
       <c r="P9">
-        <v>0.01294318714530926</v>
+        <v>0.01343565538021421</v>
       </c>
       <c r="Q9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="s">
         <v>23</v>
-      </c>
-      <c r="R9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>3194</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0.4225022630530911</v>
+        <v>0.5915341636038153</v>
       </c>
       <c r="E10">
-        <v>0.8755069136851276</v>
+        <v>0.7403116300052905</v>
       </c>
       <c r="F10">
-        <v>0.003569676812213681</v>
+        <v>0.004832271765609277</v>
       </c>
       <c r="G10">
-        <v>14.65617515133508</v>
+        <v>-9.896403168153576</v>
       </c>
       <c r="H10">
-        <v>2.143677233986689</v>
+        <v>2.111630081155536</v>
       </c>
       <c r="I10">
-        <v>1.549980567250847E-31</v>
+        <v>1.833059172460954E-39</v>
       </c>
       <c r="J10">
-        <v>20.30999946594238</v>
+        <v>49.97999954223633</v>
       </c>
       <c r="K10">
-        <v>2.940000057220459</v>
+        <v>30.14999961853027</v>
       </c>
       <c r="L10">
-        <v>1.249978661011028</v>
+        <v>7.049314801866096</v>
       </c>
       <c r="M10">
-        <v>-1.214031070745676</v>
+        <v>-7.509382230647738</v>
       </c>
       <c r="N10">
-        <v>0.5017720283182177</v>
+        <v>2.50998217294454</v>
       </c>
       <c r="O10">
-        <v>-0.6485868759757532</v>
+        <v>-3.789243430926568</v>
       </c>
       <c r="P10">
-        <v>0.0139900604401992</v>
+        <v>0.01434003191377822</v>
       </c>
       <c r="Q10" t="s">
         <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>123</v>
+        <v>1402</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>0.6102979819247042</v>
+        <v>0.7136341680983749</v>
       </c>
       <c r="E11">
-        <v>0.6882665098993515</v>
+        <v>0.4544150034663414</v>
       </c>
       <c r="F11">
-        <v>0.005727201141174022</v>
+        <v>0.005540016992199611</v>
       </c>
       <c r="G11">
-        <v>-8.853154233719049</v>
+        <v>-10.10769380940564</v>
       </c>
       <c r="H11">
-        <v>2.081346019855257</v>
+        <v>0.3239654827834668</v>
       </c>
       <c r="I11">
-        <v>1.1338565130806E-38</v>
+        <v>5.22773558022847E-45</v>
       </c>
       <c r="J11">
-        <v>49.40999984741211</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="K11">
-        <v>30.8700008392334</v>
+        <v>46.7599983215332</v>
       </c>
       <c r="L11">
-        <v>6.947547257996277</v>
+        <v>0.8917096731509044</v>
       </c>
       <c r="M11">
-        <v>-7.631390018017285</v>
+        <v>-0.6916346876989596</v>
       </c>
       <c r="N11">
-        <v>2.514241364854253</v>
+        <v>0.3800723392445214</v>
       </c>
       <c r="O11">
-        <v>-5.987999298535726</v>
+        <v>0.4690686070978742</v>
       </c>
       <c r="P11">
-        <v>0.01439352550656419</v>
+        <v>0.0147644585906631</v>
       </c>
       <c r="Q11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" t="s">
         <v>25</v>
-      </c>
-      <c r="R11" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>N</t>
   </si>
@@ -73,52 +73,55 @@
     <t>ABEV3</t>
   </si>
   <si>
+    <t>EZTC3</t>
+  </si>
+  <si>
     <t>BPAC11</t>
   </si>
   <si>
-    <t>SANB11</t>
-  </si>
-  <si>
     <t>B3SA3</t>
   </si>
   <si>
-    <t>BBDC3</t>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>BBSE3</t>
+  </si>
+  <si>
+    <t>CSAN3</t>
   </si>
   <si>
     <t>BHIA3</t>
   </si>
   <si>
-    <t>ARZZ3</t>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
   </si>
   <si>
     <t>CMIN3</t>
   </si>
   <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
-    <t>VALE3</t>
-  </si>
-  <si>
     <t>MULT3</t>
   </si>
   <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
     <t>TOTS3</t>
   </si>
   <si>
-    <t>RENT3</t>
+    <t>IRBR3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
   </si>
   <si>
     <t>CIEL3</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>ENGI11</t>
   </si>
 </sst>
 </file>
@@ -549,43 +552,43 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>0.8321422971157941</v>
+        <v>0.8522531864814746</v>
       </c>
       <c r="E2">
-        <v>0.7992873452435965</v>
+        <v>0.8479251525585036</v>
       </c>
       <c r="F2">
-        <v>9.57764928214949E-05</v>
+        <v>5.627817295638002E-05</v>
       </c>
       <c r="G2">
-        <v>5.568785475086147</v>
+        <v>5.537999370302948</v>
       </c>
       <c r="H2">
-        <v>0.4582788945495905</v>
+        <v>0.4601100442773499</v>
       </c>
       <c r="I2">
-        <v>3.965858436708387E-59</v>
+        <v>7.620968701450467E-60</v>
       </c>
       <c r="J2">
-        <v>12.02000045776367</v>
+        <v>11.97000026702881</v>
       </c>
       <c r="K2">
-        <v>14.89000034332275</v>
+        <v>14.46000003814697</v>
       </c>
       <c r="L2">
-        <v>0.6614166492536846</v>
+        <v>0.6633545336137665</v>
       </c>
       <c r="M2">
-        <v>-0.4933445983792879</v>
+        <v>-0.4927816567350458</v>
       </c>
       <c r="N2">
-        <v>0.2075768982009713</v>
+        <v>0.2076980139806179</v>
       </c>
       <c r="O2">
-        <v>-0.3725579145034494</v>
+        <v>-0.2211903610764248</v>
       </c>
       <c r="P2">
-        <v>0.009297894660521853</v>
+        <v>0.009199873441968121</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -596,7 +599,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>858</v>
+        <v>2328</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -605,43 +608,43 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <v>0.2069570566985771</v>
+        <v>0.7131997264885976</v>
       </c>
       <c r="E3">
-        <v>0.160450165412696</v>
+        <v>0.7444437167289688</v>
       </c>
       <c r="F3">
-        <v>0.0001924302791751475</v>
+        <v>0.0003869623913455668</v>
       </c>
       <c r="G3">
-        <v>-0.4537345084918778</v>
+        <v>-6.257579610728061</v>
       </c>
       <c r="H3">
-        <v>3.706296096934961</v>
+        <v>0.6882259155375118</v>
       </c>
       <c r="I3">
-        <v>3.320132117887214E-48</v>
+        <v>2.801738709783135E-47</v>
       </c>
       <c r="J3">
-        <v>34.11000061035156</v>
+        <v>13.39999961853027</v>
       </c>
       <c r="K3">
-        <v>9.670000076293945</v>
+        <v>30.09000015258789</v>
       </c>
       <c r="L3">
-        <v>1.781533537169949</v>
+        <v>2.093363717170639</v>
       </c>
       <c r="M3">
-        <v>-1.685798881330349</v>
+        <v>-1.603562899517293</v>
       </c>
       <c r="N3">
-        <v>0.7426068576351338</v>
+        <v>0.6909775135980022</v>
       </c>
       <c r="O3">
-        <v>-1.276148421285583</v>
+        <v>-1.051138674280335</v>
       </c>
       <c r="P3">
-        <v>0.01156937802912239</v>
+        <v>0.01068017506587205</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -652,7 +655,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>3294</v>
+        <v>858</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -661,43 +664,43 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>0.2542524183510776</v>
+        <v>0.2613928003834507</v>
       </c>
       <c r="E4">
-        <v>0.6150023594012769</v>
+        <v>0.1800765290505765</v>
       </c>
       <c r="F4">
-        <v>7.771011199749826E-05</v>
+        <v>0.000235862412745227</v>
       </c>
       <c r="G4">
-        <v>11.05838700988279</v>
+        <v>-0.6302001053658159</v>
       </c>
       <c r="H4">
-        <v>0.2697193898231514</v>
+        <v>3.723296272167022</v>
       </c>
       <c r="I4">
-        <v>2.118471728212619E-38</v>
+        <v>4.104303499115841E-48</v>
       </c>
       <c r="J4">
-        <v>28.07999992370605</v>
+        <v>33.11000061035156</v>
       </c>
       <c r="K4">
-        <v>65.95999908447266</v>
+        <v>9.470000267028809</v>
       </c>
       <c r="L4">
-        <v>1.321150925725725</v>
+        <v>1.793046383962</v>
       </c>
       <c r="M4">
-        <v>-2.350649526694426</v>
+        <v>-1.682575974037874</v>
       </c>
       <c r="N4">
-        <v>0.6545227273200811</v>
+        <v>0.7514353616993749</v>
       </c>
       <c r="O4">
-        <v>-0.7690777919763292</v>
+        <v>-1.519415975931686</v>
       </c>
       <c r="P4">
-        <v>0.01161293951526108</v>
+        <v>0.01202676177349603</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
@@ -714,52 +717,52 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.8321422971157941</v>
+        <v>0.8522531864814746</v>
       </c>
       <c r="E5">
-        <v>0.7136341680983749</v>
+        <v>0.7264086568896135</v>
       </c>
       <c r="F5">
-        <v>0.0009066413663770959</v>
+        <v>0.001089236791508627</v>
       </c>
       <c r="G5">
-        <v>9.068877527126025</v>
+        <v>9.044695846729079</v>
       </c>
       <c r="H5">
-        <v>0.6346932075331693</v>
+        <v>0.638075198401614</v>
       </c>
       <c r="I5">
-        <v>6.057568699367773E-52</v>
+        <v>9.349156343252606E-52</v>
       </c>
       <c r="J5">
-        <v>12.02000045776367</v>
+        <v>11.97000026702881</v>
       </c>
       <c r="K5">
-        <v>5.510000228881836</v>
+        <v>5.420000076293945</v>
       </c>
       <c r="L5">
-        <v>0.6260954467580415</v>
+        <v>0.6302683003433973</v>
       </c>
       <c r="M5">
-        <v>-0.6740396431698468</v>
+        <v>-0.6724753019357284</v>
       </c>
       <c r="N5">
-        <v>0.2352497721008303</v>
+        <v>0.2388733635916963</v>
       </c>
       <c r="O5">
-        <v>-0.5460367881398627</v>
+        <v>-0.5330632037182923</v>
       </c>
       <c r="P5">
-        <v>0.0116396643576226</v>
+        <v>0.0120376382880722</v>
       </c>
       <c r="Q5" t="s">
         <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -770,49 +773,49 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.7196117366968796</v>
+        <v>0.7866642158088457</v>
       </c>
       <c r="E6">
-        <v>0.8028451744913541</v>
+        <v>0.8698746316997947</v>
       </c>
       <c r="F6">
-        <v>0.001220768865523507</v>
+        <v>0.001308783479781733</v>
       </c>
       <c r="G6">
-        <v>-3.316991608309134</v>
+        <v>-3.203160990346046</v>
       </c>
       <c r="H6">
-        <v>0.6096618734802178</v>
+        <v>0.6054208097714353</v>
       </c>
       <c r="I6">
-        <v>8.868190416488281E-71</v>
+        <v>1.878530843878819E-71</v>
       </c>
       <c r="J6">
-        <v>11.40999984741211</v>
+        <v>11.0600004196167</v>
       </c>
       <c r="K6">
-        <v>23.46999931335449</v>
+        <v>22.90999984741211</v>
       </c>
       <c r="L6">
-        <v>0.6173971014170299</v>
+        <v>0.6238080942120057</v>
       </c>
       <c r="M6">
-        <v>-0.7095993592972007</v>
+        <v>-0.7130028182413657</v>
       </c>
       <c r="N6">
-        <v>0.2875090520560684</v>
+        <v>0.2885160525489793</v>
       </c>
       <c r="O6">
-        <v>0.4182277037621187</v>
+        <v>0.3929707504790461</v>
       </c>
       <c r="P6">
-        <v>0.01201599735229544</v>
+        <v>0.01224519780905389</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R6" t="s">
         <v>21</v>
@@ -820,279 +823,279 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>75</v>
+        <v>2046</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>0.8321422971157941</v>
+        <v>0.3978126077002812</v>
       </c>
       <c r="E7">
-        <v>0.485624585289682</v>
+        <v>0.1003139013081731</v>
       </c>
       <c r="F7">
-        <v>0.0006859488751801444</v>
+        <v>0.001662740991081263</v>
       </c>
       <c r="G7">
-        <v>5.896213899979674</v>
+        <v>26.77393930459609</v>
       </c>
       <c r="H7">
-        <v>0.2260005079941636</v>
+        <v>7.353781230291803</v>
       </c>
       <c r="I7">
-        <v>2.57682366129843E-38</v>
+        <v>5.251524621991065E-40</v>
       </c>
       <c r="J7">
-        <v>12.02000045776367</v>
+        <v>36.2400016784668</v>
       </c>
       <c r="K7">
-        <v>29.60000038146973</v>
+        <v>1.470000028610229</v>
       </c>
       <c r="L7">
-        <v>0.7209690602773904</v>
+        <v>2.35521410179507</v>
       </c>
       <c r="M7">
-        <v>-0.7768516679358335</v>
+        <v>-2.813517306151212</v>
       </c>
       <c r="N7">
-        <v>0.2982335790488871</v>
+        <v>1.001551298624212</v>
       </c>
       <c r="O7">
-        <v>-0.5658285650555968</v>
+        <v>-1.343996245051613</v>
       </c>
       <c r="P7">
-        <v>0.01210085341772209</v>
+        <v>0.01258773270369629</v>
       </c>
       <c r="Q7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>536</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>0.7005662844755225</v>
+        <v>0.8522531864814746</v>
       </c>
       <c r="E8">
-        <v>0.8483430758556708</v>
+        <v>0.4621684069868263</v>
       </c>
       <c r="F8">
-        <v>0.002424763494907054</v>
+        <v>0.001268024941596643</v>
       </c>
       <c r="G8">
-        <v>2.781787097859574</v>
+        <v>5.860480561598848</v>
       </c>
       <c r="H8">
-        <v>0.188053462327666</v>
+        <v>0.2269932683420791</v>
       </c>
       <c r="I8">
-        <v>7.632301961349155E-53</v>
+        <v>5.53653407434388E-38</v>
       </c>
       <c r="J8">
-        <v>11.98999977111816</v>
+        <v>11.97000026702881</v>
       </c>
       <c r="K8">
-        <v>46.61999893188477</v>
+        <v>29.95000076293945</v>
       </c>
       <c r="L8">
-        <v>1.841601917881677</v>
+        <v>0.7293719915229833</v>
       </c>
       <c r="M8">
-        <v>-0.8376823574613095</v>
+        <v>-0.7741516136374056</v>
       </c>
       <c r="N8">
-        <v>0.3942267021437258</v>
+        <v>0.303035928950705</v>
       </c>
       <c r="O8">
-        <v>0.4411604604055679</v>
+        <v>-0.6889288545974273</v>
       </c>
       <c r="P8">
-        <v>0.01327472545136094</v>
+        <v>0.01270324380872085</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="R8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>782</v>
+        <v>664</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>0.5605936301451149</v>
+        <v>0.3757370717190893</v>
       </c>
       <c r="E9">
-        <v>0.3366741836914197</v>
+        <v>0.7270095025076342</v>
       </c>
       <c r="F9">
-        <v>0.00176474367511718</v>
+        <v>0.001359539578757255</v>
       </c>
       <c r="G9">
-        <v>26.94114003299562</v>
+        <v>41.46540954521747</v>
       </c>
       <c r="H9">
-        <v>-3.647722631781244</v>
+        <v>-0.2174313206309219</v>
       </c>
       <c r="I9">
-        <v>2.779625126824843E-55</v>
+        <v>8.268665466429477E-30</v>
       </c>
       <c r="J9">
-        <v>7.559999942779541</v>
+        <v>33.36000061035156</v>
       </c>
       <c r="K9">
-        <v>5.590000152587891</v>
+        <v>33.40000152587891</v>
       </c>
       <c r="L9">
-        <v>2.31550254729162</v>
+        <v>2.25513278378024</v>
       </c>
       <c r="M9">
-        <v>-2.584087287115555</v>
+        <v>-1.921026277774374</v>
       </c>
       <c r="N9">
-        <v>1.002029640846665</v>
+        <v>0.7101608885606262</v>
       </c>
       <c r="O9">
-        <v>1.009629978039378</v>
+        <v>-0.8432024940192502</v>
       </c>
       <c r="P9">
-        <v>0.01343565538021421</v>
+        <v>0.01338837145396984</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>123</v>
+        <v>1731</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>0.5915341636038153</v>
+        <v>0.9545079688002752</v>
       </c>
       <c r="E10">
-        <v>0.7403116300052905</v>
+        <v>0.9411281540749965</v>
       </c>
       <c r="F10">
-        <v>0.004832271765609277</v>
+        <v>0.002201957225007661</v>
       </c>
       <c r="G10">
-        <v>-9.896403168153576</v>
+        <v>-0.3717053569243269</v>
       </c>
       <c r="H10">
-        <v>2.111630081155536</v>
+        <v>4.919142241215076</v>
       </c>
       <c r="I10">
-        <v>1.833059172460954E-39</v>
+        <v>2.352561021169061E-75</v>
       </c>
       <c r="J10">
-        <v>49.97999954223633</v>
+        <v>14.06999969482422</v>
       </c>
       <c r="K10">
-        <v>30.14999961853027</v>
+        <v>2.809999942779541</v>
       </c>
       <c r="L10">
-        <v>7.049314801866096</v>
+        <v>1.440866589609744</v>
       </c>
       <c r="M10">
-        <v>-7.509382230647738</v>
+        <v>-1.034005872523021</v>
       </c>
       <c r="N10">
-        <v>2.50998217294454</v>
+        <v>0.4668634195569087</v>
       </c>
       <c r="O10">
-        <v>-3.789243430926568</v>
+        <v>0.618915635409758</v>
       </c>
       <c r="P10">
-        <v>0.01434003191377822</v>
+        <v>0.01339613871205426</v>
       </c>
       <c r="Q10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" t="s">
         <v>24</v>
-      </c>
-      <c r="R10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1402</v>
+        <v>782</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>0.7136341680983749</v>
+        <v>0.5523924392348175</v>
       </c>
       <c r="E11">
-        <v>0.4544150034663414</v>
+        <v>0.3272635388717223</v>
       </c>
       <c r="F11">
-        <v>0.005540016992199611</v>
+        <v>0.001899147289493168</v>
       </c>
       <c r="G11">
-        <v>-10.10769380940564</v>
+        <v>26.87855180441089</v>
       </c>
       <c r="H11">
-        <v>0.3239654827834668</v>
+        <v>-3.633138116752576</v>
       </c>
       <c r="I11">
-        <v>5.22773558022847E-45</v>
+        <v>1.575696258145765E-55</v>
       </c>
       <c r="J11">
-        <v>5.510000228881836</v>
+        <v>7.639999866485596</v>
       </c>
       <c r="K11">
-        <v>46.7599983215332</v>
+        <v>5.590000152587891</v>
       </c>
       <c r="L11">
-        <v>0.8917096731509044</v>
+        <v>2.316091308102685</v>
       </c>
       <c r="M11">
-        <v>-0.6916346876989596</v>
+        <v>-2.588497981878248</v>
       </c>
       <c r="N11">
-        <v>0.3800723392445214</v>
+        <v>1.002630449945955</v>
       </c>
       <c r="O11">
-        <v>0.4690686070978742</v>
+        <v>1.070690689094484</v>
       </c>
       <c r="P11">
-        <v>0.0147644585906631</v>
+        <v>0.01361034551849019</v>
       </c>
       <c r="Q11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R11" t="s">
         <v>25</v>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>N</t>
   </si>
@@ -70,58 +70,61 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>EZTC3</t>
+  </si>
+  <si>
+    <t>BRKM5</t>
+  </si>
+  <si>
     <t>ABEV3</t>
   </si>
   <si>
-    <t>EZTC3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
+    <t>ELET3</t>
   </si>
   <si>
     <t>B3SA3</t>
   </si>
   <si>
-    <t>ELET3</t>
+    <t>BBDC3</t>
   </si>
   <si>
     <t>BBSE3</t>
   </si>
   <si>
+    <t>BHIA3</t>
+  </si>
+  <si>
+    <t>BRFS3</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>SUZB3</t>
+  </si>
+  <si>
+    <t>CMIN3</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>TOTS3</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>IRBR3</t>
+  </si>
+  <si>
+    <t>CIEL3</t>
+  </si>
+  <si>
     <t>CSAN3</t>
-  </si>
-  <si>
-    <t>BHIA3</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
-    <t>CMIN3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>MGLU3</t>
-  </si>
-  <si>
-    <t>TOTS3</t>
-  </si>
-  <si>
-    <t>IRBR3</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>CIEL3</t>
   </si>
 </sst>
 </file>
@@ -543,226 +546,226 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>37</v>
+        <v>2328</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.8522531864814746</v>
+        <v>0.7426051853254232</v>
       </c>
       <c r="E2">
-        <v>0.8479251525585036</v>
+        <v>0.7538817407524081</v>
       </c>
       <c r="F2">
-        <v>5.627817295638002E-05</v>
+        <v>0.0004860445014119104</v>
       </c>
       <c r="G2">
-        <v>5.537999370302948</v>
+        <v>-6.445365935311369</v>
       </c>
       <c r="H2">
-        <v>0.4601100442773499</v>
+        <v>0.6959877488435332</v>
       </c>
       <c r="I2">
-        <v>7.620968701450467E-60</v>
+        <v>1.069756125668863E-47</v>
       </c>
       <c r="J2">
-        <v>11.97000026702881</v>
+        <v>13.21000003814697</v>
       </c>
       <c r="K2">
-        <v>14.46000003814697</v>
+        <v>29.99265098571777</v>
       </c>
       <c r="L2">
-        <v>0.6633545336137665</v>
+        <v>2.099542991806768</v>
       </c>
       <c r="M2">
-        <v>-0.4927816567350458</v>
+        <v>-1.613580989359601</v>
       </c>
       <c r="N2">
-        <v>0.2076980139806179</v>
+        <v>0.6964659775501667</v>
       </c>
       <c r="O2">
-        <v>-0.2211903610764248</v>
+        <v>-1.219151667941148</v>
       </c>
       <c r="P2">
-        <v>0.009199873441968121</v>
+        <v>0.01088138174934893</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2328</v>
+        <v>1115</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0.7131997264885976</v>
+        <v>0.4106301869155955</v>
       </c>
       <c r="E3">
-        <v>0.7444437167289688</v>
+        <v>0.6566625782880171</v>
       </c>
       <c r="F3">
-        <v>0.0003869623913455668</v>
+        <v>0.0009920359266085445</v>
       </c>
       <c r="G3">
-        <v>-6.257579610728061</v>
+        <v>-9.029702051782614</v>
       </c>
       <c r="H3">
-        <v>0.6882259155375118</v>
+        <v>0.5329056817310192</v>
       </c>
       <c r="I3">
-        <v>2.801738709783135E-47</v>
+        <v>9.062786886910102E-45</v>
       </c>
       <c r="J3">
-        <v>13.39999961853027</v>
+        <v>19.30999946594238</v>
       </c>
       <c r="K3">
-        <v>30.09000015258789</v>
+        <v>50.09999847412109</v>
       </c>
       <c r="L3">
-        <v>2.093363717170639</v>
+        <v>3.209612356110782</v>
       </c>
       <c r="M3">
-        <v>-1.603562899517293</v>
+        <v>-2.967526890694092</v>
       </c>
       <c r="N3">
-        <v>0.6909775135980022</v>
+        <v>1.252617456979677</v>
       </c>
       <c r="O3">
-        <v>-1.051138674280335</v>
+        <v>1.641127676150475</v>
       </c>
       <c r="P3">
-        <v>0.01068017506587205</v>
+        <v>0.01196347362870247</v>
       </c>
       <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>858</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>0.2613928003834507</v>
+        <v>0.8578694548752652</v>
       </c>
       <c r="E4">
-        <v>0.1800765290505765</v>
+        <v>0.7483074871346678</v>
       </c>
       <c r="F4">
-        <v>0.000235862412745227</v>
+        <v>0.0009039688752912307</v>
       </c>
       <c r="G4">
-        <v>-0.6302001053658159</v>
+        <v>9.020283611718408</v>
       </c>
       <c r="H4">
-        <v>3.723296272167022</v>
+        <v>0.6416007365935579</v>
       </c>
       <c r="I4">
-        <v>4.104303499115841E-48</v>
+        <v>7.01688216913662E-52</v>
       </c>
       <c r="J4">
-        <v>33.11000061035156</v>
+        <v>11.96000003814697</v>
       </c>
       <c r="K4">
-        <v>9.470000267028809</v>
+        <v>5.289999961853027</v>
       </c>
       <c r="L4">
-        <v>1.793046383962</v>
+        <v>0.6338224414548694</v>
       </c>
       <c r="M4">
-        <v>-1.682575974037874</v>
+        <v>-0.6716400750048539</v>
       </c>
       <c r="N4">
-        <v>0.7514353616993749</v>
+        <v>0.241201326600109</v>
       </c>
       <c r="O4">
-        <v>-1.519415975931686</v>
+        <v>-0.454351445676231</v>
       </c>
       <c r="P4">
-        <v>0.01202676177349603</v>
+        <v>0.01215624924293232</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>19</v>
+        <v>2046</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>0.8522531864814746</v>
+        <v>0.4267002131054771</v>
       </c>
       <c r="E5">
-        <v>0.7264086568896135</v>
+        <v>0.1292068329900243</v>
       </c>
       <c r="F5">
-        <v>0.001089236791508627</v>
+        <v>0.00130221973513923</v>
       </c>
       <c r="G5">
-        <v>9.044695846729079</v>
+        <v>26.64014422834869</v>
       </c>
       <c r="H5">
-        <v>0.638075198401614</v>
+        <v>7.421289773227935</v>
       </c>
       <c r="I5">
-        <v>9.349156343252606E-52</v>
+        <v>4.002624753296173E-41</v>
       </c>
       <c r="J5">
-        <v>11.97000026702881</v>
+        <v>36.13999938964844</v>
       </c>
       <c r="K5">
-        <v>5.420000076293945</v>
+        <v>1.419999957084656</v>
       </c>
       <c r="L5">
-        <v>0.6302683003433973</v>
+        <v>2.352641922599105</v>
       </c>
       <c r="M5">
-        <v>-0.6724753019357284</v>
+        <v>-2.839472289370661</v>
       </c>
       <c r="N5">
-        <v>0.2388733635916963</v>
+        <v>1.001971545057602</v>
       </c>
       <c r="O5">
-        <v>-0.5330632037182923</v>
+        <v>-1.038375998196717</v>
       </c>
       <c r="P5">
-        <v>0.0120376382880722</v>
+        <v>0.01246267254604776</v>
       </c>
       <c r="Q5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -770,167 +773,167 @@
         <v>372</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>0.7866642158088457</v>
+        <v>0.7764109069928093</v>
       </c>
       <c r="E6">
-        <v>0.8698746316997947</v>
+        <v>0.8775173199897548</v>
       </c>
       <c r="F6">
-        <v>0.001308783479781733</v>
+        <v>0.00181085694343021</v>
       </c>
       <c r="G6">
-        <v>-3.203160990346046</v>
+        <v>-3.071004839105608</v>
       </c>
       <c r="H6">
-        <v>0.6054208097714353</v>
+        <v>0.6004941840653635</v>
       </c>
       <c r="I6">
-        <v>1.878530843878819E-71</v>
+        <v>6.474086171020538E-72</v>
       </c>
       <c r="J6">
-        <v>11.0600004196167</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="K6">
-        <v>22.90999984741211</v>
+        <v>22.84000015258789</v>
       </c>
       <c r="L6">
-        <v>0.6238080942120057</v>
+        <v>0.6313329000239527</v>
       </c>
       <c r="M6">
-        <v>-0.7130028182413657</v>
+        <v>-0.7168814151634102</v>
       </c>
       <c r="N6">
-        <v>0.2885160525489793</v>
+        <v>0.2903299483367551</v>
       </c>
       <c r="O6">
-        <v>0.3929707504790461</v>
+        <v>0.4657172401018119</v>
       </c>
       <c r="P6">
-        <v>0.01224519780905389</v>
+        <v>0.01266329410370112</v>
       </c>
       <c r="Q6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2046</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>0.3978126077002812</v>
+        <v>0.8578694548752652</v>
       </c>
       <c r="E7">
-        <v>0.1003139013081731</v>
+        <v>0.4688459608418997</v>
       </c>
       <c r="F7">
-        <v>0.001662740991081263</v>
+        <v>0.001200782018974689</v>
       </c>
       <c r="G7">
-        <v>26.77393930459609</v>
+        <v>5.819262051859504</v>
       </c>
       <c r="H7">
-        <v>7.353781230291803</v>
+        <v>0.2281792887218543</v>
       </c>
       <c r="I7">
-        <v>5.251524621991065E-40</v>
+        <v>7.479207851222698E-38</v>
       </c>
       <c r="J7">
-        <v>36.2400016784668</v>
+        <v>11.96000003814697</v>
       </c>
       <c r="K7">
-        <v>1.470000028610229</v>
+        <v>29.68000030517578</v>
       </c>
       <c r="L7">
-        <v>2.35521410179507</v>
+        <v>0.7379397009780462</v>
       </c>
       <c r="M7">
-        <v>-2.813517306151212</v>
+        <v>-0.7723969565941271</v>
       </c>
       <c r="N7">
-        <v>1.001551298624212</v>
+        <v>0.3067848373299618</v>
       </c>
       <c r="O7">
-        <v>-1.343996245051613</v>
+        <v>-0.6316233726119593</v>
       </c>
       <c r="P7">
-        <v>0.01258773270369629</v>
+        <v>0.01292403290000755</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>75</v>
+        <v>478</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>0.8522531864814746</v>
+        <v>0.7680519405574626</v>
       </c>
       <c r="E8">
-        <v>0.4621684069868263</v>
+        <v>0.6811346251437209</v>
       </c>
       <c r="F8">
-        <v>0.001268024941596643</v>
+        <v>0.002216931006261457</v>
       </c>
       <c r="G8">
-        <v>5.860480561598848</v>
+        <v>0.1865771778703686</v>
       </c>
       <c r="H8">
-        <v>0.2269932683420791</v>
+        <v>0.8789298432954751</v>
       </c>
       <c r="I8">
-        <v>5.53653407434388E-38</v>
+        <v>1.157831346186819E-121</v>
       </c>
       <c r="J8">
-        <v>11.97000026702881</v>
+        <v>11.64000034332275</v>
       </c>
       <c r="K8">
-        <v>29.95000076293945</v>
+        <v>12.88000011444092</v>
       </c>
       <c r="L8">
-        <v>0.7293719915229833</v>
+        <v>0.4118437417434251</v>
       </c>
       <c r="M8">
-        <v>-0.7741516136374056</v>
+        <v>-0.2574925978897511</v>
       </c>
       <c r="N8">
-        <v>0.303035928950705</v>
+        <v>0.1236185191059765</v>
       </c>
       <c r="O8">
-        <v>-0.6889288545974273</v>
+        <v>0.1328066832211281</v>
       </c>
       <c r="P8">
-        <v>0.01270324380872085</v>
+        <v>0.01339923737921223</v>
       </c>
       <c r="Q8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="R8" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -938,167 +941,167 @@
         <v>664</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>0.3757370717190893</v>
+        <v>0.3559798567712404</v>
       </c>
       <c r="E9">
-        <v>0.7270095025076342</v>
+        <v>0.6953451836445488</v>
       </c>
       <c r="F9">
-        <v>0.001359539578757255</v>
+        <v>0.001453732700094362</v>
       </c>
       <c r="G9">
-        <v>41.46540954521747</v>
+        <v>41.33862576911869</v>
       </c>
       <c r="H9">
-        <v>-0.2174313206309219</v>
+        <v>-0.2145669673429824</v>
       </c>
       <c r="I9">
-        <v>8.268665466429477E-30</v>
+        <v>7.509052058303233E-30</v>
       </c>
       <c r="J9">
-        <v>33.36000061035156</v>
+        <v>33.22000122070312</v>
       </c>
       <c r="K9">
-        <v>33.40000152587891</v>
+        <v>33.97000122070312</v>
       </c>
       <c r="L9">
-        <v>2.25513278378024</v>
+        <v>2.260840345086628</v>
       </c>
       <c r="M9">
-        <v>-1.921026277774374</v>
+        <v>-1.917925277522947</v>
       </c>
       <c r="N9">
-        <v>0.7101608885606262</v>
+        <v>0.7112403800628785</v>
       </c>
       <c r="O9">
-        <v>-0.8432024940192502</v>
+        <v>-0.8297844058518802</v>
       </c>
       <c r="P9">
-        <v>0.01338837145396984</v>
+        <v>0.01367328350626715</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1731</v>
+        <v>782</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>0.9545079688002752</v>
+        <v>0.5481788317869821</v>
       </c>
       <c r="E10">
-        <v>0.9411281540749965</v>
+        <v>0.3082511347819639</v>
       </c>
       <c r="F10">
-        <v>0.002201957225007661</v>
+        <v>0.001925511358075018</v>
       </c>
       <c r="G10">
-        <v>-0.3717053569243269</v>
+        <v>26.82046686900124</v>
       </c>
       <c r="H10">
-        <v>4.919142241215076</v>
+        <v>-3.619579201524858</v>
       </c>
       <c r="I10">
-        <v>2.352561021169061E-75</v>
+        <v>8.586534190588015E-56</v>
       </c>
       <c r="J10">
-        <v>14.06999969482422</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="K10">
-        <v>2.809999942779541</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="L10">
-        <v>1.440866589609744</v>
+        <v>2.31653664932259</v>
       </c>
       <c r="M10">
-        <v>-1.034005872523021</v>
+        <v>-2.592700528790107</v>
       </c>
       <c r="N10">
-        <v>0.4668634195569087</v>
+        <v>1.002876319764878</v>
       </c>
       <c r="O10">
-        <v>0.618915635409758</v>
+        <v>1.026784894722926</v>
       </c>
       <c r="P10">
-        <v>0.01339613871205426</v>
+        <v>0.01374094878412997</v>
       </c>
       <c r="Q10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>782</v>
+        <v>999</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>0.5523924392348175</v>
+        <v>0.7720681298516743</v>
       </c>
       <c r="E11">
-        <v>0.3272635388717223</v>
+        <v>0.9583611544039933</v>
       </c>
       <c r="F11">
-        <v>0.001899147289493168</v>
+        <v>0.0002740770337547049</v>
       </c>
       <c r="G11">
-        <v>26.87855180441089</v>
+        <v>31.8162363674826</v>
       </c>
       <c r="H11">
-        <v>-3.633138116752576</v>
+        <v>-0.9765494694117187</v>
       </c>
       <c r="I11">
-        <v>1.575696258145765E-55</v>
+        <v>4.332467919740481E-42</v>
       </c>
       <c r="J11">
-        <v>7.639999866485596</v>
+        <v>19.22999954223633</v>
       </c>
       <c r="K11">
-        <v>5.590000152587891</v>
+        <v>13.92000007629395</v>
       </c>
       <c r="L11">
-        <v>2.316091308102685</v>
+        <v>1.836545724766701</v>
       </c>
       <c r="M11">
-        <v>-2.588497981878248</v>
+        <v>-3.283337058750611</v>
       </c>
       <c r="N11">
-        <v>1.002630449945955</v>
+        <v>0.9495084286975731</v>
       </c>
       <c r="O11">
-        <v>1.070690689094484</v>
+        <v>1.00733186346967</v>
       </c>
       <c r="P11">
-        <v>0.01361034551849019</v>
+        <v>0.01395214022136297</v>
       </c>
       <c r="Q11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -73,58 +73,52 @@
     <t>EZTC3</t>
   </si>
   <si>
-    <t>BRKM5</t>
+    <t>BRFS3</t>
   </si>
   <si>
     <t>ABEV3</t>
   </si>
   <si>
+    <t>BBSE3</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
     <t>ELET3</t>
   </si>
   <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>BBDC3</t>
-  </si>
-  <si>
-    <t>BBSE3</t>
-  </si>
-  <si>
-    <t>BHIA3</t>
-  </si>
-  <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
     <t>HYPE3</t>
   </si>
   <si>
-    <t>SUZB3</t>
+    <t>ENGI11</t>
   </si>
   <si>
     <t>CMIN3</t>
   </si>
   <si>
-    <t>MGLU3</t>
+    <t>IRBR3</t>
   </si>
   <si>
     <t>MULT3</t>
   </si>
   <si>
+    <t>GOAU4</t>
+  </si>
+  <si>
     <t>TOTS3</t>
   </si>
   <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
-    <t>IRBR3</t>
-  </si>
-  <si>
-    <t>CIEL3</t>
-  </si>
-  <si>
-    <t>CSAN3</t>
+    <t>CPLE6</t>
   </si>
 </sst>
 </file>
@@ -555,43 +549,43 @@
         <v>27</v>
       </c>
       <c r="D2">
-        <v>0.7426051853254232</v>
+        <v>0.8024534033674158</v>
       </c>
       <c r="E2">
-        <v>0.7538817407524081</v>
+        <v>0.7683678491633577</v>
       </c>
       <c r="F2">
-        <v>0.0004860445014119104</v>
+        <v>0.0005663787094402549</v>
       </c>
       <c r="G2">
-        <v>-6.445365935311369</v>
+        <v>-6.681670916204661</v>
       </c>
       <c r="H2">
-        <v>0.6959877488435332</v>
+        <v>0.7028828394139985</v>
       </c>
       <c r="I2">
-        <v>1.069756125668863E-47</v>
+        <v>3.241287397882239E-47</v>
       </c>
       <c r="J2">
-        <v>13.21000003814697</v>
+        <v>13.01000022888184</v>
       </c>
       <c r="K2">
-        <v>29.99265098571777</v>
+        <v>29.70000076293945</v>
       </c>
       <c r="L2">
-        <v>2.099542991806768</v>
+        <v>2.109333367082087</v>
       </c>
       <c r="M2">
-        <v>-1.613580989359601</v>
+        <v>-1.624001145490716</v>
       </c>
       <c r="N2">
-        <v>0.6964659775501667</v>
+        <v>0.7083678961784446</v>
       </c>
       <c r="O2">
-        <v>-1.219151667941148</v>
+        <v>-1.183949721766311</v>
       </c>
       <c r="P2">
-        <v>0.01088138174934893</v>
+        <v>0.01097705978037152</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -602,7 +596,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1115</v>
+        <v>1009</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -611,43 +605,43 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>0.4106301869155955</v>
+        <v>0.7737912358574878</v>
       </c>
       <c r="E3">
-        <v>0.6566625782880171</v>
+        <v>0.3876940417892212</v>
       </c>
       <c r="F3">
-        <v>0.0009920359266085445</v>
+        <v>1.010127252175292E-05</v>
       </c>
       <c r="G3">
-        <v>-9.029702051782614</v>
+        <v>47.3900623867046</v>
       </c>
       <c r="H3">
-        <v>0.5329056817310192</v>
+        <v>-0.6470099744867777</v>
       </c>
       <c r="I3">
-        <v>9.062786886910102E-45</v>
+        <v>6.714603600897202E-28</v>
       </c>
       <c r="J3">
-        <v>19.30999946594238</v>
+        <v>19.07999992370605</v>
       </c>
       <c r="K3">
-        <v>50.09999847412109</v>
+        <v>46.75</v>
       </c>
       <c r="L3">
-        <v>3.209612356110782</v>
+        <v>2.475303533987628</v>
       </c>
       <c r="M3">
-        <v>-2.967526890694092</v>
+        <v>-5.419418220665719</v>
       </c>
       <c r="N3">
-        <v>1.252617456979677</v>
+        <v>1.195476636747389</v>
       </c>
       <c r="O3">
-        <v>1.641127676150475</v>
+        <v>1.93765384425831</v>
       </c>
       <c r="P3">
-        <v>0.01196347362870247</v>
+        <v>0.01131308883081866</v>
       </c>
       <c r="Q3" t="s">
         <v>28</v>
@@ -667,43 +661,43 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>0.8578694548752652</v>
+        <v>0.8787725511655469</v>
       </c>
       <c r="E4">
-        <v>0.7483074871346678</v>
+        <v>0.7830177158601404</v>
       </c>
       <c r="F4">
-        <v>0.0009039688752912307</v>
+        <v>0.001820095731877121</v>
       </c>
       <c r="G4">
-        <v>9.020283611718408</v>
+        <v>8.924946782242431</v>
       </c>
       <c r="H4">
-        <v>0.6416007365935579</v>
+        <v>0.6552902845463727</v>
       </c>
       <c r="I4">
-        <v>7.01688216913662E-52</v>
+        <v>8.178653082564462E-53</v>
       </c>
       <c r="J4">
-        <v>11.96000003814697</v>
+        <v>11.86999988555908</v>
       </c>
       <c r="K4">
         <v>5.289999961853027</v>
       </c>
       <c r="L4">
-        <v>0.6338224414548694</v>
+        <v>0.6481679836176468</v>
       </c>
       <c r="M4">
-        <v>-0.6716400750048539</v>
+        <v>-0.6678519864926784</v>
       </c>
       <c r="N4">
-        <v>0.241201326600109</v>
+        <v>0.2384826196004073</v>
       </c>
       <c r="O4">
-        <v>-0.454351445676231</v>
+        <v>-0.5214324769363201</v>
       </c>
       <c r="P4">
-        <v>0.01215624924293232</v>
+        <v>0.0122700915950858</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
@@ -714,7 +708,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2046</v>
+        <v>664</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -723,43 +717,43 @@
         <v>30</v>
       </c>
       <c r="D5">
-        <v>0.4267002131054771</v>
+        <v>0.1574222911570834</v>
       </c>
       <c r="E5">
-        <v>0.1292068329900243</v>
+        <v>0.7121802482429205</v>
       </c>
       <c r="F5">
-        <v>0.00130221973513923</v>
+        <v>0.0007214418393292709</v>
       </c>
       <c r="G5">
-        <v>26.64014422834869</v>
+        <v>41.10051865130281</v>
       </c>
       <c r="H5">
-        <v>7.421289773227935</v>
+        <v>-0.2083779394814966</v>
       </c>
       <c r="I5">
-        <v>4.002624753296173E-41</v>
+        <v>4.621955717378017E-30</v>
       </c>
       <c r="J5">
-        <v>36.13999938964844</v>
+        <v>32.68999862670898</v>
       </c>
       <c r="K5">
-        <v>1.419999957084656</v>
+        <v>33.72000122070312</v>
       </c>
       <c r="L5">
-        <v>2.352641922599105</v>
+        <v>2.237337252364391</v>
       </c>
       <c r="M5">
-        <v>-2.839472289370661</v>
+        <v>-1.947060384654762</v>
       </c>
       <c r="N5">
-        <v>1.001971545057602</v>
+        <v>0.6928661196905643</v>
       </c>
       <c r="O5">
-        <v>-1.038375998196717</v>
+        <v>-1.384015650910154</v>
       </c>
       <c r="P5">
-        <v>0.01246267254604776</v>
+        <v>0.01302184004106153</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
@@ -779,43 +773,43 @@
         <v>31</v>
       </c>
       <c r="D6">
-        <v>0.7764109069928093</v>
+        <v>0.7853509751799375</v>
       </c>
       <c r="E6">
-        <v>0.8775173199897548</v>
+        <v>0.895202880073956</v>
       </c>
       <c r="F6">
-        <v>0.00181085694343021</v>
+        <v>0.002782668508086726</v>
       </c>
       <c r="G6">
-        <v>-3.071004839105608</v>
+        <v>-2.915019812486792</v>
       </c>
       <c r="H6">
-        <v>0.6004941840653635</v>
+        <v>0.5948289932587459</v>
       </c>
       <c r="I6">
-        <v>6.474086171020538E-72</v>
+        <v>6.796628002748705E-71</v>
       </c>
       <c r="J6">
-        <v>11.10999965667725</v>
+        <v>11.14000034332275</v>
       </c>
       <c r="K6">
-        <v>22.84000015258789</v>
+        <v>22.79000091552734</v>
       </c>
       <c r="L6">
-        <v>0.6313329000239527</v>
+        <v>0.6359697715074883</v>
       </c>
       <c r="M6">
-        <v>-0.7168814151634102</v>
+        <v>-0.7253584180806669</v>
       </c>
       <c r="N6">
-        <v>0.2903299483367551</v>
+        <v>0.294162438912946</v>
       </c>
       <c r="O6">
-        <v>0.4657172401018119</v>
+        <v>0.498866854860518</v>
       </c>
       <c r="P6">
-        <v>0.01266329410370112</v>
+        <v>0.01310334191515916</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -826,55 +820,55 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>75</v>
+        <v>2085</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="D7">
-        <v>0.8578694548752652</v>
+        <v>0.1301835757743156</v>
       </c>
       <c r="E7">
-        <v>0.4688459608418997</v>
+        <v>0.3932740905536172</v>
       </c>
       <c r="F7">
-        <v>0.001200782018974689</v>
+        <v>0.0002502878265004059</v>
       </c>
       <c r="G7">
-        <v>5.819262051859504</v>
+        <v>67.2344291156968</v>
       </c>
       <c r="H7">
-        <v>0.2281792887218543</v>
+        <v>-2.294539526274034</v>
       </c>
       <c r="I7">
-        <v>7.479207851222698E-38</v>
+        <v>1.305984104705334E-14</v>
       </c>
       <c r="J7">
-        <v>11.96000003814697</v>
+        <v>40.47000122070312</v>
       </c>
       <c r="K7">
-        <v>29.68000030517578</v>
+        <v>10.94999980926514</v>
       </c>
       <c r="L7">
-        <v>0.7379397009780462</v>
+        <v>2.27964602181062</v>
       </c>
       <c r="M7">
-        <v>-0.7723969565941271</v>
+        <v>-5.06834130352977</v>
       </c>
       <c r="N7">
-        <v>0.3067848373299618</v>
+        <v>1.433084455410667</v>
       </c>
       <c r="O7">
-        <v>-0.6316233726119593</v>
+        <v>-1.639220519941677</v>
       </c>
       <c r="P7">
-        <v>0.01292403290000755</v>
+        <v>0.01339540222133055</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
         <v>32</v>
@@ -882,63 +876,63 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>478</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
       </c>
       <c r="D8">
-        <v>0.7680519405574626</v>
+        <v>0.8787725511655469</v>
       </c>
       <c r="E8">
-        <v>0.6811346251437209</v>
+        <v>0.6884423149835421</v>
       </c>
       <c r="F8">
-        <v>0.002216931006261457</v>
+        <v>0.004312213824577188</v>
       </c>
       <c r="G8">
-        <v>0.1865771778703686</v>
+        <v>5.546506611893153</v>
       </c>
       <c r="H8">
-        <v>0.8789298432954751</v>
+        <v>0.2365258917501882</v>
       </c>
       <c r="I8">
-        <v>1.157831346186819E-121</v>
+        <v>2.189103274087547E-39</v>
       </c>
       <c r="J8">
-        <v>11.64000034332275</v>
+        <v>11.86999988555908</v>
       </c>
       <c r="K8">
-        <v>12.88000011444092</v>
+        <v>29.05999946594238</v>
       </c>
       <c r="L8">
-        <v>0.4118437417434251</v>
+        <v>0.6207407127518572</v>
       </c>
       <c r="M8">
-        <v>-0.2574925978897511</v>
+        <v>-0.7773678677425231</v>
       </c>
       <c r="N8">
-        <v>0.1236185191059765</v>
+        <v>0.3012814665806129</v>
       </c>
       <c r="O8">
-        <v>0.1328066832211281</v>
+        <v>-0.5499490142760868</v>
       </c>
       <c r="P8">
-        <v>0.01339923737921223</v>
+        <v>0.01376992882531835</v>
       </c>
       <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" t="s">
         <v>33</v>
-      </c>
-      <c r="R8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>664</v>
+        <v>858</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -947,43 +941,43 @@
         <v>34</v>
       </c>
       <c r="D9">
-        <v>0.3559798567712404</v>
+        <v>0.3001617646753353</v>
       </c>
       <c r="E9">
-        <v>0.6953451836445488</v>
+        <v>0.4940968482440944</v>
       </c>
       <c r="F9">
-        <v>0.001453732700094362</v>
+        <v>0.0002489929629088049</v>
       </c>
       <c r="G9">
-        <v>41.33862576911869</v>
+        <v>-1.672233132181358</v>
       </c>
       <c r="H9">
-        <v>-0.2145669673429824</v>
+        <v>3.827049805620018</v>
       </c>
       <c r="I9">
-        <v>7.509052058303233E-30</v>
+        <v>3.215947276094684E-45</v>
       </c>
       <c r="J9">
-        <v>33.22000122070312</v>
+        <v>32.09999847412109</v>
       </c>
       <c r="K9">
-        <v>33.97000122070312</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="L9">
-        <v>2.260840345086628</v>
+        <v>1.828358571717686</v>
       </c>
       <c r="M9">
-        <v>-1.917925277522947</v>
+        <v>-1.819332315915545</v>
       </c>
       <c r="N9">
-        <v>0.7112403800628785</v>
+        <v>0.7802786755548867</v>
       </c>
       <c r="O9">
-        <v>-0.8297844058518802</v>
+        <v>-1.819332315915538</v>
       </c>
       <c r="P9">
-        <v>0.01367328350626715</v>
+        <v>0.01377829866320747</v>
       </c>
       <c r="Q9" t="s">
         <v>24</v>
@@ -994,55 +988,55 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>782</v>
+        <v>729</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>0.5481788317869821</v>
+        <v>0.3344829781602986</v>
       </c>
       <c r="E10">
-        <v>0.3082511347819639</v>
+        <v>0.8024534033674158</v>
       </c>
       <c r="F10">
-        <v>0.001925511358075018</v>
+        <v>0.006925498031702909</v>
       </c>
       <c r="G10">
-        <v>26.82046686900124</v>
+        <v>3.173378582063776</v>
       </c>
       <c r="H10">
-        <v>-3.619579201524858</v>
+        <v>0.2264969634058176</v>
       </c>
       <c r="I10">
-        <v>8.586534190588015E-56</v>
+        <v>8.259049946201071E-42</v>
       </c>
       <c r="J10">
-        <v>7.650000095367432</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="K10">
-        <v>5.579999923706055</v>
+        <v>13.01000022888184</v>
       </c>
       <c r="L10">
-        <v>2.31653664932259</v>
+        <v>0.6298089830559226</v>
       </c>
       <c r="M10">
-        <v>-2.592700528790107</v>
+        <v>-0.5087793839081467</v>
       </c>
       <c r="N10">
-        <v>1.002876319764878</v>
+        <v>0.2032514128889339</v>
       </c>
       <c r="O10">
-        <v>1.026784894722926</v>
+        <v>0.4298960629203599</v>
       </c>
       <c r="P10">
-        <v>0.01374094878412997</v>
+        <v>0.01441234995948567</v>
       </c>
       <c r="Q10" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="R10" t="s">
         <v>25</v>
@@ -1050,58 +1044,58 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>999</v>
+        <v>2034</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.7720681298516743</v>
+        <v>0.4404703875306133</v>
       </c>
       <c r="E11">
-        <v>0.9583611544039933</v>
+        <v>0.3932740905536172</v>
       </c>
       <c r="F11">
-        <v>0.0002740770337547049</v>
+        <v>0.001447473775705694</v>
       </c>
       <c r="G11">
-        <v>31.8162363674826</v>
+        <v>68.25797309037699</v>
       </c>
       <c r="H11">
-        <v>-0.9765494694117187</v>
+        <v>-2.709397228897481</v>
       </c>
       <c r="I11">
-        <v>4.332467919740481E-42</v>
+        <v>8.370564505563222E-18</v>
       </c>
       <c r="J11">
-        <v>19.22999954223633</v>
+        <v>36.20000076293945</v>
       </c>
       <c r="K11">
-        <v>13.92000007629395</v>
+        <v>10.94999980926514</v>
       </c>
       <c r="L11">
-        <v>1.836545724766701</v>
+        <v>2.513706933177517</v>
       </c>
       <c r="M11">
-        <v>-3.283337058750611</v>
+        <v>-4.36167203224786</v>
       </c>
       <c r="N11">
-        <v>0.9495084286975731</v>
+        <v>1.472514686858339</v>
       </c>
       <c r="O11">
-        <v>1.00733186346967</v>
+        <v>-2.390073187786637</v>
       </c>
       <c r="P11">
-        <v>0.01395214022136297</v>
+        <v>0.01446637950600183</v>
       </c>
       <c r="Q11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -70,13 +70,13 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>EZTC3</t>
+    <t>ABEV3</t>
   </si>
   <si>
     <t>BRFS3</t>
   </si>
   <si>
-    <t>ABEV3</t>
+    <t>CVCB3</t>
   </si>
   <si>
     <t>BBSE3</t>
@@ -88,37 +88,34 @@
     <t>ELET6</t>
   </si>
   <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>BEEF3</t>
-  </si>
-  <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>CSAN3</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
   </si>
   <si>
     <t>ENGI11</t>
   </si>
   <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>IRBR3</t>
+  </si>
+  <si>
     <t>CMIN3</t>
   </si>
   <si>
-    <t>IRBR3</t>
+    <t>RAIZ4</t>
   </si>
   <si>
     <t>MULT3</t>
   </si>
   <si>
     <t>GOAU4</t>
-  </si>
-  <si>
-    <t>TOTS3</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
   </si>
 </sst>
 </file>
@@ -540,111 +537,111 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2328</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>0.8024534033674158</v>
+        <v>0.896096336913619</v>
       </c>
       <c r="E2">
-        <v>0.7683678491633577</v>
+        <v>0.8667796697760568</v>
       </c>
       <c r="F2">
-        <v>0.0005663787094402549</v>
+        <v>3.215914014633273E-05</v>
       </c>
       <c r="G2">
-        <v>-6.681670916204661</v>
+        <v>5.433437652722198</v>
       </c>
       <c r="H2">
-        <v>0.7028828394139985</v>
+        <v>0.4664498805275152</v>
       </c>
       <c r="I2">
-        <v>3.241287397882239E-47</v>
+        <v>9.688396545888591E-61</v>
       </c>
       <c r="J2">
-        <v>13.01000022888184</v>
+        <v>11.8100004196167</v>
       </c>
       <c r="K2">
-        <v>29.70000076293945</v>
+        <v>14.3100004196167</v>
       </c>
       <c r="L2">
-        <v>2.109333367082087</v>
+        <v>0.6680374751345042</v>
       </c>
       <c r="M2">
-        <v>-1.624001145490716</v>
+        <v>-0.4928590641577291</v>
       </c>
       <c r="N2">
-        <v>0.7083678961784446</v>
+        <v>0.2101141565484698</v>
       </c>
       <c r="O2">
-        <v>-1.183949721766311</v>
+        <v>-0.2983352191844011</v>
       </c>
       <c r="P2">
-        <v>0.01097705978037152</v>
+        <v>0.009109138987895983</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>0.7737912358574878</v>
+        <v>0.8711553454964951</v>
       </c>
       <c r="E3">
-        <v>0.3876940417892212</v>
+        <v>0.9453431262520349</v>
       </c>
       <c r="F3">
-        <v>1.010127252175292E-05</v>
+        <v>0.0005519473497125091</v>
       </c>
       <c r="G3">
-        <v>47.3900623867046</v>
+        <v>31.94904022549354</v>
       </c>
       <c r="H3">
-        <v>-0.6470099744867777</v>
+        <v>-0.9787950111786723</v>
       </c>
       <c r="I3">
-        <v>6.714603600897202E-28</v>
+        <v>2.652916355685252E-48</v>
       </c>
       <c r="J3">
-        <v>19.07999992370605</v>
+        <v>19.32999992370605</v>
       </c>
       <c r="K3">
-        <v>46.75</v>
+        <v>14.06999969482422</v>
       </c>
       <c r="L3">
-        <v>2.475303533987628</v>
+        <v>1.73603275762153</v>
       </c>
       <c r="M3">
-        <v>-5.419418220665719</v>
+        <v>-2.435217332682019</v>
       </c>
       <c r="N3">
-        <v>1.195476636747389</v>
+        <v>0.8401215556734635</v>
       </c>
       <c r="O3">
-        <v>1.93765384425831</v>
+        <v>1.1526052067919</v>
       </c>
       <c r="P3">
-        <v>0.01131308883081866</v>
+        <v>0.01109453351157372</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -652,450 +649,450 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>19</v>
+        <v>1863</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.8787725511655469</v>
+        <v>0.8855767285918983</v>
       </c>
       <c r="E4">
-        <v>0.7830177158601404</v>
+        <v>0.9407067416249975</v>
       </c>
       <c r="F4">
-        <v>0.001820095731877121</v>
+        <v>0.004411353322460484</v>
       </c>
       <c r="G4">
-        <v>8.924946782242431</v>
+        <v>-0.7490814915444797</v>
       </c>
       <c r="H4">
-        <v>0.6552902845463727</v>
+        <v>0.2033631913528576</v>
       </c>
       <c r="I4">
-        <v>8.178653082564462E-53</v>
+        <v>3.358299973803304E-67</v>
       </c>
       <c r="J4">
-        <v>11.86999988555908</v>
+        <v>2.109999895095825</v>
       </c>
       <c r="K4">
-        <v>5.289999961853027</v>
+        <v>13.09000015258789</v>
       </c>
       <c r="L4">
-        <v>0.6481679836176468</v>
+        <v>0.4631665552717426</v>
       </c>
       <c r="M4">
-        <v>-0.6678519864926784</v>
+        <v>-0.3516228885397528</v>
       </c>
       <c r="N4">
-        <v>0.2384826196004073</v>
+        <v>0.1823968625301413</v>
       </c>
       <c r="O4">
-        <v>-0.5214324769363201</v>
+        <v>0.1970571808006381</v>
       </c>
       <c r="P4">
-        <v>0.0122700915950858</v>
+        <v>0.01114876543953368</v>
       </c>
       <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" t="s">
         <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>664</v>
+        <v>1009</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.1574222911570834</v>
+        <v>0.8711553454964951</v>
       </c>
       <c r="E5">
-        <v>0.7121802482429205</v>
+        <v>0.5216578981193901</v>
       </c>
       <c r="F5">
-        <v>0.0007214418393292709</v>
+        <v>0.0003278822784943753</v>
       </c>
       <c r="G5">
-        <v>41.10051865130281</v>
+        <v>48.93559170753321</v>
       </c>
       <c r="H5">
-        <v>-0.2083779394814966</v>
+        <v>-0.6770245302404999</v>
       </c>
       <c r="I5">
-        <v>4.621955717378017E-30</v>
+        <v>3.81048099301956E-32</v>
       </c>
       <c r="J5">
-        <v>32.68999862670898</v>
+        <v>19.32999992370605</v>
       </c>
       <c r="K5">
-        <v>33.72000122070312</v>
+        <v>46.77000045776367</v>
       </c>
       <c r="L5">
-        <v>2.237337252364391</v>
+        <v>2.382471348908439</v>
       </c>
       <c r="M5">
-        <v>-1.947060384654762</v>
+        <v>-3.523350368710723</v>
       </c>
       <c r="N5">
-        <v>0.6928661196905643</v>
+        <v>1.112792318067208</v>
       </c>
       <c r="O5">
-        <v>-1.384015650910154</v>
+        <v>2.058845805438256</v>
       </c>
       <c r="P5">
-        <v>0.01302184004106153</v>
+        <v>0.0121536978153545</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="R5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>372</v>
+        <v>1010</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.7853509751799375</v>
+        <v>0.8711553454964951</v>
       </c>
       <c r="E6">
-        <v>0.895202880073956</v>
+        <v>0.9587248810313568</v>
       </c>
       <c r="F6">
-        <v>0.002782668508086726</v>
+        <v>0.001397636123738747</v>
       </c>
       <c r="G6">
-        <v>-2.915019812486792</v>
+        <v>48.96397265640036</v>
       </c>
       <c r="H6">
-        <v>0.5948289932587459</v>
+        <v>-1.021003569296833</v>
       </c>
       <c r="I6">
-        <v>6.796628002748705E-71</v>
+        <v>3.2738623733244E-35</v>
       </c>
       <c r="J6">
-        <v>11.14000034332275</v>
+        <v>19.32999992370605</v>
       </c>
       <c r="K6">
-        <v>22.79000091552734</v>
+        <v>30.43000030517578</v>
       </c>
       <c r="L6">
-        <v>0.6359697715074883</v>
+        <v>2.133229580184516</v>
       </c>
       <c r="M6">
-        <v>-0.7253584180806669</v>
+        <v>-3.062295024490481</v>
       </c>
       <c r="N6">
-        <v>0.294162438912946</v>
+        <v>1.055046497777622</v>
       </c>
       <c r="O6">
-        <v>0.498866854860518</v>
+        <v>1.435166192593897</v>
       </c>
       <c r="P6">
-        <v>0.01310334191515916</v>
+        <v>0.01301611925337421</v>
       </c>
       <c r="Q6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2085</v>
+        <v>664</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.1301835757743156</v>
+        <v>0.1953429557451764</v>
       </c>
       <c r="E7">
-        <v>0.3932740905536172</v>
+        <v>0.7304107316831113</v>
       </c>
       <c r="F7">
-        <v>0.0002502878265004059</v>
+        <v>0.000469386760146497</v>
       </c>
       <c r="G7">
-        <v>67.2344291156968</v>
+        <v>40.87921246631321</v>
       </c>
       <c r="H7">
-        <v>-2.294539526274034</v>
+        <v>-0.2029832341454176</v>
       </c>
       <c r="I7">
-        <v>1.305984104705334E-14</v>
+        <v>2.954689301833323E-30</v>
       </c>
       <c r="J7">
-        <v>40.47000122070312</v>
+        <v>32.86000061035156</v>
       </c>
       <c r="K7">
-        <v>10.94999980926514</v>
+        <v>33.25</v>
       </c>
       <c r="L7">
-        <v>2.27964602181062</v>
+        <v>2.23060924032842</v>
       </c>
       <c r="M7">
-        <v>-5.06834130352977</v>
+        <v>-1.772039818122408</v>
       </c>
       <c r="N7">
-        <v>1.433084455410667</v>
+        <v>0.6812028703478094</v>
       </c>
       <c r="O7">
-        <v>-1.639220519941677</v>
+        <v>-1.270019320626516</v>
       </c>
       <c r="P7">
-        <v>0.01339540222133055</v>
+        <v>0.01308952115767895</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.8787725511655469</v>
+        <v>0.896096336913619</v>
       </c>
       <c r="E8">
-        <v>0.6884423149835421</v>
+        <v>0.7917473542953315</v>
       </c>
       <c r="F8">
-        <v>0.004312213824577188</v>
+        <v>0.004368678444424594</v>
       </c>
       <c r="G8">
-        <v>5.546506611893153</v>
+        <v>8.882182779309421</v>
       </c>
       <c r="H8">
-        <v>0.2365258917501882</v>
+        <v>0.661356874451791</v>
       </c>
       <c r="I8">
-        <v>2.189103274087547E-39</v>
+        <v>2.32133492533743E-52</v>
       </c>
       <c r="J8">
-        <v>11.86999988555908</v>
+        <v>11.8100004196167</v>
       </c>
       <c r="K8">
-        <v>29.05999946594238</v>
+        <v>5.340000152587891</v>
       </c>
       <c r="L8">
-        <v>0.6207407127518572</v>
+        <v>0.6550403027832559</v>
       </c>
       <c r="M8">
-        <v>-0.7773678677425231</v>
+        <v>-0.6656579390154373</v>
       </c>
       <c r="N8">
-        <v>0.3012814665806129</v>
+        <v>0.2431384351908269</v>
       </c>
       <c r="O8">
-        <v>-0.5499490142760868</v>
+        <v>-0.6038281701803361</v>
       </c>
       <c r="P8">
-        <v>0.01376992882531835</v>
+        <v>0.01319259408728487</v>
       </c>
       <c r="Q8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>858</v>
+        <v>1038</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.3001617646753353</v>
+        <v>0.8711553454964951</v>
       </c>
       <c r="E9">
-        <v>0.4940968482440944</v>
+        <v>0.9108350087218002</v>
       </c>
       <c r="F9">
-        <v>0.0002489929629088049</v>
+        <v>0.007155258689820177</v>
       </c>
       <c r="G9">
-        <v>-1.672233132181358</v>
+        <v>32.39373397125795</v>
       </c>
       <c r="H9">
-        <v>3.827049805620018</v>
+        <v>-4.844808088775096</v>
       </c>
       <c r="I9">
-        <v>3.215947276094684E-45</v>
+        <v>2.97196563748753E-42</v>
       </c>
       <c r="J9">
-        <v>32.09999847412109</v>
+        <v>19.32999992370605</v>
       </c>
       <c r="K9">
-        <v>9.300000190734863</v>
+        <v>2.900000095367432</v>
       </c>
       <c r="L9">
-        <v>1.828358571717686</v>
+        <v>1.835380804726046</v>
       </c>
       <c r="M9">
-        <v>-1.819332315915545</v>
+        <v>-2.247907964280046</v>
       </c>
       <c r="N9">
-        <v>0.7802786755548867</v>
+        <v>0.933413950755945</v>
       </c>
       <c r="O9">
-        <v>-1.819332315915538</v>
+        <v>0.9862098719327861</v>
       </c>
       <c r="P9">
-        <v>0.01377829866320747</v>
+        <v>0.01321620148938437</v>
       </c>
       <c r="Q9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="R9" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>729</v>
+        <v>372</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.3344829781602986</v>
+        <v>0.8197940093163671</v>
       </c>
       <c r="E10">
-        <v>0.8024534033674158</v>
+        <v>0.8795787258175403</v>
       </c>
       <c r="F10">
-        <v>0.006925498031702909</v>
+        <v>0.001941315083998215</v>
       </c>
       <c r="G10">
-        <v>3.173378582063776</v>
+        <v>-2.824440947456385</v>
       </c>
       <c r="H10">
-        <v>0.2264969634058176</v>
+        <v>0.5914805398611469</v>
       </c>
       <c r="I10">
-        <v>8.259049946201071E-42</v>
+        <v>4.487870579791673E-71</v>
       </c>
       <c r="J10">
-        <v>6.550000190734863</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="K10">
-        <v>13.01000022888184</v>
+        <v>22.96999931335449</v>
       </c>
       <c r="L10">
-        <v>0.6298089830559226</v>
+        <v>0.6403282451642021</v>
       </c>
       <c r="M10">
-        <v>-0.5087793839081467</v>
+        <v>-0.7287515624536791</v>
       </c>
       <c r="N10">
-        <v>0.2032514128889339</v>
+        <v>0.2955583492889087</v>
       </c>
       <c r="O10">
-        <v>0.4298960629203599</v>
+        <v>0.338133734453022</v>
       </c>
       <c r="P10">
-        <v>0.01441234995948567</v>
+        <v>0.01327127865166784</v>
       </c>
       <c r="Q10" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2034</v>
+        <v>2085</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.4404703875306133</v>
+        <v>0.152933903796211</v>
       </c>
       <c r="E11">
-        <v>0.3932740905536172</v>
+        <v>0.4104147273324295</v>
       </c>
       <c r="F11">
-        <v>0.001447473775705694</v>
+        <v>0.0002067019619071556</v>
       </c>
       <c r="G11">
-        <v>68.25797309037699</v>
+        <v>68.1416174968807</v>
       </c>
       <c r="H11">
-        <v>-2.709397228897481</v>
+        <v>-2.380810229594267</v>
       </c>
       <c r="I11">
-        <v>8.370564505563222E-18</v>
+        <v>1.704363439603101E-16</v>
       </c>
       <c r="J11">
-        <v>36.20000076293945</v>
+        <v>40.34999847412109</v>
       </c>
       <c r="K11">
-        <v>10.94999980926514</v>
+        <v>10.88000011444092</v>
       </c>
       <c r="L11">
-        <v>2.513706933177517</v>
+        <v>2.298763085679894</v>
       </c>
       <c r="M11">
-        <v>-4.36167203224786</v>
+        <v>-3.936258295895463</v>
       </c>
       <c r="N11">
-        <v>1.472514686858339</v>
+        <v>1.373793072170538</v>
       </c>
       <c r="O11">
-        <v>-2.390073187786637</v>
+        <v>-1.888403452311866</v>
       </c>
       <c r="P11">
-        <v>0.01446637950600183</v>
+        <v>0.01350295938562097</v>
       </c>
       <c r="Q11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -73,7 +73,52 @@
     <t>ABEV3</t>
   </si>
   <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
     <t>B3SA3</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>SOMA3</t>
+  </si>
+  <si>
+    <t>GOAU4</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
   </si>
 </sst>
 </file>
@@ -431,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,52 +546,556 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.811882305407966</v>
+        <v>0.8350465314652015</v>
       </c>
       <c r="E2">
-        <v>0.8292996986126691</v>
+        <v>0.8602850378221762</v>
       </c>
       <c r="F2">
-        <v>7.83134151921516E-08</v>
+        <v>8.531934673890872E-08</v>
       </c>
       <c r="G2">
-        <v>5.650276898567863</v>
+        <v>5.595607271792589</v>
       </c>
       <c r="H2">
-        <v>0.5702698844409384</v>
+        <v>0.5744225845680901</v>
       </c>
       <c r="I2">
-        <v>1.742377592280749E-70</v>
+        <v>2.679965561635412E-71</v>
       </c>
       <c r="J2">
-        <v>11.59000015258789</v>
+        <v>11.52000045776367</v>
       </c>
       <c r="K2">
-        <v>11.06999969482422</v>
+        <v>10.88000011444092</v>
       </c>
       <c r="L2">
-        <v>0.6573495236375422</v>
+        <v>0.6600084521770402</v>
       </c>
       <c r="M2">
-        <v>-0.4425322750824847</v>
+        <v>-0.4419794821992689</v>
       </c>
       <c r="N2">
-        <v>0.1801788600459746</v>
+        <v>0.181743721710536</v>
       </c>
       <c r="O2">
-        <v>-0.3731641927086029</v>
+        <v>-0.3253245998671854</v>
       </c>
       <c r="P2">
-        <v>0.005962741867808173</v>
+        <v>0.006077521490312154</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>0.8350465314652015</v>
+      </c>
+      <c r="E3">
+        <v>0.8978842631595532</v>
+      </c>
+      <c r="F3">
+        <v>0.0003359889381960197</v>
+      </c>
+      <c r="G3">
+        <v>5.263498223157336</v>
+      </c>
+      <c r="H3">
+        <v>0.4768680085795016</v>
+      </c>
+      <c r="I3">
+        <v>3.271925713120265E-61</v>
+      </c>
+      <c r="J3">
+        <v>11.52000045776367</v>
+      </c>
+      <c r="K3">
+        <v>14.14000034332275</v>
+      </c>
+      <c r="L3">
+        <v>0.6738480790310764</v>
+      </c>
+      <c r="M3">
+        <v>-0.5880841949722182</v>
+      </c>
+      <c r="N3">
+        <v>0.216386947774532</v>
+      </c>
+      <c r="O3">
+        <v>-0.4864115704274541</v>
+      </c>
+      <c r="P3">
+        <v>0.01023966430253005</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>2303</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>0.9852871733261367</v>
+      </c>
+      <c r="E4">
+        <v>0.9106025707776442</v>
+      </c>
+      <c r="F4">
+        <v>0.000565092349255972</v>
+      </c>
+      <c r="G4">
+        <v>18.37375748868673</v>
+      </c>
+      <c r="H4">
+        <v>4.134309843912697</v>
+      </c>
+      <c r="I4">
+        <v>7.196770619794134E-52</v>
+      </c>
+      <c r="J4">
+        <v>29.40999984741211</v>
+      </c>
+      <c r="K4">
+        <v>2.869999885559082</v>
+      </c>
+      <c r="L4">
+        <v>1.578061204527252</v>
+      </c>
+      <c r="M4">
+        <v>-1.958362012676069</v>
+      </c>
+      <c r="N4">
+        <v>0.6641794595927029</v>
+      </c>
+      <c r="O4">
+        <v>-0.8292264201698494</v>
+      </c>
+      <c r="P4">
+        <v>0.0115674450836787</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>735</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>0.3928849290916404</v>
+      </c>
+      <c r="E5">
+        <v>0.6377588603462334</v>
+      </c>
+      <c r="F5">
+        <v>0.0009222506873666479</v>
+      </c>
+      <c r="G5">
+        <v>1.287798851720241</v>
+      </c>
+      <c r="H5">
+        <v>0.1707529513699391</v>
+      </c>
+      <c r="I5">
+        <v>1.389920849604547E-37</v>
+      </c>
+      <c r="J5">
+        <v>6.320000171661377</v>
+      </c>
+      <c r="K5">
+        <v>28.10000038146973</v>
+      </c>
+      <c r="L5">
+        <v>0.6607729900659365</v>
+      </c>
+      <c r="M5">
+        <v>-0.4596558339908299</v>
+      </c>
+      <c r="N5">
+        <v>0.2211554503408972</v>
+      </c>
+      <c r="O5">
+        <v>0.2340433213087634</v>
+      </c>
+      <c r="P5">
+        <v>0.01216820703850366</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>2294</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>0.9852871733261367</v>
+      </c>
+      <c r="E6">
+        <v>0.8842807741432759</v>
+      </c>
+      <c r="F6">
+        <v>0.001084585407696229</v>
+      </c>
+      <c r="G6">
+        <v>9.149202037223965</v>
+      </c>
+      <c r="H6">
+        <v>0.9113824019898132</v>
+      </c>
+      <c r="I6">
+        <v>8.748142098458862E-65</v>
+      </c>
+      <c r="J6">
+        <v>29.40999984741211</v>
+      </c>
+      <c r="K6">
+        <v>22.89999961853027</v>
+      </c>
+      <c r="L6">
+        <v>1.280803477575162</v>
+      </c>
+      <c r="M6">
+        <v>-1.466163929731305</v>
+      </c>
+      <c r="N6">
+        <v>0.5312490552224818</v>
+      </c>
+      <c r="O6">
+        <v>-0.6098588477137845</v>
+      </c>
+      <c r="P6">
+        <v>0.01220467566480475</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>0.8350465314652015</v>
+      </c>
+      <c r="E7">
+        <v>0.9293786275636271</v>
+      </c>
+      <c r="F7">
+        <v>0.001511127175109546</v>
+      </c>
+      <c r="G7">
+        <v>9.768494553702332</v>
+      </c>
+      <c r="H7">
+        <v>1.135211127716294</v>
+      </c>
+      <c r="I7">
+        <v>6.789707970230879E-56</v>
+      </c>
+      <c r="J7">
+        <v>11.52000045776367</v>
+      </c>
+      <c r="K7">
+        <v>1.899999976158142</v>
+      </c>
+      <c r="L7">
+        <v>0.8094211349192317</v>
+      </c>
+      <c r="M7">
+        <v>-0.6823622516501864</v>
+      </c>
+      <c r="N7">
+        <v>0.2372250570693602</v>
+      </c>
+      <c r="O7">
+        <v>-0.4053952115340769</v>
+      </c>
+      <c r="P7">
+        <v>0.01233847369044266</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>2651</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>0.4870777885077741</v>
+      </c>
+      <c r="E8">
+        <v>0.3643085956164058</v>
+      </c>
+      <c r="F8">
+        <v>0.0002985502793843944</v>
+      </c>
+      <c r="G8">
+        <v>12.48945442864995</v>
+      </c>
+      <c r="H8">
+        <v>1.456200313352381</v>
+      </c>
+      <c r="I8">
+        <v>6.858319524123431E-33</v>
+      </c>
+      <c r="J8">
+        <v>20.47999954223633</v>
+      </c>
+      <c r="K8">
+        <v>5.929999828338623</v>
+      </c>
+      <c r="L8">
+        <v>1.598583607367921</v>
+      </c>
+      <c r="M8">
+        <v>-2.209633504123961</v>
+      </c>
+      <c r="N8">
+        <v>0.6192491724769951</v>
+      </c>
+      <c r="O8">
+        <v>-0.6447224946198862</v>
+      </c>
+      <c r="P8">
+        <v>0.01378595937849264</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>2085</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>0.3060737230876612</v>
+      </c>
+      <c r="E9">
+        <v>0.3588231371694449</v>
+      </c>
+      <c r="F9">
+        <v>0.004179148702311624</v>
+      </c>
+      <c r="G9">
+        <v>68.88921515964046</v>
+      </c>
+      <c r="H9">
+        <v>-2.45509805526469</v>
+      </c>
+      <c r="I9">
+        <v>1.81285965510219E-17</v>
+      </c>
+      <c r="J9">
+        <v>39.54000091552734</v>
+      </c>
+      <c r="K9">
+        <v>10.71000003814697</v>
+      </c>
+      <c r="L9">
+        <v>2.379610321646254</v>
+      </c>
+      <c r="M9">
+        <v>-3.530771285800895</v>
+      </c>
+      <c r="N9">
+        <v>1.371991202663932</v>
+      </c>
+      <c r="O9">
+        <v>-3.055113978573722</v>
+      </c>
+      <c r="P9">
+        <v>0.01414820802730379</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>2938</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>0.6723154703136019</v>
+      </c>
+      <c r="E10">
+        <v>0.9518383429861328</v>
+      </c>
+      <c r="F10">
+        <v>0.001834723397499807</v>
+      </c>
+      <c r="G10">
+        <v>4.750203251363786</v>
+      </c>
+      <c r="H10">
+        <v>0.7530383413215839</v>
+      </c>
+      <c r="I10">
+        <v>1.798778037365798E-37</v>
+      </c>
+      <c r="J10">
+        <v>12.07999992370605</v>
+      </c>
+      <c r="K10">
+        <v>12.57999992370605</v>
+      </c>
+      <c r="L10">
+        <v>2.630057712940751</v>
+      </c>
+      <c r="M10">
+        <v>-3.328143305884847</v>
+      </c>
+      <c r="N10">
+        <v>1.317245012163548</v>
+      </c>
+      <c r="O10">
+        <v>-2.143425604030989</v>
+      </c>
+      <c r="P10">
+        <v>0.0141773074683601</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>858</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>0.4960871343506345</v>
+      </c>
+      <c r="E11">
+        <v>0.552446186897264</v>
+      </c>
+      <c r="F11">
+        <v>0.0006855696419108289</v>
+      </c>
+      <c r="G11">
+        <v>-3.552883720990273</v>
+      </c>
+      <c r="H11">
+        <v>4.015327717511314</v>
+      </c>
+      <c r="I11">
+        <v>6.290245605400068E-45</v>
+      </c>
+      <c r="J11">
+        <v>31.93000030517578</v>
+      </c>
+      <c r="K11">
+        <v>9.229999542236328</v>
+      </c>
+      <c r="L11">
+        <v>1.882148029849922</v>
+      </c>
+      <c r="M11">
+        <v>-1.735880096374778</v>
+      </c>
+      <c r="N11">
+        <v>0.8070649419026728</v>
+      </c>
+      <c r="O11">
+        <v>-1.578588968392211</v>
+      </c>
+      <c r="P11">
+        <v>0.01437347391088935</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -73,52 +73,49 @@
     <t>ABEV3</t>
   </si>
   <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>CVCB3</t>
+  </si>
+  <si>
     <t>EQTL3</t>
   </si>
   <si>
     <t>BEEF3</t>
   </si>
   <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>ELET6</t>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>ASAI3</t>
+  </si>
+  <si>
+    <t>BBDC3</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>COGN3</t>
   </si>
   <si>
     <t>MGLU3</t>
   </si>
   <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>SOMA3</t>
-  </si>
-  <si>
-    <t>GOAU4</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
+    <t>UGPA3</t>
+  </si>
+  <si>
+    <t>RENT3</t>
   </si>
 </sst>
 </file>
@@ -540,279 +537,279 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.8350465314652015</v>
+        <v>0.9581654160010123</v>
       </c>
       <c r="E2">
-        <v>0.8602850378221762</v>
+        <v>0.8845078762436784</v>
       </c>
       <c r="F2">
-        <v>8.531934673890872E-08</v>
+        <v>0.0002151223990097671</v>
       </c>
       <c r="G2">
-        <v>5.595607271792589</v>
+        <v>5.189094141704331</v>
       </c>
       <c r="H2">
-        <v>0.5744225845680901</v>
+        <v>0.48154605735599</v>
       </c>
       <c r="I2">
-        <v>2.679965561635412E-71</v>
+        <v>3.457334809625904E-61</v>
       </c>
       <c r="J2">
-        <v>11.52000045776367</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="K2">
-        <v>10.88000011444092</v>
+        <v>14.05000019073486</v>
       </c>
       <c r="L2">
-        <v>0.6600084521770402</v>
+        <v>0.6745534452952562</v>
       </c>
       <c r="M2">
-        <v>-0.4419794821992689</v>
+        <v>-0.5815118207782959</v>
       </c>
       <c r="N2">
-        <v>0.181743721710536</v>
+        <v>0.2188780739444145</v>
       </c>
       <c r="O2">
-        <v>-0.3253245998671854</v>
+        <v>-0.3948159197869128</v>
       </c>
       <c r="P2">
-        <v>0.006077521490312154</v>
+        <v>0.01012234980514273</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>37</v>
+        <v>2623</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.8350465314652015</v>
+        <v>0.7685397411163171</v>
       </c>
       <c r="E3">
-        <v>0.8978842631595532</v>
+        <v>0.9614547817138417</v>
       </c>
       <c r="F3">
-        <v>0.0003359889381960197</v>
+        <v>0.00360497260632697</v>
       </c>
       <c r="G3">
-        <v>5.263498223157336</v>
+        <v>20.29727810404489</v>
       </c>
       <c r="H3">
-        <v>0.4768680085795016</v>
+        <v>0.6520700671916746</v>
       </c>
       <c r="I3">
-        <v>3.271925713120265E-61</v>
+        <v>2.618960079130086E-43</v>
       </c>
       <c r="J3">
-        <v>11.52000045776367</v>
+        <v>27.14999961853027</v>
       </c>
       <c r="K3">
-        <v>14.14000034332275</v>
+        <v>12.10999965667725</v>
       </c>
       <c r="L3">
-        <v>0.6738480790310764</v>
+        <v>2.581732093764714</v>
       </c>
       <c r="M3">
-        <v>-0.5880841949722182</v>
+        <v>-2.92110446157383</v>
       </c>
       <c r="N3">
-        <v>0.216386947774532</v>
+        <v>1.008698496565296</v>
       </c>
       <c r="O3">
-        <v>-0.4864115704274541</v>
+        <v>-1.0438467753353</v>
       </c>
       <c r="P3">
-        <v>0.01023966430253005</v>
+        <v>0.01163955312253478</v>
       </c>
       <c r="Q3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2303</v>
+        <v>1863</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4">
-        <v>0.9852871733261367</v>
+        <v>0.9017706220010975</v>
       </c>
       <c r="E4">
-        <v>0.9106025707776442</v>
+        <v>0.9614547817138417</v>
       </c>
       <c r="F4">
-        <v>0.000565092349255972</v>
+        <v>0.002897533333972893</v>
       </c>
       <c r="G4">
-        <v>18.37375748868673</v>
+        <v>-0.7003188831084809</v>
       </c>
       <c r="H4">
-        <v>4.134309843912697</v>
+        <v>0.2011282070348472</v>
       </c>
       <c r="I4">
-        <v>7.196770619794134E-52</v>
+        <v>2.034198950747563E-69</v>
       </c>
       <c r="J4">
-        <v>29.40999984741211</v>
+        <v>1.929999947547913</v>
       </c>
       <c r="K4">
-        <v>2.869999885559082</v>
+        <v>12.10999965667725</v>
       </c>
       <c r="L4">
-        <v>1.578061204527252</v>
+        <v>0.4567797335456056</v>
       </c>
       <c r="M4">
-        <v>-1.958362012676069</v>
+        <v>-0.3661994655528384</v>
       </c>
       <c r="N4">
-        <v>0.6641794595927029</v>
+        <v>0.1814608327840856</v>
       </c>
       <c r="O4">
-        <v>-0.8292264201698494</v>
+        <v>0.1946563125162841</v>
       </c>
       <c r="P4">
-        <v>0.0115674450836787</v>
+        <v>0.01164194186307248</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>735</v>
+        <v>2294</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
       <c r="D5">
-        <v>0.3928849290916404</v>
+        <v>0.9877053943534156</v>
       </c>
       <c r="E5">
-        <v>0.6377588603462334</v>
+        <v>0.9066061456528516</v>
       </c>
       <c r="F5">
-        <v>0.0009222506873666479</v>
+        <v>0.001143103866071036</v>
       </c>
       <c r="G5">
-        <v>1.287798851720241</v>
+        <v>8.979536084479212</v>
       </c>
       <c r="H5">
-        <v>0.1707529513699391</v>
+        <v>0.917412281367144</v>
       </c>
       <c r="I5">
-        <v>1.389920849604547E-37</v>
+        <v>1.291266230359667E-65</v>
       </c>
       <c r="J5">
-        <v>6.320000171661377</v>
+        <v>29.22999954223633</v>
       </c>
       <c r="K5">
-        <v>28.10000038146973</v>
+        <v>22.70000076293945</v>
       </c>
       <c r="L5">
-        <v>0.6607729900659365</v>
+        <v>1.296521970740145</v>
       </c>
       <c r="M5">
-        <v>-0.4596558339908299</v>
+        <v>-1.440551791630639</v>
       </c>
       <c r="N5">
-        <v>0.2211554503408972</v>
+        <v>0.5309842478556147</v>
       </c>
       <c r="O5">
-        <v>0.2340433213087634</v>
+        <v>-0.5747960292070786</v>
       </c>
       <c r="P5">
-        <v>0.01216820703850366</v>
+        <v>0.01219055981823133</v>
       </c>
       <c r="Q5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" t="s">
         <v>28</v>
-      </c>
-      <c r="R5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2294</v>
+        <v>2303</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6">
-        <v>0.9852871733261367</v>
+        <v>0.9877053943534156</v>
       </c>
       <c r="E6">
-        <v>0.8842807741432759</v>
+        <v>0.9259102120299029</v>
       </c>
       <c r="F6">
-        <v>0.001084585407696229</v>
+        <v>0.00140008618914636</v>
       </c>
       <c r="G6">
-        <v>9.149202037223965</v>
+        <v>18.19723530634154</v>
       </c>
       <c r="H6">
-        <v>0.9113824019898132</v>
+        <v>4.184867706953147</v>
       </c>
       <c r="I6">
-        <v>8.748142098458862E-65</v>
+        <v>1.341539263790548E-52</v>
       </c>
       <c r="J6">
-        <v>29.40999984741211</v>
+        <v>29.22999954223633</v>
       </c>
       <c r="K6">
-        <v>22.89999961853027</v>
+        <v>2.849999904632568</v>
       </c>
       <c r="L6">
-        <v>1.280803477575162</v>
+        <v>1.583589547629757</v>
       </c>
       <c r="M6">
-        <v>-1.466163929731305</v>
+        <v>-1.936546888341717</v>
       </c>
       <c r="N6">
-        <v>0.5312490552224818</v>
+        <v>0.6661553561602684</v>
       </c>
       <c r="O6">
-        <v>-0.6098588477137845</v>
+        <v>-0.8941083298216004</v>
       </c>
       <c r="P6">
-        <v>0.01220467566480475</v>
+        <v>0.0122722267640642</v>
       </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
         <v>29</v>
@@ -829,43 +826,43 @@
         <v>30</v>
       </c>
       <c r="D7">
-        <v>0.8350465314652015</v>
+        <v>0.9581654160010123</v>
       </c>
       <c r="E7">
-        <v>0.9293786275636271</v>
+        <v>0.8976086724456751</v>
       </c>
       <c r="F7">
-        <v>0.001511127175109546</v>
+        <v>0.001163490740633316</v>
       </c>
       <c r="G7">
-        <v>9.768494553702332</v>
+        <v>9.744043109560296</v>
       </c>
       <c r="H7">
-        <v>1.135211127716294</v>
+        <v>1.144088531841341</v>
       </c>
       <c r="I7">
-        <v>6.789707970230879E-56</v>
+        <v>4.104209823619296E-56</v>
       </c>
       <c r="J7">
-        <v>11.52000045776367</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="K7">
-        <v>1.899999976158142</v>
+        <v>1.860000014305115</v>
       </c>
       <c r="L7">
-        <v>0.8094211349192317</v>
+        <v>0.811412746878883</v>
       </c>
       <c r="M7">
-        <v>-0.6823622516501864</v>
+        <v>-0.6856970834354872</v>
       </c>
       <c r="N7">
-        <v>0.2372250570693602</v>
+        <v>0.2391109940873535</v>
       </c>
       <c r="O7">
-        <v>-0.4053952115340769</v>
+        <v>-0.3120473755348101</v>
       </c>
       <c r="P7">
-        <v>0.01233847369044266</v>
+        <v>0.01234895157715556</v>
       </c>
       <c r="Q7" t="s">
         <v>18</v>
@@ -876,226 +873,226 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2651</v>
+        <v>735</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>0.4870777885077741</v>
+        <v>0.3894025171687406</v>
       </c>
       <c r="E8">
-        <v>0.3643085956164058</v>
+        <v>0.7685397411163171</v>
       </c>
       <c r="F8">
-        <v>0.0002985502793843944</v>
+        <v>0.001328475815096814</v>
       </c>
       <c r="G8">
-        <v>12.48945442864995</v>
+        <v>1.354158548209347</v>
       </c>
       <c r="H8">
-        <v>1.456200313352381</v>
+        <v>0.1686577524904083</v>
       </c>
       <c r="I8">
-        <v>6.858319524123431E-33</v>
+        <v>9.018865239995358E-38</v>
       </c>
       <c r="J8">
-        <v>20.47999954223633</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="K8">
-        <v>5.929999828338623</v>
+        <v>27.14999961853027</v>
       </c>
       <c r="L8">
-        <v>1.598583607367921</v>
+        <v>0.6587274646410091</v>
       </c>
       <c r="M8">
-        <v>-2.209633504123961</v>
+        <v>-0.4564198467815226</v>
       </c>
       <c r="N8">
-        <v>0.6192491724769951</v>
+        <v>0.2215756845938638</v>
       </c>
       <c r="O8">
-        <v>-0.6447224946198862</v>
+        <v>0.2667833452790322</v>
       </c>
       <c r="P8">
-        <v>0.01378595937849264</v>
+        <v>0.01242087007384322</v>
       </c>
       <c r="Q8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2085</v>
+        <v>2046</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.3060737230876612</v>
+        <v>0.8774955770234518</v>
       </c>
       <c r="E9">
-        <v>0.3588231371694449</v>
+        <v>0.7737344960280881</v>
       </c>
       <c r="F9">
-        <v>0.004179148702311624</v>
+        <v>0.001084987816969728</v>
       </c>
       <c r="G9">
-        <v>68.88921515964046</v>
+        <v>26.80739756971856</v>
       </c>
       <c r="H9">
-        <v>-2.45509805526469</v>
+        <v>0.7355687777890244</v>
       </c>
       <c r="I9">
-        <v>1.81285965510219E-17</v>
+        <v>6.138842518097458E-46</v>
       </c>
       <c r="J9">
-        <v>39.54000091552734</v>
+        <v>34.79000091552734</v>
       </c>
       <c r="K9">
-        <v>10.71000003814697</v>
+        <v>12.39000034332275</v>
       </c>
       <c r="L9">
-        <v>2.379610321646254</v>
+        <v>2.317903909067063</v>
       </c>
       <c r="M9">
-        <v>-3.530771285800895</v>
+        <v>-2.851486112367041</v>
       </c>
       <c r="N9">
-        <v>1.371991202663932</v>
+        <v>0.9586933386565407</v>
       </c>
       <c r="O9">
-        <v>-3.055113978573722</v>
+        <v>-1.131094063534727</v>
       </c>
       <c r="P9">
-        <v>0.01414820802730379</v>
+        <v>0.01255507857483726</v>
       </c>
       <c r="Q9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2938</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.6723154703136019</v>
+        <v>0.1877801133981974</v>
       </c>
       <c r="E10">
-        <v>0.9518383429861328</v>
+        <v>0.7999935010449737</v>
       </c>
       <c r="F10">
-        <v>0.001834723397499807</v>
+        <v>0.001452834217267462</v>
       </c>
       <c r="G10">
-        <v>4.750203251363786</v>
+        <v>6.317649791362936</v>
       </c>
       <c r="H10">
-        <v>0.7530383413215839</v>
+        <v>0.2732578569426</v>
       </c>
       <c r="I10">
-        <v>1.798778037365798E-37</v>
+        <v>3.397166394320347E-23</v>
       </c>
       <c r="J10">
-        <v>12.07999992370605</v>
+        <v>12.18000030517578</v>
       </c>
       <c r="K10">
-        <v>12.57999992370605</v>
+        <v>23.17000007629395</v>
       </c>
       <c r="L10">
-        <v>2.630057712940751</v>
+        <v>0.8756070366097646</v>
       </c>
       <c r="M10">
-        <v>-3.328143305884847</v>
+        <v>-1.39279922126404</v>
       </c>
       <c r="N10">
-        <v>1.317245012163548</v>
+        <v>0.4573066030815899</v>
       </c>
       <c r="O10">
-        <v>-2.143425604030989</v>
+        <v>-0.4690340523951164</v>
       </c>
       <c r="P10">
-        <v>0.0141773074683601</v>
+        <v>0.01259890634848383</v>
       </c>
       <c r="Q10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>858</v>
+        <v>536</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.4960871343506345</v>
+        <v>0.83688274906521</v>
       </c>
       <c r="E11">
-        <v>0.552446186897264</v>
+        <v>0.9455957526349432</v>
       </c>
       <c r="F11">
-        <v>0.0006855696419108289</v>
+        <v>0.001387666650423808</v>
       </c>
       <c r="G11">
-        <v>-3.552883720990273</v>
+        <v>3.210369644726384</v>
       </c>
       <c r="H11">
-        <v>4.015327717511314</v>
+        <v>0.180885573501927</v>
       </c>
       <c r="I11">
-        <v>6.290245605400068E-45</v>
+        <v>2.262481958759605E-56</v>
       </c>
       <c r="J11">
-        <v>31.93000030517578</v>
+        <v>11.44999980926514</v>
       </c>
       <c r="K11">
-        <v>9.229999542236328</v>
+        <v>42.72999954223633</v>
       </c>
       <c r="L11">
-        <v>1.882148029849922</v>
+        <v>1.787944110603686</v>
       </c>
       <c r="M11">
-        <v>-1.735880096374778</v>
+        <v>-0.8361009316584092</v>
       </c>
       <c r="N11">
-        <v>0.8070649419026728</v>
+        <v>0.3926154837365068</v>
       </c>
       <c r="O11">
-        <v>-1.578588968392211</v>
+        <v>0.5103896916042538</v>
       </c>
       <c r="P11">
-        <v>0.01437347391088935</v>
+        <v>0.01315610467278254</v>
       </c>
       <c r="Q11" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="R11" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -70,52 +70,55 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>CVCB3</t>
+  </si>
+  <si>
+    <t>BRFS3</t>
+  </si>
+  <si>
     <t>ABEV3</t>
   </si>
   <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>CVCB3</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>BEEF3</t>
-  </si>
-  <si>
-    <t>ELET3</t>
+    <t>BBDC3</t>
+  </si>
+  <si>
+    <t>RAIL3</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
+  </si>
+  <si>
+    <t>KLBN11</t>
   </si>
   <si>
     <t>ASAI3</t>
   </si>
   <si>
-    <t>BBDC3</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>RENT3</t>
   </si>
   <si>
     <t>YDUQ3</t>
   </si>
   <si>
-    <t>MULT3</t>
+    <t>COGN3</t>
   </si>
   <si>
     <t>RAIZ4</t>
   </si>
   <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>MGLU3</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
-  </si>
-  <si>
-    <t>RENT3</t>
+    <t>PCAR3</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>SOMA3</t>
   </si>
 </sst>
 </file>
@@ -537,167 +540,167 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>37</v>
+        <v>611</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>0.9581654160010123</v>
+        <v>0.7494425157408744</v>
       </c>
       <c r="E2">
-        <v>0.8845078762436784</v>
+        <v>0.9444131032306308</v>
       </c>
       <c r="F2">
-        <v>0.0002151223990097671</v>
+        <v>9.299441073956706E-05</v>
       </c>
       <c r="G2">
-        <v>5.189094141704331</v>
+        <v>3.481996745132462</v>
       </c>
       <c r="H2">
-        <v>0.48154605735599</v>
+        <v>0.204640240742301</v>
       </c>
       <c r="I2">
-        <v>3.457334809625904E-61</v>
+        <v>2.459086367184446E-57</v>
       </c>
       <c r="J2">
-        <v>11.5600004196167</v>
+        <v>12.73102569580078</v>
       </c>
       <c r="K2">
-        <v>14.05000019073486</v>
+        <v>42.65000152587891</v>
       </c>
       <c r="L2">
-        <v>0.6745534452952562</v>
+        <v>2.321670314051488</v>
       </c>
       <c r="M2">
-        <v>-0.5815118207782959</v>
+        <v>-0.8925326751944915</v>
       </c>
       <c r="N2">
-        <v>0.2188780739444145</v>
+        <v>0.4419943682279648</v>
       </c>
       <c r="O2">
-        <v>-0.3948159197869128</v>
+        <v>0.5211223707529538</v>
       </c>
       <c r="P2">
-        <v>0.01012234980514273</v>
+        <v>0.009981966222344594</v>
       </c>
       <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2623</v>
+        <v>1863</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>0.7685397411163171</v>
+        <v>0.8965179895983173</v>
       </c>
       <c r="E3">
-        <v>0.9614547817138417</v>
+        <v>0.9677008879898207</v>
       </c>
       <c r="F3">
-        <v>0.00360497260632697</v>
+        <v>0.004798419723924783</v>
       </c>
       <c r="G3">
-        <v>20.29727810404489</v>
+        <v>-0.6749818443923563</v>
       </c>
       <c r="H3">
-        <v>0.6520700671916746</v>
+        <v>0.199865933745836</v>
       </c>
       <c r="I3">
-        <v>2.618960079130086E-43</v>
+        <v>1.083911379016727E-69</v>
       </c>
       <c r="J3">
-        <v>27.14999961853027</v>
+        <v>1.950000047683716</v>
       </c>
       <c r="K3">
-        <v>12.10999965667725</v>
+        <v>11.98999977111816</v>
       </c>
       <c r="L3">
-        <v>2.581732093764714</v>
+        <v>0.4553763269728419</v>
       </c>
       <c r="M3">
-        <v>-2.92110446157383</v>
+        <v>-0.3722283874220946</v>
       </c>
       <c r="N3">
-        <v>1.008698496565296</v>
+        <v>0.1824717231849215</v>
       </c>
       <c r="O3">
-        <v>-1.0438467753353</v>
+        <v>0.2285893922091802</v>
       </c>
       <c r="P3">
-        <v>0.01163955312253478</v>
+        <v>0.01178770153950058</v>
       </c>
       <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1863</v>
+        <v>1009</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>0.9017706220010975</v>
+        <v>0.8932053061950707</v>
       </c>
       <c r="E4">
-        <v>0.9614547817138417</v>
+        <v>0.4900916086971927</v>
       </c>
       <c r="F4">
-        <v>0.002897533333972893</v>
+        <v>0.001561636457846546</v>
       </c>
       <c r="G4">
-        <v>-0.7003188831084809</v>
+        <v>49.98614571264568</v>
       </c>
       <c r="H4">
-        <v>0.2011282070348472</v>
+        <v>-0.6961693113464796</v>
       </c>
       <c r="I4">
-        <v>2.034198950747563E-69</v>
+        <v>3.411059047419011E-37</v>
       </c>
       <c r="J4">
-        <v>1.929999947547913</v>
+        <v>18.70999908447266</v>
       </c>
       <c r="K4">
-        <v>12.10999965667725</v>
+        <v>46.86000061035156</v>
       </c>
       <c r="L4">
-        <v>0.4567797335456056</v>
+        <v>2.301791951703642</v>
       </c>
       <c r="M4">
-        <v>-0.3661994655528384</v>
+        <v>-2.774640822525981</v>
       </c>
       <c r="N4">
-        <v>0.1814608327840856</v>
+        <v>1.037171970673069</v>
       </c>
       <c r="O4">
-        <v>0.1946563125162841</v>
+        <v>1.346347726431041</v>
       </c>
       <c r="P4">
-        <v>0.01164194186307248</v>
+        <v>0.01243413190784823</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -705,394 +708,394 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2294</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>0.9877053943534156</v>
+        <v>0.9587821151859304</v>
       </c>
       <c r="E5">
-        <v>0.9066061456528516</v>
+        <v>0.9005362317728165</v>
       </c>
       <c r="F5">
-        <v>0.001143103866071036</v>
+        <v>0.001391032081508381</v>
       </c>
       <c r="G5">
-        <v>8.979536084479212</v>
+        <v>9.711168660196627</v>
       </c>
       <c r="H5">
-        <v>0.917412281367144</v>
+        <v>1.156326951890249</v>
       </c>
       <c r="I5">
-        <v>1.291266230359667E-65</v>
+        <v>6.773025610833804E-57</v>
       </c>
       <c r="J5">
-        <v>29.22999954223633</v>
+        <v>11.55000019073486</v>
       </c>
       <c r="K5">
-        <v>22.70000076293945</v>
+        <v>1.879999995231628</v>
       </c>
       <c r="L5">
-        <v>1.296521970740145</v>
+        <v>0.8133239938689591</v>
       </c>
       <c r="M5">
-        <v>-1.440551791630639</v>
+        <v>-0.6911288902254746</v>
       </c>
       <c r="N5">
-        <v>0.5309842478556147</v>
+        <v>0.2393779567948984</v>
       </c>
       <c r="O5">
-        <v>-0.5747960292070786</v>
+        <v>-0.335063133501635</v>
       </c>
       <c r="P5">
-        <v>0.01219055981823133</v>
+        <v>0.01246101967616938</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2303</v>
+        <v>536</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.9877053943534156</v>
+        <v>0.8337835837407434</v>
       </c>
       <c r="E6">
-        <v>0.9259102120299029</v>
+        <v>0.9444131032306308</v>
       </c>
       <c r="F6">
-        <v>0.00140008618914636</v>
+        <v>0.001124787020880255</v>
       </c>
       <c r="G6">
-        <v>18.19723530634154</v>
+        <v>3.244251343810011</v>
       </c>
       <c r="H6">
-        <v>4.184867706953147</v>
+        <v>0.1800834516229127</v>
       </c>
       <c r="I6">
-        <v>1.341539263790548E-52</v>
+        <v>2.415922874705089E-57</v>
       </c>
       <c r="J6">
-        <v>29.22999954223633</v>
+        <v>11.45275020599365</v>
       </c>
       <c r="K6">
-        <v>2.849999904632568</v>
+        <v>42.65000152587891</v>
       </c>
       <c r="L6">
-        <v>1.583589547629757</v>
+        <v>1.774271691404728</v>
       </c>
       <c r="M6">
-        <v>-1.936546888341717</v>
+        <v>-0.8417409948906709</v>
       </c>
       <c r="N6">
-        <v>0.6661553561602684</v>
+        <v>0.3888942308543054</v>
       </c>
       <c r="O6">
-        <v>-0.8941083298216004</v>
+        <v>0.5279393756808739</v>
       </c>
       <c r="P6">
-        <v>0.0122722267640642</v>
+        <v>0.01289733838788934</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="R6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>20</v>
+        <v>3194</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>0.9581654160010123</v>
+        <v>0.6053277465088949</v>
       </c>
       <c r="E7">
-        <v>0.8976086724456751</v>
+        <v>0.949166966374049</v>
       </c>
       <c r="F7">
-        <v>0.001163490740633316</v>
+        <v>0.002116640953266397</v>
       </c>
       <c r="G7">
-        <v>9.744043109560296</v>
+        <v>14.01779230632414</v>
       </c>
       <c r="H7">
-        <v>1.144088531841341</v>
+        <v>2.309333813095336</v>
       </c>
       <c r="I7">
-        <v>4.104209823619296E-56</v>
+        <v>1.18237765532583E-38</v>
       </c>
       <c r="J7">
-        <v>11.5600004196167</v>
+        <v>19.82999992370605</v>
       </c>
       <c r="K7">
-        <v>1.860000014305115</v>
+        <v>2.799999952316284</v>
       </c>
       <c r="L7">
-        <v>0.811412746878883</v>
+        <v>1.369856394454004</v>
       </c>
       <c r="M7">
-        <v>-0.6856970834354872</v>
+        <v>-1.24841069454704</v>
       </c>
       <c r="N7">
-        <v>0.2391109940873535</v>
+        <v>0.5085288689123684</v>
       </c>
       <c r="O7">
-        <v>-0.3120473755348101</v>
+        <v>-0.653926949167408</v>
       </c>
       <c r="P7">
-        <v>0.01234895157715556</v>
+        <v>0.01403607569124692</v>
       </c>
       <c r="Q7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>735</v>
+        <v>2256</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.3894025171687406</v>
+        <v>0.4900916086971927</v>
       </c>
       <c r="E8">
-        <v>0.7685397411163171</v>
+        <v>0.949166966374049</v>
       </c>
       <c r="F8">
-        <v>0.001328475815096814</v>
+        <v>0.002781056324351859</v>
       </c>
       <c r="G8">
-        <v>1.354158548209347</v>
+        <v>29.50754554323089</v>
       </c>
       <c r="H8">
-        <v>0.1686577524904083</v>
+        <v>5.722057244143524</v>
       </c>
       <c r="I8">
-        <v>9.018865239995358E-38</v>
+        <v>1.084673116936815E-43</v>
       </c>
       <c r="J8">
-        <v>6.199999809265137</v>
+        <v>46.86000061035156</v>
       </c>
       <c r="K8">
-        <v>27.14999961853027</v>
+        <v>2.799999952316284</v>
       </c>
       <c r="L8">
-        <v>0.6587274646410091</v>
+        <v>3.056926324352659</v>
       </c>
       <c r="M8">
-        <v>-0.4564198467815226</v>
+        <v>-2.483708194193852</v>
       </c>
       <c r="N8">
-        <v>0.2215756845938638</v>
+        <v>1.120361081408693</v>
       </c>
       <c r="O8">
-        <v>0.2667833452790322</v>
+        <v>1.330695056367759</v>
       </c>
       <c r="P8">
-        <v>0.01242087007384322</v>
+        <v>0.01404626173636225</v>
       </c>
       <c r="Q8" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2046</v>
+        <v>2816</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.8774955770234518</v>
+        <v>0.6105080435136017</v>
       </c>
       <c r="E9">
-        <v>0.7737344960280881</v>
+        <v>0.4661030442052749</v>
       </c>
       <c r="F9">
-        <v>0.001084987816969728</v>
+        <v>0.003963436619364867</v>
       </c>
       <c r="G9">
-        <v>26.80739756971856</v>
+        <v>26.42384218979722</v>
       </c>
       <c r="H9">
-        <v>0.7355687777890244</v>
+        <v>-1.720632918932076</v>
       </c>
       <c r="I9">
-        <v>6.138842518097458E-46</v>
+        <v>5.376666895725219E-35</v>
       </c>
       <c r="J9">
-        <v>34.79000091552734</v>
+        <v>20.27000045776367</v>
       </c>
       <c r="K9">
-        <v>12.39000034332275</v>
+        <v>3.079999923706055</v>
       </c>
       <c r="L9">
-        <v>2.317903909067063</v>
+        <v>2.335911912919805</v>
       </c>
       <c r="M9">
-        <v>-2.851486112367041</v>
+        <v>-2.111178917950262</v>
       </c>
       <c r="N9">
-        <v>0.9586933386565407</v>
+        <v>0.6748403976286915</v>
       </c>
       <c r="O9">
-        <v>-1.131094063534727</v>
+        <v>-0.854292472996625</v>
       </c>
       <c r="P9">
-        <v>0.01255507857483726</v>
+        <v>0.01423537632306116</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0.1877801133981974</v>
+        <v>0.1645096079504593</v>
       </c>
       <c r="E10">
-        <v>0.7999935010449737</v>
+        <v>0.2757126884148965</v>
       </c>
       <c r="F10">
-        <v>0.001452834217267462</v>
+        <v>0.00486906988196581</v>
       </c>
       <c r="G10">
-        <v>6.317649791362936</v>
+        <v>6.187496900287721</v>
       </c>
       <c r="H10">
-        <v>0.2732578569426</v>
+        <v>0.3231113653876624</v>
       </c>
       <c r="I10">
-        <v>3.397166394320347E-23</v>
+        <v>3.898057969864674E-17</v>
       </c>
       <c r="J10">
-        <v>12.18000030517578</v>
+        <v>12.28999996185303</v>
       </c>
       <c r="K10">
-        <v>23.17000007629395</v>
+        <v>21.38999938964844</v>
       </c>
       <c r="L10">
-        <v>0.8756070366097646</v>
+        <v>1.296453929363464</v>
       </c>
       <c r="M10">
-        <v>-1.39279922126404</v>
+        <v>-1.167812574565851</v>
       </c>
       <c r="N10">
-        <v>0.4573066030815899</v>
+        <v>0.5152304117927592</v>
       </c>
       <c r="O10">
-        <v>-0.4690340523951164</v>
+        <v>-0.8088488468652653</v>
       </c>
       <c r="P10">
-        <v>0.01259890634848383</v>
+        <v>0.01427903891479194</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>536</v>
+        <v>2651</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>0.83688274906521</v>
+        <v>0.7027358769612854</v>
       </c>
       <c r="E11">
-        <v>0.9455957526349432</v>
+        <v>0.3573818937731478</v>
       </c>
       <c r="F11">
-        <v>0.001387666650423808</v>
+        <v>0.003107310172194085</v>
       </c>
       <c r="G11">
-        <v>3.210369644726384</v>
+        <v>12.41353708988764</v>
       </c>
       <c r="H11">
-        <v>0.180885573501927</v>
+        <v>1.471511868473566</v>
       </c>
       <c r="I11">
-        <v>2.262481958759605E-56</v>
+        <v>3.576012467981005E-37</v>
       </c>
       <c r="J11">
-        <v>11.44999980926514</v>
+        <v>20.56999969482422</v>
       </c>
       <c r="K11">
-        <v>42.72999954223633</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="L11">
-        <v>1.787944110603686</v>
+        <v>1.570841718251856</v>
       </c>
       <c r="M11">
-        <v>-0.8361009316584092</v>
+        <v>-1.09240533704174</v>
       </c>
       <c r="N11">
-        <v>0.3926154837365068</v>
+        <v>0.5678401336470625</v>
       </c>
       <c r="O11">
-        <v>0.5103896916042538</v>
+        <v>-0.7167542706944978</v>
       </c>
       <c r="P11">
-        <v>0.01315610467278254</v>
+        <v>0.01449828190802725</v>
       </c>
       <c r="Q11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="R11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -73,52 +73,52 @@
     <t>BBDC4</t>
   </si>
   <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>BRFS3</t>
+  </si>
+  <si>
     <t>CVCB3</t>
   </si>
   <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
     <t>BBDC3</t>
   </si>
   <si>
-    <t>RAIL3</t>
-  </si>
-  <si>
-    <t>ENGI11</t>
-  </si>
-  <si>
-    <t>KLBN11</t>
+    <t>IGTI11</t>
   </si>
   <si>
     <t>ASAI3</t>
   </si>
   <si>
-    <t>IGTI11</t>
+    <t>MGLU3</t>
   </si>
   <si>
     <t>RENT3</t>
   </si>
   <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>CSAN3</t>
+  </si>
+  <si>
     <t>YDUQ3</t>
   </si>
   <si>
-    <t>COGN3</t>
-  </si>
-  <si>
     <t>RAIZ4</t>
   </si>
   <si>
-    <t>PCAR3</t>
+    <t>SOMA3</t>
   </si>
   <si>
     <t>VBBR3</t>
   </si>
   <si>
-    <t>SOMA3</t>
+    <t>TOTS3</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
   </si>
 </sst>
 </file>
@@ -546,49 +546,49 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.7494425157408744</v>
+        <v>0.7277625268688693</v>
       </c>
       <c r="E2">
-        <v>0.9444131032306308</v>
+        <v>0.9349705967782095</v>
       </c>
       <c r="F2">
-        <v>9.299441073956706E-05</v>
+        <v>8.653330552326563E-05</v>
       </c>
       <c r="G2">
-        <v>3.481996745132462</v>
+        <v>3.518594334062171</v>
       </c>
       <c r="H2">
-        <v>0.204640240742301</v>
+        <v>0.2041711078038433</v>
       </c>
       <c r="I2">
-        <v>2.459086367184446E-57</v>
+        <v>2.62067002254332E-58</v>
       </c>
       <c r="J2">
-        <v>12.73102569580078</v>
+        <v>12.85000038146973</v>
       </c>
       <c r="K2">
-        <v>42.65000152587891</v>
+        <v>42.84000015258789</v>
       </c>
       <c r="L2">
-        <v>2.321670314051488</v>
+        <v>2.309613174998049</v>
       </c>
       <c r="M2">
-        <v>-0.8925326751944915</v>
+        <v>-0.8786080298561334</v>
       </c>
       <c r="N2">
-        <v>0.4419943682279648</v>
+        <v>0.4381566715327554</v>
       </c>
       <c r="O2">
-        <v>0.5211223707529538</v>
+        <v>0.5847157579368663</v>
       </c>
       <c r="P2">
-        <v>0.009981966222344594</v>
+        <v>0.009854994090256704</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -596,170 +596,170 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1863</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.8965179895983173</v>
+        <v>0.9413774986202571</v>
       </c>
       <c r="E3">
-        <v>0.9677008879898207</v>
+        <v>0.8198922532078657</v>
       </c>
       <c r="F3">
-        <v>0.004798419723924783</v>
+        <v>0.0004041668300723884</v>
       </c>
       <c r="G3">
-        <v>-0.6749818443923563</v>
+        <v>5.029439310545746</v>
       </c>
       <c r="H3">
-        <v>0.199865933745836</v>
+        <v>0.491385972640313</v>
       </c>
       <c r="I3">
-        <v>1.083911379016727E-69</v>
+        <v>1.269904631447053E-60</v>
       </c>
       <c r="J3">
-        <v>1.950000047683716</v>
+        <v>11.6899995803833</v>
       </c>
       <c r="K3">
-        <v>11.98999977111816</v>
+        <v>14.5</v>
       </c>
       <c r="L3">
-        <v>0.4553763269728419</v>
+        <v>0.6791887055450871</v>
       </c>
       <c r="M3">
-        <v>-0.3722283874220946</v>
+        <v>-0.6241911432561462</v>
       </c>
       <c r="N3">
-        <v>0.1824717231849215</v>
+        <v>0.2268590055115229</v>
       </c>
       <c r="O3">
-        <v>0.2285893922091802</v>
+        <v>-0.4645363334469836</v>
       </c>
       <c r="P3">
-        <v>0.01178770153950058</v>
+        <v>0.01060198657662209</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.8932053061950707</v>
+        <v>0.8183609308932436</v>
       </c>
       <c r="E4">
-        <v>0.4900916086971927</v>
+        <v>0.9676159882398638</v>
       </c>
       <c r="F4">
-        <v>0.001561636457846546</v>
+        <v>0.002834324078302785</v>
       </c>
       <c r="G4">
-        <v>49.98614571264568</v>
+        <v>31.79856036458573</v>
       </c>
       <c r="H4">
-        <v>-0.6961693113464796</v>
+        <v>-0.9666235962050862</v>
       </c>
       <c r="I4">
-        <v>3.411059047419011E-37</v>
+        <v>1.777571936850977E-53</v>
       </c>
       <c r="J4">
-        <v>18.70999908447266</v>
+        <v>18.04999923706055</v>
       </c>
       <c r="K4">
-        <v>46.86000061035156</v>
+        <v>13.35000038146973</v>
       </c>
       <c r="L4">
-        <v>2.301791951703642</v>
+        <v>1.711487669816268</v>
       </c>
       <c r="M4">
-        <v>-2.774640822525981</v>
+        <v>-2.163328327789092</v>
       </c>
       <c r="N4">
-        <v>1.037171970673069</v>
+        <v>0.7846832223323388</v>
       </c>
       <c r="O4">
-        <v>1.346347726431041</v>
+        <v>-0.844135749449638</v>
       </c>
       <c r="P4">
-        <v>0.01243413190784823</v>
+        <v>0.01136862080845684</v>
       </c>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>20</v>
+        <v>1863</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.9587821151859304</v>
+        <v>0.8972801582462631</v>
       </c>
       <c r="E5">
-        <v>0.9005362317728165</v>
+        <v>0.9719006189068473</v>
       </c>
       <c r="F5">
-        <v>0.001391032081508381</v>
+        <v>0.005513076551374841</v>
       </c>
       <c r="G5">
-        <v>9.711168660196627</v>
+        <v>-0.6509273284041817</v>
       </c>
       <c r="H5">
-        <v>1.156326951890249</v>
+        <v>0.1987243762566887</v>
       </c>
       <c r="I5">
-        <v>6.773025610833804E-57</v>
+        <v>3.778063106998848E-70</v>
       </c>
       <c r="J5">
-        <v>11.55000019073486</v>
+        <v>1.940000057220459</v>
       </c>
       <c r="K5">
-        <v>1.879999995231628</v>
+        <v>11.81999969482422</v>
       </c>
       <c r="L5">
-        <v>0.8133239938689591</v>
+        <v>0.4529665825674929</v>
       </c>
       <c r="M5">
-        <v>-0.6911288902254746</v>
+        <v>-0.3788212922205565</v>
       </c>
       <c r="N5">
-        <v>0.2393779567948984</v>
+        <v>0.1829684433295431</v>
       </c>
       <c r="O5">
-        <v>-0.335063133501635</v>
+        <v>0.2420053189164464</v>
       </c>
       <c r="P5">
-        <v>0.01246101967616938</v>
+        <v>0.0117538426996755</v>
       </c>
       <c r="Q5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" t="s">
         <v>21</v>
-      </c>
-      <c r="R5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -770,49 +770,49 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>0.8337835837407434</v>
+        <v>0.8287125809643632</v>
       </c>
       <c r="E6">
-        <v>0.9444131032306308</v>
+        <v>0.9349705967782095</v>
       </c>
       <c r="F6">
-        <v>0.001124787020880255</v>
+        <v>0.0008191996255392695</v>
       </c>
       <c r="G6">
-        <v>3.244251343810011</v>
+        <v>3.272691814649129</v>
       </c>
       <c r="H6">
-        <v>0.1800834516229127</v>
+        <v>0.1797433769776922</v>
       </c>
       <c r="I6">
-        <v>2.415922874705089E-57</v>
+        <v>2.064949570712112E-58</v>
       </c>
       <c r="J6">
-        <v>11.45275020599365</v>
+        <v>11.47999954223633</v>
       </c>
       <c r="K6">
-        <v>42.65000152587891</v>
+        <v>42.84000015258789</v>
       </c>
       <c r="L6">
-        <v>1.774271691404728</v>
+        <v>1.763619219361326</v>
       </c>
       <c r="M6">
-        <v>-0.8417409948906709</v>
+        <v>-0.8497743271654929</v>
       </c>
       <c r="N6">
-        <v>0.3888942308543054</v>
+        <v>0.3849268048637666</v>
       </c>
       <c r="O6">
-        <v>0.5279393756808739</v>
+        <v>0.5071014304362027</v>
       </c>
       <c r="P6">
-        <v>0.01289733838788934</v>
+        <v>0.01255244815170319</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R6" t="s">
         <v>22</v>
@@ -820,167 +820,167 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>3194</v>
+        <v>1038</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.6053277465088949</v>
+        <v>0.8183609308932436</v>
       </c>
       <c r="E7">
-        <v>0.949166966374049</v>
+        <v>0.9650894089865895</v>
       </c>
       <c r="F7">
-        <v>0.002116640953266397</v>
+        <v>0.006614157075236693</v>
       </c>
       <c r="G7">
-        <v>14.01779230632414</v>
+        <v>32.09053945291404</v>
       </c>
       <c r="H7">
-        <v>2.309333813095336</v>
+        <v>-4.741377435410542</v>
       </c>
       <c r="I7">
-        <v>1.18237765532583E-38</v>
+        <v>8.577807066378142E-47</v>
       </c>
       <c r="J7">
-        <v>19.82999992370605</v>
+        <v>18.04999923706055</v>
       </c>
       <c r="K7">
-        <v>2.799999952316284</v>
+        <v>2.710000038146973</v>
       </c>
       <c r="L7">
-        <v>1.369856394454004</v>
+        <v>1.766912273812149</v>
       </c>
       <c r="M7">
-        <v>-1.24841069454704</v>
+        <v>-2.294530535713719</v>
       </c>
       <c r="N7">
-        <v>0.5085288689123684</v>
+        <v>0.8815386530033658</v>
       </c>
       <c r="O7">
-        <v>-0.653926949167408</v>
+        <v>-1.191407185021724</v>
       </c>
       <c r="P7">
-        <v>0.01403607569124692</v>
+        <v>0.01382591596575801</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2256</v>
+        <v>2651</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
       </c>
       <c r="D8">
-        <v>0.4900916086971927</v>
+        <v>0.6542886421601489</v>
       </c>
       <c r="E8">
-        <v>0.949166966374049</v>
+        <v>0.3638791922740332</v>
       </c>
       <c r="F8">
-        <v>0.002781056324351859</v>
+        <v>0.002616467187996028</v>
       </c>
       <c r="G8">
-        <v>29.50754554323089</v>
+        <v>12.35202117331632</v>
       </c>
       <c r="H8">
-        <v>5.722057244143524</v>
+        <v>1.48094085240214</v>
       </c>
       <c r="I8">
-        <v>1.084673116936815E-43</v>
+        <v>5.970670743579494E-38</v>
       </c>
       <c r="J8">
-        <v>46.86000061035156</v>
+        <v>20.56999969482422</v>
       </c>
       <c r="K8">
-        <v>2.799999952316284</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="L8">
-        <v>3.056926324352659</v>
+        <v>1.568521506457937</v>
       </c>
       <c r="M8">
-        <v>-2.483708194193852</v>
+        <v>-1.093780743993381</v>
       </c>
       <c r="N8">
-        <v>1.120361081408693</v>
+        <v>0.5639977584340881</v>
       </c>
       <c r="O8">
-        <v>1.330695056367759</v>
+        <v>-0.7120951291907609</v>
       </c>
       <c r="P8">
-        <v>0.01404626173636225</v>
+        <v>0.01419069831082046</v>
       </c>
       <c r="Q8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" t="s">
         <v>31</v>
-      </c>
-      <c r="R8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2816</v>
+        <v>240</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
       </c>
       <c r="D9">
-        <v>0.6105080435136017</v>
+        <v>0.1855645118004172</v>
       </c>
       <c r="E9">
-        <v>0.4661030442052749</v>
+        <v>0.3763485207766999</v>
       </c>
       <c r="F9">
-        <v>0.003963436619364867</v>
+        <v>0.005571796696920111</v>
       </c>
       <c r="G9">
-        <v>26.42384218979722</v>
+        <v>5.948953621710832</v>
       </c>
       <c r="H9">
-        <v>-1.720632918932076</v>
+        <v>0.3331035298085235</v>
       </c>
       <c r="I9">
-        <v>5.376666895725219E-35</v>
+        <v>1.338697647372526E-17</v>
       </c>
       <c r="J9">
-        <v>20.27000045776367</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="K9">
-        <v>3.079999923706055</v>
+        <v>20.95000076293945</v>
       </c>
       <c r="L9">
-        <v>2.335911912919805</v>
+        <v>1.318645582708498</v>
       </c>
       <c r="M9">
-        <v>-2.111178917950262</v>
+        <v>-1.144515868888034</v>
       </c>
       <c r="N9">
-        <v>0.6748403976286915</v>
+        <v>0.5192471747375135</v>
       </c>
       <c r="O9">
-        <v>-0.854292472996625</v>
+        <v>-0.7874724820144703</v>
       </c>
       <c r="P9">
-        <v>0.01423537632306116</v>
+        <v>0.0145245672534797</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
         <v>32</v>
@@ -988,55 +988,55 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10">
-        <v>0.1645096079504593</v>
+        <v>0.9413774986202571</v>
       </c>
       <c r="E10">
-        <v>0.2757126884148965</v>
+        <v>0.6979156981914842</v>
       </c>
       <c r="F10">
-        <v>0.00486906988196581</v>
+        <v>0.004187410754911078</v>
       </c>
       <c r="G10">
-        <v>6.187496900287721</v>
+        <v>4.937494464077179</v>
       </c>
       <c r="H10">
-        <v>0.3231113653876624</v>
+        <v>0.2558524655048162</v>
       </c>
       <c r="I10">
-        <v>3.898057969864674E-17</v>
+        <v>2.104797867645019E-40</v>
       </c>
       <c r="J10">
-        <v>12.28999996185303</v>
+        <v>11.6899995803833</v>
       </c>
       <c r="K10">
-        <v>21.38999938964844</v>
+        <v>28.04999923706055</v>
       </c>
       <c r="L10">
-        <v>1.296453929363464</v>
+        <v>0.6420317556385946</v>
       </c>
       <c r="M10">
-        <v>-1.167812574565851</v>
+        <v>-0.811431566495747</v>
       </c>
       <c r="N10">
-        <v>0.5152304117927592</v>
+        <v>0.3226036477123391</v>
       </c>
       <c r="O10">
-        <v>-0.8088488468652653</v>
+        <v>-0.4241563459040334</v>
       </c>
       <c r="P10">
-        <v>0.01427903891479194</v>
+        <v>0.01454396792880318</v>
       </c>
       <c r="Q10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R10" t="s">
         <v>33</v>
@@ -1044,55 +1044,55 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2651</v>
+        <v>2936</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
       <c r="D11">
-        <v>0.7027358769612854</v>
+        <v>0.8070766941496206</v>
       </c>
       <c r="E11">
-        <v>0.3573818937731478</v>
+        <v>0.8146858696101655</v>
       </c>
       <c r="F11">
-        <v>0.003107310172194085</v>
+        <v>0.00204225651880304</v>
       </c>
       <c r="G11">
-        <v>12.41353708988764</v>
+        <v>-28.18475678644515</v>
       </c>
       <c r="H11">
-        <v>1.471511868473566</v>
+        <v>0.9363931322363899</v>
       </c>
       <c r="I11">
-        <v>3.576012467981005E-37</v>
+        <v>8.01030634549919E-34</v>
       </c>
       <c r="J11">
-        <v>20.56999969482422</v>
+        <v>11.64999961853027</v>
       </c>
       <c r="K11">
-        <v>6.03000020980835</v>
+        <v>45.02999877929688</v>
       </c>
       <c r="L11">
-        <v>1.570841718251856</v>
+        <v>4.031033459347512</v>
       </c>
       <c r="M11">
-        <v>-1.09240533704174</v>
+        <v>-3.716525636061995</v>
       </c>
       <c r="N11">
-        <v>0.5678401336470625</v>
+        <v>1.486077405905971</v>
       </c>
       <c r="O11">
-        <v>-0.7167542706944978</v>
+        <v>-2.33102519657119</v>
       </c>
       <c r="P11">
-        <v>0.01449828190802725</v>
+        <v>0.01470016710628514</v>
       </c>
       <c r="Q11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
         <v>34</v>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -76,21 +76,18 @@
     <t>ABEV3</t>
   </si>
   <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
     <t>CVCB3</t>
   </si>
   <si>
-    <t>BBDC3</t>
+    <t>CSAN3</t>
+  </si>
+  <si>
+    <t>ASAI3</t>
   </si>
   <si>
     <t>IGTI11</t>
   </si>
   <si>
-    <t>ASAI3</t>
-  </si>
-  <si>
     <t>MGLU3</t>
   </si>
   <si>
@@ -100,25 +97,28 @@
     <t>FLRY3</t>
   </si>
   <si>
-    <t>CSAN3</t>
-  </si>
-  <si>
     <t>YDUQ3</t>
   </si>
   <si>
-    <t>RAIZ4</t>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>UGPA3</t>
   </si>
   <si>
     <t>SOMA3</t>
   </si>
   <si>
+    <t>CMIN3</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
+  </si>
+  <si>
     <t>VBBR3</t>
   </si>
   <si>
     <t>TOTS3</t>
-  </si>
-  <si>
-    <t>VIVT3</t>
   </si>
 </sst>
 </file>
@@ -546,49 +546,49 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.7277625268688693</v>
+        <v>0.7389655121452885</v>
       </c>
       <c r="E2">
-        <v>0.9349705967782095</v>
+        <v>0.9276509130480947</v>
       </c>
       <c r="F2">
-        <v>8.653330552326563E-05</v>
+        <v>7.887310666912797E-05</v>
       </c>
       <c r="G2">
-        <v>3.518594334062171</v>
+        <v>3.595538139339142</v>
       </c>
       <c r="H2">
-        <v>0.2041711078038433</v>
+        <v>0.2028159506839165</v>
       </c>
       <c r="I2">
-        <v>2.62067002254332E-58</v>
+        <v>5.329709073542165E-59</v>
       </c>
       <c r="J2">
-        <v>12.85000038146973</v>
+        <v>12.77999973297119</v>
       </c>
       <c r="K2">
-        <v>42.84000015258789</v>
+        <v>43.02000045776367</v>
       </c>
       <c r="L2">
-        <v>2.309613174998049</v>
+        <v>2.303552434824716</v>
       </c>
       <c r="M2">
-        <v>-0.8786080298561334</v>
+        <v>-0.8742233636494205</v>
       </c>
       <c r="N2">
-        <v>0.4381566715327554</v>
+        <v>0.4383894473309769</v>
       </c>
       <c r="O2">
-        <v>0.5847157579368663</v>
+        <v>0.4593193023681863</v>
       </c>
       <c r="P2">
-        <v>0.009854994090256704</v>
+        <v>0.009929603226815284</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -602,273 +602,273 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.9413774986202571</v>
+        <v>0.9522547415038405</v>
       </c>
       <c r="E3">
-        <v>0.8198922532078657</v>
+        <v>0.8298874235940741</v>
       </c>
       <c r="F3">
-        <v>0.0004041668300723884</v>
+        <v>0.000711824172100956</v>
       </c>
       <c r="G3">
-        <v>5.029439310545746</v>
+        <v>4.966011083118601</v>
       </c>
       <c r="H3">
-        <v>0.491385972640313</v>
+        <v>0.4951539361695741</v>
       </c>
       <c r="I3">
-        <v>1.269904631447053E-60</v>
+        <v>1.139504685081625E-60</v>
       </c>
       <c r="J3">
-        <v>11.6899995803833</v>
+        <v>11.56999969482422</v>
       </c>
       <c r="K3">
-        <v>14.5</v>
+        <v>14.40999984741211</v>
       </c>
       <c r="L3">
-        <v>0.6791887055450871</v>
+        <v>0.6832558437119918</v>
       </c>
       <c r="M3">
-        <v>-0.6241911432561462</v>
+        <v>-0.6155491054007207</v>
       </c>
       <c r="N3">
-        <v>0.2268590055115229</v>
+        <v>0.2306723423143668</v>
       </c>
       <c r="O3">
-        <v>-0.4645363334469836</v>
+        <v>-0.531179532943451</v>
       </c>
       <c r="P3">
-        <v>0.01060198657662209</v>
+        <v>0.01110937081063648</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>999</v>
+        <v>1863</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.8183609308932436</v>
+        <v>0.9033180149117843</v>
       </c>
       <c r="E4">
-        <v>0.9676159882398638</v>
+        <v>0.9729766040971389</v>
       </c>
       <c r="F4">
-        <v>0.002834324078302785</v>
+        <v>0.005917438507110164</v>
       </c>
       <c r="G4">
-        <v>31.79856036458573</v>
+        <v>-0.6254750043641624</v>
       </c>
       <c r="H4">
-        <v>-0.9666235962050862</v>
+        <v>0.1974163529644893</v>
       </c>
       <c r="I4">
-        <v>1.777571936850977E-53</v>
+        <v>5.693345472395496E-71</v>
       </c>
       <c r="J4">
-        <v>18.04999923706055</v>
+        <v>1.909999966621399</v>
       </c>
       <c r="K4">
-        <v>13.35000038146973</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="L4">
-        <v>1.711487669816268</v>
+        <v>0.4523153444594863</v>
       </c>
       <c r="M4">
-        <v>-2.163328327789092</v>
+        <v>-0.384265693424787</v>
       </c>
       <c r="N4">
-        <v>0.7846832223323388</v>
+        <v>0.1833678989978331</v>
       </c>
       <c r="O4">
-        <v>-0.844135749449638</v>
+        <v>0.2257036789552176</v>
       </c>
       <c r="P4">
-        <v>0.01136862080845684</v>
+        <v>0.01195172822901701</v>
       </c>
       <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
         <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1863</v>
+        <v>1703</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.8972801582462631</v>
+        <v>0.9680010479476578</v>
       </c>
       <c r="E5">
-        <v>0.9719006189068473</v>
+        <v>0.9750641107472263</v>
       </c>
       <c r="F5">
-        <v>0.005513076551374841</v>
+        <v>5.252903920360758E-05</v>
       </c>
       <c r="G5">
-        <v>-0.6509273284041817</v>
+        <v>-16.7084718472648</v>
       </c>
       <c r="H5">
-        <v>0.1987243762566887</v>
+        <v>1.0046440896241</v>
       </c>
       <c r="I5">
-        <v>3.778063106998848E-70</v>
+        <v>2.302161211050334E-63</v>
       </c>
       <c r="J5">
-        <v>1.940000057220459</v>
+        <v>12.82852268218994</v>
       </c>
       <c r="K5">
-        <v>11.81999969482422</v>
+        <v>30.05999946594238</v>
       </c>
       <c r="L5">
-        <v>0.4529665825674929</v>
+        <v>1.514148295591593</v>
       </c>
       <c r="M5">
-        <v>-0.3788212922205565</v>
+        <v>-1.096921781202518</v>
       </c>
       <c r="N5">
-        <v>0.1829684433295431</v>
+        <v>0.6140305015687879</v>
       </c>
       <c r="O5">
-        <v>0.2420053189164464</v>
+        <v>-0.6626062681078793</v>
       </c>
       <c r="P5">
-        <v>0.0117538426996755</v>
+        <v>0.0121966574312</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>536</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.8287125809643632</v>
+        <v>0.2100089267475565</v>
       </c>
       <c r="E6">
-        <v>0.9349705967782095</v>
+        <v>0.8650614681480391</v>
       </c>
       <c r="F6">
-        <v>0.0008191996255392695</v>
+        <v>0.001807954409481964</v>
       </c>
       <c r="G6">
-        <v>3.272691814649129</v>
+        <v>5.933743470305161</v>
       </c>
       <c r="H6">
-        <v>0.1797433769776922</v>
+        <v>0.2870944201353324</v>
       </c>
       <c r="I6">
-        <v>2.064949570712112E-58</v>
+        <v>7.088678558420365E-26</v>
       </c>
       <c r="J6">
-        <v>11.47999954223633</v>
+        <v>12.07999992370605</v>
       </c>
       <c r="K6">
-        <v>42.84000015258789</v>
+        <v>23.01000022888184</v>
       </c>
       <c r="L6">
-        <v>1.763619219361326</v>
+        <v>0.8702908466680803</v>
       </c>
       <c r="M6">
-        <v>-0.8497743271654929</v>
+        <v>-1.36258980930014</v>
       </c>
       <c r="N6">
-        <v>0.3849268048637666</v>
+        <v>0.4581108793227511</v>
       </c>
       <c r="O6">
-        <v>0.5071014304362027</v>
+        <v>-0.4597862196238029</v>
       </c>
       <c r="P6">
-        <v>0.01255244815170319</v>
+        <v>0.01291477563809679</v>
       </c>
       <c r="Q6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1038</v>
+        <v>2651</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7">
-        <v>0.8183609308932436</v>
+        <v>0.6511394690479644</v>
       </c>
       <c r="E7">
-        <v>0.9650894089865895</v>
+        <v>0.3541323800563717</v>
       </c>
       <c r="F7">
-        <v>0.006614157075236693</v>
+        <v>0.002672719881991419</v>
       </c>
       <c r="G7">
-        <v>32.09053945291404</v>
+        <v>12.27481454080538</v>
       </c>
       <c r="H7">
-        <v>-4.741377435410542</v>
+        <v>1.491520870941063</v>
       </c>
       <c r="I7">
-        <v>8.577807066378142E-47</v>
+        <v>1.792785527053268E-38</v>
       </c>
       <c r="J7">
-        <v>18.04999923706055</v>
+        <v>20.60000038146973</v>
       </c>
       <c r="K7">
-        <v>2.710000038146973</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="L7">
-        <v>1.766912273812149</v>
+        <v>1.574101413662159</v>
       </c>
       <c r="M7">
-        <v>-2.294530535713719</v>
+        <v>-1.087142835944256</v>
       </c>
       <c r="N7">
-        <v>0.8815386530033658</v>
+        <v>0.5654527616950372</v>
       </c>
       <c r="O7">
-        <v>-1.191407185021724</v>
+        <v>-0.7283461019844371</v>
       </c>
       <c r="P7">
-        <v>0.01382591596575801</v>
+        <v>0.01429598108558427</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
         <v>30</v>
@@ -876,55 +876,55 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2651</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
       </c>
       <c r="D8">
-        <v>0.6542886421601489</v>
+        <v>0.9522547415038405</v>
       </c>
       <c r="E8">
-        <v>0.3638791922740332</v>
+        <v>0.9047725276989738</v>
       </c>
       <c r="F8">
-        <v>0.002616467187996028</v>
+        <v>0.004194185862923947</v>
       </c>
       <c r="G8">
-        <v>12.35202117331632</v>
+        <v>8.645273034530621</v>
       </c>
       <c r="H8">
-        <v>1.48094085240214</v>
+        <v>0.6971917988822036</v>
       </c>
       <c r="I8">
-        <v>5.970670743579494E-38</v>
+        <v>1.268792835415009E-52</v>
       </c>
       <c r="J8">
-        <v>20.56999969482422</v>
+        <v>11.56999969482422</v>
       </c>
       <c r="K8">
-        <v>6.03000020980835</v>
+        <v>4.670000076293945</v>
       </c>
       <c r="L8">
-        <v>1.568521506457937</v>
+        <v>0.6799403690544743</v>
       </c>
       <c r="M8">
-        <v>-1.093780743993381</v>
+        <v>-0.668393943791397</v>
       </c>
       <c r="N8">
-        <v>0.5639977584340881</v>
+        <v>0.2651048462247284</v>
       </c>
       <c r="O8">
-        <v>-0.7120951291907609</v>
+        <v>-0.3311590936778064</v>
       </c>
       <c r="P8">
-        <v>0.01419069831082046</v>
+        <v>0.0145889878610603</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R8" t="s">
         <v>31</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>240</v>
+        <v>2936</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -941,43 +941,43 @@
         <v>32</v>
       </c>
       <c r="D9">
-        <v>0.1855645118004172</v>
+        <v>0.7519102537910135</v>
       </c>
       <c r="E9">
-        <v>0.3763485207766999</v>
+        <v>0.7986538059722359</v>
       </c>
       <c r="F9">
-        <v>0.005571796696920111</v>
+        <v>0.001692715551202414</v>
       </c>
       <c r="G9">
-        <v>5.948953621710832</v>
+        <v>-28.84832573846553</v>
       </c>
       <c r="H9">
-        <v>0.3331035298085235</v>
+        <v>0.9494135236408068</v>
       </c>
       <c r="I9">
-        <v>1.338697647372526E-17</v>
+        <v>7.418822058790648E-35</v>
       </c>
       <c r="J9">
-        <v>12.14000034332275</v>
+        <v>12.1899995803833</v>
       </c>
       <c r="K9">
-        <v>20.95000076293945</v>
+        <v>45.38999938964844</v>
       </c>
       <c r="L9">
-        <v>1.318645582708498</v>
+        <v>4.062223114090763</v>
       </c>
       <c r="M9">
-        <v>-1.144515868888034</v>
+        <v>-3.699549319198198</v>
       </c>
       <c r="N9">
-        <v>0.5192471747375135</v>
+        <v>1.491466033302417</v>
       </c>
       <c r="O9">
-        <v>-0.7874724820144703</v>
+        <v>-2.055553939731361</v>
       </c>
       <c r="P9">
-        <v>0.0145245672534797</v>
+        <v>0.01463346838544171</v>
       </c>
       <c r="Q9" t="s">
         <v>24</v>
@@ -988,55 +988,55 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10">
-        <v>0.9413774986202571</v>
+        <v>0.2100089267475565</v>
       </c>
       <c r="E10">
-        <v>0.6979156981914842</v>
+        <v>0.3921016684934885</v>
       </c>
       <c r="F10">
-        <v>0.004187410754911078</v>
+        <v>0.005863132977069529</v>
       </c>
       <c r="G10">
-        <v>4.937494464077179</v>
+        <v>5.776215807721895</v>
       </c>
       <c r="H10">
-        <v>0.2558524655048162</v>
+        <v>0.3403349072125527</v>
       </c>
       <c r="I10">
-        <v>2.104797867645019E-40</v>
+        <v>2.847910240206366E-18</v>
       </c>
       <c r="J10">
-        <v>11.6899995803833</v>
+        <v>12.07999992370605</v>
       </c>
       <c r="K10">
-        <v>28.04999923706055</v>
+        <v>20.88999938964844</v>
       </c>
       <c r="L10">
-        <v>0.6420317556385946</v>
+        <v>1.334808685941045</v>
       </c>
       <c r="M10">
-        <v>-0.811431566495747</v>
+        <v>-1.12755303397244</v>
       </c>
       <c r="N10">
-        <v>0.3226036477123391</v>
+        <v>0.5220725113434085</v>
       </c>
       <c r="O10">
-        <v>-0.4241563459040334</v>
+        <v>-0.8058118879621237</v>
       </c>
       <c r="P10">
-        <v>0.01454396792880318</v>
+        <v>0.01471298186714131</v>
       </c>
       <c r="Q10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R10" t="s">
         <v>33</v>
@@ -1044,55 +1044,55 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2936</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
       <c r="D11">
-        <v>0.8070766941496206</v>
+        <v>0.9522547415038405</v>
       </c>
       <c r="E11">
-        <v>0.8146858696101655</v>
+        <v>0.7033081749233839</v>
       </c>
       <c r="F11">
-        <v>0.00204225651880304</v>
+        <v>0.005178416164694568</v>
       </c>
       <c r="G11">
-        <v>-28.18475678644515</v>
+        <v>4.863122649454715</v>
       </c>
       <c r="H11">
-        <v>0.9363931322363899</v>
+        <v>0.2581505842584282</v>
       </c>
       <c r="I11">
-        <v>8.01030634549919E-34</v>
+        <v>6.585289555440262E-41</v>
       </c>
       <c r="J11">
-        <v>11.64999961853027</v>
+        <v>11.56999969482422</v>
       </c>
       <c r="K11">
-        <v>45.02999877929688</v>
+        <v>28</v>
       </c>
       <c r="L11">
-        <v>4.031033459347512</v>
+        <v>0.646517779314383</v>
       </c>
       <c r="M11">
-        <v>-3.716525636061995</v>
+        <v>-0.8135277633148696</v>
       </c>
       <c r="N11">
-        <v>1.486077405905971</v>
+        <v>0.3245831292481549</v>
       </c>
       <c r="O11">
-        <v>-2.33102519657119</v>
+        <v>-0.521339313866485</v>
       </c>
       <c r="P11">
-        <v>0.01470016710628514</v>
+        <v>0.01484449604719088</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R11" t="s">
         <v>34</v>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -76,49 +76,46 @@
     <t>ABEV3</t>
   </si>
   <si>
+    <t>BBDC3</t>
+  </si>
+  <si>
     <t>CVCB3</t>
   </si>
   <si>
-    <t>CSAN3</t>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>CCRO3</t>
   </si>
   <si>
     <t>ASAI3</t>
   </si>
   <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>MGLU3</t>
-  </si>
-  <si>
     <t>RENT3</t>
   </si>
   <si>
     <t>FLRY3</t>
   </si>
   <si>
+    <t>BRFS3</t>
+  </si>
+  <si>
     <t>YDUQ3</t>
   </si>
   <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
-  </si>
-  <si>
     <t>SOMA3</t>
   </si>
   <si>
-    <t>CMIN3</t>
-  </si>
-  <si>
-    <t>VIVT3</t>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>TOTS3</t>
   </si>
   <si>
     <t>VBBR3</t>
-  </si>
-  <si>
-    <t>TOTS3</t>
   </si>
 </sst>
 </file>
@@ -546,49 +543,49 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.7389655121452885</v>
+        <v>0.6711338061728916</v>
       </c>
       <c r="E2">
-        <v>0.9276509130480947</v>
+        <v>0.9261674488066423</v>
       </c>
       <c r="F2">
-        <v>7.887310666912797E-05</v>
+        <v>0.0002787434736704497</v>
       </c>
       <c r="G2">
-        <v>3.595538139339142</v>
+        <v>3.641616869036992</v>
       </c>
       <c r="H2">
-        <v>0.2028159506839165</v>
+        <v>0.2024319225225328</v>
       </c>
       <c r="I2">
-        <v>5.329709073542165E-59</v>
+        <v>3.405147631074667E-60</v>
       </c>
       <c r="J2">
-        <v>12.77999973297119</v>
+        <v>12.94999980926514</v>
       </c>
       <c r="K2">
-        <v>43.02000045776367</v>
+        <v>42.75</v>
       </c>
       <c r="L2">
-        <v>2.303552434824716</v>
+        <v>2.277560743570398</v>
       </c>
       <c r="M2">
-        <v>-0.8742233636494205</v>
+        <v>-0.8067829988871686</v>
       </c>
       <c r="N2">
-        <v>0.4383894473309769</v>
+        <v>0.432707688536963</v>
       </c>
       <c r="O2">
-        <v>0.4593193023681863</v>
+        <v>0.6544182523898687</v>
       </c>
       <c r="P2">
-        <v>0.009929603226815284</v>
+        <v>0.01031319661635971</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -602,105 +599,105 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.9522547415038405</v>
+        <v>0.9469158822486993</v>
       </c>
       <c r="E3">
-        <v>0.8298874235940741</v>
+        <v>0.8229080990962965</v>
       </c>
       <c r="F3">
-        <v>0.000711824172100956</v>
+        <v>0.0005548488847779895</v>
       </c>
       <c r="G3">
-        <v>4.966011083118601</v>
+        <v>4.809090388811775</v>
       </c>
       <c r="H3">
-        <v>0.4951539361695741</v>
+        <v>0.5051756630638267</v>
       </c>
       <c r="I3">
-        <v>1.139504685081625E-60</v>
+        <v>3.532807849951553E-61</v>
       </c>
       <c r="J3">
-        <v>11.56999969482422</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="K3">
-        <v>14.40999984741211</v>
+        <v>14.42000007629395</v>
       </c>
       <c r="L3">
-        <v>0.6832558437119918</v>
+        <v>0.6822926784507466</v>
       </c>
       <c r="M3">
-        <v>-0.6155491054007207</v>
+        <v>-0.6043443197540306</v>
       </c>
       <c r="N3">
-        <v>0.2306723423143668</v>
+        <v>0.2324462405430726</v>
       </c>
       <c r="O3">
-        <v>-0.531179532943451</v>
+        <v>-0.5337230691173005</v>
       </c>
       <c r="P3">
-        <v>0.01110937081063648</v>
+        <v>0.01084236117253276</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1863</v>
+        <v>536</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.9033180149117843</v>
+        <v>0.8067178398035796</v>
       </c>
       <c r="E4">
-        <v>0.9729766040971389</v>
+        <v>0.9261674488066423</v>
       </c>
       <c r="F4">
-        <v>0.005917438507110164</v>
+        <v>0.00177931815835221</v>
       </c>
       <c r="G4">
-        <v>-0.6254750043641624</v>
+        <v>3.333191779038944</v>
       </c>
       <c r="H4">
-        <v>0.1974163529644893</v>
+        <v>0.1791021313035537</v>
       </c>
       <c r="I4">
-        <v>5.693345472395496E-71</v>
+        <v>3.118273370571565E-61</v>
       </c>
       <c r="J4">
-        <v>1.909999966621399</v>
+        <v>11.47999954223633</v>
       </c>
       <c r="K4">
-        <v>11.69999980926514</v>
+        <v>42.75</v>
       </c>
       <c r="L4">
-        <v>0.4523153444594863</v>
+        <v>1.736659400110767</v>
       </c>
       <c r="M4">
-        <v>-0.384265693424787</v>
+        <v>-0.6585963926120115</v>
       </c>
       <c r="N4">
-        <v>0.1833678989978331</v>
+        <v>0.3749757606310796</v>
       </c>
       <c r="O4">
-        <v>0.2257036789552176</v>
+        <v>0.4901916499704608</v>
       </c>
       <c r="P4">
-        <v>0.01195172822901701</v>
+        <v>0.01285735183991267</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -708,55 +705,55 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1703</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
       <c r="D5">
-        <v>0.9680010479476578</v>
+        <v>0.9469158822486993</v>
       </c>
       <c r="E5">
-        <v>0.9750641107472263</v>
+        <v>0.8443480841767396</v>
       </c>
       <c r="F5">
-        <v>5.252903920360758E-05</v>
+        <v>0.001789660805558814</v>
       </c>
       <c r="G5">
-        <v>-16.7084718472648</v>
+        <v>17.32039024704423</v>
       </c>
       <c r="H5">
-        <v>1.0046440896241</v>
+        <v>-0.2914134377421374</v>
       </c>
       <c r="I5">
-        <v>2.302161211050334E-63</v>
+        <v>2.420862204906275E-43</v>
       </c>
       <c r="J5">
-        <v>12.82852268218994</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="K5">
-        <v>30.05999946594238</v>
+        <v>18.32999992370605</v>
       </c>
       <c r="L5">
-        <v>1.514148295591593</v>
+        <v>0.7991370351269236</v>
       </c>
       <c r="M5">
-        <v>-1.096921781202518</v>
+        <v>-0.5470728807849703</v>
       </c>
       <c r="N5">
-        <v>0.6140305015687879</v>
+        <v>0.3171231608614611</v>
       </c>
       <c r="O5">
-        <v>-0.6626062681078793</v>
+        <v>-0.4187815358472369</v>
       </c>
       <c r="P5">
-        <v>0.0121966574312</v>
+        <v>0.01286395815434006</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R5" t="s">
         <v>28</v>
@@ -764,58 +761,58 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>237</v>
+        <v>1863</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6">
-        <v>0.2100089267475565</v>
+        <v>0.8942751488109502</v>
       </c>
       <c r="E6">
-        <v>0.8650614681480391</v>
+        <v>0.9726504408383028</v>
       </c>
       <c r="F6">
-        <v>0.001807954409481964</v>
+        <v>0.0005234355730317716</v>
       </c>
       <c r="G6">
-        <v>5.933743470305161</v>
+        <v>-0.5807026013126548</v>
       </c>
       <c r="H6">
-        <v>0.2870944201353324</v>
+        <v>0.1953487075772774</v>
       </c>
       <c r="I6">
-        <v>7.088678558420365E-26</v>
+        <v>1.906250421440436E-71</v>
       </c>
       <c r="J6">
-        <v>12.07999992370605</v>
+        <v>1.899999976158142</v>
       </c>
       <c r="K6">
-        <v>23.01000022888184</v>
+        <v>11.38000011444092</v>
       </c>
       <c r="L6">
-        <v>0.8702908466680803</v>
+        <v>0.4467470222764036</v>
       </c>
       <c r="M6">
-        <v>-1.36258980930014</v>
+        <v>-0.3974107626162477</v>
       </c>
       <c r="N6">
-        <v>0.4581108793227511</v>
+        <v>0.1845837176470641</v>
       </c>
       <c r="O6">
-        <v>-0.4597862196238029</v>
+        <v>0.2576342628854951</v>
       </c>
       <c r="P6">
-        <v>0.01291477563809679</v>
+        <v>0.01297926566613522</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="R6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -823,52 +820,52 @@
         <v>2651</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7">
-        <v>0.6511394690479644</v>
+        <v>0.723329274152381</v>
       </c>
       <c r="E7">
-        <v>0.3541323800563717</v>
+        <v>0.392759912509432</v>
       </c>
       <c r="F7">
-        <v>0.002672719881991419</v>
+        <v>0.002026454114122791</v>
       </c>
       <c r="G7">
-        <v>12.27481454080538</v>
+        <v>12.17905166450465</v>
       </c>
       <c r="H7">
-        <v>1.491520870941063</v>
+        <v>1.507679712682719</v>
       </c>
       <c r="I7">
-        <v>1.792785527053268E-38</v>
+        <v>2.784989093525681E-40</v>
       </c>
       <c r="J7">
-        <v>20.60000038146973</v>
+        <v>20.38999938964844</v>
       </c>
       <c r="K7">
-        <v>6.070000171661377</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>1.574101413662159</v>
+        <v>1.560468931680091</v>
       </c>
       <c r="M7">
-        <v>-1.087142835944256</v>
+        <v>-1.048412848905393</v>
       </c>
       <c r="N7">
-        <v>0.5654527616950372</v>
+        <v>0.5516163537685952</v>
       </c>
       <c r="O7">
-        <v>-0.7283461019844371</v>
+        <v>-0.8351305509525258</v>
       </c>
       <c r="P7">
-        <v>0.01429598108558427</v>
+        <v>0.01342417081341189</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
         <v>30</v>
@@ -876,226 +873,226 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>19</v>
+        <v>907</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.9522547415038405</v>
+        <v>0.4383203810585447</v>
       </c>
       <c r="E8">
-        <v>0.9047725276989738</v>
+        <v>0.392759912509432</v>
       </c>
       <c r="F8">
-        <v>0.004194185862923947</v>
+        <v>0.0005721756169076259</v>
       </c>
       <c r="G8">
-        <v>8.645273034530621</v>
+        <v>20.17327771910319</v>
       </c>
       <c r="H8">
-        <v>0.6971917988822036</v>
+        <v>2.264689372402132</v>
       </c>
       <c r="I8">
-        <v>1.268792835415009E-52</v>
+        <v>3.028440280643429E-31</v>
       </c>
       <c r="J8">
-        <v>11.56999969482422</v>
+        <v>32.68000030517578</v>
       </c>
       <c r="K8">
-        <v>4.670000076293945</v>
+        <v>6</v>
       </c>
       <c r="L8">
-        <v>0.6799403690544743</v>
+        <v>2.390640385281564</v>
       </c>
       <c r="M8">
-        <v>-0.668393943791397</v>
+        <v>-2.276727602498944</v>
       </c>
       <c r="N8">
-        <v>0.2651048462247284</v>
+        <v>1.039848498214754</v>
       </c>
       <c r="O8">
-        <v>-0.3311590936778064</v>
+        <v>-1.081413648340201</v>
       </c>
       <c r="P8">
-        <v>0.0145889878610603</v>
+        <v>0.01357458541976549</v>
       </c>
       <c r="Q8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2936</v>
+        <v>1218</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.7519102537910135</v>
+        <v>0.88079119770692</v>
       </c>
       <c r="E9">
-        <v>0.7986538059722359</v>
+        <v>0.5771298640299536</v>
       </c>
       <c r="F9">
-        <v>0.001692715551202414</v>
+        <v>0.0024949675097789</v>
       </c>
       <c r="G9">
-        <v>-28.84832573846553</v>
+        <v>5.020465178201128</v>
       </c>
       <c r="H9">
-        <v>0.9494135236408068</v>
+        <v>0.2592230371071073</v>
       </c>
       <c r="I9">
-        <v>7.418822058790648E-35</v>
+        <v>1.959072851048313E-43</v>
       </c>
       <c r="J9">
-        <v>12.1899995803833</v>
+        <v>11.90999984741211</v>
       </c>
       <c r="K9">
-        <v>45.38999938964844</v>
+        <v>28.70999908447266</v>
       </c>
       <c r="L9">
-        <v>4.062223114090763</v>
+        <v>0.9442054785238838</v>
       </c>
       <c r="M9">
-        <v>-3.699549319198198</v>
+        <v>-0.7335165505657582</v>
       </c>
       <c r="N9">
-        <v>1.491466033302417</v>
+        <v>0.3104200180542647</v>
       </c>
       <c r="O9">
-        <v>-2.055553939731361</v>
+        <v>-0.5527584888082915</v>
       </c>
       <c r="P9">
-        <v>0.01463346838544171</v>
+        <v>0.01398332869693973</v>
       </c>
       <c r="Q9" t="s">
         <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.2100089267475565</v>
+        <v>0.9469158822486993</v>
       </c>
       <c r="E10">
-        <v>0.3921016684934885</v>
+        <v>0.6808600148649548</v>
       </c>
       <c r="F10">
-        <v>0.005863132977069529</v>
+        <v>0.004716904158127133</v>
       </c>
       <c r="G10">
-        <v>5.776215807721895</v>
+        <v>4.572447369180744</v>
       </c>
       <c r="H10">
-        <v>0.3403349072125527</v>
+        <v>0.2677391482281168</v>
       </c>
       <c r="I10">
-        <v>2.847910240206366E-18</v>
+        <v>4.913812243039114E-42</v>
       </c>
       <c r="J10">
-        <v>12.07999992370605</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="K10">
-        <v>20.88999938964844</v>
+        <v>28.5</v>
       </c>
       <c r="L10">
-        <v>1.334808685941045</v>
+        <v>0.6456048307332232</v>
       </c>
       <c r="M10">
-        <v>-1.12755303397244</v>
+        <v>-0.8419040630300216</v>
       </c>
       <c r="N10">
-        <v>0.5220725113434085</v>
+        <v>0.3244215103235431</v>
       </c>
       <c r="O10">
-        <v>-0.8058118879621237</v>
+        <v>-0.643012674065373</v>
       </c>
       <c r="P10">
-        <v>0.01471298186714131</v>
+        <v>0.01431588010427598</v>
       </c>
       <c r="Q10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.9522547415038405</v>
+        <v>0.3179781292783908</v>
       </c>
       <c r="E11">
-        <v>0.7033081749233839</v>
+        <v>0.4836285186460179</v>
       </c>
       <c r="F11">
-        <v>0.005178416164694568</v>
+        <v>0.005378488345924847</v>
       </c>
       <c r="G11">
-        <v>4.863122649454715</v>
+        <v>5.445319756033151</v>
       </c>
       <c r="H11">
-        <v>0.2581505842584282</v>
+        <v>0.3541844189130463</v>
       </c>
       <c r="I11">
-        <v>6.585289555440262E-41</v>
+        <v>1.721527504058124E-18</v>
       </c>
       <c r="J11">
-        <v>11.56999969482422</v>
+        <v>12</v>
       </c>
       <c r="K11">
-        <v>28</v>
+        <v>20.79999923706055</v>
       </c>
       <c r="L11">
-        <v>0.646517779314383</v>
+        <v>1.365833334511787</v>
       </c>
       <c r="M11">
-        <v>-0.8135277633148696</v>
+        <v>-1.09499674174894</v>
       </c>
       <c r="N11">
-        <v>0.3245831292481549</v>
+        <v>0.5317657889350316</v>
       </c>
       <c r="O11">
-        <v>-0.521339313866485</v>
+        <v>-0.8123553992032475</v>
       </c>
       <c r="P11">
-        <v>0.01484449604719088</v>
+        <v>0.01482094855959843</v>
       </c>
       <c r="Q11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -76,46 +76,43 @@
     <t>ABEV3</t>
   </si>
   <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
+    <t>CVCB3</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
     <t>BBDC3</t>
   </si>
   <si>
-    <t>CVCB3</t>
-  </si>
-  <si>
     <t>IGTI11</t>
   </si>
   <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
     <t>CCRO3</t>
   </si>
   <si>
-    <t>ASAI3</t>
-  </si>
-  <si>
     <t>RENT3</t>
   </si>
   <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>BRFS3</t>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
   </si>
   <si>
     <t>YDUQ3</t>
   </si>
   <si>
+    <t>ELET6</t>
+  </si>
+  <si>
     <t>SOMA3</t>
   </si>
   <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>TOTS3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
+    <t>RAIZ4</t>
   </si>
 </sst>
 </file>
@@ -546,43 +543,43 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>0.6711338061728916</v>
+        <v>0.6822762645345675</v>
       </c>
       <c r="E2">
-        <v>0.9261674488066423</v>
+        <v>0.9513281651553346</v>
       </c>
       <c r="F2">
-        <v>0.0002787434736704497</v>
+        <v>0.000432530633202529</v>
       </c>
       <c r="G2">
-        <v>3.641616869036992</v>
+        <v>3.746009978899445</v>
       </c>
       <c r="H2">
-        <v>0.2024319225225328</v>
+        <v>0.2006223121338698</v>
       </c>
       <c r="I2">
-        <v>3.405147631074667E-60</v>
+        <v>6.583364534929179E-60</v>
       </c>
       <c r="J2">
-        <v>12.94999980926514</v>
+        <v>12.85999965667725</v>
       </c>
       <c r="K2">
-        <v>42.75</v>
+        <v>41.86000061035156</v>
       </c>
       <c r="L2">
-        <v>2.277560743570398</v>
+        <v>2.267821404186414</v>
       </c>
       <c r="M2">
-        <v>-0.8067829988871686</v>
+        <v>-0.8168646096031544</v>
       </c>
       <c r="N2">
-        <v>0.432707688536963</v>
+        <v>0.4369086470493268</v>
       </c>
       <c r="O2">
-        <v>0.6544182523898687</v>
+        <v>0.7159395694038722</v>
       </c>
       <c r="P2">
-        <v>0.01031319661635971</v>
+        <v>0.01066324750187429</v>
       </c>
       <c r="Q2" t="s">
         <v>26</v>
@@ -593,7 +590,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -602,43 +599,43 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <v>0.9469158822486993</v>
+        <v>0.9579596176807498</v>
       </c>
       <c r="E3">
-        <v>0.8229080990962965</v>
+        <v>0.9379214688820952</v>
       </c>
       <c r="F3">
-        <v>0.0005548488847779895</v>
+        <v>0.0005087646273245085</v>
       </c>
       <c r="G3">
-        <v>4.809090388811775</v>
+        <v>9.609257970391869</v>
       </c>
       <c r="H3">
-        <v>0.5051756630638267</v>
+        <v>1.196534206635084</v>
       </c>
       <c r="I3">
-        <v>3.532807849951553E-61</v>
+        <v>1.981948160062806E-61</v>
       </c>
       <c r="J3">
-        <v>11.5600004196167</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="K3">
-        <v>14.42000007629395</v>
+        <v>1.789999961853027</v>
       </c>
       <c r="L3">
-        <v>0.6822926784507466</v>
+        <v>0.8135103303196232</v>
       </c>
       <c r="M3">
-        <v>-0.6043443197540306</v>
+        <v>-0.7150669123734055</v>
       </c>
       <c r="N3">
-        <v>0.2324462405430726</v>
+        <v>0.2347431742326297</v>
       </c>
       <c r="O3">
-        <v>-0.5337230691173005</v>
+        <v>-0.2910541164775395</v>
       </c>
       <c r="P3">
-        <v>0.01084236117253276</v>
+        <v>0.0114684173972625</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -649,226 +646,226 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>536</v>
+        <v>735</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.8067178398035796</v>
+        <v>0.5632328209860951</v>
       </c>
       <c r="E4">
-        <v>0.9261674488066423</v>
+        <v>0.8468539138965048</v>
       </c>
       <c r="F4">
-        <v>0.00177931815835221</v>
+        <v>0.001310556935245</v>
       </c>
       <c r="G4">
-        <v>3.333191779038944</v>
+        <v>1.258736539494506</v>
       </c>
       <c r="H4">
-        <v>0.1791021313035537</v>
+        <v>0.1713763524821029</v>
       </c>
       <c r="I4">
-        <v>3.118273370571565E-61</v>
+        <v>3.694296501803639E-40</v>
       </c>
       <c r="J4">
-        <v>11.47999954223633</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="K4">
-        <v>42.75</v>
+        <v>28.79999923706055</v>
       </c>
       <c r="L4">
-        <v>1.736659400110767</v>
+        <v>0.670699397742947</v>
       </c>
       <c r="M4">
-        <v>-0.6585963926120115</v>
+        <v>-0.4513008765862754</v>
       </c>
       <c r="N4">
-        <v>0.3749757606310796</v>
+        <v>0.222555504527313</v>
       </c>
       <c r="O4">
-        <v>0.4901916499704608</v>
+        <v>-0.2443755509641532</v>
       </c>
       <c r="P4">
-        <v>0.01285735183991267</v>
+        <v>0.0122755164280861</v>
       </c>
       <c r="Q4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>13</v>
+        <v>1863</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.9469158822486993</v>
+        <v>0.9233877039697642</v>
       </c>
       <c r="E5">
-        <v>0.8443480841767396</v>
+        <v>0.976244604949319</v>
       </c>
       <c r="F5">
-        <v>0.001789660805558814</v>
+        <v>0.0008060644978726813</v>
       </c>
       <c r="G5">
-        <v>17.32039024704423</v>
+        <v>-0.5527037135325567</v>
       </c>
       <c r="H5">
-        <v>-0.2914134377421374</v>
+        <v>0.1938689035437409</v>
       </c>
       <c r="I5">
-        <v>2.420862204906275E-43</v>
+        <v>1.298618457735194E-71</v>
       </c>
       <c r="J5">
-        <v>11.5600004196167</v>
+        <v>1.870000004768372</v>
       </c>
       <c r="K5">
-        <v>18.32999992370605</v>
+        <v>11.18000030517578</v>
       </c>
       <c r="L5">
-        <v>0.7991370351269236</v>
+        <v>0.4468063099257074</v>
       </c>
       <c r="M5">
-        <v>-0.5470728807849703</v>
+        <v>-0.4027741169990002</v>
       </c>
       <c r="N5">
-        <v>0.3171231608614611</v>
+        <v>0.1858526485068741</v>
       </c>
       <c r="O5">
-        <v>-0.4187815358472369</v>
+        <v>0.2552493175178112</v>
       </c>
       <c r="P5">
-        <v>0.01286395815434006</v>
+        <v>0.0130998985192952</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1863</v>
+        <v>867</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.8942751488109502</v>
+        <v>0.5698942040171695</v>
       </c>
       <c r="E6">
-        <v>0.9726504408383028</v>
+        <v>0.5921658999550782</v>
       </c>
       <c r="F6">
-        <v>0.0005234355730317716</v>
+        <v>0.001698498493212895</v>
       </c>
       <c r="G6">
-        <v>-0.5807026013126548</v>
+        <v>0.8552601395817554</v>
       </c>
       <c r="H6">
-        <v>0.1953487075772774</v>
+        <v>0.793894932139561</v>
       </c>
       <c r="I6">
-        <v>1.906250421440436E-71</v>
+        <v>2.220990112991043E-44</v>
       </c>
       <c r="J6">
-        <v>1.899999976158142</v>
+        <v>31.60000038146973</v>
       </c>
       <c r="K6">
-        <v>11.38000011444092</v>
+        <v>40.04999923706055</v>
       </c>
       <c r="L6">
-        <v>0.4467470222764036</v>
+        <v>2.339471200703173</v>
       </c>
       <c r="M6">
-        <v>-0.3974107626162477</v>
+        <v>-1.894004491046616</v>
       </c>
       <c r="N6">
-        <v>0.1845837176470641</v>
+        <v>0.8381913640429275</v>
       </c>
       <c r="O6">
-        <v>0.2576342628854951</v>
+        <v>-1.05075118460768</v>
       </c>
       <c r="P6">
-        <v>0.01297926566613522</v>
+        <v>0.01331648845681536</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2651</v>
+        <v>536</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>0.723329274152381</v>
+        <v>0.7950478886467177</v>
       </c>
       <c r="E7">
-        <v>0.392759912509432</v>
+        <v>0.9513281651553346</v>
       </c>
       <c r="F7">
-        <v>0.002026454114122791</v>
+        <v>0.00358513584148266</v>
       </c>
       <c r="G7">
-        <v>12.17905166450465</v>
+        <v>3.411127672354566</v>
       </c>
       <c r="H7">
-        <v>1.507679712682719</v>
+        <v>0.177798043352353</v>
       </c>
       <c r="I7">
-        <v>2.784989093525681E-40</v>
+        <v>3.679699355088323E-61</v>
       </c>
       <c r="J7">
-        <v>20.38999938964844</v>
+        <v>11.48999977111816</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>41.86000061035156</v>
       </c>
       <c r="L7">
-        <v>1.560468931680091</v>
+        <v>1.726936293464018</v>
       </c>
       <c r="M7">
-        <v>-1.048412848905393</v>
+        <v>-0.6676990481393474</v>
       </c>
       <c r="N7">
-        <v>0.5516163537685952</v>
+        <v>0.3776189799256359</v>
       </c>
       <c r="O7">
-        <v>-0.8351305509525258</v>
+        <v>0.6362458955147865</v>
       </c>
       <c r="P7">
-        <v>0.01342417081341189</v>
+        <v>0.01356358721024635</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="R7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -876,60 +873,60 @@
         <v>907</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.4383203810585447</v>
+        <v>0.5698942040171695</v>
       </c>
       <c r="E8">
-        <v>0.392759912509432</v>
+        <v>0.4786014174510975</v>
       </c>
       <c r="F8">
-        <v>0.0005721756169076259</v>
+        <v>0.002339032273891962</v>
       </c>
       <c r="G8">
-        <v>20.17327771910319</v>
+        <v>19.95368358356533</v>
       </c>
       <c r="H8">
-        <v>2.264689372402132</v>
+        <v>2.297999214811803</v>
       </c>
       <c r="I8">
-        <v>3.028440280643429E-31</v>
+        <v>1.437287133756241E-32</v>
       </c>
       <c r="J8">
-        <v>32.68000030517578</v>
+        <v>31.60000038146973</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="L8">
-        <v>2.390640385281564</v>
+        <v>2.420701515602396</v>
       </c>
       <c r="M8">
-        <v>-2.276727602498944</v>
+        <v>-2.133837082434567</v>
       </c>
       <c r="N8">
-        <v>1.039848498214754</v>
+        <v>1.029344341638178</v>
       </c>
       <c r="O8">
-        <v>-1.081413648340201</v>
+        <v>-1.498238228679693</v>
       </c>
       <c r="P8">
-        <v>0.01357458541976549</v>
+        <v>0.01359386053652216</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1218</v>
+        <v>2651</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -938,43 +935,43 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.88079119770692</v>
+        <v>0.7981333668222225</v>
       </c>
       <c r="E9">
-        <v>0.5771298640299536</v>
+        <v>0.4786014174510975</v>
       </c>
       <c r="F9">
-        <v>0.0024949675097789</v>
+        <v>0.002754159927542494</v>
       </c>
       <c r="G9">
-        <v>5.020465178201128</v>
+        <v>12.06080449240489</v>
       </c>
       <c r="H9">
-        <v>0.2592230371071073</v>
+        <v>1.525340324974932</v>
       </c>
       <c r="I9">
-        <v>1.959072851048313E-43</v>
+        <v>2.185728685916645E-41</v>
       </c>
       <c r="J9">
-        <v>11.90999984741211</v>
+        <v>19.97999954223633</v>
       </c>
       <c r="K9">
-        <v>28.70999908447266</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="L9">
-        <v>0.9442054785238838</v>
+        <v>1.559155666247051</v>
       </c>
       <c r="M9">
-        <v>-0.7335165505657582</v>
+        <v>-1.061384023105127</v>
       </c>
       <c r="N9">
-        <v>0.3104200180542647</v>
+        <v>0.5496346166938878</v>
       </c>
       <c r="O9">
-        <v>-0.5527584888082915</v>
+        <v>-0.805751288996035</v>
       </c>
       <c r="P9">
-        <v>0.01398332869693973</v>
+        <v>0.01360762769146155</v>
       </c>
       <c r="Q9" t="s">
         <v>24</v>
@@ -985,55 +982,55 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>75</v>
+        <v>899</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.9469158822486993</v>
+        <v>0.5698942040171695</v>
       </c>
       <c r="E10">
-        <v>0.6808600148649548</v>
+        <v>0.9298003291452169</v>
       </c>
       <c r="F10">
-        <v>0.004716904158127133</v>
+        <v>0.0004389234161218429</v>
       </c>
       <c r="G10">
-        <v>4.572447369180744</v>
+        <v>22.02034544884789</v>
       </c>
       <c r="H10">
-        <v>0.2677391482281168</v>
+        <v>3.902788627247957</v>
       </c>
       <c r="I10">
-        <v>4.913812243039114E-42</v>
+        <v>4.617039688920589E-38</v>
       </c>
       <c r="J10">
-        <v>11.5600004196167</v>
+        <v>31.60000038146973</v>
       </c>
       <c r="K10">
-        <v>28.5</v>
+        <v>2.720000028610229</v>
       </c>
       <c r="L10">
-        <v>0.6456048307332232</v>
+        <v>2.58559242812359</v>
       </c>
       <c r="M10">
-        <v>-0.8419040630300216</v>
+        <v>-3.038199744833989</v>
       </c>
       <c r="N10">
-        <v>0.3244215103235431</v>
+        <v>0.9355884205496137</v>
       </c>
       <c r="O10">
-        <v>-0.643012674065373</v>
+        <v>-1.035930245152286</v>
       </c>
       <c r="P10">
-        <v>0.01431588010427598</v>
+        <v>0.01368777172808763</v>
       </c>
       <c r="Q10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R10" t="s">
         <v>32</v>
@@ -1041,58 +1038,58 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>240</v>
+        <v>1218</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>0.3179781292783908</v>
+        <v>0.91652537450247</v>
       </c>
       <c r="E11">
-        <v>0.4836285186460179</v>
+        <v>0.8468539138965048</v>
       </c>
       <c r="F11">
-        <v>0.005378488345924847</v>
+        <v>0.002721127085048667</v>
       </c>
       <c r="G11">
-        <v>5.445319756033151</v>
+        <v>4.831632901124605</v>
       </c>
       <c r="H11">
-        <v>0.3541844189130463</v>
+        <v>0.2651032912404081</v>
       </c>
       <c r="I11">
-        <v>1.721527504058124E-18</v>
+        <v>1.725395113738248E-44</v>
       </c>
       <c r="J11">
-        <v>12</v>
+        <v>11.72999954223633</v>
       </c>
       <c r="K11">
-        <v>20.79999923706055</v>
+        <v>28.79999923706055</v>
       </c>
       <c r="L11">
-        <v>1.365833334511787</v>
+        <v>0.9499029252223306</v>
       </c>
       <c r="M11">
-        <v>-1.09499674174894</v>
+        <v>-0.7421806111786111</v>
       </c>
       <c r="N11">
-        <v>0.5317657889350316</v>
+        <v>0.3116162115632201</v>
       </c>
       <c r="O11">
-        <v>-0.8123553992032475</v>
+        <v>-0.7366079443542706</v>
       </c>
       <c r="P11">
-        <v>0.01482094855959843</v>
+        <v>0.01375260602094891</v>
       </c>
       <c r="Q11" t="s">
         <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -70,49 +70,55 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
     <t>BBDC4</t>
   </si>
   <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>BEEF3</t>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>BBDC3</t>
+  </si>
+  <si>
+    <t>NTCO3</t>
   </si>
   <si>
     <t>CVCB3</t>
   </si>
   <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>BBDC3</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
+    <t>EMBR3</t>
   </si>
   <si>
     <t>CCRO3</t>
   </si>
   <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
     <t>RENT3</t>
   </si>
   <si>
     <t>COGN3</t>
   </si>
   <si>
-    <t>HYPE3</t>
+    <t>SOMA3</t>
+  </si>
+  <si>
+    <t>SUZB3</t>
   </si>
   <si>
     <t>YDUQ3</t>
   </si>
   <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>SOMA3</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
+    <t>ENGI11</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
   </si>
 </sst>
 </file>
@@ -534,279 +540,279 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>611</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.6822762645345675</v>
+        <v>0.9637152667276535</v>
       </c>
       <c r="E2">
-        <v>0.9513281651553346</v>
+        <v>0.959221868325501</v>
       </c>
       <c r="F2">
-        <v>0.000432530633202529</v>
+        <v>8.499101858643431E-08</v>
       </c>
       <c r="G2">
-        <v>3.746009978899445</v>
+        <v>5.382136495898186</v>
       </c>
       <c r="H2">
-        <v>0.2006223121338698</v>
+        <v>0.5906694076944796</v>
       </c>
       <c r="I2">
-        <v>6.583364534929179E-60</v>
+        <v>1.126780801975841E-76</v>
       </c>
       <c r="J2">
-        <v>12.85999965667725</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="K2">
-        <v>41.86000061035156</v>
+        <v>10.55000019073486</v>
       </c>
       <c r="L2">
-        <v>2.267821404186414</v>
+        <v>0.6699950878630716</v>
       </c>
       <c r="M2">
-        <v>-0.8168646096031544</v>
+        <v>-0.4402333530949516</v>
       </c>
       <c r="N2">
-        <v>0.4369086470493268</v>
+        <v>0.1826899149303495</v>
       </c>
       <c r="O2">
-        <v>0.7159395694038722</v>
+        <v>-0.2136992412059211</v>
       </c>
       <c r="P2">
-        <v>0.01066324750187429</v>
+        <v>0.006101770755581349</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>20</v>
+        <v>611</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0.9579596176807498</v>
+        <v>0.6770424469891891</v>
       </c>
       <c r="E3">
-        <v>0.9379214688820952</v>
+        <v>0.9593089892147234</v>
       </c>
       <c r="F3">
-        <v>0.0005087646273245085</v>
+        <v>0.0006969020686307438</v>
       </c>
       <c r="G3">
-        <v>9.609257970391869</v>
+        <v>3.879070553201972</v>
       </c>
       <c r="H3">
-        <v>1.196534206635084</v>
+        <v>0.1982608745666778</v>
       </c>
       <c r="I3">
-        <v>1.981948160062806E-61</v>
+        <v>2.333527337679722E-59</v>
       </c>
       <c r="J3">
-        <v>11.46000003814697</v>
+        <v>12.93000030517578</v>
       </c>
       <c r="K3">
-        <v>1.789999961853027</v>
+        <v>41.54999923706055</v>
       </c>
       <c r="L3">
-        <v>0.8135103303196232</v>
+        <v>2.258276653691389</v>
       </c>
       <c r="M3">
-        <v>-0.7150669123734055</v>
+        <v>-0.8268518990045539</v>
       </c>
       <c r="N3">
-        <v>0.2347431742326297</v>
+        <v>0.442758370089579</v>
       </c>
       <c r="O3">
-        <v>-0.2910541164775395</v>
+        <v>0.8131905649893874</v>
       </c>
       <c r="P3">
-        <v>0.0114684173972625</v>
+        <v>0.01108059353951599</v>
       </c>
       <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>735</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>0.5632328209860951</v>
+        <v>0.9637152667276535</v>
       </c>
       <c r="E4">
-        <v>0.8468539138965048</v>
+        <v>0.9059310770981079</v>
       </c>
       <c r="F4">
-        <v>0.001310556935245</v>
+        <v>0.0004371699083702326</v>
       </c>
       <c r="G4">
-        <v>1.258736539494506</v>
+        <v>9.578988223485371</v>
       </c>
       <c r="H4">
-        <v>0.1713763524821029</v>
+        <v>1.208090456007656</v>
       </c>
       <c r="I4">
-        <v>3.694296501803639E-40</v>
+        <v>2.766625830404469E-62</v>
       </c>
       <c r="J4">
-        <v>5.949999809265137</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="K4">
-        <v>28.79999923706055</v>
+        <v>1.820000052452087</v>
       </c>
       <c r="L4">
-        <v>0.670699397742947</v>
+        <v>0.8145427666441414</v>
       </c>
       <c r="M4">
-        <v>-0.4513008765862754</v>
+        <v>-0.7209682273255655</v>
       </c>
       <c r="N4">
-        <v>0.222555504527313</v>
+        <v>0.2347711080036269</v>
       </c>
       <c r="O4">
-        <v>-0.2443755509641532</v>
+        <v>-0.3777132982558982</v>
       </c>
       <c r="P4">
-        <v>0.0122755164280861</v>
+        <v>0.01130875623918686</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1863</v>
+        <v>2651</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>0.9233877039697642</v>
+        <v>0.7795798866515634</v>
       </c>
       <c r="E5">
-        <v>0.976244604949319</v>
+        <v>0.4321832965106041</v>
       </c>
       <c r="F5">
-        <v>0.0008060644978726813</v>
+        <v>0.002514432221202441</v>
       </c>
       <c r="G5">
-        <v>-0.5527037135325567</v>
+        <v>11.98422703518366</v>
       </c>
       <c r="H5">
-        <v>0.1938689035437409</v>
+        <v>1.536530657601262</v>
       </c>
       <c r="I5">
-        <v>1.298618457735194E-71</v>
+        <v>6.588185453073285E-42</v>
       </c>
       <c r="J5">
-        <v>1.870000004768372</v>
+        <v>20.19000053405762</v>
       </c>
       <c r="K5">
-        <v>11.18000030517578</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="L5">
-        <v>0.4468063099257074</v>
+        <v>1.559974571801465</v>
       </c>
       <c r="M5">
-        <v>-0.4027741169990002</v>
+        <v>-1.067950735376584</v>
       </c>
       <c r="N5">
-        <v>0.1858526485068741</v>
+        <v>0.5509449421430185</v>
       </c>
       <c r="O5">
-        <v>0.2552493175178112</v>
+        <v>-0.8136612854034713</v>
       </c>
       <c r="P5">
-        <v>0.0130998985192952</v>
+        <v>0.01350809579348452</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>867</v>
+        <v>907</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="D6">
-        <v>0.5698942040171695</v>
+        <v>0.5452987537720493</v>
       </c>
       <c r="E6">
-        <v>0.5921658999550782</v>
+        <v>0.4321832965106041</v>
       </c>
       <c r="F6">
-        <v>0.001698498493212895</v>
+        <v>0.0003250859846364948</v>
       </c>
       <c r="G6">
-        <v>0.8552601395817554</v>
+        <v>19.87292376594851</v>
       </c>
       <c r="H6">
-        <v>0.793894932139561</v>
+        <v>2.310780251208629</v>
       </c>
       <c r="I6">
-        <v>2.220990112991043E-44</v>
+        <v>2.239853644032846E-33</v>
       </c>
       <c r="J6">
-        <v>31.60000038146973</v>
+        <v>32.22999954223633</v>
       </c>
       <c r="K6">
-        <v>40.04999923706055</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="L6">
-        <v>2.339471200703173</v>
+        <v>2.428737235389931</v>
       </c>
       <c r="M6">
-        <v>-1.894004491046616</v>
+        <v>-2.154303074055733</v>
       </c>
       <c r="N6">
-        <v>0.8381913640429275</v>
+        <v>1.020659669050757</v>
       </c>
       <c r="O6">
-        <v>-1.05075118460768</v>
+        <v>-1.207204033859027</v>
       </c>
       <c r="P6">
-        <v>0.01331648845681536</v>
+        <v>0.01356851474350999</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
         <v>30</v>
@@ -817,108 +823,108 @@
         <v>536</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.7950478886467177</v>
+        <v>0.7947429648522912</v>
       </c>
       <c r="E7">
-        <v>0.9513281651553346</v>
+        <v>0.9593089892147234</v>
       </c>
       <c r="F7">
-        <v>0.00358513584148266</v>
+        <v>0.005320225267889409</v>
       </c>
       <c r="G7">
-        <v>3.411127672354566</v>
+        <v>3.519764271729145</v>
       </c>
       <c r="H7">
-        <v>0.177798043352353</v>
+        <v>0.1758950959099491</v>
       </c>
       <c r="I7">
-        <v>3.679699355088323E-61</v>
+        <v>1.136211282602032E-60</v>
       </c>
       <c r="J7">
-        <v>11.48999977111816</v>
+        <v>11.53999996185303</v>
       </c>
       <c r="K7">
-        <v>41.86000061035156</v>
+        <v>41.54999923706055</v>
       </c>
       <c r="L7">
-        <v>1.726936293464018</v>
+        <v>1.717835567432305</v>
       </c>
       <c r="M7">
-        <v>-0.6676990481393474</v>
+        <v>-0.6758920559937494</v>
       </c>
       <c r="N7">
-        <v>0.3776189799256359</v>
+        <v>0.3826022658649618</v>
       </c>
       <c r="O7">
-        <v>0.6362458955147865</v>
+        <v>0.711794589262805</v>
       </c>
       <c r="P7">
-        <v>0.01356358721024635</v>
+        <v>0.01415185179818924</v>
       </c>
       <c r="Q7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>907</v>
+        <v>3042</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
       </c>
       <c r="D8">
-        <v>0.5698942040171695</v>
+        <v>0.1864178619415482</v>
       </c>
       <c r="E8">
-        <v>0.4786014174510975</v>
+        <v>0.7871923025751755</v>
       </c>
       <c r="F8">
-        <v>0.002339032273891962</v>
+        <v>0.003584049696081913</v>
       </c>
       <c r="G8">
-        <v>19.95368358356533</v>
+        <v>8.904488642195583</v>
       </c>
       <c r="H8">
-        <v>2.297999214811803</v>
+        <v>0.1344191366996283</v>
       </c>
       <c r="I8">
-        <v>1.437287133756241E-32</v>
+        <v>1.098609216946205E-22</v>
       </c>
       <c r="J8">
-        <v>31.60000038146973</v>
+        <v>14.86999988555908</v>
       </c>
       <c r="K8">
-        <v>5.71999979019165</v>
+        <v>48.91999816894531</v>
       </c>
       <c r="L8">
-        <v>2.420701515602396</v>
+        <v>1.680460643109875</v>
       </c>
       <c r="M8">
-        <v>-2.133837082434567</v>
+        <v>-1.257435394278552</v>
       </c>
       <c r="N8">
-        <v>1.029344341638178</v>
+        <v>0.6076718832422223</v>
       </c>
       <c r="O8">
-        <v>-1.498238228679693</v>
+        <v>-0.6102726778535255</v>
       </c>
       <c r="P8">
-        <v>0.01359386053652216</v>
+        <v>0.01428774502579516</v>
       </c>
       <c r="Q8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R8" t="s">
         <v>31</v>
@@ -926,170 +932,170 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2651</v>
+        <v>1863</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.7981333668222225</v>
+        <v>0.8775484775600215</v>
       </c>
       <c r="E9">
-        <v>0.4786014174510975</v>
+        <v>0.9691180248309949</v>
       </c>
       <c r="F9">
-        <v>0.002754159927542494</v>
+        <v>0.0008506506225640211</v>
       </c>
       <c r="G9">
-        <v>12.06080449240489</v>
+        <v>-0.5274263735156353</v>
       </c>
       <c r="H9">
-        <v>1.525340324974932</v>
+        <v>0.1924665565796387</v>
       </c>
       <c r="I9">
-        <v>2.185728685916645E-41</v>
+        <v>5.528892367141976E-72</v>
       </c>
       <c r="J9">
-        <v>19.97999954223633</v>
+        <v>1.929999947547913</v>
       </c>
       <c r="K9">
-        <v>5.71999979019165</v>
+        <v>11.48999977111816</v>
       </c>
       <c r="L9">
-        <v>1.559155666247051</v>
+        <v>0.4481185021981631</v>
       </c>
       <c r="M9">
-        <v>-1.061384023105127</v>
+        <v>-0.4066007305540253</v>
       </c>
       <c r="N9">
-        <v>0.5496346166938878</v>
+        <v>0.1860658589446876</v>
       </c>
       <c r="O9">
-        <v>-0.805751288996035</v>
+        <v>0.2459856300155985</v>
       </c>
       <c r="P9">
-        <v>0.01360762769146155</v>
+        <v>0.01489538748123844</v>
       </c>
       <c r="Q9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="s">
         <v>24</v>
-      </c>
-      <c r="R9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>899</v>
+        <v>2130</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0.5698942040171695</v>
+        <v>0.974729283063415</v>
       </c>
       <c r="E10">
-        <v>0.9298003291452169</v>
+        <v>0.5738955416477365</v>
       </c>
       <c r="F10">
-        <v>0.0004389234161218429</v>
+        <v>0.00499631359070937</v>
       </c>
       <c r="G10">
-        <v>22.02034544884789</v>
+        <v>138.3152076081468</v>
       </c>
       <c r="H10">
-        <v>3.902788627247957</v>
+        <v>-2.236968875732912</v>
       </c>
       <c r="I10">
-        <v>4.617039688920589E-38</v>
+        <v>1.10920732471E-45</v>
       </c>
       <c r="J10">
-        <v>31.60000038146973</v>
+        <v>38.81000137329102</v>
       </c>
       <c r="K10">
-        <v>2.720000028610229</v>
+        <v>45.75</v>
       </c>
       <c r="L10">
-        <v>2.58559242812359</v>
+        <v>7.738491304550294</v>
       </c>
       <c r="M10">
-        <v>-3.038199744833989</v>
+        <v>-6.031554861431928</v>
       </c>
       <c r="N10">
-        <v>0.9355884205496137</v>
+        <v>2.819581835310225</v>
       </c>
       <c r="O10">
-        <v>-1.035930245152286</v>
+        <v>2.836119829924939</v>
       </c>
       <c r="P10">
-        <v>0.01368777172808763</v>
+        <v>0.01504015312642686</v>
       </c>
       <c r="Q10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="R10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1218</v>
+        <v>1226</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>0.91652537450247</v>
+        <v>0.9174974893024201</v>
       </c>
       <c r="E11">
-        <v>0.8468539138965048</v>
+        <v>0.7624563467092818</v>
       </c>
       <c r="F11">
-        <v>0.002721127085048667</v>
+        <v>0.003637169296963773</v>
       </c>
       <c r="G11">
-        <v>4.831632901124605</v>
+        <v>7.798440738858036</v>
       </c>
       <c r="H11">
-        <v>0.2651032912404081</v>
+        <v>1.018930007711157</v>
       </c>
       <c r="I11">
-        <v>1.725395113738248E-44</v>
+        <v>1.338382474494249E-48</v>
       </c>
       <c r="J11">
-        <v>11.72999954223633</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="K11">
-        <v>28.79999923706055</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="L11">
-        <v>0.9499029252223306</v>
+        <v>0.6659561727688157</v>
       </c>
       <c r="M11">
-        <v>-0.7421806111786111</v>
+        <v>-0.8204265481543498</v>
       </c>
       <c r="N11">
-        <v>0.3116162115632201</v>
+        <v>0.2957674293638165</v>
       </c>
       <c r="O11">
-        <v>-0.7366079443542706</v>
+        <v>-0.4098395085978144</v>
       </c>
       <c r="P11">
-        <v>0.01375260602094891</v>
+        <v>0.01505726353001194</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>N</t>
   </si>
@@ -76,9 +76,15 @@
     <t>BBDC4</t>
   </si>
   <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
     <t>IGTI11</t>
   </si>
   <si>
+    <t>CASH3</t>
+  </si>
+  <si>
     <t>BPAC11</t>
   </si>
   <si>
@@ -88,34 +94,31 @@
     <t>NTCO3</t>
   </si>
   <si>
+    <t>CCRO3</t>
+  </si>
+  <si>
     <t>CVCB3</t>
   </si>
   <si>
-    <t>EMBR3</t>
-  </si>
-  <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
     <t>B3SA3</t>
   </si>
   <si>
     <t>RENT3</t>
   </si>
   <si>
-    <t>COGN3</t>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
+  </si>
+  <si>
+    <t>RRRP3</t>
   </si>
   <si>
     <t>SOMA3</t>
   </si>
   <si>
-    <t>SUZB3</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
-    <t>ENGI11</t>
+    <t>PRIO3</t>
   </si>
   <si>
     <t>LWSA3</t>
@@ -546,52 +549,52 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>0.9637152667276535</v>
+        <v>0.9734343137420021</v>
       </c>
       <c r="E2">
-        <v>0.959221868325501</v>
+        <v>0.9658737415739846</v>
       </c>
       <c r="F2">
-        <v>8.499101858643431E-08</v>
+        <v>1.01029141103017E-07</v>
       </c>
       <c r="G2">
-        <v>5.382136495898186</v>
+        <v>5.341255270021149</v>
       </c>
       <c r="H2">
-        <v>0.5906694076944796</v>
+        <v>0.5938048179825406</v>
       </c>
       <c r="I2">
-        <v>1.126780801975841E-76</v>
+        <v>7.767270787489395E-78</v>
       </c>
       <c r="J2">
-        <v>11.39999961853027</v>
+        <v>11.27000045776367</v>
       </c>
       <c r="K2">
-        <v>10.55000019073486</v>
+        <v>10.39999961853027</v>
       </c>
       <c r="L2">
-        <v>0.6699950878630716</v>
+        <v>0.6716067124338547</v>
       </c>
       <c r="M2">
-        <v>-0.4402333530949516</v>
+        <v>-0.4402119256536992</v>
       </c>
       <c r="N2">
-        <v>0.1826899149303495</v>
+        <v>0.1832887933782333</v>
       </c>
       <c r="O2">
-        <v>-0.2136992412059211</v>
+        <v>-0.2468246927573379</v>
       </c>
       <c r="P2">
-        <v>0.006101770755581349</v>
+        <v>0.006166337747655285</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -602,49 +605,49 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>0.6770424469891891</v>
+        <v>0.7152791520199387</v>
       </c>
       <c r="E3">
-        <v>0.9593089892147234</v>
+        <v>0.9650907400809323</v>
       </c>
       <c r="F3">
-        <v>0.0006969020686307438</v>
+        <v>0.0006099444726641735</v>
       </c>
       <c r="G3">
-        <v>3.879070553201972</v>
+        <v>3.985940463603655</v>
       </c>
       <c r="H3">
-        <v>0.1982608745666778</v>
+        <v>0.1963581242675285</v>
       </c>
       <c r="I3">
-        <v>2.333527337679722E-59</v>
+        <v>8.493880068039986E-60</v>
       </c>
       <c r="J3">
-        <v>12.93000030517578</v>
+        <v>12.6899995803833</v>
       </c>
       <c r="K3">
-        <v>41.54999923706055</v>
+        <v>41.02000045776367</v>
       </c>
       <c r="L3">
-        <v>2.258276653691389</v>
+        <v>2.250934212174592</v>
       </c>
       <c r="M3">
-        <v>-0.8268518990045539</v>
+        <v>-0.8345551330086529</v>
       </c>
       <c r="N3">
-        <v>0.442758370089579</v>
+        <v>0.4447987280341658</v>
       </c>
       <c r="O3">
-        <v>0.8131905649893874</v>
+        <v>0.64944876944001</v>
       </c>
       <c r="P3">
-        <v>0.01108059353951599</v>
+        <v>0.01120410427771926</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -652,450 +655,450 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
+        <v>2294</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>0.9637152667276535</v>
+        <v>0.9795107002926782</v>
       </c>
       <c r="E4">
-        <v>0.9059310770981079</v>
+        <v>0.8966332410510804</v>
       </c>
       <c r="F4">
-        <v>0.0004371699083702326</v>
+        <v>0.0004365929814865446</v>
       </c>
       <c r="G4">
-        <v>9.578988223485371</v>
+        <v>8.516414231780328</v>
       </c>
       <c r="H4">
-        <v>1.208090456007656</v>
+        <v>0.9334921897038849</v>
       </c>
       <c r="I4">
-        <v>2.766625830404469E-62</v>
+        <v>1.441283958851792E-71</v>
       </c>
       <c r="J4">
-        <v>11.39999961853027</v>
+        <v>29.03000068664551</v>
       </c>
       <c r="K4">
-        <v>1.820000052452087</v>
+        <v>22.70000076293945</v>
       </c>
       <c r="L4">
-        <v>0.8145427666441414</v>
+        <v>1.349111392554391</v>
       </c>
       <c r="M4">
-        <v>-0.7209682273255655</v>
+        <v>-1.400101449366161</v>
       </c>
       <c r="N4">
-        <v>0.2347711080036269</v>
+        <v>0.527501993144609</v>
       </c>
       <c r="O4">
-        <v>-0.3777132982558982</v>
+        <v>-0.6766869636110293</v>
       </c>
       <c r="P4">
-        <v>0.01130875623918686</v>
+        <v>0.01144203895688466</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2651</v>
+        <v>2662</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>0.7795798866515634</v>
+        <v>0.8485918135866187</v>
       </c>
       <c r="E5">
-        <v>0.4321832965106041</v>
+        <v>0.9725738848079954</v>
       </c>
       <c r="F5">
-        <v>0.002514432221202441</v>
+        <v>0.002079046480893932</v>
       </c>
       <c r="G5">
-        <v>11.98422703518366</v>
+        <v>16.6887449772736</v>
       </c>
       <c r="H5">
-        <v>1.536530657601262</v>
+        <v>0.3172060629676908</v>
       </c>
       <c r="I5">
-        <v>6.588185453073285E-42</v>
+        <v>2.129433741469846E-48</v>
       </c>
       <c r="J5">
-        <v>20.19000053405762</v>
+        <v>19.78000068664551</v>
       </c>
       <c r="K5">
-        <v>5.869999885559082</v>
+        <v>11.35000038146973</v>
       </c>
       <c r="L5">
-        <v>1.559974571801465</v>
+        <v>1.170931042472652</v>
       </c>
       <c r="M5">
-        <v>-1.067950735376584</v>
+        <v>-2.000327972232135</v>
       </c>
       <c r="N5">
-        <v>0.5509449421430185</v>
+        <v>0.5030996584279697</v>
       </c>
       <c r="O5">
-        <v>-0.8136612854034713</v>
+        <v>-0.5090332263158972</v>
       </c>
       <c r="P5">
-        <v>0.01350809579348452</v>
+        <v>0.0119500476947534</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>907</v>
+        <v>1176</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>0.5452987537720493</v>
+        <v>0.2131892268571096</v>
       </c>
       <c r="E6">
-        <v>0.4321832965106041</v>
+        <v>0.6159268131065415</v>
       </c>
       <c r="F6">
-        <v>0.0003250859846364948</v>
+        <v>0.002593247936391137</v>
       </c>
       <c r="G6">
-        <v>19.87292376594851</v>
+        <v>8.466189172789734</v>
       </c>
       <c r="H6">
-        <v>2.310780251208629</v>
+        <v>-0.1114683618115752</v>
       </c>
       <c r="I6">
-        <v>2.239853644032846E-33</v>
+        <v>3.617029777452603E-23</v>
       </c>
       <c r="J6">
-        <v>32.22999954223633</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="K6">
-        <v>5.869999885559082</v>
+        <v>26.34000015258789</v>
       </c>
       <c r="L6">
-        <v>2.428737235389931</v>
+        <v>1.160380470577227</v>
       </c>
       <c r="M6">
-        <v>-2.154303074055733</v>
+        <v>-0.489411629181614</v>
       </c>
       <c r="N6">
-        <v>1.020659669050757</v>
+        <v>0.2820243857458903</v>
       </c>
       <c r="O6">
-        <v>-1.207204033859027</v>
+        <v>0.2898876659972549</v>
       </c>
       <c r="P6">
-        <v>0.01356851474350999</v>
+        <v>0.01364334762294498</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>536</v>
+        <v>907</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>0.7947429648522912</v>
+        <v>0.669322245027086</v>
       </c>
       <c r="E7">
-        <v>0.9593089892147234</v>
+        <v>0.4465048274394419</v>
       </c>
       <c r="F7">
-        <v>0.005320225267889409</v>
+        <v>0.0004548020555003999</v>
       </c>
       <c r="G7">
-        <v>3.519764271729145</v>
+        <v>19.66850088589742</v>
       </c>
       <c r="H7">
-        <v>0.1758950959099491</v>
+        <v>2.339255748334355</v>
       </c>
       <c r="I7">
-        <v>1.136211282602032E-60</v>
+        <v>4.90364605369764E-34</v>
       </c>
       <c r="J7">
-        <v>11.53999996185303</v>
+        <v>31.69000053405762</v>
       </c>
       <c r="K7">
-        <v>41.54999923706055</v>
+        <v>5.829999923706055</v>
       </c>
       <c r="L7">
-        <v>1.717835567432305</v>
+        <v>2.471134535166271</v>
       </c>
       <c r="M7">
-        <v>-0.6758920559937494</v>
+        <v>-2.175406133412885</v>
       </c>
       <c r="N7">
-        <v>0.3826022658649618</v>
+        <v>1.026568157421349</v>
       </c>
       <c r="O7">
-        <v>0.711794589262805</v>
+        <v>-1.616361186158038</v>
       </c>
       <c r="P7">
-        <v>0.01415185179818924</v>
+        <v>0.01383366618235489</v>
       </c>
       <c r="Q7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>3042</v>
+        <v>536</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.1864178619415482</v>
+        <v>0.8304272104341581</v>
       </c>
       <c r="E8">
-        <v>0.7871923025751755</v>
+        <v>0.9650907400809323</v>
       </c>
       <c r="F8">
-        <v>0.003584049696081913</v>
+        <v>0.004335140920255859</v>
       </c>
       <c r="G8">
-        <v>8.904488642195583</v>
+        <v>3.610365537382196</v>
       </c>
       <c r="H8">
-        <v>0.1344191366996283</v>
+        <v>0.1742819990886731</v>
       </c>
       <c r="I8">
-        <v>1.098609216946205E-22</v>
+        <v>3.709462569520745E-61</v>
       </c>
       <c r="J8">
-        <v>14.86999988555908</v>
+        <v>11.3100004196167</v>
       </c>
       <c r="K8">
-        <v>48.91999816894531</v>
+        <v>41.02000045776367</v>
       </c>
       <c r="L8">
-        <v>1.680460643109875</v>
+        <v>1.711609202165086</v>
       </c>
       <c r="M8">
-        <v>-1.257435394278552</v>
+        <v>-0.6813507257835347</v>
       </c>
       <c r="N8">
-        <v>0.6076718832422223</v>
+        <v>0.3842464336877799</v>
       </c>
       <c r="O8">
-        <v>-0.6102726778535255</v>
+        <v>0.5505871998371639</v>
       </c>
       <c r="P8">
-        <v>0.01428774502579516</v>
+        <v>0.01420479377869122</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1863</v>
+        <v>3030</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>0.8775484775600215</v>
+        <v>0.1883921917520936</v>
       </c>
       <c r="E9">
-        <v>0.9691180248309949</v>
+        <v>0.3368139628567325</v>
       </c>
       <c r="F9">
-        <v>0.0008506506225640211</v>
+        <v>0.003596867427793806</v>
       </c>
       <c r="G9">
-        <v>-0.5274263735156353</v>
+        <v>5.260444801500289</v>
       </c>
       <c r="H9">
-        <v>0.1924665565796387</v>
+        <v>0.2409980272506738</v>
       </c>
       <c r="I9">
-        <v>5.528892367141976E-72</v>
+        <v>1.650590668976937E-18</v>
       </c>
       <c r="J9">
-        <v>1.929999947547913</v>
+        <v>14.89000034332275</v>
       </c>
       <c r="K9">
-        <v>11.48999977111816</v>
+        <v>42.68999862670898</v>
       </c>
       <c r="L9">
-        <v>0.4481185021981631</v>
+        <v>1.928733916147717</v>
       </c>
       <c r="M9">
-        <v>-0.4066007305540253</v>
+        <v>-1.133149849380576</v>
       </c>
       <c r="N9">
-        <v>0.1860658589446876</v>
+        <v>0.6585795011475251</v>
       </c>
       <c r="O9">
-        <v>0.2459856300155985</v>
+        <v>-0.658649910548375</v>
       </c>
       <c r="P9">
-        <v>0.01489538748123844</v>
+        <v>0.0148395580621016</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2130</v>
+        <v>1226</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>0.974729283063415</v>
+        <v>0.9358716804399224</v>
       </c>
       <c r="E10">
-        <v>0.5738955416477365</v>
+        <v>0.8229516927702645</v>
       </c>
       <c r="F10">
-        <v>0.00499631359070937</v>
+        <v>0.002948608282417566</v>
       </c>
       <c r="G10">
-        <v>138.3152076081468</v>
+        <v>7.746534909712128</v>
       </c>
       <c r="H10">
-        <v>-2.236968875732912</v>
+        <v>1.028072114825301</v>
       </c>
       <c r="I10">
-        <v>1.10920732471E-45</v>
+        <v>6.050565076911446E-50</v>
       </c>
       <c r="J10">
-        <v>38.81000137329102</v>
+        <v>11.65999984741211</v>
       </c>
       <c r="K10">
-        <v>45.75</v>
+        <v>4.130000114440918</v>
       </c>
       <c r="L10">
-        <v>7.738491304550294</v>
+        <v>0.6678546779184451</v>
       </c>
       <c r="M10">
-        <v>-6.031554861431928</v>
+        <v>-0.8238304687927318</v>
       </c>
       <c r="N10">
-        <v>2.819581835310225</v>
+        <v>0.2961148966902396</v>
       </c>
       <c r="O10">
-        <v>2.836119829924939</v>
+        <v>-0.3324730141820273</v>
       </c>
       <c r="P10">
-        <v>0.01504015312642686</v>
+        <v>0.0149327518009502</v>
       </c>
       <c r="Q10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1226</v>
+        <v>1863</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.9174974893024201</v>
+        <v>0.8860115290672674</v>
       </c>
       <c r="E11">
-        <v>0.7624563467092818</v>
+        <v>0.9725738848079954</v>
       </c>
       <c r="F11">
-        <v>0.003637169296963773</v>
+        <v>0.000926813355952054</v>
       </c>
       <c r="G11">
-        <v>7.798440738858036</v>
+        <v>-0.5050288748968645</v>
       </c>
       <c r="H11">
-        <v>1.018930007711157</v>
+        <v>0.1913113693659365</v>
       </c>
       <c r="I11">
-        <v>1.338382474494249E-48</v>
+        <v>1.037562392687951E-72</v>
       </c>
       <c r="J11">
-        <v>11.77000045776367</v>
+        <v>1.899999976158142</v>
       </c>
       <c r="K11">
-        <v>4.300000190734863</v>
+        <v>11.35000038146973</v>
       </c>
       <c r="L11">
-        <v>0.6659561727688157</v>
+        <v>0.4476242047880006</v>
       </c>
       <c r="M11">
-        <v>-0.8204265481543498</v>
+        <v>-0.4113281335632761</v>
       </c>
       <c r="N11">
-        <v>0.2957674293638165</v>
+        <v>0.1865060228253168</v>
       </c>
       <c r="O11">
-        <v>-0.4098395085978144</v>
+        <v>0.2336447357721321</v>
       </c>
       <c r="P11">
-        <v>0.01505726353001194</v>
+        <v>0.01513377749742454</v>
       </c>
       <c r="Q11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -76,10 +76,13 @@
     <t>BBDC4</t>
   </si>
   <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
     <t>EQTL3</t>
   </si>
   <si>
-    <t>IGTI11</t>
+    <t>CSNA3</t>
   </si>
   <si>
     <t>CASH3</t>
@@ -88,40 +91,31 @@
     <t>BPAC11</t>
   </si>
   <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>RAIL3</t>
+  </si>
+  <si>
     <t>BBDC3</t>
   </si>
   <si>
-    <t>NTCO3</t>
-  </si>
-  <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
-    <t>CVCB3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
     <t>RENT3</t>
   </si>
   <si>
+    <t>YDUQ3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>RRRP3</t>
+  </si>
+  <si>
+    <t>SOMA3</t>
+  </si>
+  <si>
     <t>MULT3</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
-    <t>RRRP3</t>
-  </si>
-  <si>
-    <t>SOMA3</t>
-  </si>
-  <si>
-    <t>PRIO3</t>
-  </si>
-  <si>
-    <t>LWSA3</t>
   </si>
 </sst>
 </file>
@@ -549,52 +543,52 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.9734343137420021</v>
+        <v>0.9824548444334871</v>
       </c>
       <c r="E2">
-        <v>0.9658737415739846</v>
+        <v>0.9777227502283128</v>
       </c>
       <c r="F2">
-        <v>1.01029141103017E-07</v>
+        <v>1.002767010046679E-07</v>
       </c>
       <c r="G2">
-        <v>5.341255270021149</v>
+        <v>5.299331223070318</v>
       </c>
       <c r="H2">
-        <v>0.5938048179825406</v>
+        <v>0.5970405221254083</v>
       </c>
       <c r="I2">
-        <v>7.767270787489395E-78</v>
+        <v>2.870404779789294E-79</v>
       </c>
       <c r="J2">
-        <v>11.27000045776367</v>
+        <v>11.09000015258789</v>
       </c>
       <c r="K2">
-        <v>10.39999961853027</v>
+        <v>10.07999992370605</v>
       </c>
       <c r="L2">
-        <v>0.6716067124338547</v>
+        <v>0.673005022730937</v>
       </c>
       <c r="M2">
-        <v>-0.4402119256536992</v>
+        <v>-0.4404546788753496</v>
       </c>
       <c r="N2">
-        <v>0.1832887933782333</v>
+        <v>0.183695103917296</v>
       </c>
       <c r="O2">
-        <v>-0.2468246927573379</v>
+        <v>-0.2274994879559662</v>
       </c>
       <c r="P2">
-        <v>0.006166337747655285</v>
+        <v>0.006215194124095952</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -605,49 +599,49 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0.7152791520199387</v>
+        <v>0.711866519105117</v>
       </c>
       <c r="E3">
-        <v>0.9650907400809323</v>
+        <v>0.9734668811169656</v>
       </c>
       <c r="F3">
-        <v>0.0006099444726641735</v>
+        <v>0.0009248422914750231</v>
       </c>
       <c r="G3">
-        <v>3.985940463603655</v>
+        <v>4.117898379337747</v>
       </c>
       <c r="H3">
-        <v>0.1963581242675285</v>
+        <v>0.1940017271544014</v>
       </c>
       <c r="I3">
-        <v>8.493880068039986E-60</v>
+        <v>5.310161179504533E-60</v>
       </c>
       <c r="J3">
-        <v>12.6899995803833</v>
+        <v>12.69999980926514</v>
       </c>
       <c r="K3">
-        <v>41.02000045776367</v>
+        <v>40.18000030517578</v>
       </c>
       <c r="L3">
-        <v>2.250934212174592</v>
+        <v>2.242230380799983</v>
       </c>
       <c r="M3">
-        <v>-0.8345551330086529</v>
+        <v>-0.8437034136129267</v>
       </c>
       <c r="N3">
-        <v>0.4447987280341658</v>
+        <v>0.4485113192830993</v>
       </c>
       <c r="O3">
-        <v>0.64944876944001</v>
+        <v>0.7871119736589129</v>
       </c>
       <c r="P3">
-        <v>0.01120410427771926</v>
+        <v>0.01162262372719966</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -655,447 +649,447 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2294</v>
+        <v>2662</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>0.9795107002926782</v>
+        <v>0.8989585440341135</v>
       </c>
       <c r="E4">
-        <v>0.8966332410510804</v>
+        <v>0.9702237943503139</v>
       </c>
       <c r="F4">
-        <v>0.0004365929814865446</v>
+        <v>0.002386369319739287</v>
       </c>
       <c r="G4">
-        <v>8.516414231780328</v>
+        <v>16.62409936325293</v>
       </c>
       <c r="H4">
-        <v>0.9334921897038849</v>
+        <v>0.3205423172046752</v>
       </c>
       <c r="I4">
-        <v>1.441283958851792E-71</v>
+        <v>1.295962046171413E-49</v>
       </c>
       <c r="J4">
-        <v>29.03000068664551</v>
+        <v>19.54999923706055</v>
       </c>
       <c r="K4">
-        <v>22.70000076293945</v>
+        <v>11.30000019073486</v>
       </c>
       <c r="L4">
-        <v>1.349111392554391</v>
+        <v>1.174055948406377</v>
       </c>
       <c r="M4">
-        <v>-1.400101449366161</v>
+        <v>-2.005331533409482</v>
       </c>
       <c r="N4">
-        <v>0.527501993144609</v>
+        <v>0.504926067868595</v>
       </c>
       <c r="O4">
-        <v>-0.6766869636110293</v>
+        <v>-0.6962283717438122</v>
       </c>
       <c r="P4">
-        <v>0.01144203895688466</v>
+        <v>0.01215706450236938</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2662</v>
+        <v>2303</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>0.8485918135866187</v>
+        <v>0.9784189507828746</v>
       </c>
       <c r="E5">
-        <v>0.9725738848079954</v>
+        <v>0.9024108526841591</v>
       </c>
       <c r="F5">
-        <v>0.002079046480893932</v>
+        <v>0.001036618830993918</v>
       </c>
       <c r="G5">
-        <v>16.6887449772736</v>
+        <v>18.16714266997631</v>
       </c>
       <c r="H5">
-        <v>0.3172060629676908</v>
+        <v>4.189494684586339</v>
       </c>
       <c r="I5">
-        <v>2.129433741469846E-48</v>
+        <v>2.016257215991245E-57</v>
       </c>
       <c r="J5">
-        <v>19.78000068664551</v>
+        <v>29.04999923706055</v>
       </c>
       <c r="K5">
-        <v>11.35000038146973</v>
+        <v>2.799999952316284</v>
       </c>
       <c r="L5">
-        <v>1.170931042472652</v>
+        <v>1.801810166445392</v>
       </c>
       <c r="M5">
-        <v>-2.000327972232135</v>
+        <v>-1.920612803269286</v>
       </c>
       <c r="N5">
-        <v>0.5030996584279697</v>
+        <v>0.6859936201387995</v>
       </c>
       <c r="O5">
-        <v>-0.5090332263158972</v>
+        <v>-0.8477283499868342</v>
       </c>
       <c r="P5">
-        <v>0.0119500476947534</v>
+        <v>0.01220151993365761</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1176</v>
+        <v>1788</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.2131892268571096</v>
+        <v>0.9393034723203534</v>
       </c>
       <c r="E6">
-        <v>0.6159268131065415</v>
+        <v>0.9024108526841591</v>
       </c>
       <c r="F6">
-        <v>0.002593247936391137</v>
+        <v>0.002048148570124914</v>
       </c>
       <c r="G6">
-        <v>8.466189172789734</v>
+        <v>0.4653895341756171</v>
       </c>
       <c r="H6">
-        <v>-0.1114683618115752</v>
+        <v>4.324972515247806</v>
       </c>
       <c r="I6">
-        <v>3.617029777452603E-23</v>
+        <v>1.075412084466775E-72</v>
       </c>
       <c r="J6">
-        <v>5.820000171661377</v>
+        <v>11.89999961853027</v>
       </c>
       <c r="K6">
-        <v>26.34000015258789</v>
+        <v>2.799999952316284</v>
       </c>
       <c r="L6">
-        <v>1.160380470577227</v>
+        <v>1.411872088743102</v>
       </c>
       <c r="M6">
-        <v>-0.489411629181614</v>
+        <v>-1.040880940747817</v>
       </c>
       <c r="N6">
-        <v>0.2820243857458903</v>
+        <v>0.5264864708221932</v>
       </c>
       <c r="O6">
-        <v>0.2898876659972549</v>
+        <v>-0.6753127521084412</v>
       </c>
       <c r="P6">
-        <v>0.01364334762294498</v>
+        <v>0.01303680399989008</v>
       </c>
       <c r="Q6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>907</v>
+        <v>1176</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>0.669322245027086</v>
+        <v>0.2310769486856569</v>
       </c>
       <c r="E7">
-        <v>0.4465048274394419</v>
+        <v>0.6446475911020111</v>
       </c>
       <c r="F7">
-        <v>0.0004548020555003999</v>
+        <v>0.002513944586776805</v>
       </c>
       <c r="G7">
-        <v>19.66850088589742</v>
+        <v>8.497697292039936</v>
       </c>
       <c r="H7">
-        <v>2.339255748334355</v>
+        <v>-0.1124737406576299</v>
       </c>
       <c r="I7">
-        <v>4.90364605369764E-34</v>
+        <v>1.130999859114348E-23</v>
       </c>
       <c r="J7">
-        <v>31.69000053405762</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="K7">
-        <v>5.829999923706055</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="L7">
-        <v>2.471134535166271</v>
+        <v>1.159868181074189</v>
       </c>
       <c r="M7">
-        <v>-2.175406133412885</v>
+        <v>-0.4880279662639477</v>
       </c>
       <c r="N7">
-        <v>1.026568157421349</v>
+        <v>0.2820527358565622</v>
       </c>
       <c r="O7">
-        <v>-1.616361186158038</v>
+        <v>0.2831229073468893</v>
       </c>
       <c r="P7">
-        <v>0.01383366618235489</v>
+        <v>0.01369431616166613</v>
       </c>
       <c r="Q7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" t="s">
         <v>23</v>
-      </c>
-      <c r="R7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>536</v>
+        <v>907</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>0.8304272104341581</v>
+        <v>0.6059570989846067</v>
       </c>
       <c r="E8">
-        <v>0.9650907400809323</v>
+        <v>0.4485859488788399</v>
       </c>
       <c r="F8">
-        <v>0.004335140920255859</v>
+        <v>0.0003687028405293647</v>
       </c>
       <c r="G8">
-        <v>3.610365537382196</v>
+        <v>19.49629238757115</v>
       </c>
       <c r="H8">
-        <v>0.1742819990886731</v>
+        <v>2.363243882809805</v>
       </c>
       <c r="I8">
-        <v>3.709462569520745E-61</v>
+        <v>1.026125376899012E-34</v>
       </c>
       <c r="J8">
-        <v>11.3100004196167</v>
+        <v>31.8799991607666</v>
       </c>
       <c r="K8">
-        <v>41.02000045776367</v>
+        <v>5.829999923706055</v>
       </c>
       <c r="L8">
-        <v>1.711609202165086</v>
+        <v>2.506850546954624</v>
       </c>
       <c r="M8">
-        <v>-0.6813507257835347</v>
+        <v>-2.193183661962323</v>
       </c>
       <c r="N8">
-        <v>0.3842464336877799</v>
+        <v>1.029909491087269</v>
       </c>
       <c r="O8">
-        <v>0.5505871998371639</v>
+        <v>-1.394004883284506</v>
       </c>
       <c r="P8">
-        <v>0.01420479377869122</v>
+        <v>0.0138159124890135</v>
       </c>
       <c r="Q8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>3030</v>
+        <v>372</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>0.1883921917520936</v>
+        <v>0.9777227502283128</v>
       </c>
       <c r="E9">
-        <v>0.3368139628567325</v>
+        <v>0.9137931427457404</v>
       </c>
       <c r="F9">
-        <v>0.003596867427793806</v>
+        <v>0.004530500106008782</v>
       </c>
       <c r="G9">
-        <v>5.260444801500289</v>
+        <v>-2.936571779292605</v>
       </c>
       <c r="H9">
-        <v>0.2409980272506738</v>
+        <v>0.5961757838129308</v>
       </c>
       <c r="I9">
-        <v>1.650590668976937E-18</v>
+        <v>9.807830564526277E-81</v>
       </c>
       <c r="J9">
-        <v>14.89000034332275</v>
+        <v>10.07999992370605</v>
       </c>
       <c r="K9">
-        <v>42.68999862670898</v>
+        <v>22.45000076293945</v>
       </c>
       <c r="L9">
-        <v>1.928733916147717</v>
+        <v>0.6193371866990418</v>
       </c>
       <c r="M9">
-        <v>-1.133149849380576</v>
+        <v>-0.738873657264751</v>
       </c>
       <c r="N9">
-        <v>0.6585795011475251</v>
+        <v>0.2893393175823911</v>
       </c>
       <c r="O9">
-        <v>-0.658649910548375</v>
+        <v>-0.3675750984476611</v>
       </c>
       <c r="P9">
-        <v>0.0148395580621016</v>
+        <v>0.01451454172725053</v>
       </c>
       <c r="Q9" t="s">
         <v>25</v>
       </c>
       <c r="R9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1226</v>
+        <v>3194</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>0.9358716804399224</v>
+        <v>0.756752954565394</v>
       </c>
       <c r="E10">
-        <v>0.8229516927702645</v>
+        <v>0.9024108526841591</v>
       </c>
       <c r="F10">
-        <v>0.002948608282417566</v>
+        <v>0.005366516040908631</v>
       </c>
       <c r="G10">
-        <v>7.746534909712128</v>
+        <v>13.58433711391688</v>
       </c>
       <c r="H10">
-        <v>1.028072114825301</v>
+        <v>2.424494391867641</v>
       </c>
       <c r="I10">
-        <v>6.050565076911446E-50</v>
+        <v>1.774716507776168E-45</v>
       </c>
       <c r="J10">
-        <v>11.65999984741211</v>
+        <v>19.38999938964844</v>
       </c>
       <c r="K10">
-        <v>4.130000114440918</v>
+        <v>2.799999952316284</v>
       </c>
       <c r="L10">
-        <v>0.6678546779184451</v>
+        <v>1.442858962124866</v>
       </c>
       <c r="M10">
-        <v>-0.8238304687927318</v>
+        <v>-1.282644233258011</v>
       </c>
       <c r="N10">
-        <v>0.2961148966902396</v>
+        <v>0.5102624732467438</v>
       </c>
       <c r="O10">
-        <v>-0.3324730141820273</v>
+        <v>-0.9829219058889391</v>
       </c>
       <c r="P10">
-        <v>0.0149327518009502</v>
+        <v>0.01462075009772046</v>
       </c>
       <c r="Q10" t="s">
         <v>26</v>
       </c>
       <c r="R10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1863</v>
+        <v>536</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>0.8860115290672674</v>
+        <v>0.8336114363891163</v>
       </c>
       <c r="E11">
-        <v>0.9725738848079954</v>
+        <v>0.9734668811169656</v>
       </c>
       <c r="F11">
-        <v>0.000926813355952054</v>
+        <v>0.005809967842068393</v>
       </c>
       <c r="G11">
-        <v>-0.5050288748968645</v>
+        <v>3.717127851040627</v>
       </c>
       <c r="H11">
-        <v>0.1913113693659365</v>
+        <v>0.1723755233745508</v>
       </c>
       <c r="I11">
-        <v>1.037562392687951E-72</v>
+        <v>1.691382070295785E-61</v>
       </c>
       <c r="J11">
-        <v>1.899999976158142</v>
+        <v>11.27999973297119</v>
       </c>
       <c r="K11">
-        <v>11.35000038146973</v>
+        <v>40.18000030517578</v>
       </c>
       <c r="L11">
-        <v>0.4476242047880006</v>
+        <v>1.704567312194456</v>
       </c>
       <c r="M11">
-        <v>-0.4113281335632761</v>
+        <v>-0.687483216336755</v>
       </c>
       <c r="N11">
-        <v>0.1865060228253168</v>
+        <v>0.3868887027589756</v>
       </c>
       <c r="O11">
-        <v>0.2336447357721321</v>
+        <v>0.63682330013628</v>
       </c>
       <c r="P11">
-        <v>0.01513377749742454</v>
+        <v>0.01472942156980851</v>
       </c>
       <c r="Q11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R11" t="s">
         <v>27</v>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -73,49 +73,43 @@
     <t>ABEV3</t>
   </si>
   <si>
+    <t>AZUL4</t>
+  </si>
+  <si>
     <t>BBDC4</t>
   </si>
   <si>
+    <t>CIEL3</t>
+  </si>
+  <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
     <t>IGTI11</t>
   </si>
   <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
+    <t>RENT3</t>
+  </si>
+  <si>
     <t>EQTL3</t>
   </si>
   <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
-    <t>CASH3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>RAIL3</t>
-  </si>
-  <si>
-    <t>BBDC3</t>
-  </si>
-  <si>
-    <t>RENT3</t>
-  </si>
-  <si>
     <t>YDUQ3</t>
   </si>
   <si>
     <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>RRRP3</t>
-  </si>
-  <si>
-    <t>SOMA3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
   </si>
 </sst>
 </file>
@@ -543,497 +537,497 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>0.9824548444334871</v>
+        <v>0.974222412987223</v>
       </c>
       <c r="E2">
-        <v>0.9777227502283128</v>
+        <v>0.9697852099161484</v>
       </c>
       <c r="F2">
-        <v>1.002767010046679E-07</v>
+        <v>2.035764237574881E-07</v>
       </c>
       <c r="G2">
-        <v>5.299331223070318</v>
+        <v>5.241788724137465</v>
       </c>
       <c r="H2">
-        <v>0.5970405221254083</v>
+        <v>0.6018409166207379</v>
       </c>
       <c r="I2">
-        <v>2.870404779789294E-79</v>
+        <v>6.658958693172323E-80</v>
       </c>
       <c r="J2">
-        <v>11.09000015258789</v>
+        <v>11.23999977111816</v>
       </c>
       <c r="K2">
-        <v>10.07999992370605</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="L2">
-        <v>0.673005022730937</v>
+        <v>0.6704247432630979</v>
       </c>
       <c r="M2">
-        <v>-0.4404546788753496</v>
+        <v>-0.3721190353282982</v>
       </c>
       <c r="N2">
-        <v>0.183695103917296</v>
+        <v>0.1821297187317566</v>
       </c>
       <c r="O2">
-        <v>-0.2274994879559662</v>
+        <v>-0.2428791895011262</v>
       </c>
       <c r="P2">
-        <v>0.006215194124095952</v>
+        <v>0.006363621669725515</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>611</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>0.711866519105117</v>
+        <v>0.974222412987223</v>
       </c>
       <c r="E3">
-        <v>0.9734668811169656</v>
+        <v>0.915679397371068</v>
       </c>
       <c r="F3">
-        <v>0.0009248422914750231</v>
+        <v>0.0001289000269752858</v>
       </c>
       <c r="G3">
-        <v>4.117898379337747</v>
+        <v>9.446752773342981</v>
       </c>
       <c r="H3">
-        <v>0.1940017271544014</v>
+        <v>1.260552939031161</v>
       </c>
       <c r="I3">
-        <v>5.310161179504533E-60</v>
+        <v>1.619340662355058E-67</v>
       </c>
       <c r="J3">
-        <v>12.69999980926514</v>
+        <v>11.23999977111816</v>
       </c>
       <c r="K3">
-        <v>40.18000030517578</v>
+        <v>1.669999957084656</v>
       </c>
       <c r="L3">
-        <v>2.242230380799983</v>
+        <v>0.8140481362380285</v>
       </c>
       <c r="M3">
-        <v>-0.8437034136129267</v>
+        <v>-0.5083681254787429</v>
       </c>
       <c r="N3">
-        <v>0.4485113192830993</v>
+        <v>0.2260221255955717</v>
       </c>
       <c r="O3">
-        <v>0.7871119736589129</v>
+        <v>-0.3118763563097922</v>
       </c>
       <c r="P3">
-        <v>0.01162262372719966</v>
+        <v>0.01035705963128677</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2662</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.8989585440341135</v>
+        <v>0.974222412987223</v>
       </c>
       <c r="E4">
-        <v>0.9702237943503139</v>
+        <v>0.9023801826776964</v>
       </c>
       <c r="F4">
-        <v>0.002386369319739287</v>
+        <v>0.0003134908925893993</v>
       </c>
       <c r="G4">
-        <v>16.62409936325293</v>
+        <v>3.395346003149412</v>
       </c>
       <c r="H4">
-        <v>0.3205423172046752</v>
+        <v>0.3618328819257794</v>
       </c>
       <c r="I4">
-        <v>1.295962046171413E-49</v>
+        <v>1.649923709422146E-64</v>
       </c>
       <c r="J4">
-        <v>19.54999923706055</v>
+        <v>11.23999977111816</v>
       </c>
       <c r="K4">
-        <v>11.30000019073486</v>
+        <v>22.45999908447266</v>
       </c>
       <c r="L4">
-        <v>1.174055948406377</v>
+        <v>0.6801380883186994</v>
       </c>
       <c r="M4">
-        <v>-2.005331533409482</v>
+        <v>-0.4931161375564663</v>
       </c>
       <c r="N4">
-        <v>0.504926067868595</v>
+        <v>0.2381878041799486</v>
       </c>
       <c r="O4">
-        <v>-0.6962283717438122</v>
+        <v>-0.2821124288163555</v>
       </c>
       <c r="P4">
-        <v>0.01215706450236938</v>
+        <v>0.01054849257363153</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2303</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.9784189507828746</v>
+        <v>0.5663671063883612</v>
       </c>
       <c r="E5">
-        <v>0.9024108526841591</v>
+        <v>0.3612473509771055</v>
       </c>
       <c r="F5">
-        <v>0.001036618830993918</v>
+        <v>0.0005681211147830108</v>
       </c>
       <c r="G5">
-        <v>18.16714266997631</v>
+        <v>-17.62354727313014</v>
       </c>
       <c r="H5">
-        <v>4.189494684586339</v>
+        <v>4.498972334824644</v>
       </c>
       <c r="I5">
-        <v>2.016257215991245E-57</v>
+        <v>1.734119079409999E-49</v>
       </c>
       <c r="J5">
-        <v>29.04999923706055</v>
+        <v>9.119999885559082</v>
       </c>
       <c r="K5">
-        <v>2.799999952316284</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="L5">
-        <v>1.801810166445392</v>
+        <v>2.035956948892014</v>
       </c>
       <c r="M5">
-        <v>-1.920612803269286</v>
+        <v>-3.604268050532262</v>
       </c>
       <c r="N5">
-        <v>0.6859936201387995</v>
+        <v>0.9551593217823381</v>
       </c>
       <c r="O5">
-        <v>-0.8477283499868342</v>
+        <v>-0.9701217373418807</v>
       </c>
       <c r="P5">
-        <v>0.01220151993365761</v>
+        <v>0.01194200608277721</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1788</v>
+        <v>611</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.9393034723203534</v>
+        <v>0.6595697815194075</v>
       </c>
       <c r="E6">
-        <v>0.9024108526841591</v>
+        <v>0.9874262498600034</v>
       </c>
       <c r="F6">
-        <v>0.002048148570124914</v>
+        <v>0.001501535405714415</v>
       </c>
       <c r="G6">
-        <v>0.4653895341756171</v>
+        <v>4.26635382797047</v>
       </c>
       <c r="H6">
-        <v>4.324972515247806</v>
+        <v>0.1912873302067183</v>
       </c>
       <c r="I6">
-        <v>1.075412084466775E-72</v>
+        <v>2.514002419390022E-58</v>
       </c>
       <c r="J6">
-        <v>11.89999961853027</v>
+        <v>12.82999992370605</v>
       </c>
       <c r="K6">
-        <v>2.799999952316284</v>
+        <v>40.41999816894531</v>
       </c>
       <c r="L6">
-        <v>1.411872088743102</v>
+        <v>2.235754613143389</v>
       </c>
       <c r="M6">
-        <v>-1.040880940747817</v>
+        <v>-0.8506902005668593</v>
       </c>
       <c r="N6">
-        <v>0.5264864708221932</v>
+        <v>0.4573712696974407</v>
       </c>
       <c r="O6">
-        <v>-0.6753127521084412</v>
+        <v>0.8318125590375942</v>
       </c>
       <c r="P6">
-        <v>0.01303680399989008</v>
+        <v>0.01206216323425432</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="R6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1176</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>0.2310769486856569</v>
+        <v>0.974222412987223</v>
       </c>
       <c r="E7">
-        <v>0.6446475911020111</v>
+        <v>0.109485034942343</v>
       </c>
       <c r="F7">
-        <v>0.002513944586776805</v>
+        <v>0.0001461145808560265</v>
       </c>
       <c r="G7">
-        <v>8.497697292039936</v>
+        <v>19.29117265984321</v>
       </c>
       <c r="H7">
-        <v>-0.1124737406576299</v>
+        <v>-1.294590937384337</v>
       </c>
       <c r="I7">
-        <v>1.130999859114348E-23</v>
+        <v>2.139182864707728E-46</v>
       </c>
       <c r="J7">
-        <v>5.869999885559082</v>
+        <v>11.23999977111816</v>
       </c>
       <c r="K7">
-        <v>25.8799991607666</v>
+        <v>5.639999866485596</v>
       </c>
       <c r="L7">
-        <v>1.159868181074189</v>
+        <v>0.9232313472404456</v>
       </c>
       <c r="M7">
-        <v>-0.4880279662639477</v>
+        <v>-1.298423362499207</v>
       </c>
       <c r="N7">
-        <v>0.2820527358565622</v>
+        <v>0.3265477988047892</v>
       </c>
       <c r="O7">
-        <v>0.2831229073468893</v>
+        <v>-0.7496801747239283</v>
       </c>
       <c r="P7">
-        <v>0.01369431616166613</v>
+        <v>0.01224902191505596</v>
       </c>
       <c r="Q7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>907</v>
+        <v>1261</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>0.6059570989846067</v>
+        <v>0.109485034942343</v>
       </c>
       <c r="E8">
-        <v>0.4485859488788399</v>
+        <v>0.915679397371068</v>
       </c>
       <c r="F8">
-        <v>0.0003687028405293647</v>
+        <v>6.382827279137098E-05</v>
       </c>
       <c r="G8">
-        <v>19.49629238757115</v>
+        <v>7.292765625875877</v>
       </c>
       <c r="H8">
-        <v>2.363243882809805</v>
+        <v>-0.8530040527034251</v>
       </c>
       <c r="I8">
-        <v>1.026125376899012E-34</v>
+        <v>2.370037022559866E-61</v>
       </c>
       <c r="J8">
-        <v>31.8799991607666</v>
+        <v>5.639999866485596</v>
       </c>
       <c r="K8">
-        <v>5.829999923706055</v>
+        <v>1.669999957084656</v>
       </c>
       <c r="L8">
-        <v>2.506850546954624</v>
+        <v>0.4087884570348006</v>
       </c>
       <c r="M8">
-        <v>-2.193183661962323</v>
+        <v>-0.6886412203933396</v>
       </c>
       <c r="N8">
-        <v>1.029909491087269</v>
+        <v>0.1726422656681867</v>
       </c>
       <c r="O8">
-        <v>-1.394004883284506</v>
+        <v>-0.2282490279825236</v>
       </c>
       <c r="P8">
-        <v>0.0138159124890135</v>
+        <v>0.01226692783337486</v>
       </c>
       <c r="Q8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>372</v>
+        <v>1760</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>0.9777227502283128</v>
+        <v>0.9330807656258896</v>
       </c>
       <c r="E9">
-        <v>0.9137931427457404</v>
+        <v>0.9679363801652113</v>
       </c>
       <c r="F9">
-        <v>0.004530500106008782</v>
+        <v>0.0004457228415951485</v>
       </c>
       <c r="G9">
-        <v>-2.936571779292605</v>
+        <v>-15.12503693291439</v>
       </c>
       <c r="H9">
-        <v>0.5961757838129308</v>
+        <v>0.9358614310145084</v>
       </c>
       <c r="I9">
-        <v>9.807830564526277E-81</v>
+        <v>1.187842398882994E-58</v>
       </c>
       <c r="J9">
-        <v>10.07999992370605</v>
+        <v>12.02999973297119</v>
       </c>
       <c r="K9">
-        <v>22.45000076293945</v>
+        <v>29.78000068664551</v>
       </c>
       <c r="L9">
-        <v>0.6193371866990418</v>
+        <v>1.941710001555421</v>
       </c>
       <c r="M9">
-        <v>-0.738873657264751</v>
+        <v>-1.48524397601259</v>
       </c>
       <c r="N9">
-        <v>0.2893393175823911</v>
+        <v>0.673298827469517</v>
       </c>
       <c r="O9">
-        <v>-0.3675750984476611</v>
+        <v>-0.7149173923315253</v>
       </c>
       <c r="P9">
-        <v>0.01451454172725053</v>
+        <v>0.0125603330129489</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>3194</v>
+        <v>2662</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10">
-        <v>0.756752954565394</v>
+        <v>0.9239779890539344</v>
       </c>
       <c r="E10">
-        <v>0.9024108526841591</v>
+        <v>0.972712439025555</v>
       </c>
       <c r="F10">
-        <v>0.005366516040908631</v>
+        <v>0.00232560574984447</v>
       </c>
       <c r="G10">
-        <v>13.58433711391688</v>
+        <v>16.42534316986524</v>
       </c>
       <c r="H10">
-        <v>2.424494391867641</v>
+        <v>0.3335928693764228</v>
       </c>
       <c r="I10">
-        <v>1.774716507776168E-45</v>
+        <v>7.331319515457662E-58</v>
       </c>
       <c r="J10">
-        <v>19.38999938964844</v>
+        <v>19.55999946594238</v>
       </c>
       <c r="K10">
-        <v>2.799999952316284</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="L10">
-        <v>1.442858962124866</v>
+        <v>1.132159255802616</v>
       </c>
       <c r="M10">
-        <v>-1.282644233258011</v>
+        <v>-1.050603339682034</v>
       </c>
       <c r="N10">
-        <v>0.5102624732467438</v>
+        <v>0.441910188308529</v>
       </c>
       <c r="O10">
-        <v>-0.9829219058889391</v>
+        <v>-0.608255787405231</v>
       </c>
       <c r="P10">
-        <v>0.01462075009772046</v>
+        <v>0.0126916805805213</v>
       </c>
       <c r="Q10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R10" t="s">
         <v>30</v>
@@ -1041,58 +1035,58 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>536</v>
+        <v>1788</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.8336114363891163</v>
+        <v>0.9330807656258896</v>
       </c>
       <c r="E11">
-        <v>0.9734668811169656</v>
+        <v>0.9014194310352313</v>
       </c>
       <c r="F11">
-        <v>0.005809967842068393</v>
+        <v>0.002011787564659634</v>
       </c>
       <c r="G11">
-        <v>3.717127851040627</v>
+        <v>0.4039231256421592</v>
       </c>
       <c r="H11">
-        <v>0.1723755233745508</v>
+        <v>4.343023148697144</v>
       </c>
       <c r="I11">
-        <v>1.691382070295785E-61</v>
+        <v>3.155969507781979E-72</v>
       </c>
       <c r="J11">
-        <v>11.27999973297119</v>
+        <v>12.02999973297119</v>
       </c>
       <c r="K11">
-        <v>40.18000030517578</v>
+        <v>2.799999952316284</v>
       </c>
       <c r="L11">
-        <v>1.704567312194456</v>
+        <v>1.413166686504139</v>
       </c>
       <c r="M11">
-        <v>-0.687483216336755</v>
+        <v>-1.038620609411753</v>
       </c>
       <c r="N11">
-        <v>0.3868887027589756</v>
+        <v>0.5314432371481188</v>
       </c>
       <c r="O11">
-        <v>0.63682330013628</v>
+        <v>-0.5343880019314895</v>
       </c>
       <c r="P11">
-        <v>0.01472942156980851</v>
+        <v>0.01297542098518236</v>
       </c>
       <c r="Q11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="R11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>N</t>
   </si>
@@ -73,37 +73,49 @@
     <t>ABEV3</t>
   </si>
   <si>
-    <t>AZUL4</t>
+    <t>BBDC3</t>
+  </si>
+  <si>
+    <t>BRFS3</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
   </si>
   <si>
     <t>BBDC4</t>
   </si>
   <si>
-    <t>CIEL3</t>
+    <t>IGTI11</t>
   </si>
   <si>
     <t>CSNA3</t>
   </si>
   <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
     <t>B3SA3</t>
   </si>
   <si>
     <t>COGN3</t>
   </si>
   <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>BEEF3</t>
+    <t>CSAN3</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
   </si>
   <si>
     <t>RENT3</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
   </si>
   <si>
     <t>YDUQ3</t>
@@ -537,52 +549,52 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.974222412987223</v>
+        <v>0.9763310865257472</v>
       </c>
       <c r="E2">
-        <v>0.9697852099161484</v>
+        <v>0.958553401247232</v>
       </c>
       <c r="F2">
-        <v>2.035764237574881E-07</v>
+        <v>5.099038144246795E-07</v>
       </c>
       <c r="G2">
-        <v>5.241788724137465</v>
+        <v>5.189534596675065</v>
       </c>
       <c r="H2">
-        <v>0.6018409166207379</v>
+        <v>0.60591155872237</v>
       </c>
       <c r="I2">
-        <v>6.658958693172323E-80</v>
+        <v>5.064821162458258E-80</v>
       </c>
       <c r="J2">
         <v>11.23999977111816</v>
       </c>
       <c r="K2">
-        <v>10.36999988555908</v>
+        <v>10.5600004196167</v>
       </c>
       <c r="L2">
-        <v>0.6704247432630979</v>
+        <v>0.6716959122909234</v>
       </c>
       <c r="M2">
-        <v>-0.3721190353282982</v>
+        <v>-0.369241797024543</v>
       </c>
       <c r="N2">
-        <v>0.1821297187317566</v>
+        <v>0.1844361380760575</v>
       </c>
       <c r="O2">
-        <v>-0.2428791895011262</v>
+        <v>-0.3479611399157365</v>
       </c>
       <c r="P2">
-        <v>0.006363621669725515</v>
+        <v>0.006577309601129101</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -593,388 +605,388 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0.974222412987223</v>
+        <v>0.9763310865257472</v>
       </c>
       <c r="E3">
-        <v>0.915679397371068</v>
+        <v>0.9115873540251123</v>
       </c>
       <c r="F3">
-        <v>0.0001289000269752858</v>
+        <v>0.0003389344993562339</v>
       </c>
       <c r="G3">
-        <v>9.446752773342981</v>
+        <v>9.410743280113818</v>
       </c>
       <c r="H3">
-        <v>1.260552939031161</v>
+        <v>1.275325291565275</v>
       </c>
       <c r="I3">
-        <v>1.619340662355058E-67</v>
+        <v>3.120687586614664E-69</v>
       </c>
       <c r="J3">
         <v>11.23999977111816</v>
       </c>
       <c r="K3">
-        <v>1.669999957084656</v>
+        <v>1.620000004768372</v>
       </c>
       <c r="L3">
-        <v>0.8140481362380285</v>
+        <v>0.8126835779785218</v>
       </c>
       <c r="M3">
-        <v>-0.5083681254787429</v>
+        <v>-0.4377830689557101</v>
       </c>
       <c r="N3">
-        <v>0.2260221255955717</v>
+        <v>0.2226042520917135</v>
       </c>
       <c r="O3">
-        <v>-0.3118763563097922</v>
+        <v>-0.2367704874126249</v>
       </c>
       <c r="P3">
-        <v>0.01035705963128677</v>
+        <v>0.01080472346737054</v>
       </c>
       <c r="Q3" t="s">
         <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>54</v>
+        <v>478</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>0.974222412987223</v>
+        <v>0.7841805880660199</v>
       </c>
       <c r="E4">
-        <v>0.9023801826776964</v>
+        <v>0.623616951170848</v>
       </c>
       <c r="F4">
-        <v>0.0003134908925893993</v>
+        <v>0.0003787435538777454</v>
       </c>
       <c r="G4">
-        <v>3.395346003149412</v>
+        <v>0.09178283042023549</v>
       </c>
       <c r="H4">
-        <v>0.3618328819257794</v>
+        <v>0.8854241964778121</v>
       </c>
       <c r="I4">
-        <v>1.649923709422146E-64</v>
+        <v>2.493488551718903E-130</v>
       </c>
       <c r="J4">
-        <v>11.23999977111816</v>
+        <v>11.06085872650146</v>
       </c>
       <c r="K4">
-        <v>22.45999908447266</v>
+        <v>12.57494449615479</v>
       </c>
       <c r="L4">
-        <v>0.6801380883186994</v>
+        <v>0.3901343857028188</v>
       </c>
       <c r="M4">
-        <v>-0.4931161375564663</v>
+        <v>-0.278879200198439</v>
       </c>
       <c r="N4">
-        <v>0.2381878041799486</v>
+        <v>0.112694265238044</v>
       </c>
       <c r="O4">
-        <v>-0.2821124288163555</v>
+        <v>-0.1650842301797084</v>
       </c>
       <c r="P4">
-        <v>0.01054849257363153</v>
+        <v>0.01110030940371684</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>249</v>
+        <v>999</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.5663671063883612</v>
+        <v>0.8278555429963876</v>
       </c>
       <c r="E5">
-        <v>0.3612473509771055</v>
+        <v>0.9799894744070669</v>
       </c>
       <c r="F5">
-        <v>0.0005681211147830108</v>
+        <v>0.005725898813217431</v>
       </c>
       <c r="G5">
-        <v>-17.62354727313014</v>
+        <v>31.17520442593379</v>
       </c>
       <c r="H5">
-        <v>4.498972334824644</v>
+        <v>-0.9635998222477582</v>
       </c>
       <c r="I5">
-        <v>1.734119079409999E-49</v>
+        <v>1.242583449034377E-55</v>
       </c>
       <c r="J5">
-        <v>9.119999885559082</v>
+        <v>18.19000053405762</v>
       </c>
       <c r="K5">
-        <v>6.159999847412109</v>
+        <v>12.47999954223633</v>
       </c>
       <c r="L5">
-        <v>2.035956948892014</v>
+        <v>1.820283338499369</v>
       </c>
       <c r="M5">
-        <v>-3.604268050532262</v>
+        <v>-2.177625635359188</v>
       </c>
       <c r="N5">
-        <v>0.9551593217823381</v>
+        <v>0.7972449332448955</v>
       </c>
       <c r="O5">
-        <v>-0.9701217373418807</v>
+        <v>-0.9594785513251463</v>
       </c>
       <c r="P5">
-        <v>0.01194200608277721</v>
+        <v>0.01170867935434406</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>611</v>
+        <v>1921</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.6595697815194075</v>
+        <v>0.1549295228377977</v>
       </c>
       <c r="E6">
-        <v>0.9874262498600034</v>
+        <v>0.7116599253800768</v>
       </c>
       <c r="F6">
-        <v>0.001501535405714415</v>
+        <v>0.001328524252076034</v>
       </c>
       <c r="G6">
-        <v>4.26635382797047</v>
+        <v>1.372350689559129</v>
       </c>
       <c r="H6">
-        <v>0.1912873302067183</v>
+        <v>0.1427873537182227</v>
       </c>
       <c r="I6">
-        <v>2.514002419390022E-58</v>
+        <v>1.100709108629309E-24</v>
       </c>
       <c r="J6">
-        <v>12.82999992370605</v>
+        <v>6.579999923706055</v>
       </c>
       <c r="K6">
-        <v>40.41999816894531</v>
+        <v>39.40000152587891</v>
       </c>
       <c r="L6">
-        <v>2.235754613143389</v>
+        <v>0.6099514595108575</v>
       </c>
       <c r="M6">
-        <v>-0.8506902005668593</v>
+        <v>-0.5595630059603058</v>
       </c>
       <c r="N6">
-        <v>0.4573712696974407</v>
+        <v>0.2677776618507048</v>
       </c>
       <c r="O6">
-        <v>0.8318125590375942</v>
+        <v>-0.4181727202272612</v>
       </c>
       <c r="P6">
-        <v>0.01206216323425432</v>
+        <v>0.0123544801784948</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>17</v>
+        <v>474</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>0.974222412987223</v>
+        <v>0.1317790433796997</v>
       </c>
       <c r="E7">
-        <v>0.109485034942343</v>
+        <v>0.7424055041694919</v>
       </c>
       <c r="F7">
-        <v>0.0001461145808560265</v>
+        <v>0.0007243137990232772</v>
       </c>
       <c r="G7">
-        <v>19.29117265984321</v>
+        <v>17.30466135204867</v>
       </c>
       <c r="H7">
-        <v>-1.294590937384337</v>
+        <v>0.4274823902756799</v>
       </c>
       <c r="I7">
-        <v>2.139182864707728E-46</v>
+        <v>3.757657734604957E-27</v>
       </c>
       <c r="J7">
-        <v>11.23999977111816</v>
+        <v>26.45000076293945</v>
       </c>
       <c r="K7">
-        <v>5.639999866485596</v>
+        <v>20.19000053405762</v>
       </c>
       <c r="L7">
-        <v>0.9232313472404456</v>
+        <v>1.477003006854666</v>
       </c>
       <c r="M7">
-        <v>-1.298423362499207</v>
+        <v>-1.110047831436912</v>
       </c>
       <c r="N7">
-        <v>0.3265477988047892</v>
+        <v>0.490276071368901</v>
       </c>
       <c r="O7">
-        <v>-0.7496801747239283</v>
+        <v>0.5144697229245843</v>
       </c>
       <c r="P7">
-        <v>0.01224902191505596</v>
+        <v>0.01258697602611966</v>
       </c>
       <c r="Q7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1261</v>
+        <v>2591</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>0.109485034942343</v>
+        <v>0.8310236019456341</v>
       </c>
       <c r="E8">
-        <v>0.915679397371068</v>
+        <v>0.8025822569562249</v>
       </c>
       <c r="F8">
-        <v>6.382827279137098E-05</v>
+        <v>0.001713211981489837</v>
       </c>
       <c r="G8">
-        <v>7.292765625875877</v>
+        <v>14.73986263757366</v>
       </c>
       <c r="H8">
-        <v>-0.8530040527034251</v>
+        <v>3.198041508992779</v>
       </c>
       <c r="I8">
-        <v>2.370037022559866E-61</v>
+        <v>6.04797154646351E-44</v>
       </c>
       <c r="J8">
-        <v>5.639999866485596</v>
+        <v>28.70000076293945</v>
       </c>
       <c r="K8">
-        <v>1.669999957084656</v>
+        <v>4.019999980926514</v>
       </c>
       <c r="L8">
-        <v>0.4087884570348006</v>
+        <v>2.493829374313648</v>
       </c>
       <c r="M8">
-        <v>-0.6886412203933396</v>
+        <v>-2.711864912503852</v>
       </c>
       <c r="N8">
-        <v>0.1726422656681867</v>
+        <v>1.080127425671946</v>
       </c>
       <c r="O8">
-        <v>-0.2282490279825236</v>
+        <v>1.104011320212624</v>
       </c>
       <c r="P8">
-        <v>0.01226692783337486</v>
+        <v>0.01287692559466822</v>
       </c>
       <c r="Q8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1760</v>
+        <v>611</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>0.9330807656258896</v>
+        <v>0.623616951170848</v>
       </c>
       <c r="E9">
-        <v>0.9679363801652113</v>
+        <v>0.9898599448879057</v>
       </c>
       <c r="F9">
-        <v>0.0004457228415951485</v>
+        <v>0.003748071933929827</v>
       </c>
       <c r="G9">
-        <v>-15.12503693291439</v>
+        <v>4.31739170740574</v>
       </c>
       <c r="H9">
-        <v>0.9358614310145084</v>
+        <v>0.182199627465977</v>
       </c>
       <c r="I9">
-        <v>1.187842398882994E-58</v>
+        <v>3.989733189132191E-57</v>
       </c>
       <c r="J9">
-        <v>12.02999973297119</v>
+        <v>12.57494449615479</v>
       </c>
       <c r="K9">
-        <v>29.78000068664551</v>
+        <v>39.40000152587891</v>
       </c>
       <c r="L9">
-        <v>1.941710001555421</v>
+        <v>2.157250042517585</v>
       </c>
       <c r="M9">
-        <v>-1.48524397601259</v>
+        <v>-0.8357998522714336</v>
       </c>
       <c r="N9">
-        <v>0.673298827469517</v>
+        <v>0.4535438555392248</v>
       </c>
       <c r="O9">
-        <v>-0.7149173923315253</v>
+        <v>1.078887188574984</v>
       </c>
       <c r="P9">
-        <v>0.0125603330129489</v>
+        <v>0.01298343673649816</v>
       </c>
       <c r="Q9" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="R9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -982,55 +994,55 @@
         <v>2662</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>0.9239779890539344</v>
+        <v>0.9391136005712961</v>
       </c>
       <c r="E10">
-        <v>0.972712439025555</v>
+        <v>0.9762469233739073</v>
       </c>
       <c r="F10">
-        <v>0.00232560574984447</v>
+        <v>0.00155329027443388</v>
       </c>
       <c r="G10">
-        <v>16.42534316986524</v>
+        <v>16.35028154599879</v>
       </c>
       <c r="H10">
-        <v>0.3335928693764228</v>
+        <v>0.3378228827116106</v>
       </c>
       <c r="I10">
-        <v>7.331319515457662E-58</v>
+        <v>3.868965948872091E-59</v>
       </c>
       <c r="J10">
-        <v>19.55999946594238</v>
+        <v>19.30999946594238</v>
       </c>
       <c r="K10">
-        <v>11.22000026702881</v>
+        <v>10.77999973297119</v>
       </c>
       <c r="L10">
-        <v>1.132159255802616</v>
+        <v>1.129219205602048</v>
       </c>
       <c r="M10">
-        <v>-1.050603339682034</v>
+        <v>-1.038375241946127</v>
       </c>
       <c r="N10">
-        <v>0.441910188308529</v>
+        <v>0.4425802350298309</v>
       </c>
       <c r="O10">
-        <v>-0.608255787405231</v>
+        <v>-0.6820126654791312</v>
       </c>
       <c r="P10">
-        <v>0.0126916805805213</v>
+        <v>0.01301060891625804</v>
       </c>
       <c r="Q10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1038,55 +1050,55 @@
         <v>1788</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>0.9330807656258896</v>
+        <v>0.9331345377682239</v>
       </c>
       <c r="E11">
-        <v>0.9014194310352313</v>
+        <v>0.9063025113951764</v>
       </c>
       <c r="F11">
-        <v>0.002011787564659634</v>
+        <v>0.001939418872534068</v>
       </c>
       <c r="G11">
-        <v>0.4039231256421592</v>
+        <v>0.3415218400217137</v>
       </c>
       <c r="H11">
-        <v>4.343023148697144</v>
+        <v>4.360238049557314</v>
       </c>
       <c r="I11">
-        <v>3.155969507781979E-72</v>
+        <v>1.006967673115033E-72</v>
       </c>
       <c r="J11">
-        <v>12.02999973297119</v>
+        <v>11.90999984741211</v>
       </c>
       <c r="K11">
-        <v>2.799999952316284</v>
+        <v>2.779999971389771</v>
       </c>
       <c r="L11">
-        <v>1.413166686504139</v>
+        <v>1.418182077057168</v>
       </c>
       <c r="M11">
-        <v>-1.038620609411753</v>
+        <v>-1.032684198120144</v>
       </c>
       <c r="N11">
-        <v>0.5314432371481188</v>
+        <v>0.5335697876613781</v>
       </c>
       <c r="O11">
-        <v>-0.5343880019314895</v>
+        <v>-0.5529836456315245</v>
       </c>
       <c r="P11">
-        <v>0.01297542098518236</v>
+        <v>0.0131458715929798</v>
       </c>
       <c r="Q11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -73,55 +73,52 @@
     <t>ABEV3</t>
   </si>
   <si>
-    <t>BBDC3</t>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
   </si>
   <si>
     <t>BRFS3</t>
   </si>
   <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
     <t>B3SA3</t>
   </si>
   <si>
     <t>COGN3</t>
   </si>
   <si>
-    <t>CSAN3</t>
-  </si>
-  <si>
     <t>ELET6</t>
   </si>
   <si>
-    <t>VBBR3</t>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>RENT3</t>
+  </si>
+  <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
   </si>
   <si>
     <t>LWSA3</t>
   </si>
   <si>
-    <t>RENT3</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
+    <t>EMBR3</t>
   </si>
 </sst>
 </file>
@@ -549,52 +546,52 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.9763310865257472</v>
+        <v>0.9705956314793037</v>
       </c>
       <c r="E2">
-        <v>0.958553401247232</v>
+        <v>0.942820123450375</v>
       </c>
       <c r="F2">
-        <v>5.099038144246795E-07</v>
+        <v>8.388883714398713E-07</v>
       </c>
       <c r="G2">
-        <v>5.189534596675065</v>
+        <v>5.150055607919244</v>
       </c>
       <c r="H2">
-        <v>0.60591155872237</v>
+        <v>0.6088075246172787</v>
       </c>
       <c r="I2">
-        <v>5.064821162458258E-80</v>
+        <v>6.216975609180633E-80</v>
       </c>
       <c r="J2">
-        <v>11.23999977111816</v>
+        <v>11.25</v>
       </c>
       <c r="K2">
-        <v>10.5600004196167</v>
+        <v>10.60999965667725</v>
       </c>
       <c r="L2">
-        <v>0.6716959122909234</v>
+        <v>0.6749042328912509</v>
       </c>
       <c r="M2">
-        <v>-0.369241797024543</v>
+        <v>-0.364890874905381</v>
       </c>
       <c r="N2">
-        <v>0.1844361380760575</v>
+        <v>0.1867652155424484</v>
       </c>
       <c r="O2">
-        <v>-0.3479611399157365</v>
+        <v>-0.3595032350910952</v>
       </c>
       <c r="P2">
-        <v>0.006577309601129101</v>
+        <v>0.006736504045300885</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -605,113 +602,113 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.9763310865257472</v>
+        <v>0.9705956314793037</v>
       </c>
       <c r="E3">
-        <v>0.9115873540251123</v>
+        <v>0.9203575540124472</v>
       </c>
       <c r="F3">
-        <v>0.0003389344993562339</v>
+        <v>0.0004184984762046413</v>
       </c>
       <c r="G3">
-        <v>9.410743280113818</v>
+        <v>9.384567137650421</v>
       </c>
       <c r="H3">
-        <v>1.275325291565275</v>
+        <v>1.28548786668794</v>
       </c>
       <c r="I3">
-        <v>3.120687586614664E-69</v>
+        <v>7.947304530717222E-70</v>
       </c>
       <c r="J3">
-        <v>11.23999977111816</v>
+        <v>11.25</v>
       </c>
       <c r="K3">
-        <v>1.620000004768372</v>
+        <v>1.639999985694885</v>
       </c>
       <c r="L3">
-        <v>0.8126835779785218</v>
+        <v>0.8131484056723295</v>
       </c>
       <c r="M3">
-        <v>-0.4377830689557101</v>
+        <v>-0.4284768008567248</v>
       </c>
       <c r="N3">
-        <v>0.2226042520917135</v>
+        <v>0.2227474217246473</v>
       </c>
       <c r="O3">
-        <v>-0.2367704874126249</v>
+        <v>-0.2427672206295912</v>
       </c>
       <c r="P3">
-        <v>0.01080472346737054</v>
+        <v>0.01091827407399243</v>
       </c>
       <c r="Q3" t="s">
         <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>478</v>
+        <v>1921</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.7841805880660199</v>
+        <v>0.1091765886648715</v>
       </c>
       <c r="E4">
-        <v>0.623616951170848</v>
+        <v>0.7264954494348737</v>
       </c>
       <c r="F4">
-        <v>0.0003787435538777454</v>
+        <v>0.0005107461977054506</v>
       </c>
       <c r="G4">
-        <v>0.09178283042023549</v>
+        <v>1.285771559617921</v>
       </c>
       <c r="H4">
-        <v>0.8854241964778121</v>
+        <v>0.1447801068807983</v>
       </c>
       <c r="I4">
-        <v>2.493488551718903E-130</v>
+        <v>1.266521811649047E-25</v>
       </c>
       <c r="J4">
-        <v>11.06085872650146</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="K4">
-        <v>12.57494449615479</v>
+        <v>39.29000091552734</v>
       </c>
       <c r="L4">
-        <v>0.3901343857028188</v>
+        <v>0.6075228688991992</v>
       </c>
       <c r="M4">
-        <v>-0.278879200198439</v>
+        <v>-0.563479190639109</v>
       </c>
       <c r="N4">
-        <v>0.112694265238044</v>
+        <v>0.267654751701033</v>
       </c>
       <c r="O4">
-        <v>-0.1650842301797084</v>
+        <v>-0.3141822441025246</v>
       </c>
       <c r="P4">
-        <v>0.01110030940371684</v>
+        <v>0.01179690815242636</v>
       </c>
       <c r="Q4" t="s">
         <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>999</v>
+        <v>2303</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -720,43 +717,43 @@
         <v>29</v>
       </c>
       <c r="D5">
-        <v>0.8278555429963876</v>
+        <v>0.9763539919325497</v>
       </c>
       <c r="E5">
-        <v>0.9799894744070669</v>
+        <v>0.9183881233113238</v>
       </c>
       <c r="F5">
-        <v>0.005725898813217431</v>
+        <v>1.273560878528675E-05</v>
       </c>
       <c r="G5">
-        <v>31.17520442593379</v>
+        <v>18.03133699165404</v>
       </c>
       <c r="H5">
-        <v>-0.9635998222477582</v>
+        <v>4.215509249661038</v>
       </c>
       <c r="I5">
-        <v>1.242583449034377E-55</v>
+        <v>3.987172211145876E-60</v>
       </c>
       <c r="J5">
-        <v>18.19000053405762</v>
+        <v>29.21999931335449</v>
       </c>
       <c r="K5">
-        <v>12.47999954223633</v>
+        <v>2.819999933242798</v>
       </c>
       <c r="L5">
-        <v>1.820283338499369</v>
+        <v>1.850896257258718</v>
       </c>
       <c r="M5">
-        <v>-2.177625635359188</v>
+        <v>-1.864411692587034</v>
       </c>
       <c r="N5">
-        <v>0.7972449332448955</v>
+        <v>0.6647722225517064</v>
       </c>
       <c r="O5">
-        <v>-0.9594785513251463</v>
+        <v>-0.699073480928071</v>
       </c>
       <c r="P5">
-        <v>0.01170867935434406</v>
+        <v>0.01198366289705226</v>
       </c>
       <c r="Q5" t="s">
         <v>20</v>
@@ -767,7 +764,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1921</v>
+        <v>611</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -776,102 +773,102 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>0.1549295228377977</v>
+        <v>0.7293835746775477</v>
       </c>
       <c r="E6">
-        <v>0.7116599253800768</v>
+        <v>0.9686405718894874</v>
       </c>
       <c r="F6">
-        <v>0.001328524252076034</v>
+        <v>0.001377613574974448</v>
       </c>
       <c r="G6">
-        <v>1.372350689559129</v>
+        <v>4.540308955961605</v>
       </c>
       <c r="H6">
-        <v>0.1427873537182227</v>
+        <v>0.186353776477426</v>
       </c>
       <c r="I6">
-        <v>1.100709108629309E-24</v>
+        <v>3.588296248628001E-57</v>
       </c>
       <c r="J6">
-        <v>6.579999923706055</v>
+        <v>12.38000011444092</v>
       </c>
       <c r="K6">
-        <v>39.40000152587891</v>
+        <v>39.15000152587891</v>
       </c>
       <c r="L6">
-        <v>0.6099514595108575</v>
+        <v>2.219854735752723</v>
       </c>
       <c r="M6">
-        <v>-0.5595630059603058</v>
+        <v>-0.8675215684001483</v>
       </c>
       <c r="N6">
-        <v>0.2677776618507048</v>
+        <v>0.4702573352669006</v>
       </c>
       <c r="O6">
-        <v>-0.4181727202272612</v>
+        <v>0.5439405250347908</v>
       </c>
       <c r="P6">
-        <v>0.0123544801784948</v>
+        <v>0.0123263632521594</v>
       </c>
       <c r="Q6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" t="s">
         <v>21</v>
-      </c>
-      <c r="R6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>474</v>
+        <v>1760</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>0.1317790433796997</v>
+        <v>0.8171398558777698</v>
       </c>
       <c r="E7">
-        <v>0.7424055041694919</v>
+        <v>0.9763539919325497</v>
       </c>
       <c r="F7">
-        <v>0.0007243137990232772</v>
+        <v>0.0002413901735238055</v>
       </c>
       <c r="G7">
-        <v>17.30466135204867</v>
+        <v>-15.07823320535235</v>
       </c>
       <c r="H7">
-        <v>0.4274823902756799</v>
+        <v>0.9346972897830615</v>
       </c>
       <c r="I7">
-        <v>3.757657734604957E-27</v>
+        <v>1.546392914927535E-59</v>
       </c>
       <c r="J7">
-        <v>26.45000076293945</v>
+        <v>12.98999977111816</v>
       </c>
       <c r="K7">
-        <v>20.19000053405762</v>
+        <v>29.21999931335449</v>
       </c>
       <c r="L7">
-        <v>1.477003006854666</v>
+        <v>1.933769008767538</v>
       </c>
       <c r="M7">
-        <v>-1.110047831436912</v>
+        <v>-1.491694660725514</v>
       </c>
       <c r="N7">
-        <v>0.490276071368901</v>
+        <v>0.6744599093543092</v>
       </c>
       <c r="O7">
-        <v>0.5144697229245843</v>
+        <v>0.7563788108151499</v>
       </c>
       <c r="P7">
-        <v>0.01258697602611966</v>
+        <v>0.01239237422568391</v>
       </c>
       <c r="Q7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R7" t="s">
         <v>22</v>
@@ -879,226 +876,226 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2591</v>
+        <v>1920</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.8310236019456341</v>
+        <v>0.1091765886648715</v>
       </c>
       <c r="E8">
-        <v>0.8025822569562249</v>
+        <v>0.858075259036863</v>
       </c>
       <c r="F8">
-        <v>0.001713211981489837</v>
+        <v>0.0007927035735800844</v>
       </c>
       <c r="G8">
-        <v>14.73986263757366</v>
+        <v>2.884420569198258</v>
       </c>
       <c r="H8">
-        <v>3.198041508992779</v>
+        <v>0.1172778956406979</v>
       </c>
       <c r="I8">
-        <v>6.04797154646351E-44</v>
+        <v>3.139901515112222E-22</v>
       </c>
       <c r="J8">
-        <v>28.70000076293945</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="K8">
-        <v>4.019999980926514</v>
+        <v>35.02999877929688</v>
       </c>
       <c r="L8">
-        <v>2.493829374313648</v>
+        <v>0.653889288908295</v>
       </c>
       <c r="M8">
-        <v>-2.711864912503852</v>
+        <v>-0.6561122182641048</v>
       </c>
       <c r="N8">
-        <v>1.080127425671946</v>
+        <v>0.2838752751549061</v>
       </c>
       <c r="O8">
-        <v>1.104011320212624</v>
+        <v>-0.3326652629183036</v>
       </c>
       <c r="P8">
-        <v>0.01287692559466822</v>
+        <v>0.01271000189260791</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>611</v>
+        <v>2662</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.623616951170848</v>
+        <v>0.9338773496403443</v>
       </c>
       <c r="E9">
-        <v>0.9898599448879057</v>
+        <v>0.9779285765951164</v>
       </c>
       <c r="F9">
-        <v>0.003748071933929827</v>
+        <v>0.000584466869940883</v>
       </c>
       <c r="G9">
-        <v>4.31739170740574</v>
+        <v>16.28772527655615</v>
       </c>
       <c r="H9">
-        <v>0.182199627465977</v>
+        <v>0.3413412815253339</v>
       </c>
       <c r="I9">
-        <v>3.989733189132191E-57</v>
+        <v>3.079171009122312E-60</v>
       </c>
       <c r="J9">
-        <v>12.57494449615479</v>
+        <v>19.36000061035156</v>
       </c>
       <c r="K9">
-        <v>39.40000152587891</v>
+        <v>10.63000011444092</v>
       </c>
       <c r="L9">
-        <v>2.157250042517585</v>
+        <v>1.126896011137838</v>
       </c>
       <c r="M9">
-        <v>-0.8357998522714336</v>
+        <v>-1.028082023771127</v>
       </c>
       <c r="N9">
-        <v>0.4535438555392248</v>
+        <v>0.4434434352324863</v>
       </c>
       <c r="O9">
-        <v>1.078887188574984</v>
+        <v>-0.5561825278822954</v>
       </c>
       <c r="P9">
-        <v>0.01298343673649816</v>
+        <v>0.01310939076029234</v>
       </c>
       <c r="Q9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2662</v>
+        <v>2591</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0.9391136005712961</v>
+        <v>0.7233949369771893</v>
       </c>
       <c r="E10">
-        <v>0.9762469233739073</v>
+        <v>0.8453440431369215</v>
       </c>
       <c r="F10">
-        <v>0.00155329027443388</v>
+        <v>0.002293923934227318</v>
       </c>
       <c r="G10">
-        <v>16.35028154599879</v>
+        <v>14.86336679983708</v>
       </c>
       <c r="H10">
-        <v>0.3378228827116106</v>
+        <v>3.178107482825287</v>
       </c>
       <c r="I10">
-        <v>3.868965948872091E-59</v>
+        <v>4.718117571013479E-44</v>
       </c>
       <c r="J10">
-        <v>19.30999946594238</v>
+        <v>28.81999969482422</v>
       </c>
       <c r="K10">
-        <v>10.77999973297119</v>
+        <v>3.980000019073486</v>
       </c>
       <c r="L10">
-        <v>1.129219205602048</v>
+        <v>2.485946382321067</v>
       </c>
       <c r="M10">
-        <v>-1.038375241946127</v>
+        <v>-2.735100918962459</v>
       </c>
       <c r="N10">
-        <v>0.4425802350298309</v>
+        <v>1.083101969055627</v>
       </c>
       <c r="O10">
-        <v>-0.6820126654791312</v>
+        <v>1.307765052724911</v>
       </c>
       <c r="P10">
-        <v>0.01301060891625804</v>
+        <v>0.01315963805896571</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="R10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1788</v>
+        <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>0.9331345377682239</v>
+        <v>0.8862619054426701</v>
       </c>
       <c r="E11">
-        <v>0.9063025113951764</v>
+        <v>0.9255042375687774</v>
       </c>
       <c r="F11">
-        <v>0.001939418872534068</v>
+        <v>0.0004929090290993102</v>
       </c>
       <c r="G11">
-        <v>0.3415218400217137</v>
+        <v>6.921794399374544</v>
       </c>
       <c r="H11">
-        <v>4.360238049557314</v>
+        <v>0.3115682725722737</v>
       </c>
       <c r="I11">
-        <v>1.006967673115033E-72</v>
+        <v>2.639952732106551E-62</v>
       </c>
       <c r="J11">
-        <v>11.90999984741211</v>
+        <v>19.19000053405762</v>
       </c>
       <c r="K11">
-        <v>2.779999971389771</v>
+        <v>36.79999923706055</v>
       </c>
       <c r="L11">
-        <v>1.418182077057168</v>
+        <v>1.847878343299957</v>
       </c>
       <c r="M11">
-        <v>-1.032684198120144</v>
+        <v>-1.470283377589681</v>
       </c>
       <c r="N11">
-        <v>0.5335697876613781</v>
+        <v>0.7165112503022143</v>
       </c>
       <c r="O11">
-        <v>-0.5529836456315245</v>
+        <v>0.8024939417311305</v>
       </c>
       <c r="P11">
-        <v>0.0131458715929798</v>
+        <v>0.01316667852458329</v>
       </c>
       <c r="Q11" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="R11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>N</t>
   </si>
@@ -73,30 +73,27 @@
     <t>ABEV3</t>
   </si>
   <si>
+    <t>CSAN3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>BRFS3</t>
+  </si>
+  <si>
     <t>DXCO3</t>
   </si>
   <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
     <t>CSNA3</t>
   </si>
   <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
     <t>B3SA3</t>
   </si>
   <si>
+    <t>MULT3</t>
+  </si>
+  <si>
     <t>COGN3</t>
   </si>
   <si>
@@ -106,19 +103,7 @@
     <t>RAIZ4</t>
   </si>
   <si>
-    <t>RENT3</t>
-  </si>
-  <si>
     <t>ELET3</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
-    <t>EMBR3</t>
   </si>
 </sst>
 </file>
@@ -546,556 +531,556 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>0.9705956314793037</v>
+        <v>0.970684998769383</v>
       </c>
       <c r="E2">
-        <v>0.942820123450375</v>
+        <v>0.9472705134625156</v>
       </c>
       <c r="F2">
-        <v>8.388883714398713E-07</v>
+        <v>1.154992142292689E-06</v>
       </c>
       <c r="G2">
-        <v>5.150055607919244</v>
+        <v>5.102461903541543</v>
       </c>
       <c r="H2">
-        <v>0.6088075246172787</v>
+        <v>0.6174322117334925</v>
       </c>
       <c r="I2">
-        <v>6.216975609180633E-80</v>
+        <v>1.431635928688383E-80</v>
       </c>
       <c r="J2">
-        <v>11.25</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="K2">
-        <v>10.60999965667725</v>
+        <v>10.46000003814697</v>
       </c>
       <c r="L2">
-        <v>0.6749042328912509</v>
+        <v>0.6769741860018783</v>
       </c>
       <c r="M2">
-        <v>-0.364890874905381</v>
+        <v>-0.361387101914989</v>
       </c>
       <c r="N2">
-        <v>0.1867652155424484</v>
+        <v>0.1887112043625833</v>
       </c>
       <c r="O2">
-        <v>-0.3595032350910952</v>
+        <v>-0.3608030525619075</v>
       </c>
       <c r="P2">
-        <v>0.006736504045300885</v>
+        <v>0.006901543713273766</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>20</v>
+        <v>1693</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>0.9705956314793037</v>
+        <v>0.9692713935721309</v>
       </c>
       <c r="E3">
-        <v>0.9203575540124472</v>
+        <v>0.8545103211429215</v>
       </c>
       <c r="F3">
-        <v>0.0004184984762046413</v>
+        <v>0.0001373989442767346</v>
       </c>
       <c r="G3">
-        <v>9.384567137650421</v>
+        <v>-0.03533989941008686</v>
       </c>
       <c r="H3">
-        <v>1.28548786668794</v>
+        <v>1.04373004582636</v>
       </c>
       <c r="I3">
-        <v>7.947304530717222E-70</v>
+        <v>5.366894860496654E-92</v>
       </c>
       <c r="J3">
-        <v>11.25</v>
+        <v>12.77000045776367</v>
       </c>
       <c r="K3">
-        <v>1.639999985694885</v>
+        <v>12.75</v>
       </c>
       <c r="L3">
-        <v>0.8131484056723295</v>
+        <v>1.260218722239074</v>
       </c>
       <c r="M3">
-        <v>-0.4284768008567248</v>
+        <v>-1.032713385865316</v>
       </c>
       <c r="N3">
-        <v>0.2227474217246473</v>
+        <v>0.4150020580804979</v>
       </c>
       <c r="O3">
-        <v>-0.2427672206295912</v>
+        <v>-0.5022177271123294</v>
       </c>
       <c r="P3">
-        <v>0.01091827407399243</v>
+        <v>0.009876450345200603</v>
       </c>
       <c r="Q3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1921</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>0.1091765886648715</v>
+        <v>0.970684998769383</v>
       </c>
       <c r="E4">
-        <v>0.7264954494348737</v>
+        <v>0.872907387195482</v>
       </c>
       <c r="F4">
-        <v>0.0005107461977054506</v>
+        <v>0.0003592891388403653</v>
       </c>
       <c r="G4">
-        <v>1.285771559617921</v>
+        <v>3.269232318477406</v>
       </c>
       <c r="H4">
-        <v>0.1447801068807983</v>
+        <v>0.3665543477453761</v>
       </c>
       <c r="I4">
-        <v>1.266521811649047E-25</v>
+        <v>9.738460999196518E-67</v>
       </c>
       <c r="J4">
-        <v>6.659999847412109</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="K4">
-        <v>39.29000091552734</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="L4">
-        <v>0.6075228688991992</v>
+        <v>0.6839260868858972</v>
       </c>
       <c r="M4">
-        <v>-0.563479190639109</v>
+        <v>-0.4887181617137557</v>
       </c>
       <c r="N4">
-        <v>0.267654751701033</v>
+        <v>0.2397352671488594</v>
       </c>
       <c r="O4">
-        <v>-0.3141822441025246</v>
+        <v>-0.3240365882334046</v>
       </c>
       <c r="P4">
-        <v>0.01179690815242636</v>
+        <v>0.01069152011014033</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2303</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>0.9763539919325497</v>
+        <v>0.970684998769383</v>
       </c>
       <c r="E5">
-        <v>0.9183881233113238</v>
+        <v>0.9172136542926219</v>
       </c>
       <c r="F5">
-        <v>1.273560878528675E-05</v>
+        <v>0.0004719393131264732</v>
       </c>
       <c r="G5">
-        <v>18.03133699165404</v>
+        <v>9.365378631075728</v>
       </c>
       <c r="H5">
-        <v>4.215509249661038</v>
+        <v>1.292163290813033</v>
       </c>
       <c r="I5">
-        <v>3.987172211145876E-60</v>
+        <v>7.669765043422928E-71</v>
       </c>
       <c r="J5">
-        <v>29.21999931335449</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="K5">
-        <v>2.819999933242798</v>
+        <v>1.639999985694885</v>
       </c>
       <c r="L5">
-        <v>1.850896257258718</v>
+        <v>0.8154480894015244</v>
       </c>
       <c r="M5">
-        <v>-1.864411692587034</v>
+        <v>-0.4203694981068686</v>
       </c>
       <c r="N5">
-        <v>0.6647722225517064</v>
+        <v>0.2233067907413031</v>
       </c>
       <c r="O5">
-        <v>-0.699073480928071</v>
+        <v>-0.2845266002594209</v>
       </c>
       <c r="P5">
-        <v>0.01198366289705226</v>
+        <v>0.011055577886215</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>611</v>
+        <v>2294</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>0.7293835746775477</v>
+        <v>0.9818708114164246</v>
       </c>
       <c r="E6">
-        <v>0.9686405718894874</v>
+        <v>0.872907387195482</v>
       </c>
       <c r="F6">
-        <v>0.001377613574974448</v>
+        <v>0.0004453132164189972</v>
       </c>
       <c r="G6">
-        <v>4.540308955961605</v>
+        <v>8.428025891431322</v>
       </c>
       <c r="H6">
-        <v>0.186353776477426</v>
+        <v>0.9362770891860912</v>
       </c>
       <c r="I6">
-        <v>3.588296248628001E-57</v>
+        <v>2.156256495235537E-75</v>
       </c>
       <c r="J6">
-        <v>12.38000011444092</v>
+        <v>28.95000076293945</v>
       </c>
       <c r="K6">
-        <v>39.15000152587891</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="L6">
-        <v>2.219854735752723</v>
+        <v>1.366399106565424</v>
       </c>
       <c r="M6">
-        <v>-0.8675215684001483</v>
+        <v>-1.391221142537333</v>
       </c>
       <c r="N6">
-        <v>0.4702573352669006</v>
+        <v>0.5193075921421003</v>
       </c>
       <c r="O6">
-        <v>0.5439405250347908</v>
+        <v>-0.5629856055562819</v>
       </c>
       <c r="P6">
-        <v>0.0123263632521594</v>
+        <v>0.01115017178512591</v>
       </c>
       <c r="Q6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1760</v>
+        <v>999</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>0.8171398558777698</v>
+        <v>0.9210871550511662</v>
       </c>
       <c r="E7">
-        <v>0.9763539919325497</v>
+        <v>0.9692713935721309</v>
       </c>
       <c r="F7">
-        <v>0.0002413901735238055</v>
+        <v>0.002737003201143623</v>
       </c>
       <c r="G7">
-        <v>-15.07823320535235</v>
+        <v>31.31392330437535</v>
       </c>
       <c r="H7">
-        <v>0.9346972897830615</v>
+        <v>-0.9720474446079397</v>
       </c>
       <c r="I7">
-        <v>1.546392914927535E-59</v>
+        <v>4.043820485770504E-57</v>
       </c>
       <c r="J7">
-        <v>12.98999977111816</v>
+        <v>20.02000045776367</v>
       </c>
       <c r="K7">
-        <v>29.21999931335449</v>
+        <v>12.77000045776367</v>
       </c>
       <c r="L7">
-        <v>1.933769008767538</v>
+        <v>1.798911452008237</v>
       </c>
       <c r="M7">
-        <v>-1.491694660725514</v>
+        <v>-2.170925638094992</v>
       </c>
       <c r="N7">
-        <v>0.6744599093543092</v>
+        <v>0.7988251279422727</v>
       </c>
       <c r="O7">
-        <v>0.7563788108151499</v>
+        <v>1.119123465999719</v>
       </c>
       <c r="P7">
-        <v>0.01239237422568391</v>
+        <v>0.01122555594516698</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>0.1091765886648715</v>
+        <v>0.1083308961530566</v>
       </c>
       <c r="E8">
-        <v>0.858075259036863</v>
+        <v>0.7248772023164771</v>
       </c>
       <c r="F8">
-        <v>0.0007927035735800844</v>
+        <v>0.0004726949914934822</v>
       </c>
       <c r="G8">
-        <v>2.884420569198258</v>
+        <v>1.201979776423881</v>
       </c>
       <c r="H8">
-        <v>0.1172778956406979</v>
+        <v>0.1466609553840717</v>
       </c>
       <c r="I8">
-        <v>3.139901515112222E-22</v>
+        <v>1.407386926599714E-26</v>
       </c>
       <c r="J8">
-        <v>6.659999847412109</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="K8">
-        <v>35.02999877929688</v>
+        <v>39.31999969482422</v>
       </c>
       <c r="L8">
-        <v>0.653889288908295</v>
+        <v>0.6073052317969196</v>
       </c>
       <c r="M8">
-        <v>-0.6561122182641048</v>
+        <v>-0.5651008847652159</v>
       </c>
       <c r="N8">
-        <v>0.2838752751549061</v>
+        <v>0.2676989950317036</v>
       </c>
       <c r="O8">
-        <v>-0.3326652629183036</v>
+        <v>-0.2686886881030723</v>
       </c>
       <c r="P8">
-        <v>0.01271000189260791</v>
+        <v>0.01184220083983266</v>
       </c>
       <c r="Q8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2662</v>
+        <v>2303</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>0.9338773496403443</v>
+        <v>0.9818708114164246</v>
       </c>
       <c r="E9">
-        <v>0.9779285765951164</v>
+        <v>0.9250534578075644</v>
       </c>
       <c r="F9">
-        <v>0.000584466869940883</v>
+        <v>1.108378327457756E-05</v>
       </c>
       <c r="G9">
-        <v>16.28772527655615</v>
+        <v>17.94241416903652</v>
       </c>
       <c r="H9">
-        <v>0.3413412815253339</v>
+        <v>4.239639788652843</v>
       </c>
       <c r="I9">
-        <v>3.079171009122312E-60</v>
+        <v>5.824576091703703E-61</v>
       </c>
       <c r="J9">
-        <v>19.36000061035156</v>
+        <v>28.95000076293945</v>
       </c>
       <c r="K9">
-        <v>10.63000011444092</v>
+        <v>2.799999952316284</v>
       </c>
       <c r="L9">
-        <v>1.126896011137838</v>
+        <v>1.859379895837257</v>
       </c>
       <c r="M9">
-        <v>-1.028082023771127</v>
+        <v>-1.84932831790368</v>
       </c>
       <c r="N9">
-        <v>0.4434434352324863</v>
+        <v>0.6665637141820066</v>
       </c>
       <c r="O9">
-        <v>-0.5561825278822954</v>
+        <v>-0.863404612163249</v>
       </c>
       <c r="P9">
-        <v>0.01310939076029234</v>
+        <v>0.01214638675384238</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2591</v>
+        <v>1760</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>0.7233949369771893</v>
+        <v>0.8545103211429215</v>
       </c>
       <c r="E10">
-        <v>0.8453440431369215</v>
+        <v>0.9818708114164246</v>
       </c>
       <c r="F10">
-        <v>0.002293923934227318</v>
+        <v>0.0002425438561511637</v>
       </c>
       <c r="G10">
-        <v>14.86336679983708</v>
+        <v>-14.88660987242663</v>
       </c>
       <c r="H10">
-        <v>3.178107482825287</v>
+        <v>0.9289612790562423</v>
       </c>
       <c r="I10">
-        <v>4.718117571013479E-44</v>
+        <v>4.283167925169486E-60</v>
       </c>
       <c r="J10">
-        <v>28.81999969482422</v>
+        <v>12.75</v>
       </c>
       <c r="K10">
-        <v>3.980000019073486</v>
+        <v>28.95000076293945</v>
       </c>
       <c r="L10">
-        <v>2.485946382321067</v>
+        <v>1.93363194702308</v>
       </c>
       <c r="M10">
-        <v>-2.735100918962459</v>
+        <v>-1.484488607327826</v>
       </c>
       <c r="N10">
-        <v>1.083101969055627</v>
+        <v>0.6750989140741989</v>
       </c>
       <c r="O10">
-        <v>1.307765052724911</v>
+        <v>0.7431801350072007</v>
       </c>
       <c r="P10">
-        <v>0.01315963805896571</v>
+        <v>0.01260729724355718</v>
       </c>
       <c r="Q10" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1007</v>
+        <v>1920</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>0.8862619054426701</v>
+        <v>0.1083308961530566</v>
       </c>
       <c r="E11">
-        <v>0.9255042375687774</v>
+        <v>0.8556957200412092</v>
       </c>
       <c r="F11">
-        <v>0.0004929090290993102</v>
+        <v>0.0007316852759484489</v>
       </c>
       <c r="G11">
-        <v>6.921794399374544</v>
+        <v>2.812841225931566</v>
       </c>
       <c r="H11">
-        <v>0.3115682725722737</v>
+        <v>0.1190121942819106</v>
       </c>
       <c r="I11">
-        <v>2.639952732106551E-62</v>
+        <v>3.684439794502752E-23</v>
       </c>
       <c r="J11">
-        <v>19.19000053405762</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="K11">
-        <v>36.79999923706055</v>
+        <v>35.04999923706055</v>
       </c>
       <c r="L11">
-        <v>1.847878343299957</v>
+        <v>0.6615597298926312</v>
       </c>
       <c r="M11">
-        <v>-1.470283377589681</v>
+        <v>-0.6544314204114841</v>
       </c>
       <c r="N11">
-        <v>0.7165112503022143</v>
+        <v>0.2839178370412348</v>
       </c>
       <c r="O11">
-        <v>0.8024939417311305</v>
+        <v>-0.2842187354482961</v>
       </c>
       <c r="P11">
-        <v>0.01316667852458329</v>
+        <v>0.01275930772812649</v>
       </c>
       <c r="Q11" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="R11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -76,34 +76,46 @@
     <t>CSAN3</t>
   </si>
   <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
+    <t>BRFS3</t>
+  </si>
+  <si>
     <t>EQTL3</t>
   </si>
   <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
     <t>CSNA3</t>
   </si>
   <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>ASAI3</t>
+  </si>
+  <si>
     <t>B3SA3</t>
   </si>
   <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
+  </si>
+  <si>
     <t>MULT3</t>
   </si>
   <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>ELET3</t>
+    <t>CIEL3</t>
+  </si>
+  <si>
+    <t>UGPA3</t>
   </si>
 </sst>
 </file>
@@ -531,52 +543,52 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.970684998769383</v>
+        <v>0.9625753662891171</v>
       </c>
       <c r="E2">
-        <v>0.9472705134625156</v>
+        <v>0.9522774896912757</v>
       </c>
       <c r="F2">
-        <v>1.154992142292689E-06</v>
+        <v>5.814403684878974E-07</v>
       </c>
       <c r="G2">
-        <v>5.102461903541543</v>
+        <v>5.076299828008003</v>
       </c>
       <c r="H2">
-        <v>0.6174322117334925</v>
+        <v>0.6194749241159205</v>
       </c>
       <c r="I2">
-        <v>1.431635928688383E-80</v>
+        <v>1.108605449989125E-81</v>
       </c>
       <c r="J2">
-        <v>11.19999980926514</v>
+        <v>11.27999973297119</v>
       </c>
       <c r="K2">
-        <v>10.46000003814697</v>
+        <v>10.31999969482422</v>
       </c>
       <c r="L2">
-        <v>0.6769741860018783</v>
+        <v>0.6780070993107934</v>
       </c>
       <c r="M2">
-        <v>-0.361387101914989</v>
+        <v>-0.3595618414381043</v>
       </c>
       <c r="N2">
-        <v>0.1887112043625833</v>
+        <v>0.1887377874729106</v>
       </c>
       <c r="O2">
-        <v>-0.3608030525619075</v>
+        <v>-0.1892811228643678</v>
       </c>
       <c r="P2">
-        <v>0.006901543713273766</v>
+        <v>0.006850712234703415</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -590,43 +602,43 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>0.9692713935721309</v>
+        <v>0.9714560414204155</v>
       </c>
       <c r="E3">
-        <v>0.8545103211429215</v>
+        <v>0.792093706474482</v>
       </c>
       <c r="F3">
-        <v>0.0001373989442767346</v>
+        <v>0.0002669719007664855</v>
       </c>
       <c r="G3">
-        <v>-0.03533989941008686</v>
+        <v>-0.1029652137997098</v>
       </c>
       <c r="H3">
-        <v>1.04373004582636</v>
+        <v>1.047764067101963</v>
       </c>
       <c r="I3">
-        <v>5.366894860496654E-92</v>
+        <v>2.421651961586616E-92</v>
       </c>
       <c r="J3">
-        <v>12.77000045776367</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="K3">
-        <v>12.75</v>
+        <v>13</v>
       </c>
       <c r="L3">
-        <v>1.260218722239074</v>
+        <v>1.259586188077932</v>
       </c>
       <c r="M3">
-        <v>-1.032713385865316</v>
+        <v>-1.017490006922463</v>
       </c>
       <c r="N3">
-        <v>0.4150020580804979</v>
+        <v>0.419782136980345</v>
       </c>
       <c r="O3">
-        <v>-0.5022177271123294</v>
+        <v>-0.8379673533500274</v>
       </c>
       <c r="P3">
-        <v>0.009876450345200603</v>
+        <v>0.01020497314285218</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -637,450 +649,450 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>54</v>
+        <v>735</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.970684998769383</v>
+        <v>0.1937542537914618</v>
       </c>
       <c r="E4">
-        <v>0.872907387195482</v>
+        <v>0.7025609056989732</v>
       </c>
       <c r="F4">
-        <v>0.0003592891388403653</v>
+        <v>0.0002206043337859174</v>
       </c>
       <c r="G4">
-        <v>3.269232318477406</v>
+        <v>1.409630167722983</v>
       </c>
       <c r="H4">
-        <v>0.3665543477453761</v>
+        <v>0.1663385366258763</v>
       </c>
       <c r="I4">
-        <v>9.738460999196518E-67</v>
+        <v>2.579683172204614E-43</v>
       </c>
       <c r="J4">
-        <v>11.19999980926514</v>
+        <v>6.579999923706055</v>
       </c>
       <c r="K4">
-        <v>22.52000045776367</v>
+        <v>28.79000091552734</v>
       </c>
       <c r="L4">
-        <v>0.6839260868858972</v>
+        <v>0.6744461185515229</v>
       </c>
       <c r="M4">
-        <v>-0.4887181617137557</v>
+        <v>-0.4348546678732115</v>
       </c>
       <c r="N4">
-        <v>0.2397352671488594</v>
+        <v>0.2123353319763208</v>
       </c>
       <c r="O4">
-        <v>-0.3240365882334046</v>
+        <v>0.381483134236615</v>
       </c>
       <c r="P4">
-        <v>0.01069152011014033</v>
+        <v>0.0107291220435974</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>0.970684998769383</v>
+        <v>0.9361910819435656</v>
       </c>
       <c r="E5">
-        <v>0.9172136542926219</v>
+        <v>0.9714560414204155</v>
       </c>
       <c r="F5">
-        <v>0.0004719393131264732</v>
+        <v>0.00257744035558257</v>
       </c>
       <c r="G5">
-        <v>9.365378631075728</v>
+        <v>31.44651926796703</v>
       </c>
       <c r="H5">
-        <v>1.292163290813033</v>
+        <v>-0.97980874469767</v>
       </c>
       <c r="I5">
-        <v>7.669765043422928E-71</v>
+        <v>6.493067177822619E-58</v>
       </c>
       <c r="J5">
-        <v>11.19999980926514</v>
+        <v>20.30999946594238</v>
       </c>
       <c r="K5">
-        <v>1.639999985694885</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="L5">
-        <v>0.8154480894015244</v>
+        <v>1.774128690797312</v>
       </c>
       <c r="M5">
-        <v>-0.4203694981068686</v>
+        <v>-2.169917199768388</v>
       </c>
       <c r="N5">
-        <v>0.2233067907413031</v>
+        <v>0.8037044928312049</v>
       </c>
       <c r="O5">
-        <v>-0.2845266002594209</v>
+        <v>1.287455379755707</v>
       </c>
       <c r="P5">
-        <v>0.011055577886215</v>
+        <v>0.01143353366650277</v>
       </c>
       <c r="Q5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2294</v>
+        <v>2303</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.9818708114164246</v>
+        <v>0.9849497256777683</v>
       </c>
       <c r="E6">
-        <v>0.872907387195482</v>
+        <v>0.927090506148706</v>
       </c>
       <c r="F6">
-        <v>0.0004453132164189972</v>
+        <v>1.028347289548635E-05</v>
       </c>
       <c r="G6">
-        <v>8.428025891431322</v>
+        <v>17.84863337239299</v>
       </c>
       <c r="H6">
-        <v>0.9362770891860912</v>
+        <v>4.265147971809608</v>
       </c>
       <c r="I6">
-        <v>2.156256495235537E-75</v>
+        <v>8.365402863292549E-62</v>
       </c>
       <c r="J6">
-        <v>28.95000076293945</v>
+        <v>28.79999923706055</v>
       </c>
       <c r="K6">
-        <v>22.52000045776367</v>
+        <v>2.779999971389771</v>
       </c>
       <c r="L6">
-        <v>1.366399106565424</v>
+        <v>1.868129129773308</v>
       </c>
       <c r="M6">
-        <v>-1.391221142537333</v>
+        <v>-1.83360256026026</v>
       </c>
       <c r="N6">
-        <v>0.5193075921421003</v>
+        <v>0.6687486128252731</v>
       </c>
       <c r="O6">
-        <v>-0.5629856055562819</v>
+        <v>-0.9057453749362931</v>
       </c>
       <c r="P6">
-        <v>0.01115017178512591</v>
+        <v>0.01229014984460317</v>
       </c>
       <c r="Q6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>999</v>
+        <v>1760</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>0.9210871550511662</v>
+        <v>0.792093706474482</v>
       </c>
       <c r="E7">
-        <v>0.9692713935721309</v>
+        <v>0.9849497256777683</v>
       </c>
       <c r="F7">
-        <v>0.002737003201143623</v>
+        <v>0.0004464236830037229</v>
       </c>
       <c r="G7">
-        <v>31.31392330437535</v>
+        <v>-14.60254462118035</v>
       </c>
       <c r="H7">
-        <v>-0.9720474446079397</v>
+        <v>0.9204476323789123</v>
       </c>
       <c r="I7">
-        <v>4.043820485770504E-57</v>
+        <v>2.915832699752035E-60</v>
       </c>
       <c r="J7">
-        <v>20.02000045776367</v>
+        <v>13</v>
       </c>
       <c r="K7">
-        <v>12.77000045776367</v>
+        <v>28.79999923706055</v>
       </c>
       <c r="L7">
-        <v>1.798911452008237</v>
+        <v>1.93377928428789</v>
       </c>
       <c r="M7">
-        <v>-2.170925638094992</v>
+        <v>-1.473442286290386</v>
       </c>
       <c r="N7">
-        <v>0.7988251279422727</v>
+        <v>0.6793487050074899</v>
       </c>
       <c r="O7">
-        <v>1.119123465999719</v>
+        <v>1.093653510913491</v>
       </c>
       <c r="P7">
-        <v>0.01122555594516698</v>
+        <v>0.01313701864296239</v>
       </c>
       <c r="Q7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1921</v>
+        <v>2662</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.1083308961530566</v>
+        <v>0.9097400200485271</v>
       </c>
       <c r="E8">
-        <v>0.7248772023164771</v>
+        <v>0.9726080010953021</v>
       </c>
       <c r="F8">
-        <v>0.0004726949914934822</v>
+        <v>0.0005424808302248235</v>
       </c>
       <c r="G8">
-        <v>1.201979776423881</v>
+        <v>16.20889931563809</v>
       </c>
       <c r="H8">
-        <v>0.1466609553840717</v>
+        <v>0.3454333645326651</v>
       </c>
       <c r="I8">
-        <v>1.407386926599714E-26</v>
+        <v>1.223088175534735E-62</v>
       </c>
       <c r="J8">
-        <v>6.699999809265137</v>
+        <v>19.5</v>
       </c>
       <c r="K8">
-        <v>39.31999969482422</v>
+        <v>10.97000026702881</v>
       </c>
       <c r="L8">
-        <v>0.6073052317969196</v>
+        <v>1.13026374067449</v>
       </c>
       <c r="M8">
-        <v>-0.5651008847652159</v>
+        <v>-1.010040742284367</v>
       </c>
       <c r="N8">
-        <v>0.2676989950317036</v>
+        <v>0.4441828013623516</v>
       </c>
       <c r="O8">
-        <v>-0.2686886881030723</v>
+        <v>-0.4983034168020883</v>
       </c>
       <c r="P8">
-        <v>0.01184220083983266</v>
+        <v>0.01327111551412099</v>
       </c>
       <c r="Q8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2303</v>
+        <v>1029</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.9818708114164246</v>
+        <v>0.9361910819435656</v>
       </c>
       <c r="E9">
-        <v>0.9250534578075644</v>
+        <v>0.8968707144603431</v>
       </c>
       <c r="F9">
-        <v>1.108378327457756E-05</v>
+        <v>0.002367670836568729</v>
       </c>
       <c r="G9">
-        <v>17.94241416903652</v>
+        <v>41.20581597946648</v>
       </c>
       <c r="H9">
-        <v>4.239639788652843</v>
+        <v>-0.9874200602496781</v>
       </c>
       <c r="I9">
-        <v>5.824576091703703E-61</v>
+        <v>8.197752826847209E-50</v>
       </c>
       <c r="J9">
-        <v>28.95000076293945</v>
+        <v>20.30999946594238</v>
       </c>
       <c r="K9">
-        <v>2.799999952316284</v>
+        <v>22.20999908447266</v>
       </c>
       <c r="L9">
-        <v>1.859379895837257</v>
+        <v>1.980500955537192</v>
       </c>
       <c r="M9">
-        <v>-1.84932831790368</v>
+        <v>-2.368653167859819</v>
       </c>
       <c r="N9">
-        <v>0.6665637141820066</v>
+        <v>0.9235576279680903</v>
       </c>
       <c r="O9">
-        <v>-0.863404612163249</v>
+        <v>1.03478212061119</v>
       </c>
       <c r="P9">
-        <v>0.01214638675384238</v>
+        <v>0.0135716252349219</v>
       </c>
       <c r="Q9" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="R9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1760</v>
+        <v>563</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.8545103211429215</v>
+        <v>0.7198483520099528</v>
       </c>
       <c r="E10">
-        <v>0.9818708114164246</v>
+        <v>0.417567274445968</v>
       </c>
       <c r="F10">
-        <v>0.0002425438561511637</v>
+        <v>0.002492581448193466</v>
       </c>
       <c r="G10">
-        <v>-14.88660987242663</v>
+        <v>26.22691849955849</v>
       </c>
       <c r="H10">
-        <v>0.9289612790562423</v>
+        <v>-2.313542018070314</v>
       </c>
       <c r="I10">
-        <v>4.283167925169486E-60</v>
+        <v>1.186690705052207E-44</v>
       </c>
       <c r="J10">
-        <v>12.75</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="K10">
-        <v>28.95000076293945</v>
+        <v>5.650000095367432</v>
       </c>
       <c r="L10">
-        <v>1.93363194702308</v>
+        <v>2.032208116239353</v>
       </c>
       <c r="M10">
-        <v>-1.484488607327826</v>
+        <v>-1.170628475246822</v>
       </c>
       <c r="N10">
-        <v>0.6750989140741989</v>
+        <v>0.5980043271227147</v>
       </c>
       <c r="O10">
-        <v>0.7431801350072007</v>
+        <v>-0.7454060294125515</v>
       </c>
       <c r="P10">
-        <v>0.01260729724355718</v>
+        <v>0.01408869700855654</v>
       </c>
       <c r="Q10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1920</v>
+        <v>237</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.1083308961530566</v>
+        <v>0.7851781678246148</v>
       </c>
       <c r="E11">
-        <v>0.8556957200412092</v>
+        <v>0.9659698803526495</v>
       </c>
       <c r="F11">
-        <v>0.0007316852759484489</v>
+        <v>0.005092124278890972</v>
       </c>
       <c r="G11">
-        <v>2.812841225931566</v>
+        <v>4.280143639840261</v>
       </c>
       <c r="H11">
-        <v>0.1190121942819106</v>
+        <v>0.3469181854675216</v>
       </c>
       <c r="I11">
-        <v>3.684439794502752E-23</v>
+        <v>3.970154027467317E-39</v>
       </c>
       <c r="J11">
-        <v>6.699999809265137</v>
+        <v>10.85999965667725</v>
       </c>
       <c r="K11">
-        <v>35.04999923706055</v>
+        <v>21.53000068664551</v>
       </c>
       <c r="L11">
-        <v>0.6615597298926312</v>
+        <v>0.873307134316093</v>
       </c>
       <c r="M11">
-        <v>-0.6544314204114841</v>
+        <v>-1.238233953196332</v>
       </c>
       <c r="N11">
-        <v>0.2839178370412348</v>
+        <v>0.46702205131581</v>
       </c>
       <c r="O11">
-        <v>-0.2842187354482961</v>
+        <v>-0.8892927544885687</v>
       </c>
       <c r="P11">
-        <v>0.01275930772812649</v>
+        <v>0.01430750298686079</v>
       </c>
       <c r="Q11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="R11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -73,49 +73,46 @@
     <t>ABEV3</t>
   </si>
   <si>
+    <t>EZTC3</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>BRFS3</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>CIEL3</t>
+  </si>
+  <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
     <t>CSAN3</t>
   </si>
   <si>
-    <t>BEEF3</t>
-  </si>
-  <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
-    <t>ASAI3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
+    <t>ELET3</t>
   </si>
   <si>
     <t>RAIZ4</t>
   </si>
   <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>CIEL3</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
+    <t>MGLU3</t>
   </si>
 </sst>
 </file>
@@ -543,556 +540,556 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>0.9625753662891171</v>
+        <v>0.9440648044422946</v>
       </c>
       <c r="E2">
-        <v>0.9522774896912757</v>
+        <v>0.8869486875756361</v>
       </c>
       <c r="F2">
-        <v>5.814403684878974E-07</v>
+        <v>3.575752849932247E-07</v>
       </c>
       <c r="G2">
-        <v>5.076299828008003</v>
+        <v>5.079537166385021</v>
       </c>
       <c r="H2">
-        <v>0.6194749241159205</v>
+        <v>0.6186664894845909</v>
       </c>
       <c r="I2">
-        <v>1.108605449989125E-81</v>
+        <v>3.092461832347727E-81</v>
       </c>
       <c r="J2">
         <v>11.27999973297119</v>
       </c>
       <c r="K2">
-        <v>10.31999969482422</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="L2">
-        <v>0.6780070993107934</v>
+        <v>0.6848128868064194</v>
       </c>
       <c r="M2">
-        <v>-0.3595618414381043</v>
+        <v>-0.3530724338966991</v>
       </c>
       <c r="N2">
-        <v>0.1887377874729106</v>
+        <v>0.1877699355590502</v>
       </c>
       <c r="O2">
-        <v>-0.1892811228643678</v>
+        <v>-0.2274824715610118</v>
       </c>
       <c r="P2">
-        <v>0.006850712234703415</v>
+        <v>0.006683262682189278</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1693</v>
+        <v>2328</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>0.9714560414204155</v>
+        <v>0.5397059434664758</v>
       </c>
       <c r="E3">
-        <v>0.792093706474482</v>
+        <v>0.7133744961628961</v>
       </c>
       <c r="F3">
-        <v>0.0002669719007664855</v>
+        <v>0.001426924883990149</v>
       </c>
       <c r="G3">
-        <v>-0.1029652137997098</v>
+        <v>-7.103760278053262</v>
       </c>
       <c r="H3">
-        <v>1.047764067101963</v>
+        <v>0.712450522961701</v>
       </c>
       <c r="I3">
-        <v>2.421651961586616E-92</v>
+        <v>8.282160976708852E-64</v>
       </c>
       <c r="J3">
-        <v>12.68000030517578</v>
+        <v>12.89999961853027</v>
       </c>
       <c r="K3">
-        <v>13</v>
+        <v>28.95232963562012</v>
       </c>
       <c r="L3">
-        <v>1.259586188077932</v>
+        <v>1.264875926015907</v>
       </c>
       <c r="M3">
-        <v>-1.017490006922463</v>
+        <v>-1.458553267189068</v>
       </c>
       <c r="N3">
-        <v>0.419782136980345</v>
+        <v>0.5788655750151878</v>
       </c>
       <c r="O3">
-        <v>-0.8379673533500274</v>
+        <v>-0.6233424932735723</v>
       </c>
       <c r="P3">
-        <v>0.01020497314285218</v>
+        <v>0.008543923579949554</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>735</v>
+        <v>335</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>0.1937542537914618</v>
+        <v>0.8869486875756361</v>
       </c>
       <c r="E4">
-        <v>0.7025609056989732</v>
+        <v>0.2625737022307465</v>
       </c>
       <c r="F4">
-        <v>0.0002206043337859174</v>
+        <v>2.990252569578863E-05</v>
       </c>
       <c r="G4">
-        <v>1.409630167722983</v>
+        <v>24.46303668220091</v>
       </c>
       <c r="H4">
-        <v>0.1663385366258763</v>
+        <v>-2.383490959144506</v>
       </c>
       <c r="I4">
-        <v>2.579683172204614E-43</v>
+        <v>7.377694961834559E-60</v>
       </c>
       <c r="J4">
-        <v>6.579999923706055</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="K4">
-        <v>28.79000091552734</v>
+        <v>5.639999866485596</v>
       </c>
       <c r="L4">
-        <v>0.6744461185515229</v>
+        <v>1.06961854053198</v>
       </c>
       <c r="M4">
-        <v>-0.4348546678732115</v>
+        <v>-1.662362209945268</v>
       </c>
       <c r="N4">
-        <v>0.2123353319763208</v>
+        <v>0.4265085770908259</v>
       </c>
       <c r="O4">
-        <v>0.381483134236615</v>
+        <v>-0.6301476475335157</v>
       </c>
       <c r="P4">
-        <v>0.0107291220435974</v>
+        <v>0.01093782184806742</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>999</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>0.9361910819435656</v>
+        <v>0.9440648044422946</v>
       </c>
       <c r="E5">
-        <v>0.9714560414204155</v>
+        <v>0.8233680086832895</v>
       </c>
       <c r="F5">
-        <v>0.00257744035558257</v>
+        <v>0.000428443348971673</v>
       </c>
       <c r="G5">
-        <v>31.44651926796703</v>
+        <v>9.31912538776391</v>
       </c>
       <c r="H5">
-        <v>-0.97980874469767</v>
+        <v>1.310257218599044</v>
       </c>
       <c r="I5">
-        <v>6.493067177822619E-58</v>
+        <v>7.17151772782586E-71</v>
       </c>
       <c r="J5">
-        <v>20.30999946594238</v>
+        <v>11.27999973297119</v>
       </c>
       <c r="K5">
-        <v>12.68000030517578</v>
+        <v>1.740000009536743</v>
       </c>
       <c r="L5">
-        <v>1.774128690797312</v>
+        <v>0.8159236959324048</v>
       </c>
       <c r="M5">
-        <v>-2.169917199768388</v>
+        <v>-0.4041521743158789</v>
       </c>
       <c r="N5">
-        <v>0.8037044928312049</v>
+        <v>0.2249589335974523</v>
       </c>
       <c r="O5">
-        <v>1.287455379755707</v>
+        <v>-0.3189732276506416</v>
       </c>
       <c r="P5">
-        <v>0.01143353366650277</v>
+        <v>0.01096960551401774</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2303</v>
+        <v>1009</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.9849497256777683</v>
+        <v>0.9433473179903303</v>
       </c>
       <c r="E6">
-        <v>0.927090506148706</v>
+        <v>0.6038313316420071</v>
       </c>
       <c r="F6">
-        <v>1.028347289548635E-05</v>
+        <v>0.000640125609783896</v>
       </c>
       <c r="G6">
-        <v>17.84863337239299</v>
+        <v>51.81508769111948</v>
       </c>
       <c r="H6">
-        <v>4.265147971809608</v>
+        <v>-0.7330476949590056</v>
       </c>
       <c r="I6">
-        <v>8.365402863292549E-62</v>
+        <v>2.820520906564611E-43</v>
       </c>
       <c r="J6">
-        <v>28.79999923706055</v>
+        <v>20.54999923706055</v>
       </c>
       <c r="K6">
-        <v>2.779999971389771</v>
+        <v>44.9900016784668</v>
       </c>
       <c r="L6">
-        <v>1.868129129773308</v>
+        <v>2.341108881413213</v>
       </c>
       <c r="M6">
-        <v>-1.83360256026026</v>
+        <v>-2.760032342310467</v>
       </c>
       <c r="N6">
-        <v>0.6687486128252731</v>
+        <v>1.041319642679487</v>
       </c>
       <c r="O6">
-        <v>-0.9057453749362931</v>
+        <v>1.714728572542946</v>
       </c>
       <c r="P6">
-        <v>0.01229014984460317</v>
+        <v>0.01111964997470322</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="R6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1760</v>
+        <v>1921</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.792093706474482</v>
+        <v>0.5466833079629143</v>
       </c>
       <c r="E7">
-        <v>0.9849497256777683</v>
+        <v>0.776596322549578</v>
       </c>
       <c r="F7">
-        <v>0.0004464236830037229</v>
+        <v>0.0003554303215557891</v>
       </c>
       <c r="G7">
-        <v>-14.60254462118035</v>
+        <v>1.058861434000147</v>
       </c>
       <c r="H7">
-        <v>0.9204476323789123</v>
+        <v>0.1501276329710594</v>
       </c>
       <c r="I7">
-        <v>2.915832699752035E-60</v>
+        <v>1.625465173876914E-29</v>
       </c>
       <c r="J7">
-        <v>13</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="K7">
-        <v>28.79999923706055</v>
+        <v>38.90999984741211</v>
       </c>
       <c r="L7">
-        <v>1.93377928428789</v>
+        <v>0.5955819833481177</v>
       </c>
       <c r="M7">
-        <v>-1.473442286290386</v>
+        <v>-0.5794120146977635</v>
       </c>
       <c r="N7">
-        <v>0.6793487050074899</v>
+        <v>0.2596821612950789</v>
       </c>
       <c r="O7">
-        <v>1.093653510913491</v>
+        <v>-0.3003277053638396</v>
       </c>
       <c r="P7">
-        <v>0.01313701864296239</v>
+        <v>0.01124606824477587</v>
       </c>
       <c r="Q7" t="s">
         <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2662</v>
+        <v>999</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.9097400200485271</v>
+        <v>0.9433473179903303</v>
       </c>
       <c r="E8">
-        <v>0.9726080010953021</v>
+        <v>0.9605838377511718</v>
       </c>
       <c r="F8">
-        <v>0.0005424808302248235</v>
+        <v>0.002352608166175088</v>
       </c>
       <c r="G8">
-        <v>16.20889931563809</v>
+        <v>31.58944381961059</v>
       </c>
       <c r="H8">
-        <v>0.3454333645326651</v>
+        <v>-0.9872437492754144</v>
       </c>
       <c r="I8">
-        <v>1.223088175534735E-62</v>
+        <v>1.209863351453948E-57</v>
       </c>
       <c r="J8">
-        <v>19.5</v>
+        <v>20.54999923706055</v>
       </c>
       <c r="K8">
-        <v>10.97000026702881</v>
+        <v>12.89000034332275</v>
       </c>
       <c r="L8">
-        <v>1.13026374067449</v>
+        <v>1.734484729257829</v>
       </c>
       <c r="M8">
-        <v>-1.010040742284367</v>
+        <v>-2.184854258545435</v>
       </c>
       <c r="N8">
-        <v>0.4441828013623516</v>
+        <v>0.8108182839013408</v>
       </c>
       <c r="O8">
-        <v>-0.4983034168020883</v>
+        <v>1.686127684553288</v>
       </c>
       <c r="P8">
-        <v>0.01327111551412099</v>
+        <v>0.01128448574490452</v>
       </c>
       <c r="Q8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1029</v>
+        <v>1920</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.9361910819435656</v>
+        <v>0.5466833079629143</v>
       </c>
       <c r="E9">
-        <v>0.8968707144603431</v>
+        <v>0.8718477245977838</v>
       </c>
       <c r="F9">
-        <v>0.002367670836568729</v>
+        <v>0.0005545529211006136</v>
       </c>
       <c r="G9">
-        <v>41.20581597946648</v>
+        <v>2.614213199836143</v>
       </c>
       <c r="H9">
-        <v>-0.9874200602496781</v>
+        <v>0.1242208509694445</v>
       </c>
       <c r="I9">
-        <v>8.197752826847209E-50</v>
+        <v>6.586853975283844E-27</v>
       </c>
       <c r="J9">
-        <v>20.30999946594238</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="K9">
-        <v>22.20999908447266</v>
+        <v>34.68999862670898</v>
       </c>
       <c r="L9">
-        <v>1.980500955537192</v>
+        <v>0.6682487650002074</v>
       </c>
       <c r="M9">
-        <v>-2.368653167859819</v>
+        <v>-0.5965892068633831</v>
       </c>
       <c r="N9">
-        <v>0.9235576279680903</v>
+        <v>0.2717073362741044</v>
       </c>
       <c r="O9">
-        <v>1.03478212061119</v>
+        <v>-0.3234344447422264</v>
       </c>
       <c r="P9">
-        <v>0.0135716252349219</v>
+        <v>0.01193485010126959</v>
       </c>
       <c r="Q9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="R9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>563</v>
+        <v>2303</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.7198483520099528</v>
+        <v>0.971100930750649</v>
       </c>
       <c r="E10">
-        <v>0.417567274445968</v>
+        <v>0.8945148829383159</v>
       </c>
       <c r="F10">
-        <v>0.002492581448193466</v>
+        <v>5.343196765475125E-05</v>
       </c>
       <c r="G10">
-        <v>26.22691849955849</v>
+        <v>17.7423831236319</v>
       </c>
       <c r="H10">
-        <v>-2.313542018070314</v>
+        <v>4.286776592143712</v>
       </c>
       <c r="I10">
-        <v>1.186690705052207E-44</v>
+        <v>3.167529855844696E-63</v>
       </c>
       <c r="J10">
-        <v>12.40999984741211</v>
+        <v>29.27000045776367</v>
       </c>
       <c r="K10">
-        <v>5.650000095367432</v>
+        <v>2.890000104904175</v>
       </c>
       <c r="L10">
-        <v>2.032208116239353</v>
+        <v>1.537919534364661</v>
       </c>
       <c r="M10">
-        <v>-1.170628475246822</v>
+        <v>-1.793535888483927</v>
       </c>
       <c r="N10">
-        <v>0.5980043271227147</v>
+        <v>0.6501301738401083</v>
       </c>
       <c r="O10">
-        <v>-0.7454060294125515</v>
+        <v>-0.8611674668643143</v>
       </c>
       <c r="P10">
-        <v>0.01408869700855654</v>
+        <v>0.01216063626297988</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>237</v>
+        <v>1941</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.7851781678246148</v>
+        <v>0.5466833079629143</v>
       </c>
       <c r="E11">
-        <v>0.9659698803526495</v>
+        <v>0.9346280135340692</v>
       </c>
       <c r="F11">
-        <v>0.005092124278890972</v>
+        <v>0.0006483619615482534</v>
       </c>
       <c r="G11">
-        <v>4.280143639840261</v>
+        <v>5.86757042594474</v>
       </c>
       <c r="H11">
-        <v>0.3469181854675216</v>
+        <v>0.09648815296285959</v>
       </c>
       <c r="I11">
-        <v>3.970154027467317E-39</v>
+        <v>2.154900737268853E-25</v>
       </c>
       <c r="J11">
-        <v>10.85999965667725</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="K11">
-        <v>21.53000068664551</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="L11">
-        <v>0.873307134316093</v>
+        <v>0.6137197229071303</v>
       </c>
       <c r="M11">
-        <v>-1.238233953196332</v>
+        <v>-0.8542643099897829</v>
       </c>
       <c r="N11">
-        <v>0.46702205131581</v>
+        <v>0.2789419810300551</v>
       </c>
       <c r="O11">
-        <v>-0.8892927544885687</v>
+        <v>-0.3125372105384787</v>
       </c>
       <c r="P11">
-        <v>0.01430750298686079</v>
+        <v>0.01294701353592382</v>
       </c>
       <c r="Q11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -73,46 +73,46 @@
     <t>ABEV3</t>
   </si>
   <si>
-    <t>EZTC3</t>
-  </si>
-  <si>
     <t>B3SA3</t>
   </si>
   <si>
     <t>BRFS3</t>
   </si>
   <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>ASAI3</t>
+  </si>
+  <si>
     <t>DXCO3</t>
   </si>
   <si>
+    <t>CIEL3</t>
+  </si>
+  <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
+  </si>
+  <si>
+    <t>CSAN3</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
     <t>EQTL3</t>
   </si>
   <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>CIEL3</t>
-  </si>
-  <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>ENGI11</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>CSAN3</t>
-  </si>
-  <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>MGLU3</t>
+    <t>UGPA3</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
   </si>
 </sst>
 </file>
@@ -540,441 +540,441 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>0.9440648044422946</v>
+        <v>0.8730908519800673</v>
       </c>
       <c r="E2">
-        <v>0.8869486875756361</v>
+        <v>0.7961633222540396</v>
       </c>
       <c r="F2">
-        <v>3.575752849932247E-07</v>
+        <v>2.343320885179943E-07</v>
       </c>
       <c r="G2">
-        <v>5.079537166385021</v>
+        <v>5.061515607970387</v>
       </c>
       <c r="H2">
-        <v>0.6186664894845909</v>
+        <v>0.6198146680908191</v>
       </c>
       <c r="I2">
-        <v>3.092461832347727E-81</v>
+        <v>1.005823355603996E-81</v>
       </c>
       <c r="J2">
-        <v>11.27999973297119</v>
+        <v>11.31999969482422</v>
       </c>
       <c r="K2">
-        <v>10.39000034332275</v>
+        <v>10.51000022888184</v>
       </c>
       <c r="L2">
-        <v>0.6848128868064194</v>
+        <v>0.6885707041345768</v>
       </c>
       <c r="M2">
-        <v>-0.3530724338966991</v>
+        <v>-0.3488652782042507</v>
       </c>
       <c r="N2">
-        <v>0.1877699355590502</v>
+        <v>0.187524121594356</v>
       </c>
       <c r="O2">
-        <v>-0.2274824715610118</v>
+        <v>-0.2557682166449959</v>
       </c>
       <c r="P2">
-        <v>0.006683262682189278</v>
+        <v>0.006590064800463413</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2328</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>0.5397059434664758</v>
+        <v>0.7961633222540396</v>
       </c>
       <c r="E3">
-        <v>0.7133744961628961</v>
+        <v>0.3092124477692781</v>
       </c>
       <c r="F3">
-        <v>0.001426924883990149</v>
+        <v>4.799828170178834E-05</v>
       </c>
       <c r="G3">
-        <v>-7.103760278053262</v>
+        <v>24.843785088041</v>
       </c>
       <c r="H3">
-        <v>0.712450522961701</v>
+        <v>-2.455693928982576</v>
       </c>
       <c r="I3">
-        <v>8.282160976708852E-64</v>
+        <v>1.938919383104067E-63</v>
       </c>
       <c r="J3">
-        <v>12.89999961853027</v>
+        <v>10.51000022888184</v>
       </c>
       <c r="K3">
-        <v>28.95232963562012</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="L3">
-        <v>1.264875926015907</v>
+        <v>1.037388853648649</v>
       </c>
       <c r="M3">
-        <v>-1.458553267189068</v>
+        <v>-1.336689519377011</v>
       </c>
       <c r="N3">
-        <v>0.5788655750151878</v>
+        <v>0.4030851286677737</v>
       </c>
       <c r="O3">
-        <v>-0.6233424932735723</v>
+        <v>-0.5327852593089499</v>
       </c>
       <c r="P3">
-        <v>0.008543923579949554</v>
+        <v>0.01052171608372512</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.8869486875756361</v>
+        <v>0.8730908519800673</v>
       </c>
       <c r="E4">
-        <v>0.2625737022307465</v>
+        <v>0.77447408120165</v>
       </c>
       <c r="F4">
-        <v>2.990252569578863E-05</v>
+        <v>0.0006800049096554835</v>
       </c>
       <c r="G4">
-        <v>24.46303668220091</v>
+        <v>9.290311613946756</v>
       </c>
       <c r="H4">
-        <v>-2.383490959144506</v>
+        <v>1.321531302971086</v>
       </c>
       <c r="I4">
-        <v>7.377694961834559E-60</v>
+        <v>3.928344701346851E-71</v>
       </c>
       <c r="J4">
-        <v>10.39000034332275</v>
+        <v>11.31999969482422</v>
       </c>
       <c r="K4">
-        <v>5.639999866485596</v>
+        <v>1.779999971389771</v>
       </c>
       <c r="L4">
-        <v>1.06961854053198</v>
+        <v>0.8162140366108481</v>
       </c>
       <c r="M4">
-        <v>-1.662362209945268</v>
+        <v>-0.3940533801800008</v>
       </c>
       <c r="N4">
-        <v>0.4265085770908259</v>
+        <v>0.2255531835576491</v>
       </c>
       <c r="O4">
-        <v>-0.6301476475335157</v>
+        <v>-0.3226376006017557</v>
       </c>
       <c r="P4">
-        <v>0.01093782184806742</v>
+        <v>0.01129508956500982</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
+        <v>1009</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.9440648044422946</v>
+        <v>0.9485379085464092</v>
       </c>
       <c r="E5">
-        <v>0.8233680086832895</v>
+        <v>0.5917223716434318</v>
       </c>
       <c r="F5">
-        <v>0.000428443348971673</v>
+        <v>0.0008960850412355177</v>
       </c>
       <c r="G5">
-        <v>9.31912538776391</v>
+        <v>52.17641674468401</v>
       </c>
       <c r="H5">
-        <v>1.310257218599044</v>
+        <v>-0.7400656102074603</v>
       </c>
       <c r="I5">
-        <v>7.17151772782586E-71</v>
+        <v>2.762424875047782E-43</v>
       </c>
       <c r="J5">
-        <v>11.27999973297119</v>
+        <v>20.72999954223633</v>
       </c>
       <c r="K5">
-        <v>1.740000009536743</v>
+        <v>45.20000076293945</v>
       </c>
       <c r="L5">
-        <v>0.8159236959324048</v>
+        <v>2.335307413264552</v>
       </c>
       <c r="M5">
-        <v>-0.4041521743158789</v>
+        <v>-2.770535800825407</v>
       </c>
       <c r="N5">
-        <v>0.2249589335974523</v>
+        <v>1.055158927608633</v>
       </c>
       <c r="O5">
-        <v>-0.3189732276506416</v>
+        <v>2.004548943554774</v>
       </c>
       <c r="P5">
-        <v>0.01096960551401774</v>
+        <v>0.01136642526962386</v>
       </c>
       <c r="Q5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="R5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.9433473179903303</v>
+        <v>0.9485379085464092</v>
       </c>
       <c r="E6">
-        <v>0.6038313316420071</v>
+        <v>0.9467316851845967</v>
       </c>
       <c r="F6">
-        <v>0.000640125609783896</v>
+        <v>0.004041158006024499</v>
       </c>
       <c r="G6">
-        <v>51.81508769111948</v>
+        <v>31.74859529298659</v>
       </c>
       <c r="H6">
-        <v>-0.7330476949590056</v>
+        <v>-0.9954934843540513</v>
       </c>
       <c r="I6">
-        <v>2.820520906564611E-43</v>
+        <v>6.76717477554369E-58</v>
       </c>
       <c r="J6">
-        <v>20.54999923706055</v>
+        <v>20.72999954223633</v>
       </c>
       <c r="K6">
-        <v>44.9900016784668</v>
+        <v>13.19999980926514</v>
       </c>
       <c r="L6">
-        <v>2.341108881413213</v>
+        <v>2.121918052847903</v>
       </c>
       <c r="M6">
-        <v>-2.760032342310467</v>
+        <v>-2.201993323121005</v>
       </c>
       <c r="N6">
-        <v>1.041319642679487</v>
+        <v>0.818118932557463</v>
       </c>
       <c r="O6">
-        <v>1.714728572542946</v>
+        <v>2.121918052847901</v>
       </c>
       <c r="P6">
-        <v>0.01111964997470322</v>
+        <v>0.01231653992785252</v>
       </c>
       <c r="Q6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1921</v>
+        <v>867</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.5466833079629143</v>
+        <v>0.5606755213628324</v>
       </c>
       <c r="E7">
-        <v>0.776596322549578</v>
+        <v>0.7474019190914261</v>
       </c>
       <c r="F7">
-        <v>0.0003554303215557891</v>
+        <v>0.001713090513931083</v>
       </c>
       <c r="G7">
-        <v>1.058861434000147</v>
+        <v>0.8364621610382983</v>
       </c>
       <c r="H7">
-        <v>0.1501276329710594</v>
+        <v>0.7956825462412083</v>
       </c>
       <c r="I7">
-        <v>1.625465173876914E-29</v>
+        <v>2.109073497388603E-53</v>
       </c>
       <c r="J7">
-        <v>6.599999904632568</v>
+        <v>32.88000106811523</v>
       </c>
       <c r="K7">
-        <v>38.90999984741211</v>
+        <v>39.2599983215332</v>
       </c>
       <c r="L7">
-        <v>0.5955819833481177</v>
+        <v>2.28010077053974</v>
       </c>
       <c r="M7">
-        <v>-0.5794120146977635</v>
+        <v>-1.957908663915831</v>
       </c>
       <c r="N7">
-        <v>0.2596821612950789</v>
+        <v>0.792827027045353</v>
       </c>
       <c r="O7">
-        <v>-0.3003277053638396</v>
+        <v>0.805043477173836</v>
       </c>
       <c r="P7">
-        <v>0.01124606824477587</v>
+        <v>0.01306100108344238</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="R7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>999</v>
+        <v>563</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>0.9433473179903303</v>
+        <v>0.6631336621478953</v>
       </c>
       <c r="E8">
-        <v>0.9605838377511718</v>
+        <v>0.3092124477692781</v>
       </c>
       <c r="F8">
-        <v>0.002352608166175088</v>
+        <v>0.001985922181383293</v>
       </c>
       <c r="G8">
-        <v>31.58944381961059</v>
+        <v>27.04968328932389</v>
       </c>
       <c r="H8">
-        <v>-0.9872437492754144</v>
+        <v>-2.470042346457451</v>
       </c>
       <c r="I8">
-        <v>1.209863351453948E-57</v>
+        <v>7.67651568380542E-46</v>
       </c>
       <c r="J8">
-        <v>20.54999923706055</v>
+        <v>12.4399995803833</v>
       </c>
       <c r="K8">
-        <v>12.89000034332275</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="L8">
-        <v>1.734484729257829</v>
+        <v>2.00437834291607</v>
       </c>
       <c r="M8">
-        <v>-2.184854258545435</v>
+        <v>-1.210617823321032</v>
       </c>
       <c r="N8">
-        <v>0.8108182839013408</v>
+        <v>0.5844987718492238</v>
       </c>
       <c r="O8">
-        <v>1.686127684553288</v>
+        <v>-0.7280460045236321</v>
       </c>
       <c r="P8">
-        <v>0.01128448574490452</v>
+        <v>0.01328957700812901</v>
       </c>
       <c r="Q8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1920</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="D9">
-        <v>0.5466833079629143</v>
+        <v>0.8730908519800673</v>
       </c>
       <c r="E9">
-        <v>0.8718477245977838</v>
+        <v>0.9582373793670387</v>
       </c>
       <c r="F9">
-        <v>0.0005545529211006136</v>
+        <v>0.001853609239205479</v>
       </c>
       <c r="G9">
-        <v>2.614213199836143</v>
+        <v>0.793799647823497</v>
       </c>
       <c r="H9">
-        <v>0.1242208509694445</v>
+        <v>0.3656668958756292</v>
       </c>
       <c r="I9">
-        <v>6.586853975283844E-27</v>
+        <v>1.577425543208283E-56</v>
       </c>
       <c r="J9">
-        <v>6.599999904632568</v>
+        <v>11.31999969482422</v>
       </c>
       <c r="K9">
-        <v>34.68999862670898</v>
+        <v>29.75</v>
       </c>
       <c r="L9">
-        <v>0.6682487650002074</v>
+        <v>0.7528224249487572</v>
       </c>
       <c r="M9">
-        <v>-0.5965892068633831</v>
+        <v>-0.6778943988976494</v>
       </c>
       <c r="N9">
-        <v>0.2717073362741044</v>
+        <v>0.2909207025680989</v>
       </c>
       <c r="O9">
-        <v>-0.3234344447422264</v>
+        <v>-0.3523901052992464</v>
       </c>
       <c r="P9">
-        <v>0.01193485010126959</v>
+        <v>0.01335342680132449</v>
       </c>
       <c r="Q9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R9" t="s">
         <v>30</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2303</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -991,43 +991,43 @@
         <v>31</v>
       </c>
       <c r="D10">
-        <v>0.971100930750649</v>
+        <v>0.6360902048763795</v>
       </c>
       <c r="E10">
-        <v>0.8945148829383159</v>
+        <v>0.9508320978474861</v>
       </c>
       <c r="F10">
-        <v>5.343196765475125E-05</v>
+        <v>0.001544465569814176</v>
       </c>
       <c r="G10">
-        <v>17.7423831236319</v>
+        <v>4.050064936757655</v>
       </c>
       <c r="H10">
-        <v>4.286776592143712</v>
+        <v>0.3556396385426062</v>
       </c>
       <c r="I10">
-        <v>3.167529855844696E-63</v>
+        <v>1.608782479480106E-40</v>
       </c>
       <c r="J10">
-        <v>29.27000045776367</v>
+        <v>11.06999969482422</v>
       </c>
       <c r="K10">
-        <v>2.890000104904175</v>
+        <v>22.06999969482422</v>
       </c>
       <c r="L10">
-        <v>1.537919534364661</v>
+        <v>0.8689182861411062</v>
       </c>
       <c r="M10">
-        <v>-1.793535888483927</v>
+        <v>-1.231097244631913</v>
       </c>
       <c r="N10">
-        <v>0.6501301738401083</v>
+        <v>0.4727798826067574</v>
       </c>
       <c r="O10">
-        <v>-0.8611674668643143</v>
+        <v>-0.8290319560361512</v>
       </c>
       <c r="P10">
-        <v>0.01216063626297988</v>
+        <v>0.01351141120437854</v>
       </c>
       <c r="Q10" t="s">
         <v>23</v>
@@ -1038,55 +1038,55 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1941</v>
+        <v>1972</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
       </c>
       <c r="D11">
-        <v>0.5466833079629143</v>
+        <v>0.510535079802718</v>
       </c>
       <c r="E11">
-        <v>0.9346280135340692</v>
+        <v>0.9503739518221554</v>
       </c>
       <c r="F11">
-        <v>0.0006483619615482534</v>
+        <v>0.00183030033264596</v>
       </c>
       <c r="G11">
-        <v>5.86757042594474</v>
+        <v>6.024890106337558</v>
       </c>
       <c r="H11">
-        <v>0.09648815296285959</v>
+        <v>0.08945148256538302</v>
       </c>
       <c r="I11">
-        <v>2.154900737268853E-25</v>
+        <v>6.327824440843936E-24</v>
       </c>
       <c r="J11">
-        <v>6.599999904632568</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="K11">
-        <v>10.82999992370605</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="L11">
-        <v>0.6137197229071303</v>
+        <v>0.7142829745187207</v>
       </c>
       <c r="M11">
-        <v>-0.8542643099897829</v>
+        <v>-0.7932472544687297</v>
       </c>
       <c r="N11">
-        <v>0.2789419810300551</v>
+        <v>0.2897515647501349</v>
       </c>
       <c r="O11">
-        <v>-0.3125372105384787</v>
+        <v>-0.3286959897077745</v>
       </c>
       <c r="P11">
-        <v>0.01294701353592382</v>
+        <v>0.01368941278837245</v>
       </c>
       <c r="Q11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R11" t="s">
         <v>32</v>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -70,46 +70,49 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>BBDC3</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>BRFS3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
     <t>ABEV3</t>
   </si>
   <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
   </si>
   <si>
     <t>BBDC4</t>
   </si>
   <si>
-    <t>ASAI3</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
     <t>CIEL3</t>
   </si>
   <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
     <t>COGN3</t>
   </si>
   <si>
-    <t>ENGI11</t>
-  </si>
-  <si>
-    <t>CSAN3</t>
-  </si>
-  <si>
     <t>ELET6</t>
   </si>
   <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
+    <t>ELET3</t>
   </si>
   <si>
     <t>YDUQ3</t>
@@ -534,58 +537,58 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>4</v>
+        <v>478</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.8730908519800673</v>
+        <v>0.8114121908236945</v>
       </c>
       <c r="E2">
-        <v>0.7961633222540396</v>
+        <v>0.6940590194751914</v>
       </c>
       <c r="F2">
-        <v>2.343320885179943E-07</v>
+        <v>0.0002912175917302336</v>
       </c>
       <c r="G2">
-        <v>5.061515607970387</v>
+        <v>0.04621394423918757</v>
       </c>
       <c r="H2">
-        <v>0.6198146680908191</v>
+        <v>0.8901629307206445</v>
       </c>
       <c r="I2">
-        <v>1.005823355603996E-81</v>
+        <v>2.987082019967121E-133</v>
       </c>
       <c r="J2">
-        <v>11.31999969482422</v>
+        <v>11.17000007629395</v>
       </c>
       <c r="K2">
-        <v>10.51000022888184</v>
+        <v>12.34000015258789</v>
       </c>
       <c r="L2">
-        <v>0.6885707041345768</v>
+        <v>0.3996455944356114</v>
       </c>
       <c r="M2">
-        <v>-0.3488652782042507</v>
+        <v>-0.3026832581981438</v>
       </c>
       <c r="N2">
-        <v>0.187524121594356</v>
+        <v>0.1142971153052479</v>
       </c>
       <c r="O2">
-        <v>-0.2557682166449959</v>
+        <v>0.1391754311339213</v>
       </c>
       <c r="P2">
-        <v>0.006590064800463413</v>
+        <v>0.01076261708545341</v>
       </c>
       <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -596,108 +599,108 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.7961633222540396</v>
+        <v>0.8034034949812869</v>
       </c>
       <c r="E3">
-        <v>0.3092124477692781</v>
+        <v>0.3234635782874495</v>
       </c>
       <c r="F3">
-        <v>4.799828170178834E-05</v>
+        <v>0.0002025618122450643</v>
       </c>
       <c r="G3">
-        <v>24.843785088041</v>
+        <v>25.16452660073881</v>
       </c>
       <c r="H3">
-        <v>-2.455693928982576</v>
+        <v>-2.516812935785286</v>
       </c>
       <c r="I3">
-        <v>1.938919383104067E-63</v>
+        <v>1.06132103637563E-65</v>
       </c>
       <c r="J3">
-        <v>10.51000022888184</v>
+        <v>10.31999969482422</v>
       </c>
       <c r="K3">
-        <v>5.619999885559082</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="L3">
-        <v>1.037388853648649</v>
+        <v>1.011664540417316</v>
       </c>
       <c r="M3">
-        <v>-1.336689519377011</v>
+        <v>-1.07460682638399</v>
       </c>
       <c r="N3">
-        <v>0.4030851286677737</v>
+        <v>0.3898941981330104</v>
       </c>
       <c r="O3">
-        <v>-0.5327852593089499</v>
+        <v>-0.6748697894170448</v>
       </c>
       <c r="P3">
-        <v>0.01052171608372512</v>
+        <v>0.01077462936760349</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
+        <v>2630</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.8730908519800673</v>
+        <v>0.7026967238939261</v>
       </c>
       <c r="E4">
-        <v>0.77447408120165</v>
+        <v>0.8358666969321009</v>
       </c>
       <c r="F4">
-        <v>0.0006800049096554835</v>
+        <v>0.004300911390288039</v>
       </c>
       <c r="G4">
-        <v>9.290311613946756</v>
+        <v>12.27493083854935</v>
       </c>
       <c r="H4">
-        <v>1.321531302971086</v>
+        <v>1.881203592985459</v>
       </c>
       <c r="I4">
-        <v>3.928344701346851E-71</v>
+        <v>4.245783860696001E-66</v>
       </c>
       <c r="J4">
-        <v>11.31999969482422</v>
+        <v>20.26000022888184</v>
       </c>
       <c r="K4">
-        <v>1.779999971389771</v>
+        <v>4</v>
       </c>
       <c r="L4">
-        <v>0.8162140366108481</v>
+        <v>1.199549348078222</v>
       </c>
       <c r="M4">
-        <v>-0.3940533801800008</v>
+        <v>-0.9371304841810861</v>
       </c>
       <c r="N4">
-        <v>0.2255531835576491</v>
+        <v>0.4264033672931553</v>
       </c>
       <c r="O4">
-        <v>-0.3226376006017557</v>
+        <v>0.46025501839065</v>
       </c>
       <c r="P4">
-        <v>0.01129508956500982</v>
+        <v>0.01103537451773044</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -705,335 +708,335 @@
         <v>1009</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>0.9485379085464092</v>
+        <v>0.9557452232922538</v>
       </c>
       <c r="E5">
-        <v>0.5917223716434318</v>
+        <v>0.6581927247466139</v>
       </c>
       <c r="F5">
-        <v>0.0008960850412355177</v>
+        <v>0.0006377001944814634</v>
       </c>
       <c r="G5">
-        <v>52.17641674468401</v>
+        <v>52.50165288838961</v>
       </c>
       <c r="H5">
-        <v>-0.7400656102074603</v>
+        <v>-0.7464145437615661</v>
       </c>
       <c r="I5">
-        <v>2.762424875047782E-43</v>
+        <v>1.341576092263375E-43</v>
       </c>
       <c r="J5">
-        <v>20.72999954223633</v>
+        <v>20.79999923706055</v>
       </c>
       <c r="K5">
-        <v>45.20000076293945</v>
+        <v>44.61000061035156</v>
       </c>
       <c r="L5">
-        <v>2.335307413264552</v>
+        <v>2.331708242441174</v>
       </c>
       <c r="M5">
-        <v>-2.770535800825407</v>
+        <v>-2.778388745504785</v>
       </c>
       <c r="N5">
-        <v>1.055158927608633</v>
+        <v>1.063623243611012</v>
       </c>
       <c r="O5">
-        <v>2.004548943554774</v>
+        <v>1.59589960144968</v>
       </c>
       <c r="P5">
-        <v>0.01136642526962386</v>
+        <v>0.0112448509505637</v>
       </c>
       <c r="Q5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>999</v>
+        <v>2303</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.9485379085464092</v>
+        <v>0.9666055545503682</v>
       </c>
       <c r="E6">
-        <v>0.9467316851845967</v>
+        <v>0.8946237566833227</v>
       </c>
       <c r="F6">
-        <v>0.004041158006024499</v>
+        <v>5.524531638357929E-05</v>
       </c>
       <c r="G6">
-        <v>31.74859529298659</v>
+        <v>17.65967370389655</v>
       </c>
       <c r="H6">
-        <v>-0.9954934843540513</v>
+        <v>4.304255514855795</v>
       </c>
       <c r="I6">
-        <v>6.76717477554369E-58</v>
+        <v>1.514241450781569E-64</v>
       </c>
       <c r="J6">
-        <v>20.72999954223633</v>
+        <v>29.20999908447266</v>
       </c>
       <c r="K6">
-        <v>13.19999980926514</v>
+        <v>2.869999885559082</v>
       </c>
       <c r="L6">
-        <v>2.121918052847903</v>
+        <v>1.562362941835723</v>
       </c>
       <c r="M6">
-        <v>-2.201993323121005</v>
+        <v>-1.764311971247402</v>
       </c>
       <c r="N6">
-        <v>0.818118932557463</v>
+        <v>0.6432946745946493</v>
       </c>
       <c r="O6">
-        <v>2.121918052847901</v>
+        <v>-0.8028874544770748</v>
       </c>
       <c r="P6">
-        <v>0.01231653992785252</v>
+        <v>0.01128798323416742</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>867</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.5606755213628324</v>
+        <v>0.8678562208764153</v>
       </c>
       <c r="E7">
-        <v>0.7474019190914261</v>
+        <v>0.8260512233502119</v>
       </c>
       <c r="F7">
-        <v>0.001713090513931083</v>
+        <v>0.0006374081599140864</v>
       </c>
       <c r="G7">
-        <v>0.8364621610382983</v>
+        <v>9.272895494814893</v>
       </c>
       <c r="H7">
-        <v>0.7956825462412083</v>
+        <v>1.328031423334634</v>
       </c>
       <c r="I7">
-        <v>2.109073497388603E-53</v>
+        <v>4.263727224632739E-71</v>
       </c>
       <c r="J7">
-        <v>32.88000106811523</v>
+        <v>11.38000011444092</v>
       </c>
       <c r="K7">
-        <v>39.2599983215332</v>
+        <v>1.769999980926514</v>
       </c>
       <c r="L7">
-        <v>2.28010077053974</v>
+        <v>0.8171848514089035</v>
       </c>
       <c r="M7">
-        <v>-1.957908663915831</v>
+        <v>-0.3874274606346635</v>
       </c>
       <c r="N7">
-        <v>0.792827027045353</v>
+        <v>0.2264103799749235</v>
       </c>
       <c r="O7">
-        <v>0.805043477173836</v>
+        <v>-0.2435109743460879</v>
       </c>
       <c r="P7">
-        <v>0.01306100108344238</v>
+        <v>0.01135409829659516</v>
       </c>
       <c r="Q7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>563</v>
+        <v>1921</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.6631336621478953</v>
+        <v>0.6401023089894098</v>
       </c>
       <c r="E8">
-        <v>0.3092124477692781</v>
+        <v>0.7683194804646135</v>
       </c>
       <c r="F8">
-        <v>0.001985922181383293</v>
+        <v>0.0005325442052230191</v>
       </c>
       <c r="G8">
-        <v>27.04968328932389</v>
+        <v>0.8854682148330077</v>
       </c>
       <c r="H8">
-        <v>-2.470042346457451</v>
+        <v>0.1541410517165923</v>
       </c>
       <c r="I8">
-        <v>7.67651568380542E-46</v>
+        <v>1.288994115905707E-31</v>
       </c>
       <c r="J8">
-        <v>12.4399995803833</v>
+        <v>6.579999923706055</v>
       </c>
       <c r="K8">
-        <v>5.619999885559082</v>
+        <v>39.06000137329102</v>
       </c>
       <c r="L8">
-        <v>2.00437834291607</v>
+        <v>0.589713033535773</v>
       </c>
       <c r="M8">
-        <v>-1.210617823321032</v>
+        <v>-0.588276989319878</v>
       </c>
       <c r="N8">
-        <v>0.5844987718492238</v>
+        <v>0.2583358360635535</v>
       </c>
       <c r="O8">
-        <v>-0.7280460045236321</v>
+        <v>-0.3262179828575684</v>
       </c>
       <c r="P8">
-        <v>0.01328957700812901</v>
+        <v>0.01160111019817506</v>
       </c>
       <c r="Q8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>35</v>
+        <v>1920</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.8730908519800673</v>
+        <v>0.6401023089894098</v>
       </c>
       <c r="E9">
-        <v>0.9582373793670387</v>
+        <v>0.8682672924370591</v>
       </c>
       <c r="F9">
-        <v>0.001853609239205479</v>
+        <v>0.0006461450070318918</v>
       </c>
       <c r="G9">
-        <v>0.793799647823497</v>
+        <v>2.44782016352318</v>
       </c>
       <c r="H9">
-        <v>0.3656668958756292</v>
+        <v>0.128437654508566</v>
       </c>
       <c r="I9">
-        <v>1.577425543208283E-56</v>
+        <v>2.579377551412005E-29</v>
       </c>
       <c r="J9">
-        <v>11.31999969482422</v>
+        <v>6.579999923706055</v>
       </c>
       <c r="K9">
-        <v>29.75</v>
+        <v>34.83000183105469</v>
       </c>
       <c r="L9">
-        <v>0.7528224249487572</v>
+        <v>0.6792525973308754</v>
       </c>
       <c r="M9">
-        <v>-0.6778943988976494</v>
+        <v>-0.609075993094593</v>
       </c>
       <c r="N9">
-        <v>0.2909207025680989</v>
+        <v>0.2688708377139502</v>
       </c>
       <c r="O9">
-        <v>-0.3523901052992464</v>
+        <v>-0.3413039815268473</v>
       </c>
       <c r="P9">
-        <v>0.01335342680132449</v>
+        <v>0.01208172859807685</v>
       </c>
       <c r="Q9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>237</v>
+        <v>2256</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>0.6360902048763795</v>
+        <v>0.6581927247466139</v>
       </c>
       <c r="E10">
-        <v>0.9508320978474861</v>
+        <v>0.8946237566833227</v>
       </c>
       <c r="F10">
-        <v>0.001544465569814176</v>
+        <v>0.001040240320797672</v>
       </c>
       <c r="G10">
-        <v>4.050064936757655</v>
+        <v>29.60876750410602</v>
       </c>
       <c r="H10">
-        <v>0.3556396385426062</v>
+        <v>5.641340974049008</v>
       </c>
       <c r="I10">
-        <v>1.608782479480106E-40</v>
+        <v>1.863898340196969E-54</v>
       </c>
       <c r="J10">
-        <v>11.06999969482422</v>
+        <v>44.61000061035156</v>
       </c>
       <c r="K10">
-        <v>22.06999969482422</v>
+        <v>2.869999885559082</v>
       </c>
       <c r="L10">
-        <v>0.8689182861411062</v>
+        <v>2.433341355671772</v>
       </c>
       <c r="M10">
-        <v>-1.231097244631913</v>
+        <v>-2.247484931713842</v>
       </c>
       <c r="N10">
-        <v>0.4727798826067574</v>
+        <v>1.033086118480365</v>
       </c>
       <c r="O10">
-        <v>-0.8290319560361512</v>
+        <v>-1.189414843674875</v>
       </c>
       <c r="P10">
-        <v>0.01351141120437854</v>
+        <v>0.01283239671727157</v>
       </c>
       <c r="Q10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1044,52 +1047,52 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.510535079802718</v>
+        <v>0.6401023089894098</v>
       </c>
       <c r="E11">
-        <v>0.9503739518221554</v>
+        <v>0.9292240372894467</v>
       </c>
       <c r="F11">
-        <v>0.00183030033264596</v>
+        <v>0.0006473554185262023</v>
       </c>
       <c r="G11">
-        <v>6.024890106337558</v>
+        <v>5.97550079887041</v>
       </c>
       <c r="H11">
-        <v>0.08945148256538302</v>
+        <v>0.09239204573259617</v>
       </c>
       <c r="I11">
-        <v>6.327824440843936E-24</v>
+        <v>1.990864568718236E-25</v>
       </c>
       <c r="J11">
-        <v>6.690000057220459</v>
+        <v>6.579999923706055</v>
       </c>
       <c r="K11">
-        <v>11.10999965667725</v>
+        <v>10.78999996185303</v>
       </c>
       <c r="L11">
-        <v>0.7142829745187207</v>
+        <v>0.7268270262859016</v>
       </c>
       <c r="M11">
-        <v>-0.7932472544687297</v>
+        <v>-0.8043220600440302</v>
       </c>
       <c r="N11">
-        <v>0.2897515647501349</v>
+        <v>0.2876365911330654</v>
       </c>
       <c r="O11">
-        <v>-0.3286959897077745</v>
+        <v>-0.3924110450945912</v>
       </c>
       <c r="P11">
-        <v>0.01368941278837245</v>
+        <v>0.01283445359687978</v>
       </c>
       <c r="Q11" t="s">
         <v>24</v>
       </c>
       <c r="R11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>N</t>
   </si>
@@ -70,43 +70,34 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>BBDC3</t>
-  </si>
-  <si>
     <t>B3SA3</t>
   </si>
   <si>
+    <t>BRFS3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
     <t>IGTI11</t>
   </si>
   <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
     <t>DXCO3</t>
   </si>
   <si>
     <t>ENGI11</t>
   </si>
   <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
     <t>CIEL3</t>
   </si>
   <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
     <t>LWSA3</t>
   </si>
   <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>COGN3</t>
+    <t>YDUQ3</t>
   </si>
   <si>
     <t>ELET6</t>
@@ -115,7 +106,7 @@
     <t>ELET3</t>
   </si>
   <si>
-    <t>YDUQ3</t>
+    <t>MGLU3</t>
   </si>
 </sst>
 </file>
@@ -537,223 +528,223 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>478</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>0.8114121908236945</v>
+        <v>0.8184444190444193</v>
       </c>
       <c r="E2">
-        <v>0.6940590194751914</v>
+        <v>0.3233335876588042</v>
       </c>
       <c r="F2">
-        <v>0.0002912175917302336</v>
+        <v>0.0002710004574000423</v>
       </c>
       <c r="G2">
-        <v>0.04621394423918757</v>
+        <v>25.22643778680068</v>
       </c>
       <c r="H2">
-        <v>0.8901629307206445</v>
+        <v>-2.529853737660128</v>
       </c>
       <c r="I2">
-        <v>2.987082019967121E-133</v>
+        <v>5.666869801488625E-66</v>
       </c>
       <c r="J2">
-        <v>11.17000007629395</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="K2">
-        <v>12.34000015258789</v>
+        <v>5.639999866485596</v>
       </c>
       <c r="L2">
-        <v>0.3996455944356114</v>
+        <v>1.01270135264277</v>
       </c>
       <c r="M2">
-        <v>-0.3026832581981438</v>
+        <v>-1.081704285465765</v>
       </c>
       <c r="N2">
-        <v>0.1142971153052479</v>
+        <v>0.393687933600323</v>
       </c>
       <c r="O2">
-        <v>0.1391754311339213</v>
+        <v>-0.738062777140664</v>
       </c>
       <c r="P2">
-        <v>0.01076261708545341</v>
+        <v>0.01106244085513088</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>335</v>
+        <v>1009</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>0.8034034949812869</v>
+        <v>0.9654907307882402</v>
       </c>
       <c r="E3">
-        <v>0.3234635782874495</v>
+        <v>0.6573694505601938</v>
       </c>
       <c r="F3">
-        <v>0.0002025618122450643</v>
+        <v>0.0007614849123714572</v>
       </c>
       <c r="G3">
-        <v>25.16452660073881</v>
+        <v>52.93256282694235</v>
       </c>
       <c r="H3">
-        <v>-2.516812935785286</v>
+        <v>-0.7549689052341988</v>
       </c>
       <c r="I3">
-        <v>1.06132103637563E-65</v>
+        <v>2.452498628635479E-44</v>
       </c>
       <c r="J3">
-        <v>10.31999969482422</v>
+        <v>21.10000038146973</v>
       </c>
       <c r="K3">
-        <v>5.630000114440918</v>
+        <v>44.61000061035156</v>
       </c>
       <c r="L3">
-        <v>1.011664540417316</v>
+        <v>2.334162254786719</v>
       </c>
       <c r="M3">
-        <v>-1.07460682638399</v>
+        <v>-2.781666139682407</v>
       </c>
       <c r="N3">
-        <v>0.3898941981330104</v>
+        <v>1.071843072277023</v>
       </c>
       <c r="O3">
-        <v>-0.6748697894170448</v>
+        <v>1.846600877821437</v>
       </c>
       <c r="P3">
-        <v>0.01077462936760349</v>
+        <v>0.01140867701302787</v>
       </c>
       <c r="Q3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2630</v>
+        <v>2303</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>0.7026967238939261</v>
+        <v>0.9693802922647535</v>
       </c>
       <c r="E4">
-        <v>0.8358666969321009</v>
+        <v>0.8934512094803488</v>
       </c>
       <c r="F4">
-        <v>0.004300911390288039</v>
+        <v>7.115164763197104E-05</v>
       </c>
       <c r="G4">
-        <v>12.27493083854935</v>
+        <v>17.5855101745522</v>
       </c>
       <c r="H4">
-        <v>1.881203592985459</v>
+        <v>4.324130319763724</v>
       </c>
       <c r="I4">
-        <v>4.245783860696001E-66</v>
+        <v>3.529528524189266E-65</v>
       </c>
       <c r="J4">
-        <v>20.26000022888184</v>
+        <v>29.10000038146973</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>2.869999885559082</v>
       </c>
       <c r="L4">
-        <v>1.199549348078222</v>
+        <v>1.570273782407945</v>
       </c>
       <c r="M4">
-        <v>-0.9371304841810861</v>
+        <v>-1.750965343784074</v>
       </c>
       <c r="N4">
-        <v>0.4264033672931553</v>
+        <v>0.6456158815231715</v>
       </c>
       <c r="O4">
-        <v>0.46025501839065</v>
+        <v>-0.8957633159469243</v>
       </c>
       <c r="P4">
-        <v>0.01103537451773044</v>
+        <v>0.01145321052486858</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1009</v>
+        <v>2630</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>0.9557452232922538</v>
+        <v>0.6371710390493626</v>
       </c>
       <c r="E5">
-        <v>0.6581927247466139</v>
+        <v>0.8515417220738146</v>
       </c>
       <c r="F5">
-        <v>0.0006377001944814634</v>
+        <v>0.004232441938426836</v>
       </c>
       <c r="G5">
-        <v>52.50165288838961</v>
+        <v>12.3797516561634</v>
       </c>
       <c r="H5">
-        <v>-0.7464145437615661</v>
+        <v>1.862442489494621</v>
       </c>
       <c r="I5">
-        <v>1.341576092263375E-43</v>
+        <v>4.258458421934923E-66</v>
       </c>
       <c r="J5">
-        <v>20.79999923706055</v>
+        <v>20.54000091552734</v>
       </c>
       <c r="K5">
-        <v>44.61000061035156</v>
+        <v>3.940000057220459</v>
       </c>
       <c r="L5">
-        <v>2.331708242441174</v>
+        <v>1.198102214992758</v>
       </c>
       <c r="M5">
-        <v>-2.778388745504785</v>
+        <v>-0.9475829472999919</v>
       </c>
       <c r="N5">
-        <v>1.063623243611012</v>
+        <v>0.4308933105943908</v>
       </c>
       <c r="O5">
-        <v>1.59589960144968</v>
+        <v>0.8222257441853182</v>
       </c>
       <c r="P5">
-        <v>0.0112448509505637</v>
+        <v>0.01153644894849084</v>
       </c>
       <c r="Q5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R5" t="s">
         <v>21</v>
@@ -761,338 +752,338 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2303</v>
+        <v>2662</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.9666055545503682</v>
+        <v>0.6371710390493626</v>
       </c>
       <c r="E6">
-        <v>0.8946237566833227</v>
+        <v>0.9270198808912207</v>
       </c>
       <c r="F6">
-        <v>5.524531638357929E-05</v>
+        <v>0.0003571485297845485</v>
       </c>
       <c r="G6">
-        <v>17.65967370389655</v>
+        <v>16.20156415038007</v>
       </c>
       <c r="H6">
-        <v>4.304255514855795</v>
+        <v>0.3476029444872959</v>
       </c>
       <c r="I6">
-        <v>1.514241450781569E-64</v>
+        <v>6.916224448555465E-66</v>
       </c>
       <c r="J6">
-        <v>29.20999908447266</v>
+        <v>20.54000091552734</v>
       </c>
       <c r="K6">
-        <v>2.869999885559082</v>
+        <v>10.64999961853027</v>
       </c>
       <c r="L6">
-        <v>1.562362941835723</v>
+        <v>1.097591734542377</v>
       </c>
       <c r="M6">
-        <v>-1.764311971247402</v>
+        <v>-1.034932983412407</v>
       </c>
       <c r="N6">
-        <v>0.6432946745946493</v>
+        <v>0.43246594209585</v>
       </c>
       <c r="O6">
-        <v>-0.8028874544770748</v>
+        <v>0.6364655389575775</v>
       </c>
       <c r="P6">
-        <v>0.01128798323416742</v>
+        <v>0.0115821223104525</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="R6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>20</v>
+        <v>1921</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.8678562208764153</v>
+        <v>0.6426266371438825</v>
       </c>
       <c r="E7">
-        <v>0.8260512233502119</v>
+        <v>0.7742750726029974</v>
       </c>
       <c r="F7">
-        <v>0.0006374081599140864</v>
+        <v>0.0005135746240167493</v>
       </c>
       <c r="G7">
-        <v>9.272895494814893</v>
+        <v>0.8026160834286413</v>
       </c>
       <c r="H7">
-        <v>1.328031423334634</v>
+        <v>0.156002399956338</v>
       </c>
       <c r="I7">
-        <v>4.263727224632739E-71</v>
+        <v>1.315744647619239E-32</v>
       </c>
       <c r="J7">
-        <v>11.38000011444092</v>
+        <v>6.590000152587891</v>
       </c>
       <c r="K7">
-        <v>1.769999980926514</v>
+        <v>39</v>
       </c>
       <c r="L7">
-        <v>0.8171848514089035</v>
+        <v>0.5894267376194522</v>
       </c>
       <c r="M7">
-        <v>-0.3874274606346635</v>
+        <v>-0.5899527852758109</v>
       </c>
       <c r="N7">
-        <v>0.2264103799749235</v>
+        <v>0.2586846080462262</v>
       </c>
       <c r="O7">
-        <v>-0.2435109743460879</v>
+        <v>-0.2967095291379334</v>
       </c>
       <c r="P7">
-        <v>0.01135409829659516</v>
+        <v>0.01167932823656784</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.6401023089894098</v>
+        <v>0.6426266371438825</v>
       </c>
       <c r="E8">
-        <v>0.7683194804646135</v>
+        <v>0.8780018028330256</v>
       </c>
       <c r="F8">
-        <v>0.0005325442052230191</v>
+        <v>0.0006024739126955219</v>
       </c>
       <c r="G8">
-        <v>0.8854682148330077</v>
+        <v>2.380822657663917</v>
       </c>
       <c r="H8">
-        <v>0.1541410517165923</v>
+        <v>0.1300640811086649</v>
       </c>
       <c r="I8">
-        <v>1.288994115905707E-31</v>
+        <v>2.610681963837244E-30</v>
       </c>
       <c r="J8">
-        <v>6.579999923706055</v>
+        <v>6.590000152587891</v>
       </c>
       <c r="K8">
-        <v>39.06000137329102</v>
+        <v>34.65000152587891</v>
       </c>
       <c r="L8">
-        <v>0.589713033535773</v>
+        <v>0.686316285458223</v>
       </c>
       <c r="M8">
-        <v>-0.588276989319878</v>
+        <v>-0.6110726670465709</v>
       </c>
       <c r="N8">
-        <v>0.2583358360635535</v>
+        <v>0.2691380359322654</v>
       </c>
       <c r="O8">
-        <v>-0.3262179828575684</v>
+        <v>-0.2975431139533038</v>
       </c>
       <c r="P8">
-        <v>0.01160111019817506</v>
+        <v>0.01214601540908724</v>
       </c>
       <c r="Q8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1920</v>
+        <v>2256</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>0.6401023089894098</v>
+        <v>0.6573694505601938</v>
       </c>
       <c r="E9">
-        <v>0.8682672924370591</v>
+        <v>0.8934512094803488</v>
       </c>
       <c r="F9">
-        <v>0.0006461450070318918</v>
+        <v>0.001034550390669166</v>
       </c>
       <c r="G9">
-        <v>2.44782016352318</v>
+        <v>29.51213869137592</v>
       </c>
       <c r="H9">
-        <v>0.128437654508566</v>
+        <v>5.667236162728891</v>
       </c>
       <c r="I9">
-        <v>2.579377551412005E-29</v>
+        <v>4.005484490646215E-55</v>
       </c>
       <c r="J9">
-        <v>6.579999923706055</v>
+        <v>44.61000061035156</v>
       </c>
       <c r="K9">
-        <v>34.83000183105469</v>
+        <v>2.869999885559082</v>
       </c>
       <c r="L9">
-        <v>0.6792525973308754</v>
+        <v>2.443648522264901</v>
       </c>
       <c r="M9">
-        <v>-0.609075993094593</v>
+        <v>-2.259114438126517</v>
       </c>
       <c r="N9">
-        <v>0.2688708377139502</v>
+        <v>1.034235951229101</v>
       </c>
       <c r="O9">
-        <v>-0.3413039815268473</v>
+        <v>-1.167105219492562</v>
       </c>
       <c r="P9">
-        <v>0.01208172859807685</v>
+        <v>0.01292985208568112</v>
       </c>
       <c r="Q9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2256</v>
+        <v>1972</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>0.6581927247466139</v>
+        <v>0.6426266371438825</v>
       </c>
       <c r="E10">
-        <v>0.8946237566833227</v>
+        <v>0.9270198808912207</v>
       </c>
       <c r="F10">
-        <v>0.001040240320797672</v>
+        <v>0.0006212758353025</v>
       </c>
       <c r="G10">
-        <v>29.60876750410602</v>
+        <v>5.94873443794352</v>
       </c>
       <c r="H10">
-        <v>5.641340974049008</v>
+        <v>0.09379431899934179</v>
       </c>
       <c r="I10">
-        <v>1.863898340196969E-54</v>
+        <v>2.530379840708485E-26</v>
       </c>
       <c r="J10">
-        <v>44.61000061035156</v>
+        <v>6.590000152587891</v>
       </c>
       <c r="K10">
-        <v>2.869999885559082</v>
+        <v>10.64999961853027</v>
       </c>
       <c r="L10">
-        <v>2.433341355671772</v>
+        <v>0.7360229035549173</v>
       </c>
       <c r="M10">
-        <v>-2.247484931713842</v>
+        <v>-0.8063893627711893</v>
       </c>
       <c r="N10">
-        <v>1.033086118480365</v>
+        <v>0.2882720492741653</v>
       </c>
       <c r="O10">
-        <v>-1.189414843674875</v>
+        <v>-0.3576437469189259</v>
       </c>
       <c r="P10">
-        <v>0.01283239671727157</v>
+        <v>0.01294560260114568</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1972</v>
+        <v>1941</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>0.6401023089894098</v>
+        <v>0.6426266371438825</v>
       </c>
       <c r="E11">
-        <v>0.9292240372894467</v>
+        <v>0.8400074750418109</v>
       </c>
       <c r="F11">
-        <v>0.0006473554185262023</v>
+        <v>0.000480537263136829</v>
       </c>
       <c r="G11">
-        <v>5.97550079887041</v>
+        <v>5.747806114335789</v>
       </c>
       <c r="H11">
-        <v>0.09239204573259617</v>
+        <v>0.1033395804697804</v>
       </c>
       <c r="I11">
-        <v>1.990864568718236E-25</v>
+        <v>1.767028482357695E-29</v>
       </c>
       <c r="J11">
-        <v>6.579999923706055</v>
+        <v>6.590000152587891</v>
       </c>
       <c r="K11">
-        <v>10.78999996185303</v>
+        <v>11.47999954223633</v>
       </c>
       <c r="L11">
-        <v>0.7268270262859016</v>
+        <v>0.5944000613528129</v>
       </c>
       <c r="M11">
-        <v>-0.8043220600440302</v>
+        <v>-0.8806092434650168</v>
       </c>
       <c r="N11">
-        <v>0.2876365911330654</v>
+        <v>0.2730182210060613</v>
       </c>
       <c r="O11">
-        <v>-0.3924110450945912</v>
+        <v>-0.3441442982358716</v>
       </c>
       <c r="P11">
-        <v>0.01283445359687978</v>
+        <v>0.01296359580319195</v>
       </c>
       <c r="Q11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -70,43 +70,46 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>EZTC3</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
     <t>B3SA3</t>
   </si>
   <si>
-    <t>BRFS3</t>
+    <t>BEEF3</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>CIEL3</t>
+  </si>
+  <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
   </si>
   <si>
     <t>EQTL3</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
-    <t>ENGI11</t>
-  </si>
-  <si>
-    <t>CIEL3</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>MGLU3</t>
   </si>
 </sst>
 </file>
@@ -528,279 +531,279 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>335</v>
+        <v>2328</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.8184444190444193</v>
+        <v>0.5322063721241957</v>
       </c>
       <c r="E2">
-        <v>0.3233335876588042</v>
+        <v>0.5297647268542311</v>
       </c>
       <c r="F2">
-        <v>0.0002710004574000423</v>
+        <v>0.0007082771109183117</v>
       </c>
       <c r="G2">
-        <v>25.22643778680068</v>
+        <v>-7.094111948272759</v>
       </c>
       <c r="H2">
-        <v>-2.529853737660128</v>
+        <v>0.7112791839895178</v>
       </c>
       <c r="I2">
-        <v>5.666869801488625E-66</v>
+        <v>7.149653527909124E-65</v>
       </c>
       <c r="J2">
-        <v>10.22000026702881</v>
+        <v>13.18000030517578</v>
       </c>
       <c r="K2">
-        <v>5.639999866485596</v>
+        <v>29.31999969482422</v>
       </c>
       <c r="L2">
-        <v>1.01270135264277</v>
+        <v>1.295225092889297</v>
       </c>
       <c r="M2">
-        <v>-1.081704285465765</v>
+        <v>-1.426431170674778</v>
       </c>
       <c r="N2">
-        <v>0.393687933600323</v>
+        <v>0.5721503876026635</v>
       </c>
       <c r="O2">
-        <v>-0.738062777140664</v>
+        <v>-0.5805932040589425</v>
       </c>
       <c r="P2">
-        <v>0.01106244085513088</v>
+        <v>0.008544298267439783</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1009</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.9654907307882402</v>
+        <v>0.8220806323670686</v>
       </c>
       <c r="E3">
-        <v>0.6573694505601938</v>
+        <v>0.7694103047807094</v>
       </c>
       <c r="F3">
-        <v>0.0007614849123714572</v>
+        <v>0.0001742242739014014</v>
       </c>
       <c r="G3">
-        <v>52.93256282694235</v>
+        <v>3.151873542051867</v>
       </c>
       <c r="H3">
-        <v>-0.7549689052341988</v>
+        <v>0.3742439784618721</v>
       </c>
       <c r="I3">
-        <v>2.452498628635479E-44</v>
+        <v>4.351081607274694E-69</v>
       </c>
       <c r="J3">
-        <v>21.10000038146973</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="K3">
-        <v>44.61000061035156</v>
+        <v>23.03000068664551</v>
       </c>
       <c r="L3">
-        <v>2.334162254786719</v>
+        <v>0.7005686006829386</v>
       </c>
       <c r="M3">
-        <v>-2.781666139682407</v>
+        <v>-0.4715733102897435</v>
       </c>
       <c r="N3">
-        <v>1.071843072277023</v>
+        <v>0.2407520360044038</v>
       </c>
       <c r="O3">
-        <v>1.846600877821437</v>
+        <v>-0.3107125848547536</v>
       </c>
       <c r="P3">
-        <v>0.01140867701302787</v>
+        <v>0.01036283882765502</v>
       </c>
       <c r="Q3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2303</v>
+        <v>335</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.9693802922647535</v>
+        <v>0.7727196374634937</v>
       </c>
       <c r="E4">
-        <v>0.8934512094803488</v>
+        <v>0.3160055863923228</v>
       </c>
       <c r="F4">
-        <v>7.115164763197104E-05</v>
+        <v>0.0001874776845890093</v>
       </c>
       <c r="G4">
-        <v>17.5855101745522</v>
+        <v>25.27181966034793</v>
       </c>
       <c r="H4">
-        <v>4.324130319763724</v>
+        <v>-2.539412827599774</v>
       </c>
       <c r="I4">
-        <v>3.529528524189266E-65</v>
+        <v>1.750940720030625E-66</v>
       </c>
       <c r="J4">
-        <v>29.10000038146973</v>
+        <v>10.39999961853027</v>
       </c>
       <c r="K4">
-        <v>2.869999885559082</v>
+        <v>5.639999866485596</v>
       </c>
       <c r="L4">
-        <v>1.570273782407945</v>
+        <v>1.013460542096521</v>
       </c>
       <c r="M4">
-        <v>-1.750965343784074</v>
+        <v>-1.086907373294787</v>
       </c>
       <c r="N4">
-        <v>0.6456158815231715</v>
+        <v>0.3951019001484517</v>
       </c>
       <c r="O4">
-        <v>-0.8957633159469243</v>
+        <v>-0.5495320332031213</v>
       </c>
       <c r="P4">
-        <v>0.01145321052486858</v>
+        <v>0.01102136585750551</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2630</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.6371710390493626</v>
+        <v>0.8220806323670686</v>
       </c>
       <c r="E5">
-        <v>0.8515417220738146</v>
+        <v>0.765618504000084</v>
       </c>
       <c r="F5">
-        <v>0.004232441938426836</v>
+        <v>0.0006908485280967149</v>
       </c>
       <c r="G5">
-        <v>12.3797516561634</v>
+        <v>9.250153922711295</v>
       </c>
       <c r="H5">
-        <v>1.862442489494621</v>
+        <v>1.335742533159451</v>
       </c>
       <c r="I5">
-        <v>4.258458421934923E-66</v>
+        <v>1.387175787664809E-72</v>
       </c>
       <c r="J5">
-        <v>20.54000091552734</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="K5">
-        <v>3.940000057220459</v>
+        <v>1.879999995231628</v>
       </c>
       <c r="L5">
-        <v>1.198102214992758</v>
+        <v>0.8204173158763322</v>
       </c>
       <c r="M5">
-        <v>-0.9475829472999919</v>
+        <v>-0.377486330582876</v>
       </c>
       <c r="N5">
-        <v>0.4308933105943908</v>
+        <v>0.226723580804749</v>
       </c>
       <c r="O5">
-        <v>0.8222257441853182</v>
+        <v>-0.301349840534773</v>
       </c>
       <c r="P5">
-        <v>0.01153644894849084</v>
+        <v>0.01149775995792175</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2662</v>
+        <v>735</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>0.6371710390493626</v>
+        <v>0.1968503281510414</v>
       </c>
       <c r="E6">
-        <v>0.9270198808912207</v>
+        <v>0.5297647268542311</v>
       </c>
       <c r="F6">
-        <v>0.0003571485297845485</v>
+        <v>0.001097921619172736</v>
       </c>
       <c r="G6">
-        <v>16.20156415038007</v>
+        <v>1.591769810312605</v>
       </c>
       <c r="H6">
-        <v>0.3476029444872959</v>
+        <v>0.1611264733456635</v>
       </c>
       <c r="I6">
-        <v>6.916224448555465E-66</v>
+        <v>8.012738859323289E-42</v>
       </c>
       <c r="J6">
-        <v>20.54000091552734</v>
+        <v>6.71999979019165</v>
       </c>
       <c r="K6">
-        <v>10.64999961853027</v>
+        <v>29.31999969482422</v>
       </c>
       <c r="L6">
-        <v>1.097591734542377</v>
+        <v>0.6689248603849469</v>
       </c>
       <c r="M6">
-        <v>-1.034932983412407</v>
+        <v>-0.4258720856911422</v>
       </c>
       <c r="N6">
-        <v>0.43246594209585</v>
+        <v>0.209531828395819</v>
       </c>
       <c r="O6">
-        <v>0.6364655389575775</v>
+        <v>0.4040018305560897</v>
       </c>
       <c r="P6">
-        <v>0.0115821223104525</v>
+        <v>0.01176027483318719</v>
       </c>
       <c r="Q6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R6" t="s">
         <v>21</v>
@@ -808,282 +811,282 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1921</v>
+        <v>2630</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.6426266371438825</v>
+        <v>0.5498328219259402</v>
       </c>
       <c r="E7">
-        <v>0.7742750726029974</v>
+        <v>0.7794677539852541</v>
       </c>
       <c r="F7">
-        <v>0.0005135746240167493</v>
+        <v>0.004988865060441937</v>
       </c>
       <c r="G7">
-        <v>0.8026160834286413</v>
+        <v>12.46922602973511</v>
       </c>
       <c r="H7">
-        <v>0.156002399956338</v>
+        <v>1.846610289166283</v>
       </c>
       <c r="I7">
-        <v>1.315744647619239E-32</v>
+        <v>6.913955424611932E-66</v>
       </c>
       <c r="J7">
-        <v>6.590000152587891</v>
+        <v>20.98999977111816</v>
       </c>
       <c r="K7">
-        <v>39</v>
+        <v>4.150000095367432</v>
       </c>
       <c r="L7">
-        <v>0.5894267376194522</v>
+        <v>1.195863268853898</v>
       </c>
       <c r="M7">
-        <v>-0.5899527852758109</v>
+        <v>-0.9574213498984285</v>
       </c>
       <c r="N7">
-        <v>0.2586846080462262</v>
+        <v>0.4357275116884063</v>
       </c>
       <c r="O7">
-        <v>-0.2967095291379334</v>
+        <v>0.8573408652364973</v>
       </c>
       <c r="P7">
-        <v>0.01167932823656784</v>
+        <v>0.01199916843757911</v>
       </c>
       <c r="Q7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" t="s">
         <v>22</v>
-      </c>
-      <c r="R7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1920</v>
+        <v>2662</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.6426266371438825</v>
+        <v>0.5498328219259402</v>
       </c>
       <c r="E8">
-        <v>0.8780018028330256</v>
+        <v>0.9045557811061105</v>
       </c>
       <c r="F8">
-        <v>0.0006024739126955219</v>
+        <v>0.0004835750456906963</v>
       </c>
       <c r="G8">
-        <v>2.380822657663917</v>
+        <v>16.26488681664346</v>
       </c>
       <c r="H8">
-        <v>0.1300640811086649</v>
+        <v>0.3443070659411311</v>
       </c>
       <c r="I8">
-        <v>2.610681963837244E-30</v>
+        <v>1.525381841955145E-65</v>
       </c>
       <c r="J8">
-        <v>6.590000152587891</v>
+        <v>20.98999977111816</v>
       </c>
       <c r="K8">
-        <v>34.65000152587891</v>
+        <v>11.03999996185303</v>
       </c>
       <c r="L8">
-        <v>0.686316285458223</v>
+        <v>1.095045246449352</v>
       </c>
       <c r="M8">
-        <v>-0.6110726670465709</v>
+        <v>-1.049297962230515</v>
       </c>
       <c r="N8">
-        <v>0.2691380359322654</v>
+        <v>0.438305772977408</v>
       </c>
       <c r="O8">
-        <v>-0.2975431139533038</v>
+        <v>0.9239629596188874</v>
       </c>
       <c r="P8">
-        <v>0.01214601540908724</v>
+        <v>0.0121745807057898</v>
       </c>
       <c r="Q8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" t="s">
         <v>22</v>
-      </c>
-      <c r="R8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2256</v>
+        <v>1760</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.6573694505601938</v>
+        <v>0.7379718453659855</v>
       </c>
       <c r="E9">
-        <v>0.8934512094803488</v>
+        <v>0.8715540975054084</v>
       </c>
       <c r="F9">
-        <v>0.001034550390669166</v>
+        <v>0.000210220125018464</v>
       </c>
       <c r="G9">
-        <v>29.51213869137592</v>
+        <v>-14.5856494017935</v>
       </c>
       <c r="H9">
-        <v>5.667236162728891</v>
+        <v>0.9200955508869468</v>
       </c>
       <c r="I9">
-        <v>4.005484490646215E-55</v>
+        <v>2.631932815222166E-61</v>
       </c>
       <c r="J9">
-        <v>44.61000061035156</v>
+        <v>12.89999961853027</v>
       </c>
       <c r="K9">
-        <v>2.869999885559082</v>
+        <v>30.93000030517578</v>
       </c>
       <c r="L9">
-        <v>2.443648522264901</v>
+        <v>1.92863766426813</v>
       </c>
       <c r="M9">
-        <v>-2.259114438126517</v>
+        <v>-1.478133179305253</v>
       </c>
       <c r="N9">
-        <v>1.034235951229101</v>
+        <v>0.6847472695053352</v>
       </c>
       <c r="O9">
-        <v>-1.167105219492562</v>
+        <v>-0.9729066494003753</v>
       </c>
       <c r="P9">
-        <v>0.01292985208568112</v>
+        <v>0.01221031415343047</v>
       </c>
       <c r="Q9" t="s">
         <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1972</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.6426266371438825</v>
+        <v>0.8220806323670686</v>
       </c>
       <c r="E10">
-        <v>0.9270198808912207</v>
+        <v>0.8715540975054084</v>
       </c>
       <c r="F10">
-        <v>0.0006212758353025</v>
+        <v>0.002986496480014995</v>
       </c>
       <c r="G10">
-        <v>5.94873443794352</v>
+        <v>0.7607326191640789</v>
       </c>
       <c r="H10">
-        <v>0.09379431899934179</v>
+        <v>0.3664198337561577</v>
       </c>
       <c r="I10">
-        <v>2.530379840708485E-26</v>
+        <v>5.219590272458672E-58</v>
       </c>
       <c r="J10">
-        <v>6.590000152587891</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="K10">
-        <v>10.64999961853027</v>
+        <v>30.93000030517578</v>
       </c>
       <c r="L10">
-        <v>0.7360229035549173</v>
+        <v>0.7603091198125469</v>
       </c>
       <c r="M10">
-        <v>-0.8063893627711893</v>
+        <v>-0.671356769272764</v>
       </c>
       <c r="N10">
-        <v>0.2882720492741653</v>
+        <v>0.2911829660650069</v>
       </c>
       <c r="O10">
-        <v>-0.3576437469189259</v>
+        <v>-0.6340981509175236</v>
       </c>
       <c r="P10">
-        <v>0.01294560260114568</v>
+        <v>0.01244277424736654</v>
       </c>
       <c r="Q10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1941</v>
+        <v>1340</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.6426266371438825</v>
+        <v>0.4645818210352739</v>
       </c>
       <c r="E11">
-        <v>0.8400074750418109</v>
+        <v>0.8715540975054084</v>
       </c>
       <c r="F11">
-        <v>0.000480537263136829</v>
+        <v>8.793603432776866E-05</v>
       </c>
       <c r="G11">
-        <v>5.747806114335789</v>
+        <v>21.6500557388865</v>
       </c>
       <c r="H11">
-        <v>0.1033395804697804</v>
+        <v>-0.3901182823498316</v>
       </c>
       <c r="I11">
-        <v>1.767028482357695E-29</v>
+        <v>4.399410216434113E-43</v>
       </c>
       <c r="J11">
-        <v>6.590000152587891</v>
+        <v>10.03999996185303</v>
       </c>
       <c r="K11">
-        <v>11.47999954223633</v>
+        <v>30.93000030517578</v>
       </c>
       <c r="L11">
-        <v>0.5944000613528129</v>
+        <v>1.051228523014363</v>
       </c>
       <c r="M11">
-        <v>-0.8806092434650168</v>
+        <v>-1.156171727511822</v>
       </c>
       <c r="N11">
-        <v>0.2730182210060613</v>
+        <v>0.4253592007855658</v>
       </c>
       <c r="O11">
-        <v>-0.3441442982358716</v>
+        <v>0.4563028151014734</v>
       </c>
       <c r="P11">
-        <v>0.01296359580319195</v>
+        <v>0.01295631381536886</v>
       </c>
       <c r="Q11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -70,46 +70,46 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>EZTC3</t>
+    <t>BBDC3</t>
   </si>
   <si>
     <t>ABEV3</t>
   </si>
   <si>
-    <t>B3SA3</t>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>CSNA3</t>
   </si>
   <si>
     <t>BEEF3</t>
   </si>
   <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
-    <t>CMIG4</t>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
   </si>
   <si>
     <t>HYPE3</t>
   </si>
   <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>CIEL3</t>
-  </si>
-  <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
+    <t>ELET6</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2328</v>
+        <v>478</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -540,54 +540,54 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>0.5322063721241957</v>
+        <v>0.5631055302448705</v>
       </c>
       <c r="E2">
-        <v>0.5297647268542311</v>
+        <v>0.4728414000081366</v>
       </c>
       <c r="F2">
-        <v>0.0007082771109183117</v>
+        <v>0.0004128198032030657</v>
       </c>
       <c r="G2">
-        <v>-7.094111948272759</v>
+        <v>0.03647463264722184</v>
       </c>
       <c r="H2">
-        <v>0.7112791839895178</v>
+        <v>0.8912143683131126</v>
       </c>
       <c r="I2">
-        <v>7.149653527909124E-65</v>
+        <v>3.327452194539547E-134</v>
       </c>
       <c r="J2">
-        <v>13.18000030517578</v>
+        <v>11.1899995803833</v>
       </c>
       <c r="K2">
-        <v>29.31999969482422</v>
+        <v>12.38000011444092</v>
       </c>
       <c r="L2">
-        <v>1.295225092889297</v>
+        <v>0.39520856439119</v>
       </c>
       <c r="M2">
-        <v>-1.426431170674778</v>
+        <v>-0.3102989728139498</v>
       </c>
       <c r="N2">
-        <v>0.5721503876026635</v>
+        <v>0.1129403220131048</v>
       </c>
       <c r="O2">
-        <v>-0.5805932040589425</v>
+        <v>0.1202909660283549</v>
       </c>
       <c r="P2">
-        <v>0.008544298267439783</v>
+        <v>0.01099407526547679</v>
       </c>
       <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -596,43 +596,43 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>0.8220806323670686</v>
+        <v>0.695735839335614</v>
       </c>
       <c r="E3">
-        <v>0.7694103047807094</v>
+        <v>0.8261832277895931</v>
       </c>
       <c r="F3">
-        <v>0.0001742242739014014</v>
+        <v>0.006157800146609873</v>
       </c>
       <c r="G3">
-        <v>3.151873542051867</v>
+        <v>0.8615456494668228</v>
       </c>
       <c r="H3">
-        <v>0.3742439784618721</v>
+        <v>0.3627436751142316</v>
       </c>
       <c r="I3">
-        <v>4.351081607274694E-69</v>
+        <v>3.812004613592585E-58</v>
       </c>
       <c r="J3">
-        <v>11.46000003814697</v>
+        <v>11.40999984741211</v>
       </c>
       <c r="K3">
-        <v>23.03000068664551</v>
+        <v>30.69000053405762</v>
       </c>
       <c r="L3">
-        <v>0.7005686006829386</v>
+        <v>0.7448072461190147</v>
       </c>
       <c r="M3">
-        <v>-0.4715733102897435</v>
+        <v>-0.6426421425828259</v>
       </c>
       <c r="N3">
-        <v>0.2407520360044038</v>
+        <v>0.2834171568643492</v>
       </c>
       <c r="O3">
-        <v>-0.3107125848547536</v>
+        <v>-0.5841493850365023</v>
       </c>
       <c r="P3">
-        <v>0.01036283882765502</v>
+        <v>0.01208080865746764</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>335</v>
+        <v>887</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -652,43 +652,43 @@
         <v>27</v>
       </c>
       <c r="D4">
-        <v>0.7727196374634937</v>
+        <v>0.7873621020899433</v>
       </c>
       <c r="E4">
-        <v>0.3160055863923228</v>
+        <v>0.859106838334222</v>
       </c>
       <c r="F4">
-        <v>0.0001874776845890093</v>
+        <v>0.0002482367937193802</v>
       </c>
       <c r="G4">
-        <v>25.27181966034793</v>
+        <v>25.65276697751297</v>
       </c>
       <c r="H4">
-        <v>-2.539412827599774</v>
+        <v>0.5545171611923032</v>
       </c>
       <c r="I4">
-        <v>1.750940720030625E-66</v>
+        <v>6.775694102325444E-55</v>
       </c>
       <c r="J4">
-        <v>10.39999961853027</v>
+        <v>30.90999984741211</v>
       </c>
       <c r="K4">
-        <v>5.639999866485596</v>
+        <v>12.05000019073486</v>
       </c>
       <c r="L4">
-        <v>1.013460542096521</v>
+        <v>1.769099523702884</v>
       </c>
       <c r="M4">
-        <v>-1.086907373294787</v>
+        <v>-1.953050057511916</v>
       </c>
       <c r="N4">
-        <v>0.3951019001484517</v>
+        <v>0.8025042713761056</v>
       </c>
       <c r="O4">
-        <v>-0.5495320332031213</v>
+        <v>-1.424699028233871</v>
       </c>
       <c r="P4">
-        <v>0.01102136585750551</v>
+        <v>0.01210326221244452</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
@@ -699,279 +699,279 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>20</v>
+        <v>2630</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
       <c r="D5">
-        <v>0.8220806323670686</v>
+        <v>0.6200261648077884</v>
       </c>
       <c r="E5">
-        <v>0.765618504000084</v>
+        <v>0.7307669276604254</v>
       </c>
       <c r="F5">
-        <v>0.0006908485280967149</v>
+        <v>0.004227193387932168</v>
       </c>
       <c r="G5">
-        <v>9.250153922711295</v>
+        <v>12.42366628731026</v>
       </c>
       <c r="H5">
-        <v>1.335742533159451</v>
+        <v>1.859153916192747</v>
       </c>
       <c r="I5">
-        <v>1.387175787664809E-72</v>
+        <v>2.534501611368579E-66</v>
       </c>
       <c r="J5">
-        <v>11.46000003814697</v>
+        <v>20.57999992370605</v>
       </c>
       <c r="K5">
-        <v>1.879999995231628</v>
+        <v>4.050000190734863</v>
       </c>
       <c r="L5">
-        <v>0.8204173158763322</v>
+        <v>1.172307623491921</v>
       </c>
       <c r="M5">
-        <v>-0.377486330582876</v>
+        <v>-0.9749560540484481</v>
       </c>
       <c r="N5">
-        <v>0.226723580804749</v>
+        <v>0.4290235072320684</v>
       </c>
       <c r="O5">
-        <v>-0.301349840534773</v>
+        <v>0.6267599212096995</v>
       </c>
       <c r="P5">
-        <v>0.01149775995792175</v>
+        <v>0.01211814913635814</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="R5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>735</v>
+        <v>1760</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>0.1968503281510414</v>
+        <v>0.6442284569828367</v>
       </c>
       <c r="E6">
-        <v>0.5297647268542311</v>
+        <v>0.8261832277895931</v>
       </c>
       <c r="F6">
-        <v>0.001097921619172736</v>
+        <v>0.0001901251143738956</v>
       </c>
       <c r="G6">
-        <v>1.591769810312605</v>
+        <v>-14.67874940602369</v>
       </c>
       <c r="H6">
-        <v>0.1611264733456635</v>
+        <v>0.9228557154122564</v>
       </c>
       <c r="I6">
-        <v>8.012738859323289E-42</v>
+        <v>3.916594851891878E-60</v>
       </c>
       <c r="J6">
-        <v>6.71999979019165</v>
+        <v>12.90999984741211</v>
       </c>
       <c r="K6">
-        <v>29.31999969482422</v>
+        <v>30.69000053405762</v>
       </c>
       <c r="L6">
-        <v>0.6689248603849469</v>
+        <v>1.929594602878325</v>
       </c>
       <c r="M6">
-        <v>-0.4258720856911422</v>
+        <v>-1.480709742790143</v>
       </c>
       <c r="N6">
-        <v>0.209531828395819</v>
+        <v>0.6927167778430595</v>
       </c>
       <c r="O6">
-        <v>0.4040018305560897</v>
+        <v>-0.7336931454244784</v>
       </c>
       <c r="P6">
-        <v>0.01176027483318719</v>
+        <v>0.01213897324206938</v>
       </c>
       <c r="Q6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2630</v>
+        <v>2662</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.5498328219259402</v>
+        <v>0.6200261648077884</v>
       </c>
       <c r="E7">
-        <v>0.7794677539852541</v>
+        <v>0.9078563225428969</v>
       </c>
       <c r="F7">
-        <v>0.004988865060441937</v>
+        <v>0.0003239059880961457</v>
       </c>
       <c r="G7">
-        <v>12.46922602973511</v>
+        <v>16.25284420310842</v>
       </c>
       <c r="H7">
-        <v>1.846610289166283</v>
+        <v>0.3462416664021095</v>
       </c>
       <c r="I7">
-        <v>6.913955424611932E-66</v>
+        <v>9.067425176113492E-66</v>
       </c>
       <c r="J7">
-        <v>20.98999977111816</v>
+        <v>20.57999992370605</v>
       </c>
       <c r="K7">
-        <v>4.150000095367432</v>
+        <v>10.40999984741211</v>
       </c>
       <c r="L7">
-        <v>1.195863268853898</v>
+        <v>1.07141372313195</v>
       </c>
       <c r="M7">
-        <v>-0.9574213498984285</v>
+        <v>-1.065992319240188</v>
       </c>
       <c r="N7">
-        <v>0.4357275116884063</v>
+        <v>0.4331828365855289</v>
       </c>
       <c r="O7">
-        <v>0.8573408652364973</v>
+        <v>0.7227800261839596</v>
       </c>
       <c r="P7">
-        <v>0.01199916843757911</v>
+        <v>0.01225919134845956</v>
       </c>
       <c r="Q7" t="s">
         <v>29</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2662</v>
+        <v>735</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.5498328219259402</v>
+        <v>0.1291006330019574</v>
       </c>
       <c r="E8">
-        <v>0.9045557811061105</v>
+        <v>0.6126114763674833</v>
       </c>
       <c r="F8">
-        <v>0.0004835750456906963</v>
+        <v>0.002156942553773574</v>
       </c>
       <c r="G8">
-        <v>16.26488681664346</v>
+        <v>1.698982904071495</v>
       </c>
       <c r="H8">
-        <v>0.3443070659411311</v>
+        <v>0.1577526563262125</v>
       </c>
       <c r="I8">
-        <v>1.525381841955145E-65</v>
+        <v>8.814926756911644E-39</v>
       </c>
       <c r="J8">
-        <v>20.98999977111816</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="K8">
-        <v>11.03999996185303</v>
+        <v>28.70000076293945</v>
       </c>
       <c r="L8">
-        <v>1.095045246449352</v>
+        <v>0.6649261798866561</v>
       </c>
       <c r="M8">
-        <v>-1.049297962230515</v>
+        <v>-0.4213947497739809</v>
       </c>
       <c r="N8">
-        <v>0.438305772977408</v>
+        <v>0.2142269131619821</v>
       </c>
       <c r="O8">
-        <v>0.9239629596188874</v>
+        <v>0.4535155673491031</v>
       </c>
       <c r="P8">
-        <v>0.0121745807057898</v>
+        <v>0.0123846192221009</v>
       </c>
       <c r="Q8" t="s">
         <v>30</v>
       </c>
       <c r="R8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1760</v>
+        <v>1921</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.7379718453659855</v>
+        <v>0.7207066116423841</v>
       </c>
       <c r="E9">
-        <v>0.8715540975054084</v>
+        <v>0.6707137418240976</v>
       </c>
       <c r="F9">
-        <v>0.000210220125018464</v>
+        <v>0.002208630994261593</v>
       </c>
       <c r="G9">
-        <v>-14.5856494017935</v>
+        <v>0.654259143613191</v>
       </c>
       <c r="H9">
-        <v>0.9200955508869468</v>
+        <v>0.1595035024865975</v>
       </c>
       <c r="I9">
-        <v>2.631932815222166E-61</v>
+        <v>4.321658520076809E-34</v>
       </c>
       <c r="J9">
-        <v>12.89999961853027</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="K9">
-        <v>30.93000030517578</v>
+        <v>40.09999847412109</v>
       </c>
       <c r="L9">
-        <v>1.92863766426813</v>
+        <v>0.5911305470755917</v>
       </c>
       <c r="M9">
-        <v>-1.478133179305253</v>
+        <v>-0.6005886303887484</v>
       </c>
       <c r="N9">
-        <v>0.6847472695053352</v>
+        <v>0.2572394636440878</v>
       </c>
       <c r="O9">
-        <v>-0.9729066494003753</v>
+        <v>-0.4903494071631789</v>
       </c>
       <c r="P9">
-        <v>0.01221031415343047</v>
+        <v>0.01259295521570021</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
         <v>31</v>
@@ -979,114 +979,114 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>35</v>
+        <v>1941</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>0.8220806323670686</v>
+        <v>0.7207066116423841</v>
       </c>
       <c r="E10">
-        <v>0.8715540975054084</v>
+        <v>0.859106838334222</v>
       </c>
       <c r="F10">
-        <v>0.002986496480014995</v>
+        <v>0.001767358254368308</v>
       </c>
       <c r="G10">
-        <v>0.7607326191640789</v>
+        <v>5.595798023778669</v>
       </c>
       <c r="H10">
-        <v>0.3664198337561577</v>
+        <v>0.1128829233005044</v>
       </c>
       <c r="I10">
-        <v>5.219590272458672E-58</v>
+        <v>1.906490614510163E-36</v>
       </c>
       <c r="J10">
-        <v>11.46000003814697</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="K10">
-        <v>30.93000030517578</v>
+        <v>12.05000019073486</v>
       </c>
       <c r="L10">
-        <v>0.7603091198125469</v>
+        <v>0.5526782997272282</v>
       </c>
       <c r="M10">
-        <v>-0.671356769272764</v>
+        <v>-0.6579748524170324</v>
       </c>
       <c r="N10">
-        <v>0.2911829660650069</v>
+        <v>0.2469182248912603</v>
       </c>
       <c r="O10">
-        <v>-0.6340981509175236</v>
+        <v>-0.3960373283009153</v>
       </c>
       <c r="P10">
-        <v>0.01244277424736654</v>
+        <v>0.01282561932750714</v>
       </c>
       <c r="Q10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1340</v>
+        <v>1972</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>0.4645818210352739</v>
+        <v>0.7207066116423841</v>
       </c>
       <c r="E11">
-        <v>0.8715540975054084</v>
+        <v>0.9078563225428969</v>
       </c>
       <c r="F11">
-        <v>8.793603432776866E-05</v>
+        <v>0.001748486192543356</v>
       </c>
       <c r="G11">
-        <v>21.6500557388865</v>
+        <v>5.844192800248035</v>
       </c>
       <c r="H11">
-        <v>-0.3901182823498316</v>
+        <v>0.1006590263374919</v>
       </c>
       <c r="I11">
-        <v>4.399410216434113E-43</v>
+        <v>1.928306082557139E-31</v>
       </c>
       <c r="J11">
-        <v>10.03999996185303</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="K11">
-        <v>30.93000030517578</v>
+        <v>10.40999984741211</v>
       </c>
       <c r="L11">
-        <v>1.051228523014363</v>
+        <v>0.7545497601364559</v>
       </c>
       <c r="M11">
-        <v>-1.156171727511822</v>
+        <v>-0.5098199897619722</v>
       </c>
       <c r="N11">
-        <v>0.4253592007855658</v>
+        <v>0.269360282192907</v>
       </c>
       <c r="O11">
-        <v>0.4563028151014734</v>
+        <v>-0.3320533062824358</v>
       </c>
       <c r="P11">
-        <v>0.01295631381536886</v>
+        <v>0.01290144177179355</v>
       </c>
       <c r="Q11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -70,46 +70,49 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
     <t>BBDC3</t>
   </si>
   <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
     <t>BPAC11</t>
   </si>
   <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
     <t>IGTI11</t>
   </si>
   <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
-    <t>BEEF3</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
   </si>
   <si>
     <t>BBDC4</t>
   </si>
   <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>MGLU3</t>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
   </si>
   <si>
     <t>LWSA3</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>ELET6</t>
   </si>
 </sst>
 </file>
@@ -531,55 +534,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>478</v>
+        <v>2046</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.5631055302448705</v>
+        <v>0.7597264585440161</v>
       </c>
       <c r="E2">
-        <v>0.4728414000081366</v>
+        <v>0.8657129732394794</v>
       </c>
       <c r="F2">
-        <v>0.0004128198032030657</v>
+        <v>6.570000206498791E-07</v>
       </c>
       <c r="G2">
-        <v>0.03647463264722184</v>
+        <v>26.05514312451687</v>
       </c>
       <c r="H2">
-        <v>0.8912143683131126</v>
+        <v>0.7900573134378575</v>
       </c>
       <c r="I2">
-        <v>3.327452194539547E-134</v>
+        <v>2.873706170871808E-77</v>
       </c>
       <c r="J2">
-        <v>11.1899995803833</v>
+        <v>36.5099983215332</v>
       </c>
       <c r="K2">
-        <v>12.38000011444092</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="L2">
-        <v>0.39520856439119</v>
+        <v>1.969489892590879</v>
       </c>
       <c r="M2">
-        <v>-0.3102989728139498</v>
+        <v>-2.042932692443934</v>
       </c>
       <c r="N2">
-        <v>0.1129403220131048</v>
+        <v>0.737050572639354</v>
       </c>
       <c r="O2">
-        <v>0.1202909660283549</v>
+        <v>0.8635591406360934</v>
       </c>
       <c r="P2">
-        <v>0.01099407526547679</v>
+        <v>0.00732665419953614</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -587,167 +590,167 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>35</v>
+        <v>2097</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.695735839335614</v>
+        <v>0.6425725463021408</v>
       </c>
       <c r="E3">
-        <v>0.8261832277895931</v>
+        <v>0.8657129732394794</v>
       </c>
       <c r="F3">
-        <v>0.006157800146609873</v>
+        <v>7.03320637209061E-07</v>
       </c>
       <c r="G3">
-        <v>0.8615456494668228</v>
+        <v>31.74277695146183</v>
       </c>
       <c r="H3">
-        <v>0.3627436751142316</v>
+        <v>0.665224419991203</v>
       </c>
       <c r="I3">
-        <v>3.812004613592585E-58</v>
+        <v>2.475443659504078E-70</v>
       </c>
       <c r="J3">
-        <v>11.40999984741211</v>
+        <v>40.70999908447266</v>
       </c>
       <c r="K3">
-        <v>30.69000053405762</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="L3">
-        <v>0.7448072461190147</v>
+        <v>1.734468920275852</v>
       </c>
       <c r="M3">
-        <v>-0.6426421425828259</v>
+        <v>-2.253701934876446</v>
       </c>
       <c r="N3">
-        <v>0.2834171568643492</v>
+        <v>0.7079012680018588</v>
       </c>
       <c r="O3">
-        <v>-0.5841493850365023</v>
+        <v>0.8913974459309415</v>
       </c>
       <c r="P3">
-        <v>0.01208080865746764</v>
+        <v>0.007560967381256181</v>
       </c>
       <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>887</v>
+        <v>2294</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.7873621020899433</v>
+        <v>0.5273821699953427</v>
       </c>
       <c r="E4">
-        <v>0.859106838334222</v>
+        <v>0.6365905504144584</v>
       </c>
       <c r="F4">
-        <v>0.0002482367937193802</v>
+        <v>0.001373034767743985</v>
       </c>
       <c r="G4">
-        <v>25.65276697751297</v>
+        <v>8.3428734948694</v>
       </c>
       <c r="H4">
-        <v>0.5545171611923032</v>
+        <v>0.9507125765719342</v>
       </c>
       <c r="I4">
-        <v>6.775694102325444E-55</v>
+        <v>2.64658150835019E-72</v>
       </c>
       <c r="J4">
-        <v>30.90999984741211</v>
+        <v>32.02999877929688</v>
       </c>
       <c r="K4">
-        <v>12.05000019073486</v>
+        <v>22.57999992370605</v>
       </c>
       <c r="L4">
-        <v>1.769099523702884</v>
+        <v>2.220035377966816</v>
       </c>
       <c r="M4">
-        <v>-1.953050057511916</v>
+        <v>-1.442433790840646</v>
       </c>
       <c r="N4">
-        <v>0.8025042713761056</v>
+        <v>0.5637910148028</v>
       </c>
       <c r="O4">
-        <v>-1.424699028233871</v>
+        <v>2.220035377966813</v>
       </c>
       <c r="P4">
-        <v>0.01210326221244452</v>
+        <v>0.01093670943412804</v>
       </c>
       <c r="Q4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" t="s">
         <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2630</v>
+        <v>478</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.6200261648077884</v>
+        <v>0.472955223289077</v>
       </c>
       <c r="E5">
-        <v>0.7307669276604254</v>
+        <v>0.4228587326734385</v>
       </c>
       <c r="F5">
-        <v>0.004227193387932168</v>
+        <v>0.0005416144550279967</v>
       </c>
       <c r="G5">
-        <v>12.42366628731026</v>
+        <v>0.03845044287721544</v>
       </c>
       <c r="H5">
-        <v>1.859153916192747</v>
+        <v>0.8912035746851974</v>
       </c>
       <c r="I5">
-        <v>2.534501611368579E-66</v>
+        <v>8.910560663319627E-134</v>
       </c>
       <c r="J5">
-        <v>20.57999992370605</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="K5">
-        <v>4.050000190734863</v>
+        <v>12.27000045776367</v>
       </c>
       <c r="L5">
-        <v>1.172307623491921</v>
+        <v>0.3933764975937848</v>
       </c>
       <c r="M5">
-        <v>-0.9749560540484481</v>
+        <v>-0.3120983058557005</v>
       </c>
       <c r="N5">
-        <v>0.4290235072320684</v>
+        <v>0.1131867804926625</v>
       </c>
       <c r="O5">
-        <v>0.6267599212096995</v>
+        <v>0.136480944452039</v>
       </c>
       <c r="P5">
-        <v>0.01211814913635814</v>
+        <v>0.01116651319837884</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
         <v>21</v>
@@ -755,338 +758,338 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1760</v>
+        <v>887</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.6442284569828367</v>
+        <v>0.9232233052222005</v>
       </c>
       <c r="E6">
-        <v>0.8261832277895931</v>
+        <v>0.8657129732394794</v>
       </c>
       <c r="F6">
-        <v>0.0001901251143738956</v>
+        <v>0.000326046571815837</v>
       </c>
       <c r="G6">
-        <v>-14.67874940602369</v>
+        <v>25.48766745187526</v>
       </c>
       <c r="H6">
-        <v>0.9228557154122564</v>
+        <v>0.5642592259563258</v>
       </c>
       <c r="I6">
-        <v>3.916594851891878E-60</v>
+        <v>5.024184910012209E-56</v>
       </c>
       <c r="J6">
-        <v>12.90999984741211</v>
+        <v>31.20000076293945</v>
       </c>
       <c r="K6">
-        <v>30.69000053405762</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="L6">
-        <v>1.929594602878325</v>
+        <v>1.759249023139432</v>
       </c>
       <c r="M6">
-        <v>-1.480709742790143</v>
+        <v>-2.00422437706812</v>
       </c>
       <c r="N6">
-        <v>0.6927167778430595</v>
+        <v>0.7969467667060385</v>
       </c>
       <c r="O6">
-        <v>-0.7336931454244784</v>
+        <v>-1.137773885768638</v>
       </c>
       <c r="P6">
-        <v>0.01213897324206938</v>
+        <v>0.01249513236400106</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2662</v>
+        <v>735</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.6200261648077884</v>
+        <v>0.160009543685649</v>
       </c>
       <c r="E7">
-        <v>0.9078563225428969</v>
+        <v>0.5172321951530688</v>
       </c>
       <c r="F7">
-        <v>0.0003239059880961457</v>
+        <v>0.002217932084433813</v>
       </c>
       <c r="G7">
-        <v>16.25284420310842</v>
+        <v>1.769376936944955</v>
       </c>
       <c r="H7">
-        <v>0.3462416664021095</v>
+        <v>0.1555858001513681</v>
       </c>
       <c r="I7">
-        <v>9.067425176113492E-66</v>
+        <v>2.660560307731922E-37</v>
       </c>
       <c r="J7">
-        <v>20.57999992370605</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="K7">
-        <v>10.40999984741211</v>
+        <v>28.94000053405762</v>
       </c>
       <c r="L7">
-        <v>1.07141372313195</v>
+        <v>0.6608219861525484</v>
       </c>
       <c r="M7">
-        <v>-1.065992319240188</v>
+        <v>-0.4200548694508157</v>
       </c>
       <c r="N7">
-        <v>0.4331828365855289</v>
+        <v>0.2171561477861096</v>
       </c>
       <c r="O7">
-        <v>0.7227800261839596</v>
+        <v>0.4179699808031314</v>
       </c>
       <c r="P7">
-        <v>0.01225919134845956</v>
+        <v>0.01266603695686072</v>
       </c>
       <c r="Q7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>735</v>
+        <v>1972</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.1291006330019574</v>
+        <v>0.7096573016024299</v>
       </c>
       <c r="E8">
-        <v>0.6126114763674833</v>
+        <v>0.8755214722186594</v>
       </c>
       <c r="F8">
-        <v>0.002156942553773574</v>
+        <v>0.001600907018740945</v>
       </c>
       <c r="G8">
-        <v>1.698982904071495</v>
+        <v>5.802668403989784</v>
       </c>
       <c r="H8">
-        <v>0.1577526563262125</v>
+        <v>0.1030758549213799</v>
       </c>
       <c r="I8">
-        <v>8.814926756911644E-39</v>
+        <v>2.743069045807519E-32</v>
       </c>
       <c r="J8">
-        <v>6.679999828338623</v>
+        <v>6.510000228881836</v>
       </c>
       <c r="K8">
-        <v>28.70000076293945</v>
+        <v>10.59000015258789</v>
       </c>
       <c r="L8">
-        <v>0.6649261798866561</v>
+        <v>0.7657912948839529</v>
       </c>
       <c r="M8">
-        <v>-0.4213947497739809</v>
+        <v>-0.5178006822196384</v>
       </c>
       <c r="N8">
-        <v>0.2142269131619821</v>
+        <v>0.2702111556051593</v>
       </c>
       <c r="O8">
-        <v>0.4535155673491031</v>
+        <v>-0.3842414944534882</v>
       </c>
       <c r="P8">
-        <v>0.0123846192221009</v>
+        <v>0.01285325372667184</v>
       </c>
       <c r="Q8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1921</v>
+        <v>1340</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>0.7207066116423841</v>
+        <v>0.6364901814774585</v>
       </c>
       <c r="E9">
-        <v>0.6707137418240976</v>
+        <v>0.5273821699953427</v>
       </c>
       <c r="F9">
-        <v>0.002208630994261593</v>
+        <v>0.001064909941063973</v>
       </c>
       <c r="G9">
-        <v>0.654259143613191</v>
+        <v>21.36247228292207</v>
       </c>
       <c r="H9">
-        <v>0.1595035024865975</v>
+        <v>-0.3800877618546069</v>
       </c>
       <c r="I9">
-        <v>4.321658520076809E-34</v>
+        <v>3.900072258635651E-43</v>
       </c>
       <c r="J9">
-        <v>6.559999942779541</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="K9">
-        <v>40.09999847412109</v>
+        <v>32.02999877929688</v>
       </c>
       <c r="L9">
-        <v>0.5911305470755917</v>
+        <v>1.021747220002595</v>
       </c>
       <c r="M9">
-        <v>-0.6005886303887484</v>
+        <v>-1.053082048024262</v>
       </c>
       <c r="N9">
-        <v>0.2572394636440878</v>
+        <v>0.4076850942555606</v>
       </c>
       <c r="O9">
-        <v>-0.4903494071631789</v>
+        <v>1.011738074571811</v>
       </c>
       <c r="P9">
-        <v>0.01259295521570021</v>
+        <v>0.01288831678354877</v>
       </c>
       <c r="Q9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1941</v>
+        <v>2630</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.7207066116423841</v>
+        <v>0.6585005517766396</v>
       </c>
       <c r="E10">
-        <v>0.859106838334222</v>
+        <v>0.8069702571128847</v>
       </c>
       <c r="F10">
-        <v>0.001767358254368308</v>
+        <v>0.008505259956174153</v>
       </c>
       <c r="G10">
-        <v>5.595798023778669</v>
+        <v>12.52404944851687</v>
       </c>
       <c r="H10">
-        <v>0.1128829233005044</v>
+        <v>1.841336208588763</v>
       </c>
       <c r="I10">
-        <v>1.906490614510163E-36</v>
+        <v>3.52421471530744E-65</v>
       </c>
       <c r="J10">
-        <v>6.559999942779541</v>
+        <v>20.79999923706055</v>
       </c>
       <c r="K10">
-        <v>12.05000019073486</v>
+        <v>3.990000009536743</v>
       </c>
       <c r="L10">
-        <v>0.5526782997272282</v>
+        <v>1.170100035261417</v>
       </c>
       <c r="M10">
-        <v>-0.6579748524170324</v>
+        <v>-0.9857161422687142</v>
       </c>
       <c r="N10">
-        <v>0.2469182248912603</v>
+        <v>0.4366549351345844</v>
       </c>
       <c r="O10">
-        <v>-0.3960373283009153</v>
+        <v>0.9290182987141629</v>
       </c>
       <c r="P10">
-        <v>0.01282561932750714</v>
+        <v>0.01292982376634996</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1972</v>
+        <v>2662</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.7207066116423841</v>
+        <v>0.6585005517766396</v>
       </c>
       <c r="E11">
-        <v>0.9078563225428969</v>
+        <v>0.8755214722186594</v>
       </c>
       <c r="F11">
-        <v>0.001748486192543356</v>
+        <v>0.000241308010485979</v>
       </c>
       <c r="G11">
-        <v>5.844192800248035</v>
+        <v>16.29804579396408</v>
       </c>
       <c r="H11">
-        <v>0.1006590263374919</v>
+        <v>0.3440857581034944</v>
       </c>
       <c r="I11">
-        <v>1.928306082557139E-31</v>
+        <v>6.860998883807884E-65</v>
       </c>
       <c r="J11">
-        <v>6.559999942779541</v>
+        <v>20.79999923706055</v>
       </c>
       <c r="K11">
-        <v>10.40999984741211</v>
+        <v>10.59000015258789</v>
       </c>
       <c r="L11">
-        <v>0.7545497601364559</v>
+        <v>1.065967197592055</v>
       </c>
       <c r="M11">
-        <v>-0.5098199897619722</v>
+        <v>-1.079169585423109</v>
       </c>
       <c r="N11">
-        <v>0.269360282192907</v>
+        <v>0.4388622297637935</v>
       </c>
       <c r="O11">
-        <v>-0.3320533062824358</v>
+        <v>0.858085212277139</v>
       </c>
       <c r="P11">
-        <v>0.01290144177179355</v>
+        <v>0.01293395230353038</v>
       </c>
       <c r="Q11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>N</t>
   </si>
@@ -70,49 +70,16 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>ELET6</t>
+    <t>ABEV3</t>
   </si>
   <si>
     <t>EQTL3</t>
   </si>
   <si>
-    <t>BBDC3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>BEEF3</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>MGLU3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
-    <t>LWSA3</t>
+    <t>CSAN3</t>
+  </si>
+  <si>
+    <t>CSNA3</t>
   </si>
 </sst>
 </file>
@@ -470,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,562 +501,170 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2046</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>0.7597264585440161</v>
+        <v>0.733587381658496</v>
       </c>
       <c r="E2">
-        <v>0.8657129732394794</v>
+        <v>0.5146059955007003</v>
       </c>
       <c r="F2">
-        <v>6.570000206498791E-07</v>
+        <v>0.002158380377595289</v>
       </c>
       <c r="G2">
-        <v>26.05514312451687</v>
+        <v>0.9293848019070738</v>
       </c>
       <c r="H2">
-        <v>0.7900573134378575</v>
+        <v>0.3599340737899037</v>
       </c>
       <c r="I2">
-        <v>2.873706170871808E-77</v>
+        <v>2.636861496113867E-55</v>
       </c>
       <c r="J2">
-        <v>36.5099983215332</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="K2">
-        <v>12.14000034332275</v>
+        <v>31.5</v>
       </c>
       <c r="L2">
-        <v>1.969489892590879</v>
+        <v>0.7586330428655437</v>
       </c>
       <c r="M2">
-        <v>-2.042932692443934</v>
+        <v>-1.008072936759906</v>
       </c>
       <c r="N2">
-        <v>0.737050572639354</v>
+        <v>0.2962230385472531</v>
       </c>
       <c r="O2">
-        <v>0.8635591406360934</v>
+        <v>-0.8073080881420669</v>
       </c>
       <c r="P2">
-        <v>0.00732665419953614</v>
+        <v>0.01277223405237302</v>
       </c>
       <c r="Q2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2097</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>0.6425725463021408</v>
+        <v>0.733587381658496</v>
       </c>
       <c r="E3">
-        <v>0.8657129732394794</v>
+        <v>0.8067784544845524</v>
       </c>
       <c r="F3">
-        <v>7.03320637209061E-07</v>
+        <v>0.002906507739547678</v>
       </c>
       <c r="G3">
-        <v>31.74277695146183</v>
+        <v>7.073106839498178</v>
       </c>
       <c r="H3">
-        <v>0.665224419991203</v>
+        <v>0.3482804339215201</v>
       </c>
       <c r="I3">
-        <v>2.475443659504078E-70</v>
+        <v>3.998256995793496E-67</v>
       </c>
       <c r="J3">
-        <v>40.70999908447266</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="K3">
-        <v>12.14000034332275</v>
+        <v>13.47000026702881</v>
       </c>
       <c r="L3">
-        <v>1.734468920275852</v>
+        <v>0.5946826524536135</v>
       </c>
       <c r="M3">
-        <v>-2.253701934876446</v>
+        <v>-0.6852811366793166</v>
       </c>
       <c r="N3">
-        <v>0.7079012680018588</v>
+        <v>0.2410884496151658</v>
       </c>
       <c r="O3">
-        <v>0.8913974459309415</v>
+        <v>-0.3044443392749896</v>
       </c>
       <c r="P3">
-        <v>0.007560967381256181</v>
+        <v>0.01450688767786822</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2294</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>0.5273821699953427</v>
+        <v>0.733587381658496</v>
       </c>
       <c r="E4">
-        <v>0.6365905504144584</v>
+        <v>0.3819875042017893</v>
       </c>
       <c r="F4">
-        <v>0.001373034767743985</v>
+        <v>0.001022659020880669</v>
       </c>
       <c r="G4">
-        <v>8.3428734948694</v>
+        <v>7.050336087712936</v>
       </c>
       <c r="H4">
-        <v>0.9507125765719342</v>
+        <v>0.3643257603160011</v>
       </c>
       <c r="I4">
-        <v>2.64658150835019E-72</v>
+        <v>2.182838794610403E-58</v>
       </c>
       <c r="J4">
-        <v>32.02999877929688</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="K4">
-        <v>22.57999992370605</v>
+        <v>12.98999977111816</v>
       </c>
       <c r="L4">
-        <v>2.220035377966816</v>
+        <v>0.701614350431921</v>
       </c>
       <c r="M4">
-        <v>-1.442433790840646</v>
+        <v>-0.8695863661233627</v>
       </c>
       <c r="N4">
-        <v>0.5637910148028</v>
+        <v>0.2807370562338</v>
       </c>
       <c r="O4">
-        <v>2.220035377966813</v>
+        <v>-0.3229275926832686</v>
       </c>
       <c r="P4">
-        <v>0.01093670943412804</v>
+        <v>0.01505396863239458</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5">
-        <v>478</v>
-      </c>
-      <c r="B5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5">
-        <v>0.472955223289077</v>
-      </c>
-      <c r="E5">
-        <v>0.4228587326734385</v>
-      </c>
-      <c r="F5">
-        <v>0.0005416144550279967</v>
-      </c>
-      <c r="G5">
-        <v>0.03845044287721544</v>
-      </c>
-      <c r="H5">
-        <v>0.8912035746851974</v>
-      </c>
-      <c r="I5">
-        <v>8.910560663319627E-134</v>
-      </c>
-      <c r="J5">
-        <v>11.10999965667725</v>
-      </c>
-      <c r="K5">
-        <v>12.27000045776367</v>
-      </c>
-      <c r="L5">
-        <v>0.3933764975937848</v>
-      </c>
-      <c r="M5">
-        <v>-0.3120983058557005</v>
-      </c>
-      <c r="N5">
-        <v>0.1131867804926625</v>
-      </c>
-      <c r="O5">
-        <v>0.136480944452039</v>
-      </c>
-      <c r="P5">
-        <v>0.01116651319837884</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6">
-        <v>887</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>0.9232233052222005</v>
-      </c>
-      <c r="E6">
-        <v>0.8657129732394794</v>
-      </c>
-      <c r="F6">
-        <v>0.000326046571815837</v>
-      </c>
-      <c r="G6">
-        <v>25.48766745187526</v>
-      </c>
-      <c r="H6">
-        <v>0.5642592259563258</v>
-      </c>
-      <c r="I6">
-        <v>5.024184910012209E-56</v>
-      </c>
-      <c r="J6">
-        <v>31.20000076293945</v>
-      </c>
-      <c r="K6">
-        <v>12.14000034332275</v>
-      </c>
-      <c r="L6">
-        <v>1.759249023139432</v>
-      </c>
-      <c r="M6">
-        <v>-2.00422437706812</v>
-      </c>
-      <c r="N6">
-        <v>0.7969467667060385</v>
-      </c>
-      <c r="O6">
-        <v>-1.137773885768638</v>
-      </c>
-      <c r="P6">
-        <v>0.01249513236400106</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7">
-        <v>735</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7">
-        <v>0.160009543685649</v>
-      </c>
-      <c r="E7">
-        <v>0.5172321951530688</v>
-      </c>
-      <c r="F7">
-        <v>0.002217932084433813</v>
-      </c>
-      <c r="G7">
-        <v>1.769376936944955</v>
-      </c>
-      <c r="H7">
-        <v>0.1555858001513681</v>
-      </c>
-      <c r="I7">
-        <v>2.660560307731922E-37</v>
-      </c>
-      <c r="J7">
-        <v>6.690000057220459</v>
-      </c>
-      <c r="K7">
-        <v>28.94000053405762</v>
-      </c>
-      <c r="L7">
-        <v>0.6608219861525484</v>
-      </c>
-      <c r="M7">
-        <v>-0.4200548694508157</v>
-      </c>
-      <c r="N7">
-        <v>0.2171561477861096</v>
-      </c>
-      <c r="O7">
-        <v>0.4179699808031314</v>
-      </c>
-      <c r="P7">
-        <v>0.01266603695686072</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8">
-        <v>1972</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8">
-        <v>0.7096573016024299</v>
-      </c>
-      <c r="E8">
-        <v>0.8755214722186594</v>
-      </c>
-      <c r="F8">
-        <v>0.001600907018740945</v>
-      </c>
-      <c r="G8">
-        <v>5.802668403989784</v>
-      </c>
-      <c r="H8">
-        <v>0.1030758549213799</v>
-      </c>
-      <c r="I8">
-        <v>2.743069045807519E-32</v>
-      </c>
-      <c r="J8">
-        <v>6.510000228881836</v>
-      </c>
-      <c r="K8">
-        <v>10.59000015258789</v>
-      </c>
-      <c r="L8">
-        <v>0.7657912948839529</v>
-      </c>
-      <c r="M8">
-        <v>-0.5178006822196384</v>
-      </c>
-      <c r="N8">
-        <v>0.2702111556051593</v>
-      </c>
-      <c r="O8">
-        <v>-0.3842414944534882</v>
-      </c>
-      <c r="P8">
-        <v>0.01285325372667184</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>24</v>
-      </c>
-      <c r="R8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9">
-        <v>1340</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>0.6364901814774585</v>
-      </c>
-      <c r="E9">
-        <v>0.5273821699953427</v>
-      </c>
-      <c r="F9">
-        <v>0.001064909941063973</v>
-      </c>
-      <c r="G9">
-        <v>21.36247228292207</v>
-      </c>
-      <c r="H9">
-        <v>-0.3800877618546069</v>
-      </c>
-      <c r="I9">
-        <v>3.900072258635651E-43</v>
-      </c>
-      <c r="J9">
-        <v>10.19999980926514</v>
-      </c>
-      <c r="K9">
-        <v>32.02999877929688</v>
-      </c>
-      <c r="L9">
-        <v>1.021747220002595</v>
-      </c>
-      <c r="M9">
-        <v>-1.053082048024262</v>
-      </c>
-      <c r="N9">
-        <v>0.4076850942555606</v>
-      </c>
-      <c r="O9">
-        <v>1.011738074571811</v>
-      </c>
-      <c r="P9">
-        <v>0.01288831678354877</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10">
-        <v>2630</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10">
-        <v>0.6585005517766396</v>
-      </c>
-      <c r="E10">
-        <v>0.8069702571128847</v>
-      </c>
-      <c r="F10">
-        <v>0.008505259956174153</v>
-      </c>
-      <c r="G10">
-        <v>12.52404944851687</v>
-      </c>
-      <c r="H10">
-        <v>1.841336208588763</v>
-      </c>
-      <c r="I10">
-        <v>3.52421471530744E-65</v>
-      </c>
-      <c r="J10">
-        <v>20.79999923706055</v>
-      </c>
-      <c r="K10">
-        <v>3.990000009536743</v>
-      </c>
-      <c r="L10">
-        <v>1.170100035261417</v>
-      </c>
-      <c r="M10">
-        <v>-0.9857161422687142</v>
-      </c>
-      <c r="N10">
-        <v>0.4366549351345844</v>
-      </c>
-      <c r="O10">
-        <v>0.9290182987141629</v>
-      </c>
-      <c r="P10">
-        <v>0.01292982376634996</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11">
-        <v>2662</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11">
-        <v>0.6585005517766396</v>
-      </c>
-      <c r="E11">
-        <v>0.8755214722186594</v>
-      </c>
-      <c r="F11">
-        <v>0.000241308010485979</v>
-      </c>
-      <c r="G11">
-        <v>16.29804579396408</v>
-      </c>
-      <c r="H11">
-        <v>0.3440857581034944</v>
-      </c>
-      <c r="I11">
-        <v>6.860998883807884E-65</v>
-      </c>
-      <c r="J11">
-        <v>20.79999923706055</v>
-      </c>
-      <c r="K11">
-        <v>10.59000015258789</v>
-      </c>
-      <c r="L11">
-        <v>1.065967197592055</v>
-      </c>
-      <c r="M11">
-        <v>-1.079169585423109</v>
-      </c>
-      <c r="N11">
-        <v>0.4388622297637935</v>
-      </c>
-      <c r="O11">
-        <v>0.858085212277139</v>
-      </c>
-      <c r="P11">
-        <v>0.01293395230353038</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>31</v>
-      </c>
-      <c r="R11" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -70,16 +70,55 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
     <t>ABEV3</t>
   </si>
   <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>CSAN3</t>
-  </si>
-  <si>
-    <t>CSNA3</t>
+    <t>BBDC3</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>CIEL3</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>CVCB3</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
   </si>
 </sst>
 </file>
@@ -437,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,170 +540,562 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>35</v>
+        <v>2046</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.733587381658496</v>
+        <v>0.6934946631034882</v>
       </c>
       <c r="E2">
-        <v>0.5146059955007003</v>
+        <v>0.8447449076076179</v>
       </c>
       <c r="F2">
-        <v>0.002158380377595289</v>
+        <v>7.179336100409098E-06</v>
       </c>
       <c r="G2">
-        <v>0.9293848019070738</v>
+        <v>26.16380713075067</v>
       </c>
       <c r="H2">
-        <v>0.3599340737899037</v>
+        <v>0.7858392682842401</v>
       </c>
       <c r="I2">
-        <v>2.636861496113867E-55</v>
+        <v>2.951335826516249E-78</v>
       </c>
       <c r="J2">
-        <v>11.46000003814697</v>
+        <v>37.34999847412109</v>
       </c>
       <c r="K2">
-        <v>31.5</v>
+        <v>12.57999992370605</v>
       </c>
       <c r="L2">
-        <v>0.7586330428655437</v>
+        <v>1.946030401678257</v>
       </c>
       <c r="M2">
-        <v>-1.008072936759906</v>
+        <v>-1.660400728342765</v>
       </c>
       <c r="N2">
-        <v>0.2962230385472531</v>
+        <v>0.7329972600851585</v>
       </c>
       <c r="O2">
-        <v>-0.8073080881420669</v>
+        <v>1.300333408309459</v>
       </c>
       <c r="P2">
-        <v>0.01277223405237302</v>
+        <v>0.007892254488437596</v>
       </c>
       <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>24</v>
+        <v>2097</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.733587381658496</v>
+        <v>0.5877530852264051</v>
       </c>
       <c r="E3">
-        <v>0.8067784544845524</v>
+        <v>0.8447449076076179</v>
       </c>
       <c r="F3">
-        <v>0.002906507739547678</v>
+        <v>8.623247309367897E-06</v>
       </c>
       <c r="G3">
-        <v>7.073106839498178</v>
+        <v>31.83045841208792</v>
       </c>
       <c r="H3">
-        <v>0.3482804339215201</v>
+        <v>0.6622240314878124</v>
       </c>
       <c r="I3">
-        <v>3.998256995793496E-67</v>
+        <v>6.456373395718005E-72</v>
       </c>
       <c r="J3">
-        <v>11.46000003814697</v>
+        <v>41.47999954223633</v>
       </c>
       <c r="K3">
-        <v>13.47000026702881</v>
+        <v>12.57999992370605</v>
       </c>
       <c r="L3">
-        <v>0.5946826524536135</v>
+        <v>1.707395309707366</v>
       </c>
       <c r="M3">
-        <v>-0.6852811366793166</v>
+        <v>-1.683974749357368</v>
       </c>
       <c r="N3">
-        <v>0.2410884496151658</v>
+        <v>0.6958615123253067</v>
       </c>
       <c r="O3">
-        <v>-0.3044443392749896</v>
+        <v>1.318762864555415</v>
       </c>
       <c r="P3">
-        <v>0.01450688767786822</v>
+        <v>0.008092220735749715</v>
       </c>
       <c r="Q3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="R3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
+        <v>2303</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>0.4984267761492261</v>
+      </c>
+      <c r="E4">
+        <v>0.7699140868506406</v>
+      </c>
+      <c r="F4">
+        <v>0.00785991244647428</v>
+      </c>
+      <c r="G4">
+        <v>17.88183864473903</v>
+      </c>
+      <c r="H4">
+        <v>4.232727227875181</v>
+      </c>
+      <c r="I4">
+        <v>2.354589753402905E-66</v>
+      </c>
+      <c r="J4">
+        <v>32.02000045776367</v>
+      </c>
+      <c r="K4">
+        <v>3.009999990463257</v>
+      </c>
+      <c r="L4">
+        <v>1.534632914756937</v>
+      </c>
+      <c r="M4">
+        <v>-1.767600358022086</v>
+      </c>
+      <c r="N4">
+        <v>0.6270638827115365</v>
+      </c>
+      <c r="O4">
+        <v>1.397652897486777</v>
+      </c>
+      <c r="P4">
+        <v>0.01059753539210982</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>2294</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>0.4984267761492261</v>
+      </c>
+      <c r="E5">
+        <v>0.5720084538788208</v>
+      </c>
+      <c r="F5">
+        <v>0.001162975398489518</v>
+      </c>
+      <c r="G5">
+        <v>8.500257199381606</v>
+      </c>
+      <c r="H5">
+        <v>0.945834362415614</v>
+      </c>
+      <c r="I5">
+        <v>1.427576924989678E-70</v>
+      </c>
+      <c r="J5">
+        <v>32.02000045776367</v>
+      </c>
+      <c r="K5">
+        <v>23.18000030517578</v>
+      </c>
+      <c r="L5">
+        <v>2.172801748732141</v>
+      </c>
+      <c r="M5">
+        <v>-1.4107056238119</v>
+      </c>
+      <c r="N5">
+        <v>0.5829463858597813</v>
+      </c>
+      <c r="O5">
+        <v>1.595302448942391</v>
+      </c>
+      <c r="P5">
+        <v>0.01162338411495549</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>335</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>0.6088452045106184</v>
+      </c>
+      <c r="E6">
+        <v>0.4275122204459176</v>
+      </c>
+      <c r="F6">
+        <v>0.0007913654518523426</v>
+      </c>
+      <c r="G6">
+        <v>25.94681890090985</v>
+      </c>
+      <c r="H6">
+        <v>-2.668577755102039</v>
+      </c>
+      <c r="I6">
+        <v>9.750283796829489E-67</v>
+      </c>
+      <c r="J6">
+        <v>10.43000030517578</v>
+      </c>
+      <c r="K6">
+        <v>5.659999847412109</v>
+      </c>
+      <c r="L6">
+        <v>0.9619304789115493</v>
+      </c>
+      <c r="M6">
+        <v>-0.9174759056963691</v>
+      </c>
+      <c r="N6">
+        <v>0.3833413900394377</v>
+      </c>
+      <c r="O6">
+        <v>-0.4126689090491791</v>
+      </c>
+      <c r="P6">
+        <v>0.01168569432371004</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>0.7546681395520503</v>
+      </c>
+      <c r="E7">
+        <v>0.5860851077460516</v>
+      </c>
+      <c r="F7">
+        <v>0.001286666551022655</v>
+      </c>
+      <c r="G7">
+        <v>-0.2637289565416454</v>
+      </c>
+      <c r="H7">
+        <v>0.2629037291307893</v>
+      </c>
+      <c r="I7">
+        <v>3.228133637681872E-55</v>
+      </c>
+      <c r="J7">
+        <v>11.38000011444092</v>
+      </c>
+      <c r="K7">
+        <v>45.63999938964844</v>
+      </c>
+      <c r="L7">
+        <v>0.8339246587789475</v>
+      </c>
+      <c r="M7">
+        <v>-0.5781679791103045</v>
+      </c>
+      <c r="N7">
+        <v>0.3001141089776236</v>
+      </c>
+      <c r="O7">
+        <v>-0.3551969660829588</v>
+      </c>
+      <c r="P7">
+        <v>0.01174276177883904</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>478</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>0.3434166598121775</v>
+      </c>
+      <c r="E8">
+        <v>0.3465265377374639</v>
+      </c>
+      <c r="F8">
+        <v>0.001301673859831363</v>
+      </c>
+      <c r="G8">
+        <v>0.08215504520130246</v>
+      </c>
+      <c r="H8">
+        <v>0.8883564502125174</v>
+      </c>
+      <c r="I8">
+        <v>3.175309286128577E-133</v>
+      </c>
+      <c r="J8">
+        <v>11.21000003814697</v>
+      </c>
+      <c r="K8">
+        <v>12.27000045776367</v>
+      </c>
+      <c r="L8">
+        <v>0.3872608575910039</v>
+      </c>
+      <c r="M8">
+        <v>-0.308542821782952</v>
+      </c>
+      <c r="N8">
+        <v>0.1153344084073222</v>
+      </c>
+      <c r="O8">
+        <v>0.2277109421807708</v>
+      </c>
+      <c r="P8">
+        <v>0.01200061702337046</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>1327</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4">
-        <v>0.733587381658496</v>
-      </c>
-      <c r="E4">
-        <v>0.3819875042017893</v>
-      </c>
-      <c r="F4">
-        <v>0.001022659020880669</v>
-      </c>
-      <c r="G4">
-        <v>7.050336087712936</v>
-      </c>
-      <c r="H4">
-        <v>0.3643257603160011</v>
-      </c>
-      <c r="I4">
-        <v>2.182838794610403E-58</v>
-      </c>
-      <c r="J4">
-        <v>11.46000003814697</v>
-      </c>
-      <c r="K4">
-        <v>12.98999977111816</v>
-      </c>
-      <c r="L4">
-        <v>0.701614350431921</v>
-      </c>
-      <c r="M4">
-        <v>-0.8695863661233627</v>
-      </c>
-      <c r="N4">
-        <v>0.2807370562338</v>
-      </c>
-      <c r="O4">
-        <v>-0.3229275926832686</v>
-      </c>
-      <c r="P4">
-        <v>0.01505396863239458</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" t="s">
-        <v>21</v>
+      <c r="D9">
+        <v>0.7154226002910238</v>
+      </c>
+      <c r="E9">
+        <v>0.7484194551298817</v>
+      </c>
+      <c r="F9">
+        <v>0.0008393467321663479</v>
+      </c>
+      <c r="G9">
+        <v>26.32860940043438</v>
+      </c>
+      <c r="H9">
+        <v>-1.769168972384806</v>
+      </c>
+      <c r="I9">
+        <v>4.069561676437482E-34</v>
+      </c>
+      <c r="J9">
+        <v>10.35999965667725</v>
+      </c>
+      <c r="K9">
+        <v>9.489999771118164</v>
+      </c>
+      <c r="L9">
+        <v>1.336184285821439</v>
+      </c>
+      <c r="M9">
+        <v>-1.082025347884706</v>
+      </c>
+      <c r="N9">
+        <v>0.4780640245240063</v>
+      </c>
+      <c r="O9">
+        <v>0.8208033992440278</v>
+      </c>
+      <c r="P9">
+        <v>0.01238532115739578</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>1577</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>0.7484194551298817</v>
+      </c>
+      <c r="E10">
+        <v>0.6781891982846869</v>
+      </c>
+      <c r="F10">
+        <v>0.0006176148342883401</v>
+      </c>
+      <c r="G10">
+        <v>8.253633065098505</v>
+      </c>
+      <c r="H10">
+        <v>0.5329753801635542</v>
+      </c>
+      <c r="I10">
+        <v>2.885630924608384E-48</v>
+      </c>
+      <c r="J10">
+        <v>9.489999771118164</v>
+      </c>
+      <c r="K10">
+        <v>1.870000004768372</v>
+      </c>
+      <c r="L10">
+        <v>0.3367109815928355</v>
+      </c>
+      <c r="M10">
+        <v>-0.4373193186573996</v>
+      </c>
+      <c r="N10">
+        <v>0.1736713422932452</v>
+      </c>
+      <c r="O10">
+        <v>0.2397027425723881</v>
+      </c>
+      <c r="P10">
+        <v>0.01254680110071597</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>3372</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>0.4092203085748797</v>
+      </c>
+      <c r="E11">
+        <v>0.4195247051137491</v>
+      </c>
+      <c r="F11">
+        <v>0.0002401568655215474</v>
+      </c>
+      <c r="G11">
+        <v>8.081237646822681</v>
+      </c>
+      <c r="H11">
+        <v>0.393921733104967</v>
+      </c>
+      <c r="I11">
+        <v>2.099507071819984E-29</v>
+      </c>
+      <c r="J11">
+        <v>15.64999961853027</v>
+      </c>
+      <c r="K11">
+        <v>21.02000045776367</v>
+      </c>
+      <c r="L11">
+        <v>1.284085291483656</v>
+      </c>
+      <c r="M11">
+        <v>-0.7447698365978503</v>
+      </c>
+      <c r="N11">
+        <v>0.4324131165173593</v>
+      </c>
+      <c r="O11">
+        <v>-0.7114730384818735</v>
+      </c>
+      <c r="P11">
+        <v>0.01297050936442878</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -76,46 +76,46 @@
     <t>ELET6</t>
   </si>
   <si>
+    <t>CSAN3</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
     <t>EQTL3</t>
   </si>
   <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>BBDC3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
     <t>B3SA3</t>
   </si>
   <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>BBDC3</t>
-  </si>
-  <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
     <t>MGLU3</t>
   </si>
   <si>
     <t>RAIZ4</t>
   </si>
   <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
+  </si>
+  <si>
     <t>MULT3</t>
   </si>
   <si>
-    <t>CIEL3</t>
-  </si>
-  <si>
-    <t>ENGI11</t>
+    <t>CSNA3</t>
   </si>
   <si>
     <t>BBDC4</t>
-  </si>
-  <si>
-    <t>CVCB3</t>
   </si>
   <si>
     <t>VBBR3</t>
@@ -549,43 +549,43 @@
         <v>27</v>
       </c>
       <c r="D2">
-        <v>0.6934946631034882</v>
+        <v>0.6508811511329204</v>
       </c>
       <c r="E2">
-        <v>0.8447449076076179</v>
+        <v>0.8055245276957053</v>
       </c>
       <c r="F2">
-        <v>7.179336100409098E-06</v>
+        <v>1.751886540566421E-05</v>
       </c>
       <c r="G2">
-        <v>26.16380713075067</v>
+        <v>26.24893758363897</v>
       </c>
       <c r="H2">
-        <v>0.7858392682842401</v>
+        <v>0.7815858159891697</v>
       </c>
       <c r="I2">
-        <v>2.951335826516249E-78</v>
+        <v>8.452035923289814E-78</v>
       </c>
       <c r="J2">
-        <v>37.34999847412109</v>
+        <v>38.20000076293945</v>
       </c>
       <c r="K2">
-        <v>12.57999992370605</v>
+        <v>13.18000030517578</v>
       </c>
       <c r="L2">
-        <v>1.946030401678257</v>
+        <v>1.946819688395507</v>
       </c>
       <c r="M2">
-        <v>-1.660400728342765</v>
+        <v>-1.669836271472178</v>
       </c>
       <c r="N2">
-        <v>0.7329972600851585</v>
+        <v>0.7441099377246865</v>
       </c>
       <c r="O2">
-        <v>1.300333408309459</v>
+        <v>1.649761886042162</v>
       </c>
       <c r="P2">
-        <v>0.007892254488437596</v>
+        <v>0.008270892941240318</v>
       </c>
       <c r="Q2" t="s">
         <v>27</v>
@@ -605,43 +605,43 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <v>0.5877530852264051</v>
+        <v>0.5550635097358662</v>
       </c>
       <c r="E3">
-        <v>0.8447449076076179</v>
+        <v>0.8055245276957053</v>
       </c>
       <c r="F3">
-        <v>8.623247309367897E-06</v>
+        <v>1.842481942989919E-05</v>
       </c>
       <c r="G3">
-        <v>31.83045841208792</v>
+        <v>31.91014270253017</v>
       </c>
       <c r="H3">
-        <v>0.6622240314878124</v>
+        <v>0.658242690891544</v>
       </c>
       <c r="I3">
-        <v>6.456373395718005E-72</v>
+        <v>1.994366612144261E-71</v>
       </c>
       <c r="J3">
-        <v>41.47999954223633</v>
+        <v>42.13000106811523</v>
       </c>
       <c r="K3">
-        <v>12.57999992370605</v>
+        <v>13.18000030517578</v>
       </c>
       <c r="L3">
-        <v>1.707395309707366</v>
+        <v>1.708134102347266</v>
       </c>
       <c r="M3">
-        <v>-1.683974749357368</v>
+        <v>-1.680050887277979</v>
       </c>
       <c r="N3">
-        <v>0.6958615123253067</v>
+        <v>0.7060493358772006</v>
       </c>
       <c r="O3">
-        <v>1.318762864555415</v>
+        <v>1.544219498754792</v>
       </c>
       <c r="P3">
-        <v>0.008092220735749715</v>
+        <v>0.008459129673526508</v>
       </c>
       <c r="Q3" t="s">
         <v>27</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2303</v>
+        <v>1731</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -661,43 +661,43 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>0.4984267761492261</v>
+        <v>0.729915592008059</v>
       </c>
       <c r="E4">
-        <v>0.7699140868506406</v>
+        <v>0.7743313245440697</v>
       </c>
       <c r="F4">
-        <v>0.00785991244647428</v>
+        <v>2.767536034259626E-05</v>
       </c>
       <c r="G4">
-        <v>17.88183864473903</v>
+        <v>-0.3024307581356891</v>
       </c>
       <c r="H4">
-        <v>4.232727227875181</v>
+        <v>4.710376347900959</v>
       </c>
       <c r="I4">
-        <v>2.354589753402905E-66</v>
+        <v>4.335285895348794E-106</v>
       </c>
       <c r="J4">
-        <v>32.02000045776367</v>
+        <v>14.14000034332275</v>
       </c>
       <c r="K4">
-        <v>3.009999990463257</v>
+        <v>2.990000009536743</v>
       </c>
       <c r="L4">
-        <v>1.534632914756937</v>
+        <v>0.8204003610613952</v>
       </c>
       <c r="M4">
-        <v>-1.767600358022086</v>
+        <v>-0.8523277249746961</v>
       </c>
       <c r="N4">
-        <v>0.6270638827115365</v>
+        <v>0.3405428367507545</v>
       </c>
       <c r="O4">
-        <v>1.397652897486777</v>
+        <v>0.3584057763129262</v>
       </c>
       <c r="P4">
-        <v>0.01059753539210982</v>
+        <v>0.009399588811844925</v>
       </c>
       <c r="Q4" t="s">
         <v>28</v>
@@ -708,63 +708,63 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2294</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
       <c r="D5">
-        <v>0.4984267761492261</v>
+        <v>0.7226208389477325</v>
       </c>
       <c r="E5">
-        <v>0.5720084538788208</v>
+        <v>0.4426885042280416</v>
       </c>
       <c r="F5">
-        <v>0.001162975398489518</v>
+        <v>0.0007573494472392518</v>
       </c>
       <c r="G5">
-        <v>8.500257199381606</v>
+        <v>9.208994917347397</v>
       </c>
       <c r="H5">
-        <v>0.945834362415614</v>
+        <v>1.349903923348195</v>
       </c>
       <c r="I5">
-        <v>1.427576924989678E-70</v>
+        <v>1.002999380110629E-71</v>
       </c>
       <c r="J5">
-        <v>32.02000045776367</v>
+        <v>11.44999980926514</v>
       </c>
       <c r="K5">
-        <v>23.18000030517578</v>
+        <v>1.840000033378601</v>
       </c>
       <c r="L5">
-        <v>2.172801748732141</v>
+        <v>0.8257480044678687</v>
       </c>
       <c r="M5">
-        <v>-1.4107056238119</v>
+        <v>-0.3598352324596057</v>
       </c>
       <c r="N5">
-        <v>0.5829463858597813</v>
+        <v>0.2283831941667378</v>
       </c>
       <c r="O5">
-        <v>1.595302448942391</v>
+        <v>-0.2428183721008432</v>
       </c>
       <c r="P5">
-        <v>0.01162338411495549</v>
+        <v>0.01175272223981029</v>
       </c>
       <c r="Q5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" t="s">
         <v>29</v>
-      </c>
-      <c r="R5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>335</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -773,43 +773,43 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>0.6088452045106184</v>
+        <v>0.7226208389477325</v>
       </c>
       <c r="E6">
-        <v>0.4275122204459176</v>
+        <v>0.5444663479294414</v>
       </c>
       <c r="F6">
-        <v>0.0007913654518523426</v>
+        <v>0.001416414659715383</v>
       </c>
       <c r="G6">
-        <v>25.94681890090985</v>
+        <v>-0.3190601218813753</v>
       </c>
       <c r="H6">
-        <v>-2.668577755102039</v>
+        <v>0.2639761274999416</v>
       </c>
       <c r="I6">
-        <v>9.750283796829489E-67</v>
+        <v>1.476055309041006E-55</v>
       </c>
       <c r="J6">
-        <v>10.43000030517578</v>
+        <v>11.44999980926514</v>
       </c>
       <c r="K6">
-        <v>5.659999847412109</v>
+        <v>46.2599983215332</v>
       </c>
       <c r="L6">
-        <v>0.9619304789115493</v>
+        <v>0.8351795849042052</v>
       </c>
       <c r="M6">
-        <v>-0.9174759056963691</v>
+        <v>-0.5770143798710556</v>
       </c>
       <c r="N6">
-        <v>0.3833413900394377</v>
+        <v>0.301437253417171</v>
       </c>
       <c r="O6">
-        <v>-0.4126689090491791</v>
+        <v>-0.4424752839256207</v>
       </c>
       <c r="P6">
-        <v>0.01168569432371004</v>
+        <v>0.01193766901456737</v>
       </c>
       <c r="Q6" t="s">
         <v>21</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>34</v>
+        <v>2294</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -829,54 +829,54 @@
         <v>31</v>
       </c>
       <c r="D7">
-        <v>0.7546681395520503</v>
+        <v>0.4953382085464778</v>
       </c>
       <c r="E7">
-        <v>0.5860851077460516</v>
+        <v>0.5057571648354454</v>
       </c>
       <c r="F7">
-        <v>0.001286666551022655</v>
+        <v>0.001385441982950554</v>
       </c>
       <c r="G7">
-        <v>-0.2637289565416454</v>
+        <v>8.603202659848247</v>
       </c>
       <c r="H7">
-        <v>0.2629037291307893</v>
+        <v>0.9421610751290822</v>
       </c>
       <c r="I7">
-        <v>3.228133637681872E-55</v>
+        <v>1.056702140915638E-69</v>
       </c>
       <c r="J7">
-        <v>11.38000011444092</v>
+        <v>32.5</v>
       </c>
       <c r="K7">
-        <v>45.63999938964844</v>
+        <v>23.78000068664551</v>
       </c>
       <c r="L7">
-        <v>0.8339246587789475</v>
+        <v>2.152799114915137</v>
       </c>
       <c r="M7">
-        <v>-0.5781679791103045</v>
+        <v>-1.426787825244574</v>
       </c>
       <c r="N7">
-        <v>0.3001141089776236</v>
+        <v>0.5948710221422986</v>
       </c>
       <c r="O7">
-        <v>-0.3551969660829588</v>
+        <v>1.492206326651509</v>
       </c>
       <c r="P7">
-        <v>0.01174276177883904</v>
+        <v>0.01213297532254915</v>
       </c>
       <c r="Q7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" t="s">
         <v>22</v>
-      </c>
-      <c r="R7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>478</v>
+        <v>1576</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -885,43 +885,43 @@
         <v>32</v>
       </c>
       <c r="D8">
-        <v>0.3434166598121775</v>
+        <v>0.3611834302314924</v>
       </c>
       <c r="E8">
-        <v>0.3465265377374639</v>
+        <v>0.466183268886414</v>
       </c>
       <c r="F8">
-        <v>0.001301673859831363</v>
+        <v>0.000391793435588818</v>
       </c>
       <c r="G8">
-        <v>0.08215504520130246</v>
+        <v>7.052103946347453</v>
       </c>
       <c r="H8">
-        <v>0.8883564502125174</v>
+        <v>0.1775064649580457</v>
       </c>
       <c r="I8">
-        <v>3.175309286128577E-133</v>
+        <v>5.96636140669711E-45</v>
       </c>
       <c r="J8">
-        <v>11.21000003814697</v>
+        <v>9.710000038146973</v>
       </c>
       <c r="K8">
-        <v>12.27000045776367</v>
+        <v>13.28999996185303</v>
       </c>
       <c r="L8">
-        <v>0.3872608575910039</v>
+        <v>0.3926187064984443</v>
       </c>
       <c r="M8">
-        <v>-0.308542821782952</v>
+        <v>-0.4225843755398593</v>
       </c>
       <c r="N8">
-        <v>0.1153344084073222</v>
+        <v>0.1842599124924497</v>
       </c>
       <c r="O8">
-        <v>0.2277109421807708</v>
+        <v>0.2988351792784272</v>
       </c>
       <c r="P8">
-        <v>0.01200061702337046</v>
+        <v>0.01248483271876192</v>
       </c>
       <c r="Q8" t="s">
         <v>32</v>
@@ -932,55 +932,55 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1327</v>
+        <v>478</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>0.7154226002910238</v>
+        <v>0.2350526197818118</v>
       </c>
       <c r="E9">
-        <v>0.7484194551298817</v>
+        <v>0.2521599626038578</v>
       </c>
       <c r="F9">
-        <v>0.0008393467321663479</v>
+        <v>0.001926997360235999</v>
       </c>
       <c r="G9">
-        <v>26.32860940043438</v>
+        <v>0.1027140717683737</v>
       </c>
       <c r="H9">
-        <v>-1.769168972384806</v>
+        <v>0.8859843332279329</v>
       </c>
       <c r="I9">
-        <v>4.069561676437482E-34</v>
+        <v>6.147875376022871E-131</v>
       </c>
       <c r="J9">
-        <v>10.35999965667725</v>
+        <v>11.23999977111816</v>
       </c>
       <c r="K9">
-        <v>9.489999771118164</v>
+        <v>12.31999969482422</v>
       </c>
       <c r="L9">
-        <v>1.336184285821439</v>
+        <v>0.371072137096812</v>
       </c>
       <c r="M9">
-        <v>-1.082025347884706</v>
+        <v>-0.2985587743324967</v>
       </c>
       <c r="N9">
-        <v>0.4780640245240063</v>
+        <v>0.1140679866113397</v>
       </c>
       <c r="O9">
-        <v>0.8208033992440278</v>
+        <v>0.2219589843626188</v>
       </c>
       <c r="P9">
-        <v>0.01238532115739578</v>
+        <v>0.01266089531623007</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="R9" t="s">
         <v>24</v>
@@ -988,114 +988,114 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1577</v>
+        <v>3372</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>0.7484194551298817</v>
+        <v>0.3398512878805731</v>
       </c>
       <c r="E10">
-        <v>0.6781891982846869</v>
+        <v>0.367903670402083</v>
       </c>
       <c r="F10">
-        <v>0.0006176148342883401</v>
+        <v>0.0002060510775208203</v>
       </c>
       <c r="G10">
-        <v>8.253633065098505</v>
+        <v>8.021778367155814</v>
       </c>
       <c r="H10">
-        <v>0.5329753801635542</v>
+        <v>0.3963542158802821</v>
       </c>
       <c r="I10">
-        <v>2.885630924608384E-48</v>
+        <v>1.341350170860239E-29</v>
       </c>
       <c r="J10">
-        <v>9.489999771118164</v>
+        <v>15.89000034332275</v>
       </c>
       <c r="K10">
-        <v>1.870000004768372</v>
+        <v>21.48999977111816</v>
       </c>
       <c r="L10">
-        <v>0.3367109815928355</v>
+        <v>1.287729445172104</v>
       </c>
       <c r="M10">
-        <v>-0.4373193186573996</v>
+        <v>-0.7413397165996507</v>
       </c>
       <c r="N10">
-        <v>0.1736713422932452</v>
+        <v>0.4344441653365723</v>
       </c>
       <c r="O10">
-        <v>0.2397027425723881</v>
+        <v>-0.6494300323820426</v>
       </c>
       <c r="P10">
-        <v>0.01254680110071597</v>
+        <v>0.01306727093629289</v>
       </c>
       <c r="Q10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>3372</v>
+        <v>352</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>0.4092203085748797</v>
+        <v>0.5546679512053418</v>
       </c>
       <c r="E11">
-        <v>0.4195247051137491</v>
+        <v>0.5444663479294414</v>
       </c>
       <c r="F11">
-        <v>0.0002401568655215474</v>
+        <v>0.0002277909516142024</v>
       </c>
       <c r="G11">
-        <v>8.081237646822681</v>
+        <v>-8.024785960859575</v>
       </c>
       <c r="H11">
-        <v>0.393921733104967</v>
+        <v>0.4125878317886496</v>
       </c>
       <c r="I11">
-        <v>2.099507071819984E-29</v>
+        <v>6.410357543964462E-57</v>
       </c>
       <c r="J11">
-        <v>15.64999961853027</v>
+        <v>10.57999992370605</v>
       </c>
       <c r="K11">
-        <v>21.02000045776367</v>
+        <v>46.2599983215332</v>
       </c>
       <c r="L11">
-        <v>1.284085291483656</v>
+        <v>1.599382361674074</v>
       </c>
       <c r="M11">
-        <v>-0.7447698365978503</v>
+        <v>-0.9036398562197974</v>
       </c>
       <c r="N11">
-        <v>0.4324131165173593</v>
+        <v>0.4582941542993274</v>
       </c>
       <c r="O11">
-        <v>-0.7114730384818735</v>
+        <v>-0.481526521462321</v>
       </c>
       <c r="P11">
-        <v>0.01297050936442878</v>
+        <v>0.01315384077075599</v>
       </c>
       <c r="Q11" t="s">
         <v>26</v>
       </c>
       <c r="R11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -70,33 +70,30 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
     <t>ELET3</t>
   </si>
   <si>
     <t>ELET6</t>
   </si>
   <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
     <t>CSAN3</t>
   </si>
   <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
     <t>EQTL3</t>
   </si>
   <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
     <t>CPLE6</t>
   </si>
   <si>
-    <t>BBDC3</t>
-  </si>
-  <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
     <t>MGLU3</t>
   </si>
   <si>
@@ -106,19 +103,13 @@
     <t>COGN3</t>
   </si>
   <si>
+    <t>MULT3</t>
+  </si>
+  <si>
     <t>ENGI11</t>
   </si>
   <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
+    <t>CVCB3</t>
   </si>
 </sst>
 </file>
@@ -540,111 +531,111 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2046</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>0.6508811511329204</v>
+        <v>0.6768512735377749</v>
       </c>
       <c r="E2">
-        <v>0.8055245276957053</v>
+        <v>0.3925639400317028</v>
       </c>
       <c r="F2">
-        <v>1.751886540566421E-05</v>
+        <v>1.125172370452069E-06</v>
       </c>
       <c r="G2">
-        <v>26.24893758363897</v>
+        <v>4.98728278911748</v>
       </c>
       <c r="H2">
-        <v>0.7815858159891697</v>
+        <v>0.6252731962186452</v>
       </c>
       <c r="I2">
-        <v>8.452035923289814E-78</v>
+        <v>6.106587971676356E-82</v>
       </c>
       <c r="J2">
-        <v>38.20000076293945</v>
+        <v>11.31999969482422</v>
       </c>
       <c r="K2">
-        <v>13.18000030517578</v>
+        <v>10.52000045776367</v>
       </c>
       <c r="L2">
-        <v>1.946819688395507</v>
+        <v>0.6949926166474647</v>
       </c>
       <c r="M2">
-        <v>-1.669836271472178</v>
+        <v>-0.3403071770469488</v>
       </c>
       <c r="N2">
-        <v>0.7441099377246865</v>
+        <v>0.1837024247604297</v>
       </c>
       <c r="O2">
-        <v>1.649761886042162</v>
+        <v>-0.2451574047407634</v>
       </c>
       <c r="P2">
-        <v>0.008270892941240318</v>
+        <v>0.006981739087291371</v>
       </c>
       <c r="Q2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2097</v>
+        <v>2046</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.5550635097358662</v>
+        <v>0.6623365164720001</v>
       </c>
       <c r="E3">
-        <v>0.8055245276957053</v>
+        <v>0.6853906279377533</v>
       </c>
       <c r="F3">
-        <v>1.842481942989919E-05</v>
+        <v>1.40784317278223E-05</v>
       </c>
       <c r="G3">
-        <v>31.91014270253017</v>
+        <v>26.22660746295872</v>
       </c>
       <c r="H3">
-        <v>0.658242690891544</v>
+        <v>0.7844244876947821</v>
       </c>
       <c r="I3">
-        <v>1.994366612144261E-71</v>
+        <v>4.824501773135616E-77</v>
       </c>
       <c r="J3">
-        <v>42.13000106811523</v>
+        <v>37.93999862670898</v>
       </c>
       <c r="K3">
-        <v>13.18000030517578</v>
+        <v>13.6899995803833</v>
       </c>
       <c r="L3">
-        <v>1.708134102347266</v>
+        <v>1.911808638456655</v>
       </c>
       <c r="M3">
-        <v>-1.680050887277979</v>
+        <v>-1.693490668172188</v>
       </c>
       <c r="N3">
-        <v>0.7060493358772006</v>
+        <v>0.743118465136841</v>
       </c>
       <c r="O3">
-        <v>1.544219498754792</v>
+        <v>0.9746202563663129</v>
       </c>
       <c r="P3">
-        <v>0.008459129673526508</v>
+        <v>0.008173031905474425</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -652,55 +643,55 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1731</v>
+        <v>2097</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.729915592008059</v>
+        <v>0.5399574661548313</v>
       </c>
       <c r="E4">
-        <v>0.7743313245440697</v>
+        <v>0.6853906279377533</v>
       </c>
       <c r="F4">
-        <v>2.767536034259626E-05</v>
+        <v>6.288675102454691E-05</v>
       </c>
       <c r="G4">
-        <v>-0.3024307581356891</v>
+        <v>31.90308764409064</v>
       </c>
       <c r="H4">
-        <v>4.710376347900959</v>
+        <v>0.6604823077080378</v>
       </c>
       <c r="I4">
-        <v>4.335285895348794E-106</v>
+        <v>1.49591486489129E-70</v>
       </c>
       <c r="J4">
-        <v>14.14000034332275</v>
+        <v>42.40000152587891</v>
       </c>
       <c r="K4">
-        <v>2.990000009536743</v>
+        <v>13.6899995803833</v>
       </c>
       <c r="L4">
-        <v>0.8204003610613952</v>
+        <v>1.66994889938492</v>
       </c>
       <c r="M4">
-        <v>-0.8523277249746961</v>
+        <v>-1.720027781984825</v>
       </c>
       <c r="N4">
-        <v>0.3405428367507545</v>
+        <v>0.7077419673714589</v>
       </c>
       <c r="O4">
-        <v>0.3584057763129262</v>
+        <v>1.454911366414635</v>
       </c>
       <c r="P4">
-        <v>0.009399588811844925</v>
+        <v>0.008860957818795284</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -708,394 +699,394 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>20</v>
+        <v>1788</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.7226208389477325</v>
+        <v>0.3772582909821499</v>
       </c>
       <c r="E5">
-        <v>0.4426885042280416</v>
+        <v>0.5667483694452269</v>
       </c>
       <c r="F5">
-        <v>0.0007573494472392518</v>
+        <v>5.670782740378732E-05</v>
       </c>
       <c r="G5">
-        <v>9.208994917347397</v>
+        <v>0.3448921516800501</v>
       </c>
       <c r="H5">
-        <v>1.349903923348195</v>
+        <v>4.32601787544669</v>
       </c>
       <c r="I5">
-        <v>1.002999380110629E-71</v>
+        <v>1.6347896815636E-85</v>
       </c>
       <c r="J5">
-        <v>11.44999980926514</v>
+        <v>13.02000045776367</v>
       </c>
       <c r="K5">
-        <v>1.840000033378601</v>
+        <v>3.079999923706055</v>
       </c>
       <c r="L5">
-        <v>0.8257480044678687</v>
+        <v>1.021617807290962</v>
       </c>
       <c r="M5">
-        <v>-0.3598352324596057</v>
+        <v>-0.9238123396746811</v>
       </c>
       <c r="N5">
-        <v>0.2283831941667378</v>
+        <v>0.4402285069924426</v>
       </c>
       <c r="O5">
-        <v>-0.2428183721008432</v>
+        <v>-0.6490264202432137</v>
       </c>
       <c r="P5">
-        <v>0.01175272223981029</v>
+        <v>0.009058556594776243</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>34</v>
+        <v>1693</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
       <c r="D6">
-        <v>0.7226208389477325</v>
+        <v>0.6544814315307247</v>
       </c>
       <c r="E6">
-        <v>0.5444663479294414</v>
+        <v>0.3772582909821499</v>
       </c>
       <c r="F6">
-        <v>0.001416414659715383</v>
+        <v>0.0002640242754871997</v>
       </c>
       <c r="G6">
-        <v>-0.3190601218813753</v>
+        <v>-0.0574290119637153</v>
       </c>
       <c r="H6">
-        <v>0.2639761274999416</v>
+        <v>1.046465116629619</v>
       </c>
       <c r="I6">
-        <v>1.476055309041006E-55</v>
+        <v>1.927187040758862E-92</v>
       </c>
       <c r="J6">
-        <v>11.44999980926514</v>
+        <v>14.10000038146973</v>
       </c>
       <c r="K6">
-        <v>46.2599983215332</v>
+        <v>13.02000045776367</v>
       </c>
       <c r="L6">
-        <v>0.8351795849042052</v>
+        <v>1.236028939390355</v>
       </c>
       <c r="M6">
-        <v>-0.5770143798710556</v>
+        <v>-1.046152842420014</v>
       </c>
       <c r="N6">
-        <v>0.301437253417171</v>
+        <v>0.4172067100026404</v>
       </c>
       <c r="O6">
-        <v>-0.4424752839256207</v>
+        <v>0.5324530958820883</v>
       </c>
       <c r="P6">
-        <v>0.01193766901456737</v>
+        <v>0.01052837570188841</v>
       </c>
       <c r="Q6" t="s">
         <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2294</v>
+        <v>2303</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>0.4953382085464778</v>
+        <v>0.4008351817559262</v>
       </c>
       <c r="E7">
-        <v>0.5057571648354454</v>
+        <v>0.5667483694452269</v>
       </c>
       <c r="F7">
-        <v>0.001385441982950554</v>
+        <v>0.002429998863644604</v>
       </c>
       <c r="G7">
-        <v>8.603202659848247</v>
+        <v>18.12585284642157</v>
       </c>
       <c r="H7">
-        <v>0.9421610751290822</v>
+        <v>4.16600854500258</v>
       </c>
       <c r="I7">
-        <v>1.056702140915638E-69</v>
+        <v>6.472250430342044E-62</v>
       </c>
       <c r="J7">
-        <v>32.5</v>
+        <v>32.58000183105469</v>
       </c>
       <c r="K7">
-        <v>23.78000068664551</v>
+        <v>3.079999923706055</v>
       </c>
       <c r="L7">
-        <v>2.152799114915137</v>
+        <v>1.917781564290568</v>
       </c>
       <c r="M7">
-        <v>-1.426787825244574</v>
+        <v>-1.807455393932131</v>
       </c>
       <c r="N7">
-        <v>0.5948710221422986</v>
+        <v>0.6643577286356751</v>
       </c>
       <c r="O7">
-        <v>1.492206326651509</v>
+        <v>1.622842983866404</v>
       </c>
       <c r="P7">
-        <v>0.01213297532254915</v>
+        <v>0.0122487488455153</v>
       </c>
       <c r="Q7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1576</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>0.3611834302314924</v>
+        <v>0.6768512735377749</v>
       </c>
       <c r="E8">
-        <v>0.466183268886414</v>
+        <v>0.4411581898638385</v>
       </c>
       <c r="F8">
-        <v>0.000391793435588818</v>
+        <v>0.001692620696640358</v>
       </c>
       <c r="G8">
-        <v>7.052103946347453</v>
+        <v>9.184665821923874</v>
       </c>
       <c r="H8">
-        <v>0.1775064649580457</v>
+        <v>1.359060869076178</v>
       </c>
       <c r="I8">
-        <v>5.96636140669711E-45</v>
+        <v>1.740042162686045E-68</v>
       </c>
       <c r="J8">
-        <v>9.710000038146973</v>
+        <v>11.31999969482422</v>
       </c>
       <c r="K8">
-        <v>13.28999996185303</v>
+        <v>1.870000004768372</v>
       </c>
       <c r="L8">
-        <v>0.3926187064984443</v>
+        <v>0.8269100274615759</v>
       </c>
       <c r="M8">
-        <v>-0.4225843755398593</v>
+        <v>-0.4061099587526158</v>
       </c>
       <c r="N8">
-        <v>0.1842599124924497</v>
+        <v>0.2322632320348773</v>
       </c>
       <c r="O8">
-        <v>0.2988351792784272</v>
+        <v>-0.4061099587526149</v>
       </c>
       <c r="P8">
-        <v>0.01248483271876192</v>
+        <v>0.01233745353516091</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>478</v>
+        <v>2294</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>0.2350526197818118</v>
+        <v>0.4008351817559262</v>
       </c>
       <c r="E9">
-        <v>0.2521599626038578</v>
+        <v>0.4092696779540661</v>
       </c>
       <c r="F9">
-        <v>0.001926997360235999</v>
+        <v>0.001890002419552368</v>
       </c>
       <c r="G9">
-        <v>0.1027140717683737</v>
+        <v>8.314799310088775</v>
       </c>
       <c r="H9">
-        <v>0.8859843332279329</v>
+        <v>0.9547425173517272</v>
       </c>
       <c r="I9">
-        <v>6.147875376022871E-131</v>
+        <v>3.149008828283012E-68</v>
       </c>
       <c r="J9">
-        <v>11.23999977111816</v>
+        <v>32.58000183105469</v>
       </c>
       <c r="K9">
-        <v>12.31999969482422</v>
+        <v>24.17000007629395</v>
       </c>
       <c r="L9">
-        <v>0.371072137096812</v>
+        <v>2.157113500247171</v>
       </c>
       <c r="M9">
-        <v>-0.2985587743324967</v>
+        <v>-1.435901383246033</v>
       </c>
       <c r="N9">
-        <v>0.1140679866113397</v>
+        <v>0.5951430219766399</v>
       </c>
       <c r="O9">
-        <v>0.2219589843626188</v>
+        <v>1.189075803733594</v>
       </c>
       <c r="P9">
-        <v>0.01266089531623007</v>
+        <v>0.01237551090649288</v>
       </c>
       <c r="Q9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>3372</v>
+        <v>352</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>0.3398512878805731</v>
+        <v>0.3925639400317028</v>
       </c>
       <c r="E10">
-        <v>0.367903670402083</v>
+        <v>0.5269805686911025</v>
       </c>
       <c r="F10">
-        <v>0.0002060510775208203</v>
+        <v>0.0003193348459851081</v>
       </c>
       <c r="G10">
-        <v>8.021778367155814</v>
+        <v>-7.695810534906479</v>
       </c>
       <c r="H10">
-        <v>0.3963542158802821</v>
+        <v>0.4051310768612533</v>
       </c>
       <c r="I10">
-        <v>1.341350170860239E-29</v>
+        <v>4.214068023974251E-59</v>
       </c>
       <c r="J10">
-        <v>15.89000034332275</v>
+        <v>10.52000045776367</v>
       </c>
       <c r="K10">
-        <v>21.48999977111816</v>
+        <v>46.54000091552734</v>
       </c>
       <c r="L10">
-        <v>1.287729445172104</v>
+        <v>1.37072218819878</v>
       </c>
       <c r="M10">
-        <v>-0.7413397165996507</v>
+        <v>-0.8526200115739613</v>
       </c>
       <c r="N10">
-        <v>0.4344441653365723</v>
+        <v>0.4238546365417072</v>
       </c>
       <c r="O10">
-        <v>-0.6494300323820426</v>
+        <v>-0.6389896953611576</v>
       </c>
       <c r="P10">
-        <v>0.01306727093629289</v>
+        <v>0.01255064799692189</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>352</v>
+        <v>1577</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.5546679512053418</v>
+        <v>0.3185363659265966</v>
       </c>
       <c r="E11">
-        <v>0.5444663479294414</v>
+        <v>0.404654863107555</v>
       </c>
       <c r="F11">
-        <v>0.0002277909516142024</v>
+        <v>0.00203316690534229</v>
       </c>
       <c r="G11">
-        <v>-8.024785960859575</v>
+        <v>8.234208552764581</v>
       </c>
       <c r="H11">
-        <v>0.4125878317886496</v>
+        <v>0.5456862453419674</v>
       </c>
       <c r="I11">
-        <v>6.410357543964462E-57</v>
+        <v>1.993170910167438E-48</v>
       </c>
       <c r="J11">
-        <v>10.57999992370605</v>
+        <v>9.739999771118164</v>
       </c>
       <c r="K11">
-        <v>46.2599983215332</v>
+        <v>2.059999942779541</v>
       </c>
       <c r="L11">
-        <v>1.599382361674074</v>
+        <v>0.4553582039908779</v>
       </c>
       <c r="M11">
-        <v>-0.9036398562197974</v>
+        <v>-0.3647113501813273</v>
       </c>
       <c r="N11">
-        <v>0.4582941542993274</v>
+        <v>0.1720686341291643</v>
       </c>
       <c r="O11">
-        <v>-0.481526521462321</v>
+        <v>0.3816775841735471</v>
       </c>
       <c r="P11">
-        <v>0.01315384077075599</v>
+        <v>0.01289406527867865</v>
       </c>
       <c r="Q11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -70,28 +70,28 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
+    <t>CSAN3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
     <t>ABEV3</t>
   </si>
   <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
-    <t>CSAN3</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
     <t>B3SA3</t>
   </si>
   <si>
-    <t>CPLE6</t>
+    <t>BBAS3</t>
   </si>
   <si>
     <t>MGLU3</t>
@@ -100,16 +100,19 @@
     <t>RAIZ4</t>
   </si>
   <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
     <t>COGN3</t>
   </si>
   <si>
-    <t>MULT3</t>
-  </si>
-  <si>
     <t>ENGI11</t>
   </si>
   <si>
-    <t>CVCB3</t>
+    <t>USIM5</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
   </si>
 </sst>
 </file>
@@ -531,63 +534,63 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>4</v>
+        <v>2046</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.6768512735377749</v>
+        <v>0.6481639369109083</v>
       </c>
       <c r="E2">
-        <v>0.3925639400317028</v>
+        <v>0.8256644297845517</v>
       </c>
       <c r="F2">
-        <v>1.125172370452069E-06</v>
+        <v>3.540048415787642E-05</v>
       </c>
       <c r="G2">
-        <v>4.98728278911748</v>
+        <v>26.29871994539149</v>
       </c>
       <c r="H2">
-        <v>0.6252731962186452</v>
+        <v>0.7810320581534815</v>
       </c>
       <c r="I2">
-        <v>6.106587971676356E-82</v>
+        <v>3.179755905790802E-76</v>
       </c>
       <c r="J2">
-        <v>11.31999969482422</v>
+        <v>37.88000106811523</v>
       </c>
       <c r="K2">
-        <v>10.52000045776367</v>
+        <v>12.89000034332275</v>
       </c>
       <c r="L2">
-        <v>0.6949926166474647</v>
+        <v>1.90822323534637</v>
       </c>
       <c r="M2">
-        <v>-0.3403071770469488</v>
+        <v>-1.710924635310015</v>
       </c>
       <c r="N2">
-        <v>0.1837024247604297</v>
+        <v>0.7539210856250388</v>
       </c>
       <c r="O2">
-        <v>-0.2451574047407634</v>
+        <v>1.513777624979291</v>
       </c>
       <c r="P2">
-        <v>0.006981739087291371</v>
+        <v>0.008492020017645723</v>
       </c>
       <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2046</v>
+        <v>2097</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -596,43 +599,43 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>0.6623365164720001</v>
+        <v>0.5266992872380706</v>
       </c>
       <c r="E3">
-        <v>0.6853906279377533</v>
+        <v>0.8256644297845517</v>
       </c>
       <c r="F3">
-        <v>1.40784317278223E-05</v>
+        <v>0.0001504710299217251</v>
       </c>
       <c r="G3">
-        <v>26.22660746295872</v>
+        <v>31.98552126794381</v>
       </c>
       <c r="H3">
-        <v>0.7844244876947821</v>
+        <v>0.6565278257441064</v>
       </c>
       <c r="I3">
-        <v>4.824501773135616E-77</v>
+        <v>2.306015337143081E-69</v>
       </c>
       <c r="J3">
-        <v>37.93999862670898</v>
+        <v>42.13000106811523</v>
       </c>
       <c r="K3">
-        <v>13.6899995803833</v>
+        <v>12.89000034332275</v>
       </c>
       <c r="L3">
-        <v>1.911808638456655</v>
+        <v>1.681835900928959</v>
       </c>
       <c r="M3">
-        <v>-1.693490668172188</v>
+        <v>-1.71941728459543</v>
       </c>
       <c r="N3">
-        <v>0.743118465136841</v>
+        <v>0.7221677221936605</v>
       </c>
       <c r="O3">
-        <v>0.9746202563663129</v>
+        <v>1.681835900928956</v>
       </c>
       <c r="P3">
-        <v>0.008173031905474425</v>
+        <v>0.009352731064413776</v>
       </c>
       <c r="Q3" t="s">
         <v>26</v>
@@ -643,391 +646,391 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2097</v>
+        <v>1788</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.5399574661548313</v>
+        <v>0.2712960064223695</v>
       </c>
       <c r="E4">
-        <v>0.6853906279377533</v>
+        <v>0.3600291365702755</v>
       </c>
       <c r="F4">
-        <v>6.288675102454691E-05</v>
+        <v>8.551605192131035E-05</v>
       </c>
       <c r="G4">
-        <v>31.90308764409064</v>
+        <v>0.3480058171322233</v>
       </c>
       <c r="H4">
-        <v>0.6604823077080378</v>
+        <v>4.322997930700278</v>
       </c>
       <c r="I4">
-        <v>1.49591486489129E-70</v>
+        <v>6.582705877905535E-85</v>
       </c>
       <c r="J4">
-        <v>42.40000152587891</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="K4">
-        <v>13.6899995803833</v>
+        <v>3.049999952316284</v>
       </c>
       <c r="L4">
-        <v>1.66994889938492</v>
+        <v>1.030077320410278</v>
       </c>
       <c r="M4">
-        <v>-1.720027781984825</v>
+        <v>-0.9170205864450232</v>
       </c>
       <c r="N4">
-        <v>0.7077419673714589</v>
+        <v>0.4417555368868212</v>
       </c>
       <c r="O4">
-        <v>1.454911366414635</v>
+        <v>-0.5631490326026576</v>
       </c>
       <c r="P4">
-        <v>0.008860957818795284</v>
+        <v>0.009400184871044477</v>
       </c>
       <c r="Q4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1788</v>
+        <v>1693</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>0.3772582909821499</v>
+        <v>0.6134969051660253</v>
       </c>
       <c r="E5">
-        <v>0.5667483694452269</v>
+        <v>0.2712960064223695</v>
       </c>
       <c r="F5">
-        <v>5.670782740378732E-05</v>
+        <v>0.000272489411237795</v>
       </c>
       <c r="G5">
-        <v>0.3448921516800501</v>
+        <v>-0.07395724747276389</v>
       </c>
       <c r="H5">
-        <v>4.32601787544669</v>
+        <v>1.048057446716547</v>
       </c>
       <c r="I5">
-        <v>1.6347896815636E-85</v>
+        <v>3.424696563497194E-92</v>
       </c>
       <c r="J5">
-        <v>13.02000045776367</v>
+        <v>13.97000026702881</v>
       </c>
       <c r="K5">
-        <v>3.079999923706055</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="L5">
-        <v>1.021617807290962</v>
+        <v>1.22561407805118</v>
       </c>
       <c r="M5">
-        <v>-0.9238123396746811</v>
+        <v>-1.050308974375708</v>
       </c>
       <c r="N5">
-        <v>0.4402285069924426</v>
+        <v>0.4167827697415502</v>
       </c>
       <c r="O5">
-        <v>-0.6490264202432137</v>
+        <v>0.4506521507264232</v>
       </c>
       <c r="P5">
-        <v>0.009058556594776243</v>
+        <v>0.01054454264987342</v>
       </c>
       <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" t="s">
         <v>21</v>
-      </c>
-      <c r="R5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1693</v>
+        <v>3372</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.6544814315307247</v>
+        <v>0.3638223037060385</v>
       </c>
       <c r="E6">
-        <v>0.3772582909821499</v>
+        <v>0.3913473895432933</v>
       </c>
       <c r="F6">
-        <v>0.0002640242754871997</v>
+        <v>0.0001551998744567341</v>
       </c>
       <c r="G6">
-        <v>-0.0574290119637153</v>
+        <v>7.183731100133677</v>
       </c>
       <c r="H6">
-        <v>1.046465116629619</v>
+        <v>0.4316451049434836</v>
       </c>
       <c r="I6">
-        <v>1.927187040758862E-92</v>
+        <v>2.453147427447972E-33</v>
       </c>
       <c r="J6">
-        <v>14.10000038146973</v>
+        <v>15.90999984741211</v>
       </c>
       <c r="K6">
-        <v>13.02000045776367</v>
+        <v>22.02000045776367</v>
       </c>
       <c r="L6">
-        <v>1.236028939390355</v>
+        <v>1.316001021717696</v>
       </c>
       <c r="M6">
-        <v>-1.046152842420014</v>
+        <v>-1.007404366860555</v>
       </c>
       <c r="N6">
-        <v>0.4172067100026404</v>
+        <v>0.4136523916611663</v>
       </c>
       <c r="O6">
-        <v>0.5324530958820883</v>
+        <v>-0.7785566611685262</v>
       </c>
       <c r="P6">
-        <v>0.01052837570188841</v>
+        <v>0.01191706787498858</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2303</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.4008351817559262</v>
+        <v>0.7302841229318638</v>
       </c>
       <c r="E7">
-        <v>0.5667483694452269</v>
+        <v>0.3553726974419582</v>
       </c>
       <c r="F7">
-        <v>0.002429998863644604</v>
+        <v>0.001836186231536098</v>
       </c>
       <c r="G7">
-        <v>18.12585284642157</v>
+        <v>9.156936926636943</v>
       </c>
       <c r="H7">
-        <v>4.16600854500258</v>
+        <v>1.369711812795048</v>
       </c>
       <c r="I7">
-        <v>6.472250430342044E-62</v>
+        <v>9.128300155770867E-68</v>
       </c>
       <c r="J7">
-        <v>32.58000183105469</v>
+        <v>11.25</v>
       </c>
       <c r="K7">
-        <v>3.079999923706055</v>
+        <v>1.840000033378601</v>
       </c>
       <c r="L7">
-        <v>1.917781564290568</v>
+        <v>0.8276920354444908</v>
       </c>
       <c r="M7">
-        <v>-1.807455393932131</v>
+        <v>-0.4272067078988968</v>
       </c>
       <c r="N7">
-        <v>0.6643577286356751</v>
+        <v>0.2349344201592184</v>
       </c>
       <c r="O7">
-        <v>1.622842983866404</v>
+        <v>-0.4272067078988964</v>
       </c>
       <c r="P7">
-        <v>0.0122487488455153</v>
+        <v>0.0125064575966631</v>
       </c>
       <c r="Q7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.6768512735377749</v>
+        <v>0.4308182408685574</v>
       </c>
       <c r="E8">
-        <v>0.4411581898638385</v>
+        <v>0.467389648027585</v>
       </c>
       <c r="F8">
-        <v>0.001692620696640358</v>
+        <v>0.0005290356903140111</v>
       </c>
       <c r="G8">
-        <v>9.184665821923874</v>
+        <v>-7.609865299900068</v>
       </c>
       <c r="H8">
-        <v>1.359060869076178</v>
+        <v>0.4030244728415617</v>
       </c>
       <c r="I8">
-        <v>1.740042162686045E-68</v>
+        <v>3.808301446082493E-60</v>
       </c>
       <c r="J8">
-        <v>11.31999969482422</v>
+        <v>10.6899995803833</v>
       </c>
       <c r="K8">
-        <v>1.870000004768372</v>
+        <v>47.31999969482422</v>
       </c>
       <c r="L8">
-        <v>0.8269100274615759</v>
+        <v>1.232689815163383</v>
       </c>
       <c r="M8">
-        <v>-0.4061099587526158</v>
+        <v>-0.8312127076655429</v>
       </c>
       <c r="N8">
-        <v>0.2322632320348773</v>
+        <v>0.4122380501998684</v>
       </c>
       <c r="O8">
-        <v>-0.4061099587526149</v>
+        <v>-0.7712530515860223</v>
       </c>
       <c r="P8">
-        <v>0.01233745353516091</v>
+        <v>0.01251883022840843</v>
       </c>
       <c r="Q8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2294</v>
+        <v>472</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.4008351817559262</v>
+        <v>0.110686763512693</v>
       </c>
       <c r="E9">
-        <v>0.4092696779540661</v>
+        <v>0.7052201081835525</v>
       </c>
       <c r="F9">
-        <v>0.001890002419552368</v>
+        <v>0.0007967208099468524</v>
       </c>
       <c r="G9">
-        <v>8.314799310088775</v>
+        <v>22.92588848507422</v>
       </c>
       <c r="H9">
-        <v>0.9547425173517272</v>
+        <v>0.48861758241674</v>
       </c>
       <c r="I9">
-        <v>3.149008828283012E-68</v>
+        <v>1.788193865399096E-23</v>
       </c>
       <c r="J9">
-        <v>32.58000183105469</v>
+        <v>26.29000091552734</v>
       </c>
       <c r="K9">
-        <v>24.17000007629395</v>
+        <v>7.869999885559082</v>
       </c>
       <c r="L9">
-        <v>2.157113500247171</v>
+        <v>1.481961182444689</v>
       </c>
       <c r="M9">
-        <v>-1.435901383246033</v>
+        <v>-1.190210425569418</v>
       </c>
       <c r="N9">
-        <v>0.5951430219766399</v>
+        <v>0.4625968356314427</v>
       </c>
       <c r="O9">
-        <v>1.189075803733594</v>
+        <v>-0.4813078872487799</v>
       </c>
       <c r="P9">
-        <v>0.01237551090649288</v>
+        <v>0.01270762484862384</v>
       </c>
       <c r="Q9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="R9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>352</v>
+        <v>1759</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10">
-        <v>0.3925639400317028</v>
+        <v>0.2712960064223695</v>
       </c>
       <c r="E10">
-        <v>0.5269805686911025</v>
+        <v>0.467389648027585</v>
       </c>
       <c r="F10">
-        <v>0.0003193348459851081</v>
+        <v>7.173247382970326E-06</v>
       </c>
       <c r="G10">
-        <v>-7.695810534906479</v>
+        <v>-16.75778875821037</v>
       </c>
       <c r="H10">
-        <v>0.4051310768612533</v>
+        <v>0.6523167191717829</v>
       </c>
       <c r="I10">
-        <v>4.214068023974251E-59</v>
+        <v>1.017764249783892E-53</v>
       </c>
       <c r="J10">
-        <v>10.52000045776367</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="K10">
-        <v>46.54000091552734</v>
+        <v>47.31999969482422</v>
       </c>
       <c r="L10">
-        <v>1.37072218819878</v>
+        <v>1.79621959935622</v>
       </c>
       <c r="M10">
-        <v>-0.8526200115739613</v>
+        <v>-1.86124030516055</v>
       </c>
       <c r="N10">
-        <v>0.4238546365417072</v>
+        <v>0.7607935151345681</v>
       </c>
       <c r="O10">
-        <v>-0.6389896953611576</v>
+        <v>-1.13983792689832</v>
       </c>
       <c r="P10">
-        <v>0.01255064799692189</v>
+        <v>0.01323467858242418</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R10" t="s">
         <v>30</v>
@@ -1035,58 +1038,58 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1577</v>
+        <v>475</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.3185363659265966</v>
+        <v>0.110686763512693</v>
       </c>
       <c r="E11">
-        <v>0.404654863107555</v>
+        <v>0.6401573764360274</v>
       </c>
       <c r="F11">
-        <v>0.00203316690534229</v>
+        <v>0.0006054258126362002</v>
       </c>
       <c r="G11">
-        <v>8.234208552764581</v>
+        <v>18.8586043220327</v>
       </c>
       <c r="H11">
-        <v>0.5456862453419674</v>
+        <v>0.1718284370046025</v>
       </c>
       <c r="I11">
-        <v>1.993170910167438E-48</v>
+        <v>1.163914627671626E-20</v>
       </c>
       <c r="J11">
-        <v>9.739999771118164</v>
+        <v>26.29000091552734</v>
       </c>
       <c r="K11">
-        <v>2.059999942779541</v>
+        <v>46.52000045776367</v>
       </c>
       <c r="L11">
-        <v>0.4553582039908779</v>
+        <v>1.007859706884592</v>
       </c>
       <c r="M11">
-        <v>-0.3647113501813273</v>
+        <v>-1.448221597997698</v>
       </c>
       <c r="N11">
-        <v>0.1720686341291643</v>
+        <v>0.4856974835721641</v>
       </c>
       <c r="O11">
-        <v>0.3816775841735471</v>
+        <v>-0.5620623746162847</v>
       </c>
       <c r="P11">
-        <v>0.01289406527867865</v>
+        <v>0.01333927611524768</v>
       </c>
       <c r="Q11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>N</t>
   </si>
@@ -70,49 +70,58 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
     <t>ELET3</t>
   </si>
   <si>
     <t>ELET6</t>
   </si>
   <si>
+    <t>CSAN3</t>
+  </si>
+  <si>
+    <t>ASAI3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
     <t>CSNA3</t>
   </si>
   <si>
-    <t>CSAN3</t>
-  </si>
-  <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>MGLU3</t>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
   </si>
   <si>
     <t>RAIZ4</t>
   </si>
   <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>ENGI11</t>
-  </si>
-  <si>
     <t>USIM5</t>
   </si>
   <si>
     <t>VIVT3</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
   </si>
 </sst>
 </file>
@@ -534,111 +543,111 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2046</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.6481639369109083</v>
+        <v>0.7161269676237062</v>
       </c>
       <c r="E2">
-        <v>0.8256644297845517</v>
+        <v>0.4268563336714123</v>
       </c>
       <c r="F2">
-        <v>3.540048415787642E-05</v>
+        <v>2.775523463917907E-06</v>
       </c>
       <c r="G2">
-        <v>26.29871994539149</v>
+        <v>4.874842498034244</v>
       </c>
       <c r="H2">
-        <v>0.7810320581534815</v>
+        <v>0.6343923170697093</v>
       </c>
       <c r="I2">
-        <v>3.179755905790802E-76</v>
+        <v>4.276466389930455E-80</v>
       </c>
       <c r="J2">
-        <v>37.88000106811523</v>
+        <v>11.25</v>
       </c>
       <c r="K2">
-        <v>12.89000034332275</v>
+        <v>10.61999988555908</v>
       </c>
       <c r="L2">
-        <v>1.90822323534637</v>
+        <v>0.6941467185870529</v>
       </c>
       <c r="M2">
-        <v>-1.710924635310015</v>
+        <v>-0.4064961013078268</v>
       </c>
       <c r="N2">
-        <v>0.7539210856250388</v>
+        <v>0.189138523418933</v>
       </c>
       <c r="O2">
-        <v>1.513777624979291</v>
+        <v>-0.3620888327141181</v>
       </c>
       <c r="P2">
-        <v>0.008492020017645723</v>
+        <v>0.007254938671093589</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2097</v>
+        <v>2046</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0.5266992872380706</v>
+        <v>0.6154667887880587</v>
       </c>
       <c r="E3">
-        <v>0.8256644297845517</v>
+        <v>0.7821595738191439</v>
       </c>
       <c r="F3">
-        <v>0.0001504710299217251</v>
+        <v>7.30731275837269E-05</v>
       </c>
       <c r="G3">
-        <v>31.98552126794381</v>
+        <v>26.36831707713764</v>
       </c>
       <c r="H3">
-        <v>0.6565278257441064</v>
+        <v>0.7777859884440043</v>
       </c>
       <c r="I3">
-        <v>2.306015337143081E-69</v>
+        <v>4.07893183278566E-75</v>
       </c>
       <c r="J3">
-        <v>42.13000106811523</v>
+        <v>38.54999923706055</v>
       </c>
       <c r="K3">
-        <v>12.89000034332275</v>
+        <v>13.51000022888184</v>
       </c>
       <c r="L3">
-        <v>1.681835900928959</v>
+        <v>1.904196714208211</v>
       </c>
       <c r="M3">
-        <v>-1.71941728459543</v>
+        <v>-1.729558473236509</v>
       </c>
       <c r="N3">
-        <v>0.7221677221936605</v>
+        <v>0.7675223604180121</v>
       </c>
       <c r="O3">
-        <v>1.681835900928956</v>
+        <v>1.673793278023322</v>
       </c>
       <c r="P3">
-        <v>0.009352731064413776</v>
+        <v>0.008888056913460344</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -646,58 +655,58 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1788</v>
+        <v>2097</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.2712960064223695</v>
+        <v>0.5022698499476914</v>
       </c>
       <c r="E4">
-        <v>0.3600291365702755</v>
+        <v>0.7821595738191439</v>
       </c>
       <c r="F4">
-        <v>8.551605192131035E-05</v>
+        <v>0.0003355212052556293</v>
       </c>
       <c r="G4">
-        <v>0.3480058171322233</v>
+        <v>32.06630146340253</v>
       </c>
       <c r="H4">
-        <v>4.322997930700278</v>
+        <v>0.6526374822726079</v>
       </c>
       <c r="I4">
-        <v>6.582705877905535E-85</v>
+        <v>7.209557081872773E-68</v>
       </c>
       <c r="J4">
-        <v>12.97000026702881</v>
+        <v>42.72999954223633</v>
       </c>
       <c r="K4">
-        <v>3.049999952316284</v>
+        <v>13.51000022888184</v>
       </c>
       <c r="L4">
-        <v>1.030077320410278</v>
+        <v>1.846565543954</v>
       </c>
       <c r="M4">
-        <v>-0.9170205864450232</v>
+        <v>-1.718500267152692</v>
       </c>
       <c r="N4">
-        <v>0.4417555368868212</v>
+        <v>0.7397545013852901</v>
       </c>
       <c r="O4">
-        <v>-0.5631490326026576</v>
+        <v>1.846565543953998</v>
       </c>
       <c r="P4">
-        <v>0.009400184871044477</v>
+        <v>0.009929543375267748</v>
       </c>
       <c r="Q4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" t="s">
         <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -708,49 +717,49 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.6134969051660253</v>
+        <v>0.5697450337804942</v>
       </c>
       <c r="E5">
-        <v>0.2712960064223695</v>
+        <v>0.2485916836016389</v>
       </c>
       <c r="F5">
-        <v>0.000272489411237795</v>
+        <v>0.0002216492343685546</v>
       </c>
       <c r="G5">
-        <v>-0.07395724747276389</v>
+        <v>-0.07920474154929003</v>
       </c>
       <c r="H5">
-        <v>1.048057446716547</v>
+        <v>1.048862264592638</v>
       </c>
       <c r="I5">
-        <v>3.424696563497194E-92</v>
+        <v>1.161002946842655E-91</v>
       </c>
       <c r="J5">
-        <v>13.97000026702881</v>
+        <v>14.07999992370605</v>
       </c>
       <c r="K5">
-        <v>12.97000026702881</v>
+        <v>13.02000045776367</v>
       </c>
       <c r="L5">
-        <v>1.22561407805118</v>
+        <v>1.217243613038249</v>
       </c>
       <c r="M5">
-        <v>-1.050308974375708</v>
+        <v>-1.055516064325396</v>
       </c>
       <c r="N5">
-        <v>0.4167827697415502</v>
+        <v>0.4177142935642127</v>
       </c>
       <c r="O5">
-        <v>0.4506521507264232</v>
+        <v>0.5030175001281538</v>
       </c>
       <c r="P5">
-        <v>0.01054454264987342</v>
+        <v>0.01046445774894431</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
         <v>21</v>
@@ -758,170 +767,170 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>3372</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.3638223037060385</v>
+        <v>0.7491900708125241</v>
       </c>
       <c r="E6">
-        <v>0.3913473895432933</v>
+        <v>0.448828612184543</v>
       </c>
       <c r="F6">
-        <v>0.0001551998744567341</v>
+        <v>0.0004580391842091317</v>
       </c>
       <c r="G6">
-        <v>7.183731100133677</v>
+        <v>-3.05165623918016</v>
       </c>
       <c r="H6">
-        <v>0.4316451049434836</v>
+        <v>2.185624226286212</v>
       </c>
       <c r="I6">
-        <v>2.453147427447972E-33</v>
+        <v>1.347121349146328E-44</v>
       </c>
       <c r="J6">
-        <v>15.90999984741211</v>
+        <v>11.47999954223633</v>
       </c>
       <c r="K6">
-        <v>22.02000045776367</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="L6">
-        <v>1.316001021717696</v>
+        <v>1.238155713398296</v>
       </c>
       <c r="M6">
-        <v>-1.007404366860555</v>
+        <v>-1.260561124091106</v>
       </c>
       <c r="N6">
-        <v>0.4136523916611663</v>
+        <v>0.5601365235310025</v>
       </c>
       <c r="O6">
-        <v>-0.7785566611685262</v>
+        <v>-0.8332829879377961</v>
       </c>
       <c r="P6">
-        <v>0.01191706787498858</v>
+        <v>0.01169623280596164</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>20</v>
+        <v>3372</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>0.7302841229318638</v>
+        <v>0.3865198083209455</v>
       </c>
       <c r="E7">
-        <v>0.3553726974419582</v>
+        <v>0.4082607198231389</v>
       </c>
       <c r="F7">
-        <v>0.001836186231536098</v>
+        <v>0.0002869224727347915</v>
       </c>
       <c r="G7">
-        <v>9.156936926636943</v>
+        <v>7.025626775637265</v>
       </c>
       <c r="H7">
-        <v>1.369711812795048</v>
+        <v>0.4380671946703097</v>
       </c>
       <c r="I7">
-        <v>9.128300155770867E-68</v>
+        <v>1.038310968614141E-33</v>
       </c>
       <c r="J7">
-        <v>11.25</v>
+        <v>15.84000015258789</v>
       </c>
       <c r="K7">
-        <v>1.840000033378601</v>
+        <v>22.20000076293945</v>
       </c>
       <c r="L7">
-        <v>0.8276920354444908</v>
+        <v>1.326745722217964</v>
       </c>
       <c r="M7">
-        <v>-0.4272067078988968</v>
+        <v>-0.9912924501440017</v>
       </c>
       <c r="N7">
-        <v>0.2349344201592184</v>
+        <v>0.4140776904077573</v>
       </c>
       <c r="O7">
-        <v>-0.4272067078988964</v>
+        <v>-0.9107186789489958</v>
       </c>
       <c r="P7">
-        <v>0.0125064575966631</v>
+        <v>0.01222415183288925</v>
       </c>
       <c r="Q7" t="s">
         <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>352</v>
+        <v>2256</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>0.4308182408685574</v>
+        <v>0.3766684919539889</v>
       </c>
       <c r="E8">
-        <v>0.467389648027585</v>
+        <v>0.4227428251296974</v>
       </c>
       <c r="F8">
-        <v>0.0005290356903140111</v>
+        <v>0.001545600390985586</v>
       </c>
       <c r="G8">
-        <v>-7.609865299900068</v>
+        <v>28.83018154687974</v>
       </c>
       <c r="H8">
-        <v>0.4030244728415617</v>
+        <v>5.857521631177002</v>
       </c>
       <c r="I8">
-        <v>3.808301446082493E-60</v>
+        <v>1.513013701128965E-59</v>
       </c>
       <c r="J8">
-        <v>10.6899995803833</v>
+        <v>47.90000152587891</v>
       </c>
       <c r="K8">
-        <v>47.31999969482422</v>
+        <v>3.029999971389771</v>
       </c>
       <c r="L8">
-        <v>1.232689815163383</v>
+        <v>2.290307817744775</v>
       </c>
       <c r="M8">
-        <v>-0.8312127076655429</v>
+        <v>-1.695808965914836</v>
       </c>
       <c r="N8">
-        <v>0.4122380501998684</v>
+        <v>0.960438994695578</v>
       </c>
       <c r="O8">
-        <v>-0.7712530515860223</v>
+        <v>1.321529604117895</v>
       </c>
       <c r="P8">
-        <v>0.01251883022840843</v>
+        <v>0.01259888372039162</v>
       </c>
       <c r="Q8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" t="s">
         <v>24</v>
-      </c>
-      <c r="R8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -932,164 +941,164 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>0.110686763512693</v>
+        <v>0.14811537339965</v>
       </c>
       <c r="E9">
-        <v>0.7052201081835525</v>
+        <v>0.6872691914264858</v>
       </c>
       <c r="F9">
-        <v>0.0007967208099468524</v>
+        <v>0.001442973163989851</v>
       </c>
       <c r="G9">
-        <v>22.92588848507422</v>
+        <v>22.88460685671807</v>
       </c>
       <c r="H9">
-        <v>0.48861758241674</v>
+        <v>0.4936541048593426</v>
       </c>
       <c r="I9">
-        <v>1.788193865399096E-23</v>
+        <v>3.236088418612691E-24</v>
       </c>
       <c r="J9">
-        <v>26.29000091552734</v>
+        <v>26.20000076293945</v>
       </c>
       <c r="K9">
-        <v>7.869999885559082</v>
+        <v>8.020000457763672</v>
       </c>
       <c r="L9">
-        <v>1.481961182444689</v>
+        <v>1.478352371712205</v>
       </c>
       <c r="M9">
-        <v>-1.190210425569418</v>
+        <v>-1.200389939442665</v>
       </c>
       <c r="N9">
-        <v>0.4625968356314427</v>
+        <v>0.4572129294447121</v>
       </c>
       <c r="O9">
-        <v>-0.4813078872487799</v>
+        <v>-0.6437122407274591</v>
       </c>
       <c r="P9">
-        <v>0.01270762484862384</v>
+        <v>0.01295433774910052</v>
       </c>
       <c r="Q9" t="s">
         <v>25</v>
       </c>
       <c r="R9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1759</v>
+        <v>475</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>0.2712960064223695</v>
+        <v>0.14811537339965</v>
       </c>
       <c r="E10">
-        <v>0.467389648027585</v>
+        <v>0.6563893937149453</v>
       </c>
       <c r="F10">
-        <v>7.173247382970326E-06</v>
+        <v>0.0008561699376764313</v>
       </c>
       <c r="G10">
-        <v>-16.75778875821037</v>
+        <v>18.59230937396332</v>
       </c>
       <c r="H10">
-        <v>0.6523167191717829</v>
+        <v>0.1774220491826771</v>
       </c>
       <c r="I10">
-        <v>1.017764249783892E-53</v>
+        <v>2.810305601886894E-22</v>
       </c>
       <c r="J10">
-        <v>12.97000026702881</v>
+        <v>26.20000076293945</v>
       </c>
       <c r="K10">
-        <v>47.31999969482422</v>
+        <v>46.7599983215332</v>
       </c>
       <c r="L10">
-        <v>1.79621959935622</v>
+        <v>0.9914163706146937</v>
       </c>
       <c r="M10">
-        <v>-1.86124030516055</v>
+        <v>-1.383565025188236</v>
       </c>
       <c r="N10">
-        <v>0.7607935151345681</v>
+        <v>0.472834911220919</v>
       </c>
       <c r="O10">
-        <v>-1.13983792689832</v>
+        <v>-0.6885633330088261</v>
       </c>
       <c r="P10">
-        <v>0.01323467858242418</v>
+        <v>0.01316704771153829</v>
       </c>
       <c r="Q10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>475</v>
+        <v>1226</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>0.110686763512693</v>
+        <v>0.4364820669310354</v>
       </c>
       <c r="E11">
-        <v>0.6401573764360274</v>
+        <v>0.4529872869060777</v>
       </c>
       <c r="F11">
-        <v>0.0006054258126362002</v>
+        <v>0.002909806283960262</v>
       </c>
       <c r="G11">
-        <v>18.8586043220327</v>
+        <v>7.39715389715786</v>
       </c>
       <c r="H11">
-        <v>0.1718284370046025</v>
+        <v>1.093897229663539</v>
       </c>
       <c r="I11">
-        <v>1.163914627671626E-20</v>
+        <v>1.272658213828469E-62</v>
       </c>
       <c r="J11">
-        <v>26.29000091552734</v>
+        <v>12.63000011444092</v>
       </c>
       <c r="K11">
-        <v>46.52000045776367</v>
+        <v>4.489999771118164</v>
       </c>
       <c r="L11">
-        <v>1.007859706884592</v>
+        <v>0.657172326118209</v>
       </c>
       <c r="M11">
-        <v>-1.448221597997698</v>
+        <v>-0.7224187794489616</v>
       </c>
       <c r="N11">
-        <v>0.4856974835721641</v>
+        <v>0.2748380389332463</v>
       </c>
       <c r="O11">
-        <v>-0.5620623746162847</v>
+        <v>0.321247906466974</v>
       </c>
       <c r="P11">
-        <v>0.01333927611524768</v>
+        <v>0.01351055878089106</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="R11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -70,13 +70,13 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>ABEV3</t>
+    <t>EZTC3</t>
   </si>
   <si>
     <t>ELET3</t>
   </si>
   <si>
-    <t>ELET6</t>
+    <t>CSNA3</t>
   </si>
   <si>
     <t>CSAN3</t>
@@ -88,22 +88,25 @@
     <t>TIMS3</t>
   </si>
   <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
     <t>ENGI11</t>
   </si>
   <si>
     <t>BBAS3</t>
   </si>
   <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
     <t>B3SA3</t>
   </si>
   <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
     <t>MGLU3</t>
   </si>
   <si>
-    <t>CSNA3</t>
+    <t>RAIZ4</t>
   </si>
   <si>
     <t>DXCO3</t>
@@ -112,16 +115,7 @@
     <t>VBBR3</t>
   </si>
   <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>USIM5</t>
-  </si>
-  <si>
     <t>VIVT3</t>
-  </si>
-  <si>
-    <t>LWSA3</t>
   </si>
 </sst>
 </file>
@@ -543,58 +537,58 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>4</v>
+        <v>2328</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>0.7161269676237062</v>
+        <v>0.5311447720650153</v>
       </c>
       <c r="E2">
-        <v>0.4268563336714123</v>
+        <v>0.3714923018274132</v>
       </c>
       <c r="F2">
-        <v>2.775523463917907E-06</v>
+        <v>0.008386045121294438</v>
       </c>
       <c r="G2">
-        <v>4.874842498034244</v>
+        <v>-5.787293540662228</v>
       </c>
       <c r="H2">
-        <v>0.6343923170697093</v>
+        <v>0.667731697090816</v>
       </c>
       <c r="I2">
-        <v>4.276466389930455E-80</v>
+        <v>1.510723229214592E-61</v>
       </c>
       <c r="J2">
-        <v>11.25</v>
+        <v>14.72000026702881</v>
       </c>
       <c r="K2">
-        <v>10.61999988555908</v>
+        <v>29.20000076293945</v>
       </c>
       <c r="L2">
-        <v>0.6941467185870529</v>
+        <v>1.374683773340587</v>
       </c>
       <c r="M2">
-        <v>-0.4064961013078268</v>
+        <v>-1.210759391864451</v>
       </c>
       <c r="N2">
-        <v>0.189138523418933</v>
+        <v>0.5376027220511748</v>
       </c>
       <c r="O2">
-        <v>-0.3620888327141181</v>
+        <v>1.009527743200351</v>
       </c>
       <c r="P2">
-        <v>0.007254938671093589</v>
+        <v>0.008535113974354212</v>
       </c>
       <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -605,49 +599,49 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>0.6154667887880587</v>
+        <v>0.6027732184306002</v>
       </c>
       <c r="E3">
-        <v>0.7821595738191439</v>
+        <v>0.7152286215678145</v>
       </c>
       <c r="F3">
-        <v>7.30731275837269E-05</v>
+        <v>0.0001209267432596692</v>
       </c>
       <c r="G3">
-        <v>26.36831707713764</v>
+        <v>26.4958657871051</v>
       </c>
       <c r="H3">
-        <v>0.7777859884440043</v>
+        <v>0.7715565553655619</v>
       </c>
       <c r="I3">
-        <v>4.07893183278566E-75</v>
+        <v>1.173676019317012E-74</v>
       </c>
       <c r="J3">
-        <v>38.54999923706055</v>
+        <v>38.79000091552734</v>
       </c>
       <c r="K3">
-        <v>13.51000022888184</v>
+        <v>13.82999992370605</v>
       </c>
       <c r="L3">
-        <v>1.904196714208211</v>
+        <v>1.902482557177976</v>
       </c>
       <c r="M3">
-        <v>-1.729558473236509</v>
+        <v>-1.759305085060589</v>
       </c>
       <c r="N3">
-        <v>0.7675223604180121</v>
+        <v>0.7835564114145431</v>
       </c>
       <c r="O3">
-        <v>1.673793278023322</v>
+        <v>1.62350802658162</v>
       </c>
       <c r="P3">
-        <v>0.008888056913460344</v>
+        <v>0.009431870785624467</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -655,58 +649,58 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2097</v>
+        <v>1788</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>0.5022698499476914</v>
+        <v>0.2250031336434254</v>
       </c>
       <c r="E4">
-        <v>0.7821595738191439</v>
+        <v>0.3798553674041658</v>
       </c>
       <c r="F4">
-        <v>0.0003355212052556293</v>
+        <v>0.000120192909615341</v>
       </c>
       <c r="G4">
-        <v>32.06630146340253</v>
+        <v>0.2416562145451753</v>
       </c>
       <c r="H4">
-        <v>0.6526374822726079</v>
+        <v>4.352133294542473</v>
       </c>
       <c r="I4">
-        <v>7.209557081872773E-68</v>
+        <v>2.446560717271929E-85</v>
       </c>
       <c r="J4">
-        <v>42.72999954223633</v>
+        <v>13.15999984741211</v>
       </c>
       <c r="K4">
-        <v>13.51000022888184</v>
+        <v>3.099999904632568</v>
       </c>
       <c r="L4">
-        <v>1.846565543954</v>
+        <v>1.024772970092535</v>
       </c>
       <c r="M4">
-        <v>-1.718500267152692</v>
+        <v>-0.9062349764268074</v>
       </c>
       <c r="N4">
-        <v>0.7397545013852901</v>
+        <v>0.4441131122917331</v>
       </c>
       <c r="O4">
-        <v>1.846565543953998</v>
+        <v>-0.5732691651629587</v>
       </c>
       <c r="P4">
-        <v>0.009929543375267748</v>
+        <v>0.009762519777029301</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -717,49 +711,49 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>0.5697450337804942</v>
+        <v>0.5327542864337094</v>
       </c>
       <c r="E5">
-        <v>0.2485916836016389</v>
+        <v>0.2250031336434254</v>
       </c>
       <c r="F5">
-        <v>0.0002216492343685546</v>
+        <v>0.0003309399717312499</v>
       </c>
       <c r="G5">
-        <v>-0.07920474154929003</v>
+        <v>-0.003971906552976967</v>
       </c>
       <c r="H5">
-        <v>1.048862264592638</v>
+        <v>1.044374617062528</v>
       </c>
       <c r="I5">
-        <v>1.161002946842655E-91</v>
+        <v>2.58648367146642E-92</v>
       </c>
       <c r="J5">
-        <v>14.07999992370605</v>
+        <v>14.35000038146973</v>
       </c>
       <c r="K5">
-        <v>13.02000045776367</v>
+        <v>13.15999984741211</v>
       </c>
       <c r="L5">
-        <v>1.217243613038249</v>
+        <v>1.217944231172694</v>
       </c>
       <c r="M5">
-        <v>-1.055516064325396</v>
+        <v>-1.072454358932713</v>
       </c>
       <c r="N5">
-        <v>0.4177142935642127</v>
+        <v>0.4209591643887297</v>
       </c>
       <c r="O5">
-        <v>0.5030175001281538</v>
+        <v>0.6100024868387592</v>
       </c>
       <c r="P5">
-        <v>0.01046445774894431</v>
+        <v>0.01090396214032445</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="R5" t="s">
         <v>21</v>
@@ -773,52 +767,52 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>0.7491900708125241</v>
+        <v>0.7678452952202794</v>
       </c>
       <c r="E6">
-        <v>0.448828612184543</v>
+        <v>0.4136488365193913</v>
       </c>
       <c r="F6">
-        <v>0.0004580391842091317</v>
+        <v>0.0006958736236676324</v>
       </c>
       <c r="G6">
-        <v>-3.05165623918016</v>
+        <v>-3.280847381207982</v>
       </c>
       <c r="H6">
-        <v>2.185624226286212</v>
+        <v>2.214268870638072</v>
       </c>
       <c r="I6">
-        <v>1.347121349146328E-44</v>
+        <v>4.58265912534982E-45</v>
       </c>
       <c r="J6">
-        <v>11.47999954223633</v>
+        <v>11.35999965667725</v>
       </c>
       <c r="K6">
-        <v>7.03000020980835</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="L6">
-        <v>1.238155713398296</v>
+        <v>1.263110537919239</v>
       </c>
       <c r="M6">
-        <v>-1.260561124091106</v>
+        <v>-1.263111934020737</v>
       </c>
       <c r="N6">
-        <v>0.5601365235310025</v>
+        <v>0.5691611003539857</v>
       </c>
       <c r="O6">
-        <v>-0.8332829879377961</v>
+        <v>-1.036176397297014</v>
       </c>
       <c r="P6">
-        <v>0.01169623280596164</v>
+        <v>0.01214196602835748</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -829,164 +823,164 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>0.3865198083209455</v>
+        <v>0.2760310456943803</v>
       </c>
       <c r="E7">
-        <v>0.4082607198231389</v>
+        <v>0.3971833719099839</v>
       </c>
       <c r="F7">
-        <v>0.0002869224727347915</v>
+        <v>0.0001742256741912554</v>
       </c>
       <c r="G7">
-        <v>7.025626775637265</v>
+        <v>7.028393950494461</v>
       </c>
       <c r="H7">
-        <v>0.4380671946703097</v>
+        <v>0.4374998530329295</v>
       </c>
       <c r="I7">
-        <v>1.038310968614141E-33</v>
+        <v>2.218655564824384E-33</v>
       </c>
       <c r="J7">
-        <v>15.84000015258789</v>
+        <v>16.43000030517578</v>
       </c>
       <c r="K7">
-        <v>22.20000076293945</v>
+        <v>22.80999946594238</v>
       </c>
       <c r="L7">
-        <v>1.326745722217964</v>
+        <v>1.336996623083454</v>
       </c>
       <c r="M7">
-        <v>-0.9912924501440017</v>
+        <v>-0.9815157010524445</v>
       </c>
       <c r="N7">
-        <v>0.4140776904077573</v>
+        <v>0.419258474370043</v>
       </c>
       <c r="O7">
-        <v>-0.9107186789489958</v>
+        <v>-0.577765059349673</v>
       </c>
       <c r="P7">
-        <v>0.01222415183288925</v>
+        <v>0.0123117502447875</v>
       </c>
       <c r="Q7" t="s">
         <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2256</v>
+        <v>887</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.3766684919539889</v>
+        <v>0.8114678223010368</v>
       </c>
       <c r="E8">
-        <v>0.4227428251296974</v>
+        <v>0.7152286215678145</v>
       </c>
       <c r="F8">
-        <v>0.001545600390985586</v>
+        <v>0.0002513218329033359</v>
       </c>
       <c r="G8">
-        <v>28.83018154687974</v>
+        <v>24.93301015316658</v>
       </c>
       <c r="H8">
-        <v>5.857521631177002</v>
+        <v>0.5695879894501947</v>
       </c>
       <c r="I8">
-        <v>1.513013701128965E-59</v>
+        <v>2.698397617723105E-58</v>
       </c>
       <c r="J8">
-        <v>47.90000152587891</v>
+        <v>31.90999984741211</v>
       </c>
       <c r="K8">
-        <v>3.029999971389771</v>
+        <v>13.82999992370605</v>
       </c>
       <c r="L8">
-        <v>2.290307817744775</v>
+        <v>1.748659457364695</v>
       </c>
       <c r="M8">
-        <v>-1.695808965914836</v>
+        <v>-2.021410248688063</v>
       </c>
       <c r="N8">
-        <v>0.960438994695578</v>
+        <v>0.793200899044382</v>
       </c>
       <c r="O8">
-        <v>1.321529604117895</v>
+        <v>-0.9004121563945464</v>
       </c>
       <c r="P8">
-        <v>0.01259888372039162</v>
+        <v>0.01264577693664849</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>472</v>
+        <v>2256</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.14811537339965</v>
+        <v>0.3655023711839225</v>
       </c>
       <c r="E9">
-        <v>0.6872691914264858</v>
+        <v>0.3798553674041658</v>
       </c>
       <c r="F9">
-        <v>0.001442973163989851</v>
+        <v>0.00134066389143241</v>
       </c>
       <c r="G9">
-        <v>22.88460685671807</v>
+        <v>28.92596298620022</v>
       </c>
       <c r="H9">
-        <v>0.4936541048593426</v>
+        <v>5.833352791365839</v>
       </c>
       <c r="I9">
-        <v>3.236088418612691E-24</v>
+        <v>5.691116009129387E-60</v>
       </c>
       <c r="J9">
-        <v>26.20000076293945</v>
+        <v>48.06000137329102</v>
       </c>
       <c r="K9">
-        <v>8.020000457763672</v>
+        <v>3.099999904632568</v>
       </c>
       <c r="L9">
-        <v>1.478352371712205</v>
+        <v>2.284019917556876</v>
       </c>
       <c r="M9">
-        <v>-1.200389939442665</v>
+        <v>-1.706032713225781</v>
       </c>
       <c r="N9">
-        <v>0.4572129294447121</v>
+        <v>0.9612775070548697</v>
       </c>
       <c r="O9">
-        <v>-0.6437122407274591</v>
+        <v>1.050645290168564</v>
       </c>
       <c r="P9">
-        <v>0.01295433774910052</v>
+        <v>0.01270431955859451</v>
       </c>
       <c r="Q9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" t="s">
         <v>25</v>
-      </c>
-      <c r="R9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -994,111 +988,111 @@
         <v>475</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0.14811537339965</v>
+        <v>0.1062334190009003</v>
       </c>
       <c r="E10">
-        <v>0.6563893937149453</v>
+        <v>0.5674209651926063</v>
       </c>
       <c r="F10">
-        <v>0.0008561699376764313</v>
+        <v>0.0007774352847054238</v>
       </c>
       <c r="G10">
-        <v>18.59230937396332</v>
+        <v>18.56559840291054</v>
       </c>
       <c r="H10">
-        <v>0.1774220491826771</v>
+        <v>0.1778131547121088</v>
       </c>
       <c r="I10">
-        <v>2.810305601886894E-22</v>
+        <v>2.137859466732796E-22</v>
       </c>
       <c r="J10">
-        <v>26.20000076293945</v>
+        <v>26.59000015258789</v>
       </c>
       <c r="K10">
-        <v>46.7599983215332</v>
+        <v>48.72000122070312</v>
       </c>
       <c r="L10">
-        <v>0.9914163706146937</v>
+        <v>0.9983562317282164</v>
       </c>
       <c r="M10">
-        <v>-1.383565025188236</v>
+        <v>-1.377280836317098</v>
       </c>
       <c r="N10">
-        <v>0.472834911220919</v>
+        <v>0.4737914148202239</v>
       </c>
       <c r="O10">
-        <v>-0.6885633330088261</v>
+        <v>-0.6386553649536637</v>
       </c>
       <c r="P10">
-        <v>0.01316704771153829</v>
+        <v>0.01323938053142861</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1226</v>
+        <v>352</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>0.4364820669310354</v>
+        <v>0.3431486170007264</v>
       </c>
       <c r="E11">
-        <v>0.4529872869060777</v>
+        <v>0.3655023711839225</v>
       </c>
       <c r="F11">
-        <v>0.002909806283960262</v>
+        <v>0.002270359819409901</v>
       </c>
       <c r="G11">
-        <v>7.39715389715786</v>
+        <v>-7.558284744301012</v>
       </c>
       <c r="H11">
-        <v>1.093897229663539</v>
+        <v>0.4013464620284468</v>
       </c>
       <c r="I11">
-        <v>1.272658213828469E-62</v>
+        <v>1.362838770380964E-59</v>
       </c>
       <c r="J11">
-        <v>12.63000011444092</v>
+        <v>10.84000015258789</v>
       </c>
       <c r="K11">
-        <v>4.489999771118164</v>
+        <v>48.06000137329102</v>
       </c>
       <c r="L11">
-        <v>0.657172326118209</v>
+        <v>1.197868485359823</v>
       </c>
       <c r="M11">
-        <v>-0.7224187794489616</v>
+        <v>-1.046211513708609</v>
       </c>
       <c r="N11">
-        <v>0.2748380389332463</v>
+        <v>0.4181329265279693</v>
       </c>
       <c r="O11">
-        <v>0.321247906466974</v>
+        <v>-0.8904266193637405</v>
       </c>
       <c r="P11">
-        <v>0.01351055878089106</v>
+        <v>0.01392098340770172</v>
       </c>
       <c r="Q11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -70,6 +70,9 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
     <t>EZTC3</t>
   </si>
   <si>
@@ -79,27 +82,24 @@
     <t>CSNA3</t>
   </si>
   <si>
+    <t>ELET6</t>
+  </si>
+  <si>
     <t>CSAN3</t>
   </si>
   <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
     <t>ASAI3</t>
   </si>
   <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
     <t>BPAC11</t>
   </si>
   <si>
     <t>ENGI11</t>
   </si>
   <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
     <t>HYPE3</t>
   </si>
   <si>
@@ -109,13 +109,10 @@
     <t>RAIZ4</t>
   </si>
   <si>
+    <t>CIEL3</t>
+  </si>
+  <si>
     <t>DXCO3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
-    <t>VIVT3</t>
   </si>
 </sst>
 </file>
@@ -537,111 +534,111 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2328</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>0.5311447720650153</v>
+        <v>0.5993405716027079</v>
       </c>
       <c r="E2">
-        <v>0.3714923018274132</v>
+        <v>0.3066046150259684</v>
       </c>
       <c r="F2">
-        <v>0.008386045121294438</v>
+        <v>3.628536548910334E-06</v>
       </c>
       <c r="G2">
-        <v>-5.787293540662228</v>
+        <v>4.828060213038487</v>
       </c>
       <c r="H2">
-        <v>0.667731697090816</v>
+        <v>0.637939251275407</v>
       </c>
       <c r="I2">
-        <v>1.510723229214592E-61</v>
+        <v>8.618686264405333E-81</v>
       </c>
       <c r="J2">
-        <v>14.72000026702881</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="K2">
-        <v>29.20000076293945</v>
+        <v>11.05000019073486</v>
       </c>
       <c r="L2">
-        <v>1.374683773340587</v>
+        <v>0.6968656924512509</v>
       </c>
       <c r="M2">
-        <v>-1.210759391864451</v>
+        <v>-0.3976305414826236</v>
       </c>
       <c r="N2">
-        <v>0.5376027220511748</v>
+        <v>0.1916236995785417</v>
       </c>
       <c r="O2">
-        <v>1.009527743200351</v>
+        <v>-0.3472893283377987</v>
       </c>
       <c r="P2">
-        <v>0.008535113974354212</v>
+        <v>0.007496198940308311</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2046</v>
+        <v>2328</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0.6027732184306002</v>
+        <v>0.5379221727696477</v>
       </c>
       <c r="E3">
-        <v>0.7152286215678145</v>
+        <v>0.4016984507981309</v>
       </c>
       <c r="F3">
-        <v>0.0001209267432596692</v>
+        <v>0.009271483375636555</v>
       </c>
       <c r="G3">
-        <v>26.4958657871051</v>
+        <v>-5.746887220961749</v>
       </c>
       <c r="H3">
-        <v>0.7715565553655619</v>
+        <v>0.6664659899278287</v>
       </c>
       <c r="I3">
-        <v>1.173676019317012E-74</v>
+        <v>2.622002074650882E-61</v>
       </c>
       <c r="J3">
-        <v>38.79000091552734</v>
+        <v>14.60000038146973</v>
       </c>
       <c r="K3">
-        <v>13.82999992370605</v>
+        <v>28.79000091552734</v>
       </c>
       <c r="L3">
-        <v>1.902482557177976</v>
+        <v>1.375116551876804</v>
       </c>
       <c r="M3">
-        <v>-1.759305085060589</v>
+        <v>-1.213448305377536</v>
       </c>
       <c r="N3">
-        <v>0.7835564114145431</v>
+        <v>0.5398749892514839</v>
       </c>
       <c r="O3">
-        <v>1.62350802658162</v>
+        <v>1.159331142241452</v>
       </c>
       <c r="P3">
-        <v>0.009431870785624467</v>
+        <v>0.008606751415391398</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -649,450 +646,450 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1788</v>
+        <v>2046</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>0.2250031336434254</v>
+        <v>0.6074299108626608</v>
       </c>
       <c r="E4">
-        <v>0.3798553674041658</v>
+        <v>0.7214852100069614</v>
       </c>
       <c r="F4">
-        <v>0.000120192909615341</v>
+        <v>0.0001067779462574199</v>
       </c>
       <c r="G4">
-        <v>0.2416562145451753</v>
+        <v>26.49434487162383</v>
       </c>
       <c r="H4">
-        <v>4.352133294542473</v>
+        <v>0.7716085967221119</v>
       </c>
       <c r="I4">
-        <v>2.446560717271929E-85</v>
+        <v>9.21864090697067E-75</v>
       </c>
       <c r="J4">
-        <v>13.15999984741211</v>
+        <v>38.61000061035156</v>
       </c>
       <c r="K4">
-        <v>3.099999904632568</v>
+        <v>13.71000003814697</v>
       </c>
       <c r="L4">
-        <v>1.024772970092535</v>
+        <v>1.902952237217221</v>
       </c>
       <c r="M4">
-        <v>-0.9062349764268074</v>
+        <v>-1.758601218867241</v>
       </c>
       <c r="N4">
-        <v>0.4441131122917331</v>
+        <v>0.7822591515015701</v>
       </c>
       <c r="O4">
-        <v>-0.5732691651629587</v>
+        <v>1.536901848233041</v>
       </c>
       <c r="P4">
-        <v>0.009762519777029301</v>
+        <v>0.00938432427148984</v>
       </c>
       <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" t="s">
         <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1693</v>
+        <v>1788</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>0.5327542864337094</v>
+        <v>0.2311838610164397</v>
       </c>
       <c r="E5">
-        <v>0.2250031336434254</v>
+        <v>0.3798553674041658</v>
       </c>
       <c r="F5">
-        <v>0.0003309399717312499</v>
+        <v>0.0001326853742770611</v>
       </c>
       <c r="G5">
-        <v>-0.003971906552976967</v>
+        <v>0.2391806039512413</v>
       </c>
       <c r="H5">
-        <v>1.044374617062528</v>
+        <v>4.352742617783887</v>
       </c>
       <c r="I5">
-        <v>2.58648367146642E-92</v>
+        <v>2.849890658105242E-85</v>
       </c>
       <c r="J5">
-        <v>14.35000038146973</v>
+        <v>13.10000038146973</v>
       </c>
       <c r="K5">
-        <v>13.15999984741211</v>
+        <v>3.099999904632568</v>
       </c>
       <c r="L5">
-        <v>1.217944231172694</v>
+        <v>1.024913502639421</v>
       </c>
       <c r="M5">
-        <v>-1.072454358932713</v>
+        <v>-0.9057579460472791</v>
       </c>
       <c r="N5">
-        <v>0.4209591643887297</v>
+        <v>0.444711692018959</v>
       </c>
       <c r="O5">
-        <v>0.6100024868387592</v>
+        <v>-0.632681922501682</v>
       </c>
       <c r="P5">
-        <v>0.01090396214032445</v>
+        <v>0.009800653379458872</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>189</v>
+        <v>2097</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.7678452952202794</v>
+        <v>0.4941599250458315</v>
       </c>
       <c r="E6">
-        <v>0.4136488365193913</v>
+        <v>0.7214852100069614</v>
       </c>
       <c r="F6">
-        <v>0.0006958736236676324</v>
+        <v>0.000702614758583967</v>
       </c>
       <c r="G6">
-        <v>-3.280847381207982</v>
+        <v>32.22168700159513</v>
       </c>
       <c r="H6">
-        <v>2.214268870638072</v>
+        <v>0.6450190463925776</v>
       </c>
       <c r="I6">
-        <v>4.58265912534982E-45</v>
+        <v>2.025586668207272E-66</v>
       </c>
       <c r="J6">
-        <v>11.35999965667725</v>
+        <v>42.88000106811523</v>
       </c>
       <c r="K6">
-        <v>7.079999923706055</v>
+        <v>13.71000003814697</v>
       </c>
       <c r="L6">
-        <v>1.263110537919239</v>
+        <v>1.815102915872345</v>
       </c>
       <c r="M6">
-        <v>-1.263111934020737</v>
+        <v>-1.713898651864646</v>
       </c>
       <c r="N6">
-        <v>0.5691611003539857</v>
+        <v>0.7660086934586926</v>
       </c>
       <c r="O6">
-        <v>-1.036176397297014</v>
+        <v>1.815102915872343</v>
       </c>
       <c r="P6">
-        <v>0.01214196602835748</v>
+        <v>0.01089116975936739</v>
       </c>
       <c r="Q6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" t="s">
         <v>22</v>
-      </c>
-      <c r="R6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>3372</v>
+        <v>1693</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>0.2760310456943803</v>
+        <v>0.5372524088063561</v>
       </c>
       <c r="E7">
-        <v>0.3971833719099839</v>
+        <v>0.2311838610164397</v>
       </c>
       <c r="F7">
-        <v>0.0001742256741912554</v>
+        <v>0.0003401712950364717</v>
       </c>
       <c r="G7">
-        <v>7.028393950494461</v>
+        <v>-0.002072535593483638</v>
       </c>
       <c r="H7">
-        <v>0.4374998530329295</v>
+        <v>1.044252343182008</v>
       </c>
       <c r="I7">
-        <v>2.218655564824384E-33</v>
+        <v>2.664477053095578E-92</v>
       </c>
       <c r="J7">
-        <v>16.43000030517578</v>
+        <v>14.30000019073486</v>
       </c>
       <c r="K7">
-        <v>22.80999946594238</v>
+        <v>13.10000038146973</v>
       </c>
       <c r="L7">
-        <v>1.336996623083454</v>
+        <v>1.218113801214756</v>
       </c>
       <c r="M7">
-        <v>-0.9815157010524445</v>
+        <v>-1.07276539221224</v>
       </c>
       <c r="N7">
-        <v>0.419258474370043</v>
+        <v>0.4210953810084505</v>
       </c>
       <c r="O7">
-        <v>-0.577765059349673</v>
+        <v>0.6223666322933887</v>
       </c>
       <c r="P7">
-        <v>0.0123117502447875</v>
+        <v>0.01091920941261038</v>
       </c>
       <c r="Q7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" t="s">
         <v>23</v>
-      </c>
-      <c r="R7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>887</v>
+        <v>335</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.8114678223010368</v>
+        <v>0.3066046150259684</v>
       </c>
       <c r="E8">
-        <v>0.7152286215678145</v>
+        <v>0.7361289505672213</v>
       </c>
       <c r="F8">
-        <v>0.0002513218329033359</v>
+        <v>0.0006302853824222868</v>
       </c>
       <c r="G8">
-        <v>24.93301015316658</v>
+        <v>26.12948152949616</v>
       </c>
       <c r="H8">
-        <v>0.5695879894501947</v>
+        <v>-2.702401899992635</v>
       </c>
       <c r="I8">
-        <v>2.698397617723105E-58</v>
+        <v>1.091816221806758E-64</v>
       </c>
       <c r="J8">
-        <v>31.90999984741211</v>
+        <v>11.05000019073486</v>
       </c>
       <c r="K8">
-        <v>13.82999992370605</v>
+        <v>5.730000019073486</v>
       </c>
       <c r="L8">
-        <v>1.748659457364695</v>
+        <v>0.9425346477092802</v>
       </c>
       <c r="M8">
-        <v>-2.021410248688063</v>
+        <v>-0.9447558365129876</v>
       </c>
       <c r="N8">
-        <v>0.793200899044382</v>
+        <v>0.3826792210689456</v>
       </c>
       <c r="O8">
-        <v>-0.9004121563945464</v>
+        <v>0.4052815997407269</v>
       </c>
       <c r="P8">
-        <v>0.01264577693664849</v>
+        <v>0.01166794031516423</v>
       </c>
       <c r="Q8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" t="s">
         <v>24</v>
-      </c>
-      <c r="R8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2256</v>
+        <v>189</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.3655023711839225</v>
+        <v>0.7863960736770435</v>
       </c>
       <c r="E9">
-        <v>0.3798553674041658</v>
+        <v>0.4276320533770347</v>
       </c>
       <c r="F9">
-        <v>0.00134066389143241</v>
+        <v>0.0006854570918331102</v>
       </c>
       <c r="G9">
-        <v>28.92596298620022</v>
+        <v>-3.293362573842406</v>
       </c>
       <c r="H9">
-        <v>5.833352791365839</v>
+        <v>2.215942909268732</v>
       </c>
       <c r="I9">
-        <v>5.691116009129387E-60</v>
+        <v>3.935936204219792E-45</v>
       </c>
       <c r="J9">
-        <v>48.06000137329102</v>
+        <v>11.25</v>
       </c>
       <c r="K9">
-        <v>3.099999904632568</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="L9">
-        <v>2.284019917556876</v>
+        <v>1.263689834925476</v>
       </c>
       <c r="M9">
-        <v>-1.706032713225781</v>
+        <v>-1.264140110092731</v>
       </c>
       <c r="N9">
-        <v>0.9612775070548697</v>
+        <v>0.5691510003010144</v>
       </c>
       <c r="O9">
-        <v>1.050645290168564</v>
+        <v>-1.034716543240107</v>
       </c>
       <c r="P9">
-        <v>0.01270431955859451</v>
+        <v>0.01212518203361253</v>
       </c>
       <c r="Q9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R9" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>475</v>
+        <v>887</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>0.1062334190009003</v>
+        <v>0.8198264567149258</v>
       </c>
       <c r="E10">
-        <v>0.5674209651926063</v>
+        <v>0.7214852100069614</v>
       </c>
       <c r="F10">
-        <v>0.0007774352847054238</v>
+        <v>0.0002603991564152821</v>
       </c>
       <c r="G10">
-        <v>18.56559840291054</v>
+        <v>24.93012859671202</v>
       </c>
       <c r="H10">
-        <v>0.1778131547121088</v>
+        <v>0.5697406102688631</v>
       </c>
       <c r="I10">
-        <v>2.137859466732796E-22</v>
+        <v>2.680777357811552E-58</v>
       </c>
       <c r="J10">
-        <v>26.59000015258789</v>
+        <v>31.79999923706055</v>
       </c>
       <c r="K10">
-        <v>48.72000122070312</v>
+        <v>13.71000003814697</v>
       </c>
       <c r="L10">
-        <v>0.9983562317282164</v>
+        <v>1.748824363363397</v>
       </c>
       <c r="M10">
-        <v>-1.377280836317098</v>
+        <v>-2.021916874524393</v>
       </c>
       <c r="N10">
-        <v>0.4737914148202239</v>
+        <v>0.7935563322454924</v>
       </c>
       <c r="O10">
-        <v>-0.6386553649536637</v>
+        <v>-0.9412731481714696</v>
       </c>
       <c r="P10">
-        <v>0.01323938053142861</v>
+        <v>0.01267019408484689</v>
       </c>
       <c r="Q10" t="s">
         <v>26</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>352</v>
+        <v>2256</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>0.3431486170007264</v>
+        <v>0.366474246953886</v>
       </c>
       <c r="E11">
-        <v>0.3655023711839225</v>
+        <v>0.3798553674041658</v>
       </c>
       <c r="F11">
-        <v>0.002270359819409901</v>
+        <v>0.001283628536516492</v>
       </c>
       <c r="G11">
-        <v>-7.558284744301012</v>
+        <v>28.92307476072426</v>
       </c>
       <c r="H11">
-        <v>0.4013464620284468</v>
+        <v>5.834063671709162</v>
       </c>
       <c r="I11">
-        <v>1.362838770380964E-59</v>
+        <v>5.254668319390847E-60</v>
       </c>
       <c r="J11">
-        <v>10.84000015258789</v>
+        <v>47.9900016784668</v>
       </c>
       <c r="K11">
-        <v>48.06000137329102</v>
+        <v>3.099999904632568</v>
       </c>
       <c r="L11">
-        <v>1.197868485359823</v>
+        <v>2.284275861205465</v>
       </c>
       <c r="M11">
-        <v>-1.046211513708609</v>
+        <v>-1.705661004138058</v>
       </c>
       <c r="N11">
-        <v>0.4181329265279693</v>
+        <v>0.9607333555401028</v>
       </c>
       <c r="O11">
-        <v>-0.8904266193637405</v>
+        <v>0.981330091823807</v>
       </c>
       <c r="P11">
-        <v>0.01392098340770172</v>
+        <v>0.01267207415134044</v>
       </c>
       <c r="Q11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" t="s">
         <v>27</v>
-      </c>
-      <c r="R11" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -68,6 +68,54 @@
   </si>
   <si>
     <t>acaoVende</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>EZTC3</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>ASAI3</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>CIEL3</t>
+  </si>
+  <si>
+    <t>SOMA3</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
   </si>
 </sst>
 </file>
@@ -425,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,6 +535,566 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:18">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>0.5431349167724154</v>
+      </c>
+      <c r="E2">
+        <v>0.3051189559621442</v>
+      </c>
+      <c r="F2">
+        <v>3.264085986242384E-05</v>
+      </c>
+      <c r="G2">
+        <v>4.724569999122746</v>
+      </c>
+      <c r="H2">
+        <v>0.6463042536199026</v>
+      </c>
+      <c r="I2">
+        <v>9.107267858456059E-76</v>
+      </c>
+      <c r="J2">
+        <v>11.64000034332275</v>
+      </c>
+      <c r="K2">
+        <v>11.46000003814697</v>
+      </c>
+      <c r="L2">
+        <v>0.6964380777448387</v>
+      </c>
+      <c r="M2">
+        <v>-0.5235317628923752</v>
+      </c>
+      <c r="N2">
+        <v>0.2009299699454362</v>
+      </c>
+      <c r="O2">
+        <v>-0.4912164269386272</v>
+      </c>
+      <c r="P2">
+        <v>0.008305808046659936</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>2046</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>0.6162117633416763</v>
+      </c>
+      <c r="E3">
+        <v>0.7722633171159132</v>
+      </c>
+      <c r="F3">
+        <v>0.000176419399640948</v>
+      </c>
+      <c r="G3">
+        <v>26.5657249788056</v>
+      </c>
+      <c r="H3">
+        <v>0.7692264934275246</v>
+      </c>
+      <c r="I3">
+        <v>2.008516869301115E-72</v>
+      </c>
+      <c r="J3">
+        <v>38.75</v>
+      </c>
+      <c r="K3">
+        <v>14.32999992370605</v>
+      </c>
+      <c r="L3">
+        <v>1.879690618403522</v>
+      </c>
+      <c r="M3">
+        <v>-1.792582304778335</v>
+      </c>
+      <c r="N3">
+        <v>0.8037364348367392</v>
+      </c>
+      <c r="O3">
+        <v>1.161259429065295</v>
+      </c>
+      <c r="P3">
+        <v>0.009952612023380056</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>2336</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>0.2816280108562131</v>
+      </c>
+      <c r="E4">
+        <v>0.6469977921190904</v>
+      </c>
+      <c r="F4">
+        <v>0.0001686350625344248</v>
+      </c>
+      <c r="G4">
+        <v>4.976005944417977</v>
+      </c>
+      <c r="H4">
+        <v>1.940717379112649</v>
+      </c>
+      <c r="I4">
+        <v>1.665901972878921E-56</v>
+      </c>
+      <c r="J4">
+        <v>14.85999965667725</v>
+      </c>
+      <c r="K4">
+        <v>4.650000095367432</v>
+      </c>
+      <c r="L4">
+        <v>1.514860915163116</v>
+      </c>
+      <c r="M4">
+        <v>-1.197835787515245</v>
+      </c>
+      <c r="N4">
+        <v>0.5415145138799633</v>
+      </c>
+      <c r="O4">
+        <v>0.8596577143042179</v>
+      </c>
+      <c r="P4">
+        <v>0.01109898775592938</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>2097</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>0.5241639606884732</v>
+      </c>
+      <c r="E5">
+        <v>0.7722633171159132</v>
+      </c>
+      <c r="F5">
+        <v>0.001151128632702549</v>
+      </c>
+      <c r="G5">
+        <v>32.32261351760787</v>
+      </c>
+      <c r="H5">
+        <v>0.6410765822237318</v>
+      </c>
+      <c r="I5">
+        <v>2.807833730746503E-63</v>
+      </c>
+      <c r="J5">
+        <v>43.04999923706055</v>
+      </c>
+      <c r="K5">
+        <v>14.32999992370605</v>
+      </c>
+      <c r="L5">
+        <v>2.105654055138579</v>
+      </c>
+      <c r="M5">
+        <v>-1.732033420331625</v>
+      </c>
+      <c r="N5">
+        <v>0.7989237250122068</v>
+      </c>
+      <c r="O5">
+        <v>1.540758345096863</v>
+      </c>
+      <c r="P5">
+        <v>0.0117357094610728</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>189</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>0.93990743656549</v>
+      </c>
+      <c r="E6">
+        <v>0.5664014313533614</v>
+      </c>
+      <c r="F6">
+        <v>0.001173613873238103</v>
+      </c>
+      <c r="G6">
+        <v>-3.949182285346673</v>
+      </c>
+      <c r="H6">
+        <v>2.304360539626853</v>
+      </c>
+      <c r="I6">
+        <v>3.591552851535671E-46</v>
+      </c>
+      <c r="J6">
+        <v>11.13000011444092</v>
+      </c>
+      <c r="K6">
+        <v>7.050000190734863</v>
+      </c>
+      <c r="L6">
+        <v>1.289091831857746</v>
+      </c>
+      <c r="M6">
+        <v>-1.356126222486264</v>
+      </c>
+      <c r="N6">
+        <v>0.5699833459455935</v>
+      </c>
+      <c r="O6">
+        <v>-1.166559844103613</v>
+      </c>
+      <c r="P6">
+        <v>0.01200495691230365</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>887</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>0.4524448862963382</v>
+      </c>
+      <c r="E7">
+        <v>0.7722633171159132</v>
+      </c>
+      <c r="F7">
+        <v>0.0002904976552730087</v>
+      </c>
+      <c r="G7">
+        <v>24.91618869866268</v>
+      </c>
+      <c r="H7">
+        <v>0.5695579494189169</v>
+      </c>
+      <c r="I7">
+        <v>2.178929285115401E-57</v>
+      </c>
+      <c r="J7">
+        <v>32.16999816894531</v>
+      </c>
+      <c r="K7">
+        <v>14.32999992370605</v>
+      </c>
+      <c r="L7">
+        <v>1.766015624402421</v>
+      </c>
+      <c r="M7">
+        <v>-2.003921905466882</v>
+      </c>
+      <c r="N7">
+        <v>0.7982044801458242</v>
+      </c>
+      <c r="O7">
+        <v>-0.9079559014366279</v>
+      </c>
+      <c r="P7">
+        <v>0.01252267843460565</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>335</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>0.3051189559621442</v>
+      </c>
+      <c r="E8">
+        <v>0.4448171235301266</v>
+      </c>
+      <c r="F8">
+        <v>0.003197050737031948</v>
+      </c>
+      <c r="G8">
+        <v>25.72141509602571</v>
+      </c>
+      <c r="H8">
+        <v>-2.624451181171357</v>
+      </c>
+      <c r="I8">
+        <v>7.416300774119902E-60</v>
+      </c>
+      <c r="J8">
+        <v>11.46000003814697</v>
+      </c>
+      <c r="K8">
+        <v>5.739999771118164</v>
+      </c>
+      <c r="L8">
+        <v>0.974339330892164</v>
+      </c>
+      <c r="M8">
+        <v>-0.9212970166159256</v>
+      </c>
+      <c r="N8">
+        <v>0.3932252245399135</v>
+      </c>
+      <c r="O8">
+        <v>0.8029341213556425</v>
+      </c>
+      <c r="P8">
+        <v>0.0131952681864325</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>2612</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>0.5139457934973337</v>
+      </c>
+      <c r="E9">
+        <v>0.3223887592508454</v>
+      </c>
+      <c r="F9">
+        <v>0.001526420784984404</v>
+      </c>
+      <c r="G9">
+        <v>13.40167400250919</v>
+      </c>
+      <c r="H9">
+        <v>2.63992125728004</v>
+      </c>
+      <c r="I9">
+        <v>1.058254684263007E-39</v>
+      </c>
+      <c r="J9">
+        <v>28.89999961853027</v>
+      </c>
+      <c r="K9">
+        <v>6.460000038146973</v>
+      </c>
+      <c r="L9">
+        <v>2.305304437687695</v>
+      </c>
+      <c r="M9">
+        <v>-3.077270376640584</v>
+      </c>
+      <c r="N9">
+        <v>1.048021279802427</v>
+      </c>
+      <c r="O9">
+        <v>-1.555565806712977</v>
+      </c>
+      <c r="P9">
+        <v>0.01350654831748498</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>1226</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>0.5182017020939945</v>
+      </c>
+      <c r="E10">
+        <v>0.6469977921190904</v>
+      </c>
+      <c r="F10">
+        <v>0.002743400787508978</v>
+      </c>
+      <c r="G10">
+        <v>7.479481148402543</v>
+      </c>
+      <c r="H10">
+        <v>1.079892774081392</v>
+      </c>
+      <c r="I10">
+        <v>1.067387304202939E-59</v>
+      </c>
+      <c r="J10">
+        <v>12.84000015258789</v>
+      </c>
+      <c r="K10">
+        <v>4.650000095367432</v>
+      </c>
+      <c r="L10">
+        <v>0.6514494439696215</v>
+      </c>
+      <c r="M10">
+        <v>-0.7187586752890542</v>
+      </c>
+      <c r="N10">
+        <v>0.2825243114818174</v>
+      </c>
+      <c r="O10">
+        <v>0.3390175017202761</v>
+      </c>
+      <c r="P10">
+        <v>0.0140594745177309</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>1759</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>0.2878980217250193</v>
+      </c>
+      <c r="E11">
+        <v>0.4295331538338978</v>
+      </c>
+      <c r="F11">
+        <v>0.002662523003339774</v>
+      </c>
+      <c r="G11">
+        <v>-16.03283997495168</v>
+      </c>
+      <c r="H11">
+        <v>0.6355668730614071</v>
+      </c>
+      <c r="I11">
+        <v>8.683794901412525E-51</v>
+      </c>
+      <c r="J11">
+        <v>13.46000003814697</v>
+      </c>
+      <c r="K11">
+        <v>47.63000106811523</v>
+      </c>
+      <c r="L11">
+        <v>1.919148008313975</v>
+      </c>
+      <c r="M11">
+        <v>-1.701629692327892</v>
+      </c>
+      <c r="N11">
+        <v>0.7674824159281306</v>
+      </c>
+      <c r="O11">
+        <v>-0.779210829674831</v>
+      </c>
+      <c r="P11">
+        <v>0.01426140743977012</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -73,31 +73,34 @@
     <t>ABEV3</t>
   </si>
   <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
+    <t>CSAN3</t>
+  </si>
+  <si>
     <t>ELET3</t>
   </si>
   <si>
     <t>EZTC3</t>
   </si>
   <si>
+    <t>ASAI3</t>
+  </si>
+  <si>
     <t>ELET6</t>
   </si>
   <si>
-    <t>ASAI3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
+    <t>HYPE3</t>
   </si>
   <si>
     <t>B3SA3</t>
   </si>
   <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
     <t>CCRO3</t>
   </si>
   <si>
-    <t>CSNA3</t>
+    <t>RAIZ4</t>
   </si>
   <si>
     <t>MGLU3</t>
@@ -109,13 +112,10 @@
     <t>DXCO3</t>
   </si>
   <si>
+    <t>SOMA3</t>
+  </si>
+  <si>
     <t>CIEL3</t>
-  </si>
-  <si>
-    <t>SOMA3</t>
-  </si>
-  <si>
-    <t>ENGI11</t>
   </si>
 </sst>
 </file>
@@ -543,57 +543,57 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.5431349167724154</v>
+        <v>0.4129441458113313</v>
       </c>
       <c r="E2">
-        <v>0.3051189559621442</v>
+        <v>0.2997028859603046</v>
       </c>
       <c r="F2">
-        <v>3.264085986242384E-05</v>
+        <v>3.702038919407469E-05</v>
       </c>
       <c r="G2">
-        <v>4.724569999122746</v>
+        <v>4.710227683447808</v>
       </c>
       <c r="H2">
-        <v>0.6463042536199026</v>
+        <v>0.647242254638334</v>
       </c>
       <c r="I2">
-        <v>9.107267858456059E-76</v>
+        <v>1.785988858361934E-75</v>
       </c>
       <c r="J2">
-        <v>11.64000034332275</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="K2">
-        <v>11.46000003814697</v>
+        <v>11.47999954223633</v>
       </c>
       <c r="L2">
-        <v>0.6964380777448387</v>
+        <v>0.699127673543984</v>
       </c>
       <c r="M2">
-        <v>-0.5235317628923752</v>
+        <v>-0.5199858391542733</v>
       </c>
       <c r="N2">
-        <v>0.2009299699454362</v>
+        <v>0.2037517640715766</v>
       </c>
       <c r="O2">
-        <v>-0.4912164269386272</v>
+        <v>-0.4405686611467541</v>
       </c>
       <c r="P2">
-        <v>0.008305808046659936</v>
+        <v>0.008557789782233111</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2046</v>
+        <v>1788</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -602,102 +602,102 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>0.6162117633416763</v>
+        <v>0.222035331523636</v>
       </c>
       <c r="E3">
-        <v>0.7722633171159132</v>
+        <v>0.3928497869460742</v>
       </c>
       <c r="F3">
-        <v>0.000176419399640948</v>
+        <v>7.594265847702606E-05</v>
       </c>
       <c r="G3">
-        <v>26.5657249788056</v>
+        <v>0.3727961874600308</v>
       </c>
       <c r="H3">
-        <v>0.7692264934275246</v>
+        <v>4.305895478267257</v>
       </c>
       <c r="I3">
-        <v>2.008516869301115E-72</v>
+        <v>5.978270657392661E-84</v>
       </c>
       <c r="J3">
-        <v>38.75</v>
+        <v>13.10000038146973</v>
       </c>
       <c r="K3">
-        <v>14.32999992370605</v>
+        <v>3.099999904632568</v>
       </c>
       <c r="L3">
-        <v>1.879690618403522</v>
+        <v>1.070827796898573</v>
       </c>
       <c r="M3">
-        <v>-1.792582304778335</v>
+        <v>-0.8857149132818289</v>
       </c>
       <c r="N3">
-        <v>0.8037364348367392</v>
+        <v>0.4367102057737984</v>
       </c>
       <c r="O3">
-        <v>1.161259429065295</v>
+        <v>-0.6210713779766088</v>
       </c>
       <c r="P3">
-        <v>0.009952612023380056</v>
+        <v>0.009518664374406044</v>
       </c>
       <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" t="s">
         <v>28</v>
-      </c>
-      <c r="R3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2336</v>
+        <v>1693</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>0.2816280108562131</v>
+        <v>0.4840640972756677</v>
       </c>
       <c r="E4">
-        <v>0.6469977921190904</v>
+        <v>0.222035331523636</v>
       </c>
       <c r="F4">
-        <v>0.0001686350625344248</v>
+        <v>0.0001485231417010757</v>
       </c>
       <c r="G4">
-        <v>4.976005944417977</v>
+        <v>-0.1529536458806896</v>
       </c>
       <c r="H4">
-        <v>1.940717379112649</v>
+        <v>1.05607148042953</v>
       </c>
       <c r="I4">
-        <v>1.665901972878921E-56</v>
+        <v>2.091577910541663E-91</v>
       </c>
       <c r="J4">
-        <v>14.85999965667725</v>
+        <v>14.32999992370605</v>
       </c>
       <c r="K4">
-        <v>4.650000095367432</v>
+        <v>13.10000038146973</v>
       </c>
       <c r="L4">
-        <v>1.514860915163116</v>
+        <v>1.169008638469371</v>
       </c>
       <c r="M4">
-        <v>-1.197835787515245</v>
+        <v>-1.075414872065164</v>
       </c>
       <c r="N4">
-        <v>0.5415145138799633</v>
+        <v>0.4154484096160176</v>
       </c>
       <c r="O4">
-        <v>0.8596577143042179</v>
+        <v>0.6484167731005996</v>
       </c>
       <c r="P4">
-        <v>0.01109898775592938</v>
+        <v>0.01022925751907048</v>
       </c>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -705,55 +705,55 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2097</v>
+        <v>2046</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.5241639606884732</v>
+        <v>0.6097223563987062</v>
       </c>
       <c r="E5">
-        <v>0.7722633171159132</v>
+        <v>0.7991684651515233</v>
       </c>
       <c r="F5">
-        <v>0.001151128632702549</v>
+        <v>0.0004995181420336828</v>
       </c>
       <c r="G5">
-        <v>32.32261351760787</v>
+        <v>26.64503725853417</v>
       </c>
       <c r="H5">
-        <v>0.6410765822237318</v>
+        <v>0.7653435205914323</v>
       </c>
       <c r="I5">
-        <v>2.807833730746503E-63</v>
+        <v>9.788270125898432E-72</v>
       </c>
       <c r="J5">
-        <v>43.04999923706055</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>14.32999992370605</v>
+        <v>13.63000011444092</v>
       </c>
       <c r="L5">
-        <v>2.105654055138579</v>
+        <v>1.923330468217998</v>
       </c>
       <c r="M5">
-        <v>-1.732033420331625</v>
+        <v>-1.810931911720871</v>
       </c>
       <c r="N5">
-        <v>0.7989237250122068</v>
+        <v>0.8178114011821693</v>
       </c>
       <c r="O5">
-        <v>1.540758345096863</v>
+        <v>1.923330468217996</v>
       </c>
       <c r="P5">
-        <v>0.0117357094610728</v>
+        <v>0.01054222248660785</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
         <v>21</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>189</v>
+        <v>2336</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -770,158 +770,158 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>0.93990743656549</v>
+        <v>0.2784908949172141</v>
       </c>
       <c r="E6">
-        <v>0.5664014313533614</v>
+        <v>0.6427679735081223</v>
       </c>
       <c r="F6">
-        <v>0.001173613873238103</v>
+        <v>0.0002035750096670763</v>
       </c>
       <c r="G6">
-        <v>-3.949182285346673</v>
+        <v>5.014272334291366</v>
       </c>
       <c r="H6">
-        <v>2.304360539626853</v>
+        <v>1.934461442838</v>
       </c>
       <c r="I6">
-        <v>3.591552851535671E-46</v>
+        <v>2.332182650940942E-56</v>
       </c>
       <c r="J6">
-        <v>11.13000011444092</v>
+        <v>14.89999961853027</v>
       </c>
       <c r="K6">
-        <v>7.050000190734863</v>
+        <v>4.659999847412109</v>
       </c>
       <c r="L6">
-        <v>1.289091831857746</v>
+        <v>1.511440091413423</v>
       </c>
       <c r="M6">
-        <v>-1.356126222486264</v>
+        <v>-1.204634816614604</v>
       </c>
       <c r="N6">
-        <v>0.5699833459455935</v>
+        <v>0.5447202817427427</v>
       </c>
       <c r="O6">
-        <v>-1.166559844103613</v>
+        <v>0.8711372557892165</v>
       </c>
       <c r="P6">
-        <v>0.01200495691230365</v>
+        <v>0.01135084982777883</v>
       </c>
       <c r="Q6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" t="s">
         <v>22</v>
-      </c>
-      <c r="R6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>887</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>0.4524448862963382</v>
+        <v>0.9420984562004073</v>
       </c>
       <c r="E7">
-        <v>0.7722633171159132</v>
+        <v>0.5555299758794394</v>
       </c>
       <c r="F7">
-        <v>0.0002904976552730087</v>
+        <v>0.001614031968645265</v>
       </c>
       <c r="G7">
-        <v>24.91618869866268</v>
+        <v>-4.07501257632766</v>
       </c>
       <c r="H7">
-        <v>0.5695579494189169</v>
+        <v>2.319969854282204</v>
       </c>
       <c r="I7">
-        <v>2.178929285115401E-57</v>
+        <v>4.307547148690989E-46</v>
       </c>
       <c r="J7">
-        <v>32.16999816894531</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="K7">
-        <v>14.32999992370605</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="L7">
-        <v>1.766015624402421</v>
+        <v>1.303627707559736</v>
       </c>
       <c r="M7">
-        <v>-2.003921905466882</v>
+        <v>-1.342370808051184</v>
       </c>
       <c r="N7">
-        <v>0.7982044801458242</v>
+        <v>0.5782498525775602</v>
       </c>
       <c r="O7">
-        <v>-0.9079559014366279</v>
+        <v>-1.263574387855231</v>
       </c>
       <c r="P7">
-        <v>0.01252267843460565</v>
+        <v>0.01240436551152843</v>
       </c>
       <c r="Q7" t="s">
         <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>335</v>
+        <v>2097</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.3051189559621442</v>
+        <v>0.5213700116311194</v>
       </c>
       <c r="E8">
-        <v>0.4448171235301266</v>
+        <v>0.7991684651515233</v>
       </c>
       <c r="F8">
-        <v>0.003197050737031948</v>
+        <v>0.002923660443029238</v>
       </c>
       <c r="G8">
-        <v>25.72141509602571</v>
+        <v>32.40801926998039</v>
       </c>
       <c r="H8">
-        <v>-2.624451181171357</v>
+        <v>0.6368952849814484</v>
       </c>
       <c r="I8">
-        <v>7.416300774119902E-60</v>
+        <v>2.621697752149379E-62</v>
       </c>
       <c r="J8">
-        <v>11.46000003814697</v>
+        <v>43.15999984741211</v>
       </c>
       <c r="K8">
-        <v>5.739999771118164</v>
+        <v>13.63000011444092</v>
       </c>
       <c r="L8">
-        <v>0.974339330892164</v>
+        <v>2.078242895038017</v>
       </c>
       <c r="M8">
-        <v>-0.9212970166159256</v>
+        <v>-1.7296319306162</v>
       </c>
       <c r="N8">
-        <v>0.3932252245399135</v>
+        <v>0.8158177804262082</v>
       </c>
       <c r="O8">
-        <v>0.8029341213556425</v>
+        <v>2.071097770247693</v>
       </c>
       <c r="P8">
-        <v>0.0131952681864325</v>
+        <v>0.01263462977023666</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R8" t="s">
         <v>24</v>
@@ -938,43 +938,43 @@
         <v>32</v>
       </c>
       <c r="D9">
-        <v>0.5139457934973337</v>
+        <v>0.5001193062424487</v>
       </c>
       <c r="E9">
-        <v>0.3223887592508454</v>
+        <v>0.3219132931136239</v>
       </c>
       <c r="F9">
-        <v>0.001526420784984404</v>
+        <v>0.001297736674904194</v>
       </c>
       <c r="G9">
-        <v>13.40167400250919</v>
+        <v>13.35786908689998</v>
       </c>
       <c r="H9">
-        <v>2.63992125728004</v>
+        <v>2.645089612439665</v>
       </c>
       <c r="I9">
-        <v>1.058254684263007E-39</v>
+        <v>7.473406921436522E-40</v>
       </c>
       <c r="J9">
-        <v>28.89999961853027</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>6.460000038146973</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="L9">
-        <v>2.305304437687695</v>
+        <v>2.312096301748085</v>
       </c>
       <c r="M9">
-        <v>-3.077270376640584</v>
+        <v>-3.074398834289923</v>
       </c>
       <c r="N9">
-        <v>1.048021279802427</v>
+        <v>1.050020342905194</v>
       </c>
       <c r="O9">
-        <v>-1.555565806712977</v>
+        <v>-1.286442858769234</v>
       </c>
       <c r="P9">
-        <v>0.01350654831748498</v>
+        <v>0.01351286799948693</v>
       </c>
       <c r="Q9" t="s">
         <v>25</v>
@@ -985,55 +985,55 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1226</v>
+        <v>335</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0.5182017020939945</v>
+        <v>0.2997028859603046</v>
       </c>
       <c r="E10">
-        <v>0.6469977921190904</v>
+        <v>0.4244247755256502</v>
       </c>
       <c r="F10">
-        <v>0.002743400787508978</v>
+        <v>0.003804256031753448</v>
       </c>
       <c r="G10">
-        <v>7.479481148402543</v>
+        <v>25.63593334290709</v>
       </c>
       <c r="H10">
-        <v>1.079892774081392</v>
+        <v>-2.607228400535805</v>
       </c>
       <c r="I10">
-        <v>1.067387304202939E-59</v>
+        <v>1.863897802098656E-59</v>
       </c>
       <c r="J10">
-        <v>12.84000015258789</v>
+        <v>11.47999954223633</v>
       </c>
       <c r="K10">
-        <v>4.650000095367432</v>
+        <v>5.730000019073486</v>
       </c>
       <c r="L10">
-        <v>0.6514494439696215</v>
+        <v>0.9766869647971888</v>
       </c>
       <c r="M10">
-        <v>-0.7187586752890542</v>
+        <v>-0.9329517439823292</v>
       </c>
       <c r="N10">
-        <v>0.2825243114818174</v>
+        <v>0.3975912122338499</v>
       </c>
       <c r="O10">
-        <v>0.3390175017202761</v>
+        <v>0.7834849841283322</v>
       </c>
       <c r="P10">
-        <v>0.0140594745177309</v>
+        <v>0.01364981256139071</v>
       </c>
       <c r="Q10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R10" t="s">
         <v>26</v>
@@ -1041,58 +1041,58 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1759</v>
+        <v>1226</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>0.2878980217250193</v>
+        <v>0.511720788026031</v>
       </c>
       <c r="E11">
-        <v>0.4295331538338978</v>
+        <v>0.6427679735081223</v>
       </c>
       <c r="F11">
-        <v>0.002662523003339774</v>
+        <v>0.003591093366397821</v>
       </c>
       <c r="G11">
-        <v>-16.03283997495168</v>
+        <v>7.498096710962344</v>
       </c>
       <c r="H11">
-        <v>0.6355668730614071</v>
+        <v>1.076849430471604</v>
       </c>
       <c r="I11">
-        <v>8.683794901412525E-51</v>
+        <v>1.196648428926292E-59</v>
       </c>
       <c r="J11">
-        <v>13.46000003814697</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="K11">
-        <v>47.63000106811523</v>
+        <v>4.659999847412109</v>
       </c>
       <c r="L11">
-        <v>1.919148008313975</v>
+        <v>0.6494809703168372</v>
       </c>
       <c r="M11">
-        <v>-1.701629692327892</v>
+        <v>-0.7186881084910919</v>
       </c>
       <c r="N11">
-        <v>0.7674824159281306</v>
+        <v>0.2838440247652027</v>
       </c>
       <c r="O11">
-        <v>-0.779210829674831</v>
+        <v>0.4237846877374647</v>
       </c>
       <c r="P11">
-        <v>0.01426140743977012</v>
+        <v>0.01445175044591042</v>
       </c>
       <c r="Q11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" t="s">
         <v>27</v>
-      </c>
-      <c r="R11" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -88,9 +88,6 @@
     <t>ASAI3</t>
   </si>
   <si>
-    <t>ELET6</t>
-  </si>
-  <si>
     <t>HYPE3</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>CIEL3</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
   </si>
 </sst>
 </file>
@@ -543,52 +543,52 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.4129441458113313</v>
+        <v>0.3765870537954291</v>
       </c>
       <c r="E2">
-        <v>0.2997028859603046</v>
+        <v>0.2950319952979199</v>
       </c>
       <c r="F2">
-        <v>3.702038919407469E-05</v>
+        <v>2.622176498337516E-05</v>
       </c>
       <c r="G2">
-        <v>4.710227683447808</v>
+        <v>4.699996721536944</v>
       </c>
       <c r="H2">
-        <v>0.647242254638334</v>
+        <v>0.6479066244612017</v>
       </c>
       <c r="I2">
-        <v>1.785988858361934E-75</v>
+        <v>1.350429240189332E-75</v>
       </c>
       <c r="J2">
-        <v>11.69999980926514</v>
+        <v>11.81999969482422</v>
       </c>
       <c r="K2">
-        <v>11.47999954223633</v>
+        <v>11.48999977111816</v>
       </c>
       <c r="L2">
-        <v>0.699127673543984</v>
+        <v>0.7011052164417713</v>
       </c>
       <c r="M2">
-        <v>-0.5199858391542733</v>
+        <v>-0.5174017740566796</v>
       </c>
       <c r="N2">
-        <v>0.2037517640715766</v>
+        <v>0.2049054725547511</v>
       </c>
       <c r="O2">
-        <v>-0.4405686611467541</v>
+        <v>-0.3244439934778747</v>
       </c>
       <c r="P2">
-        <v>0.008557789782233111</v>
+        <v>0.008603777474069511</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -599,52 +599,52 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.222035331523636</v>
+        <v>0.3056206508467382</v>
       </c>
       <c r="E3">
-        <v>0.3928497869460742</v>
+        <v>0.3644460608423536</v>
       </c>
       <c r="F3">
-        <v>7.594265847702606E-05</v>
+        <v>0.0001447296655819959</v>
       </c>
       <c r="G3">
-        <v>0.3727961874600308</v>
+        <v>0.3481971160956399</v>
       </c>
       <c r="H3">
-        <v>4.305895478267257</v>
+        <v>4.31136367548072</v>
       </c>
       <c r="I3">
-        <v>5.978270657392661E-84</v>
+        <v>7.645770540143492E-84</v>
       </c>
       <c r="J3">
-        <v>13.10000038146973</v>
+        <v>13.18000030517578</v>
       </c>
       <c r="K3">
-        <v>3.099999904632568</v>
+        <v>3.180000066757202</v>
       </c>
       <c r="L3">
-        <v>1.070827796898573</v>
+        <v>1.074471377971065</v>
       </c>
       <c r="M3">
-        <v>-0.8857149132818289</v>
+        <v>-0.8790515286211509</v>
       </c>
       <c r="N3">
-        <v>0.4367102057737984</v>
+        <v>0.4415893010043374</v>
       </c>
       <c r="O3">
-        <v>-0.6210713779766088</v>
+        <v>-0.8783335867631266</v>
       </c>
       <c r="P3">
-        <v>0.009518664374406044</v>
+        <v>0.009866599336761024</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -658,43 +658,43 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>0.4840640972756677</v>
+        <v>0.4817359365463858</v>
       </c>
       <c r="E4">
-        <v>0.222035331523636</v>
+        <v>0.3056206508467382</v>
       </c>
       <c r="F4">
-        <v>0.0001485231417010757</v>
+        <v>0.0001333741861132899</v>
       </c>
       <c r="G4">
-        <v>-0.1529536458806896</v>
+        <v>-0.1228422885280712</v>
       </c>
       <c r="H4">
-        <v>1.05607148042953</v>
+        <v>1.054281736243196</v>
       </c>
       <c r="I4">
-        <v>2.091577910541663E-91</v>
+        <v>8.715079938486637E-92</v>
       </c>
       <c r="J4">
-        <v>14.32999992370605</v>
+        <v>14.30000019073486</v>
       </c>
       <c r="K4">
-        <v>13.10000038146973</v>
+        <v>13.18000030517578</v>
       </c>
       <c r="L4">
-        <v>1.169008638469371</v>
+        <v>1.16918073260825</v>
       </c>
       <c r="M4">
-        <v>-1.075414872065164</v>
+        <v>-1.082277452846943</v>
       </c>
       <c r="N4">
-        <v>0.4154484096160176</v>
+        <v>0.4164048772188243</v>
       </c>
       <c r="O4">
-        <v>0.6484167731005996</v>
+        <v>0.5274088738363556</v>
       </c>
       <c r="P4">
-        <v>0.01022925751907048</v>
+        <v>0.01031199781097716</v>
       </c>
       <c r="Q4" t="s">
         <v>19</v>
@@ -711,49 +711,49 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.6097223563987062</v>
+        <v>0.6131410081981251</v>
       </c>
       <c r="E5">
-        <v>0.7991684651515233</v>
+        <v>0.8084822135945817</v>
       </c>
       <c r="F5">
-        <v>0.0004995181420336828</v>
+        <v>0.0004459976182301088</v>
       </c>
       <c r="G5">
-        <v>26.64503725853417</v>
+        <v>26.71349140661293</v>
       </c>
       <c r="H5">
-        <v>0.7653435205914323</v>
+        <v>0.7619603837752924</v>
       </c>
       <c r="I5">
-        <v>9.788270125898432E-72</v>
+        <v>1.914596218307495E-71</v>
       </c>
       <c r="J5">
-        <v>39</v>
+        <v>38.58000183105469</v>
       </c>
       <c r="K5">
-        <v>13.63000011444092</v>
+        <v>13.46000003814697</v>
       </c>
       <c r="L5">
-        <v>1.923330468217998</v>
+        <v>1.900988475330387</v>
       </c>
       <c r="M5">
-        <v>-1.810931911720871</v>
+        <v>-1.826270812431524</v>
       </c>
       <c r="N5">
-        <v>0.8178114011821693</v>
+        <v>0.8265202815678794</v>
       </c>
       <c r="O5">
-        <v>1.923330468217996</v>
+        <v>1.610523629759834</v>
       </c>
       <c r="P5">
-        <v>0.01054222248660785</v>
+        <v>0.01074446485159803</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R5" t="s">
         <v>21</v>
@@ -767,49 +767,49 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.2784908949172141</v>
+        <v>0.2754506793879259</v>
       </c>
       <c r="E6">
-        <v>0.6427679735081223</v>
+        <v>0.6511311466016358</v>
       </c>
       <c r="F6">
-        <v>0.0002035750096670763</v>
+        <v>0.0001939321315505055</v>
       </c>
       <c r="G6">
-        <v>5.014272334291366</v>
+        <v>5.0511469346439</v>
       </c>
       <c r="H6">
-        <v>1.934461442838</v>
+        <v>1.92830344070262</v>
       </c>
       <c r="I6">
-        <v>2.332182650940942E-56</v>
+        <v>2.380795390497673E-56</v>
       </c>
       <c r="J6">
-        <v>14.89999961853027</v>
+        <v>14.68000030517578</v>
       </c>
       <c r="K6">
-        <v>4.659999847412109</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="L6">
-        <v>1.511440091413423</v>
+        <v>1.508865564012044</v>
       </c>
       <c r="M6">
-        <v>-1.204634816614604</v>
+        <v>-1.210534664934176</v>
       </c>
       <c r="N6">
-        <v>0.5447202817427427</v>
+        <v>0.5466286293305151</v>
       </c>
       <c r="O6">
-        <v>0.8711372557892165</v>
+        <v>0.7586577271971748</v>
       </c>
       <c r="P6">
-        <v>0.01135084982777883</v>
+        <v>0.01147972129170813</v>
       </c>
       <c r="Q6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R6" t="s">
         <v>22</v>
@@ -823,113 +823,113 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.9420984562004073</v>
+        <v>0.959881197784599</v>
       </c>
       <c r="E7">
-        <v>0.5555299758794394</v>
+        <v>0.5877559348610345</v>
       </c>
       <c r="F7">
-        <v>0.001614031968645265</v>
+        <v>0.001692055734149549</v>
       </c>
       <c r="G7">
-        <v>-4.07501257632766</v>
+        <v>-4.244888627829135</v>
       </c>
       <c r="H7">
-        <v>2.319969854282204</v>
+        <v>2.341530474388362</v>
       </c>
       <c r="I7">
-        <v>4.307547148690989E-46</v>
+        <v>2.71336087368059E-46</v>
       </c>
       <c r="J7">
-        <v>11.10999965667725</v>
+        <v>10.75</v>
       </c>
       <c r="K7">
-        <v>7.090000152587891</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="L7">
-        <v>1.303627707559736</v>
+        <v>1.319776535236887</v>
       </c>
       <c r="M7">
-        <v>-1.342370808051184</v>
+        <v>-1.327300005210795</v>
       </c>
       <c r="N7">
-        <v>0.5782498525775602</v>
+        <v>0.5858273792323915</v>
       </c>
       <c r="O7">
-        <v>-1.263574387855231</v>
+        <v>-1.231917157731871</v>
       </c>
       <c r="P7">
-        <v>0.01240436551152843</v>
+        <v>0.01261685764623998</v>
       </c>
       <c r="Q7" t="s">
         <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2097</v>
+        <v>2612</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.5213700116311194</v>
+        <v>0.5190670731533931</v>
       </c>
       <c r="E8">
-        <v>0.7991684651515233</v>
+        <v>0.3176509902696706</v>
       </c>
       <c r="F8">
-        <v>0.002923660443029238</v>
+        <v>0.001571636701170076</v>
       </c>
       <c r="G8">
-        <v>32.40801926998039</v>
+        <v>13.30826727790234</v>
       </c>
       <c r="H8">
-        <v>0.6368952849814484</v>
+        <v>2.650884697275469</v>
       </c>
       <c r="I8">
-        <v>2.621697752149379E-62</v>
+        <v>6.408956379215175E-40</v>
       </c>
       <c r="J8">
-        <v>43.15999984741211</v>
+        <v>28.78000068664551</v>
       </c>
       <c r="K8">
-        <v>13.63000011444092</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="L8">
-        <v>2.078242895038017</v>
+        <v>2.320209118902888</v>
       </c>
       <c r="M8">
-        <v>-1.7296319306162</v>
+        <v>-3.070692190285357</v>
       </c>
       <c r="N8">
-        <v>0.8158177804262082</v>
+        <v>1.054280378301582</v>
       </c>
       <c r="O8">
-        <v>2.071097770247693</v>
+        <v>-1.520437096299686</v>
       </c>
       <c r="P8">
-        <v>0.01263462977023666</v>
+        <v>0.0137754824955172</v>
       </c>
       <c r="Q8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2612</v>
+        <v>335</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -938,105 +938,105 @@
         <v>32</v>
       </c>
       <c r="D9">
-        <v>0.5001193062424487</v>
+        <v>0.2950319952979199</v>
       </c>
       <c r="E9">
-        <v>0.3219132931136239</v>
+        <v>0.4268842710048267</v>
       </c>
       <c r="F9">
-        <v>0.001297736674904194</v>
+        <v>0.00494204832956204</v>
       </c>
       <c r="G9">
-        <v>13.35786908689998</v>
+        <v>25.54730280542616</v>
       </c>
       <c r="H9">
-        <v>2.645089612439665</v>
+        <v>-2.5893991938544</v>
       </c>
       <c r="I9">
-        <v>7.473406921436522E-40</v>
+        <v>5.105203536268343E-59</v>
       </c>
       <c r="J9">
-        <v>29</v>
+        <v>11.48999977111816</v>
       </c>
       <c r="K9">
-        <v>6.400000095367432</v>
+        <v>5.739999771118164</v>
       </c>
       <c r="L9">
-        <v>2.312096301748085</v>
+        <v>0.9792571603482259</v>
       </c>
       <c r="M9">
-        <v>-3.074398834289923</v>
+        <v>-0.9448779298040613</v>
       </c>
       <c r="N9">
-        <v>1.050020342905194</v>
+        <v>0.402176098197963</v>
       </c>
       <c r="O9">
-        <v>-1.286442858769234</v>
+        <v>0.805847745749821</v>
       </c>
       <c r="P9">
-        <v>0.01351286799948693</v>
+        <v>0.01420030045600175</v>
       </c>
       <c r="Q9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="s">
         <v>25</v>
-      </c>
-      <c r="R9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>335</v>
+        <v>1759</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10">
-        <v>0.2997028859603046</v>
+        <v>0.3056206508467382</v>
       </c>
       <c r="E10">
-        <v>0.4244247755256502</v>
+        <v>0.424210489630099</v>
       </c>
       <c r="F10">
-        <v>0.003804256031753448</v>
+        <v>0.003188721954810254</v>
       </c>
       <c r="G10">
-        <v>25.63593334290709</v>
+        <v>-16.13063826477336</v>
       </c>
       <c r="H10">
-        <v>-2.607228400535805</v>
+        <v>0.6372643852136274</v>
       </c>
       <c r="I10">
-        <v>1.863897802098656E-59</v>
+        <v>5.421702221890849E-51</v>
       </c>
       <c r="J10">
-        <v>11.47999954223633</v>
+        <v>13.18000030517578</v>
       </c>
       <c r="K10">
-        <v>5.730000019073486</v>
+        <v>47.54000091552734</v>
       </c>
       <c r="L10">
-        <v>0.9766869647971888</v>
+        <v>1.931018234803407</v>
       </c>
       <c r="M10">
-        <v>-0.9329517439823292</v>
+        <v>-1.693477021596141</v>
       </c>
       <c r="N10">
-        <v>0.3975912122338499</v>
+        <v>0.7729106497685265</v>
       </c>
       <c r="O10">
-        <v>0.7834849841283322</v>
+        <v>-0.9849108865396765</v>
       </c>
       <c r="P10">
-        <v>0.01364981256139071</v>
+        <v>0.01464284276785785</v>
       </c>
       <c r="Q10" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" t="s">
         <v>33</v>
-      </c>
-      <c r="R10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1044,55 +1044,55 @@
         <v>1226</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>0.511720788026031</v>
+        <v>0.5087605181742902</v>
       </c>
       <c r="E11">
-        <v>0.6427679735081223</v>
+        <v>0.6511311466016358</v>
       </c>
       <c r="F11">
-        <v>0.003591093366397821</v>
+        <v>0.004728170866062082</v>
       </c>
       <c r="G11">
-        <v>7.498096710962344</v>
+        <v>7.521570723905588</v>
       </c>
       <c r="H11">
-        <v>1.076849430471604</v>
+        <v>1.072929306037756</v>
       </c>
       <c r="I11">
-        <v>1.196648428926292E-59</v>
+        <v>1.861348999382759E-59</v>
       </c>
       <c r="J11">
         <v>12.9399995803833</v>
       </c>
       <c r="K11">
-        <v>4.659999847412109</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="L11">
-        <v>0.6494809703168372</v>
+        <v>0.6474500372042691</v>
       </c>
       <c r="M11">
-        <v>-0.7186881084910919</v>
+        <v>-0.7180925579339004</v>
       </c>
       <c r="N11">
-        <v>0.2838440247652027</v>
+        <v>0.2858339471518277</v>
       </c>
       <c r="O11">
-        <v>0.4237846877374647</v>
+        <v>0.4829541510265472</v>
       </c>
       <c r="P11">
-        <v>0.01445175044591042</v>
+        <v>0.01493088841107452</v>
       </c>
       <c r="Q11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -73,33 +73,36 @@
     <t>ABEV3</t>
   </si>
   <si>
+    <t>CSAN3</t>
+  </si>
+  <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>EZTC3</t>
+  </si>
+  <si>
+    <t>ASAI3</t>
+  </si>
+  <si>
+    <t>IRBR3</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
     <t>CSNA3</t>
   </si>
   <si>
-    <t>CSAN3</t>
-  </si>
-  <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>EZTC3</t>
-  </si>
-  <si>
-    <t>ASAI3</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
     <t>MGLU3</t>
   </si>
   <si>
@@ -109,13 +112,13 @@
     <t>DXCO3</t>
   </si>
   <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>CIEL3</t>
+  </si>
+  <si>
     <t>SOMA3</t>
-  </si>
-  <si>
-    <t>CIEL3</t>
-  </si>
-  <si>
-    <t>ENGI11</t>
   </si>
 </sst>
 </file>
@@ -546,43 +549,43 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>0.3765870537954291</v>
+        <v>0.4099884543646749</v>
       </c>
       <c r="E2">
-        <v>0.2950319952979199</v>
+        <v>0.216237301665296</v>
       </c>
       <c r="F2">
-        <v>2.622176498337516E-05</v>
+        <v>2.300796904895996E-05</v>
       </c>
       <c r="G2">
-        <v>4.699996721536944</v>
+        <v>4.685305952296119</v>
       </c>
       <c r="H2">
-        <v>0.6479066244612017</v>
+        <v>0.6489874109874247</v>
       </c>
       <c r="I2">
-        <v>1.350429240189332E-75</v>
+        <v>5.672070680721058E-76</v>
       </c>
       <c r="J2">
-        <v>11.81999969482422</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="K2">
-        <v>11.48999977111816</v>
+        <v>11.17000007629395</v>
       </c>
       <c r="L2">
-        <v>0.7011052164417713</v>
+        <v>0.7023694516083907</v>
       </c>
       <c r="M2">
-        <v>-0.5174017740566796</v>
+        <v>-0.5151508579800534</v>
       </c>
       <c r="N2">
-        <v>0.2049054725547511</v>
+        <v>0.2054116967040743</v>
       </c>
       <c r="O2">
-        <v>-0.3244439934778747</v>
+        <v>-0.264495306245518</v>
       </c>
       <c r="P2">
-        <v>0.008603777474069511</v>
+        <v>0.008658674207308151</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -593,7 +596,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1788</v>
+        <v>1731</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -602,43 +605,43 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <v>0.3056206508467382</v>
+        <v>0.5209144237605744</v>
       </c>
       <c r="E3">
-        <v>0.3644460608423536</v>
+        <v>0.3762160872736727</v>
       </c>
       <c r="F3">
-        <v>0.0001447296655819959</v>
+        <v>0.0002127409959390087</v>
       </c>
       <c r="G3">
-        <v>0.3481971160956399</v>
+        <v>-0.410284568582834</v>
       </c>
       <c r="H3">
-        <v>4.31136367548072</v>
+        <v>4.741642529825094</v>
       </c>
       <c r="I3">
-        <v>7.645770540143492E-84</v>
+        <v>1.887889738159149E-107</v>
       </c>
       <c r="J3">
-        <v>13.18000030517578</v>
+        <v>13.88000011444092</v>
       </c>
       <c r="K3">
-        <v>3.180000066757202</v>
+        <v>3.119999885559082</v>
       </c>
       <c r="L3">
-        <v>1.074471377971065</v>
+        <v>0.724864224038221</v>
       </c>
       <c r="M3">
-        <v>-0.8790515286211509</v>
+        <v>-0.8270808755872423</v>
       </c>
       <c r="N3">
-        <v>0.4415893010043374</v>
+        <v>0.3225299648860152</v>
       </c>
       <c r="O3">
-        <v>-0.8783335867631266</v>
+        <v>-0.503639467392615</v>
       </c>
       <c r="P3">
-        <v>0.009866599336761024</v>
+        <v>0.01037642553110263</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -652,55 +655,55 @@
         <v>1693</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>0.5209144237605744</v>
+      </c>
+      <c r="E4">
+        <v>0.2543757415717775</v>
+      </c>
+      <c r="F4">
+        <v>0.0001984056372122882</v>
+      </c>
+      <c r="G4">
+        <v>-0.07326495895999918</v>
+      </c>
+      <c r="H4">
+        <v>1.051228651981846</v>
+      </c>
+      <c r="I4">
+        <v>5.11598313712298E-92</v>
+      </c>
+      <c r="J4">
+        <v>13.88000011444092</v>
+      </c>
+      <c r="K4">
+        <v>12.64000034332275</v>
+      </c>
+      <c r="L4">
+        <v>1.171263260261139</v>
+      </c>
+      <c r="M4">
+        <v>-1.092195218558867</v>
+      </c>
+      <c r="N4">
+        <v>0.4188092200316534</v>
+      </c>
+      <c r="O4">
+        <v>0.6657345514396731</v>
+      </c>
+      <c r="P4">
+        <v>0.01060904552111993</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" t="s">
         <v>19</v>
-      </c>
-      <c r="D4">
-        <v>0.4817359365463858</v>
-      </c>
-      <c r="E4">
-        <v>0.3056206508467382</v>
-      </c>
-      <c r="F4">
-        <v>0.0001333741861132899</v>
-      </c>
-      <c r="G4">
-        <v>-0.1228422885280712</v>
-      </c>
-      <c r="H4">
-        <v>1.054281736243196</v>
-      </c>
-      <c r="I4">
-        <v>8.715079938486637E-92</v>
-      </c>
-      <c r="J4">
-        <v>14.30000019073486</v>
-      </c>
-      <c r="K4">
-        <v>13.18000030517578</v>
-      </c>
-      <c r="L4">
-        <v>1.16918073260825</v>
-      </c>
-      <c r="M4">
-        <v>-1.082277452846943</v>
-      </c>
-      <c r="N4">
-        <v>0.4164048772188243</v>
-      </c>
-      <c r="O4">
-        <v>0.5274088738363556</v>
-      </c>
-      <c r="P4">
-        <v>0.01031199781097716</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -708,55 +711,55 @@
         <v>2046</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.6131410081981251</v>
+        <v>0.6372933173386655</v>
       </c>
       <c r="E5">
-        <v>0.8084822135945817</v>
+        <v>0.8405119368135916</v>
       </c>
       <c r="F5">
-        <v>0.0004459976182301088</v>
+        <v>0.0003466302467052304</v>
       </c>
       <c r="G5">
-        <v>26.71349140661293</v>
+        <v>26.77492672164324</v>
       </c>
       <c r="H5">
-        <v>0.7619603837752924</v>
+        <v>0.7588170660379151</v>
       </c>
       <c r="I5">
-        <v>1.914596218307495E-71</v>
+        <v>1.386853263631372E-71</v>
       </c>
       <c r="J5">
-        <v>38.58000183105469</v>
+        <v>37.61000061035156</v>
       </c>
       <c r="K5">
-        <v>13.46000003814697</v>
+        <v>12.67000007629395</v>
       </c>
       <c r="L5">
-        <v>1.900988475330387</v>
+        <v>1.882396581420252</v>
       </c>
       <c r="M5">
-        <v>-1.826270812431524</v>
+        <v>-1.838356039584546</v>
       </c>
       <c r="N5">
-        <v>0.8265202815678794</v>
+        <v>0.8301671148777153</v>
       </c>
       <c r="O5">
-        <v>1.610523629759834</v>
+        <v>1.220861604114786</v>
       </c>
       <c r="P5">
-        <v>0.01074446485159803</v>
+        <v>0.01079469371929763</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -764,55 +767,55 @@
         <v>2336</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.2754506793879259</v>
+        <v>0.2803064664465851</v>
       </c>
       <c r="E6">
-        <v>0.6511311466016358</v>
+        <v>0.6797355427771106</v>
       </c>
       <c r="F6">
-        <v>0.0001939321315505055</v>
+        <v>0.0001838387352282782</v>
       </c>
       <c r="G6">
-        <v>5.0511469346439</v>
+        <v>5.091221732333059</v>
       </c>
       <c r="H6">
-        <v>1.92830344070262</v>
+        <v>1.9213594193251</v>
       </c>
       <c r="I6">
-        <v>2.380795390497673E-56</v>
+        <v>1.796752303350171E-56</v>
       </c>
       <c r="J6">
-        <v>14.68000030517578</v>
+        <v>14.30000019073486</v>
       </c>
       <c r="K6">
-        <v>4.599999904632568</v>
+        <v>4.449999809265137</v>
       </c>
       <c r="L6">
-        <v>1.508865564012044</v>
+        <v>1.507468966587696</v>
       </c>
       <c r="M6">
-        <v>-1.210534664934176</v>
+        <v>-1.215681033637493</v>
       </c>
       <c r="N6">
-        <v>0.5466286293305151</v>
+        <v>0.5475635310900554</v>
       </c>
       <c r="O6">
-        <v>0.7586577271971748</v>
+        <v>0.6587294088753364</v>
       </c>
       <c r="P6">
-        <v>0.01147972129170813</v>
+        <v>0.01158138385096354</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -820,279 +823,279 @@
         <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>0.959881197784599</v>
+        <v>0.9719895781281966</v>
       </c>
       <c r="E7">
-        <v>0.5877559348610345</v>
+        <v>0.6235286614203746</v>
       </c>
       <c r="F7">
-        <v>0.001692055734149549</v>
+        <v>0.001825028258216761</v>
       </c>
       <c r="G7">
-        <v>-4.244888627829135</v>
+        <v>-4.452660171850289</v>
       </c>
       <c r="H7">
-        <v>2.341530474388362</v>
+        <v>2.368185459347218</v>
       </c>
       <c r="I7">
-        <v>2.71336087368059E-46</v>
+        <v>1.045735998741098E-46</v>
       </c>
       <c r="J7">
-        <v>10.75</v>
+        <v>10.40999984741211</v>
       </c>
       <c r="K7">
-        <v>6.929999828338623</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="L7">
-        <v>1.319776535236887</v>
+        <v>1.337498033450979</v>
       </c>
       <c r="M7">
-        <v>-1.327300005210795</v>
+        <v>-1.310911248618597</v>
       </c>
       <c r="N7">
-        <v>0.5858273792323915</v>
+        <v>0.5933846218105815</v>
       </c>
       <c r="O7">
-        <v>-1.231917157731871</v>
+        <v>-1.241001555994215</v>
       </c>
       <c r="P7">
-        <v>0.01261685764623998</v>
+        <v>0.01281534045305923</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2612</v>
+        <v>2670</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>0.5190670731533931</v>
+        <v>0.6525801025060219</v>
       </c>
       <c r="E8">
-        <v>0.3176509902696706</v>
+        <v>0.4826263222088712</v>
       </c>
       <c r="F8">
-        <v>0.001571636701170076</v>
+        <v>0.002176345522823305</v>
       </c>
       <c r="G8">
-        <v>13.30826727790234</v>
+        <v>71.42185970966746</v>
       </c>
       <c r="H8">
-        <v>2.650884697275469</v>
+        <v>-3.287889334607157</v>
       </c>
       <c r="I8">
-        <v>6.408956379215175E-40</v>
+        <v>5.981144806553743E-36</v>
       </c>
       <c r="J8">
-        <v>28.78000068664551</v>
+        <v>31.39999961853027</v>
       </c>
       <c r="K8">
-        <v>6.409999847412109</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="L8">
-        <v>2.320209118902888</v>
+        <v>5.670224614149724</v>
       </c>
       <c r="M8">
-        <v>-3.070692190285357</v>
+        <v>-6.350993190710703</v>
       </c>
       <c r="N8">
-        <v>1.054280378301582</v>
+        <v>2.335324401069753</v>
       </c>
       <c r="O8">
-        <v>-1.520437096299686</v>
+        <v>-3.131740878883711</v>
       </c>
       <c r="P8">
-        <v>0.0137754824955172</v>
+        <v>0.01348213188152482</v>
       </c>
       <c r="Q8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>335</v>
+        <v>2097</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>0.2950319952979199</v>
+        <v>0.5189806988953213</v>
       </c>
       <c r="E9">
-        <v>0.4268842710048267</v>
+        <v>0.8405119368135916</v>
       </c>
       <c r="F9">
-        <v>0.00494204832956204</v>
+        <v>0.003313959527478571</v>
       </c>
       <c r="G9">
-        <v>25.54730280542616</v>
+        <v>32.58744775542176</v>
       </c>
       <c r="H9">
-        <v>-2.5893991938544</v>
+        <v>0.6278769756070138</v>
       </c>
       <c r="I9">
-        <v>5.105203536268343E-59</v>
+        <v>8.856161516042664E-61</v>
       </c>
       <c r="J9">
-        <v>11.48999977111816</v>
+        <v>42.2599983215332</v>
       </c>
       <c r="K9">
-        <v>5.739999771118164</v>
+        <v>12.67000007629395</v>
       </c>
       <c r="L9">
-        <v>0.9792571603482259</v>
+        <v>2.161328891895678</v>
       </c>
       <c r="M9">
-        <v>-0.9448779298040613</v>
+        <v>-1.719675919194444</v>
       </c>
       <c r="N9">
-        <v>0.402176098197963</v>
+        <v>0.844307318723826</v>
       </c>
       <c r="O9">
-        <v>0.805847745749821</v>
+        <v>1.717349237267363</v>
       </c>
       <c r="P9">
-        <v>0.01420030045600175</v>
+        <v>0.01349743571750039</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1759</v>
+        <v>335</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10">
-        <v>0.3056206508467382</v>
+        <v>0.216237301665296</v>
       </c>
       <c r="E10">
-        <v>0.424210489630099</v>
+        <v>0.4180105054583657</v>
       </c>
       <c r="F10">
-        <v>0.003188721954810254</v>
+        <v>0.002704882763626203</v>
       </c>
       <c r="G10">
-        <v>-16.13063826477336</v>
+        <v>25.49562543984545</v>
       </c>
       <c r="H10">
-        <v>0.6372643852136274</v>
+        <v>-2.579003611569984</v>
       </c>
       <c r="I10">
-        <v>5.421702221890849E-51</v>
+        <v>3.273046980007461E-59</v>
       </c>
       <c r="J10">
-        <v>13.18000030517578</v>
+        <v>11.17000007629395</v>
       </c>
       <c r="K10">
-        <v>47.54000091552734</v>
+        <v>5.739999771118164</v>
       </c>
       <c r="L10">
-        <v>1.931018234803407</v>
+        <v>0.9807557724967708</v>
       </c>
       <c r="M10">
-        <v>-1.693477021596141</v>
+        <v>-0.9518316469194996</v>
       </c>
       <c r="N10">
-        <v>0.7729106497685265</v>
+        <v>0.4028100198532487</v>
       </c>
       <c r="O10">
-        <v>-0.9849108865396765</v>
+        <v>0.4778547765731211</v>
       </c>
       <c r="P10">
-        <v>0.01464284276785785</v>
+        <v>0.01380196371704207</v>
       </c>
       <c r="Q10" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1226</v>
+        <v>2612</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>0.5087605181742902</v>
+        <v>0.5662325120896037</v>
       </c>
       <c r="E11">
-        <v>0.6511311466016358</v>
+        <v>0.3223168967807994</v>
       </c>
       <c r="F11">
-        <v>0.004728170866062082</v>
+        <v>0.002123988742650103</v>
       </c>
       <c r="G11">
-        <v>7.521570723905588</v>
+        <v>13.2263229410435</v>
       </c>
       <c r="H11">
-        <v>1.072929306037756</v>
+        <v>2.661240532278939</v>
       </c>
       <c r="I11">
-        <v>1.861348999382759E-59</v>
+        <v>6.074541943150702E-40</v>
       </c>
       <c r="J11">
-        <v>12.9399995803833</v>
+        <v>28.17000007629395</v>
       </c>
       <c r="K11">
-        <v>4.599999904632568</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="L11">
-        <v>0.6474500372042691</v>
+        <v>2.328005678717069</v>
       </c>
       <c r="M11">
-        <v>-0.7180925579339004</v>
+        <v>-3.070766067444076</v>
       </c>
       <c r="N11">
-        <v>0.2858339471518277</v>
+        <v>1.061947611976444</v>
       </c>
       <c r="O11">
-        <v>0.4829541510265472</v>
+        <v>-1.822138725698213</v>
       </c>
       <c r="P11">
-        <v>0.01493088841107452</v>
+        <v>0.01416302813242995</v>
       </c>
       <c r="Q11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -70,27 +70,27 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>CSAN3</t>
+  </si>
+  <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
+    <t>EZTC3</t>
+  </si>
+  <si>
     <t>ABEV3</t>
   </si>
   <si>
-    <t>CSAN3</t>
+    <t>ELET6</t>
   </si>
   <si>
     <t>ELET3</t>
   </si>
   <si>
-    <t>EZTC3</t>
-  </si>
-  <si>
-    <t>ASAI3</t>
-  </si>
-  <si>
     <t>IRBR3</t>
   </si>
   <si>
-    <t>ELET6</t>
-  </si>
-  <si>
     <t>B3SA3</t>
   </si>
   <si>
@@ -100,16 +100,16 @@
     <t>RAIZ4</t>
   </si>
   <si>
-    <t>CSNA3</t>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>COGN3</t>
   </si>
   <si>
     <t>MGLU3</t>
   </si>
   <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
+    <t>IGTI11</t>
   </si>
   <si>
     <t>MRFG3</t>
@@ -540,63 +540,63 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>4</v>
+        <v>1693</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>0.4099884543646749</v>
+        <v>0.3467021294406877</v>
       </c>
       <c r="E2">
-        <v>0.216237301665296</v>
+        <v>0.5807921063105295</v>
       </c>
       <c r="F2">
-        <v>2.300796904895996E-05</v>
+        <v>0.0001387294782987063</v>
       </c>
       <c r="G2">
-        <v>4.685305952296119</v>
+        <v>-0.2107239571759318</v>
       </c>
       <c r="H2">
-        <v>0.6489874109874247</v>
+        <v>1.061838441802132</v>
       </c>
       <c r="I2">
-        <v>5.672070680721058E-76</v>
+        <v>7.351712590688308E-91</v>
       </c>
       <c r="J2">
-        <v>11.67000007629395</v>
+        <v>14.02999973297119</v>
       </c>
       <c r="K2">
-        <v>11.17000007629395</v>
+        <v>12.64000034332275</v>
       </c>
       <c r="L2">
-        <v>0.7023694516083907</v>
+        <v>1.129198806013321</v>
       </c>
       <c r="M2">
-        <v>-0.5151508579800534</v>
+        <v>-1.092557387680065</v>
       </c>
       <c r="N2">
-        <v>0.2054116967040743</v>
+        <v>0.4152908217051718</v>
       </c>
       <c r="O2">
-        <v>-0.264495306245518</v>
+        <v>0.8190854212148775</v>
       </c>
       <c r="P2">
-        <v>0.008658674207308151</v>
+        <v>0.01015510708495925</v>
       </c>
       <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1731</v>
+        <v>1788</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -605,43 +605,43 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <v>0.5209144237605744</v>
+        <v>0.5807921063105295</v>
       </c>
       <c r="E3">
-        <v>0.3762160872736727</v>
+        <v>0.4340137456615167</v>
       </c>
       <c r="F3">
-        <v>0.0002127409959390087</v>
+        <v>0.0001759272855724013</v>
       </c>
       <c r="G3">
-        <v>-0.410284568582834</v>
+        <v>0.3957071860352898</v>
       </c>
       <c r="H3">
-        <v>4.741642529825094</v>
+        <v>4.289907854392783</v>
       </c>
       <c r="I3">
-        <v>1.887889738159149E-107</v>
+        <v>9.045428254532323E-81</v>
       </c>
       <c r="J3">
-        <v>13.88000011444092</v>
+        <v>12.64000034332275</v>
       </c>
       <c r="K3">
-        <v>3.119999885559082</v>
+        <v>3.059999942779541</v>
       </c>
       <c r="L3">
-        <v>0.724864224038221</v>
+        <v>1.109185345124672</v>
       </c>
       <c r="M3">
-        <v>-0.8270808755872423</v>
+        <v>-1.140218857477025</v>
       </c>
       <c r="N3">
-        <v>0.3225299648860152</v>
+        <v>0.4532175692113208</v>
       </c>
       <c r="O3">
-        <v>-0.503639467392615</v>
+        <v>-0.8828246316839543</v>
       </c>
       <c r="P3">
-        <v>0.01037642553110263</v>
+        <v>0.01020159911534948</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -652,223 +652,223 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1693</v>
+        <v>2336</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
       </c>
       <c r="D4">
-        <v>0.5209144237605744</v>
+        <v>0.4347311149813418</v>
       </c>
       <c r="E4">
-        <v>0.2543757415717775</v>
+        <v>0.7305576305271756</v>
       </c>
       <c r="F4">
-        <v>0.0001984056372122882</v>
+        <v>0.0005883201843493269</v>
       </c>
       <c r="G4">
-        <v>-0.07326495895999918</v>
+        <v>5.246315423502323</v>
       </c>
       <c r="H4">
-        <v>1.051228651981846</v>
+        <v>1.887587531562766</v>
       </c>
       <c r="I4">
-        <v>5.11598313712298E-92</v>
+        <v>1.079889521038618E-57</v>
       </c>
       <c r="J4">
-        <v>13.88000011444092</v>
+        <v>14.22999954223633</v>
       </c>
       <c r="K4">
-        <v>12.64000034332275</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="L4">
-        <v>1.171263260261139</v>
+        <v>1.232230640363845</v>
       </c>
       <c r="M4">
-        <v>-1.092195218558867</v>
+        <v>-1.200902122276595</v>
       </c>
       <c r="N4">
-        <v>0.4188092200316534</v>
+        <v>0.5229697154494091</v>
       </c>
       <c r="O4">
-        <v>0.6657345514396731</v>
+        <v>0.8104302510787278</v>
       </c>
       <c r="P4">
-        <v>0.01060904552111993</v>
+        <v>0.01177660373154099</v>
       </c>
       <c r="Q4" t="s">
         <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2046</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
       <c r="D5">
-        <v>0.6372933173386655</v>
+        <v>0.3921214435060683</v>
       </c>
       <c r="E5">
-        <v>0.8405119368135916</v>
+        <v>0.529665368989142</v>
       </c>
       <c r="F5">
-        <v>0.0003466302467052304</v>
+        <v>0.001684828364268415</v>
       </c>
       <c r="G5">
-        <v>26.77492672164324</v>
+        <v>9.075053527483822</v>
       </c>
       <c r="H5">
-        <v>0.7588170660379151</v>
+        <v>1.405784227373443</v>
       </c>
       <c r="I5">
-        <v>1.386853263631372E-71</v>
+        <v>1.149585637229825E-65</v>
       </c>
       <c r="J5">
-        <v>37.61000061035156</v>
+        <v>11.72999954223633</v>
       </c>
       <c r="K5">
-        <v>12.67000007629395</v>
+        <v>1.669999957084656</v>
       </c>
       <c r="L5">
-        <v>1.882396581420252</v>
+        <v>0.8183122267463148</v>
       </c>
       <c r="M5">
-        <v>-1.838356039584546</v>
+        <v>-0.4679278682425938</v>
       </c>
       <c r="N5">
-        <v>0.8301671148777153</v>
+        <v>0.2380716760007409</v>
       </c>
       <c r="O5">
-        <v>1.220861604114786</v>
+        <v>0.3072864153685706</v>
       </c>
       <c r="P5">
-        <v>0.01079469371929763</v>
+        <v>0.01280626175560906</v>
       </c>
       <c r="Q5" t="s">
         <v>29</v>
       </c>
       <c r="R5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2336</v>
+        <v>2097</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="D6">
-        <v>0.2803064664465851</v>
+        <v>0.5565831154472671</v>
       </c>
       <c r="E6">
-        <v>0.6797355427771106</v>
+        <v>0.782799036351153</v>
       </c>
       <c r="F6">
-        <v>0.0001838387352282782</v>
+        <v>0.00188818264557245</v>
       </c>
       <c r="G6">
-        <v>5.091221732333059</v>
+        <v>32.62741760896906</v>
       </c>
       <c r="H6">
-        <v>1.9213594193251</v>
+        <v>0.6260746726518498</v>
       </c>
       <c r="I6">
-        <v>1.796752303350171E-56</v>
+        <v>4.295528594148562E-60</v>
       </c>
       <c r="J6">
-        <v>14.30000019073486</v>
+        <v>41.43999862670898</v>
       </c>
       <c r="K6">
-        <v>4.449999809265137</v>
+        <v>12.56999969482422</v>
       </c>
       <c r="L6">
-        <v>1.507468966587696</v>
+        <v>2.145618036193639</v>
       </c>
       <c r="M6">
-        <v>-1.215681033637493</v>
+        <v>-1.721797410683294</v>
       </c>
       <c r="N6">
-        <v>0.5475635310900554</v>
+        <v>0.8507582486833306</v>
       </c>
       <c r="O6">
-        <v>0.6587294088753364</v>
+        <v>0.9428225735689981</v>
       </c>
       <c r="P6">
-        <v>0.01158138385096354</v>
+        <v>0.01308085557211205</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>189</v>
+        <v>2038</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7">
-        <v>0.9719895781281966</v>
+        <v>0.6754576265260628</v>
       </c>
       <c r="E7">
-        <v>0.6235286614203746</v>
+        <v>0.3356667785271288</v>
       </c>
       <c r="F7">
-        <v>0.001825028258216761</v>
+        <v>0.004452970307683307</v>
       </c>
       <c r="G7">
-        <v>-4.452660171850289</v>
+        <v>-5.156815814066942</v>
       </c>
       <c r="H7">
-        <v>2.368185459347218</v>
+        <v>2.03096987300099</v>
       </c>
       <c r="I7">
-        <v>1.045735998741098E-46</v>
+        <v>6.746273092631606E-59</v>
       </c>
       <c r="J7">
-        <v>10.40999984741211</v>
+        <v>37.09000015258789</v>
       </c>
       <c r="K7">
-        <v>6.800000190734863</v>
+        <v>21.44000053405762</v>
       </c>
       <c r="L7">
-        <v>1.337498033450979</v>
+        <v>2.946548212372605</v>
       </c>
       <c r="M7">
-        <v>-1.310911248618597</v>
+        <v>-2.42461833664747</v>
       </c>
       <c r="N7">
-        <v>0.5933846218105815</v>
+        <v>1.024469961048038</v>
       </c>
       <c r="O7">
-        <v>-1.241001555994215</v>
+        <v>-1.297179195141311</v>
       </c>
       <c r="P7">
-        <v>0.01281534045305923</v>
+        <v>0.01320812381243237</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
         <v>31</v>
@@ -876,114 +876,114 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2670</v>
+        <v>2031</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>0.6525801025060219</v>
+        <v>0.6754576265260628</v>
       </c>
       <c r="E8">
-        <v>0.4826263222088712</v>
+        <v>0.4347311149813418</v>
       </c>
       <c r="F8">
-        <v>0.002176345522823305</v>
+        <v>0.001739777428947332</v>
       </c>
       <c r="G8">
-        <v>71.42185970966746</v>
+        <v>12.36155328182125</v>
       </c>
       <c r="H8">
-        <v>-3.287889334607157</v>
+        <v>1.826005477013576</v>
       </c>
       <c r="I8">
-        <v>5.981144806553743E-36</v>
+        <v>1.742461332418039E-54</v>
       </c>
       <c r="J8">
-        <v>31.39999961853027</v>
+        <v>37.09000015258789</v>
       </c>
       <c r="K8">
-        <v>11.22000026702881</v>
+        <v>14.22999954223633</v>
       </c>
       <c r="L8">
-        <v>5.670224614149724</v>
+        <v>3.340330517825755</v>
       </c>
       <c r="M8">
-        <v>-6.350993190710703</v>
+        <v>-2.500628449121308</v>
       </c>
       <c r="N8">
-        <v>2.335324401069753</v>
+        <v>1.104429795809937</v>
       </c>
       <c r="O8">
-        <v>-3.131740878883711</v>
+        <v>-1.255610231257574</v>
       </c>
       <c r="P8">
-        <v>0.01348213188152482</v>
+        <v>0.01328463698895219</v>
       </c>
       <c r="Q8" t="s">
         <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2097</v>
+        <v>2670</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.5189806988953213</v>
+        <v>0.7192062797034713</v>
       </c>
       <c r="E9">
-        <v>0.8405119368135916</v>
+        <v>0.4495331707470147</v>
       </c>
       <c r="F9">
-        <v>0.003313959527478571</v>
+        <v>0.004304950107490647</v>
       </c>
       <c r="G9">
-        <v>32.58744775542176</v>
+        <v>71.41903438556909</v>
       </c>
       <c r="H9">
-        <v>0.6278769756070138</v>
+        <v>-3.294331316125579</v>
       </c>
       <c r="I9">
-        <v>8.856161516042664E-61</v>
+        <v>1.521275164052485E-35</v>
       </c>
       <c r="J9">
-        <v>42.2599983215332</v>
+        <v>29.98999977111816</v>
       </c>
       <c r="K9">
-        <v>12.67000007629395</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="L9">
-        <v>2.161328891895678</v>
+        <v>5.742687761165399</v>
       </c>
       <c r="M9">
-        <v>-1.719675919194444</v>
+        <v>-6.282137556048504</v>
       </c>
       <c r="N9">
-        <v>0.844307318723826</v>
+        <v>2.357293830803447</v>
       </c>
       <c r="O9">
-        <v>1.717349237267363</v>
+        <v>-4.532524502188274</v>
       </c>
       <c r="P9">
-        <v>0.01349743571750039</v>
+        <v>0.01403486359374635</v>
       </c>
       <c r="Q9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -997,43 +997,43 @@
         <v>33</v>
       </c>
       <c r="D10">
-        <v>0.216237301665296</v>
+        <v>0.4611438215288273</v>
       </c>
       <c r="E10">
-        <v>0.4180105054583657</v>
+        <v>0.362581243809277</v>
       </c>
       <c r="F10">
-        <v>0.002704882763626203</v>
+        <v>0.003888162692973513</v>
       </c>
       <c r="G10">
-        <v>25.49562543984545</v>
+        <v>25.45338486068993</v>
       </c>
       <c r="H10">
-        <v>-2.579003611569984</v>
+        <v>-2.570350181943701</v>
       </c>
       <c r="I10">
-        <v>3.273046980007461E-59</v>
+        <v>6.692002734227322E-57</v>
       </c>
       <c r="J10">
         <v>11.17000007629395</v>
       </c>
       <c r="K10">
-        <v>5.739999771118164</v>
+        <v>5.75</v>
       </c>
       <c r="L10">
-        <v>0.9807557724967708</v>
+        <v>0.9812278017355762</v>
       </c>
       <c r="M10">
-        <v>-0.9518316469194996</v>
+        <v>-0.9583964097008568</v>
       </c>
       <c r="N10">
-        <v>0.4028100198532487</v>
+        <v>0.4058567404833728</v>
       </c>
       <c r="O10">
-        <v>0.4778547765731211</v>
+        <v>0.4961287617802981</v>
       </c>
       <c r="P10">
-        <v>0.01380196371704207</v>
+        <v>0.01459297735058367</v>
       </c>
       <c r="Q10" t="s">
         <v>33</v>
@@ -1053,43 +1053,43 @@
         <v>34</v>
       </c>
       <c r="D11">
-        <v>0.5662325120896037</v>
+        <v>0.2886660782675655</v>
       </c>
       <c r="E11">
-        <v>0.3223168967807994</v>
+        <v>0.2061758906595688</v>
       </c>
       <c r="F11">
-        <v>0.002123988742650103</v>
+        <v>0.004526131782425495</v>
       </c>
       <c r="G11">
-        <v>13.2263229410435</v>
+        <v>13.3857084093145</v>
       </c>
       <c r="H11">
-        <v>2.661240532278939</v>
+        <v>2.631779160875941</v>
       </c>
       <c r="I11">
-        <v>6.074541943150702E-40</v>
+        <v>2.031675386776033E-39</v>
       </c>
       <c r="J11">
-        <v>28.17000007629395</v>
+        <v>28.3700008392334</v>
       </c>
       <c r="K11">
-        <v>6.300000190734863</v>
+        <v>6.260000228881836</v>
       </c>
       <c r="L11">
-        <v>2.328005678717069</v>
+        <v>2.280191103335198</v>
       </c>
       <c r="M11">
-        <v>-3.070766067444076</v>
+        <v>-2.996819379304242</v>
       </c>
       <c r="N11">
-        <v>1.061947611976444</v>
+        <v>1.050755876308952</v>
       </c>
       <c r="O11">
-        <v>-1.822138725698213</v>
+        <v>-1.490645719530937</v>
       </c>
       <c r="P11">
-        <v>0.01416302813242995</v>
+        <v>0.01498732465883251</v>
       </c>
       <c r="Q11" t="s">
         <v>26</v>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -76,49 +76,43 @@
     <t>CSNA3</t>
   </si>
   <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
     <t>EZTC3</t>
   </si>
   <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
     <t>ABEV3</t>
   </si>
   <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>ELET3</t>
-  </si>
-  <si>
     <t>IRBR3</t>
   </si>
   <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
     <t>RAIZ4</t>
   </si>
   <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
     <t>LWSA3</t>
   </si>
   <si>
+    <t>YDUQ3</t>
+  </si>
+  <si>
     <t>COGN3</t>
   </si>
   <si>
-    <t>MGLU3</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
     <t>MRFG3</t>
-  </si>
-  <si>
-    <t>CIEL3</t>
-  </si>
-  <si>
-    <t>SOMA3</t>
   </si>
 </sst>
 </file>
@@ -549,43 +543,43 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>0.3467021294406877</v>
+        <v>0.373838086031251</v>
       </c>
       <c r="E2">
-        <v>0.5807921063105295</v>
+        <v>0.7198567615508099</v>
       </c>
       <c r="F2">
-        <v>0.0001387294782987063</v>
+        <v>0.0001928477600995229</v>
       </c>
       <c r="G2">
-        <v>-0.2107239571759318</v>
+        <v>-0.2579174453097069</v>
       </c>
       <c r="H2">
-        <v>1.061838441802132</v>
+        <v>1.065903141699538</v>
       </c>
       <c r="I2">
-        <v>7.351712590688308E-91</v>
+        <v>1.971986773078024E-90</v>
       </c>
       <c r="J2">
-        <v>14.02999973297119</v>
+        <v>14.05000019073486</v>
       </c>
       <c r="K2">
-        <v>12.64000034332275</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="L2">
-        <v>1.129198806013321</v>
+        <v>1.107615346519331</v>
       </c>
       <c r="M2">
-        <v>-1.092557387680065</v>
+        <v>-1.098164350283259</v>
       </c>
       <c r="N2">
-        <v>0.4152908217051718</v>
+        <v>0.4146764111836198</v>
       </c>
       <c r="O2">
-        <v>0.8190854212148775</v>
+        <v>0.7922654740066051</v>
       </c>
       <c r="P2">
-        <v>0.01015510708495925</v>
+        <v>0.01028966085689913</v>
       </c>
       <c r="Q2" t="s">
         <v>19</v>
@@ -602,105 +596,105 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.5807921063105295</v>
+        <v>0.7198567615508099</v>
       </c>
       <c r="E3">
-        <v>0.4340137456615167</v>
+        <v>0.3719915098300189</v>
       </c>
       <c r="F3">
-        <v>0.0001759272855724013</v>
+        <v>0.0003451252832559243</v>
       </c>
       <c r="G3">
-        <v>0.3957071860352898</v>
+        <v>0.4342000872111987</v>
       </c>
       <c r="H3">
-        <v>4.289907854392783</v>
+        <v>4.274354458372583</v>
       </c>
       <c r="I3">
-        <v>9.045428254532323E-81</v>
+        <v>1.570951255268849E-79</v>
       </c>
       <c r="J3">
-        <v>12.64000034332275</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="K3">
-        <v>3.059999942779541</v>
+        <v>3.099999904632568</v>
       </c>
       <c r="L3">
-        <v>1.109185345124672</v>
+        <v>1.13029692172892</v>
       </c>
       <c r="M3">
-        <v>-1.140218857477025</v>
+        <v>-1.130185164849857</v>
       </c>
       <c r="N3">
-        <v>0.4532175692113208</v>
+        <v>0.4569284837319297</v>
       </c>
       <c r="O3">
-        <v>-0.8828246316839543</v>
+        <v>-1.00469819535622</v>
       </c>
       <c r="P3">
-        <v>0.01020159911534948</v>
+        <v>0.01059627698416213</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2336</v>
+        <v>2046</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.4347311149813418</v>
+        <v>0.6392976208522686</v>
       </c>
       <c r="E4">
-        <v>0.7305576305271756</v>
+        <v>0.7769211602461135</v>
       </c>
       <c r="F4">
-        <v>0.0005883201843493269</v>
+        <v>0.0006759029836578925</v>
       </c>
       <c r="G4">
-        <v>5.246315423502323</v>
+        <v>26.90665932451543</v>
       </c>
       <c r="H4">
-        <v>1.887587531562766</v>
+        <v>0.7516751801155221</v>
       </c>
       <c r="I4">
-        <v>1.079889521038618E-57</v>
+        <v>4.568855407462986E-70</v>
       </c>
       <c r="J4">
-        <v>14.22999954223633</v>
+        <v>37.84000015258789</v>
       </c>
       <c r="K4">
-        <v>4.329999923706055</v>
+        <v>12.32999992370605</v>
       </c>
       <c r="L4">
-        <v>1.232230640363845</v>
+        <v>1.893292814986729</v>
       </c>
       <c r="M4">
-        <v>-1.200902122276595</v>
+        <v>-1.857961034837373</v>
       </c>
       <c r="N4">
-        <v>0.5229697154494091</v>
+        <v>0.8469607623560228</v>
       </c>
       <c r="O4">
-        <v>0.8104302510787278</v>
+        <v>1.665185914596337</v>
       </c>
       <c r="P4">
-        <v>0.01177660373154099</v>
+        <v>0.01119011363259782</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -708,111 +702,111 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>20</v>
+        <v>2089</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.3921214435060683</v>
+        <v>0.4630648494375853</v>
       </c>
       <c r="E5">
-        <v>0.529665368989142</v>
+        <v>0.3523254620873487</v>
       </c>
       <c r="F5">
-        <v>0.001684828364268415</v>
+        <v>0.002722628245318595</v>
       </c>
       <c r="G5">
-        <v>9.075053527483822</v>
+        <v>5.17547205137516</v>
       </c>
       <c r="H5">
-        <v>1.405784227373443</v>
+        <v>1.726167392352822</v>
       </c>
       <c r="I5">
-        <v>1.149585637229825E-65</v>
+        <v>4.626866586689149E-58</v>
       </c>
       <c r="J5">
-        <v>11.72999954223633</v>
+        <v>42.09000015258789</v>
       </c>
       <c r="K5">
-        <v>1.669999957084656</v>
+        <v>21.97999954223633</v>
       </c>
       <c r="L5">
-        <v>0.8183122267463148</v>
+        <v>2.477928432662956</v>
       </c>
       <c r="M5">
-        <v>-0.4679278682425938</v>
+        <v>-2.4153553679471</v>
       </c>
       <c r="N5">
-        <v>0.2380716760007409</v>
+        <v>0.8807295955172451</v>
       </c>
       <c r="O5">
-        <v>0.3072864153685706</v>
+        <v>-1.026630392525576</v>
       </c>
       <c r="P5">
-        <v>0.01280626175560906</v>
+        <v>0.01144925360305379</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2097</v>
+        <v>2336</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.5565831154472671</v>
+        <v>0.4047781861284617</v>
       </c>
       <c r="E6">
-        <v>0.782799036351153</v>
+        <v>0.6515830018790649</v>
       </c>
       <c r="F6">
-        <v>0.00188818264557245</v>
+        <v>0.00134949285094673</v>
       </c>
       <c r="G6">
-        <v>32.62741760896906</v>
+        <v>5.317814099228786</v>
       </c>
       <c r="H6">
-        <v>0.6260746726518498</v>
+        <v>1.873558456501116</v>
       </c>
       <c r="I6">
-        <v>4.295528594148562E-60</v>
+        <v>2.689379141678135E-57</v>
       </c>
       <c r="J6">
-        <v>41.43999862670898</v>
+        <v>14.75</v>
       </c>
       <c r="K6">
-        <v>12.56999969482422</v>
+        <v>4.519999980926514</v>
       </c>
       <c r="L6">
-        <v>2.145618036193639</v>
+        <v>1.237192328396173</v>
       </c>
       <c r="M6">
-        <v>-1.721797410683294</v>
+        <v>-1.201834547499541</v>
       </c>
       <c r="N6">
-        <v>0.8507582486833306</v>
+        <v>0.5239144454573492</v>
       </c>
       <c r="O6">
-        <v>0.9428225735689981</v>
+        <v>0.9637017131214609</v>
       </c>
       <c r="P6">
-        <v>0.01308085557211205</v>
+        <v>0.01237225247644588</v>
       </c>
       <c r="Q6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R6" t="s">
         <v>22</v>
@@ -820,282 +814,282 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2038</v>
+        <v>1972</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.6754576265260628</v>
+        <v>0.4614731589091622</v>
       </c>
       <c r="E7">
-        <v>0.3356667785271288</v>
+        <v>0.7907362976110324</v>
       </c>
       <c r="F7">
-        <v>0.004452970307683307</v>
+        <v>0.0008973835855809283</v>
       </c>
       <c r="G7">
-        <v>-5.156815814066942</v>
+        <v>5.6662067319938</v>
       </c>
       <c r="H7">
-        <v>2.03096987300099</v>
+        <v>0.1120449324174539</v>
       </c>
       <c r="I7">
-        <v>6.746273092631606E-59</v>
+        <v>1.678724181555797E-36</v>
       </c>
       <c r="J7">
-        <v>37.09000015258789</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="K7">
-        <v>21.44000053405762</v>
+        <v>11.44999980926514</v>
       </c>
       <c r="L7">
-        <v>2.946548212372605</v>
+        <v>0.7898704282491318</v>
       </c>
       <c r="M7">
-        <v>-2.42461833664747</v>
+        <v>-0.5650570364432799</v>
       </c>
       <c r="N7">
-        <v>1.024469961048038</v>
+        <v>0.2632060270059752</v>
       </c>
       <c r="O7">
-        <v>-1.297179195141311</v>
+        <v>0.290878584315392</v>
       </c>
       <c r="P7">
-        <v>0.01320812381243237</v>
+        <v>0.01241405367218437</v>
       </c>
       <c r="Q7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" t="s">
         <v>23</v>
-      </c>
-      <c r="R7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2031</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.6754576265260628</v>
+        <v>0.3807437264066438</v>
       </c>
       <c r="E8">
-        <v>0.4347311149813418</v>
+        <v>0.3680825488521972</v>
       </c>
       <c r="F8">
-        <v>0.001739777428947332</v>
+        <v>0.002087060828377057</v>
       </c>
       <c r="G8">
-        <v>12.36155328182125</v>
+        <v>9.094684821110082</v>
       </c>
       <c r="H8">
-        <v>1.826005477013576</v>
+        <v>1.398361228513192</v>
       </c>
       <c r="I8">
-        <v>1.742461332418039E-54</v>
+        <v>1.576954017919302E-64</v>
       </c>
       <c r="J8">
-        <v>37.09000015258789</v>
+        <v>11.8100004196167</v>
       </c>
       <c r="K8">
-        <v>14.22999954223633</v>
+        <v>1.690000057220459</v>
       </c>
       <c r="L8">
-        <v>3.340330517825755</v>
+        <v>0.8174611200241149</v>
       </c>
       <c r="M8">
-        <v>-2.500628449121308</v>
+        <v>-0.4736039240469765</v>
       </c>
       <c r="N8">
-        <v>1.104429795809937</v>
+        <v>0.2400014648331662</v>
       </c>
       <c r="O8">
-        <v>-1.255610231257574</v>
+        <v>0.3520850423044513</v>
       </c>
       <c r="P8">
-        <v>0.01328463698895219</v>
+        <v>0.0131416658551785</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2670</v>
+        <v>2031</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>0.7192062797034713</v>
+        <v>0.6392976208522686</v>
       </c>
       <c r="E9">
-        <v>0.4495331707470147</v>
+        <v>0.4047781861284617</v>
       </c>
       <c r="F9">
-        <v>0.004304950107490647</v>
+        <v>0.001714721282536006</v>
       </c>
       <c r="G9">
-        <v>71.41903438556909</v>
+        <v>12.22943973836311</v>
       </c>
       <c r="H9">
-        <v>-3.294331316125579</v>
+        <v>1.834894316744006</v>
       </c>
       <c r="I9">
-        <v>1.521275164052485E-35</v>
+        <v>1.903907835451528E-54</v>
       </c>
       <c r="J9">
-        <v>29.98999977111816</v>
+        <v>37.84000015258789</v>
       </c>
       <c r="K9">
-        <v>11.19999980926514</v>
+        <v>14.75</v>
       </c>
       <c r="L9">
-        <v>5.742687761165399</v>
+        <v>3.33477013496644</v>
       </c>
       <c r="M9">
-        <v>-6.282137556048504</v>
+        <v>-2.518251989665387</v>
       </c>
       <c r="N9">
-        <v>2.357293830803447</v>
+        <v>1.105199559630613</v>
       </c>
       <c r="O9">
-        <v>-4.532524502188274</v>
+        <v>-1.454130757749301</v>
       </c>
       <c r="P9">
-        <v>0.01403486359374635</v>
+        <v>0.01322189806325919</v>
       </c>
       <c r="Q9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>335</v>
+        <v>2097</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>0.4611438215288273</v>
+        <v>0.4630648494375853</v>
       </c>
       <c r="E10">
-        <v>0.362581243809277</v>
+        <v>0.7769211602461135</v>
       </c>
       <c r="F10">
-        <v>0.003888162692973513</v>
+        <v>0.003873842403151878</v>
       </c>
       <c r="G10">
-        <v>25.45338486068993</v>
+        <v>32.71668372948829</v>
       </c>
       <c r="H10">
-        <v>-2.570350181943701</v>
+        <v>0.6214444143588903</v>
       </c>
       <c r="I10">
-        <v>6.692002734227322E-57</v>
+        <v>3.179946805327159E-59</v>
       </c>
       <c r="J10">
-        <v>11.17000007629395</v>
+        <v>42.09000015258789</v>
       </c>
       <c r="K10">
-        <v>5.75</v>
+        <v>12.32999992370605</v>
       </c>
       <c r="L10">
-        <v>0.9812278017355762</v>
+        <v>2.118675192474278</v>
       </c>
       <c r="M10">
-        <v>-0.9583964097008568</v>
+        <v>-1.713828107050375</v>
       </c>
       <c r="N10">
-        <v>0.4058567404833728</v>
+        <v>0.8634542078904032</v>
       </c>
       <c r="O10">
-        <v>0.4961287617802981</v>
+        <v>1.710906841466931</v>
       </c>
       <c r="P10">
-        <v>0.01459297735058367</v>
+        <v>0.0137232256287758</v>
       </c>
       <c r="Q10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2612</v>
+        <v>2670</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.2886660782675655</v>
+        <v>0.696420122487529</v>
       </c>
       <c r="E11">
-        <v>0.2061758906595688</v>
+        <v>0.468403958519221</v>
       </c>
       <c r="F11">
-        <v>0.004526131782425495</v>
+        <v>0.003309615402183915</v>
       </c>
       <c r="G11">
-        <v>13.3857084093145</v>
+        <v>71.51338208384477</v>
       </c>
       <c r="H11">
-        <v>2.631779160875941</v>
+        <v>-3.306888717536819</v>
       </c>
       <c r="I11">
-        <v>2.031675386776033E-39</v>
+        <v>1.798473263562813E-35</v>
       </c>
       <c r="J11">
-        <v>28.3700008392334</v>
+        <v>30.93000030517578</v>
       </c>
       <c r="K11">
-        <v>6.260000228881836</v>
+        <v>11.27000045776367</v>
       </c>
       <c r="L11">
-        <v>2.280191103335198</v>
+        <v>5.784085577414515</v>
       </c>
       <c r="M11">
-        <v>-2.996819379304242</v>
+        <v>-6.247771889858981</v>
       </c>
       <c r="N11">
-        <v>1.050755876308952</v>
+        <v>2.371248626788721</v>
       </c>
       <c r="O11">
-        <v>-1.490645719530937</v>
+        <v>-3.314744418255522</v>
       </c>
       <c r="P11">
-        <v>0.01498732465883251</v>
+        <v>0.01390224478177412</v>
       </c>
       <c r="Q11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -70,46 +70,46 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>CSAN3</t>
-  </si>
-  <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
     <t>ELET3</t>
   </si>
   <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>EZTC3</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
     <t>ELET6</t>
   </si>
   <si>
-    <t>EZTC3</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
     <t>IRBR3</t>
   </si>
   <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
     <t>RAIZ4</t>
   </si>
   <si>
-    <t>MGLU3</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
     <t>COGN3</t>
+  </si>
+  <si>
+    <t>JBSS3</t>
   </si>
   <si>
     <t>MRFG3</t>
@@ -534,55 +534,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1693</v>
+        <v>2046</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.373838086031251</v>
+        <v>0.6673566014710028</v>
       </c>
       <c r="E2">
-        <v>0.7198567615508099</v>
+        <v>0.7791240444480751</v>
       </c>
       <c r="F2">
-        <v>0.0001928477600995229</v>
+        <v>0.0004213317725575424</v>
       </c>
       <c r="G2">
-        <v>-0.2579174453097069</v>
+        <v>26.96869805820728</v>
       </c>
       <c r="H2">
-        <v>1.065903141699538</v>
+        <v>0.7484196659105513</v>
       </c>
       <c r="I2">
-        <v>1.971986773078024E-90</v>
+        <v>1.006680221748503E-69</v>
       </c>
       <c r="J2">
-        <v>14.05000019073486</v>
+        <v>37.25</v>
       </c>
       <c r="K2">
-        <v>12.68000030517578</v>
+        <v>12.18000030517578</v>
       </c>
       <c r="L2">
-        <v>1.107615346519331</v>
+        <v>1.897015470719055</v>
       </c>
       <c r="M2">
-        <v>-1.098164350283259</v>
+        <v>-1.868888196132119</v>
       </c>
       <c r="N2">
-        <v>0.4146764111836198</v>
+        <v>0.852890810259315</v>
       </c>
       <c r="O2">
-        <v>0.7922654740066051</v>
+        <v>1.165550182602651</v>
       </c>
       <c r="P2">
-        <v>0.01028966085689913</v>
+        <v>0.01118773942753712</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -590,111 +590,111 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1788</v>
+        <v>3372</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.7198567615508099</v>
+        <v>0.2344326493296743</v>
       </c>
       <c r="E3">
-        <v>0.3719915098300189</v>
+        <v>0.427154810744229</v>
       </c>
       <c r="F3">
-        <v>0.0003451252832559243</v>
+        <v>0.0001092639855018111</v>
       </c>
       <c r="G3">
-        <v>0.4342000872111987</v>
+        <v>6.786760233358637</v>
       </c>
       <c r="H3">
-        <v>4.274354458372583</v>
+        <v>0.4465504845548108</v>
       </c>
       <c r="I3">
-        <v>1.570951255268849E-79</v>
+        <v>1.291171376259608E-35</v>
       </c>
       <c r="J3">
-        <v>12.68000030517578</v>
+        <v>16.60000038146973</v>
       </c>
       <c r="K3">
-        <v>3.099999904632568</v>
+        <v>22.90999984741211</v>
       </c>
       <c r="L3">
-        <v>1.13029692172892</v>
+        <v>1.370956870254979</v>
       </c>
       <c r="M3">
-        <v>-1.130185164849857</v>
+        <v>-0.9399914523894779</v>
       </c>
       <c r="N3">
-        <v>0.4569284837319297</v>
+        <v>0.4022896750593032</v>
       </c>
       <c r="O3">
-        <v>-1.00469819535622</v>
+        <v>-0.4172313849014291</v>
       </c>
       <c r="P3">
-        <v>0.01059627698416213</v>
+        <v>0.01177146252974235</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2046</v>
+        <v>2336</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.6392976208522686</v>
+        <v>0.5433463227070782</v>
       </c>
       <c r="E4">
-        <v>0.7769211602461135</v>
+        <v>0.6304788648045576</v>
       </c>
       <c r="F4">
-        <v>0.0006759029836578925</v>
+        <v>0.0009332097342416101</v>
       </c>
       <c r="G4">
-        <v>26.90665932451543</v>
+        <v>5.38734189901484</v>
       </c>
       <c r="H4">
-        <v>0.7516751801155221</v>
+        <v>1.860021157611642</v>
       </c>
       <c r="I4">
-        <v>4.568855407462986E-70</v>
+        <v>7.368468181334078E-57</v>
       </c>
       <c r="J4">
-        <v>37.84000015258789</v>
+        <v>14.27000045776367</v>
       </c>
       <c r="K4">
-        <v>12.32999992370605</v>
+        <v>4.380000114440918</v>
       </c>
       <c r="L4">
-        <v>1.893292814986729</v>
+        <v>1.241442804975716</v>
       </c>
       <c r="M4">
-        <v>-1.857961034837373</v>
+        <v>-1.203269731031302</v>
       </c>
       <c r="N4">
-        <v>0.8469607623560228</v>
+        <v>0.5253685255434247</v>
       </c>
       <c r="O4">
-        <v>1.665185914596337</v>
+        <v>0.7357656755473112</v>
       </c>
       <c r="P4">
-        <v>0.01119011363259782</v>
+        <v>0.01221829450264292</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -702,338 +702,338 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2089</v>
+        <v>2031</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>0.4630648494375853</v>
+        <v>0.6673566014710028</v>
       </c>
       <c r="E5">
-        <v>0.3523254620873487</v>
+        <v>0.5433463227070782</v>
       </c>
       <c r="F5">
-        <v>0.002722628245318595</v>
+        <v>0.0005133068245157563</v>
       </c>
       <c r="G5">
-        <v>5.17547205137516</v>
+        <v>12.05318493887524</v>
       </c>
       <c r="H5">
-        <v>1.726167392352822</v>
+        <v>1.846983212107435</v>
       </c>
       <c r="I5">
-        <v>4.626866586689149E-58</v>
+        <v>1.140873705402601E-54</v>
       </c>
       <c r="J5">
-        <v>42.09000015258789</v>
+        <v>37.25</v>
       </c>
       <c r="K5">
-        <v>21.97999954223633</v>
+        <v>14.27000045776367</v>
       </c>
       <c r="L5">
-        <v>2.477928432662956</v>
+        <v>3.323787258897326</v>
       </c>
       <c r="M5">
-        <v>-2.4153553679471</v>
+        <v>-2.545636123026675</v>
       </c>
       <c r="N5">
-        <v>0.8807295955172451</v>
+        <v>1.102265988291667</v>
       </c>
       <c r="O5">
-        <v>-1.026630392525576</v>
+        <v>-1.159636221130157</v>
       </c>
       <c r="P5">
-        <v>0.01144925360305379</v>
+        <v>0.01238715070277019</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2336</v>
+        <v>2256</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6">
-        <v>0.4047781861284617</v>
+        <v>0.1091757789943654</v>
       </c>
       <c r="E6">
-        <v>0.6515830018790649</v>
+        <v>0.359242293792219</v>
       </c>
       <c r="F6">
-        <v>0.00134949285094673</v>
+        <v>0.001623138809050311</v>
       </c>
       <c r="G6">
-        <v>5.317814099228786</v>
+        <v>28.76652141172476</v>
       </c>
       <c r="H6">
-        <v>1.873558456501116</v>
+        <v>5.887966126395088</v>
       </c>
       <c r="I6">
-        <v>2.689379141678135E-57</v>
+        <v>2.147286984864135E-56</v>
       </c>
       <c r="J6">
-        <v>14.75</v>
+        <v>45.63000106811523</v>
       </c>
       <c r="K6">
-        <v>4.519999980926514</v>
+        <v>3.039999961853027</v>
       </c>
       <c r="L6">
-        <v>1.237192328396173</v>
+        <v>2.241236615960958</v>
       </c>
       <c r="M6">
-        <v>-1.201834547499541</v>
+        <v>-1.739922342670518</v>
       </c>
       <c r="N6">
-        <v>0.5239144454573492</v>
+        <v>0.9681918731635539</v>
       </c>
       <c r="O6">
-        <v>0.9637017131214609</v>
+        <v>-1.035937143242506</v>
       </c>
       <c r="P6">
-        <v>0.01237225247644588</v>
+        <v>0.01314786944002346</v>
       </c>
       <c r="Q6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" t="s">
         <v>29</v>
-      </c>
-      <c r="R6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1972</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7">
-        <v>0.4614731589091622</v>
+        <v>0.3022471035482598</v>
       </c>
       <c r="E7">
-        <v>0.7907362976110324</v>
+        <v>0.3299667963901587</v>
       </c>
       <c r="F7">
-        <v>0.0008973835855809283</v>
+        <v>0.002865243887230505</v>
       </c>
       <c r="G7">
-        <v>5.6662067319938</v>
+        <v>9.1048391174625</v>
       </c>
       <c r="H7">
-        <v>0.1120449324174539</v>
+        <v>1.395697441176408</v>
       </c>
       <c r="I7">
-        <v>1.678724181555797E-36</v>
+        <v>1.918136801751974E-63</v>
       </c>
       <c r="J7">
-        <v>7.239999771118164</v>
+        <v>11.77999973297119</v>
       </c>
       <c r="K7">
-        <v>11.44999980926514</v>
+        <v>1.639999985694885</v>
       </c>
       <c r="L7">
-        <v>0.7898704282491318</v>
+        <v>0.814046205557549</v>
       </c>
       <c r="M7">
-        <v>-0.5650570364432799</v>
+        <v>-0.4787503002189428</v>
       </c>
       <c r="N7">
-        <v>0.2632060270059752</v>
+        <v>0.2418781736428035</v>
       </c>
       <c r="O7">
-        <v>0.290878584315392</v>
+        <v>0.3862168319449939</v>
       </c>
       <c r="P7">
-        <v>0.01241405367218437</v>
+        <v>0.01351656382095291</v>
       </c>
       <c r="Q7" t="s">
         <v>30</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>20</v>
+        <v>2097</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>0.3807437264066438</v>
+        <v>0.4238408509477539</v>
       </c>
       <c r="E8">
-        <v>0.3680825488521972</v>
+        <v>0.7791240444480751</v>
       </c>
       <c r="F8">
-        <v>0.002087060828377057</v>
+        <v>0.002250437648025777</v>
       </c>
       <c r="G8">
-        <v>9.094684821110082</v>
+        <v>32.78249366899932</v>
       </c>
       <c r="H8">
-        <v>1.398361228513192</v>
+        <v>0.6181874243745048</v>
       </c>
       <c r="I8">
-        <v>1.576954017919302E-64</v>
+        <v>8.60642833626668E-59</v>
       </c>
       <c r="J8">
-        <v>11.8100004196167</v>
+        <v>41.63000106811523</v>
       </c>
       <c r="K8">
-        <v>1.690000057220459</v>
+        <v>12.18000030517578</v>
       </c>
       <c r="L8">
-        <v>0.8174611200241149</v>
+        <v>2.09670433827732</v>
       </c>
       <c r="M8">
-        <v>-0.4736039240469765</v>
+        <v>-1.7113084600836</v>
       </c>
       <c r="N8">
-        <v>0.2400014648331662</v>
+        <v>0.8705355103088849</v>
       </c>
       <c r="O8">
-        <v>0.3520850423044513</v>
+        <v>1.317984381578613</v>
       </c>
       <c r="P8">
-        <v>0.0131416658551785</v>
+        <v>0.01352300807866268</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2031</v>
+        <v>2665</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.6392976208522686</v>
+        <v>0.722685429339981</v>
       </c>
       <c r="E9">
-        <v>0.4047781861284617</v>
+        <v>0.9412546995598364</v>
       </c>
       <c r="F9">
-        <v>0.001714721282536006</v>
+        <v>0.001961347199424994</v>
       </c>
       <c r="G9">
-        <v>12.22943973836311</v>
+        <v>63.85517261674732</v>
       </c>
       <c r="H9">
-        <v>1.834894316744006</v>
+        <v>-1.036856177077114</v>
       </c>
       <c r="I9">
-        <v>1.903907835451528E-54</v>
+        <v>6.419963021637974E-49</v>
       </c>
       <c r="J9">
-        <v>37.84000015258789</v>
+        <v>29.67000007629395</v>
       </c>
       <c r="K9">
-        <v>14.75</v>
+        <v>30.57999992370605</v>
       </c>
       <c r="L9">
-        <v>3.33477013496644</v>
+        <v>5.384216401159414</v>
       </c>
       <c r="M9">
-        <v>-2.518251989665387</v>
+        <v>-4.97156276533147</v>
       </c>
       <c r="N9">
-        <v>1.105199559630613</v>
+        <v>1.904611112468064</v>
       </c>
       <c r="O9">
-        <v>-1.454130757749301</v>
+        <v>-2.478110724541072</v>
       </c>
       <c r="P9">
-        <v>0.01322189806325919</v>
+        <v>0.01369202146356333</v>
       </c>
       <c r="Q9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2097</v>
+        <v>352</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
       <c r="D10">
-        <v>0.4630648494375853</v>
+        <v>0.1987504017308065</v>
       </c>
       <c r="E10">
-        <v>0.7769211602461135</v>
+        <v>0.1091757789943654</v>
       </c>
       <c r="F10">
-        <v>0.003873842403151878</v>
+        <v>0.002870199780590465</v>
       </c>
       <c r="G10">
-        <v>32.71668372948829</v>
+        <v>-6.629000441494235</v>
       </c>
       <c r="H10">
-        <v>0.6214444143588903</v>
+        <v>0.3815010194718406</v>
       </c>
       <c r="I10">
-        <v>3.179946805327159E-59</v>
+        <v>1.316014259541086E-57</v>
       </c>
       <c r="J10">
-        <v>42.09000015258789</v>
+        <v>11.18000030517578</v>
       </c>
       <c r="K10">
-        <v>12.32999992370605</v>
+        <v>45.63000106811523</v>
       </c>
       <c r="L10">
-        <v>2.118675192474278</v>
+        <v>1.252917149404652</v>
       </c>
       <c r="M10">
-        <v>-1.713828107050375</v>
+        <v>-1.024899087772209</v>
       </c>
       <c r="N10">
-        <v>0.8634542078904032</v>
+        <v>0.3922815040626211</v>
       </c>
       <c r="O10">
-        <v>1.710906841466931</v>
+        <v>0.4011088206828788</v>
       </c>
       <c r="P10">
-        <v>0.0137232256287758</v>
+        <v>0.01391406063151273</v>
       </c>
       <c r="Q10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="R10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1041,52 +1041,52 @@
         <v>2670</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
       </c>
       <c r="D11">
-        <v>0.696420122487529</v>
+        <v>0.722685429339981</v>
       </c>
       <c r="E11">
-        <v>0.468403958519221</v>
+        <v>0.4394224395831659</v>
       </c>
       <c r="F11">
-        <v>0.003309615402183915</v>
+        <v>0.006051715439343575</v>
       </c>
       <c r="G11">
-        <v>71.51338208384477</v>
+        <v>71.69083756822592</v>
       </c>
       <c r="H11">
-        <v>-3.306888717536819</v>
+        <v>-3.328378658815942</v>
       </c>
       <c r="I11">
-        <v>1.798473263562813E-35</v>
+        <v>5.282589585482208E-35</v>
       </c>
       <c r="J11">
-        <v>30.93000030517578</v>
+        <v>29.67000007629395</v>
       </c>
       <c r="K11">
-        <v>11.27000045776367</v>
+        <v>11.03999996185303</v>
       </c>
       <c r="L11">
-        <v>5.784085577414515</v>
+        <v>5.83893636727823</v>
       </c>
       <c r="M11">
-        <v>-6.247771889858981</v>
+        <v>-6.204955476129115</v>
       </c>
       <c r="N11">
-        <v>2.371248626788721</v>
+        <v>2.413362636498145</v>
       </c>
       <c r="O11">
-        <v>-3.314744418255522</v>
+        <v>-5.27553722557154</v>
       </c>
       <c r="P11">
-        <v>0.01390224478177412</v>
+        <v>0.01453779826842042</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R11" t="s">
         <v>32</v>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -70,49 +70,52 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>CSAN3</t>
+  </si>
+  <si>
     <t>ELET3</t>
   </si>
   <si>
-    <t>TIMS3</t>
+    <t>IRBR3</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>CVCB3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
+    <t>JBSS3</t>
+  </si>
+  <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
+  </si>
+  <si>
+    <t>SOMA3</t>
   </si>
   <si>
     <t>EZTC3</t>
-  </si>
-  <si>
-    <t>ENGI11</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>IRBR3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>MGLU3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>JBSS3</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2046</v>
+        <v>1731</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -543,54 +546,54 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>0.6673566014710028</v>
+        <v>0.399208054002564</v>
       </c>
       <c r="E2">
-        <v>0.7791240444480751</v>
+        <v>0.3585209185011524</v>
       </c>
       <c r="F2">
-        <v>0.0004213317725575424</v>
+        <v>0.0001477683786522493</v>
       </c>
       <c r="G2">
-        <v>26.96869805820728</v>
+        <v>-0.564251244803323</v>
       </c>
       <c r="H2">
-        <v>0.7484196659105513</v>
+        <v>4.788282367658278</v>
       </c>
       <c r="I2">
-        <v>1.006680221748503E-69</v>
+        <v>2.777810819830914E-105</v>
       </c>
       <c r="J2">
-        <v>37.25</v>
+        <v>13.56999969482422</v>
       </c>
       <c r="K2">
-        <v>12.18000030517578</v>
+        <v>3.029999971389771</v>
       </c>
       <c r="L2">
-        <v>1.897015470719055</v>
+        <v>0.7056664201833982</v>
       </c>
       <c r="M2">
-        <v>-1.868888196132119</v>
+        <v>-0.8204960909227434</v>
       </c>
       <c r="N2">
-        <v>0.852890810259315</v>
+        <v>0.3228231965203732</v>
       </c>
       <c r="O2">
-        <v>1.165550182602651</v>
+        <v>-0.3742444973831827</v>
       </c>
       <c r="P2">
-        <v>0.01118773942753712</v>
+        <v>0.01010635531480972</v>
       </c>
       <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
         <v>26</v>
-      </c>
-      <c r="R2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>3372</v>
+        <v>2046</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -599,217 +602,217 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <v>0.2344326493296743</v>
+        <v>0.6629722650860825</v>
       </c>
       <c r="E3">
-        <v>0.427154810744229</v>
+        <v>0.8059044843600326</v>
       </c>
       <c r="F3">
-        <v>0.0001092639855018111</v>
+        <v>0.000701701491874994</v>
       </c>
       <c r="G3">
-        <v>6.786760233358637</v>
+        <v>27.05748178209508</v>
       </c>
       <c r="H3">
-        <v>0.4465504845548108</v>
+        <v>0.7437388462768731</v>
       </c>
       <c r="I3">
-        <v>1.291171376259608E-35</v>
+        <v>1.285754402217174E-69</v>
       </c>
       <c r="J3">
-        <v>16.60000038146973</v>
+        <v>37.29999923706055</v>
       </c>
       <c r="K3">
-        <v>22.90999984741211</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="L3">
-        <v>1.370956870254979</v>
+        <v>1.902784307002733</v>
       </c>
       <c r="M3">
-        <v>-0.9399914523894779</v>
+        <v>-1.884183052663964</v>
       </c>
       <c r="N3">
-        <v>0.4022896750593032</v>
+        <v>0.860373790661797</v>
       </c>
       <c r="O3">
-        <v>-0.4172313849014291</v>
+        <v>1.563085062171588</v>
       </c>
       <c r="P3">
-        <v>0.01177146252974235</v>
+        <v>0.01161284344478791</v>
       </c>
       <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2336</v>
+        <v>1693</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
       </c>
       <c r="D4">
-        <v>0.5433463227070782</v>
+        <v>0.399208054002564</v>
       </c>
       <c r="E4">
-        <v>0.6304788648045576</v>
+        <v>0.7426466848534619</v>
       </c>
       <c r="F4">
-        <v>0.0009332097342416101</v>
+        <v>0.001126125870362626</v>
       </c>
       <c r="G4">
-        <v>5.38734189901484</v>
+        <v>-0.1371802588370596</v>
       </c>
       <c r="H4">
-        <v>1.860021157611642</v>
+        <v>1.058964040689893</v>
       </c>
       <c r="I4">
-        <v>7.368468181334078E-57</v>
+        <v>1.723155729777302E-88</v>
       </c>
       <c r="J4">
-        <v>14.27000045776367</v>
+        <v>13.56999969482422</v>
       </c>
       <c r="K4">
-        <v>4.380000114440918</v>
+        <v>11.98999977111816</v>
       </c>
       <c r="L4">
-        <v>1.241442804975716</v>
+        <v>1.10429154818603</v>
       </c>
       <c r="M4">
-        <v>-1.203269731031302</v>
+        <v>-1.128762616228853</v>
       </c>
       <c r="N4">
-        <v>0.5253685255434247</v>
+        <v>0.4289453879835471</v>
       </c>
       <c r="O4">
-        <v>0.7357656755473112</v>
+        <v>1.010201348167094</v>
       </c>
       <c r="P4">
-        <v>0.01221829450264292</v>
+        <v>0.01170639855297969</v>
       </c>
       <c r="Q4" t="s">
         <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2031</v>
+        <v>2665</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>0.7678539351357228</v>
+      </c>
+      <c r="E5">
+        <v>0.9427048514291572</v>
+      </c>
+      <c r="F5">
+        <v>0.00241674586731734</v>
+      </c>
+      <c r="G5">
+        <v>64.05066430273563</v>
+      </c>
+      <c r="H5">
+        <v>-1.04534575495909</v>
+      </c>
+      <c r="I5">
+        <v>1.351526020934909E-49</v>
+      </c>
+      <c r="J5">
+        <v>28.84000015258789</v>
+      </c>
+      <c r="K5">
+        <v>30.8700008392334</v>
+      </c>
+      <c r="L5">
+        <v>5.391286048616678</v>
+      </c>
+      <c r="M5">
+        <v>-4.988858213520217</v>
+      </c>
+      <c r="N5">
+        <v>1.914509440169617</v>
+      </c>
+      <c r="O5">
+        <v>-2.940839817271552</v>
+      </c>
+      <c r="P5">
+        <v>0.01398121188888072</v>
+      </c>
+      <c r="Q5" t="s">
         <v>20</v>
       </c>
-      <c r="D5">
-        <v>0.6673566014710028</v>
-      </c>
-      <c r="E5">
-        <v>0.5433463227070782</v>
-      </c>
-      <c r="F5">
-        <v>0.0005133068245157563</v>
-      </c>
-      <c r="G5">
-        <v>12.05318493887524</v>
-      </c>
-      <c r="H5">
-        <v>1.846983212107435</v>
-      </c>
-      <c r="I5">
-        <v>1.140873705402601E-54</v>
-      </c>
-      <c r="J5">
-        <v>37.25</v>
-      </c>
-      <c r="K5">
-        <v>14.27000045776367</v>
-      </c>
-      <c r="L5">
-        <v>3.323787258897326</v>
-      </c>
-      <c r="M5">
-        <v>-2.545636123026675</v>
-      </c>
-      <c r="N5">
-        <v>1.102265988291667</v>
-      </c>
-      <c r="O5">
-        <v>-1.159636221130157</v>
-      </c>
-      <c r="P5">
-        <v>0.01238715070277019</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>18</v>
-      </c>
       <c r="R5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2256</v>
+        <v>2097</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.1091757789943654</v>
+        <v>0.4147619132330012</v>
       </c>
       <c r="E6">
-        <v>0.359242293792219</v>
+        <v>0.8059044843600326</v>
       </c>
       <c r="F6">
-        <v>0.001623138809050311</v>
+        <v>0.003553003470747371</v>
       </c>
       <c r="G6">
-        <v>28.76652141172476</v>
+        <v>32.87717036466946</v>
       </c>
       <c r="H6">
-        <v>5.887966126395088</v>
+        <v>0.6131959178625158</v>
       </c>
       <c r="I6">
-        <v>2.147286984864135E-56</v>
+        <v>1.740302012343064E-58</v>
       </c>
       <c r="J6">
-        <v>45.63000106811523</v>
+        <v>41.70000076293945</v>
       </c>
       <c r="K6">
-        <v>3.039999961853027</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="L6">
-        <v>2.241236615960958</v>
+        <v>2.069213320448959</v>
       </c>
       <c r="M6">
-        <v>-1.739922342670518</v>
+        <v>-1.719632096904547</v>
       </c>
       <c r="N6">
-        <v>0.9681918731635539</v>
+        <v>0.8791549201940866</v>
       </c>
       <c r="O6">
-        <v>-1.035937143242506</v>
+        <v>1.666833990031297</v>
       </c>
       <c r="P6">
-        <v>0.01314786944002346</v>
+        <v>0.01410884657669152</v>
       </c>
       <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
         <v>21</v>
-      </c>
-      <c r="R6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -823,43 +826,43 @@
         <v>30</v>
       </c>
       <c r="D7">
-        <v>0.3022471035482598</v>
+        <v>0.29577454801539</v>
       </c>
       <c r="E7">
-        <v>0.3299667963901587</v>
+        <v>0.3724858379907631</v>
       </c>
       <c r="F7">
-        <v>0.002865243887230505</v>
+        <v>0.004451826404005036</v>
       </c>
       <c r="G7">
-        <v>9.1048391174625</v>
+        <v>9.133848845487996</v>
       </c>
       <c r="H7">
-        <v>1.395697441176408</v>
+        <v>1.384499298366872</v>
       </c>
       <c r="I7">
-        <v>1.918136801751974E-63</v>
+        <v>3.385556347976887E-63</v>
       </c>
       <c r="J7">
-        <v>11.77999973297119</v>
+        <v>11.78999996185303</v>
       </c>
       <c r="K7">
-        <v>1.639999985694885</v>
+        <v>1.580000042915344</v>
       </c>
       <c r="L7">
-        <v>0.814046205557549</v>
+        <v>0.8133677785197957</v>
       </c>
       <c r="M7">
-        <v>-0.4787503002189428</v>
+        <v>-0.4867075198159085</v>
       </c>
       <c r="N7">
-        <v>0.2418781736428035</v>
+        <v>0.2443583866508036</v>
       </c>
       <c r="O7">
-        <v>0.3862168319449939</v>
+        <v>0.4686421655291086</v>
       </c>
       <c r="P7">
-        <v>0.01351656382095291</v>
+        <v>0.01414274546690519</v>
       </c>
       <c r="Q7" t="s">
         <v>30</v>
@@ -870,55 +873,55 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2097</v>
+        <v>352</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.4238408509477539</v>
+        <v>0.2099138893136584</v>
       </c>
       <c r="E8">
-        <v>0.7791240444480751</v>
+        <v>0.1446577454667074</v>
       </c>
       <c r="F8">
-        <v>0.002250437648025777</v>
+        <v>0.004159869050133527</v>
       </c>
       <c r="G8">
-        <v>32.78249366899932</v>
+        <v>-6.507208493970392</v>
       </c>
       <c r="H8">
-        <v>0.6181874243745048</v>
+        <v>0.3790598454118881</v>
       </c>
       <c r="I8">
-        <v>8.60642833626668E-59</v>
+        <v>1.247583974278237E-57</v>
       </c>
       <c r="J8">
-        <v>41.63000106811523</v>
+        <v>11.02999973297119</v>
       </c>
       <c r="K8">
-        <v>12.18000030517578</v>
+        <v>44.70999908447266</v>
       </c>
       <c r="L8">
-        <v>2.09670433827732</v>
+        <v>1.252208385203836</v>
       </c>
       <c r="M8">
-        <v>-1.7113084600836</v>
+        <v>-1.029758794099386</v>
       </c>
       <c r="N8">
-        <v>0.8705355103088849</v>
+        <v>0.3941337567007135</v>
       </c>
       <c r="O8">
-        <v>1.317984381578613</v>
+        <v>0.5894428856157212</v>
       </c>
       <c r="P8">
-        <v>0.01352300807866268</v>
+        <v>0.01441957733838698</v>
       </c>
       <c r="Q8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="R8" t="s">
         <v>23</v>
@@ -926,170 +929,170 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2665</v>
+        <v>2026</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>0.722685429339981</v>
+        <v>0.6629722650860825</v>
       </c>
       <c r="E9">
-        <v>0.9412546995598364</v>
+        <v>0.4147619132330012</v>
       </c>
       <c r="F9">
-        <v>0.001961347199424994</v>
+        <v>0.006644609103401618</v>
       </c>
       <c r="G9">
-        <v>63.85517261674732</v>
+        <v>-10.98310746307624</v>
       </c>
       <c r="H9">
-        <v>-1.036856177077114</v>
+        <v>1.170188610057793</v>
       </c>
       <c r="I9">
-        <v>6.419963021637974E-49</v>
+        <v>3.623736605767056E-119</v>
       </c>
       <c r="J9">
-        <v>29.67000007629395</v>
+        <v>37.29999923706055</v>
       </c>
       <c r="K9">
-        <v>30.57999992370605</v>
+        <v>41.70000076293945</v>
       </c>
       <c r="L9">
-        <v>5.384216401159414</v>
+        <v>0.8353815030154266</v>
       </c>
       <c r="M9">
-        <v>-4.97156276533147</v>
+        <v>-1.059838036304015</v>
       </c>
       <c r="N9">
-        <v>1.904611112468064</v>
+        <v>0.3719513538948969</v>
       </c>
       <c r="O9">
-        <v>-2.478110724541072</v>
+        <v>-0.5137592320562376</v>
       </c>
       <c r="P9">
-        <v>0.01369202146356333</v>
+        <v>0.01586598105059103</v>
       </c>
       <c r="Q9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>352</v>
+        <v>2612</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.1987504017308065</v>
+        <v>0.3598683632141496</v>
       </c>
       <c r="E10">
-        <v>0.1091757789943654</v>
+        <v>0.1125618252286293</v>
       </c>
       <c r="F10">
-        <v>0.002870199780590465</v>
+        <v>0.00784639973847657</v>
       </c>
       <c r="G10">
-        <v>-6.629000441494235</v>
+        <v>13.37261050456492</v>
       </c>
       <c r="H10">
-        <v>0.3815010194718406</v>
+        <v>2.610307089664016</v>
       </c>
       <c r="I10">
-        <v>1.316014259541086E-57</v>
+        <v>2.264786100248482E-38</v>
       </c>
       <c r="J10">
-        <v>11.18000030517578</v>
+        <v>27.90232849121094</v>
       </c>
       <c r="K10">
-        <v>45.63000106811523</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="L10">
-        <v>1.252917149404652</v>
+        <v>2.306616129502089</v>
       </c>
       <c r="M10">
-        <v>-1.024899087772209</v>
+        <v>-2.922608515475652</v>
       </c>
       <c r="N10">
-        <v>0.3922815040626211</v>
+        <v>1.055659256387508</v>
       </c>
       <c r="O10">
-        <v>0.4011088206828788</v>
+        <v>-1.680289139742838</v>
       </c>
       <c r="P10">
-        <v>0.01391406063151273</v>
+        <v>0.01590577780277951</v>
       </c>
       <c r="Q10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2670</v>
+        <v>1817</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.722685429339981</v>
+        <v>0.8118473510755703</v>
       </c>
       <c r="E11">
-        <v>0.4394224395831659</v>
+        <v>0.5725008382350816</v>
       </c>
       <c r="F11">
-        <v>0.006051715439343575</v>
+        <v>0.008385909337806471</v>
       </c>
       <c r="G11">
-        <v>71.69083756822592</v>
+        <v>-3.527883024494143</v>
       </c>
       <c r="H11">
-        <v>-3.328378658815942</v>
+        <v>0.4124934153850962</v>
       </c>
       <c r="I11">
-        <v>5.282589585482208E-35</v>
+        <v>4.803566889549287E-56</v>
       </c>
       <c r="J11">
-        <v>29.67000007629395</v>
+        <v>1.799999952316284</v>
       </c>
       <c r="K11">
-        <v>11.03999996185303</v>
+        <v>13.6899995803833</v>
       </c>
       <c r="L11">
-        <v>5.83893636727823</v>
+        <v>0.6922861411170769</v>
       </c>
       <c r="M11">
-        <v>-6.204955476129115</v>
+        <v>-0.6863948476676538</v>
       </c>
       <c r="N11">
-        <v>2.413362636498145</v>
+        <v>0.2410290643093577</v>
       </c>
       <c r="O11">
-        <v>-5.27553722557154</v>
+        <v>-0.3191517067224137</v>
       </c>
       <c r="P11">
-        <v>0.01453779826842042</v>
+        <v>0.01611301326877632</v>
       </c>
       <c r="Q11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -73,49 +73,43 @@
     <t>CSAN3</t>
   </si>
   <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
     <t>ELET3</t>
   </si>
   <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
     <t>IRBR3</t>
   </si>
   <si>
-    <t>ELET6</t>
-  </si>
-  <si>
     <t>ABEV3</t>
   </si>
   <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>CVCB3</t>
-  </si>
-  <si>
     <t>RAIZ4</t>
   </si>
   <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>EZTC3</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
     <t>MGLU3</t>
   </si>
   <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
     <t>JBSS3</t>
   </si>
   <si>
     <t>COGN3</t>
-  </si>
-  <si>
-    <t>ENGI11</t>
-  </si>
-  <si>
-    <t>SOMA3</t>
-  </si>
-  <si>
-    <t>EZTC3</t>
   </si>
 </sst>
 </file>
@@ -543,105 +537,105 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.399208054002564</v>
+        <v>0.4037428807317266</v>
       </c>
       <c r="E2">
-        <v>0.3585209185011524</v>
+        <v>0.337503909782676</v>
       </c>
       <c r="F2">
-        <v>0.0001477683786522493</v>
+        <v>0.0002462610390513774</v>
       </c>
       <c r="G2">
-        <v>-0.564251244803323</v>
+        <v>-0.5889227957534477</v>
       </c>
       <c r="H2">
-        <v>4.788282367658278</v>
+        <v>4.794510009028412</v>
       </c>
       <c r="I2">
-        <v>2.777810819830914E-105</v>
+        <v>1.637782098480257E-105</v>
       </c>
       <c r="J2">
-        <v>13.56999969482422</v>
+        <v>13.55000019073486</v>
       </c>
       <c r="K2">
-        <v>3.029999971389771</v>
+        <v>3.069999933242798</v>
       </c>
       <c r="L2">
-        <v>0.7056664201833982</v>
+        <v>0.7080152126720094</v>
       </c>
       <c r="M2">
-        <v>-0.8204960909227434</v>
+        <v>-0.8155038872367637</v>
       </c>
       <c r="N2">
-        <v>0.3228231965203732</v>
+        <v>0.3254385474135557</v>
       </c>
       <c r="O2">
-        <v>-0.3742444973831827</v>
+        <v>-0.5802224211608387</v>
       </c>
       <c r="P2">
-        <v>0.01010635531480972</v>
+        <v>0.0103949176940705</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2046</v>
+        <v>2089</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.6629722650860825</v>
+        <v>0.4015675677115535</v>
       </c>
       <c r="E3">
-        <v>0.8059044843600326</v>
+        <v>0.4339785053321604</v>
       </c>
       <c r="F3">
-        <v>0.000701701491874994</v>
+        <v>0.004399812700973892</v>
       </c>
       <c r="G3">
-        <v>27.05748178209508</v>
+        <v>4.886062692549412</v>
       </c>
       <c r="H3">
-        <v>0.7437388462768731</v>
+        <v>1.74021988986376</v>
       </c>
       <c r="I3">
-        <v>1.285754402217174E-69</v>
+        <v>4.906224042416395E-60</v>
       </c>
       <c r="J3">
-        <v>37.29999923706055</v>
+        <v>41.97999954223633</v>
       </c>
       <c r="K3">
-        <v>11.67000007629395</v>
+        <v>20.80999946594238</v>
       </c>
       <c r="L3">
-        <v>1.902784307002733</v>
+        <v>2.447716162883175</v>
       </c>
       <c r="M3">
-        <v>-1.884183052663964</v>
+        <v>-2.459458325454882</v>
       </c>
       <c r="N3">
-        <v>0.860373790661797</v>
+        <v>0.8601006019228871</v>
       </c>
       <c r="O3">
-        <v>1.563085062171588</v>
+        <v>0.8799618709997574</v>
       </c>
       <c r="P3">
-        <v>0.01161284344478791</v>
+        <v>0.01041582256613744</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -649,167 +643,167 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1693</v>
+        <v>2082</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.399208054002564</v>
+        <v>0.4015675677115535</v>
       </c>
       <c r="E4">
-        <v>0.7426466848534619</v>
+        <v>0.6067866287765737</v>
       </c>
       <c r="F4">
-        <v>0.001126125870362626</v>
+        <v>0.0001224765922893428</v>
       </c>
       <c r="G4">
-        <v>-0.1371802588370596</v>
+        <v>20.07891475233258</v>
       </c>
       <c r="H4">
-        <v>1.058964040689893</v>
+        <v>1.552222861288978</v>
       </c>
       <c r="I4">
-        <v>1.723155729777302E-88</v>
+        <v>3.262698355406816E-54</v>
       </c>
       <c r="J4">
-        <v>13.56999969482422</v>
+        <v>41.97999954223633</v>
       </c>
       <c r="K4">
-        <v>11.98999977111816</v>
+        <v>13.47000026702881</v>
       </c>
       <c r="L4">
-        <v>1.10429154818603</v>
+        <v>2.794412672415262</v>
       </c>
       <c r="M4">
-        <v>-1.128762616228853</v>
+        <v>-2.49851024742604</v>
       </c>
       <c r="N4">
-        <v>0.4289453879835471</v>
+        <v>0.9484079974970266</v>
       </c>
       <c r="O4">
-        <v>1.010201348167094</v>
+        <v>0.9926424338529962</v>
       </c>
       <c r="P4">
-        <v>0.01170639855297969</v>
+        <v>0.01112762010044717</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2665</v>
+        <v>3372</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.7678539351357228</v>
+        <v>0.2420694734956283</v>
       </c>
       <c r="E5">
-        <v>0.9427048514291572</v>
+        <v>0.4167103769927011</v>
       </c>
       <c r="F5">
-        <v>0.00241674586731734</v>
+        <v>0.0001435936857537773</v>
       </c>
       <c r="G5">
-        <v>64.05066430273563</v>
+        <v>6.795979737463655</v>
       </c>
       <c r="H5">
-        <v>-1.04534575495909</v>
+        <v>0.445845424512878</v>
       </c>
       <c r="I5">
-        <v>1.351526020934909E-49</v>
+        <v>1.168261434670859E-35</v>
       </c>
       <c r="J5">
-        <v>28.84000015258789</v>
+        <v>16.38999938964844</v>
       </c>
       <c r="K5">
-        <v>30.8700008392334</v>
+        <v>22.73999977111816</v>
       </c>
       <c r="L5">
-        <v>5.391286048616678</v>
+        <v>1.377915493067114</v>
       </c>
       <c r="M5">
-        <v>-4.988858213520217</v>
+        <v>-0.9336220785370273</v>
       </c>
       <c r="N5">
-        <v>1.914509440169617</v>
+        <v>0.4033561930092404</v>
       </c>
       <c r="O5">
-        <v>-2.940839817271552</v>
+        <v>-0.5445051991921428</v>
       </c>
       <c r="P5">
-        <v>0.01398121188888072</v>
+        <v>0.01206065229025507</v>
       </c>
       <c r="Q5" t="s">
         <v>20</v>
       </c>
       <c r="R5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2097</v>
+        <v>2046</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.4147619132330012</v>
+        <v>0.6463543306916186</v>
       </c>
       <c r="E6">
-        <v>0.8059044843600326</v>
+        <v>0.8093755151176582</v>
       </c>
       <c r="F6">
-        <v>0.003553003470747371</v>
+        <v>0.001297635154253528</v>
       </c>
       <c r="G6">
-        <v>32.87717036466946</v>
+        <v>27.16408137521783</v>
       </c>
       <c r="H6">
-        <v>0.6131959178625158</v>
+        <v>0.7381082484994979</v>
       </c>
       <c r="I6">
-        <v>1.740302012343064E-58</v>
+        <v>3.750838118809476E-69</v>
       </c>
       <c r="J6">
-        <v>41.70000076293945</v>
+        <v>37.61999893188477</v>
       </c>
       <c r="K6">
-        <v>11.67000007629395</v>
+        <v>11.60000038146973</v>
       </c>
       <c r="L6">
-        <v>2.069213320448959</v>
+        <v>1.909922793278774</v>
       </c>
       <c r="M6">
-        <v>-1.719632096904547</v>
+        <v>-1.902382261755875</v>
       </c>
       <c r="N6">
-        <v>0.8791549201940866</v>
+        <v>0.872515759747731</v>
       </c>
       <c r="O6">
-        <v>1.666833990031297</v>
+        <v>1.893861592506813</v>
       </c>
       <c r="P6">
-        <v>0.01410884657669152</v>
+        <v>0.01222802057689491</v>
       </c>
       <c r="Q6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R6" t="s">
         <v>21</v>
@@ -817,282 +811,282 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>20</v>
+        <v>1693</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
       <c r="D7">
-        <v>0.29577454801539</v>
+        <v>0.4037428807317266</v>
       </c>
       <c r="E7">
-        <v>0.3724858379907631</v>
+        <v>0.8740597039245417</v>
       </c>
       <c r="F7">
-        <v>0.004451826404005036</v>
+        <v>0.001607341910451534</v>
       </c>
       <c r="G7">
-        <v>9.133848845487996</v>
+        <v>-0.04032820850373309</v>
       </c>
       <c r="H7">
-        <v>1.384499298366872</v>
+        <v>1.052765622614294</v>
       </c>
       <c r="I7">
-        <v>3.385556347976887E-63</v>
+        <v>4.062338731667401E-88</v>
       </c>
       <c r="J7">
-        <v>11.78999996185303</v>
+        <v>13.55000019073486</v>
       </c>
       <c r="K7">
-        <v>1.580000042915344</v>
+        <v>11.96000003814697</v>
       </c>
       <c r="L7">
-        <v>0.8133677785197957</v>
+        <v>1.112320125234934</v>
       </c>
       <c r="M7">
-        <v>-0.4867075198159085</v>
+        <v>-1.145097217178858</v>
       </c>
       <c r="N7">
-        <v>0.2443583866508036</v>
+        <v>0.4359096804417433</v>
       </c>
       <c r="O7">
-        <v>0.4686421655291086</v>
+        <v>0.9992515126118153</v>
       </c>
       <c r="P7">
-        <v>0.01414274546690519</v>
+        <v>0.01230067910316514</v>
       </c>
       <c r="Q7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>352</v>
+        <v>1788</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>0.2099138893136584</v>
+        <v>0.8740597039245417</v>
       </c>
       <c r="E8">
-        <v>0.1446577454667074</v>
+        <v>0.337503909782676</v>
       </c>
       <c r="F8">
-        <v>0.004159869050133527</v>
+        <v>0.005055898231697251</v>
       </c>
       <c r="G8">
-        <v>-6.507208493970392</v>
+        <v>0.3042204231158765</v>
       </c>
       <c r="H8">
-        <v>0.3790598454118881</v>
+        <v>4.302960277880837</v>
       </c>
       <c r="I8">
-        <v>1.247583974278237E-57</v>
+        <v>1.797138863375734E-75</v>
       </c>
       <c r="J8">
-        <v>11.02999973297119</v>
+        <v>11.96000003814697</v>
       </c>
       <c r="K8">
-        <v>44.70999908447266</v>
+        <v>3.069999933242798</v>
       </c>
       <c r="L8">
-        <v>1.252208385203836</v>
+        <v>1.15065197837205</v>
       </c>
       <c r="M8">
-        <v>-1.029758794099386</v>
+        <v>-1.554308150809486</v>
       </c>
       <c r="N8">
-        <v>0.3941337567007135</v>
+        <v>0.4977555433236593</v>
       </c>
       <c r="O8">
-        <v>0.5894428856157212</v>
+        <v>-1.554308150809485</v>
       </c>
       <c r="P8">
-        <v>0.01441957733838698</v>
+        <v>0.01339670020582076</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2026</v>
+        <v>2665</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.6629722650860825</v>
+        <v>0.7881319526463582</v>
       </c>
       <c r="E9">
-        <v>0.4147619132330012</v>
+        <v>0.946832926685514</v>
       </c>
       <c r="F9">
-        <v>0.006644609103401618</v>
+        <v>0.002865573150618592</v>
       </c>
       <c r="G9">
-        <v>-10.98310746307624</v>
+        <v>64.26145456436677</v>
       </c>
       <c r="H9">
-        <v>1.170188610057793</v>
+        <v>-1.054486358056836</v>
       </c>
       <c r="I9">
-        <v>3.623736605767056E-119</v>
+        <v>3.091020988342901E-50</v>
       </c>
       <c r="J9">
-        <v>37.29999923706055</v>
+        <v>28.44000053405762</v>
       </c>
       <c r="K9">
-        <v>41.70000076293945</v>
+        <v>30.94000053405762</v>
       </c>
       <c r="L9">
-        <v>0.8353815030154266</v>
+        <v>5.398590582476722</v>
       </c>
       <c r="M9">
-        <v>-1.059838036304015</v>
+        <v>-5.007787218221807</v>
       </c>
       <c r="N9">
-        <v>0.3719513538948969</v>
+        <v>1.927200421517963</v>
       </c>
       <c r="O9">
-        <v>-0.5137592320562376</v>
+        <v>-3.19564554887419</v>
       </c>
       <c r="P9">
-        <v>0.01586598105059103</v>
+        <v>0.01428487091889873</v>
       </c>
       <c r="Q9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2612</v>
+        <v>2097</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>0.3598683632141496</v>
+        <v>0.4015675677115535</v>
       </c>
       <c r="E10">
-        <v>0.1125618252286293</v>
+        <v>0.8093755151176582</v>
       </c>
       <c r="F10">
-        <v>0.00784639973847657</v>
+        <v>0.005835481999543798</v>
       </c>
       <c r="G10">
-        <v>13.37261050456492</v>
+        <v>32.98677821043059</v>
       </c>
       <c r="H10">
-        <v>2.610307089664016</v>
+        <v>0.6074064239756578</v>
       </c>
       <c r="I10">
-        <v>2.264786100248482E-38</v>
+        <v>6.979723784505885E-58</v>
       </c>
       <c r="J10">
-        <v>27.90232849121094</v>
+        <v>41.97999954223633</v>
       </c>
       <c r="K10">
-        <v>6.210000038146973</v>
+        <v>11.60000038146973</v>
       </c>
       <c r="L10">
-        <v>2.306616129502089</v>
+        <v>2.0375320626258</v>
       </c>
       <c r="M10">
-        <v>-2.922608515475652</v>
+        <v>-1.729081702840062</v>
       </c>
       <c r="N10">
-        <v>1.055659256387508</v>
+        <v>0.8917556489502078</v>
       </c>
       <c r="O10">
-        <v>-1.680289139742838</v>
+        <v>1.947306581980949</v>
       </c>
       <c r="P10">
-        <v>0.01590577780277951</v>
+        <v>0.01488475408210818</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R10" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1817</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.8118473510755703</v>
+        <v>0.2801549673742793</v>
       </c>
       <c r="E11">
-        <v>0.5725008382350816</v>
+        <v>0.3740778842927861</v>
       </c>
       <c r="F11">
-        <v>0.008385909337806471</v>
+        <v>0.00692235087378272</v>
       </c>
       <c r="G11">
-        <v>-3.527883024494143</v>
+        <v>9.166270511999425</v>
       </c>
       <c r="H11">
-        <v>0.4124934153850962</v>
+        <v>1.371962932993768</v>
       </c>
       <c r="I11">
-        <v>4.803566889549287E-56</v>
+        <v>1.025303713517191E-62</v>
       </c>
       <c r="J11">
-        <v>1.799999952316284</v>
+        <v>11.85000038146973</v>
       </c>
       <c r="K11">
-        <v>13.6899995803833</v>
+        <v>1.570000052452087</v>
       </c>
       <c r="L11">
-        <v>0.6922861411170769</v>
+        <v>0.8126631160436517</v>
       </c>
       <c r="M11">
-        <v>-0.6863948476676538</v>
+        <v>-0.4955608194856804</v>
       </c>
       <c r="N11">
-        <v>0.2410290643093577</v>
+        <v>0.2476871810762003</v>
       </c>
       <c r="O11">
-        <v>-0.3191517067224137</v>
+        <v>0.5297479927077657</v>
       </c>
       <c r="P11">
-        <v>0.01611301326877632</v>
+        <v>0.01491127461558492</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -70,46 +70,52 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>EZTC3</t>
+  </si>
+  <si>
     <t>CSAN3</t>
   </si>
   <si>
     <t>ELET6</t>
   </si>
   <si>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>ELET3</t>
+  </si>
+  <si>
     <t>TIMS3</t>
   </si>
   <si>
-    <t>ELET3</t>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
   </si>
   <si>
     <t>CSNA3</t>
   </si>
   <si>
-    <t>IRBR3</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>EZTC3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
-    <t>MGLU3</t>
-  </si>
-  <si>
-    <t>JBSS3</t>
-  </si>
-  <si>
-    <t>COGN3</t>
+    <t>YDUQ3</t>
   </si>
 </sst>
 </file>
@@ -531,503 +537,503 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1731</v>
+        <v>2328</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.4037428807317266</v>
+        <v>0.5601902106629182</v>
       </c>
       <c r="E2">
-        <v>0.337503909782676</v>
+        <v>0.355025239297706</v>
       </c>
       <c r="F2">
-        <v>0.0002462610390513774</v>
+        <v>0.007819494478114676</v>
       </c>
       <c r="G2">
-        <v>-0.5889227957534477</v>
+        <v>-4.642523852248335</v>
       </c>
       <c r="H2">
-        <v>4.794510009028412</v>
+        <v>0.6350387481404742</v>
       </c>
       <c r="I2">
-        <v>1.637782098480257E-105</v>
+        <v>2.082977422742767E-51</v>
       </c>
       <c r="J2">
-        <v>13.55000019073486</v>
+        <v>13.48999977111816</v>
       </c>
       <c r="K2">
-        <v>3.069999933242798</v>
+        <v>29.51000022888184</v>
       </c>
       <c r="L2">
-        <v>0.7080152126720094</v>
+        <v>1.35625224207341</v>
       </c>
       <c r="M2">
-        <v>-0.8155038872367637</v>
+        <v>-1.315285052533543</v>
       </c>
       <c r="N2">
-        <v>0.3254385474135557</v>
+        <v>0.5656435406847546</v>
       </c>
       <c r="O2">
-        <v>-0.5802224211608387</v>
+        <v>-0.6074699796077319</v>
       </c>
       <c r="P2">
-        <v>0.0103949176940705</v>
+        <v>0.009996002699302424</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2089</v>
+        <v>1731</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.4015675677115535</v>
+        <v>0.5762832605007585</v>
       </c>
       <c r="E3">
-        <v>0.4339785053321604</v>
+        <v>0.3235395740304318</v>
       </c>
       <c r="F3">
-        <v>0.004399812700973892</v>
+        <v>0.0002366749560510819</v>
       </c>
       <c r="G3">
-        <v>4.886062692549412</v>
+        <v>-0.6478464206507428</v>
       </c>
       <c r="H3">
-        <v>1.74021988986376</v>
+        <v>4.812391424225106</v>
       </c>
       <c r="I3">
-        <v>4.906224042416395E-60</v>
+        <v>1.475274942481504E-101</v>
       </c>
       <c r="J3">
-        <v>41.97999954223633</v>
+        <v>13.69999980926514</v>
       </c>
       <c r="K3">
-        <v>20.80999946594238</v>
+        <v>3.059999942779541</v>
       </c>
       <c r="L3">
-        <v>2.447716162883175</v>
+        <v>0.7166920618897752</v>
       </c>
       <c r="M3">
-        <v>-2.459458325454882</v>
+        <v>-0.8130855358957998</v>
       </c>
       <c r="N3">
-        <v>0.8601006019228871</v>
+        <v>0.328188461608142</v>
       </c>
       <c r="O3">
-        <v>0.8799618709997574</v>
+        <v>-0.3780712528457002</v>
       </c>
       <c r="P3">
-        <v>0.01041582256613744</v>
+        <v>0.01067160684782011</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2082</v>
+        <v>2089</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.4015675677115535</v>
+        <v>0.478922685863027</v>
       </c>
       <c r="E4">
-        <v>0.6067866287765737</v>
+        <v>0.4791020191616905</v>
       </c>
       <c r="F4">
-        <v>0.0001224765922893428</v>
+        <v>0.005243622449910198</v>
       </c>
       <c r="G4">
-        <v>20.07891475233258</v>
+        <v>3.920708743067049</v>
       </c>
       <c r="H4">
-        <v>1.552222861288978</v>
+        <v>1.786580333359927</v>
       </c>
       <c r="I4">
-        <v>3.262698355406816E-54</v>
+        <v>5.286800530468855E-62</v>
       </c>
       <c r="J4">
-        <v>41.97999954223633</v>
+        <v>42.70000076293945</v>
       </c>
       <c r="K4">
-        <v>13.47000026702881</v>
+        <v>21.02000045776367</v>
       </c>
       <c r="L4">
-        <v>2.794412672415262</v>
+        <v>2.358609832861084</v>
       </c>
       <c r="M4">
-        <v>-2.49851024742604</v>
+        <v>-2.137827886452328</v>
       </c>
       <c r="N4">
-        <v>0.9484079974970266</v>
+        <v>0.8210111409268509</v>
       </c>
       <c r="O4">
-        <v>0.9926424338529962</v>
+        <v>1.22537259481517</v>
       </c>
       <c r="P4">
-        <v>0.01112762010044717</v>
+        <v>0.01106902077612373</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>3372</v>
+        <v>1203</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.2420694734956283</v>
+        <v>0.564765780656896</v>
       </c>
       <c r="E5">
-        <v>0.4167103769927011</v>
+        <v>0.6692260538710325</v>
       </c>
       <c r="F5">
-        <v>0.0001435936857537773</v>
+        <v>0.0006808961813241052</v>
       </c>
       <c r="G5">
-        <v>6.795979737463655</v>
+        <v>3.71389648210295</v>
       </c>
       <c r="H5">
-        <v>0.445845424512878</v>
+        <v>0.4312216772994358</v>
       </c>
       <c r="I5">
-        <v>1.168261434670859E-35</v>
+        <v>6.506503023894153E-66</v>
       </c>
       <c r="J5">
-        <v>16.38999938964844</v>
+        <v>12.47999954223633</v>
       </c>
       <c r="K5">
-        <v>22.73999977111816</v>
+        <v>19.65999984741211</v>
       </c>
       <c r="L5">
-        <v>1.377915493067114</v>
+        <v>0.5477882858586405</v>
       </c>
       <c r="M5">
-        <v>-0.9336220785370273</v>
+        <v>-0.5239725607969756</v>
       </c>
       <c r="N5">
-        <v>0.4033561930092404</v>
+        <v>0.2499859977025082</v>
       </c>
       <c r="O5">
-        <v>-0.5445051991921428</v>
+        <v>0.2882849502256768</v>
       </c>
       <c r="P5">
-        <v>0.01206065229025507</v>
+        <v>0.01191451114247382</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2046</v>
+        <v>2082</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>0.6463543306916186</v>
+        <v>0.478922685863027</v>
       </c>
       <c r="E6">
-        <v>0.8093755151176582</v>
+        <v>0.5601902106629182</v>
       </c>
       <c r="F6">
-        <v>0.001297635154253528</v>
+        <v>0.001203340621678449</v>
       </c>
       <c r="G6">
-        <v>27.16408137521783</v>
+        <v>19.54704061750519</v>
       </c>
       <c r="H6">
-        <v>0.7381082484994979</v>
+        <v>1.591897208409097</v>
       </c>
       <c r="I6">
-        <v>3.750838118809476E-69</v>
+        <v>2.763561823968869E-55</v>
       </c>
       <c r="J6">
-        <v>37.61999893188477</v>
+        <v>42.70000076293945</v>
       </c>
       <c r="K6">
-        <v>11.60000038146973</v>
+        <v>13.48999977111816</v>
       </c>
       <c r="L6">
-        <v>1.909922793278774</v>
+        <v>2.711794555412567</v>
       </c>
       <c r="M6">
-        <v>-1.902382261755875</v>
+        <v>-1.998052348513696</v>
       </c>
       <c r="N6">
-        <v>0.872515759747731</v>
+        <v>0.9205617167552596</v>
       </c>
       <c r="O6">
-        <v>1.893861592506813</v>
+        <v>1.678267168351891</v>
       </c>
       <c r="P6">
-        <v>0.01222802057689491</v>
+        <v>0.01201566398220276</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1693</v>
+        <v>887</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>0.3146954496859525</v>
+      </c>
+      <c r="E7">
+        <v>0.7781867220417285</v>
+      </c>
+      <c r="F7">
+        <v>0.0001027984854382912</v>
+      </c>
+      <c r="G7">
+        <v>25.1034257954311</v>
+      </c>
+      <c r="H7">
+        <v>0.5560763018286328</v>
+      </c>
+      <c r="I7">
+        <v>1.224623442474723E-59</v>
+      </c>
+      <c r="J7">
+        <v>32.58000183105469</v>
+      </c>
+      <c r="K7">
+        <v>11.89000034332275</v>
+      </c>
+      <c r="L7">
+        <v>1.819642841373522</v>
+      </c>
+      <c r="M7">
+        <v>-1.891866415445314</v>
+      </c>
+      <c r="N7">
+        <v>0.7768282013256838</v>
+      </c>
+      <c r="O7">
+        <v>0.8648286159674967</v>
+      </c>
+      <c r="P7">
+        <v>0.0122386868806848</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" t="s">
         <v>22</v>
-      </c>
-      <c r="D7">
-        <v>0.4037428807317266</v>
-      </c>
-      <c r="E7">
-        <v>0.8740597039245417</v>
-      </c>
-      <c r="F7">
-        <v>0.001607341910451534</v>
-      </c>
-      <c r="G7">
-        <v>-0.04032820850373309</v>
-      </c>
-      <c r="H7">
-        <v>1.052765622614294</v>
-      </c>
-      <c r="I7">
-        <v>4.062338731667401E-88</v>
-      </c>
-      <c r="J7">
-        <v>13.55000019073486</v>
-      </c>
-      <c r="K7">
-        <v>11.96000003814697</v>
-      </c>
-      <c r="L7">
-        <v>1.112320125234934</v>
-      </c>
-      <c r="M7">
-        <v>-1.145097217178858</v>
-      </c>
-      <c r="N7">
-        <v>0.4359096804417433</v>
-      </c>
-      <c r="O7">
-        <v>0.9992515126118153</v>
-      </c>
-      <c r="P7">
-        <v>0.01230067910316514</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1788</v>
+        <v>2031</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>0.8740597039245417</v>
+        <v>0.4916780179973728</v>
       </c>
       <c r="E8">
-        <v>0.337503909782676</v>
+        <v>0.5601902106629182</v>
       </c>
       <c r="F8">
-        <v>0.005055898231697251</v>
+        <v>0.001541365054180826</v>
       </c>
       <c r="G8">
-        <v>0.3042204231158765</v>
+        <v>11.54731451164344</v>
       </c>
       <c r="H8">
-        <v>4.302960277880837</v>
+        <v>1.88509037883722</v>
       </c>
       <c r="I8">
-        <v>1.797138863375734E-75</v>
+        <v>3.806051125152838E-56</v>
       </c>
       <c r="J8">
-        <v>11.96000003814697</v>
+        <v>38.36999893188477</v>
       </c>
       <c r="K8">
-        <v>3.069999933242798</v>
+        <v>13.48999977111816</v>
       </c>
       <c r="L8">
-        <v>1.15065197837205</v>
+        <v>3.239438554765648</v>
       </c>
       <c r="M8">
-        <v>-1.554308150809486</v>
+        <v>-1.985916709464107</v>
       </c>
       <c r="N8">
-        <v>0.4977555433236593</v>
+        <v>1.071259748414686</v>
       </c>
       <c r="O8">
-        <v>-1.554308150809485</v>
+        <v>1.392815641190175</v>
       </c>
       <c r="P8">
-        <v>0.01339670020582076</v>
+        <v>0.01266741155315861</v>
       </c>
       <c r="Q8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2665</v>
+        <v>3372</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.7881319526463582</v>
+        <v>0.2391500182558417</v>
       </c>
       <c r="E9">
-        <v>0.946832926685514</v>
+        <v>0.3985494381599117</v>
       </c>
       <c r="F9">
-        <v>0.002865573150618592</v>
+        <v>0.0004413196804615715</v>
       </c>
       <c r="G9">
-        <v>64.26145456436677</v>
+        <v>6.779041029507193</v>
       </c>
       <c r="H9">
-        <v>-1.054486358056836</v>
+        <v>0.4461242872908328</v>
       </c>
       <c r="I9">
-        <v>3.091020988342901E-50</v>
+        <v>2.022208573428725E-34</v>
       </c>
       <c r="J9">
-        <v>28.44000053405762</v>
+        <v>16.28000068664551</v>
       </c>
       <c r="K9">
-        <v>30.94000053405762</v>
+        <v>23.23999977111816</v>
       </c>
       <c r="L9">
-        <v>5.398590582476722</v>
+        <v>1.388455487231973</v>
       </c>
       <c r="M9">
-        <v>-5.007787218221807</v>
+        <v>-0.9228490267713525</v>
       </c>
       <c r="N9">
-        <v>1.927200421517963</v>
+        <v>0.4119107951340236</v>
       </c>
       <c r="O9">
-        <v>-3.19564554887419</v>
+        <v>-0.8669686773908918</v>
       </c>
       <c r="P9">
-        <v>0.01428487091889873</v>
+        <v>0.01269425737087127</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2097</v>
+        <v>1693</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.4015675677115535</v>
+        <v>0.5762832605007585</v>
       </c>
       <c r="E10">
-        <v>0.8093755151176582</v>
+        <v>0.9050313788510067</v>
       </c>
       <c r="F10">
-        <v>0.005835481999543798</v>
+        <v>0.00190676356032887</v>
       </c>
       <c r="G10">
-        <v>32.98677821043059</v>
+        <v>0.1304927530485042</v>
       </c>
       <c r="H10">
-        <v>0.6074064239756578</v>
+        <v>1.04098091756678</v>
       </c>
       <c r="I10">
-        <v>6.979723784505885E-58</v>
+        <v>3.502810433371975E-84</v>
       </c>
       <c r="J10">
-        <v>41.97999954223633</v>
+        <v>13.69999980926514</v>
       </c>
       <c r="K10">
-        <v>11.60000038146973</v>
+        <v>12.02999973297119</v>
       </c>
       <c r="L10">
-        <v>2.0375320626258</v>
+        <v>1.140902825040026</v>
       </c>
       <c r="M10">
-        <v>-1.729081702840062</v>
+        <v>-1.162834862861187</v>
       </c>
       <c r="N10">
-        <v>0.8917556489502078</v>
+        <v>0.4413531207055633</v>
       </c>
       <c r="O10">
-        <v>1.947306581980949</v>
+        <v>1.046506895860166</v>
       </c>
       <c r="P10">
-        <v>0.01488475408210818</v>
+        <v>0.01283044097018014</v>
       </c>
       <c r="Q10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R10" t="s">
         <v>19</v>
@@ -1035,58 +1041,58 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>20</v>
+        <v>1972</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.2801549673742793</v>
+        <v>0.4510678376643013</v>
       </c>
       <c r="E11">
-        <v>0.3740778842927861</v>
+        <v>0.7579600865350935</v>
       </c>
       <c r="F11">
-        <v>0.00692235087378272</v>
+        <v>0.001934390372519942</v>
       </c>
       <c r="G11">
-        <v>9.166270511999425</v>
+        <v>5.690081135397231</v>
       </c>
       <c r="H11">
-        <v>1.371962932993768</v>
+        <v>0.1111354690486617</v>
       </c>
       <c r="I11">
-        <v>1.025303713517191E-62</v>
+        <v>3.466195203577921E-36</v>
       </c>
       <c r="J11">
-        <v>11.85000038146973</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="K11">
-        <v>1.570000052452087</v>
+        <v>11</v>
       </c>
       <c r="L11">
-        <v>0.8126631160436517</v>
+        <v>0.7773916006138144</v>
       </c>
       <c r="M11">
-        <v>-0.4955608194856804</v>
+        <v>-0.5703024543009079</v>
       </c>
       <c r="N11">
-        <v>0.2476871810762003</v>
+        <v>0.2633554364724642</v>
       </c>
       <c r="O11">
-        <v>0.5297479927077657</v>
+        <v>0.2774287622879492</v>
       </c>
       <c r="P11">
-        <v>0.01491127461558492</v>
+        <v>0.01327448520788199</v>
       </c>
       <c r="Q11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -70,6 +70,9 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
     <t>EZTC3</t>
   </si>
   <si>
@@ -91,10 +94,7 @@
     <t>TIMS3</t>
   </si>
   <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
+    <t>MRVE3</t>
   </si>
   <si>
     <t>RAIZ4</t>
@@ -109,13 +109,10 @@
     <t>MGLU3</t>
   </si>
   <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
     <t>VBBR3</t>
-  </si>
-  <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
   </si>
 </sst>
 </file>
@@ -537,7 +534,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2328</v>
+        <v>2594</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -546,214 +543,214 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>0.5601902106629182</v>
+        <v>0.3978134818661623</v>
       </c>
       <c r="E2">
-        <v>0.355025239297706</v>
+        <v>0.4816648182817333</v>
       </c>
       <c r="F2">
-        <v>0.007819494478114676</v>
+        <v>4.91219736641703E-05</v>
       </c>
       <c r="G2">
-        <v>-4.642523852248335</v>
+        <v>6.911602065258382</v>
       </c>
       <c r="H2">
-        <v>0.6350387481404742</v>
+        <v>3.249232405964136</v>
       </c>
       <c r="I2">
-        <v>2.082977422742767E-51</v>
+        <v>4.152949665340721E-41</v>
       </c>
       <c r="J2">
-        <v>13.48999977111816</v>
+        <v>29.45000076293945</v>
       </c>
       <c r="K2">
-        <v>29.51000022888184</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="L2">
-        <v>1.35625224207341</v>
+        <v>2.891337302443727</v>
       </c>
       <c r="M2">
-        <v>-1.315285052533543</v>
+        <v>-2.679342376057704</v>
       </c>
       <c r="N2">
-        <v>0.5656435406847546</v>
+        <v>0.9479209707895269</v>
       </c>
       <c r="O2">
-        <v>-0.6074699796077319</v>
+        <v>1.255925818874079</v>
       </c>
       <c r="P2">
-        <v>0.009996002699302424</v>
+        <v>0.009737494079187699</v>
       </c>
       <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1731</v>
+        <v>2328</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>0.5762832605007585</v>
+        <v>0.6543116078024888</v>
       </c>
       <c r="E3">
-        <v>0.3235395740304318</v>
+        <v>0.3978134818661623</v>
       </c>
       <c r="F3">
-        <v>0.0002366749560510819</v>
+        <v>0.005608666020769764</v>
       </c>
       <c r="G3">
-        <v>-0.6478464206507428</v>
+        <v>-4.763092993739574</v>
       </c>
       <c r="H3">
-        <v>4.812391424225106</v>
+        <v>0.6389353351486458</v>
       </c>
       <c r="I3">
-        <v>1.475274942481504E-101</v>
+        <v>5.037935422553852E-51</v>
       </c>
       <c r="J3">
-        <v>13.69999980926514</v>
+        <v>13.43000030517578</v>
       </c>
       <c r="K3">
-        <v>3.059999942779541</v>
+        <v>29.45000076293945</v>
       </c>
       <c r="L3">
-        <v>0.7166920618897752</v>
+        <v>1.351530869799202</v>
       </c>
       <c r="M3">
-        <v>-0.8130855358957998</v>
+        <v>-1.310428323574474</v>
       </c>
       <c r="N3">
-        <v>0.328188461608142</v>
+        <v>0.5673324012747507</v>
       </c>
       <c r="O3">
-        <v>-0.3780712528457002</v>
+        <v>-0.6235528086812394</v>
       </c>
       <c r="P3">
-        <v>0.01067160684782011</v>
+        <v>0.00992102879464476</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2089</v>
+        <v>1731</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.478922685863027</v>
+        <v>0.6476637125750009</v>
       </c>
       <c r="E4">
-        <v>0.4791020191616905</v>
+        <v>0.5726967273225922</v>
       </c>
       <c r="F4">
-        <v>0.005243622449910198</v>
+        <v>0.0002681939339328894</v>
       </c>
       <c r="G4">
-        <v>3.920708743067049</v>
+        <v>-0.6258082944241762</v>
       </c>
       <c r="H4">
-        <v>1.786580333359927</v>
+        <v>4.803870311396023</v>
       </c>
       <c r="I4">
-        <v>5.286800530468855E-62</v>
+        <v>6.665277340047453E-101</v>
       </c>
       <c r="J4">
-        <v>42.70000076293945</v>
+        <v>13.4399995803833</v>
       </c>
       <c r="K4">
-        <v>21.02000045776367</v>
+        <v>3.009999990463257</v>
       </c>
       <c r="L4">
-        <v>2.358609832861084</v>
+        <v>0.7185982622253508</v>
       </c>
       <c r="M4">
-        <v>-2.137827886452328</v>
+        <v>-0.8081969448510904</v>
       </c>
       <c r="N4">
-        <v>0.8210111409268509</v>
+        <v>0.3281981631036165</v>
       </c>
       <c r="O4">
-        <v>1.22537259481517</v>
+        <v>-0.3938417166812762</v>
       </c>
       <c r="P4">
-        <v>0.01106902077612373</v>
+        <v>0.01074601716589786</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1203</v>
+        <v>2089</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.564765780656896</v>
+        <v>0.4661727957436488</v>
       </c>
       <c r="E5">
-        <v>0.6692260538710325</v>
+        <v>0.5010307046805587</v>
       </c>
       <c r="F5">
-        <v>0.0006808961813241052</v>
+        <v>0.005272814623024137</v>
       </c>
       <c r="G5">
-        <v>3.71389648210295</v>
+        <v>4.039549004781339</v>
       </c>
       <c r="H5">
-        <v>0.4312216772994358</v>
+        <v>1.781484396015287</v>
       </c>
       <c r="I5">
-        <v>6.506503023894153E-66</v>
+        <v>3.175230913496569E-61</v>
       </c>
       <c r="J5">
-        <v>12.47999954223633</v>
+        <v>42.52999877929688</v>
       </c>
       <c r="K5">
-        <v>19.65999984741211</v>
+        <v>21</v>
       </c>
       <c r="L5">
-        <v>0.5477882858586405</v>
+        <v>2.355675785831949</v>
       </c>
       <c r="M5">
-        <v>-0.5239725607969756</v>
+        <v>-2.147564130395466</v>
       </c>
       <c r="N5">
-        <v>0.2499859977025082</v>
+        <v>0.8262187713249763</v>
       </c>
       <c r="O5">
-        <v>0.2882849502256768</v>
+        <v>1.079277458194504</v>
       </c>
       <c r="P5">
-        <v>0.01191451114247382</v>
+        <v>0.01120668745082556</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R5" t="s">
         <v>21</v>
@@ -761,58 +758,58 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2082</v>
+        <v>1203</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.478922685863027</v>
+        <v>0.5647136047783488</v>
       </c>
       <c r="E6">
-        <v>0.5601902106629182</v>
+        <v>0.7005637164223067</v>
       </c>
       <c r="F6">
-        <v>0.001203340621678449</v>
+        <v>0.0005524664495796376</v>
       </c>
       <c r="G6">
-        <v>19.54704061750519</v>
+        <v>3.758818483408801</v>
       </c>
       <c r="H6">
-        <v>1.591897208409097</v>
+        <v>0.4290937993076476</v>
       </c>
       <c r="I6">
-        <v>2.763561823968869E-55</v>
+        <v>6.799308956859562E-66</v>
       </c>
       <c r="J6">
-        <v>42.70000076293945</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="K6">
-        <v>13.48999977111816</v>
+        <v>19.54999923706055</v>
       </c>
       <c r="L6">
-        <v>2.711794555412567</v>
+        <v>0.5485547173608758</v>
       </c>
       <c r="M6">
-        <v>-1.998052348513696</v>
+        <v>-0.5229536759354314</v>
       </c>
       <c r="N6">
-        <v>0.9205617167552596</v>
+        <v>0.2495410722821384</v>
       </c>
       <c r="O6">
-        <v>1.678267168351891</v>
+        <v>0.2623979149113858</v>
       </c>
       <c r="P6">
-        <v>0.01201566398220276</v>
+        <v>0.01180999525964616</v>
       </c>
       <c r="Q6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="R6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -820,279 +817,279 @@
         <v>887</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7">
-        <v>0.3146954496859525</v>
+        <v>0.3914474123336931</v>
       </c>
       <c r="E7">
-        <v>0.7781867220417285</v>
+        <v>0.8333871228053804</v>
       </c>
       <c r="F7">
-        <v>0.0001027984854382912</v>
+        <v>0.0001029495811415407</v>
       </c>
       <c r="G7">
-        <v>25.1034257954311</v>
+        <v>25.17771942748092</v>
       </c>
       <c r="H7">
-        <v>0.5560763018286328</v>
+        <v>0.5516893585517989</v>
       </c>
       <c r="I7">
-        <v>1.224623442474723E-59</v>
+        <v>3.283058395627225E-59</v>
       </c>
       <c r="J7">
-        <v>32.58000183105469</v>
+        <v>32.29999923706055</v>
       </c>
       <c r="K7">
-        <v>11.89000034332275</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="L7">
-        <v>1.819642841373522</v>
+        <v>1.824130849542257</v>
       </c>
       <c r="M7">
-        <v>-1.891866415445314</v>
+        <v>-1.868769903402452</v>
       </c>
       <c r="N7">
-        <v>0.7768282013256838</v>
+        <v>0.7795164643285114</v>
       </c>
       <c r="O7">
-        <v>0.8648286159674967</v>
+        <v>0.9433590990258738</v>
       </c>
       <c r="P7">
-        <v>0.0122386868806848</v>
+        <v>0.01220749441864593</v>
       </c>
       <c r="Q7" t="s">
         <v>30</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2031</v>
+        <v>1693</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.4916780179973728</v>
+        <v>0.6476637125750009</v>
       </c>
       <c r="E8">
-        <v>0.5601902106629182</v>
+        <v>0.8964306876452429</v>
       </c>
       <c r="F8">
-        <v>0.001541365054180826</v>
+        <v>0.0006850082501645291</v>
       </c>
       <c r="G8">
-        <v>11.54731451164344</v>
+        <v>0.2902125044075442</v>
       </c>
       <c r="H8">
-        <v>1.88509037883722</v>
+        <v>1.029879857179233</v>
       </c>
       <c r="I8">
-        <v>3.806051125152838E-56</v>
+        <v>2.225669987944905E-83</v>
       </c>
       <c r="J8">
-        <v>38.36999893188477</v>
+        <v>13.4399995803833</v>
       </c>
       <c r="K8">
-        <v>13.48999977111816</v>
+        <v>11.92000007629395</v>
       </c>
       <c r="L8">
-        <v>3.239438554765648</v>
+        <v>1.169019093106225</v>
       </c>
       <c r="M8">
-        <v>-1.985916709464107</v>
+        <v>-1.178351842326826</v>
       </c>
       <c r="N8">
-        <v>1.071259748414686</v>
+        <v>0.4424808486335909</v>
       </c>
       <c r="O8">
-        <v>1.392815641190175</v>
+        <v>0.8736190998257012</v>
       </c>
       <c r="P8">
-        <v>0.01266741155315861</v>
+        <v>0.01230470910879946</v>
       </c>
       <c r="Q8" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>3372</v>
+        <v>2082</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>0.2391500182558417</v>
+        <v>0.4661727957436488</v>
       </c>
       <c r="E9">
-        <v>0.3985494381599117</v>
+        <v>0.6543116078024888</v>
       </c>
       <c r="F9">
-        <v>0.0004413196804615715</v>
+        <v>0.001462259926917607</v>
       </c>
       <c r="G9">
-        <v>6.779041029507193</v>
+        <v>19.71507181788706</v>
       </c>
       <c r="H9">
-        <v>0.4461242872908328</v>
+        <v>1.581098563136906</v>
       </c>
       <c r="I9">
-        <v>2.022208573428725E-34</v>
+        <v>2.885457674198668E-54</v>
       </c>
       <c r="J9">
-        <v>16.28000068664551</v>
+        <v>42.52999877929688</v>
       </c>
       <c r="K9">
-        <v>23.23999977111816</v>
+        <v>13.43000030517578</v>
       </c>
       <c r="L9">
-        <v>1.388455487231973</v>
+        <v>2.711017118020976</v>
       </c>
       <c r="M9">
-        <v>-0.9228490267713525</v>
+        <v>-2.001808461521151</v>
       </c>
       <c r="N9">
-        <v>0.4119107951340236</v>
+        <v>0.9301937000684776</v>
       </c>
       <c r="O9">
-        <v>-0.8669686773908918</v>
+        <v>1.580772775968168</v>
       </c>
       <c r="P9">
-        <v>0.01269425737087127</v>
+        <v>0.01234896599146195</v>
       </c>
       <c r="Q9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1693</v>
+        <v>2031</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
       <c r="D10">
-        <v>0.5762832605007585</v>
+        <v>0.5136862730688683</v>
       </c>
       <c r="E10">
-        <v>0.9050313788510067</v>
+        <v>0.6543116078024888</v>
       </c>
       <c r="F10">
-        <v>0.00190676356032887</v>
+        <v>0.001657127294847417</v>
       </c>
       <c r="G10">
-        <v>0.1304927530485042</v>
+        <v>11.6704336183454</v>
       </c>
       <c r="H10">
-        <v>1.04098091756678</v>
+        <v>1.877313227323357</v>
       </c>
       <c r="I10">
-        <v>3.502810433371975E-84</v>
+        <v>1.69523448719129E-55</v>
       </c>
       <c r="J10">
-        <v>13.69999980926514</v>
+        <v>38.18999862670898</v>
       </c>
       <c r="K10">
-        <v>12.02999973297119</v>
+        <v>13.43000030517578</v>
       </c>
       <c r="L10">
-        <v>1.140902825040026</v>
+        <v>3.236775099976711</v>
       </c>
       <c r="M10">
-        <v>-1.162834862861187</v>
+        <v>-1.981511435044141</v>
       </c>
       <c r="N10">
-        <v>0.4413531207055633</v>
+        <v>1.077113854735203</v>
       </c>
       <c r="O10">
-        <v>1.046506895860166</v>
+        <v>1.307247792500373</v>
       </c>
       <c r="P10">
-        <v>0.01283044097018014</v>
+        <v>0.01287257102758733</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="R10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1972</v>
+        <v>3372</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.4510678376643013</v>
+        <v>0.2799912326379245</v>
       </c>
       <c r="E11">
-        <v>0.7579600865350935</v>
+        <v>0.4433501495269393</v>
       </c>
       <c r="F11">
-        <v>0.001934390372519942</v>
+        <v>0.0007117212797339617</v>
       </c>
       <c r="G11">
-        <v>5.690081135397231</v>
+        <v>6.816363228160418</v>
       </c>
       <c r="H11">
-        <v>0.1111354690486617</v>
+        <v>0.4441636876953326</v>
       </c>
       <c r="I11">
-        <v>3.466195203577921E-36</v>
+        <v>2.280251869988566E-33</v>
       </c>
       <c r="J11">
-        <v>7.190000057220459</v>
+        <v>16.11000061035156</v>
       </c>
       <c r="K11">
-        <v>11</v>
+        <v>23.10000038146973</v>
       </c>
       <c r="L11">
-        <v>0.7773916006138144</v>
+        <v>1.396120704122488</v>
       </c>
       <c r="M11">
-        <v>-0.5703024543009079</v>
+        <v>-0.9665439730060399</v>
       </c>
       <c r="N11">
-        <v>0.2633554364724642</v>
+        <v>0.4201730918115588</v>
       </c>
       <c r="O11">
-        <v>0.2774287622879492</v>
+        <v>-0.9665439730060381</v>
       </c>
       <c r="P11">
-        <v>0.01327448520788199</v>
+        <v>0.01339017179992904</v>
       </c>
       <c r="Q11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -70,28 +70,31 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ARZZ3</t>
+  </si>
+  <si>
+    <t>EZTC3</t>
+  </si>
+  <si>
     <t>HYPE3</t>
   </si>
   <si>
-    <t>EZTC3</t>
-  </si>
-  <si>
     <t>CSAN3</t>
   </si>
   <si>
     <t>ELET6</t>
   </si>
   <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
+    <t>GGBR4</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
   </si>
   <si>
     <t>ELET3</t>
   </si>
   <si>
-    <t>TIMS3</t>
+    <t>SOMA3</t>
   </si>
   <si>
     <t>MRVE3</t>
@@ -103,13 +106,10 @@
     <t>IGTI11</t>
   </si>
   <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>MGLU3</t>
-  </si>
-  <si>
     <t>CSNA3</t>
+  </si>
+  <si>
+    <t>TOTS3</t>
   </si>
   <si>
     <t>VBBR3</t>
@@ -534,7 +534,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2594</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -543,49 +543,49 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>0.3978134818661623</v>
+        <v>0.4462896304548505</v>
       </c>
       <c r="E2">
-        <v>0.4816648182817333</v>
+        <v>0.2226593232287609</v>
       </c>
       <c r="F2">
-        <v>4.91219736641703E-05</v>
+        <v>0.001142729998329539</v>
       </c>
       <c r="G2">
-        <v>6.911602065258382</v>
+        <v>3.771803744255229</v>
       </c>
       <c r="H2">
-        <v>3.249232405964136</v>
+        <v>7.739463429270182</v>
       </c>
       <c r="I2">
-        <v>4.152949665340721E-41</v>
+        <v>1.490158195268042E-117</v>
       </c>
       <c r="J2">
-        <v>29.45000076293945</v>
+        <v>48.68999862670898</v>
       </c>
       <c r="K2">
-        <v>6.550000190734863</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="L2">
-        <v>2.891337302443727</v>
+        <v>1.095560956983562</v>
       </c>
       <c r="M2">
-        <v>-2.679342376057704</v>
+        <v>-3.108027546111771</v>
       </c>
       <c r="N2">
-        <v>0.9479209707895269</v>
+        <v>0.6246860437061517</v>
       </c>
       <c r="O2">
-        <v>1.255925818874079</v>
+        <v>-1.054218330266778</v>
       </c>
       <c r="P2">
-        <v>0.009737494079187699</v>
+        <v>0.006735528915945423</v>
       </c>
       <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
         <v>26</v>
-      </c>
-      <c r="R2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -596,57 +596,57 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>0.6543116078024888</v>
+        <v>0.6293156584916667</v>
       </c>
       <c r="E3">
-        <v>0.3978134818661623</v>
+        <v>0.4535102520720972</v>
       </c>
       <c r="F3">
-        <v>0.005608666020769764</v>
+        <v>0.003251179413047871</v>
       </c>
       <c r="G3">
-        <v>-4.763092993739574</v>
+        <v>-4.983874246872237</v>
       </c>
       <c r="H3">
-        <v>0.6389353351486458</v>
+        <v>0.646092710374621</v>
       </c>
       <c r="I3">
-        <v>5.037935422553852E-51</v>
+        <v>2.256978748738829E-50</v>
       </c>
       <c r="J3">
-        <v>13.43000030517578</v>
+        <v>13.07999992370605</v>
       </c>
       <c r="K3">
-        <v>29.45000076293945</v>
+        <v>29.53000068664551</v>
       </c>
       <c r="L3">
-        <v>1.351530869799202</v>
+        <v>1.34218389241628</v>
       </c>
       <c r="M3">
-        <v>-1.310428323574474</v>
+        <v>-1.302187861113158</v>
       </c>
       <c r="N3">
-        <v>0.5673324012747507</v>
+        <v>0.5717492720336242</v>
       </c>
       <c r="O3">
-        <v>-0.6235528086812394</v>
+        <v>-1.015244010420925</v>
       </c>
       <c r="P3">
-        <v>0.00992102879464476</v>
+        <v>0.01010155383042846</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1731</v>
+        <v>2594</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -655,54 +655,54 @@
         <v>27</v>
       </c>
       <c r="D4">
-        <v>0.6476637125750009</v>
+        <v>0.4535102520720972</v>
       </c>
       <c r="E4">
-        <v>0.5726967273225922</v>
+        <v>0.4541629975582088</v>
       </c>
       <c r="F4">
-        <v>0.0002681939339328894</v>
+        <v>0.0001570217051278684</v>
       </c>
       <c r="G4">
-        <v>-0.6258082944241762</v>
+        <v>7.416078772403647</v>
       </c>
       <c r="H4">
-        <v>4.803870311396023</v>
+        <v>3.178741439668917</v>
       </c>
       <c r="I4">
-        <v>6.665277340047453E-101</v>
+        <v>9.450062451549944E-41</v>
       </c>
       <c r="J4">
-        <v>13.4399995803833</v>
+        <v>29.53000068664551</v>
       </c>
       <c r="K4">
-        <v>3.009999990463257</v>
+        <v>6.510000228881836</v>
       </c>
       <c r="L4">
-        <v>0.7185982622253508</v>
+        <v>2.859150056031346</v>
       </c>
       <c r="M4">
-        <v>-0.8081969448510904</v>
+        <v>-2.614253988264267</v>
       </c>
       <c r="N4">
-        <v>0.3281981631036165</v>
+        <v>0.9375675117170562</v>
       </c>
       <c r="O4">
-        <v>-0.3938417166812762</v>
+        <v>1.420314414441034</v>
       </c>
       <c r="P4">
-        <v>0.01074601716589786</v>
+        <v>0.01026219529337848</v>
       </c>
       <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
         <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2089</v>
+        <v>1731</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -711,54 +711,54 @@
         <v>28</v>
       </c>
       <c r="D5">
-        <v>0.4661727957436488</v>
+        <v>0.7342903851730422</v>
       </c>
       <c r="E5">
-        <v>0.5010307046805587</v>
+        <v>0.6488523197167689</v>
       </c>
       <c r="F5">
-        <v>0.005272814623024137</v>
+        <v>0.0002374927317347901</v>
       </c>
       <c r="G5">
-        <v>4.039549004781339</v>
+        <v>-0.6005981754729598</v>
       </c>
       <c r="H5">
-        <v>1.781484396015287</v>
+        <v>4.794519558793683</v>
       </c>
       <c r="I5">
-        <v>3.175230913496569E-61</v>
+        <v>4.448505769494116E-100</v>
       </c>
       <c r="J5">
-        <v>42.52999877929688</v>
+        <v>13.38000011444092</v>
       </c>
       <c r="K5">
+        <v>2.990000009536743</v>
+      </c>
+      <c r="L5">
+        <v>0.7196637575516576</v>
+      </c>
+      <c r="M5">
+        <v>-0.803858684776328</v>
+      </c>
+      <c r="N5">
+        <v>0.3281591924311975</v>
+      </c>
+      <c r="O5">
+        <v>-0.3550152366033341</v>
+      </c>
+      <c r="P5">
+        <v>0.01070772329830792</v>
+      </c>
+      <c r="Q5" t="s">
         <v>21</v>
       </c>
-      <c r="L5">
-        <v>2.355675785831949</v>
-      </c>
-      <c r="M5">
-        <v>-2.147564130395466</v>
-      </c>
-      <c r="N5">
-        <v>0.8262187713249763</v>
-      </c>
-      <c r="O5">
-        <v>1.079277458194504</v>
-      </c>
-      <c r="P5">
-        <v>0.01120668745082556</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>28</v>
-      </c>
-      <c r="R5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1203</v>
+        <v>2089</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -767,43 +767,43 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>0.5647136047783488</v>
+        <v>0.2551363594686406</v>
       </c>
       <c r="E6">
-        <v>0.7005637164223067</v>
+        <v>0.5549470453860376</v>
       </c>
       <c r="F6">
-        <v>0.0005524664495796376</v>
+        <v>0.005135920853193635</v>
       </c>
       <c r="G6">
-        <v>3.758818483408801</v>
+        <v>4.090778004286657</v>
       </c>
       <c r="H6">
-        <v>0.4290937993076476</v>
+        <v>1.779627601887357</v>
       </c>
       <c r="I6">
-        <v>6.799308956859562E-66</v>
+        <v>1.972969980875254E-60</v>
       </c>
       <c r="J6">
-        <v>12.40999984741211</v>
+        <v>42.40999984741211</v>
       </c>
       <c r="K6">
-        <v>19.54999923706055</v>
+        <v>20.89999961853027</v>
       </c>
       <c r="L6">
-        <v>0.5485547173608758</v>
+        <v>2.346679248043294</v>
       </c>
       <c r="M6">
-        <v>-0.5229536759354314</v>
+        <v>-2.159039167905121</v>
       </c>
       <c r="N6">
-        <v>0.2495410722821384</v>
+        <v>0.8313521223664965</v>
       </c>
       <c r="O6">
-        <v>0.2623979149113858</v>
+        <v>1.125005642553738</v>
       </c>
       <c r="P6">
-        <v>0.01180999525964616</v>
+        <v>0.01157449017759779</v>
       </c>
       <c r="Q6" t="s">
         <v>29</v>
@@ -814,282 +814,282 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>887</v>
+        <v>1693</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7">
-        <v>0.3914474123336931</v>
+        <v>0.7342903851730422</v>
       </c>
       <c r="E7">
-        <v>0.8333871228053804</v>
+        <v>0.8615793565114475</v>
       </c>
       <c r="F7">
-        <v>0.0001029495811415407</v>
+        <v>0.0005915336143128613</v>
       </c>
       <c r="G7">
-        <v>25.17771942748092</v>
+        <v>0.496411978233929</v>
       </c>
       <c r="H7">
-        <v>0.5516893585517989</v>
+        <v>1.015406550430655</v>
       </c>
       <c r="I7">
-        <v>3.283058395627225E-59</v>
+        <v>8.882611421812225E-83</v>
       </c>
       <c r="J7">
-        <v>32.29999923706055</v>
+        <v>13.38000011444092</v>
       </c>
       <c r="K7">
-        <v>11.19999980926514</v>
+        <v>11.72000026702881</v>
       </c>
       <c r="L7">
-        <v>1.824130849542257</v>
+        <v>1.207715893389214</v>
       </c>
       <c r="M7">
-        <v>-1.868769903402452</v>
+        <v>-1.19654306480186</v>
       </c>
       <c r="N7">
-        <v>0.7795164643285114</v>
+        <v>0.4407457577329895</v>
       </c>
       <c r="O7">
-        <v>0.9433590990258738</v>
+        <v>0.9830230940169091</v>
       </c>
       <c r="P7">
-        <v>0.01220749441864593</v>
+        <v>0.01221086329716491</v>
       </c>
       <c r="Q7" t="s">
         <v>30</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1693</v>
+        <v>2082</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>0.6476637125750009</v>
+        <v>0.2551363594686406</v>
       </c>
       <c r="E8">
-        <v>0.8964306876452429</v>
+        <v>0.6293156584916667</v>
       </c>
       <c r="F8">
-        <v>0.0006850082501645291</v>
+        <v>0.002127293459406214</v>
       </c>
       <c r="G8">
-        <v>0.2902125044075442</v>
+        <v>19.93497449311111</v>
       </c>
       <c r="H8">
-        <v>1.029879857179233</v>
+        <v>1.567064194749108</v>
       </c>
       <c r="I8">
-        <v>2.225669987944905E-83</v>
+        <v>7.236161882312837E-53</v>
       </c>
       <c r="J8">
-        <v>13.4399995803833</v>
+        <v>42.40999984741211</v>
       </c>
       <c r="K8">
-        <v>11.92000007629395</v>
+        <v>13.07999992370605</v>
       </c>
       <c r="L8">
-        <v>1.169019093106225</v>
+        <v>2.70848438734879</v>
       </c>
       <c r="M8">
-        <v>-1.178351842326826</v>
+        <v>-2.008212402872765</v>
       </c>
       <c r="N8">
-        <v>0.4424808486335909</v>
+        <v>0.9456771166105136</v>
       </c>
       <c r="O8">
-        <v>0.8736190998257012</v>
+        <v>1.977825806540178</v>
       </c>
       <c r="P8">
-        <v>0.01230470910879946</v>
+        <v>0.01298963674480216</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="R8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2082</v>
+        <v>2450</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.4661727957436488</v>
+        <v>0.1175915018651632</v>
       </c>
       <c r="E9">
-        <v>0.6543116078024888</v>
+        <v>0.2326387860473543</v>
       </c>
       <c r="F9">
-        <v>0.001462259926917607</v>
+        <v>0.002090010840682176</v>
       </c>
       <c r="G9">
-        <v>19.71507181788706</v>
+        <v>26.42470323062795</v>
       </c>
       <c r="H9">
-        <v>1.581098563136906</v>
+        <v>-0.2839451142593891</v>
       </c>
       <c r="I9">
-        <v>2.885457674198668E-54</v>
+        <v>9.088241301717025E-14</v>
       </c>
       <c r="J9">
-        <v>42.52999877929688</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="K9">
-        <v>13.43000030517578</v>
+        <v>27.52000045776367</v>
       </c>
       <c r="L9">
-        <v>2.711017118020976</v>
+        <v>1.917975239924104</v>
       </c>
       <c r="M9">
-        <v>-2.001808461521151</v>
+        <v>-1.470909028235745</v>
       </c>
       <c r="N9">
-        <v>0.9301937000684776</v>
+        <v>0.5643139095195044</v>
       </c>
       <c r="O9">
-        <v>1.580772775968168</v>
+        <v>-0.5805328695842968</v>
       </c>
       <c r="P9">
-        <v>0.01234896599146195</v>
+        <v>0.01331266119490945</v>
       </c>
       <c r="Q9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2031</v>
+        <v>3372</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.5136862730688683</v>
+        <v>0.2598254817607857</v>
       </c>
       <c r="E10">
-        <v>0.6543116078024888</v>
+        <v>0.4420966055531586</v>
       </c>
       <c r="F10">
-        <v>0.001657127294847417</v>
+        <v>0.0005050184846730685</v>
       </c>
       <c r="G10">
-        <v>11.6704336183454</v>
+        <v>6.854803584337514</v>
       </c>
       <c r="H10">
-        <v>1.877313227323357</v>
+        <v>0.4422478731023852</v>
       </c>
       <c r="I10">
-        <v>1.69523448719129E-55</v>
+        <v>9.241436053710443E-33</v>
       </c>
       <c r="J10">
-        <v>38.18999862670898</v>
+        <v>16.3700008392334</v>
       </c>
       <c r="K10">
-        <v>13.43000030517578</v>
+        <v>23.19000053405762</v>
       </c>
       <c r="L10">
-        <v>3.236775099976711</v>
+        <v>1.401640138305183</v>
       </c>
       <c r="M10">
-        <v>-1.981511435044141</v>
+        <v>-0.9607290113552267</v>
       </c>
       <c r="N10">
-        <v>1.077113854735203</v>
+        <v>0.4249077519117713</v>
       </c>
       <c r="O10">
-        <v>1.307247792500373</v>
+        <v>-0.7405311585342726</v>
       </c>
       <c r="P10">
-        <v>0.01287257102758733</v>
+        <v>0.01339675688093999</v>
       </c>
       <c r="Q10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>3372</v>
+        <v>2031</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>0.2799912326379245</v>
+        <v>0.4576888722615925</v>
       </c>
       <c r="E11">
-        <v>0.4433501495269393</v>
+        <v>0.6293156584916667</v>
       </c>
       <c r="F11">
-        <v>0.0007117212797339617</v>
+        <v>0.002805639873369741</v>
       </c>
       <c r="G11">
-        <v>6.816363228160418</v>
+        <v>11.793655727427</v>
       </c>
       <c r="H11">
-        <v>0.4441636876953326</v>
+        <v>1.870044815304359</v>
       </c>
       <c r="I11">
-        <v>2.280251869988566E-33</v>
+        <v>1.02547158642226E-54</v>
       </c>
       <c r="J11">
-        <v>16.11000061035156</v>
+        <v>37.9900016784668</v>
       </c>
       <c r="K11">
-        <v>23.10000038146973</v>
+        <v>13.07999992370605</v>
       </c>
       <c r="L11">
-        <v>1.396120704122488</v>
+        <v>3.226129080811852</v>
       </c>
       <c r="M11">
-        <v>-0.9665439730060399</v>
+        <v>-1.985551123311438</v>
       </c>
       <c r="N11">
-        <v>0.4201730918115588</v>
+        <v>1.086509584331344</v>
       </c>
       <c r="O11">
-        <v>-0.9665439730060381</v>
+        <v>1.736159909531874</v>
       </c>
       <c r="P11">
-        <v>0.01339017179992904</v>
+        <v>0.01347457513299226</v>
       </c>
       <c r="Q11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" t="s">
         <v>25</v>
-      </c>
-      <c r="R11" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -73,46 +73,49 @@
     <t>ARZZ3</t>
   </si>
   <si>
-    <t>EZTC3</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
+    <t>BBAS3</t>
   </si>
   <si>
     <t>CSAN3</t>
   </si>
   <si>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>SOMA3</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
     <t>ELET6</t>
   </si>
   <si>
-    <t>GGBR4</t>
-  </si>
-  <si>
     <t>TIMS3</t>
-  </si>
-  <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>SOMA3</t>
-  </si>
-  <si>
-    <t>MRVE3</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
-    <t>TOTS3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
   </si>
 </sst>
 </file>
@@ -540,113 +543,113 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.4462896304548505</v>
+        <v>0.4458775745560294</v>
       </c>
       <c r="E2">
-        <v>0.2226593232287609</v>
+        <v>0.2204672665127589</v>
       </c>
       <c r="F2">
-        <v>0.001142729998329539</v>
+        <v>0.001416801430118586</v>
       </c>
       <c r="G2">
-        <v>3.771803744255229</v>
+        <v>3.673119406298657</v>
       </c>
       <c r="H2">
-        <v>7.739463429270182</v>
+        <v>7.753382789981538</v>
       </c>
       <c r="I2">
-        <v>1.490158195268042E-117</v>
+        <v>4.235167417741846E-118</v>
       </c>
       <c r="J2">
-        <v>48.68999862670898</v>
+        <v>48.65000152587891</v>
       </c>
       <c r="K2">
         <v>5.940000057220459</v>
       </c>
       <c r="L2">
-        <v>1.095560956983562</v>
+        <v>1.095000251475213</v>
       </c>
       <c r="M2">
-        <v>-3.108027546111771</v>
+        <v>-3.119584546051101</v>
       </c>
       <c r="N2">
-        <v>0.6246860437061517</v>
+        <v>0.6292488609481344</v>
       </c>
       <c r="O2">
-        <v>-1.054218330266778</v>
+        <v>-1.078212096562204</v>
       </c>
       <c r="P2">
-        <v>0.006735528915945423</v>
+        <v>0.006857990912238674</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2328</v>
+        <v>475</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.6293156584916667</v>
+        <v>0.1121883447098792</v>
       </c>
       <c r="E3">
-        <v>0.4535102520720972</v>
+        <v>0.6151979602412579</v>
       </c>
       <c r="F3">
-        <v>0.003251179413047871</v>
+        <v>5.627584436815489E-05</v>
       </c>
       <c r="G3">
-        <v>-4.983874246872237</v>
+        <v>17.59093379390721</v>
       </c>
       <c r="H3">
-        <v>0.646092710374621</v>
+        <v>0.2007641647812249</v>
       </c>
       <c r="I3">
-        <v>2.256978748738829E-50</v>
+        <v>5.286537949702E-35</v>
       </c>
       <c r="J3">
-        <v>13.07999992370605</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="K3">
-        <v>29.53000068664551</v>
+        <v>48.5099983215332</v>
       </c>
       <c r="L3">
-        <v>1.34218389241628</v>
+        <v>0.8953562826833448</v>
       </c>
       <c r="M3">
-        <v>-1.302187861113158</v>
+        <v>-0.8684621736424134</v>
       </c>
       <c r="N3">
-        <v>0.5717492720336242</v>
+        <v>0.3634355699058601</v>
       </c>
       <c r="O3">
-        <v>-1.015244010420925</v>
+        <v>-0.7800038534078979</v>
       </c>
       <c r="P3">
-        <v>0.01010155383042846</v>
+        <v>0.009011945977601044</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2594</v>
+        <v>1731</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -655,161 +658,161 @@
         <v>27</v>
       </c>
       <c r="D4">
-        <v>0.4535102520720972</v>
+        <v>0.737810522612346</v>
       </c>
       <c r="E4">
-        <v>0.4541629975582088</v>
+        <v>0.6484804927984572</v>
       </c>
       <c r="F4">
-        <v>0.0001570217051278684</v>
+        <v>0.000242591697382911</v>
       </c>
       <c r="G4">
-        <v>7.416078772403647</v>
+        <v>-0.6207118603626809</v>
       </c>
       <c r="H4">
-        <v>3.178741439668917</v>
+        <v>4.799893237555957</v>
       </c>
       <c r="I4">
-        <v>9.450062451549944E-41</v>
+        <v>9.96256063554608E-101</v>
       </c>
       <c r="J4">
-        <v>29.53000068664551</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="K4">
-        <v>6.510000228881836</v>
+        <v>2.990000009536743</v>
       </c>
       <c r="L4">
-        <v>2.859150056031346</v>
+        <v>0.7246774054268705</v>
       </c>
       <c r="M4">
-        <v>-2.614253988264267</v>
+        <v>-0.8007258252366203</v>
       </c>
       <c r="N4">
-        <v>0.9375675117170562</v>
+        <v>0.3284248497950168</v>
       </c>
       <c r="O4">
-        <v>1.420314414441034</v>
+        <v>-0.3609690801458978</v>
       </c>
       <c r="P4">
-        <v>0.01026219529337848</v>
+        <v>0.0107914366831463</v>
       </c>
       <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" t="s">
         <v>27</v>
-      </c>
-      <c r="R4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1731</v>
+        <v>425</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>0.7342903851730422</v>
+        <v>0.1121883447098792</v>
       </c>
       <c r="E5">
-        <v>0.6488523197167689</v>
+        <v>0.4236081256344887</v>
       </c>
       <c r="F5">
-        <v>0.0002374927317347901</v>
+        <v>0.0003465086428377472</v>
       </c>
       <c r="G5">
-        <v>-0.6005981754729598</v>
+        <v>19.71383921969545</v>
       </c>
       <c r="H5">
-        <v>4.794519558793683</v>
+        <v>0.1923048625430358</v>
       </c>
       <c r="I5">
-        <v>4.448505769494116E-100</v>
+        <v>1.418317743055624E-32</v>
       </c>
       <c r="J5">
-        <v>13.38000011444092</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="K5">
-        <v>2.990000009536743</v>
+        <v>39.56999969482422</v>
       </c>
       <c r="L5">
-        <v>0.7196637575516576</v>
+        <v>1.069453856100644</v>
       </c>
       <c r="M5">
-        <v>-0.803858684776328</v>
+        <v>-0.9271907610730636</v>
       </c>
       <c r="N5">
-        <v>0.3281591924311975</v>
+        <v>0.3786336645630757</v>
       </c>
       <c r="O5">
-        <v>-0.3550152366033341</v>
+        <v>-0.7733433347760466</v>
       </c>
       <c r="P5">
-        <v>0.01070772329830792</v>
+        <v>0.01131893884054762</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2089</v>
+        <v>1203</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.2551363594686406</v>
+        <v>0.5318862394903431</v>
       </c>
       <c r="E6">
-        <v>0.5549470453860376</v>
+        <v>0.703556210746676</v>
       </c>
       <c r="F6">
-        <v>0.005135920853193635</v>
+        <v>0.0003704013473095007</v>
       </c>
       <c r="G6">
-        <v>4.090778004286657</v>
+        <v>3.825148161016771</v>
       </c>
       <c r="H6">
-        <v>1.779627601887357</v>
+        <v>0.4259907742846727</v>
       </c>
       <c r="I6">
-        <v>1.972969980875254E-60</v>
+        <v>1.361637893091067E-66</v>
       </c>
       <c r="J6">
-        <v>42.40999984741211</v>
+        <v>12.38000011444092</v>
       </c>
       <c r="K6">
-        <v>20.89999961853027</v>
+        <v>19.48999977111816</v>
       </c>
       <c r="L6">
-        <v>2.346679248043294</v>
+        <v>0.5488512047920313</v>
       </c>
       <c r="M6">
-        <v>-2.159039167905121</v>
+        <v>-0.5222890428238891</v>
       </c>
       <c r="N6">
-        <v>0.8313521223664965</v>
+        <v>0.2479598887440413</v>
       </c>
       <c r="O6">
-        <v>1.125005642553738</v>
+        <v>0.2522918601174258</v>
       </c>
       <c r="P6">
-        <v>0.01157449017759779</v>
+        <v>0.01161280935970445</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -817,108 +820,108 @@
         <v>1693</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.7342903851730422</v>
+        <v>0.737810522612346</v>
       </c>
       <c r="E7">
-        <v>0.8615793565114475</v>
+        <v>0.8376236935133672</v>
       </c>
       <c r="F7">
-        <v>0.0005915336143128613</v>
+        <v>0.0004839066166240141</v>
       </c>
       <c r="G7">
-        <v>0.496411978233929</v>
+        <v>0.5757950269617687</v>
       </c>
       <c r="H7">
-        <v>1.015406550430655</v>
+        <v>1.010262127228796</v>
       </c>
       <c r="I7">
-        <v>8.882611421812225E-83</v>
+        <v>8.0214682506338E-83</v>
       </c>
       <c r="J7">
-        <v>13.38000011444092</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="K7">
-        <v>11.72000026702881</v>
+        <v>11.85999965667725</v>
       </c>
       <c r="L7">
-        <v>1.207715893389214</v>
+        <v>1.215379301733172</v>
       </c>
       <c r="M7">
-        <v>-1.19654306480186</v>
+        <v>-1.20910005731502</v>
       </c>
       <c r="N7">
-        <v>0.4407457577329895</v>
+        <v>0.4446808073702223</v>
       </c>
       <c r="O7">
-        <v>0.9830230940169091</v>
+        <v>0.8124963765097633</v>
       </c>
       <c r="P7">
-        <v>0.01221086329716491</v>
+        <v>0.01237894068626244</v>
       </c>
       <c r="Q7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2082</v>
+        <v>887</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.2551363594686406</v>
+        <v>0.2707891176742755</v>
       </c>
       <c r="E8">
-        <v>0.6293156584916667</v>
+        <v>0.902476734283906</v>
       </c>
       <c r="F8">
-        <v>0.002127293459406214</v>
+        <v>0.0001720584070869703</v>
       </c>
       <c r="G8">
-        <v>19.93497449311111</v>
+        <v>25.33547939431225</v>
       </c>
       <c r="H8">
-        <v>1.567064194749108</v>
+        <v>0.5424119838937016</v>
       </c>
       <c r="I8">
-        <v>7.236161882312837E-53</v>
+        <v>7.195143698590953E-59</v>
       </c>
       <c r="J8">
-        <v>42.40999984741211</v>
+        <v>32.61000061035156</v>
       </c>
       <c r="K8">
-        <v>13.07999992370605</v>
+        <v>11.06999969482422</v>
       </c>
       <c r="L8">
-        <v>2.70848438734879</v>
+        <v>1.832975907295257</v>
       </c>
       <c r="M8">
-        <v>-2.008212402872765</v>
+        <v>-1.820572145745942</v>
       </c>
       <c r="N8">
-        <v>0.9456771166105136</v>
+        <v>0.7820031851657411</v>
       </c>
       <c r="O8">
-        <v>1.977825806540178</v>
+        <v>1.270020719867039</v>
       </c>
       <c r="P8">
-        <v>0.01298963674480216</v>
+        <v>0.01242442710799647</v>
       </c>
       <c r="Q8" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="R8" t="s">
         <v>22</v>
@@ -926,7 +929,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2450</v>
+        <v>2038</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -935,102 +938,102 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.1175915018651632</v>
+        <v>0.4236081256344887</v>
       </c>
       <c r="E9">
-        <v>0.2326387860473543</v>
+        <v>0.539551532854503</v>
       </c>
       <c r="F9">
-        <v>0.002090010840682176</v>
+        <v>0.008763384910163406</v>
       </c>
       <c r="G9">
-        <v>26.42470323062795</v>
+        <v>-6.70941590790919</v>
       </c>
       <c r="H9">
-        <v>-0.2839451142593891</v>
+        <v>2.105788657744385</v>
       </c>
       <c r="I9">
-        <v>9.088241301717025E-14</v>
+        <v>1.351202545144183E-60</v>
       </c>
       <c r="J9">
-        <v>18.03000068664551</v>
+        <v>39.56999969482422</v>
       </c>
       <c r="K9">
-        <v>27.52000045776367</v>
+        <v>21.07999992370605</v>
       </c>
       <c r="L9">
-        <v>1.917975239924104</v>
+        <v>2.797407970637025</v>
       </c>
       <c r="M9">
-        <v>-1.470909028235745</v>
+        <v>-2.009254589818518</v>
       </c>
       <c r="N9">
-        <v>0.5643139095195044</v>
+        <v>0.9867132930136087</v>
       </c>
       <c r="O9">
-        <v>-0.5805328695842968</v>
+        <v>1.8893908581407</v>
       </c>
       <c r="P9">
-        <v>0.01331266119490945</v>
+        <v>0.01271969955398463</v>
       </c>
       <c r="Q9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" t="s">
         <v>23</v>
-      </c>
-      <c r="R9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>3372</v>
+        <v>426</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.2598254817607857</v>
+        <v>0.1121883447098792</v>
       </c>
       <c r="E10">
-        <v>0.4420966055531586</v>
+        <v>0.5520380126127808</v>
       </c>
       <c r="F10">
-        <v>0.0005050184846730685</v>
+        <v>0.0009563353732415457</v>
       </c>
       <c r="G10">
-        <v>6.854803584337514</v>
+        <v>17.88474065227988</v>
       </c>
       <c r="H10">
-        <v>0.4422478731023852</v>
+        <v>0.2183351183115864</v>
       </c>
       <c r="I10">
-        <v>9.241436053710443E-33</v>
+        <v>2.16210830555111E-28</v>
       </c>
       <c r="J10">
-        <v>16.3700008392334</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="K10">
-        <v>23.19000053405762</v>
+        <v>43.61000061035156</v>
       </c>
       <c r="L10">
-        <v>1.401640138305183</v>
+        <v>1.168725401536147</v>
       </c>
       <c r="M10">
-        <v>-0.9607290113552267</v>
+        <v>-1.037348072624532</v>
       </c>
       <c r="N10">
-        <v>0.4249077519117713</v>
+        <v>0.4062963861780202</v>
       </c>
       <c r="O10">
-        <v>-0.7405311585342726</v>
+        <v>-0.8563360580487949</v>
       </c>
       <c r="P10">
-        <v>0.01339675688093999</v>
+        <v>0.01287421903988348</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R10" t="s">
         <v>32</v>
@@ -1038,58 +1041,58 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2031</v>
+        <v>1964</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.4576888722615925</v>
+        <v>0.5010624826343364</v>
       </c>
       <c r="E11">
-        <v>0.6293156584916667</v>
+        <v>0.1285353238349897</v>
       </c>
       <c r="F11">
-        <v>0.002805639873369741</v>
+        <v>0.001217292995681093</v>
       </c>
       <c r="G11">
-        <v>11.793655727427</v>
+        <v>-0.9428024015863236</v>
       </c>
       <c r="H11">
-        <v>1.870044815304359</v>
+        <v>0.4950584492371634</v>
       </c>
       <c r="I11">
-        <v>1.02547158642226E-54</v>
+        <v>4.933188984190989E-27</v>
       </c>
       <c r="J11">
-        <v>37.9900016784668</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="K11">
-        <v>13.07999992370605</v>
+        <v>17.48999977111816</v>
       </c>
       <c r="L11">
-        <v>3.226129080811852</v>
+        <v>0.7665564142458337</v>
       </c>
       <c r="M11">
-        <v>-1.985551123311438</v>
+        <v>-0.6183273707393493</v>
       </c>
       <c r="N11">
-        <v>1.086509584331344</v>
+        <v>0.3064627917611087</v>
       </c>
       <c r="O11">
-        <v>1.736159909531874</v>
+        <v>-0.4057698194822361</v>
       </c>
       <c r="P11">
-        <v>0.01347457513299226</v>
+        <v>0.01319190566589385</v>
       </c>
       <c r="Q11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>N</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>acaoVende</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
   </si>
 </sst>
 </file>
@@ -425,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,6 +496,118 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:18">
+      <c r="A2">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>0.341332753749265</v>
+      </c>
+      <c r="E2">
+        <v>0.8846136318206865</v>
+      </c>
+      <c r="F2">
+        <v>0.003673040846817816</v>
+      </c>
+      <c r="G2">
+        <v>9.645838887518071</v>
+      </c>
+      <c r="H2">
+        <v>0.1589184396632832</v>
+      </c>
+      <c r="I2">
+        <v>6.418601136859614E-49</v>
+      </c>
+      <c r="J2">
+        <v>11.86999988555908</v>
+      </c>
+      <c r="K2">
+        <v>11.56999969482422</v>
+      </c>
+      <c r="L2">
+        <v>0.8405427955763045</v>
+      </c>
+      <c r="M2">
+        <v>-0.7338287889048054</v>
+      </c>
+      <c r="N2">
+        <v>0.2785780227740725</v>
+      </c>
+      <c r="O2">
+        <v>0.385474699634883</v>
+      </c>
+      <c r="P2">
+        <v>0.01633283806535729</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>0.341332753749265</v>
+      </c>
+      <c r="E3">
+        <v>0.1505501868792983</v>
+      </c>
+      <c r="F3">
+        <v>0.0009803657743440387</v>
+      </c>
+      <c r="G3">
+        <v>-6.787789154547016</v>
+      </c>
+      <c r="H3">
+        <v>0.6965908359586725</v>
+      </c>
+      <c r="I3">
+        <v>6.536526989961288E-24</v>
+      </c>
+      <c r="J3">
+        <v>11.86999988555908</v>
+      </c>
+      <c r="K3">
+        <v>26.15999984741211</v>
+      </c>
+      <c r="L3">
+        <v>1.52404496095614</v>
+      </c>
+      <c r="M3">
+        <v>-0.7212367026693443</v>
+      </c>
+      <c r="N3">
+        <v>0.4261332700688357</v>
+      </c>
+      <c r="O3">
+        <v>0.4349728777185504</v>
+      </c>
+      <c r="P3">
+        <v>0.01684704599976311</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>N</t>
   </si>
@@ -73,10 +73,13 @@
     <t>ABEV3</t>
   </si>
   <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
     <t>MGLU3</t>
   </si>
   <si>
-    <t>BBAS3</t>
+    <t>ENGI11</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,7 +501,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -507,43 +510,43 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>0.341332753749265</v>
+        <v>0.3687242233435427</v>
       </c>
       <c r="E2">
-        <v>0.8846136318206865</v>
+        <v>0.4923982090584293</v>
       </c>
       <c r="F2">
-        <v>0.003673040846817816</v>
+        <v>0.0002150946792027295</v>
       </c>
       <c r="G2">
-        <v>9.645838887518071</v>
+        <v>2.698975053082671</v>
       </c>
       <c r="H2">
-        <v>0.1589184396632832</v>
+        <v>0.2789030074402667</v>
       </c>
       <c r="I2">
-        <v>6.418601136859614E-49</v>
+        <v>3.862532576518243E-54</v>
       </c>
       <c r="J2">
-        <v>11.86999988555908</v>
+        <v>11.85000038146973</v>
       </c>
       <c r="K2">
-        <v>11.56999969482422</v>
+        <v>31.79000091552734</v>
       </c>
       <c r="L2">
-        <v>0.8405427955763045</v>
+        <v>0.7295736121627829</v>
       </c>
       <c r="M2">
-        <v>-0.7338287889048054</v>
+        <v>-0.6363830299068454</v>
       </c>
       <c r="N2">
-        <v>0.2785780227740725</v>
+        <v>0.2519133002393523</v>
       </c>
       <c r="O2">
-        <v>0.385474699634883</v>
+        <v>0.2846984665176482</v>
       </c>
       <c r="P2">
-        <v>0.01633283806535729</v>
+        <v>0.01103027003223678</v>
       </c>
       <c r="Q2" t="s">
         <v>19</v>
@@ -554,7 +557,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -563,48 +566,104 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>0.341332753749265</v>
+        <v>0.3687242233435427</v>
       </c>
       <c r="E3">
-        <v>0.1505501868792983</v>
+        <v>0.8843055336894234</v>
       </c>
       <c r="F3">
-        <v>0.0009803657743440387</v>
+        <v>0.00320494179585315</v>
       </c>
       <c r="G3">
-        <v>-6.787789154547016</v>
+        <v>9.67747975221117</v>
       </c>
       <c r="H3">
-        <v>0.6965908359586725</v>
+        <v>0.1567738834988887</v>
       </c>
       <c r="I3">
-        <v>6.536526989961288E-24</v>
+        <v>2.468831443995829E-49</v>
       </c>
       <c r="J3">
-        <v>11.86999988555908</v>
+        <v>11.85000038146973</v>
       </c>
       <c r="K3">
-        <v>26.15999984741211</v>
+        <v>11.53999996185303</v>
       </c>
       <c r="L3">
-        <v>1.52404496095614</v>
+        <v>0.8478154843069561</v>
       </c>
       <c r="M3">
-        <v>-0.7212367026693443</v>
+        <v>-0.7178605051121778</v>
       </c>
       <c r="N3">
-        <v>0.4261332700688357</v>
+        <v>0.2733949545433059</v>
       </c>
       <c r="O3">
-        <v>0.4349728777185504</v>
+        <v>0.3633500196618309</v>
       </c>
       <c r="P3">
-        <v>0.01684704599976311</v>
+        <v>0.01594971490596318</v>
       </c>
       <c r="Q3" t="s">
         <v>20</v>
       </c>
       <c r="R3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>0.3687242233435427</v>
+      </c>
+      <c r="E4">
+        <v>0.7110666183305712</v>
+      </c>
+      <c r="F4">
+        <v>0.006863803150386946</v>
+      </c>
+      <c r="G4">
+        <v>0.80187850843098</v>
+      </c>
+      <c r="H4">
+        <v>0.2392172957175374</v>
+      </c>
+      <c r="I4">
+        <v>5.61911479980186E-39</v>
+      </c>
+      <c r="J4">
+        <v>11.85000038146973</v>
+      </c>
+      <c r="K4">
+        <v>44.04000091552734</v>
+      </c>
+      <c r="L4">
+        <v>0.7001198725312641</v>
+      </c>
+      <c r="M4">
+        <v>-1.010387338317644</v>
+      </c>
+      <c r="N4">
+        <v>0.3260893132594411</v>
+      </c>
+      <c r="O4">
+        <v>0.5129919506284271</v>
+      </c>
+      <c r="P4">
+        <v>0.01675562968608435</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" t="s">
         <v>18</v>
       </c>
     </row>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>N</t>
   </si>
@@ -73,13 +73,37 @@
     <t>ABEV3</t>
   </si>
   <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>CSAN3</t>
+  </si>
+  <si>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
+  </si>
+  <si>
     <t>BPAC11</t>
   </si>
   <si>
+    <t>VIVT3</t>
+  </si>
+  <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
     <t>MGLU3</t>
-  </si>
-  <si>
-    <t>ENGI11</t>
   </si>
 </sst>
 </file>
@@ -437,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,7 +531,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>0.3687242233435427</v>
@@ -549,7 +573,7 @@
         <v>0.01103027003223678</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -557,114 +581,506 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>51</v>
+        <v>469</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>0.3687242233435427</v>
+        <v>0.1696264159010448</v>
       </c>
       <c r="E3">
-        <v>0.8843055336894234</v>
+        <v>0.6175976233851109</v>
       </c>
       <c r="F3">
-        <v>0.00320494179585315</v>
+        <v>0.001497655129325414</v>
       </c>
       <c r="G3">
-        <v>9.67747975221117</v>
+        <v>17.87053411913897</v>
       </c>
       <c r="H3">
-        <v>0.1567738834988887</v>
+        <v>0.1946142125867376</v>
       </c>
       <c r="I3">
-        <v>2.468831443995829E-49</v>
+        <v>1.718849479231163E-29</v>
       </c>
       <c r="J3">
-        <v>11.85000038146973</v>
+        <v>26.20000076293945</v>
       </c>
       <c r="K3">
-        <v>11.53999996185303</v>
+        <v>48.90000152587891</v>
       </c>
       <c r="L3">
-        <v>0.8478154843069561</v>
+        <v>0.924092105312571</v>
       </c>
       <c r="M3">
-        <v>-0.7178605051121778</v>
+        <v>-1.456814394419947</v>
       </c>
       <c r="N3">
-        <v>0.2733949545433059</v>
+        <v>0.4080475474608533</v>
       </c>
       <c r="O3">
-        <v>0.3633500196618309</v>
+        <v>-1.187168648648708</v>
       </c>
       <c r="P3">
-        <v>0.01594971490596318</v>
+        <v>0.01154817343876014</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>34</v>
+        <v>420</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>0.1696264159010448</v>
+      </c>
+      <c r="E4">
+        <v>0.575743019160678</v>
+      </c>
+      <c r="F4">
+        <v>0.0005922377093029577</v>
+      </c>
+      <c r="G4">
+        <v>19.35745584469154</v>
+      </c>
+      <c r="H4">
+        <v>0.2014816107023664</v>
+      </c>
+      <c r="I4">
+        <v>1.387229378288383E-33</v>
+      </c>
+      <c r="J4">
+        <v>26.20000076293945</v>
+      </c>
+      <c r="K4">
+        <v>37.68999862670898</v>
+      </c>
+      <c r="L4">
+        <v>1.073229966810356</v>
+      </c>
+      <c r="M4">
+        <v>-1.078956460521518</v>
+      </c>
+      <c r="N4">
+        <v>0.3806416140226591</v>
+      </c>
+      <c r="O4">
+        <v>-0.7512967124313858</v>
+      </c>
+      <c r="P4">
+        <v>0.01156624709704509</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>1707</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>0.6127410611642317</v>
+      </c>
+      <c r="E5">
+        <v>0.6598516521785086</v>
+      </c>
+      <c r="F5">
+        <v>0.001296366452715235</v>
+      </c>
+      <c r="G5">
+        <v>-0.6098825910366203</v>
+      </c>
+      <c r="H5">
+        <v>4.805908862315158</v>
+      </c>
+      <c r="I5">
+        <v>8.785702279649272E-97</v>
+      </c>
+      <c r="J5">
+        <v>12.80000019073486</v>
+      </c>
+      <c r="K5">
+        <v>2.950000047683716</v>
+      </c>
+      <c r="L5">
+        <v>0.7464266037336387</v>
+      </c>
+      <c r="M5">
+        <v>-0.7790118275607618</v>
+      </c>
+      <c r="N5">
+        <v>0.3382193620902934</v>
+      </c>
+      <c r="O5">
+        <v>-0.7675485912218249</v>
+      </c>
+      <c r="P5">
+        <v>0.0118670499694629</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>453</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>0.1696264159010448</v>
+      </c>
+      <c r="E6">
+        <v>0.6598516521785086</v>
+      </c>
+      <c r="F6">
+        <v>0.0004562992048160111</v>
+      </c>
+      <c r="G6">
+        <v>22.53709080558681</v>
+      </c>
+      <c r="H6">
+        <v>1.460952479794176</v>
+      </c>
+      <c r="I6">
+        <v>6.519158809738374E-29</v>
+      </c>
+      <c r="J6">
+        <v>26.20000076293945</v>
+      </c>
+      <c r="K6">
+        <v>2.950000047683716</v>
+      </c>
+      <c r="L6">
+        <v>1.07806343900241</v>
+      </c>
+      <c r="M6">
+        <v>-1.01877286504622</v>
+      </c>
+      <c r="N6">
+        <v>0.412077943572956</v>
+      </c>
+      <c r="O6">
+        <v>-0.6468999277038243</v>
+      </c>
+      <c r="P6">
+        <v>0.01197568709918313</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>440</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>0.1696264159010448</v>
+      </c>
+      <c r="E7">
+        <v>0.5539254185428637</v>
+      </c>
+      <c r="F7">
+        <v>0.0005621222588850063</v>
+      </c>
+      <c r="G7">
+        <v>23.35141278509681</v>
+      </c>
+      <c r="H7">
+        <v>0.7880363448017288</v>
+      </c>
+      <c r="I7">
+        <v>4.151883352726686E-26</v>
+      </c>
+      <c r="J7">
+        <v>26.20000076293945</v>
+      </c>
+      <c r="K7">
+        <v>4.340000152587891</v>
+      </c>
+      <c r="L7">
+        <v>1.274099346588645</v>
+      </c>
+      <c r="M7">
+        <v>-0.9712495420343288</v>
+      </c>
+      <c r="N7">
+        <v>0.4321591773124269</v>
+      </c>
+      <c r="O7">
+        <v>-0.5714898788416622</v>
+      </c>
+      <c r="P7">
+        <v>0.01214806176931105</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>1210</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="D4">
-        <v>0.3687242233435427</v>
-      </c>
-      <c r="E4">
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>0.5746051256602334</v>
+      </c>
+      <c r="E8">
+        <v>0.5539254185428637</v>
+      </c>
+      <c r="F8">
+        <v>0.001229776682551273</v>
+      </c>
+      <c r="G8">
+        <v>7.384639928371759</v>
+      </c>
+      <c r="H8">
+        <v>1.108836379829188</v>
+      </c>
+      <c r="I8">
+        <v>2.018276219514802E-63</v>
+      </c>
+      <c r="J8">
+        <v>12.64000034332275</v>
+      </c>
+      <c r="K8">
+        <v>4.340000152587891</v>
+      </c>
+      <c r="L8">
+        <v>0.5879691466325703</v>
+      </c>
+      <c r="M8">
+        <v>-0.538011151920113</v>
+      </c>
+      <c r="N8">
+        <v>0.2584060786658796</v>
+      </c>
+      <c r="O8">
+        <v>0.4430103572973163</v>
+      </c>
+      <c r="P8">
+        <v>0.01241034623098083</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>1187</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>0.5746051256602334</v>
+      </c>
+      <c r="E9">
+        <v>0.6145777087627832</v>
+      </c>
+      <c r="F9">
+        <v>0.001438947728287066</v>
+      </c>
+      <c r="G9">
+        <v>3.973854803822743</v>
+      </c>
+      <c r="H9">
+        <v>0.4189172201482036</v>
+      </c>
+      <c r="I9">
+        <v>1.042616431855626E-65</v>
+      </c>
+      <c r="J9">
+        <v>12.64000034332275</v>
+      </c>
+      <c r="K9">
+        <v>19.45000076293945</v>
+      </c>
+      <c r="L9">
+        <v>0.5520233840452349</v>
+      </c>
+      <c r="M9">
+        <v>-0.5182776507441531</v>
+      </c>
+      <c r="N9">
+        <v>0.2485303996760184</v>
+      </c>
+      <c r="O9">
+        <v>0.5182052880089767</v>
+      </c>
+      <c r="P9">
+        <v>0.01250896422863645</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>401</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>0.1696264159010448</v>
+      </c>
+      <c r="E10">
+        <v>0.4923982090584293</v>
+      </c>
+      <c r="F10">
+        <v>0.0007614236237017365</v>
+      </c>
+      <c r="G10">
+        <v>18.53988147278416</v>
+      </c>
+      <c r="H10">
+        <v>0.2559391296532265</v>
+      </c>
+      <c r="I10">
+        <v>5.673207766475091E-30</v>
+      </c>
+      <c r="J10">
+        <v>26.20000076293945</v>
+      </c>
+      <c r="K10">
+        <v>31.79000091552734</v>
+      </c>
+      <c r="L10">
+        <v>0.9925714281209288</v>
+      </c>
+      <c r="M10">
+        <v>-1.046789158651841</v>
+      </c>
+      <c r="N10">
+        <v>0.4047257997713693</v>
+      </c>
+      <c r="O10">
+        <v>-0.4761858758400432</v>
+      </c>
+      <c r="P10">
+        <v>0.0126866043100248</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>2210</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
         <v>0.7110666183305712</v>
       </c>
-      <c r="F4">
-        <v>0.006863803150386946</v>
-      </c>
-      <c r="G4">
-        <v>0.80187850843098</v>
-      </c>
-      <c r="H4">
-        <v>0.2392172957175374</v>
-      </c>
-      <c r="I4">
-        <v>5.61911479980186E-39</v>
-      </c>
-      <c r="J4">
-        <v>11.85000038146973</v>
-      </c>
-      <c r="K4">
+      <c r="E11">
+        <v>0.8843055336894234</v>
+      </c>
+      <c r="F11">
+        <v>0.001687175757786688</v>
+      </c>
+      <c r="G11">
+        <v>38.63774741867705</v>
+      </c>
+      <c r="H11">
+        <v>0.55911356383291</v>
+      </c>
+      <c r="I11">
+        <v>6.262821461670448E-51</v>
+      </c>
+      <c r="J11">
         <v>44.04000091552734</v>
       </c>
-      <c r="L4">
-        <v>0.7001198725312641</v>
-      </c>
-      <c r="M4">
-        <v>-1.010387338317644</v>
-      </c>
-      <c r="N4">
-        <v>0.3260893132594411</v>
-      </c>
-      <c r="O4">
-        <v>0.5129919506284271</v>
-      </c>
-      <c r="P4">
-        <v>0.01675562968608435</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" t="s">
-        <v>18</v>
+      <c r="K11">
+        <v>11.53999996185303</v>
+      </c>
+      <c r="L11">
+        <v>2.400424522748295</v>
+      </c>
+      <c r="M11">
+        <v>-2.779133785047065</v>
+      </c>
+      <c r="N11">
+        <v>0.9427616760352741</v>
+      </c>
+      <c r="O11">
+        <v>-1.049917008452999</v>
+      </c>
+      <c r="P11">
+        <v>0.01292889615217831</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -73,37 +73,46 @@
     <t>ABEV3</t>
   </si>
   <si>
+    <t>EZTC3</t>
+  </si>
+  <si>
     <t>BBAS3</t>
   </si>
   <si>
-    <t>CSAN3</t>
+    <t>BBDC3</t>
+  </si>
+  <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>IRBR3</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>USIM5</t>
+  </si>
+  <si>
+    <t>MULT3</t>
   </si>
   <si>
     <t>CCRO3</t>
   </si>
   <si>
-    <t>ENGI11</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>VIVT3</t>
-  </si>
-  <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>MGLU3</t>
+    <t>JBSS3</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
   </si>
 </sst>
 </file>
@@ -525,55 +534,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>0.3687242233435427</v>
+        <v>0.2607926233509545</v>
       </c>
       <c r="E2">
-        <v>0.4923982090584293</v>
+        <v>0.3068537724667807</v>
       </c>
       <c r="F2">
-        <v>0.0002150946792027295</v>
+        <v>6.009688396182152E-05</v>
       </c>
       <c r="G2">
-        <v>2.698975053082671</v>
+        <v>4.5633834177372</v>
       </c>
       <c r="H2">
-        <v>0.2789030074402667</v>
+        <v>0.6599059086375652</v>
       </c>
       <c r="I2">
-        <v>3.862532576518243E-54</v>
+        <v>4.647600087305938E-65</v>
       </c>
       <c r="J2">
-        <v>11.85000038146973</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="K2">
-        <v>31.79000091552734</v>
+        <v>10.89000034332275</v>
       </c>
       <c r="L2">
-        <v>0.7295736121627829</v>
+        <v>0.688652267146157</v>
       </c>
       <c r="M2">
-        <v>-0.6363830299068454</v>
+        <v>-0.5189002338732962</v>
       </c>
       <c r="N2">
-        <v>0.2519133002393523</v>
+        <v>0.2063871862389099</v>
       </c>
       <c r="O2">
-        <v>0.2846984665176482</v>
+        <v>0.2602412395208376</v>
       </c>
       <c r="P2">
-        <v>0.01103027003223678</v>
+        <v>0.009274481730700291</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -581,506 +590,506 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>469</v>
+        <v>2292</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>0.1696264159010448</v>
+        <v>0.7515924031457994</v>
       </c>
       <c r="E3">
-        <v>0.6175976233851109</v>
+        <v>0.6171185981810576</v>
       </c>
       <c r="F3">
-        <v>0.001497655129325414</v>
+        <v>0.007739562003427995</v>
       </c>
       <c r="G3">
-        <v>17.87053411913897</v>
+        <v>-5.229128768905756</v>
       </c>
       <c r="H3">
-        <v>0.1946142125867376</v>
+        <v>0.6540140027264825</v>
       </c>
       <c r="I3">
-        <v>1.718849479231163E-29</v>
+        <v>4.305436430615166E-49</v>
       </c>
       <c r="J3">
-        <v>26.20000076293945</v>
+        <v>13.01000022888184</v>
       </c>
       <c r="K3">
-        <v>48.90000152587891</v>
+        <v>29.39999961853027</v>
       </c>
       <c r="L3">
-        <v>0.924092105312571</v>
+        <v>1.332740371479339</v>
       </c>
       <c r="M3">
-        <v>-1.456814394419947</v>
+        <v>-1.292160267933966</v>
       </c>
       <c r="N3">
-        <v>0.4080475474608533</v>
+        <v>0.5805040819123494</v>
       </c>
       <c r="O3">
-        <v>-1.187168648648708</v>
+        <v>-0.9888824328844485</v>
       </c>
       <c r="P3">
-        <v>0.01154817343876014</v>
+        <v>0.009472424637985819</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.1696264159010448</v>
+        <v>0.1108216040844787</v>
       </c>
       <c r="E4">
-        <v>0.575743019160678</v>
+        <v>0.6094675496250954</v>
       </c>
       <c r="F4">
-        <v>0.0005922377093029577</v>
+        <v>0.0003622715099459424</v>
       </c>
       <c r="G4">
-        <v>19.35745584469154</v>
+        <v>17.88482394189057</v>
       </c>
       <c r="H4">
-        <v>0.2014816107023664</v>
+        <v>0.1942629033831965</v>
       </c>
       <c r="I4">
-        <v>1.387229378288383E-33</v>
+        <v>4.095978240499025E-29</v>
       </c>
       <c r="J4">
-        <v>26.20000076293945</v>
+        <v>26.64999961853027</v>
       </c>
       <c r="K4">
-        <v>37.68999862670898</v>
+        <v>48.93999862670898</v>
       </c>
       <c r="L4">
-        <v>1.073229966810356</v>
+        <v>0.9274156432997884</v>
       </c>
       <c r="M4">
-        <v>-1.078956460521518</v>
+        <v>-1.453510651614941</v>
       </c>
       <c r="N4">
-        <v>0.3806416140226591</v>
+        <v>0.4116537974401018</v>
       </c>
       <c r="O4">
-        <v>-0.7512967124313858</v>
+        <v>-0.7420505481544328</v>
       </c>
       <c r="P4">
-        <v>0.01156624709704509</v>
+        <v>0.01092353635765677</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1707</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.6127410611642317</v>
+        <v>0.2607926233509545</v>
       </c>
       <c r="E5">
-        <v>0.6598516521785086</v>
+        <v>0.4385998112981312</v>
       </c>
       <c r="F5">
-        <v>0.001296366452715235</v>
+        <v>0.0001927179923596711</v>
       </c>
       <c r="G5">
-        <v>-0.6098825910366203</v>
+        <v>2.804986200189298</v>
       </c>
       <c r="H5">
-        <v>4.805908862315158</v>
+        <v>0.2757373889418134</v>
       </c>
       <c r="I5">
-        <v>8.785702279649272E-97</v>
+        <v>6.03575671722716E-54</v>
       </c>
       <c r="J5">
-        <v>12.80000019073486</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="K5">
-        <v>2.950000047683716</v>
+        <v>32.27999877929688</v>
       </c>
       <c r="L5">
-        <v>0.7464266037336387</v>
+        <v>0.7373084279054414</v>
       </c>
       <c r="M5">
-        <v>-0.7790118275607618</v>
+        <v>-0.6269915730076896</v>
       </c>
       <c r="N5">
-        <v>0.3382193620902934</v>
+        <v>0.2494058488152916</v>
       </c>
       <c r="O5">
-        <v>-0.7675485912218249</v>
+        <v>0.3042114502442939</v>
       </c>
       <c r="P5">
-        <v>0.0118670499694629</v>
+        <v>0.01093074690266051</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="R5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.1696264159010448</v>
+        <v>0.1108216040844787</v>
       </c>
       <c r="E6">
-        <v>0.6598516521785086</v>
+        <v>0.9338427332348519</v>
       </c>
       <c r="F6">
-        <v>0.0004562992048160111</v>
+        <v>0.000662013470090219</v>
       </c>
       <c r="G6">
-        <v>22.53709080558681</v>
+        <v>23.63467052204421</v>
       </c>
       <c r="H6">
-        <v>1.460952479794176</v>
+        <v>0.4182498135031807</v>
       </c>
       <c r="I6">
-        <v>6.519158809738374E-29</v>
+        <v>1.642697704310818E-26</v>
       </c>
       <c r="J6">
-        <v>26.20000076293945</v>
+        <v>26.64999961853027</v>
       </c>
       <c r="K6">
-        <v>2.950000047683716</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="L6">
-        <v>1.07806343900241</v>
+        <v>1.400335412827509</v>
       </c>
       <c r="M6">
-        <v>-1.01877286504622</v>
+        <v>-1.180003158769871</v>
       </c>
       <c r="N6">
-        <v>0.412077943572956</v>
+        <v>0.4302471712209739</v>
       </c>
       <c r="O6">
-        <v>-0.6468999277038243</v>
+        <v>0.6020276805501958</v>
       </c>
       <c r="P6">
-        <v>0.01197568709918313</v>
+        <v>0.01156369849409302</v>
       </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="R6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>440</v>
+        <v>519</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.1696264159010448</v>
+        <v>0.1173873425979735</v>
       </c>
       <c r="E7">
-        <v>0.5539254185428637</v>
+        <v>0.3783135109783577</v>
       </c>
       <c r="F7">
-        <v>0.0005621222588850063</v>
+        <v>0.0007928502047366858</v>
       </c>
       <c r="G7">
-        <v>23.35141278509681</v>
+        <v>3.260568453632298</v>
       </c>
       <c r="H7">
-        <v>0.7880363448017288</v>
+        <v>0.3482874139652961</v>
       </c>
       <c r="I7">
-        <v>4.151883352726686E-26</v>
+        <v>1.17039612930817E-37</v>
       </c>
       <c r="J7">
-        <v>26.20000076293945</v>
+        <v>12.6899995803833</v>
       </c>
       <c r="K7">
-        <v>4.340000152587891</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L7">
-        <v>1.274099346588645</v>
+        <v>1.190089823360431</v>
       </c>
       <c r="M7">
-        <v>-0.9712495420343288</v>
+        <v>-0.6856184093066773</v>
       </c>
       <c r="N7">
-        <v>0.4321591773124269</v>
+        <v>0.3334740909898375</v>
       </c>
       <c r="O7">
-        <v>-0.5714898788416622</v>
+        <v>0.5306879656598955</v>
       </c>
       <c r="P7">
-        <v>0.01214806176931105</v>
+        <v>0.01228733596665207</v>
       </c>
       <c r="Q7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="R7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1210</v>
+        <v>406</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.5746051256602334</v>
+        <v>0.1108216040844787</v>
       </c>
       <c r="E8">
-        <v>0.5539254185428637</v>
+        <v>0.5804181909347322</v>
       </c>
       <c r="F8">
-        <v>0.001229776682551273</v>
+        <v>0.0009734015169204474</v>
       </c>
       <c r="G8">
-        <v>7.384639928371759</v>
+        <v>18.48226596736336</v>
       </c>
       <c r="H8">
-        <v>1.108836379829188</v>
+        <v>0.6812184529553855</v>
       </c>
       <c r="I8">
-        <v>2.018276219514802E-63</v>
+        <v>1.460453748022903E-27</v>
       </c>
       <c r="J8">
-        <v>12.64000034332275</v>
+        <v>26.64999961853027</v>
       </c>
       <c r="K8">
-        <v>4.340000152587891</v>
+        <v>12.89999961853027</v>
       </c>
       <c r="L8">
-        <v>0.5879691466325703</v>
+        <v>1.374935126897991</v>
       </c>
       <c r="M8">
-        <v>-0.538011151920113</v>
+        <v>-0.9990505536461392</v>
       </c>
       <c r="N8">
-        <v>0.2584060786658796</v>
+        <v>0.4226425832523315</v>
       </c>
       <c r="O8">
-        <v>0.4430103572973163</v>
+        <v>-0.6199841320933395</v>
       </c>
       <c r="P8">
-        <v>0.01241034623098083</v>
+        <v>0.0125698421825601</v>
       </c>
       <c r="Q8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="R8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1187</v>
+        <v>2001</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>0.5746051256602334</v>
+        <v>0.6233960719776869</v>
       </c>
       <c r="E9">
-        <v>0.6145777087627832</v>
+        <v>0.7515924031457994</v>
       </c>
       <c r="F9">
-        <v>0.001438947728287066</v>
+        <v>0.001532917802896626</v>
       </c>
       <c r="G9">
-        <v>3.973854803822743</v>
+        <v>12.59325974071197</v>
       </c>
       <c r="H9">
-        <v>0.4189172201482036</v>
+        <v>1.821069919597805</v>
       </c>
       <c r="I9">
-        <v>1.042616431855626E-65</v>
+        <v>1.391544258798555E-49</v>
       </c>
       <c r="J9">
-        <v>12.64000034332275</v>
+        <v>37.54000091552734</v>
       </c>
       <c r="K9">
-        <v>19.45000076293945</v>
+        <v>13.01000022888184</v>
       </c>
       <c r="L9">
-        <v>0.5520233840452349</v>
+        <v>3.801777308607271</v>
       </c>
       <c r="M9">
-        <v>-0.5182776507441531</v>
+        <v>-2.129173642280819</v>
       </c>
       <c r="N9">
-        <v>0.2485303996760184</v>
+        <v>1.169331322806285</v>
       </c>
       <c r="O9">
-        <v>0.5182052880089767</v>
+        <v>1.254621104038112</v>
       </c>
       <c r="P9">
-        <v>0.01250896422863645</v>
+        <v>0.01299957659160804</v>
       </c>
       <c r="Q9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="R9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>401</v>
+        <v>2621</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>0.8328673125713748</v>
+      </c>
+      <c r="E10">
+        <v>0.8332239590943371</v>
+      </c>
+      <c r="F10">
+        <v>0.0005185242521984362</v>
+      </c>
+      <c r="G10">
+        <v>63.81651193908287</v>
+      </c>
+      <c r="H10">
+        <v>-1.041754464491019</v>
+      </c>
+      <c r="I10">
+        <v>2.186809012436172E-55</v>
+      </c>
+      <c r="J10">
+        <v>28.65999984741211</v>
+      </c>
+      <c r="K10">
+        <v>31.93000030517578</v>
+      </c>
+      <c r="L10">
+        <v>5.539750219509315</v>
+      </c>
+      <c r="M10">
+        <v>-4.83008703597028</v>
+      </c>
+      <c r="N10">
+        <v>1.880162307172205</v>
+      </c>
+      <c r="O10">
+        <v>-1.893291722554281</v>
+      </c>
+      <c r="P10">
+        <v>0.01309069968704864</v>
+      </c>
+      <c r="Q10" t="s">
         <v>23</v>
       </c>
-      <c r="D10">
-        <v>0.1696264159010448</v>
-      </c>
-      <c r="E10">
-        <v>0.4923982090584293</v>
-      </c>
-      <c r="F10">
-        <v>0.0007614236237017365</v>
-      </c>
-      <c r="G10">
-        <v>18.53988147278416</v>
-      </c>
-      <c r="H10">
-        <v>0.2559391296532265</v>
-      </c>
-      <c r="I10">
-        <v>5.673207766475091E-30</v>
-      </c>
-      <c r="J10">
-        <v>26.20000076293945</v>
-      </c>
-      <c r="K10">
-        <v>31.79000091552734</v>
-      </c>
-      <c r="L10">
-        <v>0.9925714281209288</v>
-      </c>
-      <c r="M10">
-        <v>-1.046789158651841</v>
-      </c>
-      <c r="N10">
-        <v>0.4047257997713693</v>
-      </c>
-      <c r="O10">
-        <v>-0.4761858758400432</v>
-      </c>
-      <c r="P10">
-        <v>0.0126866043100248</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>19</v>
-      </c>
       <c r="R10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2210</v>
+        <v>433</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.7110666183305712</v>
+        <v>0.1108216040844787</v>
       </c>
       <c r="E11">
-        <v>0.8843055336894234</v>
+        <v>0.4339565660384265</v>
       </c>
       <c r="F11">
-        <v>0.001687175757786688</v>
+        <v>0.001377027250505562</v>
       </c>
       <c r="G11">
-        <v>38.63774741867705</v>
+        <v>17.99511186221966</v>
       </c>
       <c r="H11">
-        <v>0.55911356383291</v>
+        <v>0.4251168179966617</v>
       </c>
       <c r="I11">
-        <v>6.262821461670448E-51</v>
+        <v>8.295922603629959E-26</v>
       </c>
       <c r="J11">
-        <v>44.04000091552734</v>
+        <v>26.64999961853027</v>
       </c>
       <c r="K11">
-        <v>11.53999996185303</v>
+        <v>21.38999938964844</v>
       </c>
       <c r="L11">
-        <v>2.400424522748295</v>
+        <v>1.00880837539933</v>
       </c>
       <c r="M11">
-        <v>-2.779133785047065</v>
+        <v>-1.13492729876231</v>
       </c>
       <c r="N11">
-        <v>0.9427616760352741</v>
+        <v>0.4354104810225454</v>
       </c>
       <c r="O11">
-        <v>-1.049917008452999</v>
+        <v>-0.438360721167264</v>
       </c>
       <c r="P11">
-        <v>0.01292889615217831</v>
+        <v>0.01345448336114733</v>
       </c>
       <c r="Q11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -70,46 +70,43 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
     <t>ABEV3</t>
   </si>
   <si>
-    <t>EZTC3</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>BBDC3</t>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
   </si>
   <si>
     <t>ELET3</t>
   </si>
   <si>
-    <t>IRBR3</t>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>UGPA3</t>
   </si>
   <si>
     <t>B3SA3</t>
   </si>
   <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>VIVT3</t>
+    <t>ENGI11</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
   </si>
   <si>
     <t>BPAC11</t>
   </si>
   <si>
-    <t>USIM5</t>
-  </si>
-  <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
-    <t>JBSS3</t>
+    <t>RENT3</t>
   </si>
   <si>
     <t>IGTI11</t>
@@ -534,562 +531,562 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>4</v>
+        <v>360</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>0.2607926233509545</v>
+        <v>0.1639836473467372</v>
       </c>
       <c r="E2">
-        <v>0.3068537724667807</v>
+        <v>0.7813340705966902</v>
       </c>
       <c r="F2">
-        <v>6.009688396182152E-05</v>
+        <v>7.827396207215274E-06</v>
       </c>
       <c r="G2">
-        <v>4.5633834177372</v>
+        <v>24.72589355161062</v>
       </c>
       <c r="H2">
-        <v>0.6599059086375652</v>
+        <v>0.1575296940116398</v>
       </c>
       <c r="I2">
-        <v>4.647600087305938E-65</v>
+        <v>7.413954356725052E-38</v>
       </c>
       <c r="J2">
-        <v>12.01000022888184</v>
+        <v>26.13999938964844</v>
       </c>
       <c r="K2">
-        <v>10.89000034332275</v>
+        <v>12.3100004196167</v>
       </c>
       <c r="L2">
-        <v>0.688652267146157</v>
+        <v>0.8966269781245302</v>
       </c>
       <c r="M2">
-        <v>-0.5189002338732962</v>
+        <v>-0.8724247790757858</v>
       </c>
       <c r="N2">
-        <v>0.2063871862389099</v>
+        <v>0.361566425050394</v>
       </c>
       <c r="O2">
-        <v>0.2602412395208376</v>
+        <v>-0.5250847613475635</v>
       </c>
       <c r="P2">
-        <v>0.009274481730700291</v>
+        <v>0.008484904803411039</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2292</v>
+        <v>384</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>0.7515924031457994</v>
+        <v>0.1639836473467372</v>
       </c>
       <c r="E3">
-        <v>0.6171185981810576</v>
+        <v>0.9066522293165864</v>
       </c>
       <c r="F3">
-        <v>0.007739562003427995</v>
+        <v>4.554046365470847E-05</v>
       </c>
       <c r="G3">
-        <v>-5.229128768905756</v>
+        <v>22.16017163245604</v>
       </c>
       <c r="H3">
-        <v>0.6540140027264825</v>
+        <v>0.1975556179331059</v>
       </c>
       <c r="I3">
-        <v>4.305436430615166E-49</v>
+        <v>1.031697377094689E-37</v>
       </c>
       <c r="J3">
-        <v>13.01000022888184</v>
+        <v>26.13999938964844</v>
       </c>
       <c r="K3">
-        <v>29.39999961853027</v>
+        <v>22.79999923706055</v>
       </c>
       <c r="L3">
-        <v>1.332740371479339</v>
+        <v>1.079080642527693</v>
       </c>
       <c r="M3">
-        <v>-1.292160267933966</v>
+        <v>-0.7390493159022</v>
       </c>
       <c r="N3">
-        <v>0.5805040819123494</v>
+        <v>0.3624368775304065</v>
       </c>
       <c r="O3">
-        <v>-0.9888824328844485</v>
+        <v>-0.5244401809594388</v>
       </c>
       <c r="P3">
-        <v>0.009472424637985819</v>
+        <v>0.009614400535942237</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>469</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>0.1108216040844787</v>
+        <v>0.2505303869898652</v>
       </c>
       <c r="E4">
-        <v>0.6094675496250954</v>
+        <v>0.2626387904026293</v>
       </c>
       <c r="F4">
-        <v>0.0003622715099459424</v>
+        <v>0.0001910085539420463</v>
       </c>
       <c r="G4">
-        <v>17.88482394189057</v>
+        <v>4.612594269913417</v>
       </c>
       <c r="H4">
-        <v>0.1942629033831965</v>
+        <v>0.6562900821441212</v>
       </c>
       <c r="I4">
-        <v>4.095978240499025E-29</v>
+        <v>2.091358893201019E-63</v>
       </c>
       <c r="J4">
-        <v>26.64999961853027</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="K4">
-        <v>48.93999862670898</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="L4">
-        <v>0.9274156432997884</v>
+        <v>0.6843605700877404</v>
       </c>
       <c r="M4">
-        <v>-1.453510651614941</v>
+        <v>-0.526492922282376</v>
       </c>
       <c r="N4">
-        <v>0.4116537974401018</v>
+        <v>0.2143804180080268</v>
       </c>
       <c r="O4">
-        <v>-0.7420505481544328</v>
+        <v>0.4469567826619345</v>
       </c>
       <c r="P4">
-        <v>0.01092353635765677</v>
+        <v>0.01000151673348799</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>11</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>0.2607926233509545</v>
+        <v>0.1639836473467372</v>
       </c>
       <c r="E5">
-        <v>0.4385998112981312</v>
+        <v>0.6937579585560811</v>
       </c>
       <c r="F5">
-        <v>0.0001927179923596711</v>
+        <v>9.065216920383847E-05</v>
       </c>
       <c r="G5">
-        <v>2.804986200189298</v>
+        <v>15.87283524175764</v>
       </c>
       <c r="H5">
-        <v>0.2757373889418134</v>
+        <v>0.239014018926902</v>
       </c>
       <c r="I5">
-        <v>6.03575671722716E-54</v>
+        <v>5.050592965070973E-31</v>
       </c>
       <c r="J5">
-        <v>12.01000022888184</v>
+        <v>26.13999938964844</v>
       </c>
       <c r="K5">
-        <v>32.27999877929688</v>
+        <v>45.09999847412109</v>
       </c>
       <c r="L5">
-        <v>0.7373084279054414</v>
+        <v>0.9703127687152033</v>
       </c>
       <c r="M5">
-        <v>-0.6269915730076896</v>
+        <v>-1.121606350123244</v>
       </c>
       <c r="N5">
-        <v>0.2494058488152916</v>
+        <v>0.4054030531669965</v>
       </c>
       <c r="O5">
-        <v>0.3042114502442939</v>
+        <v>-0.5123677410060363</v>
       </c>
       <c r="P5">
-        <v>0.01093074690266051</v>
+        <v>0.01040557434194637</v>
       </c>
       <c r="Q5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>466</v>
+        <v>390</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.1108216040844787</v>
+        <v>0.1639836473467372</v>
       </c>
       <c r="E6">
-        <v>0.9338427332348519</v>
+        <v>0.849180274596565</v>
       </c>
       <c r="F6">
-        <v>0.000662013470090219</v>
+        <v>5.493707563923172E-05</v>
       </c>
       <c r="G6">
-        <v>23.63467052204421</v>
+        <v>25.01026436403824</v>
       </c>
       <c r="H6">
-        <v>0.4182498135031807</v>
+        <v>0.1472599975879803</v>
       </c>
       <c r="I6">
-        <v>1.642697704310818E-26</v>
+        <v>9.983134703727411E-30</v>
       </c>
       <c r="J6">
-        <v>26.64999961853027</v>
+        <v>26.13999938964844</v>
       </c>
       <c r="K6">
-        <v>5.769999980926514</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="L6">
-        <v>1.400335412827509</v>
+        <v>1.032903324538204</v>
       </c>
       <c r="M6">
-        <v>-1.180003158769871</v>
+        <v>-1.218472032031251</v>
       </c>
       <c r="N6">
-        <v>0.4302471712209739</v>
+        <v>0.4142902233501481</v>
       </c>
       <c r="O6">
-        <v>0.6020276805501958</v>
+        <v>-0.4518373147795711</v>
       </c>
       <c r="P6">
-        <v>0.01156369849409302</v>
+        <v>0.01061886585357455</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>519</v>
+        <v>3209</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.1173873425979735</v>
+        <v>0.1059343911741565</v>
       </c>
       <c r="E7">
-        <v>0.3783135109783577</v>
+        <v>0.499089326479129</v>
       </c>
       <c r="F7">
-        <v>0.0007928502047366858</v>
+        <v>3.428191597439501E-05</v>
       </c>
       <c r="G7">
-        <v>3.260568453632298</v>
+        <v>6.626802048421716</v>
       </c>
       <c r="H7">
-        <v>0.3482874139652961</v>
+        <v>0.4519545847601502</v>
       </c>
       <c r="I7">
-        <v>1.17039612930817E-37</v>
+        <v>7.2221361936468E-34</v>
       </c>
       <c r="J7">
-        <v>12.6899995803833</v>
+        <v>17.14999961853027</v>
       </c>
       <c r="K7">
-        <v>25.54999923706055</v>
+        <v>24.22999954223633</v>
       </c>
       <c r="L7">
-        <v>1.190089823360431</v>
+        <v>1.406913957703367</v>
       </c>
       <c r="M7">
-        <v>-0.6856184093066773</v>
+        <v>-0.9569525184366157</v>
       </c>
       <c r="N7">
-        <v>0.3334740909898375</v>
+        <v>0.422300540036029</v>
       </c>
       <c r="O7">
-        <v>0.5306879656598955</v>
+        <v>-0.4276618117414905</v>
       </c>
       <c r="P7">
-        <v>0.01228733596665207</v>
+        <v>0.01127204272359562</v>
       </c>
       <c r="Q7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="R7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>406</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.1108216040844787</v>
+        <v>0.2505303869898652</v>
       </c>
       <c r="E8">
-        <v>0.5804181909347322</v>
+        <v>0.3536945653762048</v>
       </c>
       <c r="F8">
-        <v>0.0009734015169204474</v>
+        <v>0.000294250842746892</v>
       </c>
       <c r="G8">
-        <v>18.48226596736336</v>
+        <v>2.831367828841294</v>
       </c>
       <c r="H8">
-        <v>0.6812184529553855</v>
+        <v>0.2751327274590923</v>
       </c>
       <c r="I8">
-        <v>1.460453748022903E-27</v>
+        <v>1.089253676731611E-53</v>
       </c>
       <c r="J8">
-        <v>26.64999961853027</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="K8">
-        <v>12.89999961853027</v>
+        <v>33.52999877929688</v>
       </c>
       <c r="L8">
-        <v>1.374935126897991</v>
+        <v>0.7326532968031625</v>
       </c>
       <c r="M8">
-        <v>-0.9990505536461392</v>
+        <v>-0.6313302708131214</v>
       </c>
       <c r="N8">
-        <v>0.4226425832523315</v>
+        <v>0.2523599815503624</v>
       </c>
       <c r="O8">
-        <v>-0.6199841320933395</v>
+        <v>0.3534320027228297</v>
       </c>
       <c r="P8">
-        <v>0.0125698421825601</v>
+        <v>0.01135733500406148</v>
       </c>
       <c r="Q8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="R8" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2001</v>
+        <v>523</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.6233960719776869</v>
+        <v>0.1243579318516742</v>
       </c>
       <c r="E9">
-        <v>0.7515924031457994</v>
+        <v>0.2570433663536008</v>
       </c>
       <c r="F9">
-        <v>0.001532917802896626</v>
+        <v>0.000912856356588844</v>
       </c>
       <c r="G9">
-        <v>12.59325974071197</v>
+        <v>6.817880779377208</v>
       </c>
       <c r="H9">
-        <v>1.821069919597805</v>
+        <v>0.1320583586364115</v>
       </c>
       <c r="I9">
-        <v>1.391544258798555E-49</v>
+        <v>1.057215442545548E-36</v>
       </c>
       <c r="J9">
-        <v>37.54000091552734</v>
+        <v>14.30000019073486</v>
       </c>
       <c r="K9">
-        <v>13.01000022888184</v>
+        <v>48.68000030517578</v>
       </c>
       <c r="L9">
-        <v>3.801777308607271</v>
+        <v>2.295491854781098</v>
       </c>
       <c r="M9">
-        <v>-2.129173642280819</v>
+        <v>-0.7195880992042998</v>
       </c>
       <c r="N9">
-        <v>1.169331322806285</v>
+        <v>0.4176049084068845</v>
       </c>
       <c r="O9">
-        <v>1.254621104038112</v>
+        <v>1.05351847263613</v>
       </c>
       <c r="P9">
-        <v>0.01299957659160804</v>
+        <v>0.01143433881772726</v>
       </c>
       <c r="Q9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="R9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2621</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>0.8328673125713748</v>
+        <v>0.1639836473467372</v>
       </c>
       <c r="E10">
-        <v>0.8332239590943371</v>
+        <v>0.5974623572807527</v>
       </c>
       <c r="F10">
-        <v>0.0005185242521984362</v>
+        <v>0.0007404130475332794</v>
       </c>
       <c r="G10">
-        <v>63.81651193908287</v>
+        <v>19.20333930753215</v>
       </c>
       <c r="H10">
-        <v>-1.041754464491019</v>
+        <v>0.2052094925336197</v>
       </c>
       <c r="I10">
-        <v>2.186809012436172E-55</v>
+        <v>6.174839577397215E-34</v>
       </c>
       <c r="J10">
-        <v>28.65999984741211</v>
+        <v>26.13999938964844</v>
       </c>
       <c r="K10">
-        <v>31.93000030517578</v>
+        <v>38.18999862670898</v>
       </c>
       <c r="L10">
-        <v>5.539750219509315</v>
+        <v>1.084106415944248</v>
       </c>
       <c r="M10">
-        <v>-4.83008703597028</v>
+        <v>-1.074551657136432</v>
       </c>
       <c r="N10">
-        <v>1.880162307172205</v>
+        <v>0.386109235465676</v>
       </c>
       <c r="O10">
-        <v>-1.893291722554281</v>
+        <v>-0.9002901559302936</v>
       </c>
       <c r="P10">
-        <v>0.01309069968704864</v>
+        <v>0.0116842516448669</v>
       </c>
       <c r="Q10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>433</v>
+        <v>1927</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.1108216040844787</v>
+        <v>0.5974623572807527</v>
       </c>
       <c r="E11">
-        <v>0.4339565660384265</v>
+        <v>0.4073086015749182</v>
       </c>
       <c r="F11">
-        <v>0.001377027250505562</v>
+        <v>0.002004681773856402</v>
       </c>
       <c r="G11">
-        <v>17.99511186221966</v>
+        <v>-6.80918343400277</v>
       </c>
       <c r="H11">
-        <v>0.4251168179966617</v>
+        <v>2.110521858270499</v>
       </c>
       <c r="I11">
-        <v>8.295922603629959E-26</v>
+        <v>2.476536939581332E-58</v>
       </c>
       <c r="J11">
-        <v>26.64999961853027</v>
+        <v>38.18999862670898</v>
       </c>
       <c r="K11">
-        <v>21.38999938964844</v>
+        <v>21.90999984741211</v>
       </c>
       <c r="L11">
-        <v>1.00880837539933</v>
+        <v>2.789519668327472</v>
       </c>
       <c r="M11">
-        <v>-1.13492729876231</v>
+        <v>-2.010824886266811</v>
       </c>
       <c r="N11">
-        <v>0.4354104810225454</v>
+        <v>1.015634849900806</v>
       </c>
       <c r="O11">
-        <v>-0.438360721167264</v>
+        <v>-1.242351531954789</v>
       </c>
       <c r="P11">
-        <v>0.01345448336114733</v>
+        <v>0.01180811073244753</v>
       </c>
       <c r="Q11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>N</t>
   </si>
@@ -76,15 +76,15 @@
     <t>ABEV3</t>
   </si>
   <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
     <t>BBDC4</t>
   </si>
   <si>
     <t>ELET3</t>
   </si>
   <si>
+    <t>ELET6</t>
+  </si>
+  <si>
     <t>MGLU3</t>
   </si>
   <si>
@@ -97,19 +97,16 @@
     <t>ENGI11</t>
   </si>
   <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
     <t>RENT3</t>
   </si>
   <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
     <t>IGTI11</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
   </si>
 </sst>
 </file>
@@ -540,43 +537,43 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>0.1639836473467372</v>
+        <v>0.1566759550099578</v>
       </c>
       <c r="E2">
-        <v>0.7813340705966902</v>
+        <v>0.7677352446860461</v>
       </c>
       <c r="F2">
-        <v>7.827396207215274E-06</v>
+        <v>7.6086244149768E-06</v>
       </c>
       <c r="G2">
-        <v>24.72589355161062</v>
+        <v>24.72751941732015</v>
       </c>
       <c r="H2">
-        <v>0.1575296940116398</v>
+        <v>0.1574333209773416</v>
       </c>
       <c r="I2">
-        <v>7.413954356725052E-38</v>
+        <v>7.912129740856931E-38</v>
       </c>
       <c r="J2">
-        <v>26.13999938964844</v>
+        <v>26.19000053405762</v>
       </c>
       <c r="K2">
-        <v>12.3100004196167</v>
+        <v>12.53999996185303</v>
       </c>
       <c r="L2">
-        <v>0.8966269781245302</v>
+        <v>0.8967551017127597</v>
       </c>
       <c r="M2">
-        <v>-0.8724247790757858</v>
+        <v>-0.8724412150390002</v>
       </c>
       <c r="N2">
-        <v>0.361566425050394</v>
+        <v>0.3614243088474634</v>
       </c>
       <c r="O2">
-        <v>-0.5250847613475635</v>
+        <v>-0.5117327223127908</v>
       </c>
       <c r="P2">
-        <v>0.008484904803411039</v>
+        <v>0.008478828679567063</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -596,43 +593,43 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>0.1639836473467372</v>
+        <v>0.1566759550099578</v>
       </c>
       <c r="E3">
-        <v>0.9066522293165864</v>
+        <v>0.9176435888793064</v>
       </c>
       <c r="F3">
-        <v>4.554046365470847E-05</v>
+        <v>3.383251505307662E-05</v>
       </c>
       <c r="G3">
-        <v>22.16017163245604</v>
+        <v>22.16541922221971</v>
       </c>
       <c r="H3">
-        <v>0.1975556179331059</v>
+        <v>0.1973831169487365</v>
       </c>
       <c r="I3">
-        <v>1.031697377094689E-37</v>
+        <v>7.740186591393487E-38</v>
       </c>
       <c r="J3">
-        <v>26.13999938964844</v>
+        <v>26.19000053405762</v>
       </c>
       <c r="K3">
-        <v>22.79999923706055</v>
+        <v>22.46999931335449</v>
       </c>
       <c r="L3">
-        <v>1.079080642527693</v>
+        <v>1.078657909149115</v>
       </c>
       <c r="M3">
-        <v>-0.7390493159022</v>
+        <v>-0.7395930419532846</v>
       </c>
       <c r="N3">
-        <v>0.3624368775304065</v>
+        <v>0.3613665259649541</v>
       </c>
       <c r="O3">
-        <v>-0.5244401809594388</v>
+        <v>-0.4106171904679723</v>
       </c>
       <c r="P3">
-        <v>0.009614400535942237</v>
+        <v>0.009490963884150232</v>
       </c>
       <c r="Q3" t="s">
         <v>18</v>
@@ -652,43 +649,43 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>0.2505303869898652</v>
+        <v>0.2453535428659289</v>
       </c>
       <c r="E4">
-        <v>0.2626387904026293</v>
+        <v>0.2537426961916426</v>
       </c>
       <c r="F4">
-        <v>0.0001910085539420463</v>
+        <v>7.373191522528135E-05</v>
       </c>
       <c r="G4">
-        <v>4.612594269913417</v>
+        <v>4.601154041813868</v>
       </c>
       <c r="H4">
-        <v>0.6562900821441212</v>
+        <v>0.6571904595501045</v>
       </c>
       <c r="I4">
-        <v>2.091358893201019E-63</v>
+        <v>6.478091132408644E-64</v>
       </c>
       <c r="J4">
-        <v>12.40999984741211</v>
+        <v>12.35999965667725</v>
       </c>
       <c r="K4">
-        <v>11.19999980926514</v>
+        <v>11.35000038146973</v>
       </c>
       <c r="L4">
-        <v>0.6843605700877404</v>
+        <v>0.684615473770517</v>
       </c>
       <c r="M4">
-        <v>-0.526492922282376</v>
+        <v>-0.5254160383317767</v>
       </c>
       <c r="N4">
-        <v>0.2143804180080268</v>
+        <v>0.2125114267974148</v>
       </c>
       <c r="O4">
-        <v>0.4469567826619345</v>
+        <v>0.2997336482714275</v>
       </c>
       <c r="P4">
-        <v>0.01000151673348799</v>
+        <v>0.009502149014974346</v>
       </c>
       <c r="Q4" t="s">
         <v>25</v>
@@ -708,43 +705,43 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>0.1639836473467372</v>
+        <v>0.1566759550099578</v>
       </c>
       <c r="E5">
-        <v>0.6937579585560811</v>
+        <v>0.6360674332132359</v>
       </c>
       <c r="F5">
-        <v>9.065216920383847E-05</v>
+        <v>0.0001135598005848239</v>
       </c>
       <c r="G5">
-        <v>15.87283524175764</v>
+        <v>15.88424578935882</v>
       </c>
       <c r="H5">
-        <v>0.239014018926902</v>
+        <v>0.2387541412866303</v>
       </c>
       <c r="I5">
-        <v>5.050592965070973E-31</v>
+        <v>8.899340969082599E-31</v>
       </c>
       <c r="J5">
-        <v>26.13999938964844</v>
+        <v>26.19000053405762</v>
       </c>
       <c r="K5">
-        <v>45.09999847412109</v>
+        <v>45.84999847412109</v>
       </c>
       <c r="L5">
-        <v>0.9703127687152033</v>
+        <v>0.9712204216594493</v>
       </c>
       <c r="M5">
-        <v>-1.121606350123244</v>
+        <v>-1.120568758358864</v>
       </c>
       <c r="N5">
-        <v>0.4054030531669965</v>
+        <v>0.4067230592944949</v>
       </c>
       <c r="O5">
-        <v>-0.5123677410060363</v>
+        <v>-0.6411222689832936</v>
       </c>
       <c r="P5">
-        <v>0.01040557434194637</v>
+        <v>0.01047212250471089</v>
       </c>
       <c r="Q5" t="s">
         <v>18</v>
@@ -755,338 +752,338 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>390</v>
+        <v>523</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6">
-        <v>0.1639836473467372</v>
+        <v>0.1186030612278278</v>
       </c>
       <c r="E6">
-        <v>0.849180274596565</v>
+        <v>0.2562248295719738</v>
       </c>
       <c r="F6">
-        <v>5.493707563923172E-05</v>
+        <v>0.0008540674727148094</v>
       </c>
       <c r="G6">
-        <v>25.01026436403824</v>
+        <v>6.821267952761373</v>
       </c>
       <c r="H6">
-        <v>0.1472599975879803</v>
+        <v>0.1319846793384855</v>
       </c>
       <c r="I6">
-        <v>9.983134703727411E-30</v>
+        <v>1.020546438731551E-36</v>
       </c>
       <c r="J6">
-        <v>26.13999938964844</v>
+        <v>14.25</v>
       </c>
       <c r="K6">
-        <v>10.73999977111816</v>
+        <v>48.47000122070312</v>
       </c>
       <c r="L6">
-        <v>1.032903324538204</v>
+        <v>2.295922371026084</v>
       </c>
       <c r="M6">
-        <v>-1.218472032031251</v>
+        <v>-0.7192075772567961</v>
       </c>
       <c r="N6">
-        <v>0.4142902233501481</v>
+        <v>0.4172046368210396</v>
       </c>
       <c r="O6">
-        <v>-0.4518373147795711</v>
+        <v>1.031434478588126</v>
       </c>
       <c r="P6">
-        <v>0.01061886585357455</v>
+        <v>0.01139623784644844</v>
       </c>
       <c r="Q6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="R6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>3209</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>0.1059343911741565</v>
+        <v>0.1566759550099578</v>
       </c>
       <c r="E7">
-        <v>0.499089326479129</v>
+        <v>0.5869158627899479</v>
       </c>
       <c r="F7">
-        <v>3.428191597439501E-05</v>
+        <v>0.0008351070318521497</v>
       </c>
       <c r="G7">
-        <v>6.626802048421716</v>
+        <v>19.21817005957285</v>
       </c>
       <c r="H7">
-        <v>0.4519545847601502</v>
+        <v>0.2048229069738902</v>
       </c>
       <c r="I7">
-        <v>7.2221361936468E-34</v>
+        <v>8.776039697559699E-34</v>
       </c>
       <c r="J7">
-        <v>17.14999961853027</v>
+        <v>26.19000053405762</v>
       </c>
       <c r="K7">
-        <v>24.22999954223633</v>
+        <v>38.61999893188477</v>
       </c>
       <c r="L7">
-        <v>1.406913957703367</v>
+        <v>1.084129822943893</v>
       </c>
       <c r="M7">
-        <v>-0.9569525184366157</v>
+        <v>-1.073857133157382</v>
       </c>
       <c r="N7">
-        <v>0.422300540036029</v>
+        <v>0.3867623831899074</v>
       </c>
       <c r="O7">
-        <v>-0.4276618117414905</v>
+        <v>-0.9384299740724007</v>
       </c>
       <c r="P7">
-        <v>0.01127204272359562</v>
+        <v>0.01175156195905327</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>0.2505303869898652</v>
+        <v>0.1566759550099578</v>
       </c>
       <c r="E8">
-        <v>0.3536945653762048</v>
+        <v>0.571333215366483</v>
       </c>
       <c r="F8">
-        <v>0.000294250842746892</v>
+        <v>0.000538373188105012</v>
       </c>
       <c r="G8">
-        <v>2.831367828841294</v>
+        <v>23.22819273425464</v>
       </c>
       <c r="H8">
-        <v>0.2751327274590923</v>
+        <v>0.8120511658360584</v>
       </c>
       <c r="I8">
-        <v>1.089253676731611E-53</v>
+        <v>2.986037069114684E-27</v>
       </c>
       <c r="J8">
-        <v>12.40999984741211</v>
+        <v>26.19000053405762</v>
       </c>
       <c r="K8">
-        <v>33.52999877929688</v>
+        <v>4.619999885559082</v>
       </c>
       <c r="L8">
-        <v>0.7326532968031625</v>
+        <v>1.271243494349221</v>
       </c>
       <c r="M8">
-        <v>-0.6313302708131214</v>
+        <v>-0.9933191630303142</v>
       </c>
       <c r="N8">
-        <v>0.2523599815503624</v>
+        <v>0.4314315703795162</v>
       </c>
       <c r="O8">
-        <v>0.3534320027228297</v>
+        <v>-0.7898684934277291</v>
       </c>
       <c r="P8">
-        <v>0.01135733500406148</v>
+        <v>0.01187377094683254</v>
       </c>
       <c r="Q8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="R8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>523</v>
+        <v>1927</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>0.1243579318516742</v>
+        <v>0.5869158627899479</v>
       </c>
       <c r="E9">
-        <v>0.2570433663536008</v>
+        <v>0.4102289251195158</v>
       </c>
       <c r="F9">
-        <v>0.000912856356588844</v>
+        <v>0.002265621010043355</v>
       </c>
       <c r="G9">
-        <v>6.817880779377208</v>
+        <v>-6.752247598578798</v>
       </c>
       <c r="H9">
-        <v>0.1320583586364115</v>
+        <v>2.107828878113806</v>
       </c>
       <c r="I9">
-        <v>1.057215442545548E-36</v>
+        <v>3.446155017823786E-58</v>
       </c>
       <c r="J9">
-        <v>14.30000019073486</v>
+        <v>38.61999893188477</v>
       </c>
       <c r="K9">
-        <v>48.68000030517578</v>
+        <v>22.21999931335449</v>
       </c>
       <c r="L9">
-        <v>2.295491854781098</v>
+        <v>2.793835201410374</v>
       </c>
       <c r="M9">
-        <v>-0.7195880992042998</v>
+        <v>-2.010104016946912</v>
       </c>
       <c r="N9">
-        <v>0.4176049084068845</v>
+        <v>1.017778267664541</v>
       </c>
       <c r="O9">
-        <v>1.05351847263613</v>
+        <v>-1.463709693893982</v>
       </c>
       <c r="P9">
-        <v>0.01143433881772726</v>
+        <v>0.01195101277866793</v>
       </c>
       <c r="Q9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="R9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>339</v>
+        <v>1977</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>0.493154481531021</v>
+      </c>
+      <c r="E10">
+        <v>0.4102289251195158</v>
+      </c>
+      <c r="F10">
+        <v>0.001499520718242067</v>
+      </c>
+      <c r="G10">
+        <v>4.616505088219289</v>
+      </c>
+      <c r="H10">
+        <v>1.756325123600861</v>
+      </c>
+      <c r="I10">
+        <v>7.997750452346645E-57</v>
+      </c>
+      <c r="J10">
+        <v>42.65999984741211</v>
+      </c>
+      <c r="K10">
+        <v>22.21999931335449</v>
+      </c>
+      <c r="L10">
+        <v>2.35096300771179</v>
+      </c>
+      <c r="M10">
+        <v>-2.185860195279538</v>
+      </c>
+      <c r="N10">
+        <v>0.8713461796779087</v>
+      </c>
+      <c r="O10">
+        <v>-0.9820482812455467</v>
+      </c>
+      <c r="P10">
+        <v>0.01203599225375981</v>
+      </c>
+      <c r="Q10" t="s">
         <v>22</v>
       </c>
-      <c r="D10">
-        <v>0.1639836473467372</v>
-      </c>
-      <c r="E10">
-        <v>0.5974623572807527</v>
-      </c>
-      <c r="F10">
-        <v>0.0007404130475332794</v>
-      </c>
-      <c r="G10">
-        <v>19.20333930753215</v>
-      </c>
-      <c r="H10">
-        <v>0.2052094925336197</v>
-      </c>
-      <c r="I10">
-        <v>6.174839577397215E-34</v>
-      </c>
-      <c r="J10">
-        <v>26.13999938964844</v>
-      </c>
-      <c r="K10">
-        <v>38.18999862670898</v>
-      </c>
-      <c r="L10">
-        <v>1.084106415944248</v>
-      </c>
-      <c r="M10">
-        <v>-1.074551657136432</v>
-      </c>
-      <c r="N10">
-        <v>0.386109235465676</v>
-      </c>
-      <c r="O10">
-        <v>-0.9002901559302936</v>
-      </c>
-      <c r="P10">
-        <v>0.0116842516448669</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>18</v>
-      </c>
       <c r="R10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1927</v>
+        <v>372</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>0.5974623572807527</v>
+        <v>0.1566759550099578</v>
       </c>
       <c r="E11">
-        <v>0.4073086015749182</v>
+        <v>0.6008119148035892</v>
       </c>
       <c r="F11">
-        <v>0.002004681773856402</v>
+        <v>0.0006407450453806911</v>
       </c>
       <c r="G11">
-        <v>-6.80918343400277</v>
+        <v>22.40156816440199</v>
       </c>
       <c r="H11">
-        <v>2.110521858270499</v>
+        <v>1.500576858028395</v>
       </c>
       <c r="I11">
-        <v>2.476536939581332E-58</v>
+        <v>1.707887677355698E-29</v>
       </c>
       <c r="J11">
-        <v>38.18999862670898</v>
+        <v>26.19000053405762</v>
       </c>
       <c r="K11">
-        <v>21.90999984741211</v>
+        <v>3.160000085830688</v>
       </c>
       <c r="L11">
-        <v>2.789519668327472</v>
+        <v>1.089982785710756</v>
       </c>
       <c r="M11">
-        <v>-2.010824886266811</v>
+        <v>-1.026722106922676</v>
       </c>
       <c r="N11">
-        <v>1.015634849900806</v>
+        <v>0.4155494814652534</v>
       </c>
       <c r="O11">
-        <v>-1.242351531954789</v>
+        <v>-0.9533906305096451</v>
       </c>
       <c r="P11">
-        <v>0.01180811073244753</v>
+        <v>0.01211129904124507</v>
       </c>
       <c r="Q11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>N</t>
   </si>
@@ -73,40 +73,37 @@
     <t>BBAS3</t>
   </si>
   <si>
-    <t>ABEV3</t>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
   </si>
   <si>
     <t>BBDC4</t>
   </si>
   <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>MGLU3</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
     <t>ENGI11</t>
   </si>
   <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
     <t>RENT3</t>
-  </si>
-  <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
   </si>
 </sst>
 </file>
@@ -528,7 +525,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -537,43 +534,43 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>0.1566759550099578</v>
+        <v>0.1390458294074044</v>
       </c>
       <c r="E2">
-        <v>0.7677352446860461</v>
+        <v>0.4724474188846647</v>
       </c>
       <c r="F2">
-        <v>7.6086244149768E-06</v>
+        <v>0.0001581881710156407</v>
       </c>
       <c r="G2">
-        <v>24.72751941732015</v>
+        <v>15.55101621630725</v>
       </c>
       <c r="H2">
-        <v>0.1574333209773416</v>
+        <v>0.2459932352123011</v>
       </c>
       <c r="I2">
-        <v>7.912129740856931E-38</v>
+        <v>5.539695958245621E-32</v>
       </c>
       <c r="J2">
-        <v>26.19000053405762</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="K2">
-        <v>12.53999996185303</v>
+        <v>46.58000183105469</v>
       </c>
       <c r="L2">
-        <v>0.8967551017127597</v>
+        <v>0.9613169315882395</v>
       </c>
       <c r="M2">
-        <v>-0.8724412150390002</v>
+        <v>-1.134091795392912</v>
       </c>
       <c r="N2">
-        <v>0.3614243088474634</v>
+        <v>0.3993320111804806</v>
       </c>
       <c r="O2">
-        <v>-0.5117327223127908</v>
+        <v>-0.459382325862757</v>
       </c>
       <c r="P2">
-        <v>0.008478828679567063</v>
+        <v>0.0103702557925313</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -584,279 +581,279 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>384</v>
+        <v>1778</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="D3">
-        <v>0.1566759550099578</v>
+        <v>0.4708363081285186</v>
       </c>
       <c r="E3">
-        <v>0.9176435888793064</v>
+        <v>0.5477002328797346</v>
       </c>
       <c r="F3">
-        <v>3.383251505307662E-05</v>
+        <v>0.000430128454964044</v>
       </c>
       <c r="G3">
-        <v>22.16541922221971</v>
+        <v>8.565575170943822</v>
       </c>
       <c r="H3">
-        <v>0.1973831169487365</v>
+        <v>2.569167003973953</v>
       </c>
       <c r="I3">
-        <v>7.740186591393487E-38</v>
+        <v>9.190824174091926E-70</v>
       </c>
       <c r="J3">
-        <v>26.19000053405762</v>
+        <v>21.77000045776367</v>
       </c>
       <c r="K3">
-        <v>22.46999931335449</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="L3">
-        <v>1.078657909149115</v>
+        <v>1.181599755894524</v>
       </c>
       <c r="M3">
-        <v>-0.7395930419532846</v>
+        <v>-1.878590172779809</v>
       </c>
       <c r="N3">
-        <v>0.3613665259649541</v>
+        <v>0.5239721134760784</v>
       </c>
       <c r="O3">
-        <v>-0.4106171904679723</v>
+        <v>1.129340858171989</v>
       </c>
       <c r="P3">
-        <v>0.009490963884150232</v>
+        <v>0.01060895547480209</v>
       </c>
       <c r="Q3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>3</v>
+        <v>359</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>0.2453535428659289</v>
+        <v>0.1390458294074044</v>
       </c>
       <c r="E4">
-        <v>0.2537426961916426</v>
+        <v>0.5477002328797346</v>
       </c>
       <c r="F4">
-        <v>7.373191522528135E-05</v>
+        <v>0.0007321409049869026</v>
       </c>
       <c r="G4">
-        <v>4.601154041813868</v>
+        <v>23.12899921903287</v>
       </c>
       <c r="H4">
-        <v>0.6571904595501045</v>
+        <v>0.8340877349174403</v>
       </c>
       <c r="I4">
-        <v>6.478091132408644E-64</v>
+        <v>4.655698011515374E-28</v>
       </c>
       <c r="J4">
-        <v>12.35999965667725</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="K4">
-        <v>11.35000038146973</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="L4">
-        <v>0.684615473770517</v>
+        <v>1.254745021893733</v>
       </c>
       <c r="M4">
-        <v>-0.5254160383317767</v>
+        <v>-1.02744689495405</v>
       </c>
       <c r="N4">
-        <v>0.2125114267974148</v>
+        <v>0.4268495805500255</v>
       </c>
       <c r="O4">
-        <v>0.2997336482714275</v>
+        <v>-0.4992121769946825</v>
       </c>
       <c r="P4">
-        <v>0.009502149014974346</v>
+        <v>0.01188223682662591</v>
       </c>
       <c r="Q4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>0.1566759550099578</v>
+        <v>0.1390458294074044</v>
       </c>
       <c r="E5">
-        <v>0.6360674332132359</v>
+        <v>0.5104650354440179</v>
       </c>
       <c r="F5">
-        <v>0.0001135598005848239</v>
+        <v>0.0008963338569492902</v>
       </c>
       <c r="G5">
-        <v>15.88424578935882</v>
+        <v>22.21222600560966</v>
       </c>
       <c r="H5">
-        <v>0.2387541412866303</v>
+        <v>1.563130293067601</v>
       </c>
       <c r="I5">
-        <v>8.899340969082599E-31</v>
+        <v>7.121144682830419E-31</v>
       </c>
       <c r="J5">
-        <v>26.19000053405762</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="K5">
-        <v>45.84999847412109</v>
+        <v>3.289999961853027</v>
       </c>
       <c r="L5">
-        <v>0.9712204216594493</v>
+        <v>1.084197323674211</v>
       </c>
       <c r="M5">
-        <v>-1.120568758358864</v>
+        <v>-0.9683065904350272</v>
       </c>
       <c r="N5">
-        <v>0.4067230592944949</v>
+        <v>0.4069260738192126</v>
       </c>
       <c r="O5">
-        <v>-0.6411222689832936</v>
+        <v>-0.8049253731128365</v>
       </c>
       <c r="P5">
-        <v>0.01047212250471089</v>
+        <v>0.01202553365294941</v>
       </c>
       <c r="Q5" t="s">
         <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>523</v>
+        <v>1927</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>0.1186030612278278</v>
+        <v>0.5722131618297963</v>
       </c>
       <c r="E6">
-        <v>0.2562248295719738</v>
+        <v>0.4058399092439128</v>
       </c>
       <c r="F6">
-        <v>0.0008540674727148094</v>
+        <v>0.0007937944798189679</v>
       </c>
       <c r="G6">
-        <v>6.821267952761373</v>
+        <v>-6.930134336327804</v>
       </c>
       <c r="H6">
-        <v>0.1319846793384855</v>
+        <v>2.116422968156293</v>
       </c>
       <c r="I6">
-        <v>1.020546438731551E-36</v>
+        <v>2.943669235983877E-57</v>
       </c>
       <c r="J6">
-        <v>14.25</v>
+        <v>39.86000061035156</v>
       </c>
       <c r="K6">
-        <v>48.47000122070312</v>
+        <v>22.8799991607666</v>
       </c>
       <c r="L6">
-        <v>2.295922371026084</v>
+        <v>2.776250845595811</v>
       </c>
       <c r="M6">
-        <v>-0.7192075772567961</v>
+        <v>-2.016216745696205</v>
       </c>
       <c r="N6">
-        <v>0.4172046368210396</v>
+        <v>1.023915192658895</v>
       </c>
       <c r="O6">
-        <v>1.031434478588126</v>
+        <v>-1.633620788563789</v>
       </c>
       <c r="P6">
-        <v>0.01139623784644844</v>
+        <v>0.01203752487704693</v>
       </c>
       <c r="Q6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="R6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>339</v>
+        <v>2161</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>0.1566759550099578</v>
+        <v>0.4990969355165102</v>
       </c>
       <c r="E7">
-        <v>0.5869158627899479</v>
+        <v>0.1598133319936722</v>
       </c>
       <c r="F7">
-        <v>0.0008351070318521497</v>
+        <v>0.001784146629560418</v>
       </c>
       <c r="G7">
-        <v>19.21817005957285</v>
+        <v>-4.806042711336762</v>
       </c>
       <c r="H7">
-        <v>0.2048229069738902</v>
+        <v>2.442222146429991</v>
       </c>
       <c r="I7">
-        <v>8.776039697559699E-34</v>
+        <v>1.322402961424194E-52</v>
       </c>
       <c r="J7">
-        <v>26.19000053405762</v>
+        <v>34.65999984741211</v>
       </c>
       <c r="K7">
-        <v>38.61999893188477</v>
+        <v>15.85000038146973</v>
       </c>
       <c r="L7">
-        <v>1.084129822943893</v>
+        <v>1.640860219854925</v>
       </c>
       <c r="M7">
-        <v>-1.073857133157382</v>
+        <v>-1.664497974763233</v>
       </c>
       <c r="N7">
-        <v>0.3867623831899074</v>
+        <v>0.707910016531426</v>
       </c>
       <c r="O7">
-        <v>-0.9384299740724007</v>
+        <v>0.7568206061996889</v>
       </c>
       <c r="P7">
-        <v>0.01175156195905327</v>
+        <v>0.01242615560481506</v>
       </c>
       <c r="Q7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="R7" t="s">
         <v>21</v>
@@ -864,119 +861,119 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>0.1566759550099578</v>
+        <v>0.1390458294074044</v>
       </c>
       <c r="E8">
-        <v>0.571333215366483</v>
+        <v>0.5722131618297963</v>
       </c>
       <c r="F8">
-        <v>0.000538373188105012</v>
+        <v>0.001865080817482149</v>
       </c>
       <c r="G8">
-        <v>23.22819273425464</v>
+        <v>19.18357247549392</v>
       </c>
       <c r="H8">
-        <v>0.8120511658360584</v>
+        <v>0.2057627372884922</v>
       </c>
       <c r="I8">
-        <v>2.986037069114684E-27</v>
+        <v>3.028542373848084E-33</v>
       </c>
       <c r="J8">
-        <v>26.19000053405762</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="K8">
-        <v>4.619999885559082</v>
+        <v>39.86000061035156</v>
       </c>
       <c r="L8">
-        <v>1.271243494349221</v>
+        <v>1.082615377970821</v>
       </c>
       <c r="M8">
-        <v>-0.9933191630303142</v>
+        <v>-1.07700313436947</v>
       </c>
       <c r="N8">
-        <v>0.4314315703795162</v>
+        <v>0.3908592299024823</v>
       </c>
       <c r="O8">
-        <v>-0.7898684934277291</v>
+        <v>-0.8352760723402852</v>
       </c>
       <c r="P8">
-        <v>0.01187377094683254</v>
+        <v>0.01245259242198596</v>
       </c>
       <c r="Q8" t="s">
         <v>18</v>
       </c>
       <c r="R8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1927</v>
+        <v>320</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>0.5869158627899479</v>
+        <v>0.1390458294074044</v>
       </c>
       <c r="E9">
-        <v>0.4102289251195158</v>
+        <v>0.3716801618577805</v>
       </c>
       <c r="F9">
-        <v>0.002265621010043355</v>
+        <v>0.001449869884258206</v>
       </c>
       <c r="G9">
-        <v>-6.752247598578798</v>
+        <v>18.02595908962587</v>
       </c>
       <c r="H9">
-        <v>2.107828878113806</v>
+        <v>0.271155131201279</v>
       </c>
       <c r="I9">
-        <v>3.446155017823786E-58</v>
+        <v>2.51713492968275E-31</v>
       </c>
       <c r="J9">
-        <v>38.61999893188477</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="K9">
-        <v>22.21999931335449</v>
+        <v>34.52000045776367</v>
       </c>
       <c r="L9">
-        <v>2.793835201410374</v>
+        <v>0.9702745195424711</v>
       </c>
       <c r="M9">
-        <v>-2.010104016946912</v>
+        <v>-1.163695482642147</v>
       </c>
       <c r="N9">
-        <v>1.017778267664541</v>
+        <v>0.4038164953370958</v>
       </c>
       <c r="O9">
-        <v>-1.463709693893982</v>
+        <v>-0.8362351057584441</v>
       </c>
       <c r="P9">
-        <v>0.01195101277866793</v>
+        <v>0.01252952701575818</v>
       </c>
       <c r="Q9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1977</v>
+        <v>523</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -985,105 +982,105 @@
         <v>29</v>
       </c>
       <c r="D10">
-        <v>0.493154481531021</v>
+        <v>0.1438425322065153</v>
       </c>
       <c r="E10">
-        <v>0.4102289251195158</v>
+        <v>0.2332337233644378</v>
       </c>
       <c r="F10">
-        <v>0.001499520718242067</v>
+        <v>0.003660714782992973</v>
       </c>
       <c r="G10">
-        <v>4.616505088219289</v>
+        <v>6.96137710023061</v>
       </c>
       <c r="H10">
-        <v>1.756325123600861</v>
+        <v>0.1291225044237595</v>
       </c>
       <c r="I10">
-        <v>7.997750452346645E-57</v>
+        <v>2.849464657077297E-32</v>
       </c>
       <c r="J10">
-        <v>42.65999984741211</v>
+        <v>14.60000038146973</v>
       </c>
       <c r="K10">
-        <v>22.21999931335449</v>
+        <v>48.84999847412109</v>
       </c>
       <c r="L10">
-        <v>2.35096300771179</v>
+        <v>2.304114785382502</v>
       </c>
       <c r="M10">
-        <v>-2.185860195279538</v>
+        <v>-0.712955353646521</v>
       </c>
       <c r="N10">
-        <v>0.8713461796779087</v>
+        <v>0.4326077038416587</v>
       </c>
       <c r="O10">
-        <v>-0.9820482812455467</v>
+        <v>1.330989137163772</v>
       </c>
       <c r="P10">
-        <v>0.01203599225375981</v>
+        <v>0.01260379131560317</v>
       </c>
       <c r="Q10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" t="s">
         <v>22</v>
-      </c>
-      <c r="R10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>0.1566759550099578</v>
+        <v>0.1390458294074044</v>
       </c>
       <c r="E11">
-        <v>0.6008119148035892</v>
+        <v>0.2332337233644378</v>
       </c>
       <c r="F11">
-        <v>0.0006407450453806911</v>
+        <v>0.0009612805455159189</v>
       </c>
       <c r="G11">
-        <v>22.40156816440199</v>
+        <v>21.91464500747993</v>
       </c>
       <c r="H11">
-        <v>1.500576858028395</v>
+        <v>0.1106350480693509</v>
       </c>
       <c r="I11">
-        <v>1.707887677355698E-29</v>
+        <v>5.376217203247783E-26</v>
       </c>
       <c r="J11">
-        <v>26.19000053405762</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="K11">
-        <v>3.160000085830688</v>
+        <v>48.84999847412109</v>
       </c>
       <c r="L11">
-        <v>1.089982785710756</v>
+        <v>1.115509620415299</v>
       </c>
       <c r="M11">
-        <v>-1.026722106922676</v>
+        <v>-1.087125388396302</v>
       </c>
       <c r="N11">
-        <v>0.4155494814652534</v>
+        <v>0.4420507856423937</v>
       </c>
       <c r="O11">
-        <v>-0.9533906305096451</v>
+        <v>-0.7691676997914927</v>
       </c>
       <c r="P11">
-        <v>0.01211129904124507</v>
+        <v>0.01269745618812593</v>
       </c>
       <c r="Q11" t="s">
         <v>18</v>
       </c>
       <c r="R11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -70,6 +70,9 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
     <t>BBAS3</t>
   </si>
   <si>
@@ -79,31 +82,34 @@
     <t>ELET3</t>
   </si>
   <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
-    <t>ENGI11</t>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>UGPA3</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
   </si>
   <si>
     <t>LWSA3</t>
   </si>
   <si>
-    <t>RAIZ4</t>
+    <t>CSNA3</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>USIM5</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
   </si>
   <si>
     <t>IGTI11</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>RENT3</t>
   </si>
 </sst>
 </file>
@@ -525,111 +531,111 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>343</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>0.1390458294074044</v>
+        <v>0.2731426248719333</v>
       </c>
       <c r="E2">
-        <v>0.4724474188846647</v>
+        <v>0.2829237073014844</v>
       </c>
       <c r="F2">
-        <v>0.0001581881710156407</v>
+        <v>4.951032286374445E-05</v>
       </c>
       <c r="G2">
-        <v>15.55101621630725</v>
+        <v>4.568733767374218</v>
       </c>
       <c r="H2">
-        <v>0.2459932352123011</v>
+        <v>0.6599842522735514</v>
       </c>
       <c r="I2">
-        <v>5.539695958245621E-32</v>
+        <v>9.18772889739591E-60</v>
       </c>
       <c r="J2">
-        <v>26.54999923706055</v>
+        <v>12.39000034332275</v>
       </c>
       <c r="K2">
-        <v>46.58000183105469</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="L2">
-        <v>0.9613169315882395</v>
+        <v>0.6823286600965552</v>
       </c>
       <c r="M2">
-        <v>-1.134091795392912</v>
+        <v>-0.5251523187784493</v>
       </c>
       <c r="N2">
-        <v>0.3993320111804806</v>
+        <v>0.2144392956954716</v>
       </c>
       <c r="O2">
-        <v>-0.459382325862757</v>
+        <v>-0.2305411759067857</v>
       </c>
       <c r="P2">
-        <v>0.0103702557925313</v>
+        <v>0.009181167091448379</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1778</v>
+        <v>384</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>0.4708363081285186</v>
+        <v>0.1022170044493106</v>
       </c>
       <c r="E3">
-        <v>0.5477002328797346</v>
+        <v>0.8849337967370594</v>
       </c>
       <c r="F3">
-        <v>0.000430128454964044</v>
+        <v>6.848405300855913E-05</v>
       </c>
       <c r="G3">
-        <v>8.565575170943822</v>
+        <v>22.12150879536641</v>
       </c>
       <c r="H3">
-        <v>2.569167003973953</v>
+        <v>0.1996279817240711</v>
       </c>
       <c r="I3">
-        <v>9.190824174091926E-70</v>
+        <v>1.696063736846111E-38</v>
       </c>
       <c r="J3">
-        <v>21.77000045776367</v>
+        <v>27.1200008392334</v>
       </c>
       <c r="K3">
-        <v>4.699999809265137</v>
+        <v>23.09000015258789</v>
       </c>
       <c r="L3">
-        <v>1.181599755894524</v>
+        <v>1.059802332293614</v>
       </c>
       <c r="M3">
-        <v>-1.878590172779809</v>
+        <v>-0.7054353012924608</v>
       </c>
       <c r="N3">
-        <v>0.5239721134760784</v>
+        <v>0.3574813625015899</v>
       </c>
       <c r="O3">
-        <v>1.129340858171989</v>
+        <v>0.3890819153973784</v>
       </c>
       <c r="P3">
-        <v>0.01060895547480209</v>
+        <v>0.009447786179471973</v>
       </c>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -637,450 +643,450 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4">
-        <v>0.1390458294074044</v>
+        <v>0.1022170044493106</v>
       </c>
       <c r="E4">
-        <v>0.5477002328797346</v>
+        <v>0.8624232175531081</v>
       </c>
       <c r="F4">
-        <v>0.0007321409049869026</v>
+        <v>0.0001874352002713184</v>
       </c>
       <c r="G4">
-        <v>23.12899921903287</v>
+        <v>24.90561790908278</v>
       </c>
       <c r="H4">
-        <v>0.8340877349174403</v>
+        <v>0.1562029549107239</v>
       </c>
       <c r="I4">
-        <v>4.655698011515374E-28</v>
+        <v>5.166153390142863E-33</v>
       </c>
       <c r="J4">
-        <v>26.54999923706055</v>
+        <v>27.1200008392334</v>
       </c>
       <c r="K4">
-        <v>4.699999809265137</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="L4">
-        <v>1.254745021893733</v>
+        <v>0.9889826732813134</v>
       </c>
       <c r="M4">
-        <v>-1.02744689495405</v>
+        <v>-0.9393948906195462</v>
       </c>
       <c r="N4">
-        <v>0.4268495805500255</v>
+        <v>0.392408660184264</v>
       </c>
       <c r="O4">
-        <v>-0.4992121769946825</v>
+        <v>0.5633177444136235</v>
       </c>
       <c r="P4">
-        <v>0.01188223682662591</v>
+        <v>0.01031845835321279</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>372</v>
+        <v>1778</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5">
-        <v>0.1390458294074044</v>
+        <v>0.4893143379644736</v>
       </c>
       <c r="E5">
-        <v>0.5104650354440179</v>
+        <v>0.5333657213525911</v>
       </c>
       <c r="F5">
-        <v>0.0008963338569492902</v>
+        <v>0.0004006303763328279</v>
       </c>
       <c r="G5">
-        <v>22.21222600560966</v>
+        <v>8.585628510082307</v>
       </c>
       <c r="H5">
-        <v>1.563130293067601</v>
+        <v>2.567019855550355</v>
       </c>
       <c r="I5">
-        <v>7.121144682830419E-31</v>
+        <v>8.786597426283548E-69</v>
       </c>
       <c r="J5">
-        <v>26.54999923706055</v>
+        <v>21.64999961853027</v>
       </c>
       <c r="K5">
-        <v>3.289999961853027</v>
+        <v>4.670000076293945</v>
       </c>
       <c r="L5">
-        <v>1.084197323674211</v>
+        <v>1.173999878022446</v>
       </c>
       <c r="M5">
-        <v>-0.9683065904350272</v>
+        <v>-1.886490652168355</v>
       </c>
       <c r="N5">
-        <v>0.4069260738192126</v>
+        <v>0.5317090481418162</v>
       </c>
       <c r="O5">
-        <v>-0.8049253731128365</v>
+        <v>1.076388187179738</v>
       </c>
       <c r="P5">
-        <v>0.01202553365294941</v>
+        <v>0.01079942607416709</v>
       </c>
       <c r="Q5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1927</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
       </c>
       <c r="D6">
-        <v>0.5722131618297963</v>
+        <v>0.1022170044493106</v>
       </c>
       <c r="E6">
-        <v>0.4058399092439128</v>
+        <v>0.7238770208343553</v>
       </c>
       <c r="F6">
-        <v>0.0007937944798189679</v>
+        <v>0.0002861504935101829</v>
       </c>
       <c r="G6">
-        <v>-6.930134336327804</v>
+        <v>22.90128268842374</v>
       </c>
       <c r="H6">
-        <v>2.116422968156293</v>
+        <v>0.3093827693378661</v>
       </c>
       <c r="I6">
-        <v>2.943669235983877E-57</v>
+        <v>9.943824448946153E-30</v>
       </c>
       <c r="J6">
-        <v>39.86000061035156</v>
+        <v>27.1200008392334</v>
       </c>
       <c r="K6">
-        <v>22.8799991607666</v>
+        <v>11.68000030517578</v>
       </c>
       <c r="L6">
-        <v>2.776250845595811</v>
+        <v>1.157371386764805</v>
       </c>
       <c r="M6">
-        <v>-2.016216745696205</v>
+        <v>-1.020392993215641</v>
       </c>
       <c r="N6">
-        <v>1.023915192658895</v>
+        <v>0.4149220703636414</v>
       </c>
       <c r="O6">
-        <v>-1.633620788563789</v>
+        <v>0.6051273105272497</v>
       </c>
       <c r="P6">
-        <v>0.01203752487704693</v>
+        <v>0.01102474578008547</v>
       </c>
       <c r="Q6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2161</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
       <c r="D7">
-        <v>0.4990969355165102</v>
+        <v>0.1022170044493106</v>
       </c>
       <c r="E7">
-        <v>0.1598133319936722</v>
+        <v>0.7292715708306415</v>
       </c>
       <c r="F7">
-        <v>0.001784146629560418</v>
+        <v>0.000650209609624857</v>
       </c>
       <c r="G7">
-        <v>-4.806042711336762</v>
+        <v>29.95134220753746</v>
       </c>
       <c r="H7">
-        <v>2.442222146429991</v>
+        <v>-0.08178100078992777</v>
       </c>
       <c r="I7">
-        <v>1.322402961424194E-52</v>
+        <v>1.168476920971112E-27</v>
       </c>
       <c r="J7">
-        <v>34.65999984741211</v>
+        <v>27.1200008392334</v>
       </c>
       <c r="K7">
-        <v>15.85000038146973</v>
+        <v>43.5</v>
       </c>
       <c r="L7">
-        <v>1.640860219854925</v>
+        <v>1.200190386713356</v>
       </c>
       <c r="M7">
-        <v>-1.664497974763233</v>
+        <v>-0.9446542970786957</v>
       </c>
       <c r="N7">
-        <v>0.707910016531426</v>
+        <v>0.4297609480496554</v>
       </c>
       <c r="O7">
-        <v>0.7568206061996889</v>
+        <v>0.7261321660577984</v>
       </c>
       <c r="P7">
-        <v>0.01242615560481506</v>
+        <v>0.01166932232137021</v>
       </c>
       <c r="Q7" t="s">
         <v>27</v>
       </c>
       <c r="R7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>0.1390458294074044</v>
+        <v>0.1022170044493106</v>
       </c>
       <c r="E8">
-        <v>0.5722131618297963</v>
+        <v>0.4428521140852065</v>
       </c>
       <c r="F8">
-        <v>0.001865080817482149</v>
+        <v>0.0007664138119938842</v>
       </c>
       <c r="G8">
-        <v>19.18357247549392</v>
+        <v>17.95132321144878</v>
       </c>
       <c r="H8">
-        <v>0.2057627372884922</v>
+        <v>0.2734035881150284</v>
       </c>
       <c r="I8">
-        <v>3.028542373848084E-33</v>
+        <v>1.261276609397676E-31</v>
       </c>
       <c r="J8">
-        <v>26.54999923706055</v>
+        <v>27.1200008392334</v>
       </c>
       <c r="K8">
-        <v>39.86000061035156</v>
+        <v>35.06000137329102</v>
       </c>
       <c r="L8">
-        <v>1.082615377970821</v>
+        <v>0.9656736830029082</v>
       </c>
       <c r="M8">
-        <v>-1.07700313436947</v>
+        <v>-1.166406525728902</v>
       </c>
       <c r="N8">
-        <v>0.3908592299024823</v>
+        <v>0.401769477204941</v>
       </c>
       <c r="O8">
-        <v>-0.8352760723402852</v>
+        <v>-0.4168525469909632</v>
       </c>
       <c r="P8">
-        <v>0.01245259242198596</v>
+        <v>0.01206177647918152</v>
       </c>
       <c r="Q8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>320</v>
+        <v>385</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>0.1390458294074044</v>
+        <v>0.1022170044493106</v>
       </c>
       <c r="E9">
-        <v>0.3716801618577805</v>
+        <v>0.89572214082887</v>
       </c>
       <c r="F9">
-        <v>0.001449869884258206</v>
+        <v>0.001526071708270491</v>
       </c>
       <c r="G9">
-        <v>18.02595908962587</v>
+        <v>23.8247713540078</v>
       </c>
       <c r="H9">
-        <v>0.271155131201279</v>
+        <v>0.3975221080388555</v>
       </c>
       <c r="I9">
-        <v>2.51713492968275E-31</v>
+        <v>1.567150014272477E-26</v>
       </c>
       <c r="J9">
-        <v>26.54999923706055</v>
+        <v>27.1200008392334</v>
       </c>
       <c r="K9">
-        <v>34.52000045776367</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="L9">
-        <v>0.9702745195424711</v>
+        <v>1.394974325725698</v>
       </c>
       <c r="M9">
-        <v>-1.163695482642147</v>
+        <v>-1.15831670870606</v>
       </c>
       <c r="N9">
-        <v>0.4038164953370958</v>
+        <v>0.4380613832693414</v>
       </c>
       <c r="O9">
-        <v>-0.8362351057584441</v>
+        <v>0.8862455332565342</v>
       </c>
       <c r="P9">
-        <v>0.01252952701575818</v>
+        <v>0.01218033839432701</v>
       </c>
       <c r="Q9" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="R9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>523</v>
+        <v>327</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>0.1438425322065153</v>
+        <v>0.1022170044493106</v>
       </c>
       <c r="E10">
-        <v>0.2332337233644378</v>
+        <v>0.7784325164269618</v>
       </c>
       <c r="F10">
-        <v>0.003660714782992973</v>
+        <v>0.001057049305179461</v>
       </c>
       <c r="G10">
-        <v>6.96137710023061</v>
+        <v>32.21578141166653</v>
       </c>
       <c r="H10">
-        <v>0.1291225044237595</v>
+        <v>-0.5182777152412368</v>
       </c>
       <c r="I10">
-        <v>2.849464657077297E-32</v>
+        <v>3.206912024139659E-21</v>
       </c>
       <c r="J10">
-        <v>14.60000038146973</v>
+        <v>27.1200008392334</v>
       </c>
       <c r="K10">
-        <v>48.84999847412109</v>
+        <v>11</v>
       </c>
       <c r="L10">
-        <v>2.304114785382502</v>
+        <v>1.374490515823858</v>
       </c>
       <c r="M10">
-        <v>-0.712955353646521</v>
+        <v>-0.9708825086495203</v>
       </c>
       <c r="N10">
-        <v>0.4326077038416587</v>
+        <v>0.4793179704285466</v>
       </c>
       <c r="O10">
-        <v>1.330989137163772</v>
+        <v>0.605274295220477</v>
       </c>
       <c r="P10">
-        <v>0.01260379131560317</v>
+        <v>0.01227080758425579</v>
       </c>
       <c r="Q10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>374</v>
+        <v>1927</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.1390458294074044</v>
+        <v>0.5741640000189464</v>
       </c>
       <c r="E11">
-        <v>0.2332337233644378</v>
+        <v>0.3678033233336244</v>
       </c>
       <c r="F11">
-        <v>0.0009612805455159189</v>
+        <v>0.001162457475315604</v>
       </c>
       <c r="G11">
-        <v>21.91464500747993</v>
+        <v>-6.769326611686143</v>
       </c>
       <c r="H11">
-        <v>0.1106350480693509</v>
+        <v>2.108595687671963</v>
       </c>
       <c r="I11">
-        <v>5.376217203247783E-26</v>
+        <v>1.725852886634101E-56</v>
       </c>
       <c r="J11">
-        <v>26.54999923706055</v>
+        <v>39.41999816894531</v>
       </c>
       <c r="K11">
-        <v>48.84999847412109</v>
+        <v>22.84000015258789</v>
       </c>
       <c r="L11">
-        <v>1.115509620415299</v>
+        <v>2.79347326356806</v>
       </c>
       <c r="M11">
-        <v>-1.087125388396302</v>
+        <v>-2.009442396362701</v>
       </c>
       <c r="N11">
-        <v>0.4420507856423937</v>
+        <v>1.03599941638902</v>
       </c>
       <c r="O11">
-        <v>-0.7691676997914927</v>
+        <v>-1.971001047542352</v>
       </c>
       <c r="P11">
-        <v>0.01269745618812593</v>
+        <v>0.01243481193366753</v>
       </c>
       <c r="Q11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>N</t>
   </si>
@@ -70,16 +70,25 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
+  </si>
+  <si>
     <t>ABEV3</t>
   </si>
   <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>ELET3</t>
+    <t>CSNA3</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>GOLL4</t>
   </si>
   <si>
     <t>B3SA3</t>
@@ -91,25 +100,10 @@
     <t>YDUQ3</t>
   </si>
   <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
-    <t>EMBR3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>USIM5</t>
-  </si>
-  <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
+    <t>CSAN3</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
   </si>
 </sst>
 </file>
@@ -531,111 +525,111 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>3</v>
+        <v>360</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>0.2731426248719333</v>
+        <v>0.1067134222756141</v>
       </c>
       <c r="E2">
-        <v>0.2829237073014844</v>
+        <v>0.583936689694371</v>
       </c>
       <c r="F2">
-        <v>4.951032286374445E-05</v>
+        <v>1.523207394744023E-05</v>
       </c>
       <c r="G2">
-        <v>4.568733767374218</v>
+        <v>24.70995114922432</v>
       </c>
       <c r="H2">
-        <v>0.6599842522735514</v>
+        <v>0.1598842042341267</v>
       </c>
       <c r="I2">
-        <v>9.18772889739591E-60</v>
+        <v>2.577664816955935E-38</v>
       </c>
       <c r="J2">
-        <v>12.39000034332275</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="K2">
-        <v>12.19999980926514</v>
+        <v>13.28999996185303</v>
       </c>
       <c r="L2">
-        <v>0.6823286600965552</v>
+        <v>0.8697172926652286</v>
       </c>
       <c r="M2">
-        <v>-0.5251523187784493</v>
+        <v>-0.8958026992013544</v>
       </c>
       <c r="N2">
-        <v>0.2144392956954716</v>
+        <v>0.3585518651663774</v>
       </c>
       <c r="O2">
-        <v>-0.2305411759067857</v>
+        <v>0.6351870959577304</v>
       </c>
       <c r="P2">
-        <v>0.009181167091448379</v>
+        <v>0.008417675796672474</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>384</v>
+        <v>2118</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>0.1022170044493106</v>
+        <v>0.3910937624822285</v>
       </c>
       <c r="E3">
-        <v>0.8849337967370594</v>
+        <v>0.4672814928304919</v>
       </c>
       <c r="F3">
-        <v>6.848405300855913E-05</v>
+        <v>0.001750248511861881</v>
       </c>
       <c r="G3">
-        <v>22.12150879536641</v>
+        <v>41.43956210072519</v>
       </c>
       <c r="H3">
-        <v>0.1996279817240711</v>
+        <v>3.146338190036458</v>
       </c>
       <c r="I3">
-        <v>1.696063736846111E-38</v>
+        <v>5.25551872122223E-48</v>
       </c>
       <c r="J3">
-        <v>27.1200008392334</v>
+        <v>46.29999923706055</v>
       </c>
       <c r="K3">
-        <v>23.09000015258789</v>
+        <v>1.149999976158142</v>
       </c>
       <c r="L3">
-        <v>1.059802332293614</v>
+        <v>2.088525140977282</v>
       </c>
       <c r="M3">
-        <v>-0.7054353012924608</v>
+        <v>-4.327788463038893</v>
       </c>
       <c r="N3">
-        <v>0.3574813625015899</v>
+        <v>0.9602380806452416</v>
       </c>
       <c r="O3">
-        <v>0.3890819153973784</v>
+        <v>1.242148292807978</v>
       </c>
       <c r="P3">
-        <v>0.009447786179471973</v>
+        <v>0.008455358760035175</v>
       </c>
       <c r="Q3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -643,450 +637,450 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>390</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>0.1022170044493106</v>
+        <v>0.2618999893262399</v>
       </c>
       <c r="E4">
-        <v>0.8624232175531081</v>
+        <v>0.4478768997544041</v>
       </c>
       <c r="F4">
-        <v>0.0001874352002713184</v>
+        <v>7.809095388209479E-05</v>
       </c>
       <c r="G4">
-        <v>24.90561790908278</v>
+        <v>4.628965321480877</v>
       </c>
       <c r="H4">
-        <v>0.1562029549107239</v>
+        <v>0.654479162327581</v>
       </c>
       <c r="I4">
-        <v>5.166153390142863E-33</v>
+        <v>1.197318505786689E-58</v>
       </c>
       <c r="J4">
-        <v>27.1200008392334</v>
+        <v>12.56999969482422</v>
       </c>
       <c r="K4">
-        <v>10.56999969482422</v>
+        <v>12.64000034332275</v>
       </c>
       <c r="L4">
-        <v>0.9889826732813134</v>
+        <v>0.6904864464819909</v>
       </c>
       <c r="M4">
-        <v>-0.9393948906195462</v>
+        <v>-0.5220202863469723</v>
       </c>
       <c r="N4">
-        <v>0.392408660184264</v>
+        <v>0.2162816861278132</v>
       </c>
       <c r="O4">
-        <v>0.5633177444136235</v>
+        <v>-0.3315824631748709</v>
       </c>
       <c r="P4">
-        <v>0.01031845835321279</v>
+        <v>0.009415875599063235</v>
       </c>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1778</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>0.4893143379644736</v>
+        <v>0.1067134222756141</v>
       </c>
       <c r="E5">
-        <v>0.5333657213525911</v>
+        <v>0.8324895343127572</v>
       </c>
       <c r="F5">
-        <v>0.0004006303763328279</v>
+        <v>9.040025376035297E-05</v>
       </c>
       <c r="G5">
-        <v>8.585628510082307</v>
+        <v>22.13685323838383</v>
       </c>
       <c r="H5">
-        <v>2.567019855550355</v>
+        <v>0.1992480068483898</v>
       </c>
       <c r="I5">
-        <v>8.786597426283548E-69</v>
+        <v>5.10369673141297E-38</v>
       </c>
       <c r="J5">
-        <v>21.64999961853027</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="K5">
-        <v>4.670000076293945</v>
+        <v>23.92000007629395</v>
       </c>
       <c r="L5">
-        <v>1.173999878022446</v>
+        <v>1.05508350098944</v>
       </c>
       <c r="M5">
-        <v>-1.886490652168355</v>
+        <v>-0.7106686126360913</v>
       </c>
       <c r="N5">
-        <v>0.5317090481418162</v>
+        <v>0.3603653119613278</v>
       </c>
       <c r="O5">
-        <v>1.076388187179738</v>
+        <v>0.5671337359557587</v>
       </c>
       <c r="P5">
-        <v>0.01079942607416709</v>
+        <v>0.009584498681874123</v>
       </c>
       <c r="Q5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>0.1022170044493106</v>
+        <v>0.1067134222756141</v>
       </c>
       <c r="E6">
-        <v>0.7238770208343553</v>
+        <v>0.4672814928304919</v>
       </c>
       <c r="F6">
-        <v>0.0002861504935101829</v>
+        <v>1.57186070083436E-06</v>
       </c>
       <c r="G6">
-        <v>22.90128268842374</v>
+        <v>25.88459921996165</v>
       </c>
       <c r="H6">
-        <v>0.3093827693378661</v>
+        <v>0.8500486892162432</v>
       </c>
       <c r="I6">
-        <v>9.943824448946153E-30</v>
+        <v>5.130445661126848E-27</v>
       </c>
       <c r="J6">
-        <v>27.1200008392334</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="K6">
-        <v>11.68000030517578</v>
+        <v>1.149999976158142</v>
       </c>
       <c r="L6">
-        <v>1.157371386764805</v>
+        <v>1.278885954433807</v>
       </c>
       <c r="M6">
-        <v>-1.020392993215641</v>
+        <v>-1.94898065828734</v>
       </c>
       <c r="N6">
-        <v>0.4149220703636414</v>
+        <v>0.4344280252992581</v>
       </c>
       <c r="O6">
-        <v>0.6051273105272497</v>
+        <v>0.6078441210609058</v>
       </c>
       <c r="P6">
-        <v>0.01102474578008547</v>
+        <v>0.009626153123896667</v>
       </c>
       <c r="Q6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
       <c r="D7">
-        <v>0.1022170044493106</v>
+        <v>0.1067134222756141</v>
       </c>
       <c r="E7">
-        <v>0.7292715708306415</v>
+        <v>0.842120556447866</v>
       </c>
       <c r="F7">
-        <v>0.000650209609624857</v>
+        <v>0.0003884269382203022</v>
       </c>
       <c r="G7">
-        <v>29.95134220753746</v>
+        <v>24.93761953142458</v>
       </c>
       <c r="H7">
-        <v>-0.08178100078992777</v>
+        <v>0.1547372743229033</v>
       </c>
       <c r="I7">
-        <v>1.168476920971112E-27</v>
+        <v>5.486158468535543E-32</v>
       </c>
       <c r="J7">
-        <v>27.1200008392334</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="K7">
-        <v>43.5</v>
+        <v>10.14000034332275</v>
       </c>
       <c r="L7">
-        <v>1.200190386713356</v>
+        <v>0.9813300348053247</v>
       </c>
       <c r="M7">
-        <v>-0.9446542970786957</v>
+        <v>-0.9477697406556302</v>
       </c>
       <c r="N7">
-        <v>0.4297609480496554</v>
+        <v>0.3992690403532214</v>
       </c>
       <c r="O7">
-        <v>0.7261321660577984</v>
+        <v>0.9633437671708418</v>
       </c>
       <c r="P7">
-        <v>0.01166932232137021</v>
+        <v>0.0106618607416186</v>
       </c>
       <c r="Q7" t="s">
         <v>27</v>
       </c>
       <c r="R7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>0.1022170044493106</v>
+        <v>0.1067134222756141</v>
       </c>
       <c r="E8">
-        <v>0.4428521140852065</v>
+        <v>0.7125253801789916</v>
       </c>
       <c r="F8">
-        <v>0.0007664138119938842</v>
+        <v>0.00021848224263046</v>
       </c>
       <c r="G8">
-        <v>17.95132321144878</v>
+        <v>22.87397290642052</v>
       </c>
       <c r="H8">
-        <v>0.2734035881150284</v>
+        <v>0.3121504803290045</v>
       </c>
       <c r="I8">
-        <v>1.261276609397676E-31</v>
+        <v>1.243218313449185E-29</v>
       </c>
       <c r="J8">
-        <v>27.1200008392334</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="K8">
-        <v>35.06000137329102</v>
+        <v>12.1899995803833</v>
       </c>
       <c r="L8">
-        <v>0.9656736830029082</v>
+        <v>1.145042665154023</v>
       </c>
       <c r="M8">
-        <v>-1.166406525728902</v>
+        <v>-1.040098152818782</v>
       </c>
       <c r="N8">
-        <v>0.401769477204941</v>
+        <v>0.4155638005661072</v>
       </c>
       <c r="O8">
-        <v>-0.4168525469909632</v>
+        <v>0.790912182706959</v>
       </c>
       <c r="P8">
-        <v>0.01206177647918152</v>
+        <v>0.01083912291264194</v>
       </c>
       <c r="Q8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>385</v>
+        <v>333</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>0.1022170044493106</v>
+        <v>0.1067134222756141</v>
       </c>
       <c r="E9">
-        <v>0.89572214082887</v>
+        <v>0.2479516172296652</v>
       </c>
       <c r="F9">
-        <v>0.001526071708270491</v>
+        <v>0.000164955428606849</v>
       </c>
       <c r="G9">
-        <v>23.8247713540078</v>
+        <v>22.32076346465697</v>
       </c>
       <c r="H9">
-        <v>0.3975221080388555</v>
+        <v>0.3338804530123252</v>
       </c>
       <c r="I9">
-        <v>1.567150014272477E-26</v>
+        <v>1.140471194654905E-32</v>
       </c>
       <c r="J9">
-        <v>27.1200008392334</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="K9">
-        <v>6.059999942779541</v>
+        <v>13.71000003814697</v>
       </c>
       <c r="L9">
-        <v>1.394974325725698</v>
+        <v>1.024450704657589</v>
       </c>
       <c r="M9">
-        <v>-1.15831670870606</v>
+        <v>-1.073797636242098</v>
       </c>
       <c r="N9">
-        <v>0.4380613832693414</v>
+        <v>0.3946683576006493</v>
       </c>
       <c r="O9">
-        <v>0.8862455332565342</v>
+        <v>0.5717348251620189</v>
       </c>
       <c r="P9">
-        <v>0.01218033839432701</v>
+        <v>0.01086277592120171</v>
       </c>
       <c r="Q9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>327</v>
+        <v>1659</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>0.1022170044493106</v>
+        <v>0.7125253801789916</v>
       </c>
       <c r="E10">
-        <v>0.7784325164269618</v>
+        <v>0.4672814928304919</v>
       </c>
       <c r="F10">
-        <v>0.001057049305179461</v>
+        <v>3.400012325761992E-06</v>
       </c>
       <c r="G10">
-        <v>32.21578141166653</v>
+        <v>9.84059600021342</v>
       </c>
       <c r="H10">
-        <v>-0.5182777152412368</v>
+        <v>2.598270484227605</v>
       </c>
       <c r="I10">
-        <v>3.206912024139659E-21</v>
+        <v>7.0242867587997E-59</v>
       </c>
       <c r="J10">
-        <v>27.1200008392334</v>
+        <v>12.1899995803833</v>
       </c>
       <c r="K10">
-        <v>11</v>
+        <v>1.149999976158142</v>
       </c>
       <c r="L10">
-        <v>1.374490515823858</v>
+        <v>1.540551497646973</v>
       </c>
       <c r="M10">
-        <v>-0.9708825086495203</v>
+        <v>-2.903621076095234</v>
       </c>
       <c r="N10">
-        <v>0.4793179704285466</v>
+        <v>0.6338049364807801</v>
       </c>
       <c r="O10">
-        <v>0.605274295220477</v>
+        <v>-0.6386074147442686</v>
       </c>
       <c r="P10">
-        <v>0.01227080758425579</v>
+        <v>0.01088218929732455</v>
       </c>
       <c r="Q10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="R10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1927</v>
+        <v>1485</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>0.5741640000189464</v>
+        <v>0.5567577057111749</v>
       </c>
       <c r="E11">
-        <v>0.3678033233336244</v>
+        <v>0.2245099382384187</v>
       </c>
       <c r="F11">
-        <v>0.001162457475315604</v>
+        <v>0.000375033750325633</v>
       </c>
       <c r="G11">
-        <v>-6.769326611686143</v>
+        <v>1.131242350862032</v>
       </c>
       <c r="H11">
-        <v>2.108595687671963</v>
+        <v>0.5717804491399351</v>
       </c>
       <c r="I11">
-        <v>1.725852886634101E-56</v>
+        <v>1.405365048664576E-41</v>
       </c>
       <c r="J11">
-        <v>39.41999816894531</v>
+        <v>10.39999961853027</v>
       </c>
       <c r="K11">
-        <v>22.84000015258789</v>
+        <v>15.85000038146973</v>
       </c>
       <c r="L11">
-        <v>2.79347326356806</v>
+        <v>0.3742020440503726</v>
       </c>
       <c r="M11">
-        <v>-2.009442396362701</v>
+        <v>-0.569507407238028</v>
       </c>
       <c r="N11">
-        <v>1.03599941638902</v>
+        <v>0.2048429890857208</v>
       </c>
       <c r="O11">
-        <v>-1.971001047542352</v>
+        <v>0.2060369306833394</v>
       </c>
       <c r="P11">
-        <v>0.01243481193366753</v>
+        <v>0.01183045916063994</v>
       </c>
       <c r="Q11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>N</t>
   </si>
@@ -73,37 +73,34 @@
     <t>BBAS3</t>
   </si>
   <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>GOLL4</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
     <t>ENGI11</t>
   </si>
   <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
-    <t>MGLU3</t>
-  </si>
-  <si>
-    <t>GOLL4</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
   </si>
   <si>
     <t>UGPA3</t>
   </si>
   <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
-    <t>CSAN3</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
+    <t>ELET3</t>
   </si>
 </sst>
 </file>
@@ -525,7 +522,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -534,43 +531,43 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>0.1067134222756141</v>
+        <v>0.1573310746377178</v>
       </c>
       <c r="E2">
-        <v>0.583936689694371</v>
+        <v>0.2878505916207216</v>
       </c>
       <c r="F2">
-        <v>1.523207394744023E-05</v>
+        <v>6.052596842374858E-05</v>
       </c>
       <c r="G2">
-        <v>24.70995114922432</v>
+        <v>15.28598077259707</v>
       </c>
       <c r="H2">
-        <v>0.1598842042341267</v>
+        <v>0.257396493644299</v>
       </c>
       <c r="I2">
-        <v>2.577664816955935E-38</v>
+        <v>2.401165358368817E-33</v>
       </c>
       <c r="J2">
-        <v>27.46999931335449</v>
+        <v>28.26000022888184</v>
       </c>
       <c r="K2">
-        <v>13.28999996185303</v>
+        <v>48.65999984741211</v>
       </c>
       <c r="L2">
-        <v>0.8697172926652286</v>
+        <v>0.9472041819250983</v>
       </c>
       <c r="M2">
-        <v>-0.8958026992013544</v>
+        <v>-1.151149027993085</v>
       </c>
       <c r="N2">
-        <v>0.3585518651663774</v>
+        <v>0.3953956431733422</v>
       </c>
       <c r="O2">
-        <v>0.6351870959577304</v>
+        <v>0.4491061148287674</v>
       </c>
       <c r="P2">
-        <v>0.008417675796672474</v>
+        <v>0.009868803976347562</v>
       </c>
       <c r="Q2" t="s">
         <v>23</v>
@@ -581,7 +578,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2118</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -590,43 +587,43 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>0.3910937624822285</v>
+        <v>0.3702653752651619</v>
       </c>
       <c r="E3">
-        <v>0.4672814928304919</v>
+        <v>0.4697901721600257</v>
       </c>
       <c r="F3">
-        <v>0.001750248511861881</v>
+        <v>8.920537818455963E-05</v>
       </c>
       <c r="G3">
-        <v>41.43956210072519</v>
+        <v>3.097500135343369</v>
       </c>
       <c r="H3">
-        <v>3.146338190036458</v>
+        <v>0.2669089162369383</v>
       </c>
       <c r="I3">
-        <v>5.25551872122223E-48</v>
+        <v>3.518107171029698E-53</v>
       </c>
       <c r="J3">
-        <v>46.29999923706055</v>
+        <v>12.97999954223633</v>
       </c>
       <c r="K3">
-        <v>1.149999976158142</v>
+        <v>35.79999923706055</v>
       </c>
       <c r="L3">
-        <v>2.088525140977282</v>
+        <v>0.7620162706741702</v>
       </c>
       <c r="M3">
-        <v>-4.327788463038893</v>
+        <v>-0.5976635868960223</v>
       </c>
       <c r="N3">
-        <v>0.9602380806452416</v>
+        <v>0.2410576396979252</v>
       </c>
       <c r="O3">
-        <v>1.242148292807978</v>
+        <v>0.3271604092459111</v>
       </c>
       <c r="P3">
-        <v>0.008455358760035175</v>
+        <v>0.01021199868735237</v>
       </c>
       <c r="Q3" t="s">
         <v>24</v>
@@ -637,7 +634,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>3</v>
+        <v>1778</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -646,54 +643,54 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>0.2618999893262399</v>
+        <v>0.592221591622807</v>
       </c>
       <c r="E4">
-        <v>0.4478768997544041</v>
+        <v>0.5333537849333656</v>
       </c>
       <c r="F4">
-        <v>7.809095388209479E-05</v>
+        <v>0.0002664496884213953</v>
       </c>
       <c r="G4">
-        <v>4.628965321480877</v>
+        <v>8.59512294989398</v>
       </c>
       <c r="H4">
-        <v>0.654479162327581</v>
+        <v>2.569395316677555</v>
       </c>
       <c r="I4">
-        <v>1.197318505786689E-58</v>
+        <v>1.06667520094605E-68</v>
       </c>
       <c r="J4">
-        <v>12.56999969482422</v>
+        <v>21.75</v>
       </c>
       <c r="K4">
-        <v>12.64000034332275</v>
+        <v>4.75</v>
       </c>
       <c r="L4">
-        <v>0.6904864464819909</v>
+        <v>1.150727763219926</v>
       </c>
       <c r="M4">
-        <v>-0.5220202863469723</v>
+        <v>-1.90943020159752</v>
       </c>
       <c r="N4">
-        <v>0.2162816861278132</v>
+        <v>0.5371856026590217</v>
       </c>
       <c r="O4">
-        <v>-0.3315824631748709</v>
+        <v>0.9502492958876321</v>
       </c>
       <c r="P4">
-        <v>0.009415875599063235</v>
+        <v>0.01077248444664812</v>
       </c>
       <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
         <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -702,43 +699,43 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>0.1067134222756141</v>
+        <v>0.1573310746377178</v>
       </c>
       <c r="E5">
-        <v>0.8324895343127572</v>
+        <v>0.3811126133084941</v>
       </c>
       <c r="F5">
-        <v>9.040025376035297E-05</v>
+        <v>0.0004306298194519084</v>
       </c>
       <c r="G5">
-        <v>22.13685323838383</v>
+        <v>22.09475998789076</v>
       </c>
       <c r="H5">
-        <v>0.1992480068483898</v>
+        <v>1.605533656750481</v>
       </c>
       <c r="I5">
-        <v>5.10369673141297E-38</v>
+        <v>3.010848767408866E-31</v>
       </c>
       <c r="J5">
-        <v>27.46999931335449</v>
+        <v>28.26000022888184</v>
       </c>
       <c r="K5">
-        <v>23.92000007629395</v>
+        <v>3.240000009536743</v>
       </c>
       <c r="L5">
-        <v>1.05508350098944</v>
+        <v>1.069391349209219</v>
       </c>
       <c r="M5">
-        <v>-0.7106686126360913</v>
+        <v>-1.01068594683073</v>
       </c>
       <c r="N5">
-        <v>0.3603653119613278</v>
+        <v>0.4095309565877587</v>
       </c>
       <c r="O5">
-        <v>0.5671337359557587</v>
+        <v>0.9633111778079533</v>
       </c>
       <c r="P5">
-        <v>0.009584498681874123</v>
+        <v>0.01130611501556602</v>
       </c>
       <c r="Q5" t="s">
         <v>26</v>
@@ -749,7 +746,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -758,43 +755,43 @@
         <v>24</v>
       </c>
       <c r="D6">
-        <v>0.1067134222756141</v>
+        <v>0.1573310746377178</v>
       </c>
       <c r="E6">
-        <v>0.4672814928304919</v>
+        <v>0.4697901721600257</v>
       </c>
       <c r="F6">
-        <v>1.57186070083436E-06</v>
+        <v>0.0002392175963814266</v>
       </c>
       <c r="G6">
-        <v>25.88459921996165</v>
+        <v>17.81124520916731</v>
       </c>
       <c r="H6">
-        <v>0.8500486892162432</v>
+        <v>0.2777839809007544</v>
       </c>
       <c r="I6">
-        <v>5.130445661126848E-27</v>
+        <v>1.764279495083242E-32</v>
       </c>
       <c r="J6">
-        <v>27.46999931335449</v>
+        <v>28.26000022888184</v>
       </c>
       <c r="K6">
-        <v>1.149999976158142</v>
+        <v>35.79999923706055</v>
       </c>
       <c r="L6">
-        <v>1.278885954433807</v>
+        <v>0.9513864213578813</v>
       </c>
       <c r="M6">
-        <v>-1.94898065828734</v>
+        <v>-1.177014041960366</v>
       </c>
       <c r="N6">
-        <v>0.4344280252992581</v>
+        <v>0.4011711938323932</v>
       </c>
       <c r="O6">
-        <v>0.6078441210609058</v>
+        <v>0.5040887153998721</v>
       </c>
       <c r="P6">
-        <v>0.009626153123896667</v>
+        <v>0.01156609108600499</v>
       </c>
       <c r="Q6" t="s">
         <v>24</v>
@@ -805,7 +802,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -814,43 +811,43 @@
         <v>27</v>
       </c>
       <c r="D7">
-        <v>0.1067134222756141</v>
+        <v>0.1573310746377178</v>
       </c>
       <c r="E7">
-        <v>0.842120556447866</v>
+        <v>0.8290717187993932</v>
       </c>
       <c r="F7">
-        <v>0.0003884269382203022</v>
+        <v>0.002814044091977847</v>
       </c>
       <c r="G7">
-        <v>24.93761953142458</v>
+        <v>22.25987317902751</v>
       </c>
       <c r="H7">
-        <v>0.1547372743229033</v>
+        <v>0.1951223191607555</v>
       </c>
       <c r="I7">
-        <v>5.486158468535543E-32</v>
+        <v>1.572176309804954E-34</v>
       </c>
       <c r="J7">
-        <v>27.46999931335449</v>
+        <v>28.26000022888184</v>
       </c>
       <c r="K7">
-        <v>10.14000034332275</v>
+        <v>23.69000053405762</v>
       </c>
       <c r="L7">
-        <v>0.9813300348053247</v>
+        <v>1.377679204729471</v>
       </c>
       <c r="M7">
-        <v>-0.9477697406556302</v>
+        <v>-0.7239040013936986</v>
       </c>
       <c r="N7">
-        <v>0.3992690403532214</v>
+        <v>0.3876338977135581</v>
       </c>
       <c r="O7">
-        <v>0.9633437671708418</v>
+        <v>1.37767920472947</v>
       </c>
       <c r="P7">
-        <v>0.0106618607416186</v>
+        <v>0.01186232614936616</v>
       </c>
       <c r="Q7" t="s">
         <v>27</v>
@@ -861,63 +858,63 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>334</v>
+        <v>2402</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>0.1067134222756141</v>
+        <v>0.4673906997378914</v>
       </c>
       <c r="E8">
-        <v>0.7125253801789916</v>
+        <v>0.3811126133084941</v>
       </c>
       <c r="F8">
-        <v>0.00021848224263046</v>
+        <v>1.30194729789301E-06</v>
       </c>
       <c r="G8">
-        <v>22.87397290642052</v>
+        <v>-3.522307867353819</v>
       </c>
       <c r="H8">
-        <v>0.3121504803290045</v>
+        <v>1.589449544169823</v>
       </c>
       <c r="I8">
-        <v>1.243218313449185E-29</v>
+        <v>1.58261449208255E-47</v>
       </c>
       <c r="J8">
-        <v>27.46999931335449</v>
+        <v>1.110000014305115</v>
       </c>
       <c r="K8">
-        <v>12.1899995803833</v>
+        <v>3.240000009536743</v>
       </c>
       <c r="L8">
-        <v>1.145042665154023</v>
+        <v>1.444889768082075</v>
       </c>
       <c r="M8">
-        <v>-1.040098152818782</v>
+        <v>-0.7159262779636313</v>
       </c>
       <c r="N8">
-        <v>0.4155638005661072</v>
+        <v>0.27619444983137</v>
       </c>
       <c r="O8">
-        <v>0.790912182706959</v>
+        <v>-0.517508656609464</v>
       </c>
       <c r="P8">
-        <v>0.01083912291264194</v>
+        <v>0.01197049200342416</v>
       </c>
       <c r="Q8" t="s">
         <v>21</v>
       </c>
       <c r="R8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -926,43 +923,43 @@
         <v>28</v>
       </c>
       <c r="D9">
-        <v>0.1067134222756141</v>
+        <v>0.1573310746377178</v>
       </c>
       <c r="E9">
-        <v>0.2479516172296652</v>
+        <v>0.5865114451133107</v>
       </c>
       <c r="F9">
-        <v>0.000164955428606849</v>
+        <v>0.001083830603885596</v>
       </c>
       <c r="G9">
-        <v>22.32076346465697</v>
+        <v>19.11353783966861</v>
       </c>
       <c r="H9">
-        <v>0.3338804530123252</v>
+        <v>0.2078224005998509</v>
       </c>
       <c r="I9">
-        <v>1.140471194654905E-32</v>
+        <v>2.383398062519676E-33</v>
       </c>
       <c r="J9">
-        <v>27.46999931335449</v>
+        <v>28.26000022888184</v>
       </c>
       <c r="K9">
-        <v>13.71000003814697</v>
+        <v>40.33000183105469</v>
       </c>
       <c r="L9">
-        <v>1.024450704657589</v>
+        <v>1.073509534731457</v>
       </c>
       <c r="M9">
-        <v>-1.073797636242098</v>
+        <v>-1.089684576814044</v>
       </c>
       <c r="N9">
-        <v>0.3946683576006493</v>
+        <v>0.3953742896073914</v>
       </c>
       <c r="O9">
-        <v>0.5717348251620189</v>
+        <v>0.7649845924870569</v>
       </c>
       <c r="P9">
-        <v>0.01086277592120171</v>
+        <v>0.01200598313417125</v>
       </c>
       <c r="Q9" t="s">
         <v>28</v>
@@ -973,114 +970,114 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1659</v>
+        <v>2468</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>0.7125253801789916</v>
+        <v>0.6156995682553321</v>
       </c>
       <c r="E10">
-        <v>0.4672814928304919</v>
+        <v>0.5333537849333656</v>
       </c>
       <c r="F10">
-        <v>3.400012325761992E-06</v>
+        <v>0.001372205180958747</v>
       </c>
       <c r="G10">
-        <v>9.84059600021342</v>
+        <v>18.14739371701994</v>
       </c>
       <c r="H10">
-        <v>2.598270484227605</v>
+        <v>2.467347241551403</v>
       </c>
       <c r="I10">
-        <v>7.0242867587997E-59</v>
+        <v>2.526458381409494E-40</v>
       </c>
       <c r="J10">
-        <v>12.1899995803833</v>
+        <v>31.30999946594238</v>
       </c>
       <c r="K10">
-        <v>1.149999976158142</v>
+        <v>4.75</v>
       </c>
       <c r="L10">
-        <v>1.540551497646973</v>
+        <v>1.733359606371053</v>
       </c>
       <c r="M10">
-        <v>-2.903621076095234</v>
+        <v>-2.636268230299017</v>
       </c>
       <c r="N10">
-        <v>0.6338049364807801</v>
+        <v>0.9217402348208342</v>
       </c>
       <c r="O10">
-        <v>-0.6386074147442686</v>
+        <v>1.442706351553278</v>
       </c>
       <c r="P10">
-        <v>0.01088218929732455</v>
+        <v>0.01253676940130412</v>
       </c>
       <c r="Q10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1485</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>0.5567577057111749</v>
+        <v>0.1573310746377178</v>
       </c>
       <c r="E11">
-        <v>0.2245099382384187</v>
+        <v>0.5333537849333656</v>
       </c>
       <c r="F11">
-        <v>0.000375033750325633</v>
+        <v>0.002360038395075236</v>
       </c>
       <c r="G11">
-        <v>1.131242350862032</v>
+        <v>23.14200425373728</v>
       </c>
       <c r="H11">
-        <v>0.5717804491399351</v>
+        <v>0.8360638956445753</v>
       </c>
       <c r="I11">
-        <v>1.405365048664576E-41</v>
+        <v>4.898773844057477E-27</v>
       </c>
       <c r="J11">
-        <v>10.39999961853027</v>
+        <v>28.26000022888184</v>
       </c>
       <c r="K11">
-        <v>15.85000038146973</v>
+        <v>4.75</v>
       </c>
       <c r="L11">
-        <v>0.3742020440503726</v>
+        <v>1.231363236023235</v>
       </c>
       <c r="M11">
-        <v>-0.569507407238028</v>
+        <v>-1.052407702434543</v>
       </c>
       <c r="N11">
-        <v>0.2048429890857208</v>
+        <v>0.4394220197152831</v>
       </c>
       <c r="O11">
-        <v>0.2060369306833394</v>
+        <v>1.146692470832827</v>
       </c>
       <c r="P11">
-        <v>0.01183045916063994</v>
+        <v>0.0126625885196639</v>
       </c>
       <c r="Q11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -70,37 +70,37 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
     <t>BBAS3</t>
   </si>
   <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
     <t>GOLL4</t>
   </si>
   <si>
     <t>HYPE3</t>
   </si>
   <si>
-    <t>ENGI11</t>
-  </si>
-  <si>
     <t>BPAC11</t>
   </si>
   <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>ELET3</t>
+  </si>
+  <si>
     <t>LWSA3</t>
   </si>
   <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
-  </si>
-  <si>
-    <t>ELET3</t>
+    <t>CSAN3</t>
+  </si>
+  <si>
+    <t>EZTC3</t>
   </si>
 </sst>
 </file>
@@ -522,55 +522,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>343</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>0.1573310746377178</v>
+        <v>0.3874119224139242</v>
       </c>
       <c r="E2">
-        <v>0.2878505916207216</v>
+        <v>0.397663734617022</v>
       </c>
       <c r="F2">
-        <v>6.052596842374858E-05</v>
+        <v>7.839085296412797E-05</v>
       </c>
       <c r="G2">
-        <v>15.28598077259707</v>
+        <v>3.096843504428184</v>
       </c>
       <c r="H2">
-        <v>0.257396493644299</v>
+        <v>0.2669168042276616</v>
       </c>
       <c r="I2">
-        <v>2.401165358368817E-33</v>
+        <v>2.343766474322946E-53</v>
       </c>
       <c r="J2">
-        <v>28.26000022888184</v>
+        <v>13.02999973297119</v>
       </c>
       <c r="K2">
-        <v>48.65999984741211</v>
+        <v>36.18999862670898</v>
       </c>
       <c r="L2">
-        <v>0.9472041819250983</v>
+        <v>0.7623894729007077</v>
       </c>
       <c r="M2">
-        <v>-1.151149027993085</v>
+        <v>-0.5972945126369194</v>
       </c>
       <c r="N2">
-        <v>0.3953956431733422</v>
+        <v>0.2405723299443993</v>
       </c>
       <c r="O2">
-        <v>0.4491061148287674</v>
+        <v>0.2734374500983829</v>
       </c>
       <c r="P2">
-        <v>0.009868803976347562</v>
+        <v>0.01018034591930733</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -578,55 +578,55 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>0.3702653752651619</v>
+        <v>0.1448406598960124</v>
       </c>
       <c r="E3">
-        <v>0.4697901721600257</v>
+        <v>0.5866965569837681</v>
       </c>
       <c r="F3">
-        <v>8.920537818455963E-05</v>
+        <v>0.0004742779513500971</v>
       </c>
       <c r="G3">
-        <v>3.097500135343369</v>
+        <v>24.7873314911965</v>
       </c>
       <c r="H3">
-        <v>0.2669089162369383</v>
+        <v>0.1560861257936074</v>
       </c>
       <c r="I3">
-        <v>3.518107171029698E-53</v>
+        <v>9.813052132364198E-35</v>
       </c>
       <c r="J3">
-        <v>12.97999954223633</v>
+        <v>28.14999961853027</v>
       </c>
       <c r="K3">
-        <v>35.79999923706055</v>
+        <v>13.28999996185303</v>
       </c>
       <c r="L3">
-        <v>0.7620162706741702</v>
+        <v>1.288283521490946</v>
       </c>
       <c r="M3">
-        <v>-0.5976635868960223</v>
+        <v>-0.9097551283191621</v>
       </c>
       <c r="N3">
-        <v>0.2410576396979252</v>
+        <v>0.3856457263901877</v>
       </c>
       <c r="O3">
-        <v>0.3271604092459111</v>
+        <v>1.288283521490944</v>
       </c>
       <c r="P3">
-        <v>0.01021199868735237</v>
+        <v>0.01019199192567419</v>
       </c>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -634,450 +634,450 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1778</v>
+        <v>372</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>0.592221591622807</v>
+        <v>0.1448406598960124</v>
       </c>
       <c r="E4">
-        <v>0.5333537849333656</v>
+        <v>0.3864886932290166</v>
       </c>
       <c r="F4">
-        <v>0.0002664496884213953</v>
+        <v>0.0002661758342161685</v>
       </c>
       <c r="G4">
-        <v>8.59512294989398</v>
+        <v>22.08842258983345</v>
       </c>
       <c r="H4">
-        <v>2.569395316677555</v>
+        <v>1.607123195575709</v>
       </c>
       <c r="I4">
-        <v>1.06667520094605E-68</v>
+        <v>1.537920399828447E-31</v>
       </c>
       <c r="J4">
-        <v>21.75</v>
+        <v>28.14999961853027</v>
       </c>
       <c r="K4">
-        <v>4.75</v>
+        <v>3.279999971389771</v>
       </c>
       <c r="L4">
-        <v>1.150727763219926</v>
+        <v>1.070770379608746</v>
       </c>
       <c r="M4">
-        <v>-1.90943020159752</v>
+        <v>-1.010340536345169</v>
       </c>
       <c r="N4">
-        <v>0.5371856026590217</v>
+        <v>0.4068381293175605</v>
       </c>
       <c r="O4">
-        <v>0.9502492958876321</v>
+        <v>0.7902129931886597</v>
       </c>
       <c r="P4">
-        <v>0.01077248444664812</v>
+        <v>0.01108217094885714</v>
       </c>
       <c r="Q4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>0.1573310746377178</v>
+        <v>0.1448406598960124</v>
       </c>
       <c r="E5">
-        <v>0.3811126133084941</v>
+        <v>0.4863225204244675</v>
       </c>
       <c r="F5">
-        <v>0.0004306298194519084</v>
+        <v>6.122529817623868E-05</v>
       </c>
       <c r="G5">
-        <v>22.09475998789076</v>
+        <v>25.9369944019495</v>
       </c>
       <c r="H5">
-        <v>1.605533656750481</v>
+        <v>0.8276496638373414</v>
       </c>
       <c r="I5">
-        <v>3.010848767408866E-31</v>
+        <v>7.372987531222291E-25</v>
       </c>
       <c r="J5">
-        <v>28.26000022888184</v>
+        <v>28.14999961853027</v>
       </c>
       <c r="K5">
-        <v>3.240000009536743</v>
+        <v>1.070000052452087</v>
       </c>
       <c r="L5">
-        <v>1.069391349209219</v>
+        <v>1.327420032862868</v>
       </c>
       <c r="M5">
-        <v>-1.01068594683073</v>
+        <v>-1.91334766904081</v>
       </c>
       <c r="N5">
-        <v>0.4095309565877587</v>
+        <v>0.4549275695038699</v>
       </c>
       <c r="O5">
-        <v>0.9633111778079533</v>
+        <v>1.327420032862868</v>
       </c>
       <c r="P5">
-        <v>0.01130611501556602</v>
+        <v>0.01120144657695406</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="R5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>0.1573310746377178</v>
+        <v>0.1448406598960124</v>
       </c>
       <c r="E6">
-        <v>0.4697901721600257</v>
+        <v>0.591862747195455</v>
       </c>
       <c r="F6">
-        <v>0.0002392175963814266</v>
+        <v>0.0007996979319230833</v>
       </c>
       <c r="G6">
-        <v>17.81124520916731</v>
+        <v>19.11578845310695</v>
       </c>
       <c r="H6">
-        <v>0.2777839809007544</v>
+        <v>0.2077380014391504</v>
       </c>
       <c r="I6">
-        <v>1.764279495083242E-32</v>
+        <v>1.590403367377315E-33</v>
       </c>
       <c r="J6">
-        <v>28.26000022888184</v>
+        <v>28.14999961853027</v>
       </c>
       <c r="K6">
-        <v>35.79999923706055</v>
+        <v>40.5</v>
       </c>
       <c r="L6">
-        <v>0.9513864213578813</v>
+        <v>1.074501873659965</v>
       </c>
       <c r="M6">
-        <v>-1.177014041960366</v>
+        <v>-1.088545719971535</v>
       </c>
       <c r="N6">
-        <v>0.4011711938323932</v>
+        <v>0.3935378121636272</v>
       </c>
       <c r="O6">
-        <v>0.5040887153998721</v>
+        <v>0.6208221071377267</v>
       </c>
       <c r="P6">
-        <v>0.01156609108600499</v>
+        <v>0.01183705342257276</v>
       </c>
       <c r="Q6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>384</v>
+        <v>2402</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>0.1573310746377178</v>
+        <v>0.4863225204244675</v>
       </c>
       <c r="E7">
-        <v>0.8290717187993932</v>
+        <v>0.3864886932290166</v>
       </c>
       <c r="F7">
-        <v>0.002814044091977847</v>
+        <v>2.836567597100824E-06</v>
       </c>
       <c r="G7">
-        <v>22.25987317902751</v>
+        <v>-3.516960331212458</v>
       </c>
       <c r="H7">
-        <v>0.1951223191607555</v>
+        <v>1.587544651583488</v>
       </c>
       <c r="I7">
-        <v>1.572176309804954E-34</v>
+        <v>3.205653831642215E-47</v>
       </c>
       <c r="J7">
-        <v>28.26000022888184</v>
+        <v>1.070000052452087</v>
       </c>
       <c r="K7">
-        <v>23.69000053405762</v>
+        <v>3.279999971389771</v>
       </c>
       <c r="L7">
-        <v>1.377679204729471</v>
+        <v>1.44674188566326</v>
       </c>
       <c r="M7">
-        <v>-0.7239040013936986</v>
+        <v>-0.7148162280374857</v>
       </c>
       <c r="N7">
-        <v>0.3876338977135581</v>
+        <v>0.2777244322506587</v>
       </c>
       <c r="O7">
-        <v>1.37767920472947</v>
+        <v>-0.6201860281092788</v>
       </c>
       <c r="P7">
-        <v>0.01186232614936616</v>
+        <v>0.01223437267233793</v>
       </c>
       <c r="Q7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="R7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2402</v>
+        <v>359</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8">
-        <v>0.4673906997378914</v>
+        <v>0.1448406598960124</v>
       </c>
       <c r="E8">
-        <v>0.3811126133084941</v>
+        <v>0.5321000406233153</v>
       </c>
       <c r="F8">
-        <v>1.30194729789301E-06</v>
+        <v>0.001689059116371171</v>
       </c>
       <c r="G8">
-        <v>-3.522307867353819</v>
+        <v>23.1374727528225</v>
       </c>
       <c r="H8">
-        <v>1.589449544169823</v>
+        <v>0.8368042896828409</v>
       </c>
       <c r="I8">
-        <v>1.58261449208255E-47</v>
+        <v>3.054413301084605E-27</v>
       </c>
       <c r="J8">
-        <v>1.110000014305115</v>
+        <v>28.14999961853027</v>
       </c>
       <c r="K8">
-        <v>3.240000009536743</v>
+        <v>4.769999980926514</v>
       </c>
       <c r="L8">
-        <v>1.444889768082075</v>
+        <v>1.232007668237117</v>
       </c>
       <c r="M8">
-        <v>-0.7159262779636313</v>
+        <v>-1.052355585592494</v>
       </c>
       <c r="N8">
-        <v>0.27619444983137</v>
+        <v>0.4371674484244387</v>
       </c>
       <c r="O8">
-        <v>-0.517508656609464</v>
+        <v>1.020970419881397</v>
       </c>
       <c r="P8">
-        <v>0.01197049200342416</v>
+        <v>0.0124301645568846</v>
       </c>
       <c r="Q8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="R8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>339</v>
+        <v>2468</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>0.1573310746377178</v>
+        <v>0.6156999183266831</v>
       </c>
       <c r="E9">
-        <v>0.5865114451133107</v>
+        <v>0.5321000406233153</v>
       </c>
       <c r="F9">
-        <v>0.001083830603885596</v>
+        <v>0.001302383553423641</v>
       </c>
       <c r="G9">
-        <v>19.11353783966861</v>
+        <v>18.14373143791776</v>
       </c>
       <c r="H9">
-        <v>0.2078224005998509</v>
+        <v>2.468023710218899</v>
       </c>
       <c r="I9">
-        <v>2.383398062519676E-33</v>
+        <v>2.328781278407948E-40</v>
       </c>
       <c r="J9">
-        <v>28.26000022888184</v>
+        <v>31.30999946594238</v>
       </c>
       <c r="K9">
-        <v>40.33000183105469</v>
+        <v>4.769999980926514</v>
       </c>
       <c r="L9">
-        <v>1.073509534731457</v>
+        <v>1.733795129942184</v>
       </c>
       <c r="M9">
-        <v>-1.089684576814044</v>
+        <v>-2.636004774039002</v>
       </c>
       <c r="N9">
-        <v>0.3953742896073914</v>
+        <v>0.9211937685278173</v>
       </c>
       <c r="O9">
-        <v>0.7649845924870569</v>
+        <v>1.393794977354293</v>
       </c>
       <c r="P9">
-        <v>0.01200598313417125</v>
+        <v>0.01249326933533433</v>
       </c>
       <c r="Q9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2468</v>
+        <v>333</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>0.6156995682553321</v>
+        <v>0.1448406598960124</v>
       </c>
       <c r="E10">
-        <v>0.5333537849333656</v>
+        <v>0.3982917959652034</v>
       </c>
       <c r="F10">
-        <v>0.001372205180958747</v>
+        <v>0.001992643500392118</v>
       </c>
       <c r="G10">
-        <v>18.14739371701994</v>
+        <v>22.43786858779011</v>
       </c>
       <c r="H10">
-        <v>2.467347241551403</v>
+        <v>0.3270438694013924</v>
       </c>
       <c r="I10">
-        <v>2.526458381409494E-40</v>
+        <v>3.470527787316272E-30</v>
       </c>
       <c r="J10">
-        <v>31.30999946594238</v>
+        <v>28.14999961853027</v>
       </c>
       <c r="K10">
-        <v>4.75</v>
+        <v>13.6899995803833</v>
       </c>
       <c r="L10">
-        <v>1.733359606371053</v>
+        <v>1.234900595868169</v>
       </c>
       <c r="M10">
-        <v>-2.636268230299017</v>
+        <v>-1.07031076190821</v>
       </c>
       <c r="N10">
-        <v>0.9217402348208342</v>
+        <v>0.4161583017211866</v>
       </c>
       <c r="O10">
-        <v>1.442706351553278</v>
+        <v>1.234900595868167</v>
       </c>
       <c r="P10">
-        <v>0.01253676940130412</v>
+        <v>0.01275647602274054</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>0.1573310746377178</v>
+        <v>0.1448406598960124</v>
       </c>
       <c r="E11">
-        <v>0.5333537849333656</v>
+        <v>0.6775131340266897</v>
       </c>
       <c r="F11">
-        <v>0.002360038395075236</v>
+        <v>0.002573236246686924</v>
       </c>
       <c r="G11">
-        <v>23.14200425373728</v>
+        <v>21.65362187481013</v>
       </c>
       <c r="H11">
-        <v>0.8360638956445753</v>
+        <v>0.387800712296249</v>
       </c>
       <c r="I11">
-        <v>4.898773844057477E-27</v>
+        <v>2.002956871785473E-24</v>
       </c>
       <c r="J11">
-        <v>28.26000022888184</v>
+        <v>28.14999961853027</v>
       </c>
       <c r="K11">
-        <v>4.75</v>
+        <v>14.28999996185303</v>
       </c>
       <c r="L11">
-        <v>1.231363236023235</v>
+        <v>1.209850016015025</v>
       </c>
       <c r="M11">
-        <v>-1.052407702434543</v>
+        <v>-0.988509681798341</v>
       </c>
       <c r="N11">
-        <v>0.4394220197152831</v>
+        <v>0.4582379051707572</v>
       </c>
       <c r="O11">
-        <v>1.146692470832827</v>
+        <v>0.9547055798001711</v>
       </c>
       <c r="P11">
-        <v>0.0126625885196639</v>
+        <v>0.01322359741313943</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -70,37 +70,46 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
     <t>ABEV3</t>
   </si>
   <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>GOLL4</t>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
   </si>
   <si>
     <t>HYPE3</t>
   </si>
   <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
+  </si>
+  <si>
     <t>BPAC11</t>
   </si>
   <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
     <t>MGLU3</t>
   </si>
   <si>
-    <t>RAIZ4</t>
+    <t>EMBR3</t>
   </si>
   <si>
     <t>ELET3</t>
   </si>
   <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
-    <t>CSAN3</t>
-  </si>
-  <si>
-    <t>EZTC3</t>
+    <t>RAIL3</t>
   </si>
 </sst>
 </file>
@@ -522,55 +531,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>10</v>
+        <v>343</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>0.3874119224139242</v>
+        <v>0.1721372281162747</v>
       </c>
       <c r="E2">
-        <v>0.397663734617022</v>
+        <v>0.2395748725130649</v>
       </c>
       <c r="F2">
-        <v>7.839085296412797E-05</v>
+        <v>6.075760500535527E-05</v>
       </c>
       <c r="G2">
-        <v>3.096843504428184</v>
+        <v>14.66843281188037</v>
       </c>
       <c r="H2">
-        <v>0.2669168042276616</v>
+        <v>0.2711556017904393</v>
       </c>
       <c r="I2">
-        <v>2.343766474322946E-53</v>
+        <v>5.705151832029533E-36</v>
       </c>
       <c r="J2">
-        <v>13.02999973297119</v>
+        <v>28.3700008392334</v>
       </c>
       <c r="K2">
-        <v>36.18999862670898</v>
+        <v>48.79999923706055</v>
       </c>
       <c r="L2">
-        <v>0.7623894729007077</v>
+        <v>0.9265417079288234</v>
       </c>
       <c r="M2">
-        <v>-0.5972945126369194</v>
+        <v>-1.178543673037552</v>
       </c>
       <c r="N2">
-        <v>0.2405723299443993</v>
+        <v>0.3811084356855701</v>
       </c>
       <c r="O2">
-        <v>0.2734374500983829</v>
+        <v>0.4691748668548907</v>
       </c>
       <c r="P2">
-        <v>0.01018034591930733</v>
+        <v>0.009385917517934749</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -578,55 +587,55 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>0.1448406598960124</v>
+        <v>0.464093518326252</v>
       </c>
       <c r="E3">
-        <v>0.5866965569837681</v>
+        <v>0.3860184456618421</v>
       </c>
       <c r="F3">
-        <v>0.0004742779513500971</v>
+        <v>0.0001003544941565413</v>
       </c>
       <c r="G3">
-        <v>24.7873314911965</v>
+        <v>3.224722819137035</v>
       </c>
       <c r="H3">
-        <v>0.1560861257936074</v>
+        <v>0.2628891249361243</v>
       </c>
       <c r="I3">
-        <v>9.813052132364198E-35</v>
+        <v>1.221103853797639E-53</v>
       </c>
       <c r="J3">
-        <v>28.14999961853027</v>
+        <v>13.01000022888184</v>
       </c>
       <c r="K3">
-        <v>13.28999996185303</v>
+        <v>36.06999969482422</v>
       </c>
       <c r="L3">
-        <v>1.288283521490946</v>
+        <v>0.7792314059631504</v>
       </c>
       <c r="M3">
-        <v>-0.9097551283191621</v>
+        <v>-0.5783448021266295</v>
       </c>
       <c r="N3">
-        <v>0.3856457263901877</v>
+        <v>0.2323224606192658</v>
       </c>
       <c r="O3">
-        <v>1.288283521490944</v>
+        <v>0.3028667535261924</v>
       </c>
       <c r="P3">
-        <v>0.01019199192567419</v>
+        <v>0.009897397287759227</v>
       </c>
       <c r="Q3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -634,282 +643,282 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>372</v>
+        <v>1778</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.1448406598960124</v>
+        <v>0.5988083903200976</v>
       </c>
       <c r="E4">
-        <v>0.3864886932290166</v>
+        <v>0.5262068649496248</v>
       </c>
       <c r="F4">
-        <v>0.0002661758342161685</v>
+        <v>0.0001629553330548611</v>
       </c>
       <c r="G4">
-        <v>22.08842258983345</v>
+        <v>8.525625312568987</v>
       </c>
       <c r="H4">
-        <v>1.607123195575709</v>
+        <v>2.588849470174623</v>
       </c>
       <c r="I4">
-        <v>1.537920399828447E-31</v>
+        <v>6.472381807429357E-68</v>
       </c>
       <c r="J4">
-        <v>28.14999961853027</v>
+        <v>21.3799991607666</v>
       </c>
       <c r="K4">
-        <v>3.279999971389771</v>
+        <v>4.630000114440918</v>
       </c>
       <c r="L4">
-        <v>1.070770379608746</v>
+        <v>1.265562153724883</v>
       </c>
       <c r="M4">
-        <v>-1.010340536345169</v>
+        <v>-1.950043070097461</v>
       </c>
       <c r="N4">
-        <v>0.4068381293175605</v>
+        <v>0.539027645511482</v>
       </c>
       <c r="O4">
-        <v>0.7902129931886597</v>
+        <v>0.8680005050188004</v>
       </c>
       <c r="P4">
-        <v>0.01108217094885714</v>
+        <v>0.01036531972804965</v>
       </c>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.1448406598960124</v>
+        <v>0.1721372281162747</v>
       </c>
       <c r="E5">
-        <v>0.4863225204244675</v>
+        <v>0.3398712154344781</v>
       </c>
       <c r="F5">
-        <v>6.122529817623868E-05</v>
+        <v>0.000102484871691931</v>
       </c>
       <c r="G5">
-        <v>25.9369944019495</v>
+        <v>21.71215891489016</v>
       </c>
       <c r="H5">
-        <v>0.8276496638373414</v>
+        <v>1.733973898884525</v>
       </c>
       <c r="I5">
-        <v>7.372987531222291E-25</v>
+        <v>1.663867216331448E-34</v>
       </c>
       <c r="J5">
-        <v>28.14999961853027</v>
+        <v>28.3700008392334</v>
       </c>
       <c r="K5">
-        <v>1.070000052452087</v>
+        <v>3.299999952316284</v>
       </c>
       <c r="L5">
-        <v>1.327420032862868</v>
+        <v>1.051339143127841</v>
       </c>
       <c r="M5">
-        <v>-1.91334766904081</v>
+        <v>-1.001516050135816</v>
       </c>
       <c r="N5">
-        <v>0.4549275695038699</v>
+        <v>0.3907171306896357</v>
       </c>
       <c r="O5">
-        <v>1.327420032862868</v>
+        <v>0.9357281407066242</v>
       </c>
       <c r="P5">
-        <v>0.01120144657695406</v>
+        <v>0.0111074869556034</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="R5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6">
-        <v>0.1448406598960124</v>
+        <v>0.1721372281162747</v>
       </c>
       <c r="E6">
-        <v>0.591862747195455</v>
+        <v>0.3860184456618421</v>
       </c>
       <c r="F6">
-        <v>0.0007996979319230833</v>
+        <v>0.0003221063281656362</v>
       </c>
       <c r="G6">
-        <v>19.11578845310695</v>
+        <v>17.57633941961727</v>
       </c>
       <c r="H6">
-        <v>0.2077380014391504</v>
+        <v>0.2851219752045157</v>
       </c>
       <c r="I6">
-        <v>1.590403367377315E-33</v>
+        <v>1.541499244305055E-33</v>
       </c>
       <c r="J6">
-        <v>28.14999961853027</v>
+        <v>28.3700008392334</v>
       </c>
       <c r="K6">
-        <v>40.5</v>
+        <v>36.06999969482422</v>
       </c>
       <c r="L6">
-        <v>1.074501873659965</v>
+        <v>0.9276958169653646</v>
       </c>
       <c r="M6">
-        <v>-1.088545719971535</v>
+        <v>-1.194535267656597</v>
       </c>
       <c r="N6">
-        <v>0.3935378121636272</v>
+        <v>0.3971899666364216</v>
       </c>
       <c r="O6">
-        <v>0.6208221071377267</v>
+        <v>0.5093118610015726</v>
       </c>
       <c r="P6">
-        <v>0.01183705342257276</v>
+        <v>0.01163671622672345</v>
       </c>
       <c r="Q6" t="s">
         <v>25</v>
       </c>
       <c r="R6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2402</v>
+        <v>360</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.4863225204244675</v>
+        <v>0.1721372281162747</v>
       </c>
       <c r="E7">
-        <v>0.3864886932290166</v>
+        <v>0.6311451722015482</v>
       </c>
       <c r="F7">
-        <v>2.836567597100824E-06</v>
+        <v>0.005445246010301539</v>
       </c>
       <c r="G7">
-        <v>-3.516960331212458</v>
+        <v>24.79895324408399</v>
       </c>
       <c r="H7">
-        <v>1.587544651583488</v>
+        <v>0.1568902658304571</v>
       </c>
       <c r="I7">
-        <v>3.205653831642215E-47</v>
+        <v>1.14695829464326E-32</v>
       </c>
       <c r="J7">
-        <v>1.070000052452087</v>
+        <v>28.3700008392334</v>
       </c>
       <c r="K7">
-        <v>3.279999971389771</v>
+        <v>12.57999992370605</v>
       </c>
       <c r="L7">
-        <v>1.44674188566326</v>
+        <v>1.597368062972034</v>
       </c>
       <c r="M7">
-        <v>-0.7148162280374857</v>
+        <v>-0.9348060204355555</v>
       </c>
       <c r="N7">
-        <v>0.2777244322506587</v>
+        <v>0.4031161351330242</v>
       </c>
       <c r="O7">
-        <v>-0.6201860281092788</v>
+        <v>1.597368062972033</v>
       </c>
       <c r="P7">
-        <v>0.01223437267233793</v>
+        <v>0.01205268165358956</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="R7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>359</v>
+        <v>1238</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.1448406598960124</v>
+        <v>0.8679939590717625</v>
       </c>
       <c r="E8">
-        <v>0.5321000406233153</v>
+        <v>0.7081220514870212</v>
       </c>
       <c r="F8">
-        <v>0.001689059116371171</v>
+        <v>0.001328994042045495</v>
       </c>
       <c r="G8">
-        <v>23.1374727528225</v>
+        <v>5.024309462508477</v>
       </c>
       <c r="H8">
-        <v>0.8368042896828409</v>
+        <v>0.1383995049137597</v>
       </c>
       <c r="I8">
-        <v>3.054413301084605E-27</v>
+        <v>4.193909833188625E-61</v>
       </c>
       <c r="J8">
-        <v>28.14999961853027</v>
+        <v>11.61999988555908</v>
       </c>
       <c r="K8">
-        <v>4.769999980926514</v>
+        <v>44.43999862670898</v>
       </c>
       <c r="L8">
-        <v>1.232007668237117</v>
+        <v>0.8644167486725269</v>
       </c>
       <c r="M8">
-        <v>-1.052355585592494</v>
+        <v>-1.112670237682117</v>
       </c>
       <c r="N8">
-        <v>0.4371674484244387</v>
+        <v>0.3367667656381767</v>
       </c>
       <c r="O8">
-        <v>1.020970419881397</v>
+        <v>0.4452166147459202</v>
       </c>
       <c r="P8">
-        <v>0.0124301645568846</v>
+        <v>0.01258362093696165</v>
       </c>
       <c r="Q8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -917,167 +926,167 @@
         <v>2468</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9">
-        <v>0.6156999183266831</v>
+        <v>0.6167408439932528</v>
       </c>
       <c r="E9">
-        <v>0.5321000406233153</v>
+        <v>0.5262068649496248</v>
       </c>
       <c r="F9">
-        <v>0.001302383553423641</v>
+        <v>0.00152154631701746</v>
       </c>
       <c r="G9">
-        <v>18.14373143791776</v>
+        <v>18.13140110589465</v>
       </c>
       <c r="H9">
-        <v>2.468023710218899</v>
+        <v>2.474663212337096</v>
       </c>
       <c r="I9">
-        <v>2.328781278407948E-40</v>
+        <v>2.427661005686774E-39</v>
       </c>
       <c r="J9">
-        <v>31.30999946594238</v>
+        <v>30.98999977111816</v>
       </c>
       <c r="K9">
-        <v>4.769999980926514</v>
+        <v>4.630000114440918</v>
       </c>
       <c r="L9">
-        <v>1.733795129942184</v>
+        <v>1.714455036988127</v>
       </c>
       <c r="M9">
-        <v>-2.636004774039002</v>
+        <v>-2.657073046412087</v>
       </c>
       <c r="N9">
-        <v>0.9211937685278173</v>
+        <v>0.9332216936741106</v>
       </c>
       <c r="O9">
-        <v>1.393794977354293</v>
+        <v>1.400907708900029</v>
       </c>
       <c r="P9">
-        <v>0.01249326933533433</v>
+        <v>0.01259610475068349</v>
       </c>
       <c r="Q9" t="s">
         <v>26</v>
       </c>
       <c r="R9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>0.1448406598960124</v>
+        <v>0.1721372281162747</v>
       </c>
       <c r="E10">
-        <v>0.3982917959652034</v>
+        <v>0.5661455772935808</v>
       </c>
       <c r="F10">
-        <v>0.001992643500392118</v>
+        <v>0.001858696778168877</v>
       </c>
       <c r="G10">
-        <v>22.43786858779011</v>
+        <v>19.04524753445011</v>
       </c>
       <c r="H10">
-        <v>0.3270438694013924</v>
+        <v>0.2098471735266559</v>
       </c>
       <c r="I10">
-        <v>3.470527787316272E-30</v>
+        <v>6.641281082588512E-33</v>
       </c>
       <c r="J10">
-        <v>28.14999961853027</v>
+        <v>28.3700008392334</v>
       </c>
       <c r="K10">
-        <v>13.6899995803833</v>
+        <v>40.34000015258789</v>
       </c>
       <c r="L10">
-        <v>1.234900595868169</v>
+        <v>1.063999988614629</v>
       </c>
       <c r="M10">
-        <v>-1.07031076190821</v>
+        <v>-1.102709152027074</v>
       </c>
       <c r="N10">
-        <v>0.4161583017211866</v>
+        <v>0.4014941215038543</v>
       </c>
       <c r="O10">
-        <v>1.234900595868167</v>
+        <v>0.8595182926978548</v>
       </c>
       <c r="P10">
-        <v>0.01275647602274054</v>
+        <v>0.0126101788000454</v>
       </c>
       <c r="Q10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>345</v>
+        <v>2186</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.1448406598960124</v>
+        <v>0.3910599130126821</v>
       </c>
       <c r="E11">
-        <v>0.6775131340266897</v>
+        <v>0.5254306322014121</v>
       </c>
       <c r="F11">
-        <v>0.002573236246686924</v>
+        <v>0.0007202637258898585</v>
       </c>
       <c r="G11">
-        <v>21.65362187481013</v>
+        <v>4.925299104238599</v>
       </c>
       <c r="H11">
-        <v>0.387800712296249</v>
+        <v>1.244860096335459</v>
       </c>
       <c r="I11">
-        <v>2.002956871785473E-24</v>
+        <v>1.448794078116143E-46</v>
       </c>
       <c r="J11">
-        <v>28.14999961853027</v>
+        <v>34.86000061035156</v>
       </c>
       <c r="K11">
-        <v>14.28999996185303</v>
+        <v>23.20000076293945</v>
       </c>
       <c r="L11">
-        <v>1.209850016015025</v>
+        <v>2.423150634805211</v>
       </c>
       <c r="M11">
-        <v>-0.988509681798341</v>
+        <v>-1.743998942173683</v>
       </c>
       <c r="N11">
-        <v>0.4582379051707572</v>
+        <v>0.7952280868224293</v>
       </c>
       <c r="O11">
-        <v>0.9547055798001711</v>
+        <v>1.053946321377435</v>
       </c>
       <c r="P11">
-        <v>0.01322359741313943</v>
+        <v>0.01271631432515982</v>
       </c>
       <c r="Q11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -76,40 +76,46 @@
     <t>ABEV3</t>
   </si>
   <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
     <t>CYRE3</t>
   </si>
   <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
     <t>ENGI11</t>
   </si>
   <si>
     <t>BPAC11</t>
   </si>
   <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
+  </si>
+  <si>
     <t>LWSA3</t>
   </si>
   <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>MGLU3</t>
+    <t>RAIL3</t>
   </si>
   <si>
     <t>EMBR3</t>
-  </si>
-  <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>RAIL3</t>
   </si>
 </sst>
 </file>
@@ -537,49 +543,49 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.1721372281162747</v>
+        <v>0.3609194657484877</v>
       </c>
       <c r="E2">
-        <v>0.2395748725130649</v>
+        <v>0.1729636659305799</v>
       </c>
       <c r="F2">
-        <v>6.075760500535527E-05</v>
+        <v>0.000132477162390824</v>
       </c>
       <c r="G2">
-        <v>14.66843281188037</v>
+        <v>14.32096485703826</v>
       </c>
       <c r="H2">
-        <v>0.2711556017904393</v>
+        <v>0.2788445809504187</v>
       </c>
       <c r="I2">
-        <v>5.705151832029533E-36</v>
+        <v>1.425605298135616E-36</v>
       </c>
       <c r="J2">
-        <v>28.3700008392334</v>
+        <v>29.1299991607666</v>
       </c>
       <c r="K2">
-        <v>48.79999923706055</v>
+        <v>50.15000152587891</v>
       </c>
       <c r="L2">
-        <v>0.9265417079288234</v>
+        <v>0.9173596037650427</v>
       </c>
       <c r="M2">
-        <v>-1.178543673037552</v>
+        <v>-1.191487904974522</v>
       </c>
       <c r="N2">
-        <v>0.3811084356855701</v>
+        <v>0.3865016445241905</v>
       </c>
       <c r="O2">
-        <v>0.4691748668548907</v>
+        <v>0.8249781435817773</v>
       </c>
       <c r="P2">
-        <v>0.009385917517934749</v>
+        <v>0.009613566304950775</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -593,49 +599,49 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0.464093518326252</v>
+        <v>0.4629503046435782</v>
       </c>
       <c r="E3">
-        <v>0.3860184456618421</v>
+        <v>0.3184872658927514</v>
       </c>
       <c r="F3">
-        <v>0.0001003544941565413</v>
+        <v>7.97770485232832E-05</v>
       </c>
       <c r="G3">
-        <v>3.224722819137035</v>
+        <v>3.235484234786011</v>
       </c>
       <c r="H3">
-        <v>0.2628891249361243</v>
+        <v>0.2625533969773292</v>
       </c>
       <c r="I3">
-        <v>1.221103853797639E-53</v>
+        <v>9.360681743456186E-54</v>
       </c>
       <c r="J3">
         <v>13.01000022888184</v>
       </c>
       <c r="K3">
-        <v>36.06999969482422</v>
+        <v>36.31000137329102</v>
       </c>
       <c r="L3">
-        <v>0.7792314059631504</v>
+        <v>0.7805332569229702</v>
       </c>
       <c r="M3">
-        <v>-0.5783448021266295</v>
+        <v>-0.5768672569843947</v>
       </c>
       <c r="N3">
-        <v>0.2323224606192658</v>
+        <v>0.2315740339719796</v>
       </c>
       <c r="O3">
-        <v>0.3028667535261924</v>
+        <v>0.2412017892867819</v>
       </c>
       <c r="P3">
-        <v>0.009897397287759227</v>
+        <v>0.009793301535422677</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -643,111 +649,111 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1778</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>0.5988083903200976</v>
+        <v>0.4481608399061464</v>
       </c>
       <c r="E4">
-        <v>0.5262068649496248</v>
+        <v>0.3609194657484877</v>
       </c>
       <c r="F4">
-        <v>0.0001629553330548611</v>
+        <v>0.0001497135223404321</v>
       </c>
       <c r="G4">
-        <v>8.525625312568987</v>
+        <v>-15.06420601664741</v>
       </c>
       <c r="H4">
-        <v>2.588849470174623</v>
+        <v>0.9737154549271667</v>
       </c>
       <c r="I4">
-        <v>6.472381807429357E-68</v>
+        <v>7.336212732697816E-41</v>
       </c>
       <c r="J4">
-        <v>21.3799991607666</v>
+        <v>12.78999996185303</v>
       </c>
       <c r="K4">
-        <v>4.630000114440918</v>
+        <v>29.1299991607666</v>
       </c>
       <c r="L4">
-        <v>1.265562153724883</v>
+        <v>1.232061888980741</v>
       </c>
       <c r="M4">
-        <v>-1.950043070097461</v>
+        <v>-0.7990022772111374</v>
       </c>
       <c r="N4">
-        <v>0.539027645511482</v>
+        <v>0.4078349424171704</v>
       </c>
       <c r="O4">
-        <v>0.8680005050188004</v>
+        <v>-0.5101244063534018</v>
       </c>
       <c r="P4">
-        <v>0.01036531972804965</v>
+        <v>0.01069337138200988</v>
       </c>
       <c r="Q4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>372</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
       <c r="D5">
-        <v>0.1721372281162747</v>
+        <v>0.4629503046435782</v>
       </c>
       <c r="E5">
-        <v>0.3398712154344781</v>
+        <v>0.3609194657484877</v>
       </c>
       <c r="F5">
-        <v>0.000102484871691931</v>
+        <v>0.0005127733369068854</v>
       </c>
       <c r="G5">
-        <v>21.71215891489016</v>
+        <v>-5.833339289991136</v>
       </c>
       <c r="H5">
-        <v>1.733973898884525</v>
+        <v>0.6593591316498806</v>
       </c>
       <c r="I5">
-        <v>1.663867216331448E-34</v>
+        <v>9.788136404189635E-35</v>
       </c>
       <c r="J5">
-        <v>28.3700008392334</v>
+        <v>13.01000022888184</v>
       </c>
       <c r="K5">
-        <v>3.299999952316284</v>
+        <v>29.1299991607666</v>
       </c>
       <c r="L5">
-        <v>1.051339143127841</v>
+        <v>1.002194859532208</v>
       </c>
       <c r="M5">
-        <v>-1.001516050135816</v>
+        <v>-0.6238730250140936</v>
       </c>
       <c r="N5">
-        <v>0.3907171306896357</v>
+        <v>0.3200723295200442</v>
       </c>
       <c r="O5">
-        <v>0.9357281407066242</v>
+        <v>-0.3637914327318441</v>
       </c>
       <c r="P5">
-        <v>0.0111074869556034</v>
+        <v>0.01179715857462107</v>
       </c>
       <c r="Q5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="R5" t="s">
         <v>18</v>
@@ -755,335 +761,335 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>320</v>
+        <v>531</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.1721372281162747</v>
+        <v>0.7837937024890418</v>
       </c>
       <c r="E6">
-        <v>0.3860184456618421</v>
+        <v>0.3752177801258954</v>
       </c>
       <c r="F6">
-        <v>0.0003221063281656362</v>
+        <v>0.0008288206386300128</v>
       </c>
       <c r="G6">
-        <v>17.57633941961727</v>
+        <v>0.9220670398315872</v>
       </c>
       <c r="H6">
-        <v>0.2851219752045157</v>
+        <v>0.7215592255530662</v>
       </c>
       <c r="I6">
-        <v>1.541499244305055E-33</v>
+        <v>1.138515232479427E-23</v>
       </c>
       <c r="J6">
-        <v>28.3700008392334</v>
+        <v>15.64000034332275</v>
       </c>
       <c r="K6">
-        <v>36.06999969482422</v>
+        <v>18.27000045776367</v>
       </c>
       <c r="L6">
-        <v>0.9276958169653646</v>
+        <v>2.479317099634148</v>
       </c>
       <c r="M6">
-        <v>-1.194535267656597</v>
+        <v>-1.130871402698617</v>
       </c>
       <c r="N6">
-        <v>0.3971899666364216</v>
+        <v>0.5240151464994863</v>
       </c>
       <c r="O6">
-        <v>0.5093118610015726</v>
+        <v>1.535045922333047</v>
       </c>
       <c r="P6">
-        <v>0.01163671622672345</v>
+        <v>0.01216759553508143</v>
       </c>
       <c r="Q6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>360</v>
+        <v>2887</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.1721372281162747</v>
+        <v>0.5024404739298196</v>
       </c>
       <c r="E7">
-        <v>0.6311451722015482</v>
+        <v>0.6482238070873184</v>
       </c>
       <c r="F7">
-        <v>0.005445246010301539</v>
+        <v>0.0005886326955957644</v>
       </c>
       <c r="G7">
-        <v>24.79895324408399</v>
+        <v>2.755466250553854</v>
       </c>
       <c r="H7">
-        <v>0.1568902658304571</v>
+        <v>0.4489432476110837</v>
       </c>
       <c r="I7">
-        <v>1.14695829464326E-32</v>
+        <v>2.460193151259062E-45</v>
       </c>
       <c r="J7">
-        <v>28.3700008392334</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="K7">
-        <v>12.57999992370605</v>
+        <v>52.11999893188477</v>
       </c>
       <c r="L7">
-        <v>1.597368062972034</v>
+        <v>1.400030059766678</v>
       </c>
       <c r="M7">
-        <v>-0.9348060204355555</v>
+        <v>-1.915156917477432</v>
       </c>
       <c r="N7">
-        <v>0.4031161351330242</v>
+        <v>0.661324259420407</v>
       </c>
       <c r="O7">
-        <v>1.597368062972033</v>
+        <v>0.7356115531280238</v>
       </c>
       <c r="P7">
-        <v>0.01205268165358956</v>
+        <v>0.01231693974913401</v>
       </c>
       <c r="Q7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1238</v>
+        <v>2468</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.8679939590717625</v>
+        <v>0.6654469429628777</v>
       </c>
       <c r="E8">
-        <v>0.7081220514870212</v>
+        <v>0.5669206654232684</v>
       </c>
       <c r="F8">
-        <v>0.001328994042045495</v>
+        <v>0.001383316210719743</v>
       </c>
       <c r="G8">
-        <v>5.024309462508477</v>
+        <v>18.06776769610155</v>
       </c>
       <c r="H8">
-        <v>0.1383995049137597</v>
+        <v>2.490344508655158</v>
       </c>
       <c r="I8">
-        <v>4.193909833188625E-61</v>
+        <v>2.966062322349174E-39</v>
       </c>
       <c r="J8">
-        <v>11.61999988555908</v>
+        <v>32.27000045776367</v>
       </c>
       <c r="K8">
-        <v>44.43999862670898</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="L8">
-        <v>0.8644167486725269</v>
+        <v>1.703288663643175</v>
       </c>
       <c r="M8">
-        <v>-1.112670237682117</v>
+        <v>-2.672318467737533</v>
       </c>
       <c r="N8">
-        <v>0.3367667656381767</v>
+        <v>0.9377987429595379</v>
       </c>
       <c r="O8">
-        <v>0.4452166147459202</v>
+        <v>1.202634948977272</v>
       </c>
       <c r="P8">
-        <v>0.01258362093696165</v>
+        <v>0.01259530703010924</v>
       </c>
       <c r="Q8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2468</v>
+        <v>2186</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.6167408439932528</v>
+        <v>0.5893669667298777</v>
       </c>
       <c r="E9">
-        <v>0.5262068649496248</v>
+        <v>0.6155647614406184</v>
       </c>
       <c r="F9">
-        <v>0.00152154631701746</v>
+        <v>0.001074679129791132</v>
       </c>
       <c r="G9">
-        <v>18.13140110589465</v>
+        <v>4.911508343779617</v>
       </c>
       <c r="H9">
-        <v>2.474663212337096</v>
+        <v>1.245287942221121</v>
       </c>
       <c r="I9">
-        <v>2.427661005686774E-39</v>
+        <v>2.481263478769491E-47</v>
       </c>
       <c r="J9">
-        <v>30.98999977111816</v>
+        <v>35.52000045776367</v>
       </c>
       <c r="K9">
-        <v>4.630000114440918</v>
+        <v>23.60000038146973</v>
       </c>
       <c r="L9">
-        <v>1.714455036988127</v>
+        <v>2.427350467153495</v>
       </c>
       <c r="M9">
-        <v>-2.657073046412087</v>
+        <v>-1.73988428599224</v>
       </c>
       <c r="N9">
-        <v>0.9332216936741106</v>
+        <v>0.786531862406096</v>
       </c>
       <c r="O9">
-        <v>1.400907708900029</v>
+        <v>1.219696202525956</v>
       </c>
       <c r="P9">
-        <v>0.01259610475068349</v>
+        <v>0.01283827965304388</v>
       </c>
       <c r="Q9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>339</v>
+        <v>1238</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0.1721372281162747</v>
+        <v>0.8698991415668009</v>
       </c>
       <c r="E10">
-        <v>0.5661455772935808</v>
+        <v>0.6555903832311335</v>
       </c>
       <c r="F10">
-        <v>0.001858696778168877</v>
+        <v>0.003239085223449869</v>
       </c>
       <c r="G10">
-        <v>19.04524753445011</v>
+        <v>4.958817395528632</v>
       </c>
       <c r="H10">
-        <v>0.2098471735266559</v>
+        <v>0.1404093191852596</v>
       </c>
       <c r="I10">
-        <v>6.641281082588512E-33</v>
+        <v>6.174070189956692E-61</v>
       </c>
       <c r="J10">
-        <v>28.3700008392334</v>
+        <v>11.85000038146973</v>
       </c>
       <c r="K10">
-        <v>40.34000015258789</v>
+        <v>43.97999954223633</v>
       </c>
       <c r="L10">
-        <v>1.063999988614629</v>
+        <v>0.8415975793227233</v>
       </c>
       <c r="M10">
-        <v>-1.102709152027074</v>
+        <v>-1.106206417542928</v>
       </c>
       <c r="N10">
-        <v>0.4014941215038543</v>
+        <v>0.3415054490450699</v>
       </c>
       <c r="O10">
-        <v>0.8595182926978548</v>
+        <v>0.7159811924476607</v>
       </c>
       <c r="P10">
-        <v>0.0126101788000454</v>
+        <v>0.01328229444798321</v>
       </c>
       <c r="Q10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2186</v>
+        <v>1770</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
       <c r="D11">
-        <v>0.3910599130126821</v>
+        <v>0.4960225586215738</v>
       </c>
       <c r="E11">
-        <v>0.5254306322014121</v>
+        <v>0.6654469429628777</v>
       </c>
       <c r="F11">
-        <v>0.0007202637258898585</v>
+        <v>0.002534781020145686</v>
       </c>
       <c r="G11">
-        <v>4.925299104238599</v>
+        <v>-3.018423024931251</v>
       </c>
       <c r="H11">
-        <v>1.244860096335459</v>
+        <v>0.8000800765811688</v>
       </c>
       <c r="I11">
-        <v>1.448794078116143E-46</v>
+        <v>2.901822066183519E-40</v>
       </c>
       <c r="J11">
-        <v>34.86000061035156</v>
+        <v>21.79999923706055</v>
       </c>
       <c r="K11">
-        <v>23.20000076293945</v>
+        <v>32.27000045776367</v>
       </c>
       <c r="L11">
-        <v>2.423150634805211</v>
+        <v>2.452427925943759</v>
       </c>
       <c r="M11">
-        <v>-1.743998942173683</v>
+        <v>-1.728511871891339</v>
       </c>
       <c r="N11">
-        <v>0.7952280868224293</v>
+        <v>0.8629135758450902</v>
       </c>
       <c r="O11">
-        <v>1.053946321377435</v>
+        <v>-1.000162175530111</v>
       </c>
       <c r="P11">
-        <v>0.01271631432515982</v>
+        <v>0.01357244580208333</v>
       </c>
       <c r="Q11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="R11" t="s">
         <v>23</v>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -70,52 +70,55 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>BBDC3</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
     <t>BBAS3</t>
   </si>
   <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>ENGI11</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
     <t>TIMS3</t>
   </si>
   <si>
     <t>VIVT3</t>
   </si>
   <si>
-    <t>LWSA3</t>
+    <t>ITSA4</t>
   </si>
   <si>
     <t>RAIL3</t>
   </si>
   <si>
-    <t>EMBR3</t>
+    <t>IGTI11</t>
   </si>
 </sst>
 </file>
@@ -537,55 +540,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>343</v>
+        <v>1778</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>0.3609194657484877</v>
+        <v>0.588137017639109</v>
       </c>
       <c r="E2">
-        <v>0.1729636659305799</v>
+        <v>0.6422608273023778</v>
       </c>
       <c r="F2">
-        <v>0.000132477162390824</v>
+        <v>9.597962230275289E-05</v>
       </c>
       <c r="G2">
-        <v>14.32096485703826</v>
+        <v>8.452954996384202</v>
       </c>
       <c r="H2">
-        <v>0.2788445809504187</v>
+        <v>2.606498856123801</v>
       </c>
       <c r="I2">
-        <v>1.425605298135616E-36</v>
+        <v>1.956816851777524E-68</v>
       </c>
       <c r="J2">
-        <v>29.1299991607666</v>
+        <v>22.17000007629395</v>
       </c>
       <c r="K2">
-        <v>50.15000152587891</v>
+        <v>5.019999980926514</v>
       </c>
       <c r="L2">
-        <v>0.9173596037650427</v>
+        <v>1.254044899268727</v>
       </c>
       <c r="M2">
-        <v>-1.191487904974522</v>
+        <v>-1.977268275691937</v>
       </c>
       <c r="N2">
-        <v>0.3865016445241905</v>
+        <v>0.534451162368302</v>
       </c>
       <c r="O2">
-        <v>0.8249781435817773</v>
+        <v>0.6324208718832853</v>
       </c>
       <c r="P2">
-        <v>0.009613566304950775</v>
+        <v>0.009667039434858219</v>
       </c>
       <c r="Q2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -593,506 +596,506 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>0.4629503046435782</v>
+        <v>0.409794930691305</v>
       </c>
       <c r="E3">
-        <v>0.3184872658927514</v>
+        <v>0.3914792590848504</v>
       </c>
       <c r="F3">
-        <v>7.97770485232832E-05</v>
+        <v>0.0004569267834042518</v>
       </c>
       <c r="G3">
-        <v>3.235484234786011</v>
+        <v>-14.46458397835743</v>
       </c>
       <c r="H3">
-        <v>0.2625533969773292</v>
+        <v>0.9513401853859427</v>
       </c>
       <c r="I3">
-        <v>9.360681743456186E-54</v>
+        <v>1.558361213267027E-41</v>
       </c>
       <c r="J3">
-        <v>13.01000022888184</v>
+        <v>12.89999961853027</v>
       </c>
       <c r="K3">
-        <v>36.31000137329102</v>
+        <v>29.26000022888184</v>
       </c>
       <c r="L3">
-        <v>0.7805332569229702</v>
+        <v>1.226503239939287</v>
       </c>
       <c r="M3">
-        <v>-0.5768672569843947</v>
+        <v>-0.7969533311943806</v>
       </c>
       <c r="N3">
-        <v>0.2315740339719796</v>
+        <v>0.4029400617718383</v>
       </c>
       <c r="O3">
-        <v>0.2412017892867819</v>
+        <v>-0.4716304452494668</v>
       </c>
       <c r="P3">
-        <v>0.009793301535422677</v>
+        <v>0.01142615410658919</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>238</v>
+        <v>531</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>0.4481608399061464</v>
+        <v>0.93829891460013</v>
       </c>
       <c r="E4">
-        <v>0.3609194657484877</v>
+        <v>0.3943156566868165</v>
       </c>
       <c r="F4">
-        <v>0.0001497135223404321</v>
+        <v>1.521057186590903E-07</v>
       </c>
       <c r="G4">
-        <v>-15.06420601664741</v>
+        <v>0.4895499612103114</v>
       </c>
       <c r="H4">
-        <v>0.9737154549271667</v>
+        <v>0.7470382507741649</v>
       </c>
       <c r="I4">
-        <v>7.336212732697816E-41</v>
+        <v>3.84294005874669E-25</v>
       </c>
       <c r="J4">
-        <v>12.78999996185303</v>
+        <v>15.69999980926514</v>
       </c>
       <c r="K4">
-        <v>29.1299991607666</v>
+        <v>18.31999969482422</v>
       </c>
       <c r="L4">
-        <v>1.232061888980741</v>
+        <v>2.468517873906361</v>
       </c>
       <c r="M4">
-        <v>-0.7990022772111374</v>
+        <v>-1.143982469362673</v>
       </c>
       <c r="N4">
-        <v>0.4078349424171704</v>
+        <v>0.5237621558049149</v>
       </c>
       <c r="O4">
-        <v>-0.5101244063534018</v>
+        <v>1.524709321850107</v>
       </c>
       <c r="P4">
-        <v>0.01069337138200988</v>
+        <v>0.01151343236841797</v>
       </c>
       <c r="Q4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
         <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>4</v>
+        <v>2887</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>0.4629503046435782</v>
+        <v>0.4764682575779087</v>
       </c>
       <c r="E5">
-        <v>0.3609194657484877</v>
+        <v>0.5925977301932178</v>
       </c>
       <c r="F5">
-        <v>0.0005127733369068854</v>
+        <v>0.0005410703385849144</v>
       </c>
       <c r="G5">
-        <v>-5.833339289991136</v>
+        <v>2.750938993047797</v>
       </c>
       <c r="H5">
-        <v>0.6593591316498806</v>
+        <v>0.448941406713598</v>
       </c>
       <c r="I5">
-        <v>9.788136404189635E-35</v>
+        <v>3.964864005034668E-46</v>
       </c>
       <c r="J5">
-        <v>13.01000022888184</v>
+        <v>27.04000091552734</v>
       </c>
       <c r="K5">
-        <v>29.1299991607666</v>
+        <v>52.43000030517578</v>
       </c>
       <c r="L5">
-        <v>1.002194859532208</v>
+        <v>1.404646587381254</v>
       </c>
       <c r="M5">
-        <v>-0.6238730250140936</v>
+        <v>-1.910528056750024</v>
       </c>
       <c r="N5">
-        <v>0.3200723295200442</v>
+        <v>0.65384843199825</v>
       </c>
       <c r="O5">
-        <v>-0.3637914327318441</v>
+        <v>0.7510638314795592</v>
       </c>
       <c r="P5">
-        <v>0.01179715857462107</v>
+        <v>0.01212065574429176</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>531</v>
+        <v>648</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>0.7837937024890418</v>
+        <v>0.7270048196017098</v>
       </c>
       <c r="E6">
-        <v>0.3752177801258954</v>
+        <v>0.68434812091689</v>
       </c>
       <c r="F6">
-        <v>0.0008288206386300128</v>
+        <v>0.0006426868540891633</v>
       </c>
       <c r="G6">
-        <v>0.9220670398315872</v>
+        <v>-2.498963765325217</v>
       </c>
       <c r="H6">
-        <v>0.7215592255530662</v>
+        <v>0.9073070967382059</v>
       </c>
       <c r="I6">
-        <v>1.138515232479427E-23</v>
+        <v>8.709874951408961E-30</v>
       </c>
       <c r="J6">
-        <v>15.64000034332275</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="K6">
-        <v>18.27000045776367</v>
+        <v>11.06999969482422</v>
       </c>
       <c r="L6">
-        <v>2.479317099634148</v>
+        <v>0.6433082612791674</v>
       </c>
       <c r="M6">
-        <v>-1.130871402698617</v>
+        <v>-0.6735186654932752</v>
       </c>
       <c r="N6">
-        <v>0.5240151464994863</v>
+        <v>0.2465788552158618</v>
       </c>
       <c r="O6">
-        <v>1.535045922333047</v>
+        <v>0.2950746339093211</v>
       </c>
       <c r="P6">
-        <v>0.01216759553508143</v>
+        <v>0.01214919321001313</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2887</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.5024404739298196</v>
+        <v>0.4188364563949811</v>
       </c>
       <c r="E7">
-        <v>0.6482238070873184</v>
+        <v>0.3914792590848504</v>
       </c>
       <c r="F7">
-        <v>0.0005886326955957644</v>
+        <v>0.001298363773421132</v>
       </c>
       <c r="G7">
-        <v>2.755466250553854</v>
+        <v>-5.315643163411729</v>
       </c>
       <c r="H7">
-        <v>0.4489432476110837</v>
+        <v>0.6400829958268441</v>
       </c>
       <c r="I7">
-        <v>2.460193151259062E-45</v>
+        <v>1.085860310575206E-34</v>
       </c>
       <c r="J7">
-        <v>26.88999938964844</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="K7">
-        <v>52.11999893188477</v>
+        <v>29.26000022888184</v>
       </c>
       <c r="L7">
-        <v>1.400030059766678</v>
+        <v>0.9914610903921357</v>
       </c>
       <c r="M7">
-        <v>-1.915156917477432</v>
+        <v>-0.5970090494822706</v>
       </c>
       <c r="N7">
-        <v>0.661324259420407</v>
+        <v>0.3194736357025398</v>
       </c>
       <c r="O7">
-        <v>0.7356115531280238</v>
+        <v>-0.4731858606018022</v>
       </c>
       <c r="P7">
-        <v>0.01231693974913401</v>
+        <v>0.01260512445428837</v>
       </c>
       <c r="Q7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2468</v>
+        <v>457</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.6654469429628777</v>
+        <v>0.6422042686916594</v>
       </c>
       <c r="E8">
-        <v>0.5669206654232684</v>
+        <v>0.3943156566868165</v>
       </c>
       <c r="F8">
-        <v>0.001383316210719743</v>
+        <v>0.00121310358943554</v>
       </c>
       <c r="G8">
-        <v>18.06776769610155</v>
+        <v>1.15088191598243</v>
       </c>
       <c r="H8">
-        <v>2.490344508655158</v>
+        <v>0.6271771303219748</v>
       </c>
       <c r="I8">
-        <v>2.966062322349174E-39</v>
+        <v>5.805309968389865E-25</v>
       </c>
       <c r="J8">
-        <v>32.27000045776367</v>
+        <v>14.0600004196167</v>
       </c>
       <c r="K8">
-        <v>5.21999979019165</v>
+        <v>18.31999969482422</v>
       </c>
       <c r="L8">
-        <v>1.703288663643175</v>
+        <v>1.87771995887579</v>
       </c>
       <c r="M8">
-        <v>-2.672318467737533</v>
+        <v>-0.9093738477681583</v>
       </c>
       <c r="N8">
-        <v>0.9377987429595379</v>
+        <v>0.4421688647260462</v>
       </c>
       <c r="O8">
-        <v>1.202634948977272</v>
+        <v>1.419233667534963</v>
       </c>
       <c r="P8">
-        <v>0.01259530703010924</v>
+        <v>0.0127438820130718</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2186</v>
+        <v>2468</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>0.5893669667298777</v>
+        <v>0.6167671968093009</v>
       </c>
       <c r="E9">
-        <v>0.6155647614406184</v>
+        <v>0.6422608273023778</v>
       </c>
       <c r="F9">
-        <v>0.001074679129791132</v>
+        <v>0.001784390750327817</v>
       </c>
       <c r="G9">
-        <v>4.911508343779617</v>
+        <v>18.03629598975585</v>
       </c>
       <c r="H9">
-        <v>1.245287942221121</v>
+        <v>2.499533968109986</v>
       </c>
       <c r="I9">
-        <v>2.481263478769491E-47</v>
+        <v>3.966190238755427E-39</v>
       </c>
       <c r="J9">
-        <v>35.52000045776367</v>
+        <v>31.79999923706055</v>
       </c>
       <c r="K9">
-        <v>23.60000038146973</v>
+        <v>5.019999980926514</v>
       </c>
       <c r="L9">
-        <v>2.427350467153495</v>
+        <v>1.690926648564613</v>
       </c>
       <c r="M9">
-        <v>-1.73988428599224</v>
+        <v>-2.687067837029019</v>
       </c>
       <c r="N9">
-        <v>0.786531862406096</v>
+        <v>0.9422156998282771</v>
       </c>
       <c r="O9">
-        <v>1.219696202525956</v>
+        <v>1.21604277506739</v>
       </c>
       <c r="P9">
-        <v>0.01283827965304388</v>
+        <v>0.01289618472086937</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1238</v>
+        <v>2186</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10">
-        <v>0.8698991415668009</v>
+        <v>0.1212361035295181</v>
       </c>
       <c r="E10">
-        <v>0.6555903832311335</v>
+        <v>0.6447790172132536</v>
       </c>
       <c r="F10">
-        <v>0.003239085223449869</v>
+        <v>0.0006557512528117688</v>
       </c>
       <c r="G10">
-        <v>4.958817395528632</v>
+        <v>8.599714478799836</v>
       </c>
       <c r="H10">
-        <v>0.1404093191852596</v>
+        <v>1.067791724464226</v>
       </c>
       <c r="I10">
-        <v>6.174070189956692E-61</v>
+        <v>8.815837247220247E-38</v>
       </c>
       <c r="J10">
-        <v>11.85000038146973</v>
+        <v>32.72002410888672</v>
       </c>
       <c r="K10">
-        <v>43.97999954223633</v>
+        <v>23.64999961853027</v>
       </c>
       <c r="L10">
-        <v>0.8415975793227233</v>
+        <v>2.718038418711885</v>
       </c>
       <c r="M10">
-        <v>-1.106206417542928</v>
+        <v>-2.526111723586212</v>
       </c>
       <c r="N10">
-        <v>0.3415054490450699</v>
+        <v>0.8434265648468554</v>
       </c>
       <c r="O10">
-        <v>0.7159811924476607</v>
+        <v>-1.132964246161841</v>
       </c>
       <c r="P10">
-        <v>0.01328229444798321</v>
+        <v>0.01298290177422511</v>
       </c>
       <c r="Q10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" t="s">
         <v>33</v>
-      </c>
-      <c r="R10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1770</v>
+        <v>1927</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>0.4960225586215738</v>
+        <v>0.645536481075216</v>
       </c>
       <c r="E11">
-        <v>0.6654469429628777</v>
+        <v>0.4166005334002341</v>
       </c>
       <c r="F11">
-        <v>0.002534781020145686</v>
+        <v>0.00918043159362035</v>
       </c>
       <c r="G11">
-        <v>-3.018423024931251</v>
+        <v>-5.897122754813317</v>
       </c>
       <c r="H11">
-        <v>0.8000800765811688</v>
+        <v>2.067488949212234</v>
       </c>
       <c r="I11">
-        <v>2.901822066183519E-40</v>
+        <v>1.499265253269062E-54</v>
       </c>
       <c r="J11">
-        <v>21.79999923706055</v>
+        <v>41.40000152587891</v>
       </c>
       <c r="K11">
-        <v>32.27000045776367</v>
+        <v>23.52000045776367</v>
       </c>
       <c r="L11">
-        <v>2.452427925943759</v>
+        <v>2.856235072615711</v>
       </c>
       <c r="M11">
-        <v>-1.728511871891339</v>
+        <v>-2.600892113903647</v>
       </c>
       <c r="N11">
-        <v>0.8629135758450902</v>
+        <v>1.073800699790028</v>
       </c>
       <c r="O11">
-        <v>-1.000162175530111</v>
+        <v>-1.330216751200858</v>
       </c>
       <c r="P11">
-        <v>0.01357244580208333</v>
+        <v>0.01317270916967843</v>
       </c>
       <c r="Q11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R11" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -73,13 +73,7 @@
     <t>CYRE3</t>
   </si>
   <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
-    <t>MULT3</t>
+    <t>EQTL3</t>
   </si>
   <si>
     <t>BEEF3</t>
@@ -88,37 +82,40 @@
     <t>ABEV3</t>
   </si>
   <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
     <t>BBDC3</t>
   </si>
   <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>ELET3</t>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
   </si>
   <si>
     <t>LWSA3</t>
   </si>
   <si>
-    <t>BBAS3</t>
+    <t>RAIL3</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
   </si>
   <si>
     <t>TIMS3</t>
   </si>
   <si>
-    <t>VIVT3</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>RAIL3</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
+  </si>
+  <si>
+    <t>IRBR3</t>
   </si>
 </sst>
 </file>
@@ -546,49 +543,49 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.588137017639109</v>
+        <v>0.5900687278426626</v>
       </c>
       <c r="E2">
-        <v>0.6422608273023778</v>
+        <v>0.6347668817232142</v>
       </c>
       <c r="F2">
-        <v>9.597962230275289E-05</v>
+        <v>0.0001183718613008794</v>
       </c>
       <c r="G2">
-        <v>8.452954996384202</v>
+        <v>8.449737444842196</v>
       </c>
       <c r="H2">
-        <v>2.606498856123801</v>
+        <v>2.608290538633375</v>
       </c>
       <c r="I2">
-        <v>1.956816851777524E-68</v>
+        <v>1.376818794707427E-68</v>
       </c>
       <c r="J2">
-        <v>22.17000007629395</v>
+        <v>22.21999931335449</v>
       </c>
       <c r="K2">
-        <v>5.019999980926514</v>
+        <v>4.989999771118164</v>
       </c>
       <c r="L2">
-        <v>1.254044899268727</v>
+        <v>1.248716125274239</v>
       </c>
       <c r="M2">
-        <v>-1.977268275691937</v>
+        <v>-1.984191646880731</v>
       </c>
       <c r="N2">
-        <v>0.534451162368302</v>
+        <v>0.5364037207281033</v>
       </c>
       <c r="O2">
-        <v>0.6324208718832853</v>
+        <v>0.7548926777220846</v>
       </c>
       <c r="P2">
-        <v>0.009667039434858219</v>
+        <v>0.009832032370027399</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -596,111 +593,111 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>238</v>
+        <v>2186</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.409794930691305</v>
+        <v>0.2884244612549423</v>
       </c>
       <c r="E3">
-        <v>0.3914792590848504</v>
+        <v>0.6188536027295909</v>
       </c>
       <c r="F3">
-        <v>0.0004569267834042518</v>
+        <v>0.0003376439188921213</v>
       </c>
       <c r="G3">
-        <v>-14.46458397835743</v>
+        <v>8.138967790569463</v>
       </c>
       <c r="H3">
-        <v>0.9513401853859427</v>
+        <v>1.090563842301986</v>
       </c>
       <c r="I3">
-        <v>1.558361213267027E-41</v>
+        <v>2.470744421543204E-38</v>
       </c>
       <c r="J3">
-        <v>12.89999961853027</v>
+        <v>35.63999938964844</v>
       </c>
       <c r="K3">
-        <v>29.26000022888184</v>
+        <v>23.5</v>
       </c>
       <c r="L3">
-        <v>1.226503239939287</v>
+        <v>2.718859865224886</v>
       </c>
       <c r="M3">
-        <v>-0.7969533311943806</v>
+        <v>-2.60848005447329</v>
       </c>
       <c r="N3">
-        <v>0.4029400617718383</v>
+        <v>0.8590329536114909</v>
       </c>
       <c r="O3">
-        <v>-0.4716304452494668</v>
+        <v>1.872781304982308</v>
       </c>
       <c r="P3">
-        <v>0.01142615410658919</v>
+        <v>0.01118719349299192</v>
       </c>
       <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>531</v>
+        <v>648</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.93829891460013</v>
+        <v>0.7750724691917702</v>
       </c>
       <c r="E4">
-        <v>0.3943156566868165</v>
+        <v>0.7606401065565604</v>
       </c>
       <c r="F4">
-        <v>1.521057186590903E-07</v>
+        <v>0.0006959029826189637</v>
       </c>
       <c r="G4">
-        <v>0.4895499612103114</v>
+        <v>-2.729430476720429</v>
       </c>
       <c r="H4">
-        <v>0.7470382507741649</v>
+        <v>0.9305962710121036</v>
       </c>
       <c r="I4">
-        <v>3.84294005874669E-25</v>
+        <v>1.000389678520966E-31</v>
       </c>
       <c r="J4">
-        <v>15.69999980926514</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="K4">
-        <v>18.31999969482422</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="L4">
-        <v>2.468517873906361</v>
+        <v>0.6390200977703131</v>
       </c>
       <c r="M4">
-        <v>-1.143982469362673</v>
+        <v>-0.6836291225706042</v>
       </c>
       <c r="N4">
-        <v>0.5237621558049149</v>
+        <v>0.2478841471903058</v>
       </c>
       <c r="O4">
-        <v>1.524709321850107</v>
+        <v>0.3742592395413133</v>
       </c>
       <c r="P4">
-        <v>0.01151343236841797</v>
+        <v>0.01224123238045363</v>
       </c>
       <c r="Q4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -708,170 +705,170 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2887</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>0.4764682575779087</v>
+        <v>0.4230044880697664</v>
       </c>
       <c r="E5">
-        <v>0.5925977301932178</v>
+        <v>0.3579652665493962</v>
       </c>
       <c r="F5">
-        <v>0.0005410703385849144</v>
+        <v>0.001255509810647519</v>
       </c>
       <c r="G5">
-        <v>2.750938993047797</v>
+        <v>-5.051709871680869</v>
       </c>
       <c r="H5">
-        <v>0.448941406713598</v>
+        <v>0.6406708285357179</v>
       </c>
       <c r="I5">
-        <v>3.964864005034668E-46</v>
+        <v>4.454425575906722E-35</v>
       </c>
       <c r="J5">
-        <v>27.04000091552734</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="K5">
-        <v>52.43000030517578</v>
+        <v>28.65850257873535</v>
       </c>
       <c r="L5">
-        <v>1.404646587381254</v>
+        <v>0.9847947699126642</v>
       </c>
       <c r="M5">
-        <v>-1.910528056750024</v>
+        <v>-0.584595670262015</v>
       </c>
       <c r="N5">
-        <v>0.65384843199825</v>
+        <v>0.3199476246235414</v>
       </c>
       <c r="O5">
-        <v>0.7510638314795592</v>
+        <v>-0.3689571396472147</v>
       </c>
       <c r="P5">
-        <v>0.01212065574429176</v>
+        <v>0.0128445678847129</v>
       </c>
       <c r="Q5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.7270048196017098</v>
+        <v>0.7750724691917702</v>
       </c>
       <c r="E6">
-        <v>0.68434812091689</v>
+        <v>0.9140092521742678</v>
       </c>
       <c r="F6">
-        <v>0.0006426868540891633</v>
+        <v>0.0009503917322898532</v>
       </c>
       <c r="G6">
-        <v>-2.498963765325217</v>
+        <v>-1.303272276111097</v>
       </c>
       <c r="H6">
-        <v>0.9073070967382059</v>
+        <v>0.2394925721970153</v>
       </c>
       <c r="I6">
-        <v>8.709874951408961E-30</v>
+        <v>2.385625117302303E-29</v>
       </c>
       <c r="J6">
-        <v>7.840000152587891</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="K6">
-        <v>11.06999969482422</v>
+        <v>37.08000183105469</v>
       </c>
       <c r="L6">
-        <v>0.6433082612791674</v>
+        <v>0.5364088809710852</v>
       </c>
       <c r="M6">
-        <v>-0.6735186654932752</v>
+        <v>-0.7525241149591553</v>
       </c>
       <c r="N6">
-        <v>0.2465788552158618</v>
+        <v>0.2580202984680631</v>
       </c>
       <c r="O6">
-        <v>0.2950746339093211</v>
+        <v>0.322887355889204</v>
       </c>
       <c r="P6">
-        <v>0.01214919321001313</v>
+        <v>0.0130704930648264</v>
       </c>
       <c r="Q6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>4</v>
+        <v>2468</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>0.4188364563949811</v>
+        <v>0.6313937728097252</v>
       </c>
       <c r="E7">
-        <v>0.3914792590848504</v>
+        <v>0.6347668817232142</v>
       </c>
       <c r="F7">
-        <v>0.001298363773421132</v>
+        <v>0.002049516139693821</v>
       </c>
       <c r="G7">
-        <v>-5.315643163411729</v>
+        <v>18.03057970244816</v>
       </c>
       <c r="H7">
-        <v>0.6400829958268441</v>
+        <v>2.502716675927197</v>
       </c>
       <c r="I7">
-        <v>1.085860310575206E-34</v>
+        <v>3.758387441526698E-39</v>
       </c>
       <c r="J7">
-        <v>12.9399995803833</v>
+        <v>31.86000061035156</v>
       </c>
       <c r="K7">
-        <v>29.26000022888184</v>
+        <v>4.989999771118164</v>
       </c>
       <c r="L7">
-        <v>0.9914610903921357</v>
+        <v>1.681461419644911</v>
       </c>
       <c r="M7">
-        <v>-0.5970090494822706</v>
+        <v>-2.697360570709655</v>
       </c>
       <c r="N7">
-        <v>0.3194736357025398</v>
+        <v>0.9457614397297206</v>
       </c>
       <c r="O7">
-        <v>-0.4731858606018022</v>
+        <v>1.340865267853074</v>
       </c>
       <c r="P7">
-        <v>0.01260512445428837</v>
+        <v>0.01312862242139469</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -879,223 +876,223 @@
         <v>457</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.6422042686916594</v>
+        <v>0.8816922953218409</v>
       </c>
       <c r="E8">
-        <v>0.3943156566868165</v>
+        <v>0.3799461065296141</v>
       </c>
       <c r="F8">
-        <v>0.00121310358943554</v>
+        <v>0.001804926806011072</v>
       </c>
       <c r="G8">
-        <v>1.15088191598243</v>
+        <v>0.7915135601882839</v>
       </c>
       <c r="H8">
-        <v>0.6271771303219748</v>
+        <v>0.6489492618390897</v>
       </c>
       <c r="I8">
-        <v>5.805309968389865E-25</v>
+        <v>2.245851693454136E-25</v>
       </c>
       <c r="J8">
-        <v>14.0600004196167</v>
+        <v>14.03999996185303</v>
       </c>
       <c r="K8">
-        <v>18.31999969482422</v>
+        <v>18.25</v>
       </c>
       <c r="L8">
-        <v>1.87771995887579</v>
+        <v>1.858269596233386</v>
       </c>
       <c r="M8">
-        <v>-0.9093738477681583</v>
+        <v>-0.9349367838409339</v>
       </c>
       <c r="N8">
-        <v>0.4421688647260462</v>
+        <v>0.4569365867091338</v>
       </c>
       <c r="O8">
-        <v>1.419233667534963</v>
+        <v>1.405162373101357</v>
       </c>
       <c r="P8">
-        <v>0.0127438820130718</v>
+        <v>0.01345876407707235</v>
       </c>
       <c r="Q8" t="s">
         <v>30</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2468</v>
+        <v>320</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.6167671968093009</v>
+        <v>0.3579652665493962</v>
       </c>
       <c r="E9">
-        <v>0.6422608273023778</v>
+        <v>0.3053155486624478</v>
       </c>
       <c r="F9">
-        <v>0.001784390750327817</v>
+        <v>9.768547456363944E-05</v>
       </c>
       <c r="G9">
-        <v>18.03629598975585</v>
+        <v>16.72382649476113</v>
       </c>
       <c r="H9">
-        <v>2.499533968109986</v>
+        <v>0.2980269172367567</v>
       </c>
       <c r="I9">
-        <v>3.966190238755427E-39</v>
+        <v>3.423764573847824E-33</v>
       </c>
       <c r="J9">
-        <v>31.79999923706055</v>
+        <v>28.65850257873535</v>
       </c>
       <c r="K9">
-        <v>5.019999980926514</v>
+        <v>36.75</v>
       </c>
       <c r="L9">
-        <v>1.690926648564613</v>
+        <v>1.199491985891186</v>
       </c>
       <c r="M9">
-        <v>-2.687067837029019</v>
+        <v>-1.209862509392146</v>
       </c>
       <c r="N9">
-        <v>0.9422156998282771</v>
+        <v>0.4238227036734735</v>
       </c>
       <c r="O9">
-        <v>1.21604277506739</v>
+        <v>0.9821868755234071</v>
       </c>
       <c r="P9">
-        <v>0.01289618472086937</v>
+        <v>0.01351521882330669</v>
       </c>
       <c r="Q9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2186</v>
+        <v>1238</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.1212361035295181</v>
+        <v>0.8870925007499346</v>
       </c>
       <c r="E10">
-        <v>0.6447790172132536</v>
+        <v>0.7077835739831464</v>
       </c>
       <c r="F10">
-        <v>0.0006557512528117688</v>
+        <v>0.003545001422936413</v>
       </c>
       <c r="G10">
-        <v>8.599714478799836</v>
+        <v>4.872160779959667</v>
       </c>
       <c r="H10">
-        <v>1.067791724464226</v>
+        <v>0.1432033420659679</v>
       </c>
       <c r="I10">
-        <v>8.815837247220247E-38</v>
+        <v>2.362787336688212E-61</v>
       </c>
       <c r="J10">
-        <v>32.72002410888672</v>
+        <v>11.97999954223633</v>
       </c>
       <c r="K10">
-        <v>23.64999961853027</v>
+        <v>45.02999877929688</v>
       </c>
       <c r="L10">
-        <v>2.718038418711885</v>
+        <v>0.8054848333503752</v>
       </c>
       <c r="M10">
-        <v>-2.526111723586212</v>
+        <v>-1.10161073316236</v>
       </c>
       <c r="N10">
-        <v>0.8434265648468554</v>
+        <v>0.3497089835268385</v>
       </c>
       <c r="O10">
-        <v>-1.132964246161841</v>
+        <v>0.6593924438548937</v>
       </c>
       <c r="P10">
-        <v>0.01298290177422511</v>
+        <v>0.01371931089270714</v>
       </c>
       <c r="Q10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1927</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.645536481075216</v>
+        <v>0.3579652665493962</v>
       </c>
       <c r="E11">
-        <v>0.4166005334002341</v>
+        <v>0.4204789812265589</v>
       </c>
       <c r="F11">
-        <v>0.00918043159362035</v>
+        <v>0.002701310566344295</v>
       </c>
       <c r="G11">
-        <v>-5.897122754813317</v>
+        <v>22.84543459451202</v>
       </c>
       <c r="H11">
-        <v>2.067488949212234</v>
+        <v>0.1097129122318873</v>
       </c>
       <c r="I11">
-        <v>1.499265253269062E-54</v>
+        <v>9.354352983820793E-28</v>
       </c>
       <c r="J11">
-        <v>41.40000152587891</v>
+        <v>28.65850257873535</v>
       </c>
       <c r="K11">
-        <v>23.52000045776367</v>
+        <v>47.04999923706055</v>
       </c>
       <c r="L11">
-        <v>2.856235072615711</v>
+        <v>1.06462770375688</v>
       </c>
       <c r="M11">
-        <v>-2.600892113903647</v>
+        <v>-1.205822738395312</v>
       </c>
       <c r="N11">
-        <v>1.073800699790028</v>
+        <v>0.4644975978934933</v>
       </c>
       <c r="O11">
-        <v>-1.330216751200858</v>
+        <v>0.6510755474173431</v>
       </c>
       <c r="P11">
-        <v>0.01317270916967843</v>
+        <v>0.01378167678121057</v>
       </c>
       <c r="Q11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="R11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>N</t>
   </si>
@@ -70,52 +70,58 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
     <t>CYRE3</t>
   </si>
   <si>
-    <t>EQTL3</t>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
   </si>
   <si>
     <t>BEEF3</t>
   </si>
   <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>BBDC3</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>RENT3</t>
   </si>
   <si>
     <t>CMIG4</t>
   </si>
   <si>
+    <t>RAIL3</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
     <t>LWSA3</t>
   </si>
   <si>
-    <t>RAIL3</t>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
   </si>
   <si>
     <t>ITSA4</t>
   </si>
   <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
     <t>TIMS3</t>
   </si>
   <si>
-    <t>BPAC11</t>
+    <t>UGPA3</t>
   </si>
   <si>
     <t>EMBR3</t>
-  </si>
-  <si>
-    <t>IRBR3</t>
   </si>
 </sst>
 </file>
@@ -537,55 +543,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1778</v>
+        <v>2186</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.5900687278426626</v>
+        <v>0.5348742891713543</v>
       </c>
       <c r="E2">
-        <v>0.6347668817232142</v>
+        <v>0.5993857754245523</v>
       </c>
       <c r="F2">
-        <v>0.0001183718613008794</v>
+        <v>4.34796008141785E-05</v>
       </c>
       <c r="G2">
-        <v>8.449737444842196</v>
+        <v>5.223102211267854</v>
       </c>
       <c r="H2">
-        <v>2.608290538633375</v>
+        <v>1.230188760093159</v>
       </c>
       <c r="I2">
-        <v>1.376818794707427E-68</v>
+        <v>8.608937147177421E-47</v>
       </c>
       <c r="J2">
-        <v>22.21999931335449</v>
+        <v>34.90000152587891</v>
       </c>
       <c r="K2">
-        <v>4.989999771118164</v>
+        <v>23.3799991607666</v>
       </c>
       <c r="L2">
-        <v>1.248716125274239</v>
+        <v>2.50478404769499</v>
       </c>
       <c r="M2">
-        <v>-1.984191646880731</v>
+        <v>-2.163717270763669</v>
       </c>
       <c r="N2">
-        <v>0.5364037207281033</v>
+        <v>0.8083449266042491</v>
       </c>
       <c r="O2">
-        <v>0.7548926777220846</v>
+        <v>0.9150871360484807</v>
       </c>
       <c r="P2">
-        <v>0.009832032370027399</v>
+        <v>0.00933630368675354</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -593,55 +599,55 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2186</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0.2884244612549423</v>
+        <v>0.4532593561031967</v>
       </c>
       <c r="E3">
-        <v>0.6188536027295909</v>
+        <v>0.2486891706920485</v>
       </c>
       <c r="F3">
-        <v>0.0003376439188921213</v>
+        <v>7.394713993404763E-05</v>
       </c>
       <c r="G3">
-        <v>8.138967790569463</v>
+        <v>3.213122534075969</v>
       </c>
       <c r="H3">
-        <v>1.090563842301986</v>
+        <v>0.2632435351196972</v>
       </c>
       <c r="I3">
-        <v>2.470744421543204E-38</v>
+        <v>2.409081334437769E-55</v>
       </c>
       <c r="J3">
-        <v>35.63999938964844</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>23.5</v>
+        <v>36.11000061035156</v>
       </c>
       <c r="L3">
-        <v>2.718859865224886</v>
+        <v>0.7780971408584918</v>
       </c>
       <c r="M3">
-        <v>-2.60848005447329</v>
+        <v>-0.5796645382527252</v>
       </c>
       <c r="N3">
-        <v>0.8590329536114909</v>
+        <v>0.2298036040005518</v>
       </c>
       <c r="O3">
-        <v>1.872781304982308</v>
+        <v>0.2811532520806619</v>
       </c>
       <c r="P3">
-        <v>0.01118719349299192</v>
+        <v>0.009714756393092414</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -649,55 +655,55 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>648</v>
+        <v>1778</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>0.7750724691917702</v>
+        <v>0.5648451569073427</v>
       </c>
       <c r="E4">
-        <v>0.7606401065565604</v>
+        <v>0.6252228281880856</v>
       </c>
       <c r="F4">
-        <v>0.0006959029826189637</v>
+        <v>9.924085641335467E-05</v>
       </c>
       <c r="G4">
-        <v>-2.729430476720429</v>
+        <v>8.456809380114457</v>
       </c>
       <c r="H4">
-        <v>0.9305962710121036</v>
+        <v>2.60769290892383</v>
       </c>
       <c r="I4">
-        <v>1.000389678520966E-31</v>
+        <v>7.575721314954058E-69</v>
       </c>
       <c r="J4">
-        <v>7.900000095367432</v>
+        <v>21.60000038146973</v>
       </c>
       <c r="K4">
-        <v>11.02000045776367</v>
+        <v>4.820000171661377</v>
       </c>
       <c r="L4">
-        <v>0.6390200977703131</v>
+        <v>1.244494883705109</v>
       </c>
       <c r="M4">
-        <v>-0.6836291225706042</v>
+        <v>-1.987880998088158</v>
       </c>
       <c r="N4">
-        <v>0.2478841471903058</v>
+        <v>0.5367005834376297</v>
       </c>
       <c r="O4">
-        <v>0.3742592395413133</v>
+        <v>0.5741107327022554</v>
       </c>
       <c r="P4">
-        <v>0.01224123238045363</v>
+        <v>0.009852963299539176</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -705,226 +711,226 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>4</v>
+        <v>1977</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>0.4230044880697664</v>
+        <v>0.4533241155918461</v>
       </c>
       <c r="E5">
-        <v>0.3579652665493962</v>
+        <v>0.2848110972517316</v>
       </c>
       <c r="F5">
-        <v>0.001255509810647519</v>
+        <v>0.0009316266132751604</v>
       </c>
       <c r="G5">
-        <v>-5.051709871680869</v>
+        <v>3.831423975940152</v>
       </c>
       <c r="H5">
-        <v>0.6406708285357179</v>
+        <v>1.794655739881458</v>
       </c>
       <c r="I5">
-        <v>4.454425575906722E-35</v>
+        <v>4.126612418934435E-60</v>
       </c>
       <c r="J5">
-        <v>12.9399995803833</v>
+        <v>45.65999984741211</v>
       </c>
       <c r="K5">
-        <v>28.65850257873535</v>
+        <v>22.79999923706055</v>
       </c>
       <c r="L5">
-        <v>0.9847947699126642</v>
+        <v>2.293659316132015</v>
       </c>
       <c r="M5">
-        <v>-0.584595670262015</v>
+        <v>-2.221437571719207</v>
       </c>
       <c r="N5">
-        <v>0.3199476246235414</v>
+        <v>0.8483873530914459</v>
       </c>
       <c r="O5">
-        <v>-0.3689571396472147</v>
+        <v>0.9104263713883753</v>
       </c>
       <c r="P5">
-        <v>0.0128445678847129</v>
+        <v>0.01092052464080953</v>
       </c>
       <c r="Q5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" t="s">
         <v>21</v>
-      </c>
-      <c r="R5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>649</v>
+        <v>343</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>0.7750724691917702</v>
+        <v>0.1795594677341932</v>
       </c>
       <c r="E6">
-        <v>0.9140092521742678</v>
+        <v>0.2048990591071562</v>
       </c>
       <c r="F6">
-        <v>0.0009503917322898532</v>
+        <v>0.0005561857510483224</v>
       </c>
       <c r="G6">
-        <v>-1.303272276111097</v>
+        <v>13.4769233047556</v>
       </c>
       <c r="H6">
-        <v>0.2394925721970153</v>
+        <v>0.2880900645339074</v>
       </c>
       <c r="I6">
-        <v>2.385625117302303E-29</v>
+        <v>4.720351960790987E-36</v>
       </c>
       <c r="J6">
-        <v>7.900000095367432</v>
+        <v>28.01000022888184</v>
       </c>
       <c r="K6">
-        <v>37.08000183105469</v>
+        <v>47.5</v>
       </c>
       <c r="L6">
-        <v>0.5364088809710852</v>
+        <v>1.145830978215336</v>
       </c>
       <c r="M6">
-        <v>-0.7525241149591553</v>
+        <v>-1.204890186482778</v>
       </c>
       <c r="N6">
-        <v>0.2580202984680631</v>
+        <v>0.4079914690008054</v>
       </c>
       <c r="O6">
-        <v>0.322887355889204</v>
+        <v>0.8487988587656297</v>
       </c>
       <c r="P6">
-        <v>0.0130704930648264</v>
+        <v>0.01104668563174486</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2468</v>
+        <v>648</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>0.6313937728097252</v>
+        <v>0.6764275960022497</v>
       </c>
       <c r="E7">
-        <v>0.6347668817232142</v>
+        <v>0.7157148423522163</v>
       </c>
       <c r="F7">
-        <v>0.002049516139693821</v>
+        <v>0.000482632884794481</v>
       </c>
       <c r="G7">
-        <v>18.03057970244816</v>
+        <v>-2.872454939975581</v>
       </c>
       <c r="H7">
-        <v>2.502716675927197</v>
+        <v>0.9450608410595212</v>
       </c>
       <c r="I7">
-        <v>3.758387441526698E-39</v>
+        <v>2.472782880784197E-33</v>
       </c>
       <c r="J7">
-        <v>31.86000061035156</v>
+        <v>7.75</v>
       </c>
       <c r="K7">
-        <v>4.989999771118164</v>
+        <v>10.96000003814697</v>
       </c>
       <c r="L7">
-        <v>1.681461419644911</v>
+        <v>0.6362416960510551</v>
       </c>
       <c r="M7">
-        <v>-2.697360570709655</v>
+        <v>-0.6900236668017161</v>
       </c>
       <c r="N7">
-        <v>0.9457614397297206</v>
+        <v>0.2480678107493824</v>
       </c>
       <c r="O7">
-        <v>1.340865267853074</v>
+        <v>0.2645880859120187</v>
       </c>
       <c r="P7">
-        <v>0.01312862242139469</v>
+        <v>0.01208096543116955</v>
       </c>
       <c r="Q7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>457</v>
+        <v>531</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>0.8816922953218409</v>
+        <v>0.6683059796158042</v>
       </c>
       <c r="E8">
-        <v>0.3799461065296141</v>
+        <v>0.3016918336796148</v>
       </c>
       <c r="F8">
-        <v>0.001804926806011072</v>
+        <v>0.001041439248779315</v>
       </c>
       <c r="G8">
-        <v>0.7915135601882839</v>
+        <v>-0.1686148867845922</v>
       </c>
       <c r="H8">
-        <v>0.6489492618390897</v>
+        <v>0.7871137864676889</v>
       </c>
       <c r="I8">
-        <v>2.245851693454136E-25</v>
+        <v>1.071444397818747E-25</v>
       </c>
       <c r="J8">
-        <v>14.03999996185303</v>
+        <v>15.52000045776367</v>
       </c>
       <c r="K8">
-        <v>18.25</v>
+        <v>17.88999938964844</v>
       </c>
       <c r="L8">
-        <v>1.858269596233386</v>
+        <v>2.429399080326814</v>
       </c>
       <c r="M8">
-        <v>-0.9349367838409339</v>
+        <v>-1.186738731474941</v>
       </c>
       <c r="N8">
-        <v>0.4569365867091338</v>
+        <v>0.5524367322093651</v>
       </c>
       <c r="O8">
-        <v>1.405162373101357</v>
+        <v>1.607150185057439</v>
       </c>
       <c r="P8">
-        <v>0.01345876407707235</v>
+        <v>0.01280149285422034</v>
       </c>
       <c r="Q8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -932,167 +938,167 @@
         <v>320</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>0.3579652665493962</v>
+        <v>0.1795594677341932</v>
       </c>
       <c r="E9">
-        <v>0.3053155486624478</v>
+        <v>0.2486891706920485</v>
       </c>
       <c r="F9">
-        <v>9.768547456363944E-05</v>
+        <v>4.531283441100194E-05</v>
       </c>
       <c r="G9">
-        <v>16.72382649476113</v>
+        <v>16.65467734789457</v>
       </c>
       <c r="H9">
-        <v>0.2980269172367567</v>
+        <v>0.3001765735565817</v>
       </c>
       <c r="I9">
-        <v>3.423764573847824E-33</v>
+        <v>1.136276757670236E-33</v>
       </c>
       <c r="J9">
-        <v>28.65850257873535</v>
+        <v>28.01000022888184</v>
       </c>
       <c r="K9">
-        <v>36.75</v>
+        <v>36.11000061035156</v>
       </c>
       <c r="L9">
-        <v>1.199491985891186</v>
+        <v>1.190286158260076</v>
       </c>
       <c r="M9">
-        <v>-1.209862509392146</v>
+        <v>-1.214661543207669</v>
       </c>
       <c r="N9">
-        <v>0.4238227036734735</v>
+        <v>0.4245937260662056</v>
       </c>
       <c r="O9">
-        <v>0.9821868755234071</v>
+        <v>0.5159466266458654</v>
       </c>
       <c r="P9">
-        <v>0.01351521882330669</v>
+        <v>0.01282813210285543</v>
       </c>
       <c r="Q9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1238</v>
+        <v>3114</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>0.8870925007499346</v>
+        <v>0.5599031050064516</v>
       </c>
       <c r="E10">
-        <v>0.7077835739831464</v>
+        <v>0.7491135962058415</v>
       </c>
       <c r="F10">
-        <v>0.003545001422936413</v>
+        <v>0.0003149854652359676</v>
       </c>
       <c r="G10">
-        <v>4.872160779959667</v>
+        <v>10.52176716448498</v>
       </c>
       <c r="H10">
-        <v>0.1432033420659679</v>
+        <v>1.468144309239427</v>
       </c>
       <c r="I10">
-        <v>2.362787336688212E-61</v>
+        <v>1.65012526364377E-56</v>
       </c>
       <c r="J10">
-        <v>11.97999954223633</v>
+        <v>41.93999862670898</v>
       </c>
       <c r="K10">
-        <v>45.02999877929688</v>
+        <v>23.59000015258789</v>
       </c>
       <c r="L10">
-        <v>0.8054848333503752</v>
+        <v>5.306287454891162</v>
       </c>
       <c r="M10">
-        <v>-1.10161073316236</v>
+        <v>-5.823157668672053</v>
       </c>
       <c r="N10">
-        <v>0.3497089835268385</v>
+        <v>1.765757711752166</v>
       </c>
       <c r="O10">
-        <v>0.6593924438548937</v>
+        <v>-3.215293016755115</v>
       </c>
       <c r="P10">
-        <v>0.01371931089270714</v>
+        <v>0.01359737281311269</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>353</v>
+        <v>1238</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>0.3579652665493962</v>
+        <v>0.8869555855807439</v>
       </c>
       <c r="E11">
-        <v>0.4204789812265589</v>
+        <v>0.7574525668501213</v>
       </c>
       <c r="F11">
-        <v>0.002701310566344295</v>
+        <v>0.002683595111304502</v>
       </c>
       <c r="G11">
-        <v>22.84543459451202</v>
+        <v>4.837014515214496</v>
       </c>
       <c r="H11">
-        <v>0.1097129122318873</v>
+        <v>0.1443332787925095</v>
       </c>
       <c r="I11">
-        <v>9.354352983820793E-28</v>
+        <v>2.12259777103041E-62</v>
       </c>
       <c r="J11">
-        <v>28.65850257873535</v>
+        <v>12</v>
       </c>
       <c r="K11">
-        <v>47.04999923706055</v>
+        <v>46</v>
       </c>
       <c r="L11">
-        <v>1.06462770375688</v>
+        <v>0.7909816798830391</v>
       </c>
       <c r="M11">
-        <v>-1.205822738395312</v>
+        <v>-1.099650234186839</v>
       </c>
       <c r="N11">
-        <v>0.4644975978934933</v>
+        <v>0.3513583808239124</v>
       </c>
       <c r="O11">
-        <v>0.6510755474173431</v>
+        <v>0.5236546603300667</v>
       </c>
       <c r="P11">
-        <v>0.01378167678121057</v>
+        <v>0.01362912424760766</v>
       </c>
       <c r="Q11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -76,25 +76,22 @@
     <t>ABEV3</t>
   </si>
   <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>ELET6</t>
+    <t>EZTC3</t>
   </si>
   <si>
     <t>BBAS3</t>
   </si>
   <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
     <t>BEEF3</t>
   </si>
   <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
-    <t>RENT3</t>
-  </si>
-  <si>
-    <t>CMIG4</t>
+    <t>LREN3</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
   </si>
   <si>
     <t>RAIL3</t>
@@ -106,22 +103,16 @@
     <t>LWSA3</t>
   </si>
   <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
     <t>ENGI11</t>
   </si>
   <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
     <t>ITSA4</t>
   </si>
   <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
-  </si>
-  <si>
-    <t>EMBR3</t>
+    <t>ITUB4</t>
   </si>
 </sst>
 </file>
@@ -549,49 +540,49 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.5348742891713543</v>
+        <v>0.8349268443515334</v>
       </c>
       <c r="E2">
-        <v>0.5993857754245523</v>
+        <v>0.5530872592054195</v>
       </c>
       <c r="F2">
-        <v>4.34796008141785E-05</v>
+        <v>0.003447473745846993</v>
       </c>
       <c r="G2">
-        <v>5.223102211267854</v>
+        <v>5.629165134566381</v>
       </c>
       <c r="H2">
-        <v>1.230188760093159</v>
+        <v>1.209166565662453</v>
       </c>
       <c r="I2">
-        <v>8.608937147177421E-47</v>
+        <v>7.292266911193462E-48</v>
       </c>
       <c r="J2">
-        <v>34.90000152587891</v>
+        <v>35.31000137329102</v>
       </c>
       <c r="K2">
-        <v>23.3799991607666</v>
+        <v>23.61000061035156</v>
       </c>
       <c r="L2">
-        <v>2.50478404769499</v>
+        <v>1.614019498484083</v>
       </c>
       <c r="M2">
-        <v>-2.163717270763669</v>
+        <v>-2.087110629179556</v>
       </c>
       <c r="N2">
-        <v>0.8083449266042491</v>
+        <v>0.7703619148684713</v>
       </c>
       <c r="O2">
-        <v>0.9150871360484807</v>
+        <v>1.132412885417423</v>
       </c>
       <c r="P2">
-        <v>0.00933630368675354</v>
+        <v>0.009830672022751535</v>
       </c>
       <c r="Q2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -605,49 +596,49 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.4532593561031967</v>
+        <v>0.5526482326651223</v>
       </c>
       <c r="E3">
-        <v>0.2486891706920485</v>
+        <v>0.2587654010922066</v>
       </c>
       <c r="F3">
-        <v>7.394713993404763E-05</v>
+        <v>0.0002385325924699836</v>
       </c>
       <c r="G3">
-        <v>3.213122534075969</v>
+        <v>3.214362305206877</v>
       </c>
       <c r="H3">
-        <v>0.2632435351196972</v>
+        <v>0.2631995631004455</v>
       </c>
       <c r="I3">
-        <v>2.409081334437769E-55</v>
+        <v>1.452476831756507E-53</v>
       </c>
       <c r="J3">
-        <v>13</v>
+        <v>13.07999992370605</v>
       </c>
       <c r="K3">
-        <v>36.11000061035156</v>
+        <v>36.34999847412109</v>
       </c>
       <c r="L3">
-        <v>0.7780971408584918</v>
+        <v>0.7784373578628117</v>
       </c>
       <c r="M3">
-        <v>-0.5796645382527252</v>
+        <v>-0.5793013096767758</v>
       </c>
       <c r="N3">
-        <v>0.2298036040005518</v>
+        <v>0.2301637880149359</v>
       </c>
       <c r="O3">
-        <v>0.2811532520806619</v>
+        <v>0.298333901408645</v>
       </c>
       <c r="P3">
-        <v>0.009714756393092414</v>
+        <v>0.01042377224369923</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -655,55 +646,55 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1778</v>
+        <v>2219</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.5648451569073427</v>
+        <v>0.5876813075470479</v>
       </c>
       <c r="E4">
-        <v>0.6252228281880856</v>
+        <v>0.4927870615364734</v>
       </c>
       <c r="F4">
-        <v>9.924085641335467E-05</v>
+        <v>0.006794958849401356</v>
       </c>
       <c r="G4">
-        <v>8.456809380114457</v>
+        <v>5.049007354427109</v>
       </c>
       <c r="H4">
-        <v>2.60769290892383</v>
+        <v>1.908983679729339</v>
       </c>
       <c r="I4">
-        <v>7.575721314954058E-69</v>
+        <v>4.129567926738624E-54</v>
       </c>
       <c r="J4">
-        <v>21.60000038146973</v>
+        <v>14.8100004196167</v>
       </c>
       <c r="K4">
-        <v>4.820000171661377</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="L4">
-        <v>1.244494883705109</v>
+        <v>1.194700793658713</v>
       </c>
       <c r="M4">
-        <v>-1.987880998088158</v>
+        <v>-1.206697601852609</v>
       </c>
       <c r="N4">
-        <v>0.5367005834376297</v>
+        <v>0.5157227475539622</v>
       </c>
       <c r="O4">
-        <v>0.5741107327022554</v>
+        <v>0.5978710383790222</v>
       </c>
       <c r="P4">
-        <v>0.009852963299539176</v>
+        <v>0.01078402077171041</v>
       </c>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -711,55 +702,55 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1977</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.4533241155918461</v>
+        <v>0.215030575111634</v>
       </c>
       <c r="E5">
-        <v>0.2848110972517316</v>
+        <v>0.1753604501230264</v>
       </c>
       <c r="F5">
-        <v>0.0009316266132751604</v>
+        <v>0.0005552399847216182</v>
       </c>
       <c r="G5">
-        <v>3.831423975940152</v>
+        <v>13.33958134663417</v>
       </c>
       <c r="H5">
-        <v>1.794655739881458</v>
+        <v>0.2911353014237726</v>
       </c>
       <c r="I5">
-        <v>4.126612418934435E-60</v>
+        <v>1.067612046670449E-33</v>
       </c>
       <c r="J5">
-        <v>45.65999984741211</v>
+        <v>28.21999931335449</v>
       </c>
       <c r="K5">
-        <v>22.79999923706055</v>
+        <v>48.65000152587891</v>
       </c>
       <c r="L5">
-        <v>2.293659316132015</v>
+        <v>1.132953141125476</v>
       </c>
       <c r="M5">
-        <v>-2.221437571719207</v>
+        <v>-1.211959187480407</v>
       </c>
       <c r="N5">
-        <v>0.8483873530914459</v>
+        <v>0.4155588390657267</v>
       </c>
       <c r="O5">
-        <v>0.9104263713883753</v>
+        <v>0.7166851082165664</v>
       </c>
       <c r="P5">
-        <v>0.01092052464080953</v>
+        <v>0.01112772325026424</v>
       </c>
       <c r="Q5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
         <v>21</v>
@@ -767,55 +758,55 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>343</v>
+        <v>1854</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.1795594677341932</v>
+        <v>0.3312186741971553</v>
       </c>
       <c r="E6">
-        <v>0.2048990591071562</v>
+        <v>0.3186943708306439</v>
       </c>
       <c r="F6">
-        <v>0.0005561857510483224</v>
+        <v>0.001168103161180686</v>
       </c>
       <c r="G6">
-        <v>13.4769233047556</v>
+        <v>-0.9895249122844446</v>
       </c>
       <c r="H6">
-        <v>0.2880900645339074</v>
+        <v>0.4947732205488666</v>
       </c>
       <c r="I6">
-        <v>4.720351960790987E-36</v>
+        <v>3.707152962722365E-29</v>
       </c>
       <c r="J6">
-        <v>28.01000022888184</v>
+        <v>8.409999847412109</v>
       </c>
       <c r="K6">
-        <v>47.5</v>
+        <v>18.13999938964844</v>
       </c>
       <c r="L6">
-        <v>1.145830978215336</v>
+        <v>0.8181787654581267</v>
       </c>
       <c r="M6">
-        <v>-1.204890186482778</v>
+        <v>-0.7383798778986321</v>
       </c>
       <c r="N6">
-        <v>0.4079914690008054</v>
+        <v>0.3144969094386191</v>
       </c>
       <c r="O6">
-        <v>0.8487988587656297</v>
+        <v>0.4243388409257225</v>
       </c>
       <c r="P6">
-        <v>0.01104668563174486</v>
+        <v>0.01230349216345224</v>
       </c>
       <c r="Q6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R6" t="s">
         <v>22</v>
@@ -829,49 +820,49 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>0.6764275960022497</v>
+        <v>0.8132512399191252</v>
       </c>
       <c r="E7">
-        <v>0.7157148423522163</v>
+        <v>0.6981475432607653</v>
       </c>
       <c r="F7">
-        <v>0.000482632884794481</v>
+        <v>0.0007417697689341883</v>
       </c>
       <c r="G7">
-        <v>-2.872454939975581</v>
+        <v>-3.205412298166431</v>
       </c>
       <c r="H7">
-        <v>0.9450608410595212</v>
+        <v>0.9779245550757857</v>
       </c>
       <c r="I7">
-        <v>2.472782880784197E-33</v>
+        <v>3.127162507884386E-35</v>
       </c>
       <c r="J7">
-        <v>7.75</v>
+        <v>7.949999809265137</v>
       </c>
       <c r="K7">
         <v>10.96000003814697</v>
       </c>
       <c r="L7">
-        <v>0.6362416960510551</v>
+        <v>0.6379328194652611</v>
       </c>
       <c r="M7">
-        <v>-0.6900236668017161</v>
+        <v>-0.6965484718915764</v>
       </c>
       <c r="N7">
-        <v>0.2480678107493824</v>
+        <v>0.2482565960046921</v>
       </c>
       <c r="O7">
-        <v>0.2645880859120187</v>
+        <v>0.4373589464960954</v>
       </c>
       <c r="P7">
-        <v>0.01208096543116955</v>
+        <v>0.01255252040987463</v>
       </c>
       <c r="Q7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R7" t="s">
         <v>23</v>
@@ -879,55 +870,55 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>531</v>
+        <v>2736</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.6683059796158042</v>
+        <v>0.8541129372714995</v>
       </c>
       <c r="E8">
-        <v>0.3016918336796148</v>
+        <v>0.3186943708306439</v>
       </c>
       <c r="F8">
-        <v>0.001041439248779315</v>
+        <v>0.0003639175336981866</v>
       </c>
       <c r="G8">
-        <v>-0.1686148867845922</v>
+        <v>-12.21002327596013</v>
       </c>
       <c r="H8">
-        <v>0.7871137864676889</v>
+        <v>1.577645641125389</v>
       </c>
       <c r="I8">
-        <v>1.071444397818747E-25</v>
+        <v>1.508546770263501E-38</v>
       </c>
       <c r="J8">
-        <v>15.52000045776367</v>
+        <v>17.75</v>
       </c>
       <c r="K8">
-        <v>17.88999938964844</v>
+        <v>18.13999938964844</v>
       </c>
       <c r="L8">
-        <v>2.429399080326814</v>
+        <v>2.416874366096922</v>
       </c>
       <c r="M8">
-        <v>-1.186738731474941</v>
+        <v>-2.298094282829103</v>
       </c>
       <c r="N8">
-        <v>0.5524367322093651</v>
+        <v>0.7880191870900302</v>
       </c>
       <c r="O8">
-        <v>1.607150185057439</v>
+        <v>1.34153230886406</v>
       </c>
       <c r="P8">
-        <v>0.01280149285422034</v>
+        <v>0.01296566569203409</v>
       </c>
       <c r="Q8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R8" t="s">
         <v>24</v>
@@ -935,170 +926,170 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>320</v>
+        <v>2468</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
       </c>
       <c r="D9">
-        <v>0.1795594677341932</v>
+        <v>0.6343970057489149</v>
       </c>
       <c r="E9">
-        <v>0.2486891706920485</v>
+        <v>0.4927870615364734</v>
       </c>
       <c r="F9">
-        <v>4.531283441100194E-05</v>
+        <v>0.001864932931770198</v>
       </c>
       <c r="G9">
-        <v>16.65467734789457</v>
+        <v>18.06736669876596</v>
       </c>
       <c r="H9">
-        <v>0.3001765735565817</v>
+        <v>2.497279973854966</v>
       </c>
       <c r="I9">
-        <v>1.136276757670236E-33</v>
+        <v>2.782336752812467E-38</v>
       </c>
       <c r="J9">
-        <v>28.01000022888184</v>
+        <v>31.03000068664551</v>
       </c>
       <c r="K9">
-        <v>36.11000061035156</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="L9">
-        <v>1.190286158260076</v>
+        <v>1.670607492107958</v>
       </c>
       <c r="M9">
-        <v>-1.214661543207669</v>
+        <v>-2.706800954463468</v>
       </c>
       <c r="N9">
-        <v>0.4245937260662056</v>
+        <v>0.9548551300033754</v>
       </c>
       <c r="O9">
-        <v>0.5159466266458654</v>
+        <v>0.9756896370573536</v>
       </c>
       <c r="P9">
-        <v>0.01282813210285543</v>
+        <v>0.01311811873729708</v>
       </c>
       <c r="Q9" t="s">
         <v>28</v>
       </c>
       <c r="R9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>3114</v>
+        <v>320</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>0.5599031050064516</v>
+        <v>0.215030575111634</v>
       </c>
       <c r="E10">
-        <v>0.7491135962058415</v>
+        <v>0.2587654010922066</v>
       </c>
       <c r="F10">
-        <v>0.0003149854652359676</v>
+        <v>2.804001371573857E-05</v>
       </c>
       <c r="G10">
-        <v>10.52176716448498</v>
+        <v>16.71974034873691</v>
       </c>
       <c r="H10">
-        <v>1.468144309239427</v>
+        <v>0.2981763474840294</v>
       </c>
       <c r="I10">
-        <v>1.65012526364377E-56</v>
+        <v>7.270579327111583E-32</v>
       </c>
       <c r="J10">
-        <v>41.93999862670898</v>
+        <v>28.21999931335449</v>
       </c>
       <c r="K10">
-        <v>23.59000015258789</v>
+        <v>36.34999847412109</v>
       </c>
       <c r="L10">
-        <v>5.306287454891162</v>
+        <v>1.196266012325424</v>
       </c>
       <c r="M10">
-        <v>-5.823157668672053</v>
+        <v>-1.212585694155827</v>
       </c>
       <c r="N10">
-        <v>1.765757711752166</v>
+        <v>0.4287056709401504</v>
       </c>
       <c r="O10">
-        <v>-3.215293016755115</v>
+        <v>0.6615491885541118</v>
       </c>
       <c r="P10">
-        <v>0.01359737281311269</v>
+        <v>0.01340529419415765</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R10" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1238</v>
+        <v>649</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.8869555855807439</v>
+        <v>0.8132512399191252</v>
       </c>
       <c r="E11">
-        <v>0.7574525668501213</v>
+        <v>0.7970368148519289</v>
       </c>
       <c r="F11">
-        <v>0.002683595111304502</v>
+        <v>0.002735604275940959</v>
       </c>
       <c r="G11">
-        <v>4.837014515214496</v>
+        <v>-1.707691122937604</v>
       </c>
       <c r="H11">
-        <v>0.1443332787925095</v>
+        <v>0.2517182876476713</v>
       </c>
       <c r="I11">
-        <v>2.12259777103041E-62</v>
+        <v>1.205513246915596E-32</v>
       </c>
       <c r="J11">
-        <v>12</v>
+        <v>7.949999809265137</v>
       </c>
       <c r="K11">
-        <v>46</v>
+        <v>36.45999908447266</v>
       </c>
       <c r="L11">
-        <v>0.7909816798830391</v>
+        <v>0.5292836247244255</v>
       </c>
       <c r="M11">
-        <v>-1.099650234186839</v>
+        <v>-0.7695505523766863</v>
       </c>
       <c r="N11">
-        <v>0.3513583808239124</v>
+        <v>0.2594101866670749</v>
       </c>
       <c r="O11">
-        <v>0.5236546603300667</v>
+        <v>0.4800423950236201</v>
       </c>
       <c r="P11">
-        <v>0.01362912424760766</v>
+        <v>0.01341323792701176</v>
       </c>
       <c r="Q11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -70,6 +70,9 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ENEV3</t>
+  </si>
+  <si>
     <t>EQTL3</t>
   </si>
   <si>
@@ -88,10 +91,10 @@
     <t>BEEF3</t>
   </si>
   <si>
-    <t>LREN3</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
   </si>
   <si>
     <t>RAIL3</t>
@@ -100,19 +103,22 @@
     <t>BPAC11</t>
   </si>
   <si>
+    <t>TAEE11</t>
+  </si>
+  <si>
     <t>LWSA3</t>
   </si>
   <si>
     <t>ENGI11</t>
   </si>
   <si>
+    <t>SBSP3</t>
+  </si>
+  <si>
     <t>TIMS3</t>
   </si>
   <si>
     <t>ITSA4</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
   </si>
 </sst>
 </file>
@@ -534,55 +540,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2186</v>
+        <v>2083</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.8349268443515334</v>
+        <v>0.1053812348261175</v>
       </c>
       <c r="E2">
-        <v>0.5530872592054195</v>
+        <v>0.878701813828685</v>
       </c>
       <c r="F2">
-        <v>0.003447473745846993</v>
+        <v>2.648159365208898E-05</v>
       </c>
       <c r="G2">
-        <v>5.629165134566381</v>
+        <v>10.56967757972806</v>
       </c>
       <c r="H2">
-        <v>1.209166565662453</v>
+        <v>0.1981058636935447</v>
       </c>
       <c r="I2">
-        <v>7.292266911193462E-48</v>
+        <v>2.271016280391895E-25</v>
       </c>
       <c r="J2">
-        <v>35.31000137329102</v>
+        <v>13.69999980926514</v>
       </c>
       <c r="K2">
-        <v>23.61000061035156</v>
+        <v>14.47000026702881</v>
       </c>
       <c r="L2">
-        <v>1.614019498484083</v>
+        <v>0.4808814613224932</v>
       </c>
       <c r="M2">
-        <v>-2.087110629179556</v>
+        <v>-0.4779979529879625</v>
       </c>
       <c r="N2">
-        <v>0.7703619148684713</v>
+        <v>0.2383086041610699</v>
       </c>
       <c r="O2">
-        <v>1.132412885417423</v>
+        <v>0.2637303289915165</v>
       </c>
       <c r="P2">
-        <v>0.009830672022751535</v>
+        <v>0.009179742505653326</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -590,506 +596,506 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>10</v>
+        <v>2111</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.5526482326651223</v>
+        <v>0.1053812348261175</v>
       </c>
       <c r="E3">
-        <v>0.2587654010922066</v>
+        <v>0.9940478489290694</v>
       </c>
       <c r="F3">
-        <v>0.0002385325924699836</v>
+        <v>6.351834776526256E-05</v>
       </c>
       <c r="G3">
-        <v>3.214362305206877</v>
+        <v>10.80815973221177</v>
       </c>
       <c r="H3">
-        <v>0.2631995631004455</v>
+        <v>0.0466886168815324</v>
       </c>
       <c r="I3">
-        <v>1.452476831756507E-53</v>
+        <v>1.443716153904983E-20</v>
       </c>
       <c r="J3">
-        <v>13.07999992370605</v>
+        <v>13.69999980926514</v>
       </c>
       <c r="K3">
-        <v>36.34999847412109</v>
+        <v>54.08000183105469</v>
       </c>
       <c r="L3">
-        <v>0.7784373578628117</v>
+        <v>0.5838371763656607</v>
       </c>
       <c r="M3">
-        <v>-0.5793013096767758</v>
+        <v>-0.7258989376379184</v>
       </c>
       <c r="N3">
-        <v>0.2301637880149359</v>
+        <v>0.2585106035599251</v>
       </c>
       <c r="O3">
-        <v>0.298333901408645</v>
+        <v>0.3669195906106837</v>
       </c>
       <c r="P3">
-        <v>0.01042377224369923</v>
+        <v>0.009688680418914387</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2219</v>
+        <v>2186</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.5876813075470479</v>
+        <v>0.7366618409184598</v>
       </c>
       <c r="E4">
-        <v>0.4927870615364734</v>
+        <v>0.4957733815810459</v>
       </c>
       <c r="F4">
-        <v>0.006794958849401356</v>
+        <v>0.003541806185546436</v>
       </c>
       <c r="G4">
-        <v>5.049007354427109</v>
+        <v>5.42457457953475</v>
       </c>
       <c r="H4">
-        <v>1.908983679729339</v>
+        <v>1.219135685849898</v>
       </c>
       <c r="I4">
-        <v>4.129567926738624E-54</v>
+        <v>1.454162681788458E-47</v>
       </c>
       <c r="J4">
-        <v>14.8100004196167</v>
+        <v>34.72999954223633</v>
       </c>
       <c r="K4">
-        <v>4.800000190734863</v>
+        <v>22.92000007629395</v>
       </c>
       <c r="L4">
-        <v>1.194700793658713</v>
+        <v>1.582840364885541</v>
       </c>
       <c r="M4">
-        <v>-1.206697601852609</v>
+        <v>-2.111411064524681</v>
       </c>
       <c r="N4">
-        <v>0.5157227475539622</v>
+        <v>0.7789287631945817</v>
       </c>
       <c r="O4">
-        <v>0.5978710383790222</v>
+        <v>1.36283495000924</v>
       </c>
       <c r="P4">
-        <v>0.01078402077171041</v>
+        <v>0.009969670761856031</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>343</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.215030575111634</v>
+        <v>0.554609563882634</v>
       </c>
       <c r="E5">
-        <v>0.1753604501230264</v>
+        <v>0.3114206099348236</v>
       </c>
       <c r="F5">
-        <v>0.0005552399847216182</v>
+        <v>0.0002703811977205775</v>
       </c>
       <c r="G5">
-        <v>13.33958134663417</v>
+        <v>3.17206038767118</v>
       </c>
       <c r="H5">
-        <v>0.2911353014237726</v>
+        <v>0.264509036633851</v>
       </c>
       <c r="I5">
-        <v>1.067612046670449E-33</v>
+        <v>2.449103140916797E-53</v>
       </c>
       <c r="J5">
-        <v>28.21999931335449</v>
+        <v>13.07999992370605</v>
       </c>
       <c r="K5">
-        <v>48.65000152587891</v>
+        <v>36.29000091552734</v>
       </c>
       <c r="L5">
-        <v>1.132953141125476</v>
+        <v>0.7736877030262725</v>
       </c>
       <c r="M5">
-        <v>-1.211959187480407</v>
+        <v>-0.5847362422086047</v>
       </c>
       <c r="N5">
-        <v>0.4155588390657267</v>
+        <v>0.2316821796340458</v>
       </c>
       <c r="O5">
-        <v>0.7166851082165664</v>
+        <v>0.3089063544271653</v>
       </c>
       <c r="P5">
-        <v>0.01112772325026424</v>
+        <v>0.01053251007264286</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1854</v>
+        <v>2103</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.3312186741971553</v>
+        <v>0.1053812348261175</v>
       </c>
       <c r="E6">
-        <v>0.3186943708306439</v>
+        <v>0.4695468525656518</v>
       </c>
       <c r="F6">
-        <v>0.001168103161180686</v>
+        <v>0.0003038743222404628</v>
       </c>
       <c r="G6">
-        <v>-0.9895249122844446</v>
+        <v>0.541743362502784</v>
       </c>
       <c r="H6">
-        <v>0.4947732205488666</v>
+        <v>0.3605390278329206</v>
       </c>
       <c r="I6">
-        <v>3.707152962722365E-29</v>
+        <v>5.073694594275442E-23</v>
       </c>
       <c r="J6">
-        <v>8.409999847412109</v>
+        <v>13.69999980926514</v>
       </c>
       <c r="K6">
-        <v>18.13999938964844</v>
+        <v>35.40999984741211</v>
       </c>
       <c r="L6">
-        <v>0.8181787654581267</v>
+        <v>0.5273505585565381</v>
       </c>
       <c r="M6">
-        <v>-0.7383798778986321</v>
+        <v>-0.6067003536771196</v>
       </c>
       <c r="N6">
-        <v>0.3144969094386191</v>
+        <v>0.2479887106723511</v>
       </c>
       <c r="O6">
-        <v>0.4243388409257225</v>
+        <v>0.3915695262125247</v>
       </c>
       <c r="P6">
-        <v>0.01230349216345224</v>
+        <v>0.01055094314547125</v>
       </c>
       <c r="Q6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>648</v>
+        <v>2219</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.8132512399191252</v>
+        <v>0.5923096746223666</v>
       </c>
       <c r="E7">
-        <v>0.6981475432607653</v>
+        <v>0.4584921463566689</v>
       </c>
       <c r="F7">
-        <v>0.0007417697689341883</v>
+        <v>0.0003014553507188175</v>
       </c>
       <c r="G7">
-        <v>-3.205412298166431</v>
+        <v>5.01751632107446</v>
       </c>
       <c r="H7">
-        <v>0.9779245550757857</v>
+        <v>1.917534393635745</v>
       </c>
       <c r="I7">
-        <v>3.127162507884386E-35</v>
+        <v>3.421051569278131E-54</v>
       </c>
       <c r="J7">
-        <v>7.949999809265137</v>
+        <v>14.82999992370605</v>
       </c>
       <c r="K7">
-        <v>10.96000003814697</v>
+        <v>4.78000020980835</v>
       </c>
       <c r="L7">
-        <v>0.6379328194652611</v>
+        <v>1.179590437852369</v>
       </c>
       <c r="M7">
-        <v>-0.6965484718915764</v>
+        <v>-1.218216661243193</v>
       </c>
       <c r="N7">
-        <v>0.2482565960046921</v>
+        <v>0.5149832799444873</v>
       </c>
       <c r="O7">
-        <v>0.4373589464960954</v>
+        <v>0.6466687987380091</v>
       </c>
       <c r="P7">
-        <v>0.01255252040987463</v>
+        <v>0.01086406473677905</v>
       </c>
       <c r="Q7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2736</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.8541129372714995</v>
+        <v>0.3249647109808244</v>
       </c>
       <c r="E8">
-        <v>0.3186943708306439</v>
+        <v>0.132460523454284</v>
       </c>
       <c r="F8">
-        <v>0.0003639175336981866</v>
+        <v>0.0006961633271578402</v>
       </c>
       <c r="G8">
-        <v>-12.21002327596013</v>
+        <v>13.14153591607786</v>
       </c>
       <c r="H8">
-        <v>1.577645641125389</v>
+        <v>0.2955918903510269</v>
       </c>
       <c r="I8">
-        <v>1.508546770263501E-38</v>
+        <v>3.826832253721314E-33</v>
       </c>
       <c r="J8">
-        <v>17.75</v>
+        <v>28.32999992370605</v>
       </c>
       <c r="K8">
-        <v>18.13999938964844</v>
+        <v>48.13999938964844</v>
       </c>
       <c r="L8">
-        <v>2.416874366096922</v>
+        <v>1.113873553705787</v>
       </c>
       <c r="M8">
-        <v>-2.298094282829103</v>
+        <v>-1.222811313729476</v>
       </c>
       <c r="N8">
-        <v>0.7880191870900302</v>
+        <v>0.4234589426943526</v>
       </c>
       <c r="O8">
-        <v>1.34153230886406</v>
+        <v>0.9586705865447289</v>
       </c>
       <c r="P8">
-        <v>0.01296566569203409</v>
+        <v>0.01143947321236769</v>
       </c>
       <c r="Q8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2468</v>
+        <v>2099</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.6343970057489149</v>
+        <v>0.1053812348261175</v>
       </c>
       <c r="E9">
-        <v>0.4927870615364734</v>
+        <v>0.9053417326026487</v>
       </c>
       <c r="F9">
-        <v>0.001864932931770198</v>
+        <v>0.0008627319394856125</v>
       </c>
       <c r="G9">
-        <v>18.06736669876596</v>
+        <v>9.861471324606244</v>
       </c>
       <c r="H9">
-        <v>2.497279973854966</v>
+        <v>0.03510786982981844</v>
       </c>
       <c r="I9">
-        <v>2.782336752812467E-38</v>
+        <v>6.821023284043074E-18</v>
       </c>
       <c r="J9">
-        <v>31.03000068664551</v>
+        <v>13.69999980926514</v>
       </c>
       <c r="K9">
-        <v>4.800000190734863</v>
+        <v>96.40000152587891</v>
       </c>
       <c r="L9">
-        <v>1.670607492107958</v>
+        <v>0.6966842682898768</v>
       </c>
       <c r="M9">
-        <v>-2.706800954463468</v>
+        <v>-0.6207786531375579</v>
       </c>
       <c r="N9">
-        <v>0.9548551300033754</v>
+        <v>0.270467817845327</v>
       </c>
       <c r="O9">
-        <v>0.9756896370573536</v>
+        <v>0.4541297794940369</v>
       </c>
       <c r="P9">
-        <v>0.01311811873729708</v>
+        <v>0.01176618453680425</v>
       </c>
       <c r="Q9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>320</v>
+        <v>1854</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0.215030575111634</v>
+        <v>0.3301408604160967</v>
       </c>
       <c r="E10">
-        <v>0.2587654010922066</v>
+        <v>0.294611627072221</v>
       </c>
       <c r="F10">
-        <v>2.804001371573857E-05</v>
+        <v>0.001205719882020053</v>
       </c>
       <c r="G10">
-        <v>16.71974034873691</v>
+        <v>-1.09959204057369</v>
       </c>
       <c r="H10">
-        <v>0.2981763474840294</v>
+        <v>0.5015288698434882</v>
       </c>
       <c r="I10">
-        <v>7.270579327111583E-32</v>
+        <v>1.646629189196878E-29</v>
       </c>
       <c r="J10">
-        <v>28.21999931335449</v>
+        <v>8.369999885559082</v>
       </c>
       <c r="K10">
-        <v>36.34999847412109</v>
+        <v>17.96999931335449</v>
       </c>
       <c r="L10">
-        <v>1.196266012325424</v>
+        <v>0.8121920803739187</v>
       </c>
       <c r="M10">
-        <v>-1.212585694155827</v>
+        <v>-0.7473472958501866</v>
       </c>
       <c r="N10">
-        <v>0.4287056709401504</v>
+        <v>0.3165704532347898</v>
       </c>
       <c r="O10">
-        <v>0.6615491885541118</v>
+        <v>0.4571184794178347</v>
       </c>
       <c r="P10">
-        <v>0.01340529419415765</v>
+        <v>0.01234919548352269</v>
       </c>
       <c r="Q10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="R10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>0.8132512399191252</v>
+        <v>0.7164920436204418</v>
       </c>
       <c r="E11">
-        <v>0.7970368148519289</v>
+        <v>0.6906899105474729</v>
       </c>
       <c r="F11">
-        <v>0.002735604275940959</v>
+        <v>0.0005600398945321584</v>
       </c>
       <c r="G11">
-        <v>-1.707691122937604</v>
+        <v>-3.360194942757048</v>
       </c>
       <c r="H11">
-        <v>0.2517182876476713</v>
+        <v>0.9933598825692829</v>
       </c>
       <c r="I11">
-        <v>1.205513246915596E-32</v>
+        <v>1.175786599384774E-36</v>
       </c>
       <c r="J11">
-        <v>7.949999809265137</v>
+        <v>7.78000020980835</v>
       </c>
       <c r="K11">
-        <v>36.45999908447266</v>
+        <v>10.94999980926514</v>
       </c>
       <c r="L11">
-        <v>0.5292836247244255</v>
+        <v>0.6371273640990474</v>
       </c>
       <c r="M11">
-        <v>-0.7695505523766863</v>
+        <v>-0.7012127591311632</v>
       </c>
       <c r="N11">
-        <v>0.2594101866670749</v>
+        <v>0.2484677651607452</v>
       </c>
       <c r="O11">
-        <v>0.4800423950236201</v>
+        <v>0.2629046279001113</v>
       </c>
       <c r="P11">
-        <v>0.01341323792701176</v>
+        <v>0.01236037572156732</v>
       </c>
       <c r="Q11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>N</t>
   </si>
@@ -70,10 +70,58 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>ENEV3</t>
+  </si>
+  <si>
+    <t>EZTC3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>LREN3</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>MRVE3</t>
+  </si>
+  <si>
+    <t>TAEE11</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>SBSP3</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
   </si>
 </sst>
 </file>
@@ -431,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,58 +543,562 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>10</v>
+        <v>2391</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>0.4937195436583004</v>
+      </c>
+      <c r="E2">
+        <v>0.4723068565422748</v>
+      </c>
+      <c r="F2">
+        <v>1.40957223228563E-05</v>
+      </c>
+      <c r="G2">
+        <v>6.132523845189278</v>
+      </c>
+      <c r="H2">
+        <v>3.36593844014256</v>
+      </c>
+      <c r="I2">
+        <v>7.518908389303594E-44</v>
+      </c>
+      <c r="J2">
+        <v>30.21999931335449</v>
+      </c>
+      <c r="K2">
+        <v>7.75</v>
+      </c>
+      <c r="L2">
+        <v>1.980710471057286</v>
+      </c>
+      <c r="M2">
+        <v>-2.460487434558743</v>
+      </c>
+      <c r="N2">
+        <v>0.8671698601747976</v>
+      </c>
+      <c r="O2">
+        <v>-1.998547442939628</v>
+      </c>
+      <c r="P2">
+        <v>0.008084421971934281</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>2023</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="D2">
-        <v>0.5449052166738767</v>
-      </c>
-      <c r="E2">
-        <v>0.3114494827496422</v>
-      </c>
-      <c r="F2">
-        <v>0.0003067926571681589</v>
-      </c>
-      <c r="G2">
-        <v>3.118685236738288</v>
-      </c>
-      <c r="H2">
-        <v>0.2661635880697078</v>
-      </c>
-      <c r="I2">
-        <v>5.082431382204878E-53</v>
-      </c>
-      <c r="J2">
-        <v>13.02999973297119</v>
-      </c>
-      <c r="K2">
-        <v>36.02999877929688</v>
-      </c>
-      <c r="L2">
-        <v>0.7676120558774766</v>
-      </c>
-      <c r="M2">
-        <v>-0.5916777542762208</v>
-      </c>
-      <c r="N2">
-        <v>0.2333125707339113</v>
-      </c>
-      <c r="O2">
-        <v>0.3214407429880541</v>
-      </c>
-      <c r="P2">
-        <v>0.01065225412790922</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>0.1942980558379296</v>
+      </c>
+      <c r="E3">
+        <v>0.3709192821508574</v>
+      </c>
+      <c r="F3">
+        <v>0.0002557709998407404</v>
+      </c>
+      <c r="G3">
+        <v>-0.01249778482798192</v>
+      </c>
+      <c r="H3">
+        <v>0.3771571407135925</v>
+      </c>
+      <c r="I3">
+        <v>3.78904769498156E-24</v>
+      </c>
+      <c r="J3">
+        <v>13.61999988555908</v>
+      </c>
+      <c r="K3">
+        <v>35.22000122070312</v>
+      </c>
+      <c r="L3">
+        <v>0.6800585411557112</v>
+      </c>
+      <c r="M3">
+        <v>-0.6131699768286296</v>
+      </c>
+      <c r="N3">
+        <v>0.25584194180417</v>
+      </c>
+      <c r="O3">
+        <v>0.3490227140574351</v>
+      </c>
+      <c r="P3">
+        <v>0.01073655369825599</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
       </c>
-      <c r="R2" t="s">
-        <v>18</v>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>2139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>0.5663622108266648</v>
+      </c>
+      <c r="E4">
+        <v>0.4963705233481616</v>
+      </c>
+      <c r="F4">
+        <v>0.0002442326305681304</v>
+      </c>
+      <c r="G4">
+        <v>4.999576667101056</v>
+      </c>
+      <c r="H4">
+        <v>1.924185074171811</v>
+      </c>
+      <c r="I4">
+        <v>4.473275165063846E-54</v>
+      </c>
+      <c r="J4">
+        <v>14.84000015258789</v>
+      </c>
+      <c r="K4">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="L4">
+        <v>1.161283884172725</v>
+      </c>
+      <c r="M4">
+        <v>-1.233729931761573</v>
+      </c>
+      <c r="N4">
+        <v>0.5174087732695267</v>
+      </c>
+      <c r="O4">
+        <v>0.6043347624529627</v>
+      </c>
+      <c r="P4">
+        <v>0.01087430555914422</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>2090</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>0.7468281531247231</v>
+      </c>
+      <c r="E5">
+        <v>0.9251429689463726</v>
+      </c>
+      <c r="F5">
+        <v>0.0003820524100545555</v>
+      </c>
+      <c r="G5">
+        <v>-0.4399228341766808</v>
+      </c>
+      <c r="H5">
+        <v>0.9771358953814884</v>
+      </c>
+      <c r="I5">
+        <v>2.101317659332604E-40</v>
+      </c>
+      <c r="J5">
+        <v>34.72000122070312</v>
+      </c>
+      <c r="K5">
+        <v>37.36999893188477</v>
+      </c>
+      <c r="L5">
+        <v>2.012674933815934</v>
+      </c>
+      <c r="M5">
+        <v>-2.578138417731239</v>
+      </c>
+      <c r="N5">
+        <v>0.8962150317061633</v>
+      </c>
+      <c r="O5">
+        <v>-1.355643311832672</v>
+      </c>
+      <c r="P5">
+        <v>0.01144633680510868</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>1897</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>0.6215101777853074</v>
+      </c>
+      <c r="E6">
+        <v>0.4196737844054992</v>
+      </c>
+      <c r="F6">
+        <v>0.001845547729624673</v>
+      </c>
+      <c r="G6">
+        <v>3.299384091100485</v>
+      </c>
+      <c r="H6">
+        <v>1.8203184740634</v>
+      </c>
+      <c r="I6">
+        <v>1.077077866605856E-59</v>
+      </c>
+      <c r="J6">
+        <v>46.54999923706055</v>
+      </c>
+      <c r="K6">
+        <v>22.85000038146973</v>
+      </c>
+      <c r="L6">
+        <v>2.282675749597622</v>
+      </c>
+      <c r="M6">
+        <v>-2.23883682179909</v>
+      </c>
+      <c r="N6">
+        <v>0.8590422935796166</v>
+      </c>
+      <c r="O6">
+        <v>1.656337319214984</v>
+      </c>
+      <c r="P6">
+        <v>0.01189673180003875</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>1698</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>0.6703843747353264</v>
+      </c>
+      <c r="E7">
+        <v>0.4963705233481616</v>
+      </c>
+      <c r="F7">
+        <v>0.001764901044577678</v>
+      </c>
+      <c r="G7">
+        <v>8.437452840658512</v>
+      </c>
+      <c r="H7">
+        <v>2.624767270107758</v>
+      </c>
+      <c r="I7">
+        <v>2.715386612338674E-62</v>
+      </c>
+      <c r="J7">
+        <v>22.69000053405762</v>
+      </c>
+      <c r="K7">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="L7">
+        <v>1.72490178709624</v>
+      </c>
+      <c r="M7">
+        <v>-2.065165340327908</v>
+      </c>
+      <c r="N7">
+        <v>0.5994613845620947</v>
+      </c>
+      <c r="O7">
+        <v>1.653664296247241</v>
+      </c>
+      <c r="P7">
+        <v>0.01215912621815546</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>2656</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>0.8839793397789244</v>
+      </c>
+      <c r="E8">
+        <v>0.3199945235659984</v>
+      </c>
+      <c r="F8">
+        <v>0.0001664797413876078</v>
+      </c>
+      <c r="G8">
+        <v>-13.39106659099789</v>
+      </c>
+      <c r="H8">
+        <v>1.650250735947522</v>
+      </c>
+      <c r="I8">
+        <v>1.276813683797948E-39</v>
+      </c>
+      <c r="J8">
+        <v>17.65999984741211</v>
+      </c>
+      <c r="K8">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="L8">
+        <v>2.352683000575205</v>
+      </c>
+      <c r="M8">
+        <v>-2.396352799489954</v>
+      </c>
+      <c r="N8">
+        <v>0.8155890662692848</v>
+      </c>
+      <c r="O8">
+        <v>1.165024603167261</v>
+      </c>
+      <c r="P8">
+        <v>0.01225287613862032</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>2019</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>0.1942980558379296</v>
+      </c>
+      <c r="E9">
+        <v>0.911272583065039</v>
+      </c>
+      <c r="F9">
+        <v>0.001105545720617515</v>
+      </c>
+      <c r="G9">
+        <v>9.68903431012917</v>
+      </c>
+      <c r="H9">
+        <v>0.03728020650585787</v>
+      </c>
+      <c r="I9">
+        <v>4.682023639552333E-20</v>
+      </c>
+      <c r="J9">
+        <v>13.61999988555908</v>
+      </c>
+      <c r="K9">
+        <v>96.34999847412109</v>
+      </c>
+      <c r="L9">
+        <v>0.7081294103797795</v>
+      </c>
+      <c r="M9">
+        <v>-0.622170520559548</v>
+      </c>
+      <c r="N9">
+        <v>0.274058442240978</v>
+      </c>
+      <c r="O9">
+        <v>0.3390177354755868</v>
+      </c>
+      <c r="P9">
+        <v>0.01245507737767587</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>338</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>0.2520744816399771</v>
+      </c>
+      <c r="E10">
+        <v>0.1989922537079369</v>
+      </c>
+      <c r="F10">
+        <v>0.001721247414308823</v>
+      </c>
+      <c r="G10">
+        <v>12.69226567155653</v>
+      </c>
+      <c r="H10">
+        <v>0.3056663474748275</v>
+      </c>
+      <c r="I10">
+        <v>1.267108680988544E-33</v>
+      </c>
+      <c r="J10">
+        <v>28.18000030517578</v>
+      </c>
+      <c r="K10">
+        <v>47.88999938964844</v>
+      </c>
+      <c r="L10">
+        <v>1.072316234857631</v>
+      </c>
+      <c r="M10">
+        <v>-1.245769832878096</v>
+      </c>
+      <c r="N10">
+        <v>0.4287829710517488</v>
+      </c>
+      <c r="O10">
+        <v>0.8493734396136929</v>
+      </c>
+      <c r="P10">
+        <v>0.01246777547056229</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>1158</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>0.8274451239283629</v>
+      </c>
+      <c r="E11">
+        <v>0.6869137893058594</v>
+      </c>
+      <c r="F11">
+        <v>0.002456507713222571</v>
+      </c>
+      <c r="G11">
+        <v>4.454101919155858</v>
+      </c>
+      <c r="H11">
+        <v>0.1437762292178406</v>
+      </c>
+      <c r="I11">
+        <v>1.477728456215256E-61</v>
+      </c>
+      <c r="J11">
+        <v>11.55000019073486</v>
+      </c>
+      <c r="K11">
+        <v>46.56999969482422</v>
+      </c>
+      <c r="L11">
+        <v>0.7036639259436939</v>
+      </c>
+      <c r="M11">
+        <v>-1.036336998031278</v>
+      </c>
+      <c r="N11">
+        <v>0.3436024014221167</v>
+      </c>
+      <c r="O11">
+        <v>0.400239320781191</v>
+      </c>
+      <c r="P11">
+        <v>0.01358550430856061</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -73,55 +73,55 @@
     <t>HYPE3</t>
   </si>
   <si>
-    <t>ENEV3</t>
-  </si>
-  <si>
-    <t>EZTC3</t>
+    <t>ABEV3</t>
   </si>
   <si>
     <t>EQTL3</t>
   </si>
   <si>
+    <t>LREN3</t>
+  </si>
+  <si>
     <t>ELET6</t>
   </si>
   <si>
     <t>CYRE3</t>
   </si>
   <si>
-    <t>LREN3</t>
-  </si>
-  <si>
     <t>BBAS3</t>
   </si>
   <si>
+    <t>ELET3</t>
+  </si>
+  <si>
     <t>CMIG4</t>
   </si>
   <si>
     <t>MRVE3</t>
   </si>
   <si>
-    <t>TAEE11</t>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
   </si>
   <si>
     <t>LWSA3</t>
   </si>
   <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
-    <t>SBSP3</t>
-  </si>
-  <si>
     <t>ENGI11</t>
   </si>
   <si>
     <t>EMBR3</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
   </si>
 </sst>
 </file>
@@ -552,43 +552,43 @@
         <v>27</v>
       </c>
       <c r="D2">
-        <v>0.4937195436583004</v>
+        <v>0.4911763260988795</v>
       </c>
       <c r="E2">
-        <v>0.4723068565422748</v>
+        <v>0.4014656201871752</v>
       </c>
       <c r="F2">
-        <v>1.40957223228563E-05</v>
+        <v>2.151945964623773E-05</v>
       </c>
       <c r="G2">
-        <v>6.132523845189278</v>
+        <v>6.243396884787947</v>
       </c>
       <c r="H2">
-        <v>3.36593844014256</v>
+        <v>3.348476435686834</v>
       </c>
       <c r="I2">
-        <v>7.518908389303594E-44</v>
+        <v>3.50471816101945E-43</v>
       </c>
       <c r="J2">
-        <v>30.21999931335449</v>
+        <v>29.1299991607666</v>
       </c>
       <c r="K2">
-        <v>7.75</v>
+        <v>7.409999847412109</v>
       </c>
       <c r="L2">
-        <v>1.980710471057286</v>
+        <v>1.997310067316029</v>
       </c>
       <c r="M2">
-        <v>-2.460487434558743</v>
+        <v>-2.450523401991546</v>
       </c>
       <c r="N2">
-        <v>0.8671698601747976</v>
+        <v>0.8794920514211062</v>
       </c>
       <c r="O2">
-        <v>-1.998547442939628</v>
+        <v>-1.925607601523833</v>
       </c>
       <c r="P2">
-        <v>0.008084421971934281</v>
+        <v>0.008423273308030785</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2023</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -608,43 +608,43 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>0.1942980558379296</v>
+        <v>0.478577591555582</v>
       </c>
       <c r="E3">
-        <v>0.3709192821508574</v>
+        <v>0.3476833305048035</v>
       </c>
       <c r="F3">
-        <v>0.0002557709998407404</v>
+        <v>0.0002273874815795364</v>
       </c>
       <c r="G3">
-        <v>-0.01249778482798192</v>
+        <v>3.065469905616955</v>
       </c>
       <c r="H3">
-        <v>0.3771571407135925</v>
+        <v>0.2678252519296951</v>
       </c>
       <c r="I3">
-        <v>3.78904769498156E-24</v>
+        <v>3.270660265556735E-54</v>
       </c>
       <c r="J3">
-        <v>13.61999988555908</v>
+        <v>12.85999965667725</v>
       </c>
       <c r="K3">
-        <v>35.22000122070312</v>
+        <v>35.56000137329102</v>
       </c>
       <c r="L3">
-        <v>0.6800585411557112</v>
+        <v>0.7611210276322389</v>
       </c>
       <c r="M3">
-        <v>-0.6131699768286296</v>
+        <v>-0.5990383695358332</v>
       </c>
       <c r="N3">
-        <v>0.25584194180417</v>
+        <v>0.233134698140075</v>
       </c>
       <c r="O3">
-        <v>0.3490227140574351</v>
+        <v>0.2706634246383199</v>
       </c>
       <c r="P3">
-        <v>0.01073655369825599</v>
+        <v>0.01056844885504672</v>
       </c>
       <c r="Q3" t="s">
         <v>28</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2139</v>
+        <v>2090</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -664,54 +664,54 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>0.5663622108266648</v>
+        <v>0.70717863058037</v>
       </c>
       <c r="E4">
-        <v>0.4963705233481616</v>
+        <v>0.8715108676235178</v>
       </c>
       <c r="F4">
-        <v>0.0002442326305681304</v>
+        <v>0.0004369560997924814</v>
       </c>
       <c r="G4">
-        <v>4.999576667101056</v>
+        <v>0.09080811499701014</v>
       </c>
       <c r="H4">
-        <v>1.924185074171811</v>
+        <v>0.9608274265261034</v>
       </c>
       <c r="I4">
-        <v>4.473275165063846E-54</v>
+        <v>1.400014116957246E-40</v>
       </c>
       <c r="J4">
-        <v>14.84000015258789</v>
+        <v>34.27000045776367</v>
       </c>
       <c r="K4">
-        <v>4.800000190734863</v>
+        <v>36.95999908447266</v>
       </c>
       <c r="L4">
-        <v>1.161283884172725</v>
+        <v>2.018174794417416</v>
       </c>
       <c r="M4">
-        <v>-1.233729931761573</v>
+        <v>-2.528450957853302</v>
       </c>
       <c r="N4">
-        <v>0.5174087732695267</v>
+        <v>0.9004977311885836</v>
       </c>
       <c r="O4">
-        <v>0.6043347624529627</v>
+        <v>-1.332988461974338</v>
       </c>
       <c r="P4">
-        <v>0.01087430555914422</v>
+        <v>0.01169458977522014</v>
       </c>
       <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" t="s">
         <v>29</v>
-      </c>
-      <c r="R4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2090</v>
+        <v>2656</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -720,49 +720,49 @@
         <v>30</v>
       </c>
       <c r="D5">
-        <v>0.7468281531247231</v>
+        <v>0.677883113430751</v>
       </c>
       <c r="E5">
-        <v>0.9251429689463726</v>
+        <v>0.2901642278063885</v>
       </c>
       <c r="F5">
-        <v>0.0003820524100545555</v>
+        <v>0.0001221375178447133</v>
       </c>
       <c r="G5">
-        <v>-0.4399228341766808</v>
+        <v>-13.53432766348801</v>
       </c>
       <c r="H5">
-        <v>0.9771358953814884</v>
+        <v>1.659025319697693</v>
       </c>
       <c r="I5">
-        <v>2.101317659332604E-40</v>
+        <v>3.513001509581982E-40</v>
       </c>
       <c r="J5">
-        <v>34.72000122070312</v>
+        <v>17.04999923706055</v>
       </c>
       <c r="K5">
-        <v>37.36999893188477</v>
+        <v>17.94000053405762</v>
       </c>
       <c r="L5">
-        <v>2.012674933815934</v>
+        <v>2.345453036314343</v>
       </c>
       <c r="M5">
-        <v>-2.578138417731239</v>
+        <v>-2.407699900041766</v>
       </c>
       <c r="N5">
-        <v>0.8962150317061633</v>
+        <v>0.8156823931340416</v>
       </c>
       <c r="O5">
-        <v>-1.355643311832672</v>
+        <v>0.8214117791568398</v>
       </c>
       <c r="P5">
-        <v>0.01144633680510868</v>
+        <v>0.01211428280818495</v>
       </c>
       <c r="Q5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" t="s">
         <v>21</v>
-      </c>
-      <c r="R5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -776,43 +776,43 @@
         <v>31</v>
       </c>
       <c r="D6">
-        <v>0.6215101777853074</v>
+        <v>0.5593534772651302</v>
       </c>
       <c r="E6">
-        <v>0.4196737844054992</v>
+        <v>0.3335206293656782</v>
       </c>
       <c r="F6">
-        <v>0.001845547729624673</v>
+        <v>0.003270599255876287</v>
       </c>
       <c r="G6">
-        <v>3.299384091100485</v>
+        <v>3.180750388304826</v>
       </c>
       <c r="H6">
-        <v>1.8203184740634</v>
+        <v>1.826453587271327</v>
       </c>
       <c r="I6">
-        <v>1.077077866605856E-59</v>
+        <v>2.649504692392672E-59</v>
       </c>
       <c r="J6">
-        <v>46.54999923706055</v>
+        <v>45.97000122070312</v>
       </c>
       <c r="K6">
-        <v>22.85000038146973</v>
+        <v>22.30999946594238</v>
       </c>
       <c r="L6">
-        <v>2.282675749597622</v>
+        <v>2.271490457849694</v>
       </c>
       <c r="M6">
-        <v>-2.23883682179909</v>
+        <v>-2.251555891848994</v>
       </c>
       <c r="N6">
-        <v>0.8590422935796166</v>
+        <v>0.8734320244812167</v>
       </c>
       <c r="O6">
-        <v>1.656337319214984</v>
+        <v>2.041072275806449</v>
       </c>
       <c r="P6">
-        <v>0.01189673180003875</v>
+        <v>0.01253356018275863</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -829,49 +829,49 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>0.6703843747353264</v>
+        <v>0.6361656432201279</v>
       </c>
       <c r="E7">
-        <v>0.4963705233481616</v>
+        <v>0.5018251245374621</v>
       </c>
       <c r="F7">
-        <v>0.001764901044577678</v>
+        <v>0.002354490375282913</v>
       </c>
       <c r="G7">
-        <v>8.437452840658512</v>
+        <v>8.484508334103229</v>
       </c>
       <c r="H7">
-        <v>2.624767270107758</v>
+        <v>2.617466212068833</v>
       </c>
       <c r="I7">
-        <v>2.715386612338674E-62</v>
+        <v>2.677970685920823E-61</v>
       </c>
       <c r="J7">
-        <v>22.69000053405762</v>
+        <v>22.20999908447266</v>
       </c>
       <c r="K7">
-        <v>4.800000190734863</v>
+        <v>4.630000114440918</v>
       </c>
       <c r="L7">
-        <v>1.72490178709624</v>
+        <v>1.712526319336412</v>
       </c>
       <c r="M7">
-        <v>-2.065165340327908</v>
+        <v>-2.070896846386365</v>
       </c>
       <c r="N7">
-        <v>0.5994613845620947</v>
+        <v>0.6127739118143523</v>
       </c>
       <c r="O7">
-        <v>1.653664296247241</v>
+        <v>1.606621888945492</v>
       </c>
       <c r="P7">
-        <v>0.01215912621815546</v>
+        <v>0.01279653740621785</v>
       </c>
       <c r="Q7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R7" t="s">
         <v>23</v>
@@ -879,55 +879,55 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2656</v>
+        <v>338</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>0.8839793397789244</v>
+        <v>0.2893149832919686</v>
       </c>
       <c r="E8">
-        <v>0.3199945235659984</v>
+        <v>0.1791674411499874</v>
       </c>
       <c r="F8">
-        <v>0.0001664797413876078</v>
+        <v>0.004083629493971638</v>
       </c>
       <c r="G8">
-        <v>-13.39106659099789</v>
+        <v>12.59415711249815</v>
       </c>
       <c r="H8">
-        <v>1.650250735947522</v>
+        <v>0.3079381650634838</v>
       </c>
       <c r="I8">
-        <v>1.276813683797948E-39</v>
+        <v>3.268048953343671E-33</v>
       </c>
       <c r="J8">
-        <v>17.65999984741211</v>
+        <v>28.29999923706055</v>
       </c>
       <c r="K8">
-        <v>18.11000061035156</v>
+        <v>47.33000183105469</v>
       </c>
       <c r="L8">
-        <v>2.352683000575205</v>
+        <v>1.131128208256087</v>
       </c>
       <c r="M8">
-        <v>-2.396352799489954</v>
+        <v>-1.255321261458512</v>
       </c>
       <c r="N8">
-        <v>0.8155890662692848</v>
+        <v>0.4380404474127731</v>
       </c>
       <c r="O8">
-        <v>1.165024603167261</v>
+        <v>1.131128208256085</v>
       </c>
       <c r="P8">
-        <v>0.01225287613862032</v>
+        <v>0.01337501757157908</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R8" t="s">
         <v>24</v>
@@ -935,170 +935,170 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2019</v>
+        <v>1847</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.1942980558379296</v>
+        <v>0.518087127643114</v>
       </c>
       <c r="E9">
-        <v>0.911272583065039</v>
+        <v>0.3335206293656782</v>
       </c>
       <c r="F9">
-        <v>0.001105545720617515</v>
+        <v>0.003888317268017786</v>
       </c>
       <c r="G9">
-        <v>9.68903431012917</v>
+        <v>-5.444778296649709</v>
       </c>
       <c r="H9">
-        <v>0.03728020650585787</v>
+        <v>2.046007167803822</v>
       </c>
       <c r="I9">
-        <v>4.682023639552333E-20</v>
+        <v>3.401215389756108E-55</v>
       </c>
       <c r="J9">
-        <v>13.61999988555908</v>
+        <v>41.29999923706055</v>
       </c>
       <c r="K9">
-        <v>96.34999847412109</v>
+        <v>22.30999946594238</v>
       </c>
       <c r="L9">
-        <v>0.7081294103797795</v>
+        <v>2.892490022049245</v>
       </c>
       <c r="M9">
-        <v>-0.622170520559548</v>
+        <v>-2.547770240776941</v>
       </c>
       <c r="N9">
-        <v>0.274058442240978</v>
+        <v>1.061678607398419</v>
       </c>
       <c r="O9">
-        <v>0.3390177354755868</v>
+        <v>1.098358712692701</v>
       </c>
       <c r="P9">
-        <v>0.01245507737767587</v>
+        <v>0.01356132793408503</v>
       </c>
       <c r="Q9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>338</v>
+        <v>1158</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
       </c>
       <c r="D10">
-        <v>0.2520744816399771</v>
+        <v>0.8371075288839293</v>
       </c>
       <c r="E10">
-        <v>0.1989922537079369</v>
+        <v>0.6639100803047208</v>
       </c>
       <c r="F10">
-        <v>0.001721247414308823</v>
+        <v>0.0027409914252942</v>
       </c>
       <c r="G10">
-        <v>12.69226567155653</v>
+        <v>4.422164991350634</v>
       </c>
       <c r="H10">
-        <v>0.3056663474748275</v>
+        <v>0.1447763231557938</v>
       </c>
       <c r="I10">
-        <v>1.267108680988544E-33</v>
+        <v>1.353723455047783E-62</v>
       </c>
       <c r="J10">
-        <v>28.18000030517578</v>
+        <v>11.60000038146973</v>
       </c>
       <c r="K10">
-        <v>47.88999938964844</v>
+        <v>46.34000015258789</v>
       </c>
       <c r="L10">
-        <v>1.072316234857631</v>
+        <v>0.6916567274886756</v>
       </c>
       <c r="M10">
-        <v>-1.245769832878096</v>
+        <v>-1.03597303554203</v>
       </c>
       <c r="N10">
-        <v>0.4287829710517488</v>
+        <v>0.3447370044571889</v>
       </c>
       <c r="O10">
-        <v>0.8493734396136929</v>
+        <v>0.4689005529884964</v>
       </c>
       <c r="P10">
-        <v>0.01246777547056229</v>
+        <v>0.01375385966829206</v>
       </c>
       <c r="Q10" t="s">
         <v>34</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1158</v>
+        <v>332</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
       </c>
       <c r="D11">
-        <v>0.8274451239283629</v>
+        <v>0.2893149832919686</v>
       </c>
       <c r="E11">
-        <v>0.6869137893058594</v>
+        <v>0.2256945866926624</v>
       </c>
       <c r="F11">
-        <v>0.002456507713222571</v>
+        <v>0.002782203818395697</v>
       </c>
       <c r="G11">
-        <v>4.454101919155858</v>
+        <v>19.22951584162949</v>
       </c>
       <c r="H11">
-        <v>0.1437762292178406</v>
+        <v>1.024006191228207</v>
       </c>
       <c r="I11">
-        <v>1.477728456215256E-61</v>
+        <v>1.392384487649661E-22</v>
       </c>
       <c r="J11">
-        <v>11.55000019073486</v>
+        <v>28.29999923706055</v>
       </c>
       <c r="K11">
-        <v>46.56999969482422</v>
+        <v>7.96999979019165</v>
       </c>
       <c r="L11">
-        <v>0.7036639259436939</v>
+        <v>1.269447220252452</v>
       </c>
       <c r="M11">
-        <v>-1.036336998031278</v>
+        <v>-1.494474186157426</v>
       </c>
       <c r="N11">
-        <v>0.3436024014221167</v>
+        <v>0.5232413220146693</v>
       </c>
       <c r="O11">
-        <v>0.400239320781191</v>
+        <v>0.9091542661872971</v>
       </c>
       <c r="P11">
-        <v>0.01358550430856061</v>
+        <v>0.01427781917132242</v>
       </c>
       <c r="Q11" t="s">
         <v>35</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -70,58 +70,58 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>EZTC3</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>LREN3</t>
+  </si>
+  <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
     <t>HYPE3</t>
   </si>
   <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>LREN3</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>MRVE3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
     <t>ITUB4</t>
   </si>
   <si>
     <t>TIMS3</t>
   </si>
   <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
+  </si>
+  <si>
     <t>IGTI11</t>
   </si>
   <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
-    <t>ENGI11</t>
-  </si>
-  <si>
     <t>EMBR3</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2391</v>
+        <v>2081</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -552,43 +552,43 @@
         <v>27</v>
       </c>
       <c r="D2">
-        <v>0.4911763260988795</v>
+        <v>0.6804580727084322</v>
       </c>
       <c r="E2">
-        <v>0.4014656201871752</v>
+        <v>0.6188769297858053</v>
       </c>
       <c r="F2">
-        <v>2.151945964623773E-05</v>
+        <v>3.238830575225282E-05</v>
       </c>
       <c r="G2">
-        <v>6.243396884787947</v>
+        <v>-4.853181306630194</v>
       </c>
       <c r="H2">
-        <v>3.348476435686834</v>
+        <v>2.498199421961581</v>
       </c>
       <c r="I2">
-        <v>3.50471816101945E-43</v>
+        <v>3.901421999273948E-51</v>
       </c>
       <c r="J2">
-        <v>29.1299991607666</v>
+        <v>34.20000076293945</v>
       </c>
       <c r="K2">
-        <v>7.409999847412109</v>
+        <v>15.94999980926514</v>
       </c>
       <c r="L2">
-        <v>1.997310067316029</v>
+        <v>1.648225581830271</v>
       </c>
       <c r="M2">
-        <v>-2.450523401991546</v>
+        <v>-2.143815868919901</v>
       </c>
       <c r="N2">
-        <v>0.8794920514211062</v>
+        <v>0.7578188240133509</v>
       </c>
       <c r="O2">
-        <v>-1.925607601523833</v>
+        <v>-0.793098234223848</v>
       </c>
       <c r="P2">
-        <v>0.008423273308030785</v>
+        <v>0.008996159819059112</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -608,22 +608,22 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>0.478577591555582</v>
+        <v>0.5057253381690376</v>
       </c>
       <c r="E3">
-        <v>0.3476833305048035</v>
+        <v>0.3750789491918404</v>
       </c>
       <c r="F3">
-        <v>0.0002273874815795364</v>
+        <v>0.0002424192642821621</v>
       </c>
       <c r="G3">
-        <v>3.065469905616955</v>
+        <v>3.047933557349922</v>
       </c>
       <c r="H3">
-        <v>0.2678252519296951</v>
+        <v>0.2683866196902813</v>
       </c>
       <c r="I3">
-        <v>3.270660265556735E-54</v>
+        <v>7.000052948860436E-54</v>
       </c>
       <c r="J3">
         <v>12.85999965667725</v>
@@ -632,19 +632,19 @@
         <v>35.56000137329102</v>
       </c>
       <c r="L3">
-        <v>0.7611210276322389</v>
+        <v>0.7584864941358447</v>
       </c>
       <c r="M3">
-        <v>-0.5990383695358332</v>
+        <v>-0.6019666797259688</v>
       </c>
       <c r="N3">
-        <v>0.233134698140075</v>
+        <v>0.2341912566388261</v>
       </c>
       <c r="O3">
-        <v>0.2706634246383199</v>
+        <v>0.2682375345679873</v>
       </c>
       <c r="P3">
-        <v>0.01056844885504672</v>
+        <v>0.0106392667745715</v>
       </c>
       <c r="Q3" t="s">
         <v>28</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2090</v>
+        <v>2131</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -664,441 +664,441 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>0.70717863058037</v>
+        <v>0.5527639220057109</v>
       </c>
       <c r="E4">
-        <v>0.8715108676235178</v>
+        <v>0.2879399666827602</v>
       </c>
       <c r="F4">
-        <v>0.0004369560997924814</v>
+        <v>0.004911191325621025</v>
       </c>
       <c r="G4">
-        <v>0.09080811499701014</v>
+        <v>-4.265536804340188</v>
       </c>
       <c r="H4">
-        <v>0.9608274265261034</v>
+        <v>0.6161732992857168</v>
       </c>
       <c r="I4">
-        <v>1.400014116957246E-40</v>
+        <v>1.647494382561663E-44</v>
       </c>
       <c r="J4">
-        <v>34.27000045776367</v>
+        <v>14.09000015258789</v>
       </c>
       <c r="K4">
-        <v>36.95999908447266</v>
+        <v>28.54000091552734</v>
       </c>
       <c r="L4">
-        <v>2.018174794417416</v>
+        <v>1.465035646072002</v>
       </c>
       <c r="M4">
-        <v>-2.528450957853302</v>
+        <v>-1.26634761597248</v>
       </c>
       <c r="N4">
-        <v>0.9004977311885836</v>
+        <v>0.6091022769527593</v>
       </c>
       <c r="O4">
-        <v>-1.332988461974338</v>
+        <v>0.7699504311902139</v>
       </c>
       <c r="P4">
-        <v>0.01169458977522014</v>
+        <v>0.01073844351929201</v>
       </c>
       <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" t="s">
         <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2656</v>
+        <v>2090</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5">
-        <v>0.677883113430751</v>
+        <v>0.6804580727084322</v>
       </c>
       <c r="E5">
-        <v>0.2901642278063885</v>
+        <v>0.8348050616805931</v>
       </c>
       <c r="F5">
-        <v>0.0001221375178447133</v>
+        <v>0.0001965929043309274</v>
       </c>
       <c r="G5">
-        <v>-13.53432766348801</v>
+        <v>0.3707210814591875</v>
       </c>
       <c r="H5">
-        <v>1.659025319697693</v>
+        <v>0.9522421039836754</v>
       </c>
       <c r="I5">
-        <v>3.513001509581982E-40</v>
+        <v>2.963969027179455E-41</v>
       </c>
       <c r="J5">
-        <v>17.04999923706055</v>
+        <v>34.20000076293945</v>
       </c>
       <c r="K5">
-        <v>17.94000053405762</v>
+        <v>36.68235015869141</v>
       </c>
       <c r="L5">
-        <v>2.345453036314343</v>
+        <v>2.035608407001757</v>
       </c>
       <c r="M5">
-        <v>-2.407699900041766</v>
+        <v>-2.486513197343747</v>
       </c>
       <c r="N5">
-        <v>0.8156823931340416</v>
+        <v>0.8944080487465228</v>
       </c>
       <c r="O5">
-        <v>0.8214117791568398</v>
+        <v>-1.101198612697949</v>
       </c>
       <c r="P5">
-        <v>0.01211428280818495</v>
+        <v>0.01122664077531237</v>
       </c>
       <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" t="s">
         <v>30</v>
-      </c>
-      <c r="R5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1897</v>
+        <v>1774</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
       </c>
       <c r="D6">
-        <v>0.5593534772651302</v>
+        <v>0.2751293681042486</v>
       </c>
       <c r="E6">
-        <v>0.3335206293656782</v>
+        <v>0.3068977110337532</v>
       </c>
       <c r="F6">
-        <v>0.003270599255876287</v>
+        <v>0.004358823469898293</v>
       </c>
       <c r="G6">
-        <v>3.180750388304826</v>
+        <v>-1.332826863834378</v>
       </c>
       <c r="H6">
-        <v>1.826453587271327</v>
+        <v>0.5159188378465928</v>
       </c>
       <c r="I6">
-        <v>2.649504692392672E-59</v>
+        <v>1.749462000579892E-31</v>
       </c>
       <c r="J6">
-        <v>45.97000122070312</v>
+        <v>8.210000038146973</v>
       </c>
       <c r="K6">
-        <v>22.30999946594238</v>
+        <v>17.86000061035156</v>
       </c>
       <c r="L6">
-        <v>2.271490457849694</v>
+        <v>0.7982278024738632</v>
       </c>
       <c r="M6">
-        <v>-2.251555891848994</v>
+        <v>-0.7676637208807415</v>
       </c>
       <c r="N6">
-        <v>0.8734320244812167</v>
+        <v>0.3149477251554985</v>
       </c>
       <c r="O6">
-        <v>2.041072275806449</v>
+        <v>0.3285161431493346</v>
       </c>
       <c r="P6">
-        <v>0.01253356018275863</v>
+        <v>0.01177952130205222</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1698</v>
+        <v>2656</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>0.6361656432201279</v>
+        <v>0.7090949952390019</v>
       </c>
       <c r="E7">
-        <v>0.5018251245374621</v>
+        <v>0.3068977110337532</v>
       </c>
       <c r="F7">
-        <v>0.002354490375282913</v>
+        <v>0.0003953718354151807</v>
       </c>
       <c r="G7">
-        <v>8.484508334103229</v>
+        <v>-13.87995801308425</v>
       </c>
       <c r="H7">
-        <v>2.617466212068833</v>
+        <v>1.680455017489948</v>
       </c>
       <c r="I7">
-        <v>2.677970685920823E-61</v>
+        <v>5.524590608641477E-41</v>
       </c>
       <c r="J7">
-        <v>22.20999908447266</v>
+        <v>17.29999923706055</v>
       </c>
       <c r="K7">
-        <v>4.630000114440918</v>
+        <v>17.86000061035156</v>
       </c>
       <c r="L7">
-        <v>1.712526319336412</v>
+        <v>2.323547155151603</v>
       </c>
       <c r="M7">
-        <v>-2.070896846386365</v>
+        <v>-2.439660843529586</v>
       </c>
       <c r="N7">
-        <v>0.6127739118143523</v>
+        <v>0.8126272845400032</v>
       </c>
       <c r="O7">
-        <v>1.606621888945492</v>
+        <v>1.167029612105978</v>
       </c>
       <c r="P7">
-        <v>0.01279653740621785</v>
+        <v>0.01217785597686329</v>
       </c>
       <c r="Q7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>338</v>
+        <v>1698</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>0.2893149832919686</v>
+        <v>0.6202401880341679</v>
       </c>
       <c r="E8">
-        <v>0.1791674411499874</v>
+        <v>0.5592477385423474</v>
       </c>
       <c r="F8">
-        <v>0.004083629493971638</v>
+        <v>0.001983030758186865</v>
       </c>
       <c r="G8">
-        <v>12.59415711249815</v>
+        <v>8.490673785119089</v>
       </c>
       <c r="H8">
-        <v>0.3079381650634838</v>
+        <v>2.619556887428458</v>
       </c>
       <c r="I8">
-        <v>3.268048953343671E-33</v>
+        <v>1.478969201783038E-60</v>
       </c>
       <c r="J8">
-        <v>28.29999923706055</v>
+        <v>21.81999969482422</v>
       </c>
       <c r="K8">
-        <v>47.33000183105469</v>
+        <v>4.550000190734863</v>
       </c>
       <c r="L8">
-        <v>1.131128208256087</v>
+        <v>1.69643016036234</v>
       </c>
       <c r="M8">
-        <v>-1.255321261458512</v>
+        <v>-2.088895519618688</v>
       </c>
       <c r="N8">
-        <v>0.4380404474127731</v>
+        <v>0.6203229608585238</v>
       </c>
       <c r="O8">
-        <v>1.131128208256085</v>
+        <v>1.410341572264823</v>
       </c>
       <c r="P8">
-        <v>0.01337501757157908</v>
+        <v>0.01288083895151936</v>
       </c>
       <c r="Q8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1847</v>
+        <v>338</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>0.518087127643114</v>
+        <v>0.2506396920666425</v>
       </c>
       <c r="E9">
-        <v>0.3335206293656782</v>
+        <v>0.1428442901142115</v>
       </c>
       <c r="F9">
-        <v>0.003888317268017786</v>
+        <v>0.003165229925948741</v>
       </c>
       <c r="G9">
-        <v>-5.444778296649709</v>
+        <v>12.49853987880812</v>
       </c>
       <c r="H9">
-        <v>2.046007167803822</v>
+        <v>0.3101618997652382</v>
       </c>
       <c r="I9">
-        <v>3.401215389756108E-55</v>
+        <v>1.459706704045442E-32</v>
       </c>
       <c r="J9">
-        <v>41.29999923706055</v>
+        <v>28.1200008392334</v>
       </c>
       <c r="K9">
-        <v>22.30999946594238</v>
+        <v>47.31000137329102</v>
       </c>
       <c r="L9">
-        <v>2.892490022049245</v>
+        <v>1.121496074440305</v>
       </c>
       <c r="M9">
-        <v>-2.547770240776941</v>
+        <v>-1.263939072499433</v>
       </c>
       <c r="N9">
-        <v>1.061678607398419</v>
+        <v>0.4453985447607157</v>
       </c>
       <c r="O9">
-        <v>1.098358712692701</v>
+        <v>0.9477010565893114</v>
       </c>
       <c r="P9">
-        <v>0.01356132793408503</v>
+        <v>0.01343332302849234</v>
       </c>
       <c r="Q9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1158</v>
+        <v>1847</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
       </c>
       <c r="D10">
-        <v>0.8371075288839293</v>
+        <v>0.5553685110500448</v>
       </c>
       <c r="E10">
-        <v>0.6639100803047208</v>
+        <v>0.2792626973949597</v>
       </c>
       <c r="F10">
-        <v>0.0027409914252942</v>
+        <v>0.001486898628540852</v>
       </c>
       <c r="G10">
-        <v>4.422164991350634</v>
+        <v>-5.371693859070353</v>
       </c>
       <c r="H10">
-        <v>0.1447763231557938</v>
+        <v>2.042956273811395</v>
       </c>
       <c r="I10">
-        <v>1.353723455047783E-62</v>
+        <v>1.670896336185728E-54</v>
       </c>
       <c r="J10">
-        <v>11.60000038146973</v>
+        <v>41.75</v>
       </c>
       <c r="K10">
-        <v>46.34000015258789</v>
+        <v>22.09000015258789</v>
       </c>
       <c r="L10">
-        <v>0.6916567274886756</v>
+        <v>2.888797641348276</v>
       </c>
       <c r="M10">
-        <v>-1.03597303554203</v>
+        <v>-2.549067140619606</v>
       </c>
       <c r="N10">
-        <v>0.3447370044571889</v>
+        <v>1.071321833674215</v>
       </c>
       <c r="O10">
-        <v>0.4689005529884964</v>
+        <v>1.992789458846261</v>
       </c>
       <c r="P10">
-        <v>0.01375385966829206</v>
+        <v>0.01363195617050471</v>
       </c>
       <c r="Q10" t="s">
         <v>34</v>
       </c>
       <c r="R10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>332</v>
+        <v>1158</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
       </c>
       <c r="D11">
-        <v>0.2893149832919686</v>
+        <v>0.8588551822299267</v>
       </c>
       <c r="E11">
-        <v>0.2256945866926624</v>
+        <v>0.6612536365120358</v>
       </c>
       <c r="F11">
-        <v>0.002782203818395697</v>
+        <v>0.002429487060830029</v>
       </c>
       <c r="G11">
-        <v>19.22951584162949</v>
+        <v>4.387632344307105</v>
       </c>
       <c r="H11">
-        <v>1.024006191228207</v>
+        <v>0.1458225716294964</v>
       </c>
       <c r="I11">
-        <v>1.392384487649661E-22</v>
+        <v>1.546165864510699E-62</v>
       </c>
       <c r="J11">
-        <v>28.29999923706055</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="K11">
-        <v>7.96999979019165</v>
+        <v>46.83000183105469</v>
       </c>
       <c r="L11">
-        <v>1.269447220252452</v>
+        <v>0.6802172180345138</v>
       </c>
       <c r="M11">
-        <v>-1.494474186157426</v>
+        <v>-1.034470452494002</v>
       </c>
       <c r="N11">
-        <v>0.5232413220146693</v>
+        <v>0.3465433345794555</v>
       </c>
       <c r="O11">
-        <v>0.9091542661872971</v>
+        <v>0.4134964737153943</v>
       </c>
       <c r="P11">
-        <v>0.01427781917132242</v>
+        <v>0.01370865454158675</v>
       </c>
       <c r="Q11" t="s">
         <v>35</v>
       </c>
       <c r="R11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -70,58 +70,49 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>EQTL3</t>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>EZTC3</t>
   </si>
   <si>
     <t>ABEV3</t>
   </si>
   <si>
-    <t>EZTC3</t>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>LREN3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>MRVE3</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
   </si>
   <si>
     <t>DXCO3</t>
-  </si>
-  <si>
-    <t>LREN3</t>
-  </si>
-  <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
-    <t>ENGI11</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>EMBR3</t>
   </si>
 </sst>
 </file>
@@ -543,7 +534,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2081</v>
+        <v>2391</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -552,43 +543,43 @@
         <v>27</v>
       </c>
       <c r="D2">
-        <v>0.6804580727084322</v>
+        <v>0.2400223307283367</v>
       </c>
       <c r="E2">
-        <v>0.6188769297858053</v>
+        <v>0.341939016775732</v>
       </c>
       <c r="F2">
-        <v>3.238830575225282E-05</v>
+        <v>4.391877854075151E-05</v>
       </c>
       <c r="G2">
-        <v>-4.853181306630194</v>
+        <v>6.433408869157073</v>
       </c>
       <c r="H2">
-        <v>2.498199421961581</v>
+        <v>3.314488667575596</v>
       </c>
       <c r="I2">
-        <v>3.901421999273948E-51</v>
+        <v>1.056354999933084E-40</v>
       </c>
       <c r="J2">
-        <v>34.20000076293945</v>
+        <v>28.14999961853027</v>
       </c>
       <c r="K2">
-        <v>15.94999980926514</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="L2">
-        <v>1.648225581830271</v>
+        <v>2.055412611338863</v>
       </c>
       <c r="M2">
-        <v>-2.143815868919901</v>
+        <v>-2.652637605012035</v>
       </c>
       <c r="N2">
-        <v>0.7578188240133509</v>
+        <v>0.9223290518826975</v>
       </c>
       <c r="O2">
-        <v>-0.793098234223848</v>
+        <v>-2.479177156117192</v>
       </c>
       <c r="P2">
-        <v>0.008996159819059112</v>
+        <v>0.009073801725332929</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -599,55 +590,55 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>10</v>
+        <v>2131</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>0.5057253381690376</v>
+        <v>0.5183036603299689</v>
       </c>
       <c r="E3">
-        <v>0.3750789491918404</v>
+        <v>0.2400223307283367</v>
       </c>
       <c r="F3">
-        <v>0.0002424192642821621</v>
+        <v>0.005142214841756873</v>
       </c>
       <c r="G3">
-        <v>3.047933557349922</v>
+        <v>-4.20851612249081</v>
       </c>
       <c r="H3">
-        <v>0.2683866196902813</v>
+        <v>0.6145378558649266</v>
       </c>
       <c r="I3">
-        <v>7.000052948860436E-54</v>
+        <v>1.947132397567459E-44</v>
       </c>
       <c r="J3">
-        <v>12.85999965667725</v>
+        <v>13.71000003814697</v>
       </c>
       <c r="K3">
-        <v>35.56000137329102</v>
+        <v>28.14999961853027</v>
       </c>
       <c r="L3">
-        <v>0.7584864941358447</v>
+        <v>1.460602194750368</v>
       </c>
       <c r="M3">
-        <v>-0.6019666797259688</v>
+        <v>-1.271606514177719</v>
       </c>
       <c r="N3">
-        <v>0.2341912566388261</v>
+        <v>0.6102389573817767</v>
       </c>
       <c r="O3">
-        <v>0.2682375345679873</v>
+        <v>0.6192757524676864</v>
       </c>
       <c r="P3">
-        <v>0.0106392667745715</v>
+        <v>0.01063683885627238</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -655,55 +646,55 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2131</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.5527639220057109</v>
+        <v>0.5417734586840126</v>
       </c>
       <c r="E4">
-        <v>0.2879399666827602</v>
+        <v>0.2484483737767366</v>
       </c>
       <c r="F4">
-        <v>0.004911191325621025</v>
+        <v>0.0003309245960237196</v>
       </c>
       <c r="G4">
-        <v>-4.265536804340188</v>
+        <v>3.027719491902925</v>
       </c>
       <c r="H4">
-        <v>0.6161732992857168</v>
+        <v>0.2690421964859378</v>
       </c>
       <c r="I4">
-        <v>1.647494382561663E-44</v>
+        <v>1.874219015379897E-53</v>
       </c>
       <c r="J4">
-        <v>14.09000015258789</v>
+        <v>12.86999988555908</v>
       </c>
       <c r="K4">
-        <v>28.54000091552734</v>
+        <v>35.29999923706055</v>
       </c>
       <c r="L4">
-        <v>1.465035646072002</v>
+        <v>0.7551445897526072</v>
       </c>
       <c r="M4">
-        <v>-1.26634761597248</v>
+        <v>-0.6056516625633712</v>
       </c>
       <c r="N4">
-        <v>0.6091022769527593</v>
+        <v>0.2359556645253647</v>
       </c>
       <c r="O4">
-        <v>0.7699504311902139</v>
+        <v>0.3450910629654587</v>
       </c>
       <c r="P4">
-        <v>0.01073844351929201</v>
+        <v>0.01082695424104623</v>
       </c>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -711,114 +702,114 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2090</v>
+        <v>1698</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.6804580727084322</v>
+        <v>0.5921966601123709</v>
       </c>
       <c r="E5">
-        <v>0.8348050616805931</v>
+        <v>0.5144655489734871</v>
       </c>
       <c r="F5">
-        <v>0.0001965929043309274</v>
+        <v>0.0006112031052705074</v>
       </c>
       <c r="G5">
-        <v>0.3707210814591875</v>
+        <v>8.49185557723507</v>
       </c>
       <c r="H5">
-        <v>0.9522421039836754</v>
+        <v>2.622153067541912</v>
       </c>
       <c r="I5">
-        <v>2.963969027179455E-41</v>
+        <v>2.34063526188363E-60</v>
       </c>
       <c r="J5">
-        <v>34.20000076293945</v>
+        <v>21.60000038146973</v>
       </c>
       <c r="K5">
-        <v>36.68235015869141</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="L5">
-        <v>2.035608407001757</v>
+        <v>1.68291651270745</v>
       </c>
       <c r="M5">
-        <v>-2.486513197343747</v>
+        <v>-2.104771690780673</v>
       </c>
       <c r="N5">
-        <v>0.8944080487465228</v>
+        <v>0.6224775740697597</v>
       </c>
       <c r="O5">
-        <v>-1.101198612697949</v>
+        <v>1.046240943609867</v>
       </c>
       <c r="P5">
-        <v>0.01122664077531237</v>
+        <v>0.01218978852845425</v>
       </c>
       <c r="Q5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1774</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>0.2751293681042486</v>
+        <v>0.510135013026513</v>
       </c>
       <c r="E6">
-        <v>0.3068977110337532</v>
+        <v>0.3661999141117148</v>
       </c>
       <c r="F6">
-        <v>0.004358823469898293</v>
+        <v>0.0008684817252584573</v>
       </c>
       <c r="G6">
-        <v>-1.332826863834378</v>
+        <v>-12.8307240009443</v>
       </c>
       <c r="H6">
-        <v>0.5159188378465928</v>
+        <v>0.9049810189662878</v>
       </c>
       <c r="I6">
-        <v>1.749462000579892E-31</v>
+        <v>2.861210198205501E-44</v>
       </c>
       <c r="J6">
-        <v>8.210000038146973</v>
+        <v>12.43000030517578</v>
       </c>
       <c r="K6">
-        <v>17.86000061035156</v>
+        <v>28.42000007629395</v>
       </c>
       <c r="L6">
-        <v>0.7982278024738632</v>
+        <v>1.213914069550173</v>
       </c>
       <c r="M6">
-        <v>-0.7676637208807415</v>
+        <v>-0.7887815508873839</v>
       </c>
       <c r="N6">
-        <v>0.3149477251554985</v>
+        <v>0.3842037877185538</v>
       </c>
       <c r="O6">
-        <v>0.3285161431493346</v>
+        <v>-0.4588363219463893</v>
       </c>
       <c r="P6">
-        <v>0.01177952130205222</v>
+        <v>0.01236602389141612</v>
       </c>
       <c r="Q6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -826,220 +817,220 @@
         <v>2656</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.7090949952390019</v>
+        <v>0.6567193460730321</v>
       </c>
       <c r="E7">
-        <v>0.3068977110337532</v>
+        <v>0.3224071912900597</v>
       </c>
       <c r="F7">
-        <v>0.0003953718354151807</v>
+        <v>0.0002969871528655105</v>
       </c>
       <c r="G7">
-        <v>-13.87995801308425</v>
+        <v>-14.07265814199154</v>
       </c>
       <c r="H7">
-        <v>1.680455017489948</v>
+        <v>1.692638110115467</v>
       </c>
       <c r="I7">
-        <v>5.524590608641477E-41</v>
+        <v>1.537253729262331E-41</v>
       </c>
       <c r="J7">
-        <v>17.29999923706055</v>
+        <v>16.94000053405762</v>
       </c>
       <c r="K7">
-        <v>17.86000061035156</v>
+        <v>17.79999923706055</v>
       </c>
       <c r="L7">
-        <v>2.323547155151603</v>
+        <v>2.307297629893032</v>
       </c>
       <c r="M7">
-        <v>-2.439660843529586</v>
+        <v>-2.461626816908392</v>
       </c>
       <c r="N7">
-        <v>0.8126272845400032</v>
+        <v>0.8104913147892393</v>
       </c>
       <c r="O7">
-        <v>1.167029612105978</v>
+        <v>0.8837016073742419</v>
       </c>
       <c r="P7">
-        <v>0.01217785597686329</v>
+        <v>0.01260418487099977</v>
       </c>
       <c r="Q7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1698</v>
+        <v>2807</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.6202401880341679</v>
+        <v>0.589727895607304</v>
       </c>
       <c r="E8">
-        <v>0.5592477385423474</v>
+        <v>0.6220250623176238</v>
       </c>
       <c r="F8">
-        <v>0.001983030758186865</v>
+        <v>0.001535298954328559</v>
       </c>
       <c r="G8">
-        <v>8.490673785119089</v>
+        <v>3.253794976519167</v>
       </c>
       <c r="H8">
-        <v>2.619556887428458</v>
+        <v>0.4400128767444703</v>
       </c>
       <c r="I8">
-        <v>1.478969201783038E-60</v>
+        <v>3.367248068138936E-49</v>
       </c>
       <c r="J8">
-        <v>21.81999969482422</v>
+        <v>25.35000038146973</v>
       </c>
       <c r="K8">
-        <v>4.550000190734863</v>
+        <v>52.22000122070312</v>
       </c>
       <c r="L8">
-        <v>1.69643016036234</v>
+        <v>1.448349126371546</v>
       </c>
       <c r="M8">
-        <v>-2.088895519618688</v>
+        <v>-1.819053984349605</v>
       </c>
       <c r="N8">
-        <v>0.6203229608585238</v>
+        <v>0.6185600396044488</v>
       </c>
       <c r="O8">
-        <v>1.410341572264823</v>
+        <v>-0.8812675557707728</v>
       </c>
       <c r="P8">
-        <v>0.01288083895151936</v>
+        <v>0.01275859575986465</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>338</v>
+        <v>2388</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>0.2506396920666425</v>
+        <v>0.2400223307283367</v>
       </c>
       <c r="E9">
-        <v>0.1428442901142115</v>
+        <v>0.5144655489734871</v>
       </c>
       <c r="F9">
-        <v>0.003165229925948741</v>
+        <v>0.002274046563529943</v>
       </c>
       <c r="G9">
-        <v>12.49853987880812</v>
+        <v>17.8569836699506</v>
       </c>
       <c r="H9">
-        <v>0.3101618997652382</v>
+        <v>2.541215844280431</v>
       </c>
       <c r="I9">
-        <v>1.459706704045442E-32</v>
+        <v>8.44638696789377E-39</v>
       </c>
       <c r="J9">
-        <v>28.1200008392334</v>
+        <v>28.14999961853027</v>
       </c>
       <c r="K9">
-        <v>47.31000137329102</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="L9">
-        <v>1.121496074440305</v>
+        <v>1.671416419831864</v>
       </c>
       <c r="M9">
-        <v>-1.263939072499433</v>
+        <v>-2.717415363106305</v>
       </c>
       <c r="N9">
-        <v>0.4453985447607157</v>
+        <v>0.9522191920676091</v>
       </c>
       <c r="O9">
-        <v>0.9477010565893114</v>
+        <v>-1.39657669276108</v>
       </c>
       <c r="P9">
-        <v>0.01343332302849234</v>
+        <v>0.01363904599993482</v>
       </c>
       <c r="Q9" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1847</v>
+        <v>1090</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>0.5553685110500448</v>
+        <v>0.6023084309199775</v>
       </c>
       <c r="E10">
-        <v>0.2792626973949597</v>
+        <v>0.5921966601123709</v>
       </c>
       <c r="F10">
-        <v>0.001486898628540852</v>
+        <v>0.002276050262430124</v>
       </c>
       <c r="G10">
-        <v>-5.371693859070353</v>
+        <v>4.041613674362557</v>
       </c>
       <c r="H10">
-        <v>2.042956273811395</v>
+        <v>0.416970422787887</v>
       </c>
       <c r="I10">
-        <v>1.670896336185728E-54</v>
+        <v>1.815270515445075E-62</v>
       </c>
       <c r="J10">
-        <v>41.75</v>
+        <v>13.38000011444092</v>
       </c>
       <c r="K10">
-        <v>22.09000015258789</v>
+        <v>21.60000038146973</v>
       </c>
       <c r="L10">
-        <v>2.888797641348276</v>
+        <v>0.7941779038253447</v>
       </c>
       <c r="M10">
-        <v>-2.549067140619606</v>
+        <v>-0.5440051659776746</v>
       </c>
       <c r="N10">
-        <v>1.071321833674215</v>
+        <v>0.2686469249370216</v>
       </c>
       <c r="O10">
-        <v>1.992789458846261</v>
+        <v>0.3318251487984085</v>
       </c>
       <c r="P10">
-        <v>0.01363195617050471</v>
+        <v>0.01368304078961623</v>
       </c>
       <c r="Q10" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="R10" t="s">
         <v>25</v>
@@ -1047,55 +1038,55 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1158</v>
+        <v>332</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.8588551822299267</v>
+        <v>0.3661999141117148</v>
       </c>
       <c r="E11">
-        <v>0.6612536365120358</v>
+        <v>0.5712519389126428</v>
       </c>
       <c r="F11">
-        <v>0.002429487060830029</v>
+        <v>0.002589116289356255</v>
       </c>
       <c r="G11">
-        <v>4.387632344307105</v>
+        <v>18.99546534075478</v>
       </c>
       <c r="H11">
-        <v>0.1458225716294964</v>
+        <v>1.05508174587775</v>
       </c>
       <c r="I11">
-        <v>1.546165864510699E-62</v>
+        <v>3.198287835929943E-24</v>
       </c>
       <c r="J11">
-        <v>11.63000011444092</v>
+        <v>28.42000007629395</v>
       </c>
       <c r="K11">
-        <v>46.83000183105469</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="L11">
-        <v>0.6802172180345138</v>
+        <v>1.278009231644656</v>
       </c>
       <c r="M11">
-        <v>-1.034470452494002</v>
+        <v>-1.502884926416336</v>
       </c>
       <c r="N11">
-        <v>0.3465433345794555</v>
+        <v>0.5176803770581297</v>
       </c>
       <c r="O11">
-        <v>0.4134964737153943</v>
+        <v>0.9311264799824102</v>
       </c>
       <c r="P11">
-        <v>0.01370865454158675</v>
+        <v>0.01377035714417404</v>
       </c>
       <c r="Q11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R11" t="s">
         <v>26</v>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -70,6 +70,9 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
     <t>HYPE3</t>
   </si>
   <si>
@@ -82,19 +85,16 @@
     <t>CYRE3</t>
   </si>
   <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>LREN3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
+    <t>ENGI11</t>
+  </si>
+  <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
   </si>
   <si>
     <t>MRVE3</t>
@@ -106,13 +106,13 @@
     <t>LWSA3</t>
   </si>
   <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
-    <t>VIVT3</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
   </si>
 </sst>
 </file>
@@ -534,167 +534,167 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2391</v>
+        <v>2081</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.2400223307283367</v>
+        <v>0.6846822390793604</v>
       </c>
       <c r="E2">
-        <v>0.341939016775732</v>
+        <v>0.7158615417648773</v>
       </c>
       <c r="F2">
-        <v>4.391877854075151E-05</v>
+        <v>5.104168605198662E-05</v>
       </c>
       <c r="G2">
-        <v>6.433408869157073</v>
+        <v>-4.330036846024779</v>
       </c>
       <c r="H2">
-        <v>3.314488667575596</v>
+        <v>2.461985288593107</v>
       </c>
       <c r="I2">
-        <v>1.056354999933084E-40</v>
+        <v>6.820977622945901E-51</v>
       </c>
       <c r="J2">
-        <v>28.14999961853027</v>
+        <v>34.22000122070312</v>
       </c>
       <c r="K2">
-        <v>7.300000190734863</v>
+        <v>16.1299991607666</v>
       </c>
       <c r="L2">
-        <v>2.055412611338863</v>
+        <v>1.649087449356312</v>
       </c>
       <c r="M2">
-        <v>-2.652637605012035</v>
+        <v>-2.10516127419146</v>
       </c>
       <c r="N2">
-        <v>0.9223290518826975</v>
+        <v>0.7651212877116379</v>
       </c>
       <c r="O2">
-        <v>-2.479177156117192</v>
+        <v>-1.16178257209863</v>
       </c>
       <c r="P2">
-        <v>0.009073801725332929</v>
+        <v>0.009193583359822535</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2131</v>
+        <v>2391</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.5183036603299689</v>
+        <v>0.2965182240109316</v>
       </c>
       <c r="E3">
-        <v>0.2400223307283367</v>
+        <v>0.3282531841872804</v>
       </c>
       <c r="F3">
-        <v>0.005142214841756873</v>
+        <v>0.0001145191826996279</v>
       </c>
       <c r="G3">
-        <v>-4.20851612249081</v>
+        <v>6.518874484701783</v>
       </c>
       <c r="H3">
-        <v>0.6145378558649266</v>
+        <v>3.298116831050736</v>
       </c>
       <c r="I3">
-        <v>1.947132397567459E-44</v>
+        <v>2.869819460242973E-40</v>
       </c>
       <c r="J3">
-        <v>13.71000003814697</v>
+        <v>28.04999923706055</v>
       </c>
       <c r="K3">
-        <v>28.14999961853027</v>
+        <v>7.230000019073486</v>
       </c>
       <c r="L3">
-        <v>1.460602194750368</v>
+        <v>2.064230180691258</v>
       </c>
       <c r="M3">
-        <v>-1.271606514177719</v>
+        <v>-2.615805605150989</v>
       </c>
       <c r="N3">
-        <v>0.6102389573817767</v>
+        <v>0.9267539607749326</v>
       </c>
       <c r="O3">
-        <v>0.6192757524676864</v>
+        <v>-2.314259999044644</v>
       </c>
       <c r="P3">
-        <v>0.01063683885627238</v>
+        <v>0.009583475143609927</v>
       </c>
       <c r="Q3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>10</v>
+        <v>2131</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>0.5417734586840126</v>
+        <v>0.5138272461832709</v>
       </c>
       <c r="E4">
-        <v>0.2484483737767366</v>
+        <v>0.2965182240109316</v>
       </c>
       <c r="F4">
-        <v>0.0003309245960237196</v>
+        <v>0.003905598996001618</v>
       </c>
       <c r="G4">
-        <v>3.027719491902925</v>
+        <v>-4.235212679110443</v>
       </c>
       <c r="H4">
-        <v>0.2690421964859378</v>
+        <v>0.6157764710680916</v>
       </c>
       <c r="I4">
-        <v>1.874219015379897E-53</v>
+        <v>1.80597644879122E-44</v>
       </c>
       <c r="J4">
-        <v>12.86999988555908</v>
+        <v>13.72999954223633</v>
       </c>
       <c r="K4">
-        <v>35.29999923706055</v>
+        <v>28.04999923706055</v>
       </c>
       <c r="L4">
-        <v>0.7551445897526072</v>
+        <v>1.447470853522361</v>
       </c>
       <c r="M4">
-        <v>-0.6056516625633712</v>
+        <v>-1.284112128265768</v>
       </c>
       <c r="N4">
-        <v>0.2359556645253647</v>
+        <v>0.6095095982423371</v>
       </c>
       <c r="O4">
-        <v>0.3450910629654587</v>
+        <v>0.6926826776869639</v>
       </c>
       <c r="P4">
-        <v>0.01082695424104623</v>
+        <v>0.01065146523122958</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -702,55 +702,55 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1698</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.5921966601123709</v>
+        <v>0.5007322053783871</v>
       </c>
       <c r="E5">
-        <v>0.5144655489734871</v>
+        <v>0.3442331232620153</v>
       </c>
       <c r="F5">
-        <v>0.0006112031052705074</v>
+        <v>0.0002795491593851809</v>
       </c>
       <c r="G5">
-        <v>8.49185557723507</v>
+        <v>3.01135452412143</v>
       </c>
       <c r="H5">
-        <v>2.622153067541912</v>
+        <v>0.2695659451897983</v>
       </c>
       <c r="I5">
-        <v>2.34063526188363E-60</v>
+        <v>2.886169453536501E-53</v>
       </c>
       <c r="J5">
-        <v>21.60000038146973</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="K5">
-        <v>4.599999904632568</v>
+        <v>35.40000152587891</v>
       </c>
       <c r="L5">
-        <v>1.68291651270745</v>
+        <v>0.7526903913456344</v>
       </c>
       <c r="M5">
-        <v>-2.104771690780673</v>
+        <v>-0.6083799507442382</v>
       </c>
       <c r="N5">
-        <v>0.6224775740697597</v>
+        <v>0.2368371359661712</v>
       </c>
       <c r="O5">
-        <v>1.046240943609867</v>
+        <v>0.2460107955695836</v>
       </c>
       <c r="P5">
-        <v>0.01218978852845425</v>
+        <v>0.01080609548358594</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R5" t="s">
         <v>21</v>
@@ -758,279 +758,279 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>235</v>
+        <v>1698</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.510135013026513</v>
+        <v>0.5652142603610908</v>
       </c>
       <c r="E6">
-        <v>0.3661999141117148</v>
+        <v>0.4415089380658759</v>
       </c>
       <c r="F6">
-        <v>0.0008684817252584573</v>
+        <v>5.112344329656178E-05</v>
       </c>
       <c r="G6">
-        <v>-12.8307240009443</v>
+        <v>8.466915972228632</v>
       </c>
       <c r="H6">
-        <v>0.9049810189662878</v>
+        <v>2.630723029860551</v>
       </c>
       <c r="I6">
-        <v>2.861210198205501E-44</v>
+        <v>8.9334319095462E-61</v>
       </c>
       <c r="J6">
-        <v>12.43000030517578</v>
+        <v>21.20000076293945</v>
       </c>
       <c r="K6">
-        <v>28.42000007629395</v>
+        <v>4.46999979019165</v>
       </c>
       <c r="L6">
-        <v>1.213914069550173</v>
+        <v>1.667148796700353</v>
       </c>
       <c r="M6">
-        <v>-0.7887815508873839</v>
+        <v>-2.128338071190061</v>
       </c>
       <c r="N6">
-        <v>0.3842037877185538</v>
+        <v>0.6180802943783217</v>
       </c>
       <c r="O6">
-        <v>-0.4588363219463893</v>
+        <v>0.973753399181815</v>
       </c>
       <c r="P6">
-        <v>0.01236602389141612</v>
+        <v>0.01095548601195041</v>
       </c>
       <c r="Q6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" t="s">
         <v>22</v>
-      </c>
-      <c r="R6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2656</v>
+        <v>2090</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7">
-        <v>0.6567193460730321</v>
+        <v>0.6846822390793604</v>
       </c>
       <c r="E7">
-        <v>0.3224071912900597</v>
+        <v>0.887372888030836</v>
       </c>
       <c r="F7">
-        <v>0.0002969871528655105</v>
+        <v>0.0002843897650954243</v>
       </c>
       <c r="G7">
-        <v>-14.07265814199154</v>
+        <v>0.9256268152377061</v>
       </c>
       <c r="H7">
-        <v>1.692638110115467</v>
+        <v>0.9342300569144208</v>
       </c>
       <c r="I7">
-        <v>1.537253729262331E-41</v>
+        <v>6.220789543847862E-43</v>
       </c>
       <c r="J7">
-        <v>16.94000053405762</v>
+        <v>34.22000122070312</v>
       </c>
       <c r="K7">
-        <v>17.79999923706055</v>
+        <v>36.97999954223633</v>
       </c>
       <c r="L7">
-        <v>2.307297629893032</v>
+        <v>2.00634420868186</v>
       </c>
       <c r="M7">
-        <v>-2.461626816908392</v>
+        <v>-2.400678477222655</v>
       </c>
       <c r="N7">
-        <v>0.8104913147892393</v>
+        <v>0.8744092068541796</v>
       </c>
       <c r="O7">
-        <v>0.8837016073742419</v>
+        <v>-1.253452671573285</v>
       </c>
       <c r="P7">
-        <v>0.01260418487099977</v>
+        <v>0.01116799463839024</v>
       </c>
       <c r="Q7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" t="s">
         <v>30</v>
-      </c>
-      <c r="R7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2807</v>
+        <v>2051</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>0.589727895607304</v>
+        <v>0.1582439901038412</v>
       </c>
       <c r="E8">
-        <v>0.6220250623176238</v>
+        <v>0.3282531841872804</v>
       </c>
       <c r="F8">
-        <v>0.001535298954328559</v>
+        <v>0.0005697440201837898</v>
       </c>
       <c r="G8">
-        <v>3.253794976519167</v>
+        <v>22.81882246676275</v>
       </c>
       <c r="H8">
-        <v>0.4400128767444703</v>
+        <v>3.273456027534659</v>
       </c>
       <c r="I8">
-        <v>3.367248068138936E-49</v>
+        <v>1.196669208238312E-30</v>
       </c>
       <c r="J8">
-        <v>25.35000038146973</v>
+        <v>47.70999908447266</v>
       </c>
       <c r="K8">
-        <v>52.22000122070312</v>
+        <v>7.230000019073486</v>
       </c>
       <c r="L8">
-        <v>1.448349126371546</v>
+        <v>2.911196968835171</v>
       </c>
       <c r="M8">
-        <v>-1.819053984349605</v>
+        <v>-3.055237201796523</v>
       </c>
       <c r="N8">
-        <v>0.6185600396044488</v>
+        <v>1.167996593936244</v>
       </c>
       <c r="O8">
-        <v>-0.8812675557707728</v>
+        <v>1.224089476198106</v>
       </c>
       <c r="P8">
-        <v>0.01275859575986465</v>
+        <v>0.01259698626643337</v>
       </c>
       <c r="Q8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2388</v>
+        <v>639</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.2400223307283367</v>
+        <v>0.4247336086416181</v>
       </c>
       <c r="E9">
-        <v>0.5144655489734871</v>
+        <v>0.8143032063032292</v>
       </c>
       <c r="F9">
-        <v>0.002274046563529943</v>
+        <v>0.000466619043156249</v>
       </c>
       <c r="G9">
-        <v>17.8569836699506</v>
+        <v>-3.124991471216679</v>
       </c>
       <c r="H9">
-        <v>2.541215844280431</v>
+        <v>0.9717189334993104</v>
       </c>
       <c r="I9">
-        <v>8.44638696789377E-39</v>
+        <v>2.635031662073921E-40</v>
       </c>
       <c r="J9">
-        <v>28.14999961853027</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="K9">
-        <v>4.599999904632568</v>
+        <v>11.03999996185303</v>
       </c>
       <c r="L9">
-        <v>1.671416419831864</v>
+        <v>0.64109341085073</v>
       </c>
       <c r="M9">
-        <v>-2.717415363106305</v>
+        <v>-0.6913147411036187</v>
       </c>
       <c r="N9">
-        <v>0.9522191920676091</v>
+        <v>0.2515528721746954</v>
       </c>
       <c r="O9">
-        <v>-1.39657669276108</v>
+        <v>-0.4627856510619779</v>
       </c>
       <c r="P9">
-        <v>0.01363904599993482</v>
+        <v>0.01273161030491268</v>
       </c>
       <c r="Q9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1090</v>
+        <v>1158</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.6023084309199775</v>
+        <v>0.8924106605688165</v>
       </c>
       <c r="E10">
-        <v>0.5921966601123709</v>
+        <v>0.5655974539002036</v>
       </c>
       <c r="F10">
-        <v>0.002276050262430124</v>
+        <v>0.001301797260661116</v>
       </c>
       <c r="G10">
-        <v>4.041613674362557</v>
+        <v>4.261396360400617</v>
       </c>
       <c r="H10">
-        <v>0.416970422787887</v>
+        <v>0.1494494943891929</v>
       </c>
       <c r="I10">
-        <v>1.815270515445075E-62</v>
+        <v>1.607476632431682E-62</v>
       </c>
       <c r="J10">
-        <v>13.38000011444092</v>
+        <v>11.61999988555908</v>
       </c>
       <c r="K10">
-        <v>21.60000038146973</v>
+        <v>46.41999816894531</v>
       </c>
       <c r="L10">
-        <v>0.7941779038253447</v>
+        <v>0.666849490741761</v>
       </c>
       <c r="M10">
-        <v>-0.5440051659776746</v>
+        <v>-1.022735942167127</v>
       </c>
       <c r="N10">
-        <v>0.2686469249370216</v>
+        <v>0.3506901564147135</v>
       </c>
       <c r="O10">
-        <v>0.3318251487984085</v>
+        <v>0.421158269262329</v>
       </c>
       <c r="P10">
-        <v>0.01368304078961623</v>
+        <v>0.01315448961623101</v>
       </c>
       <c r="Q10" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="R10" t="s">
         <v>25</v>
@@ -1038,58 +1038,58 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>332</v>
+        <v>640</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>0.3661999141117148</v>
+        <v>0.4247336086416181</v>
       </c>
       <c r="E11">
-        <v>0.5712519389126428</v>
+        <v>0.887372888030836</v>
       </c>
       <c r="F11">
-        <v>0.002589116289356255</v>
+        <v>0.0009203722339823521</v>
       </c>
       <c r="G11">
-        <v>18.99546534075478</v>
+        <v>-1.615774928112952</v>
       </c>
       <c r="H11">
-        <v>1.05508174587775</v>
+        <v>0.2490121064144981</v>
       </c>
       <c r="I11">
-        <v>3.198287835929943E-24</v>
+        <v>7.815251885627345E-38</v>
       </c>
       <c r="J11">
-        <v>28.42000007629395</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="K11">
-        <v>8.050000190734863</v>
+        <v>36.97999954223633</v>
       </c>
       <c r="L11">
-        <v>1.278009231644656</v>
+        <v>0.531653556483068</v>
       </c>
       <c r="M11">
-        <v>-1.502884926416336</v>
+        <v>-0.7640508838786015</v>
       </c>
       <c r="N11">
-        <v>0.5176803770581297</v>
+        <v>0.2621939368224319</v>
       </c>
       <c r="O11">
-        <v>0.9311264799824102</v>
+        <v>-0.4526927866208972</v>
       </c>
       <c r="P11">
-        <v>0.01377035714417404</v>
+        <v>0.01355334603588483</v>
       </c>
       <c r="Q11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -70,9 +70,15 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
     <t>EQTL3</t>
   </si>
   <si>
+    <t>ENEV3</t>
+  </si>
+  <si>
     <t>HYPE3</t>
   </si>
   <si>
@@ -85,34 +91,28 @@
     <t>CYRE3</t>
   </si>
   <si>
-    <t>ENGI11</t>
-  </si>
-  <si>
-    <t>BEEF3</t>
-  </si>
-  <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
     <t>FLRY3</t>
   </si>
   <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
     <t>MRVE3</t>
   </si>
   <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
     <t>BPAC11</t>
   </si>
   <si>
     <t>LWSA3</t>
   </si>
   <si>
+    <t>SBSP3</t>
+  </si>
+  <si>
     <t>ITUB4</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>EMBR3</t>
   </si>
 </sst>
 </file>
@@ -534,167 +534,167 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2081</v>
+        <v>1405</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.6846822390793604</v>
+        <v>0.9042087799778592</v>
       </c>
       <c r="E2">
-        <v>0.7158615417648773</v>
+        <v>0.8945677148010562</v>
       </c>
       <c r="F2">
-        <v>5.104168605198662E-05</v>
+        <v>2.338270736023149E-05</v>
       </c>
       <c r="G2">
-        <v>-4.330036846024779</v>
+        <v>-0.02130818750202623</v>
       </c>
       <c r="H2">
-        <v>2.461985288593107</v>
+        <v>0.6644650527899152</v>
       </c>
       <c r="I2">
-        <v>6.820977622945901E-51</v>
+        <v>1.260367084731726E-58</v>
       </c>
       <c r="J2">
-        <v>34.22000122070312</v>
+        <v>10.89000034332275</v>
       </c>
       <c r="K2">
-        <v>16.1299991607666</v>
+        <v>16.70999908447266</v>
       </c>
       <c r="L2">
-        <v>1.649087449356312</v>
+        <v>0.3637918314850186</v>
       </c>
       <c r="M2">
-        <v>-2.10516127419146</v>
+        <v>-0.6245390993410691</v>
       </c>
       <c r="N2">
-        <v>0.7651212877116379</v>
+        <v>0.1833620436479012</v>
       </c>
       <c r="O2">
-        <v>-1.16178257209863</v>
+        <v>-0.1919018929587786</v>
       </c>
       <c r="P2">
-        <v>0.009193583359822535</v>
+        <v>0.008910536497363288</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2391</v>
+        <v>2081</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>0.2965182240109316</v>
+        <v>0.7976305787446014</v>
       </c>
       <c r="E3">
-        <v>0.3282531841872804</v>
+        <v>0.8945677148010562</v>
       </c>
       <c r="F3">
-        <v>0.0001145191826996279</v>
+        <v>5.666650753797393E-05</v>
       </c>
       <c r="G3">
-        <v>6.518874484701783</v>
+        <v>-3.797851284560462</v>
       </c>
       <c r="H3">
-        <v>3.298116831050736</v>
+        <v>2.425380111287947</v>
       </c>
       <c r="I3">
-        <v>2.869819460242973E-40</v>
+        <v>9.027313047355831E-52</v>
       </c>
       <c r="J3">
-        <v>28.04999923706055</v>
+        <v>35.68000030517578</v>
       </c>
       <c r="K3">
-        <v>7.230000019073486</v>
+        <v>16.70999908447266</v>
       </c>
       <c r="L3">
-        <v>2.064230180691258</v>
+        <v>1.646566490247945</v>
       </c>
       <c r="M3">
-        <v>-2.615805605150989</v>
+        <v>-2.069481416342157</v>
       </c>
       <c r="N3">
-        <v>0.9267539607749326</v>
+        <v>0.7679219306117288</v>
       </c>
       <c r="O3">
-        <v>-2.314259999044644</v>
+        <v>-1.050247849383531</v>
       </c>
       <c r="P3">
-        <v>0.009583475143609927</v>
+        <v>0.009379274840759398</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2131</v>
+        <v>2003</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.5138272461832709</v>
+        <v>0.1759081280151433</v>
       </c>
       <c r="E4">
-        <v>0.2965182240109316</v>
+        <v>0.9165948852902691</v>
       </c>
       <c r="F4">
-        <v>0.003905598996001618</v>
+        <v>0.0001148716047207594</v>
       </c>
       <c r="G4">
-        <v>-4.235212679110443</v>
+        <v>10.49413957973712</v>
       </c>
       <c r="H4">
-        <v>0.6157764710680916</v>
+        <v>0.2051149592571457</v>
       </c>
       <c r="I4">
-        <v>1.80597644879122E-44</v>
+        <v>2.200861013312899E-31</v>
       </c>
       <c r="J4">
-        <v>13.72999954223633</v>
+        <v>13.85000038146973</v>
       </c>
       <c r="K4">
-        <v>28.04999923706055</v>
+        <v>14.6899995803833</v>
       </c>
       <c r="L4">
-        <v>1.447470853522361</v>
+        <v>0.4729411342204415</v>
       </c>
       <c r="M4">
-        <v>-1.284112128265768</v>
+        <v>-0.4770689090078353</v>
       </c>
       <c r="N4">
-        <v>0.6095095982423371</v>
+        <v>0.2371437673343456</v>
       </c>
       <c r="O4">
-        <v>0.6926826776869639</v>
+        <v>0.3427221363147956</v>
       </c>
       <c r="P4">
-        <v>0.01065146523122958</v>
+        <v>0.009911334651772536</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -702,223 +702,223 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>10</v>
+        <v>2391</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.5007322053783871</v>
+        <v>0.2788347321692137</v>
       </c>
       <c r="E5">
-        <v>0.3442331232620153</v>
+        <v>0.3333918961113913</v>
       </c>
       <c r="F5">
-        <v>0.0002795491593851809</v>
+        <v>0.0002350889512417562</v>
       </c>
       <c r="G5">
-        <v>3.01135452412143</v>
+        <v>6.619619989232269</v>
       </c>
       <c r="H5">
-        <v>0.2695659451897983</v>
+        <v>3.281563533167862</v>
       </c>
       <c r="I5">
-        <v>2.886169453536501E-53</v>
+        <v>2.768209299356638E-39</v>
       </c>
       <c r="J5">
-        <v>12.80000019073486</v>
+        <v>28.28000068664551</v>
       </c>
       <c r="K5">
-        <v>35.40000152587891</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="L5">
-        <v>0.7526903913456344</v>
+        <v>2.089285923794701</v>
       </c>
       <c r="M5">
-        <v>-0.6083799507442382</v>
+        <v>-2.592897977969425</v>
       </c>
       <c r="N5">
-        <v>0.2368371359661712</v>
+        <v>0.9467310637636046</v>
       </c>
       <c r="O5">
-        <v>0.2460107955695836</v>
+        <v>-2.459110958416261</v>
       </c>
       <c r="P5">
-        <v>0.01080609548358594</v>
+        <v>0.01019385985487219</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1698</v>
+        <v>2031</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.5652142603610908</v>
+        <v>0.1759081280151433</v>
       </c>
       <c r="E6">
-        <v>0.4415089380658759</v>
+        <v>0.9882321316220923</v>
       </c>
       <c r="F6">
-        <v>5.112344329656178E-05</v>
+        <v>0.0002817510884845819</v>
       </c>
       <c r="G6">
-        <v>8.466915972228632</v>
+        <v>10.64281608759325</v>
       </c>
       <c r="H6">
-        <v>2.630723029860551</v>
+        <v>0.05084073955883803</v>
       </c>
       <c r="I6">
-        <v>8.9334319095462E-61</v>
+        <v>7.385756019684385E-26</v>
       </c>
       <c r="J6">
-        <v>21.20000076293945</v>
+        <v>13.85000038146973</v>
       </c>
       <c r="K6">
-        <v>4.46999979019165</v>
+        <v>53.38999938964844</v>
       </c>
       <c r="L6">
-        <v>1.667148796700353</v>
+        <v>0.5449123973409069</v>
       </c>
       <c r="M6">
-        <v>-2.128338071190061</v>
+        <v>-0.7791275106812687</v>
       </c>
       <c r="N6">
-        <v>0.6180802943783217</v>
+        <v>0.25993100836545</v>
       </c>
       <c r="O6">
-        <v>0.973753399181815</v>
+        <v>0.4927972398608427</v>
       </c>
       <c r="P6">
-        <v>0.01095548601195041</v>
+        <v>0.01051818268733348</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2090</v>
+        <v>2131</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>0.6846822390793604</v>
+        <v>0.2699997049977364</v>
       </c>
       <c r="E7">
-        <v>0.887372888030836</v>
+        <v>0.2788347321692137</v>
       </c>
       <c r="F7">
-        <v>0.0002843897650954243</v>
+        <v>0.004634812226028111</v>
       </c>
       <c r="G7">
-        <v>0.9256268152377061</v>
+        <v>-4.115860431681332</v>
       </c>
       <c r="H7">
-        <v>0.9342300569144208</v>
+        <v>0.6120255322303612</v>
       </c>
       <c r="I7">
-        <v>6.220789543847862E-43</v>
+        <v>2.502439949113703E-44</v>
       </c>
       <c r="J7">
-        <v>34.22000122070312</v>
+        <v>14.07999992370605</v>
       </c>
       <c r="K7">
-        <v>36.97999954223633</v>
+        <v>28.28000068664551</v>
       </c>
       <c r="L7">
-        <v>2.00634420868186</v>
+        <v>1.448723629545826</v>
       </c>
       <c r="M7">
-        <v>-2.400678477222655</v>
+        <v>-1.284747162911577</v>
       </c>
       <c r="N7">
-        <v>0.8744092068541796</v>
+        <v>0.6120149231627048</v>
       </c>
       <c r="O7">
-        <v>-1.253452671573285</v>
+        <v>0.8877778836681927</v>
       </c>
       <c r="P7">
-        <v>0.01116799463839024</v>
+        <v>0.01092947195046303</v>
       </c>
       <c r="Q7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2051</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.1582439901038412</v>
+        <v>0.5700292045560948</v>
       </c>
       <c r="E8">
-        <v>0.3282531841872804</v>
+        <v>0.3486833897867128</v>
       </c>
       <c r="F8">
-        <v>0.0005697440201837898</v>
+        <v>0.000435679463199852</v>
       </c>
       <c r="G8">
-        <v>22.81882246676275</v>
+        <v>2.969361411254522</v>
       </c>
       <c r="H8">
-        <v>3.273456027534659</v>
+        <v>0.2708927458688601</v>
       </c>
       <c r="I8">
-        <v>1.196669208238312E-30</v>
+        <v>1.756906204601983E-53</v>
       </c>
       <c r="J8">
-        <v>47.70999908447266</v>
+        <v>12.98999977111816</v>
       </c>
       <c r="K8">
-        <v>7.230000019073486</v>
+        <v>35.47999954223633</v>
       </c>
       <c r="L8">
-        <v>2.911196968835171</v>
+        <v>0.7470093385407441</v>
       </c>
       <c r="M8">
-        <v>-3.055237201796523</v>
+        <v>-0.614755348939287</v>
       </c>
       <c r="N8">
-        <v>1.167996593936244</v>
+        <v>0.2385435463736257</v>
       </c>
       <c r="O8">
-        <v>1.224089476198106</v>
+        <v>0.4093638604413439</v>
       </c>
       <c r="P8">
-        <v>0.01259698626643337</v>
+        <v>0.01106289180840563</v>
       </c>
       <c r="Q8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R8" t="s">
         <v>23</v>
@@ -926,170 +926,170 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>639</v>
+        <v>1698</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.4247336086416181</v>
+        <v>0.5717451447514503</v>
       </c>
       <c r="E9">
-        <v>0.8143032063032292</v>
+        <v>0.4398113274036275</v>
       </c>
       <c r="F9">
-        <v>0.000466619043156249</v>
+        <v>0.0001349600130769078</v>
       </c>
       <c r="G9">
-        <v>-3.124991471216679</v>
+        <v>8.528228242426284</v>
       </c>
       <c r="H9">
-        <v>0.9717189334993104</v>
+        <v>2.62008010629448</v>
       </c>
       <c r="I9">
-        <v>2.635031662073921E-40</v>
+        <v>3.69732479001155E-60</v>
       </c>
       <c r="J9">
-        <v>7.139999866485596</v>
+        <v>21.59000015258789</v>
       </c>
       <c r="K9">
-        <v>11.03999996185303</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="L9">
-        <v>0.64109341085073</v>
+        <v>1.656390413441539</v>
       </c>
       <c r="M9">
-        <v>-0.6913147411036187</v>
+        <v>-2.129411395627727</v>
       </c>
       <c r="N9">
-        <v>0.2515528721746954</v>
+        <v>0.626864371855538</v>
       </c>
       <c r="O9">
-        <v>-0.4627856510619779</v>
+        <v>1.376214536140104</v>
       </c>
       <c r="P9">
-        <v>0.01273161030491268</v>
+        <v>0.01152960150646152</v>
       </c>
       <c r="Q9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" t="s">
         <v>24</v>
-      </c>
-      <c r="R9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1158</v>
+        <v>2019</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.8924106605688165</v>
+        <v>0.1759081280151433</v>
       </c>
       <c r="E10">
-        <v>0.5655974539002036</v>
+        <v>0.8891884142133187</v>
       </c>
       <c r="F10">
-        <v>0.001301797260661116</v>
+        <v>0.001043976320837246</v>
       </c>
       <c r="G10">
-        <v>4.261396360400617</v>
+        <v>9.59254689172754</v>
       </c>
       <c r="H10">
-        <v>0.1494494943891929</v>
+        <v>0.03863755050747984</v>
       </c>
       <c r="I10">
-        <v>1.607476632431682E-62</v>
+        <v>3.544510369598896E-23</v>
       </c>
       <c r="J10">
-        <v>11.61999988555908</v>
+        <v>13.85000038146973</v>
       </c>
       <c r="K10">
-        <v>46.41999816894531</v>
+        <v>95.58000183105469</v>
       </c>
       <c r="L10">
-        <v>0.666849490741761</v>
+        <v>0.7040240639927493</v>
       </c>
       <c r="M10">
-        <v>-1.022735942167127</v>
+        <v>-0.634296832597034</v>
       </c>
       <c r="N10">
-        <v>0.3506901564147135</v>
+        <v>0.2717482448268203</v>
       </c>
       <c r="O10">
-        <v>0.421158269262329</v>
+        <v>0.5644763414897955</v>
       </c>
       <c r="P10">
-        <v>0.01315448961623101</v>
+        <v>0.01218190211349213</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>640</v>
+        <v>1997</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.4247336086416181</v>
+        <v>0.1759081280151433</v>
       </c>
       <c r="E11">
-        <v>0.887372888030836</v>
+        <v>0.9051038208656439</v>
       </c>
       <c r="F11">
-        <v>0.0009203722339823521</v>
+        <v>0.0007464268290396928</v>
       </c>
       <c r="G11">
-        <v>-1.615774928112952</v>
+        <v>6.975656029031835</v>
       </c>
       <c r="H11">
-        <v>0.2490121064144981</v>
+        <v>0.1741854231304419</v>
       </c>
       <c r="I11">
-        <v>7.815251885627345E-38</v>
+        <v>2.657500926719944E-25</v>
       </c>
       <c r="J11">
-        <v>7.139999866485596</v>
+        <v>13.85000038146973</v>
       </c>
       <c r="K11">
-        <v>36.97999954223633</v>
+        <v>37.2400016784668</v>
       </c>
       <c r="L11">
-        <v>0.531653556483068</v>
+        <v>0.6136772748593664</v>
       </c>
       <c r="M11">
-        <v>-0.7640508838786015</v>
+        <v>-0.6329766271797581</v>
       </c>
       <c r="N11">
-        <v>0.2621939368224319</v>
+        <v>0.2623398889083748</v>
       </c>
       <c r="O11">
-        <v>-0.4526927866208972</v>
+        <v>0.387678902695785</v>
       </c>
       <c r="P11">
-        <v>0.01355334603588483</v>
+        <v>0.01228924583525405</v>
       </c>
       <c r="Q11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -70,49 +70,49 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
     <t>CPLE6</t>
   </si>
   <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
     <t>EQTL3</t>
   </si>
   <si>
     <t>ENEV3</t>
   </si>
   <si>
+    <t>EZTC3</t>
+  </si>
+  <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>TAEE11</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
     <t>HYPE3</t>
   </si>
   <si>
-    <t>EZTC3</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>MRVE3</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
-  </si>
-  <si>
     <t>BPAC11</t>
   </si>
   <si>
     <t>LWSA3</t>
-  </si>
-  <si>
-    <t>SBSP3</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1405</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -543,158 +543,158 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>0.9042087799778592</v>
+        <v>0.5643238444971481</v>
       </c>
       <c r="E2">
-        <v>0.8945677148010562</v>
+        <v>0.2253214131345873</v>
       </c>
       <c r="F2">
-        <v>2.338270736023149E-05</v>
+        <v>2.889994113010648E-07</v>
       </c>
       <c r="G2">
-        <v>-0.02130818750202623</v>
+        <v>4.947359870185553</v>
       </c>
       <c r="H2">
-        <v>0.6644650527899152</v>
+        <v>0.9655790238724126</v>
       </c>
       <c r="I2">
-        <v>1.260367084731726E-58</v>
+        <v>7.682731438222423E-50</v>
       </c>
       <c r="J2">
-        <v>10.89000034332275</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="K2">
-        <v>16.70999908447266</v>
+        <v>8</v>
       </c>
       <c r="L2">
-        <v>0.3637918314850186</v>
+        <v>0.8361255427862773</v>
       </c>
       <c r="M2">
-        <v>-0.6245390993410691</v>
+        <v>-0.4853806105951541</v>
       </c>
       <c r="N2">
-        <v>0.1833620436479012</v>
+        <v>0.2559257790553273</v>
       </c>
       <c r="O2">
-        <v>-0.1919018929587786</v>
+        <v>0.2980082058639537</v>
       </c>
       <c r="P2">
-        <v>0.008910536497363288</v>
+        <v>0.007489030497406179</v>
       </c>
       <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2081</v>
+        <v>1405</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.7976305787446014</v>
+        <v>0.9070726988262419</v>
       </c>
       <c r="E3">
-        <v>0.8945677148010562</v>
+        <v>0.9154946723609865</v>
       </c>
       <c r="F3">
-        <v>5.666650753797393E-05</v>
+        <v>2.888286310941123E-05</v>
       </c>
       <c r="G3">
-        <v>-3.797851284560462</v>
+        <v>0.08026857739956961</v>
       </c>
       <c r="H3">
-        <v>2.425380111287947</v>
+        <v>0.6574829929312095</v>
       </c>
       <c r="I3">
-        <v>9.027313047355831E-52</v>
+        <v>5.885135769046542E-60</v>
       </c>
       <c r="J3">
-        <v>35.68000030517578</v>
+        <v>10.92000007629395</v>
       </c>
       <c r="K3">
-        <v>16.70999908447266</v>
+        <v>16.79999923706055</v>
       </c>
       <c r="L3">
-        <v>1.646566490247945</v>
+        <v>0.3627700775159166</v>
       </c>
       <c r="M3">
-        <v>-2.069481416342157</v>
+        <v>-0.6210815867202779</v>
       </c>
       <c r="N3">
-        <v>0.7679219306117288</v>
+        <v>0.1835948520514314</v>
       </c>
       <c r="O3">
-        <v>-1.050247849383531</v>
+        <v>-0.205982280730229</v>
       </c>
       <c r="P3">
-        <v>0.009379274840759398</v>
+        <v>0.009096370524217873</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2003</v>
+        <v>257</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>0.1759081280151433</v>
+        <v>0.5505207011226153</v>
       </c>
       <c r="E4">
-        <v>0.9165948852902691</v>
+        <v>0.2253214131345873</v>
       </c>
       <c r="F4">
-        <v>0.0001148716047207594</v>
+        <v>1.247492798914432E-05</v>
       </c>
       <c r="G4">
-        <v>10.49413957973712</v>
+        <v>1.522757412396767</v>
       </c>
       <c r="H4">
-        <v>0.2051149592571457</v>
+        <v>1.335123579145905</v>
       </c>
       <c r="I4">
-        <v>2.200861013312899E-31</v>
+        <v>5.159084562242281E-49</v>
       </c>
       <c r="J4">
-        <v>13.85000038146973</v>
+        <v>12.59000015258789</v>
       </c>
       <c r="K4">
-        <v>14.6899995803833</v>
+        <v>8</v>
       </c>
       <c r="L4">
-        <v>0.4729411342204415</v>
+        <v>1.200545299419566</v>
       </c>
       <c r="M4">
-        <v>-0.4770689090078353</v>
+        <v>-0.6795686764649513</v>
       </c>
       <c r="N4">
-        <v>0.2371437673343456</v>
+        <v>0.3600266104023004</v>
       </c>
       <c r="O4">
-        <v>0.3427221363147956</v>
+        <v>0.3862541070238859</v>
       </c>
       <c r="P4">
-        <v>0.009911334651772536</v>
+        <v>0.009872712995570221</v>
       </c>
       <c r="Q4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R4" t="s">
         <v>20</v>
@@ -702,167 +702,167 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2391</v>
+        <v>2081</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>0.2788347321692137</v>
+        <v>0.7696559417164643</v>
       </c>
       <c r="E5">
-        <v>0.3333918961113913</v>
+        <v>0.9154946723609865</v>
       </c>
       <c r="F5">
-        <v>0.0002350889512417562</v>
+        <v>0.0001682467498973219</v>
       </c>
       <c r="G5">
-        <v>6.619619989232269</v>
+        <v>-2.923433566202707</v>
       </c>
       <c r="H5">
-        <v>3.281563533167862</v>
+        <v>2.3652754557122</v>
       </c>
       <c r="I5">
-        <v>2.768209299356638E-39</v>
+        <v>1.505046488646712E-51</v>
       </c>
       <c r="J5">
-        <v>28.28000068664551</v>
+        <v>35.04000091552734</v>
       </c>
       <c r="K5">
-        <v>7.349999904632568</v>
+        <v>16.79999923706055</v>
       </c>
       <c r="L5">
-        <v>2.089285923794701</v>
+        <v>1.641842920066896</v>
       </c>
       <c r="M5">
-        <v>-2.592897977969425</v>
+        <v>-2.011480336214547</v>
       </c>
       <c r="N5">
-        <v>0.9467310637636046</v>
+        <v>0.7807196591267458</v>
       </c>
       <c r="O5">
-        <v>-2.459110958416261</v>
+        <v>-1.773191369672958</v>
       </c>
       <c r="P5">
-        <v>0.01019385985487219</v>
+        <v>0.00992746614197384</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2031</v>
+        <v>2003</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.1759081280151433</v>
+        <v>0.2639571347930116</v>
       </c>
       <c r="E6">
-        <v>0.9882321316220923</v>
+        <v>0.7952359111784979</v>
       </c>
       <c r="F6">
-        <v>0.0002817510884845819</v>
+        <v>0.0002107327398350166</v>
       </c>
       <c r="G6">
-        <v>10.64281608759325</v>
+        <v>10.43827100949807</v>
       </c>
       <c r="H6">
-        <v>0.05084073955883803</v>
+        <v>0.2104632512779022</v>
       </c>
       <c r="I6">
-        <v>7.385756019684385E-26</v>
+        <v>1.0019617078716E-32</v>
       </c>
       <c r="J6">
-        <v>13.85000038146973</v>
+        <v>13.98999977111816</v>
       </c>
       <c r="K6">
-        <v>53.38999938964844</v>
+        <v>14.57999992370605</v>
       </c>
       <c r="L6">
-        <v>0.5449123973409069</v>
+        <v>0.4831745740453499</v>
       </c>
       <c r="M6">
-        <v>-0.7791275106812687</v>
+        <v>-0.4807268295718679</v>
       </c>
       <c r="N6">
-        <v>0.25993100836545</v>
+        <v>0.2399371035237052</v>
       </c>
       <c r="O6">
-        <v>0.4927972398608427</v>
+        <v>0.483174574045349</v>
       </c>
       <c r="P6">
-        <v>0.01051818268733348</v>
+        <v>0.01026032356247259</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2131</v>
+        <v>2023</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.2699997049977364</v>
+        <v>0.2639571347930116</v>
       </c>
       <c r="E7">
-        <v>0.2788347321692137</v>
+        <v>0.5828972499131703</v>
       </c>
       <c r="F7">
-        <v>0.004634812226028111</v>
+        <v>0.0001839790429569166</v>
       </c>
       <c r="G7">
-        <v>-4.115860431681332</v>
+        <v>-0.3481419640870457</v>
       </c>
       <c r="H7">
-        <v>0.6120255322303612</v>
+        <v>0.3874320924318009</v>
       </c>
       <c r="I7">
-        <v>2.502439949113703E-44</v>
+        <v>2.702781203096683E-30</v>
       </c>
       <c r="J7">
-        <v>14.07999992370605</v>
+        <v>13.98999977111816</v>
       </c>
       <c r="K7">
-        <v>28.28000068664551</v>
+        <v>35.84000015258789</v>
       </c>
       <c r="L7">
-        <v>1.448723629545826</v>
+        <v>0.6587508804780491</v>
       </c>
       <c r="M7">
-        <v>-1.284747162911577</v>
+        <v>-0.6013865995926757</v>
       </c>
       <c r="N7">
-        <v>0.6120149231627048</v>
+        <v>0.2497544164366676</v>
       </c>
       <c r="O7">
-        <v>0.8877778836681927</v>
+        <v>0.4525754833320175</v>
       </c>
       <c r="P7">
-        <v>0.01092947195046303</v>
+        <v>0.01030999766049605</v>
       </c>
       <c r="Q7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="R7" t="s">
         <v>22</v>
@@ -870,226 +870,226 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>10</v>
+        <v>2031</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
       </c>
       <c r="D8">
-        <v>0.5700292045560948</v>
+        <v>0.2639571347930116</v>
       </c>
       <c r="E8">
-        <v>0.3486833897867128</v>
+        <v>0.9906359589040162</v>
       </c>
       <c r="F8">
-        <v>0.000435679463199852</v>
+        <v>0.0004798398872795956</v>
       </c>
       <c r="G8">
-        <v>2.969361411254522</v>
+        <v>10.58170024173422</v>
       </c>
       <c r="H8">
-        <v>0.2708927458688601</v>
+        <v>0.05240094201319152</v>
       </c>
       <c r="I8">
-        <v>1.756906204601983E-53</v>
+        <v>5.459363527639337E-27</v>
       </c>
       <c r="J8">
-        <v>12.98999977111816</v>
+        <v>13.98999977111816</v>
       </c>
       <c r="K8">
-        <v>35.47999954223633</v>
+        <v>53.9900016784668</v>
       </c>
       <c r="L8">
-        <v>0.7470093385407441</v>
+        <v>0.5791725821384937</v>
       </c>
       <c r="M8">
-        <v>-0.614755348939287</v>
+        <v>-0.8001424053982475</v>
       </c>
       <c r="N8">
-        <v>0.2385435463736257</v>
+        <v>0.2637402671069252</v>
       </c>
       <c r="O8">
-        <v>0.4093638604413439</v>
+        <v>0.5791725821384928</v>
       </c>
       <c r="P8">
-        <v>0.01106289180840563</v>
+        <v>0.01095653686356089</v>
       </c>
       <c r="Q8" t="s">
         <v>29</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1698</v>
+        <v>2131</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="D9">
-        <v>0.5717451447514503</v>
+        <v>0.2664831286544792</v>
       </c>
       <c r="E9">
-        <v>0.4398113274036275</v>
+        <v>0.2578710337575236</v>
       </c>
       <c r="F9">
-        <v>0.0001349600130769078</v>
+        <v>0.003959880733550065</v>
       </c>
       <c r="G9">
-        <v>8.528228242426284</v>
+        <v>-4.039261534371737</v>
       </c>
       <c r="H9">
-        <v>2.62008010629448</v>
+        <v>0.6096455360931652</v>
       </c>
       <c r="I9">
-        <v>3.69732479001155E-60</v>
+        <v>2.300310412598149E-44</v>
       </c>
       <c r="J9">
-        <v>21.59000015258789</v>
+        <v>14.09000015258789</v>
       </c>
       <c r="K9">
-        <v>4.460000038146973</v>
+        <v>28.60000038146973</v>
       </c>
       <c r="L9">
-        <v>1.656390413441539</v>
+        <v>1.448651763359447</v>
       </c>
       <c r="M9">
-        <v>-2.129411395627727</v>
+        <v>-1.286019183386816</v>
       </c>
       <c r="N9">
-        <v>0.626864371855538</v>
+        <v>0.6126644565557423</v>
       </c>
       <c r="O9">
-        <v>1.376214536140104</v>
+        <v>0.693399122133787</v>
       </c>
       <c r="P9">
-        <v>0.01152960150646152</v>
+        <v>0.01099147031192535</v>
       </c>
       <c r="Q9" t="s">
         <v>30</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2019</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
       </c>
       <c r="D10">
-        <v>0.1759081280151433</v>
+        <v>0.5643238444971481</v>
       </c>
       <c r="E10">
-        <v>0.8891884142133187</v>
+        <v>0.228937205448907</v>
       </c>
       <c r="F10">
-        <v>0.001043976320837246</v>
+        <v>0.0003913870282370947</v>
       </c>
       <c r="G10">
-        <v>9.59254689172754</v>
+        <v>2.930696465869053</v>
       </c>
       <c r="H10">
-        <v>0.03863755050747984</v>
+        <v>0.2721093425636629</v>
       </c>
       <c r="I10">
-        <v>3.544510369598896E-23</v>
+        <v>8.036520173826465E-54</v>
       </c>
       <c r="J10">
-        <v>13.85000038146973</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="K10">
-        <v>95.58000183105469</v>
+        <v>35.58000183105469</v>
       </c>
       <c r="L10">
-        <v>0.7040240639927493</v>
+        <v>0.741959931575412</v>
       </c>
       <c r="M10">
-        <v>-0.634296832597034</v>
+        <v>-0.6204414290086131</v>
       </c>
       <c r="N10">
-        <v>0.2717482448268203</v>
+        <v>0.2396213295505375</v>
       </c>
       <c r="O10">
-        <v>0.5644763414897955</v>
+        <v>0.3576528944975408</v>
       </c>
       <c r="P10">
-        <v>0.01218190211349213</v>
+        <v>0.01112929350837187</v>
       </c>
       <c r="Q10" t="s">
         <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1997</v>
+        <v>1698</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
       </c>
       <c r="D11">
-        <v>0.1759081280151433</v>
+        <v>0.5704817445448447</v>
       </c>
       <c r="E11">
-        <v>0.9051038208656439</v>
+        <v>0.4283801280470543</v>
       </c>
       <c r="F11">
-        <v>0.0007464268290396928</v>
+        <v>0.0001886554027797795</v>
       </c>
       <c r="G11">
-        <v>6.975656029031835</v>
+        <v>8.583490061972091</v>
       </c>
       <c r="H11">
-        <v>0.1741854231304419</v>
+        <v>2.610673268949114</v>
       </c>
       <c r="I11">
-        <v>2.657500926719944E-25</v>
+        <v>1.437007372356243E-59</v>
       </c>
       <c r="J11">
-        <v>13.85000038146973</v>
+        <v>21.70999908447266</v>
       </c>
       <c r="K11">
-        <v>37.2400016784668</v>
+        <v>4.5</v>
       </c>
       <c r="L11">
-        <v>0.6136772748593664</v>
+        <v>1.645811071286218</v>
       </c>
       <c r="M11">
-        <v>-0.6329766271797581</v>
+        <v>-2.131430517234136</v>
       </c>
       <c r="N11">
-        <v>0.2623398889083748</v>
+        <v>0.6354329629086322</v>
       </c>
       <c r="O11">
-        <v>0.387678902695785</v>
+        <v>1.378479312229553</v>
       </c>
       <c r="P11">
-        <v>0.01228924583525405</v>
+        <v>0.01196537775450554</v>
       </c>
       <c r="Q11" t="s">
         <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -76,24 +76,21 @@
     <t>CPLE6</t>
   </si>
   <si>
+    <t>ENEV3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
     <t>B3SA3</t>
   </si>
   <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>ENEV3</t>
-  </si>
-  <si>
-    <t>EZTC3</t>
-  </si>
-  <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
     <t>FLRY3</t>
   </si>
   <si>
@@ -106,13 +103,13 @@
     <t>WEGE3</t>
   </si>
   <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
     <t>BPAC11</t>
   </si>
   <si>
-    <t>LWSA3</t>
+    <t>EMBR3</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
   </si>
 </sst>
 </file>
@@ -540,49 +537,49 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>0.5643238444971481</v>
+        <v>0.516238411545151</v>
       </c>
       <c r="E2">
-        <v>0.2253214131345873</v>
+        <v>0.1744233948652308</v>
       </c>
       <c r="F2">
-        <v>2.889994113010648E-07</v>
+        <v>3.603328073121373E-06</v>
       </c>
       <c r="G2">
-        <v>4.947359870185553</v>
+        <v>4.926751840648237</v>
       </c>
       <c r="H2">
-        <v>0.9655790238724126</v>
+        <v>0.9671391983966925</v>
       </c>
       <c r="I2">
-        <v>7.682731438222423E-50</v>
+        <v>1.512441896330925E-51</v>
       </c>
       <c r="J2">
-        <v>12.97000026702881</v>
+        <v>12.98999977111816</v>
       </c>
       <c r="K2">
-        <v>8</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="L2">
-        <v>0.8361255427862773</v>
+        <v>0.845008556706718</v>
       </c>
       <c r="M2">
-        <v>-0.4853806105951541</v>
+        <v>-0.4757406082908631</v>
       </c>
       <c r="N2">
-        <v>0.2559257790553273</v>
+        <v>0.2454328098223796</v>
       </c>
       <c r="O2">
-        <v>0.2980082058639537</v>
+        <v>0.4808764674661283</v>
       </c>
       <c r="P2">
-        <v>0.007489030497406179</v>
+        <v>0.007754982031244058</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -590,226 +587,226 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1405</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>0.9070726988262419</v>
+        <v>0.516238411545151</v>
       </c>
       <c r="E3">
-        <v>0.9154946723609865</v>
+        <v>0.4599767891362304</v>
       </c>
       <c r="F3">
-        <v>2.888286310941123E-05</v>
+        <v>0.001218674078857104</v>
       </c>
       <c r="G3">
-        <v>0.08026857739956961</v>
+        <v>4.453921602219611</v>
       </c>
       <c r="H3">
-        <v>0.6574829929312095</v>
+        <v>0.6705788175396532</v>
       </c>
       <c r="I3">
-        <v>5.885135769046542E-60</v>
+        <v>3.745719191604216E-58</v>
       </c>
       <c r="J3">
-        <v>10.92000007629395</v>
+        <v>12.98999977111816</v>
       </c>
       <c r="K3">
-        <v>16.79999923706055</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="L3">
-        <v>0.3627700775159166</v>
+        <v>0.6655252951762129</v>
       </c>
       <c r="M3">
-        <v>-0.6210815867202779</v>
+        <v>-0.5322836022615771</v>
       </c>
       <c r="N3">
-        <v>0.1835948520514314</v>
+        <v>0.2196760859410377</v>
       </c>
       <c r="O3">
-        <v>-0.205982280730229</v>
+        <v>0.3348995373552146</v>
       </c>
       <c r="P3">
-        <v>0.009096370524217873</v>
+        <v>0.009061201997223024</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>257</v>
+        <v>1405</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="D4">
-        <v>0.5505207011226153</v>
+        <v>0.8765290053095269</v>
       </c>
       <c r="E4">
-        <v>0.2253214131345873</v>
+        <v>0.9001148133641776</v>
       </c>
       <c r="F4">
-        <v>1.247492798914432E-05</v>
+        <v>6.139782066307142E-05</v>
       </c>
       <c r="G4">
-        <v>1.522757412396767</v>
+        <v>0.2221815498675213</v>
       </c>
       <c r="H4">
-        <v>1.335123579145905</v>
+        <v>0.6476010839435447</v>
       </c>
       <c r="I4">
-        <v>5.159084562242281E-49</v>
+        <v>1.774034512441028E-59</v>
       </c>
       <c r="J4">
-        <v>12.59000015258789</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="K4">
-        <v>8</v>
+        <v>16.72999954223633</v>
       </c>
       <c r="L4">
-        <v>1.200545299419566</v>
+        <v>0.3631745907752357</v>
       </c>
       <c r="M4">
-        <v>-0.6795686764649513</v>
+        <v>-0.6143365424903067</v>
       </c>
       <c r="N4">
-        <v>0.3600266104023004</v>
+        <v>0.1849283066296754</v>
       </c>
       <c r="O4">
-        <v>0.3862541070238859</v>
+        <v>-0.2265474640887177</v>
       </c>
       <c r="P4">
-        <v>0.009872712995570221</v>
+        <v>0.009425952340981843</v>
       </c>
       <c r="Q4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" t="s">
         <v>25</v>
-      </c>
-      <c r="R4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2081</v>
+        <v>2003</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
       </c>
       <c r="D5">
-        <v>0.7696559417164643</v>
+        <v>0.2242172849232321</v>
       </c>
       <c r="E5">
-        <v>0.9154946723609865</v>
+        <v>0.765853630656514</v>
       </c>
       <c r="F5">
-        <v>0.0001682467498973219</v>
+        <v>0.0001477910276733116</v>
       </c>
       <c r="G5">
-        <v>-2.923433566202707</v>
+        <v>10.35373286175754</v>
       </c>
       <c r="H5">
-        <v>2.3652754557122</v>
+        <v>0.2179579321261369</v>
       </c>
       <c r="I5">
-        <v>1.505046488646712E-51</v>
+        <v>4.227585811584987E-33</v>
       </c>
       <c r="J5">
-        <v>35.04000091552734</v>
+        <v>13.85999965667725</v>
       </c>
       <c r="K5">
-        <v>16.79999923706055</v>
+        <v>14.47999954223633</v>
       </c>
       <c r="L5">
-        <v>1.641842920066896</v>
+        <v>0.4741312586038742</v>
       </c>
       <c r="M5">
-        <v>-2.011480336214547</v>
+        <v>-0.4844922964288028</v>
       </c>
       <c r="N5">
-        <v>0.7807196591267458</v>
+        <v>0.2422313112276309</v>
       </c>
       <c r="O5">
-        <v>-1.773191369672958</v>
+        <v>0.3502360375064715</v>
       </c>
       <c r="P5">
-        <v>0.00992746614197384</v>
+        <v>0.01011228905040603</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="R5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2003</v>
+        <v>2081</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>0.2639571347930116</v>
+        <v>0.7945399754843634</v>
       </c>
       <c r="E6">
-        <v>0.7952359111784979</v>
+        <v>0.9001148133641776</v>
       </c>
       <c r="F6">
-        <v>0.0002107327398350166</v>
+        <v>0.0003131137570820964</v>
       </c>
       <c r="G6">
-        <v>10.43827100949807</v>
+        <v>-2.086144745266182</v>
       </c>
       <c r="H6">
-        <v>0.2104632512779022</v>
+        <v>2.307463743226519</v>
       </c>
       <c r="I6">
-        <v>1.0019617078716E-32</v>
+        <v>6.779368181449784E-50</v>
       </c>
       <c r="J6">
-        <v>13.98999977111816</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="K6">
-        <v>14.57999992370605</v>
+        <v>16.72999954223633</v>
       </c>
       <c r="L6">
-        <v>0.4831745740453499</v>
+        <v>1.641070132094057</v>
       </c>
       <c r="M6">
-        <v>-0.4807268295718679</v>
+        <v>-1.951921367609245</v>
       </c>
       <c r="N6">
-        <v>0.2399371035237052</v>
+        <v>0.7998557174482419</v>
       </c>
       <c r="O6">
-        <v>0.483174574045349</v>
+        <v>-1.717723385579852</v>
       </c>
       <c r="P6">
-        <v>0.01026032356247259</v>
+        <v>0.0104248840833899</v>
       </c>
       <c r="Q6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -817,55 +814,55 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>0.2639571347930116</v>
+        <v>0.2242172849232321</v>
       </c>
       <c r="E7">
-        <v>0.5828972499131703</v>
+        <v>0.5871415671616224</v>
       </c>
       <c r="F7">
-        <v>0.0001839790429569166</v>
+        <v>0.0002135463793284505</v>
       </c>
       <c r="G7">
-        <v>-0.3481419640870457</v>
+        <v>-0.5506778685689646</v>
       </c>
       <c r="H7">
-        <v>0.3874320924318009</v>
+        <v>0.3935164275317424</v>
       </c>
       <c r="I7">
-        <v>2.702781203096683E-30</v>
+        <v>9.644982647729834E-31</v>
       </c>
       <c r="J7">
-        <v>13.98999977111816</v>
+        <v>13.85999965667725</v>
       </c>
       <c r="K7">
-        <v>35.84000015258789</v>
+        <v>35.81999969482422</v>
       </c>
       <c r="L7">
-        <v>0.6587508804780491</v>
+        <v>0.649916973375646</v>
       </c>
       <c r="M7">
-        <v>-0.6013865995926757</v>
+        <v>-0.602998700988989</v>
       </c>
       <c r="N7">
-        <v>0.2497544164366676</v>
+        <v>0.2519843758685485</v>
       </c>
       <c r="O7">
-        <v>0.4525754833320175</v>
+        <v>0.3149192111508796</v>
       </c>
       <c r="P7">
-        <v>0.01030999766049605</v>
+        <v>0.01048080884510137</v>
       </c>
       <c r="Q7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -873,223 +870,223 @@
         <v>2031</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>0.2639571347930116</v>
+        <v>0.2242172849232321</v>
       </c>
       <c r="E8">
-        <v>0.9906359589040162</v>
+        <v>0.9743619676570893</v>
       </c>
       <c r="F8">
-        <v>0.0004798398872795956</v>
+        <v>0.0005012986157931271</v>
       </c>
       <c r="G8">
-        <v>10.58170024173422</v>
+        <v>10.52495804788467</v>
       </c>
       <c r="H8">
-        <v>0.05240094201319152</v>
+        <v>0.05381205564863037</v>
       </c>
       <c r="I8">
-        <v>5.459363527639337E-27</v>
+        <v>7.232698518940861E-27</v>
       </c>
       <c r="J8">
-        <v>13.98999977111816</v>
+        <v>13.85999965667725</v>
       </c>
       <c r="K8">
-        <v>53.9900016784668</v>
+        <v>52.88000106811523</v>
       </c>
       <c r="L8">
-        <v>0.5791725821384937</v>
+        <v>0.5597287484421951</v>
       </c>
       <c r="M8">
-        <v>-0.8001424053982475</v>
+        <v>-0.8176827558378061</v>
       </c>
       <c r="N8">
-        <v>0.2637402671069252</v>
+        <v>0.2688576287531774</v>
       </c>
       <c r="O8">
-        <v>0.5791725821384928</v>
+        <v>0.4894600486155292</v>
       </c>
       <c r="P8">
-        <v>0.01095653686356089</v>
+        <v>0.01108724606558205</v>
       </c>
       <c r="Q8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2131</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>0.2664831286544792</v>
+        <v>0.516238411545151</v>
       </c>
       <c r="E9">
-        <v>0.2578710337575236</v>
+        <v>0.2023451010577365</v>
       </c>
       <c r="F9">
-        <v>0.003959880733550065</v>
+        <v>0.0007670649372042937</v>
       </c>
       <c r="G9">
-        <v>-4.039261534371737</v>
+        <v>2.798637623494298</v>
       </c>
       <c r="H9">
-        <v>0.6096455360931652</v>
+        <v>0.276208903108851</v>
       </c>
       <c r="I9">
-        <v>2.300310412598149E-44</v>
+        <v>8.129372311693373E-52</v>
       </c>
       <c r="J9">
-        <v>14.09000015258789</v>
+        <v>12.98999977111816</v>
       </c>
       <c r="K9">
-        <v>28.60000038146973</v>
+        <v>34.9900016784668</v>
       </c>
       <c r="L9">
-        <v>1.448651763359447</v>
+        <v>0.7267147126113791</v>
       </c>
       <c r="M9">
-        <v>-1.286019183386816</v>
+        <v>-0.6378320425380437</v>
       </c>
       <c r="N9">
-        <v>0.6126644565557423</v>
+        <v>0.2443249536093795</v>
       </c>
       <c r="O9">
-        <v>0.693399122133787</v>
+        <v>0.5268121642376986</v>
       </c>
       <c r="P9">
-        <v>0.01099147031192535</v>
+        <v>0.01142221224931953</v>
       </c>
       <c r="Q9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>10</v>
+        <v>1158</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>0.5643238444971481</v>
+        <v>0.8957628439882218</v>
       </c>
       <c r="E10">
-        <v>0.228937205448907</v>
+        <v>0.5685938596124498</v>
       </c>
       <c r="F10">
-        <v>0.0003913870282370947</v>
+        <v>0.0005075732774688278</v>
       </c>
       <c r="G10">
-        <v>2.930696465869053</v>
+        <v>4.006453727677615</v>
       </c>
       <c r="H10">
-        <v>0.2721093425636629</v>
+        <v>0.1563092020654058</v>
       </c>
       <c r="I10">
-        <v>8.036520173826465E-54</v>
+        <v>9.205162946553876E-66</v>
       </c>
       <c r="J10">
-        <v>12.97000026702881</v>
+        <v>11.84000015258789</v>
       </c>
       <c r="K10">
-        <v>35.58000183105469</v>
+        <v>47.83000183105469</v>
       </c>
       <c r="L10">
-        <v>0.741959931575412</v>
+        <v>0.6973424799254104</v>
       </c>
       <c r="M10">
-        <v>-0.6204414290086131</v>
+        <v>-0.9843547555259082</v>
       </c>
       <c r="N10">
-        <v>0.2396213295505375</v>
+        <v>0.3425128067105025</v>
       </c>
       <c r="O10">
-        <v>0.3576528944975408</v>
+        <v>0.3572770039112179</v>
       </c>
       <c r="P10">
-        <v>0.01112929350837187</v>
+        <v>0.01190663176449661</v>
       </c>
       <c r="Q10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1698</v>
+        <v>1997</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.5704817445448447</v>
+        <v>0.2242172849232321</v>
       </c>
       <c r="E11">
-        <v>0.4283801280470543</v>
+        <v>0.8659571780414101</v>
       </c>
       <c r="F11">
-        <v>0.0001886554027797795</v>
+        <v>0.0007329619975069633</v>
       </c>
       <c r="G11">
-        <v>8.583490061972091</v>
+        <v>6.663682028806891</v>
       </c>
       <c r="H11">
-        <v>2.610673268949114</v>
+        <v>0.1840181880506218</v>
       </c>
       <c r="I11">
-        <v>1.437007372356243E-59</v>
+        <v>1.438390291621418E-28</v>
       </c>
       <c r="J11">
-        <v>21.70999908447266</v>
+        <v>13.85999965667725</v>
       </c>
       <c r="K11">
-        <v>4.5</v>
+        <v>36.95000076293945</v>
       </c>
       <c r="L11">
-        <v>1.645811071286218</v>
+        <v>0.5970747227379256</v>
       </c>
       <c r="M11">
-        <v>-2.131430517234136</v>
+        <v>-0.6516482894516962</v>
       </c>
       <c r="N11">
-        <v>0.6354329629086322</v>
+        <v>0.261316297543879</v>
       </c>
       <c r="O11">
-        <v>1.378479312229553</v>
+        <v>0.3968454390051432</v>
       </c>
       <c r="P11">
-        <v>0.01196537775450554</v>
+        <v>0.01213387302678606</v>
       </c>
       <c r="Q11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>N</t>
   </si>
@@ -68,6 +68,42 @@
   </si>
   <si>
     <t>acaoVende</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>ENEV3</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>TAEE11</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>SANB11</t>
   </si>
 </sst>
 </file>
@@ -425,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,6 +523,566 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:18">
+      <c r="A2">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>0.6061796498238144</v>
+      </c>
+      <c r="E2">
+        <v>0.2546065183112632</v>
+      </c>
+      <c r="F2">
+        <v>1.825428899312503E-05</v>
+      </c>
+      <c r="G2">
+        <v>4.890432429045258</v>
+      </c>
+      <c r="H2">
+        <v>0.9729394420843296</v>
+      </c>
+      <c r="I2">
+        <v>3.760863690826951E-49</v>
+      </c>
+      <c r="J2">
+        <v>13.23999977111816</v>
+      </c>
+      <c r="K2">
+        <v>7.880000114440918</v>
+      </c>
+      <c r="L2">
+        <v>0.8377380065708877</v>
+      </c>
+      <c r="M2">
+        <v>-0.4842058689849758</v>
+      </c>
+      <c r="N2">
+        <v>0.2580973330459342</v>
+      </c>
+      <c r="O2">
+        <v>0.6828044271043057</v>
+      </c>
+      <c r="P2">
+        <v>0.008157015384452737</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>0.6061796498238144</v>
+      </c>
+      <c r="E3">
+        <v>0.5509554557362791</v>
+      </c>
+      <c r="F3">
+        <v>0.0003179717408306519</v>
+      </c>
+      <c r="G3">
+        <v>4.399111439043863</v>
+      </c>
+      <c r="H3">
+        <v>0.6756364311879361</v>
+      </c>
+      <c r="I3">
+        <v>1.469366467912309E-57</v>
+      </c>
+      <c r="J3">
+        <v>13.23999977111816</v>
+      </c>
+      <c r="K3">
+        <v>12.4399995803833</v>
+      </c>
+      <c r="L3">
+        <v>0.6575050840502534</v>
+      </c>
+      <c r="M3">
+        <v>-0.5356865733351608</v>
+      </c>
+      <c r="N3">
+        <v>0.2241326954631557</v>
+      </c>
+      <c r="O3">
+        <v>0.4359714116047044</v>
+      </c>
+      <c r="P3">
+        <v>0.009253426917927266</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>2003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>0.2213675876802788</v>
+      </c>
+      <c r="E4">
+        <v>0.7500949453500774</v>
+      </c>
+      <c r="F4">
+        <v>0.0001262235546313334</v>
+      </c>
+      <c r="G4">
+        <v>10.29401385646626</v>
+      </c>
+      <c r="H4">
+        <v>0.2234478638870951</v>
+      </c>
+      <c r="I4">
+        <v>2.586381470826817E-34</v>
+      </c>
+      <c r="J4">
+        <v>13.78999996185303</v>
+      </c>
+      <c r="K4">
+        <v>14.46000003814697</v>
+      </c>
+      <c r="L4">
+        <v>0.4836722857151745</v>
+      </c>
+      <c r="M4">
+        <v>-0.4953189163600804</v>
+      </c>
+      <c r="N4">
+        <v>0.2433137092459581</v>
+      </c>
+      <c r="O4">
+        <v>0.264929985055514</v>
+      </c>
+      <c r="P4">
+        <v>0.01013219059520797</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>257</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>0.5509554557362791</v>
+      </c>
+      <c r="E5">
+        <v>0.2546065183112632</v>
+      </c>
+      <c r="F5">
+        <v>0.0001083202261770415</v>
+      </c>
+      <c r="G5">
+        <v>1.500893392408158</v>
+      </c>
+      <c r="H5">
+        <v>1.336311126930931</v>
+      </c>
+      <c r="I5">
+        <v>2.84395551819472E-51</v>
+      </c>
+      <c r="J5">
+        <v>12.4399995803833</v>
+      </c>
+      <c r="K5">
+        <v>7.880000114440918</v>
+      </c>
+      <c r="L5">
+        <v>0.9763261683947952</v>
+      </c>
+      <c r="M5">
+        <v>-0.6670387822252053</v>
+      </c>
+      <c r="N5">
+        <v>0.3391252512965758</v>
+      </c>
+      <c r="O5">
+        <v>0.4089743548307325</v>
+      </c>
+      <c r="P5">
+        <v>0.01049860015069697</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>0.6061796498238144</v>
+      </c>
+      <c r="E6">
+        <v>0.2943531771620017</v>
+      </c>
+      <c r="F6">
+        <v>0.0001544897675151267</v>
+      </c>
+      <c r="G6">
+        <v>1.765982603561704</v>
+      </c>
+      <c r="H6">
+        <v>0.6083232392396485</v>
+      </c>
+      <c r="I6">
+        <v>3.621292247969916E-49</v>
+      </c>
+      <c r="J6">
+        <v>13.23999977111816</v>
+      </c>
+      <c r="K6">
+        <v>18.21999931335449</v>
+      </c>
+      <c r="L6">
+        <v>0.6853787688236466</v>
+      </c>
+      <c r="M6">
+        <v>-0.8255559949229614</v>
+      </c>
+      <c r="N6">
+        <v>0.2580262277585921</v>
+      </c>
+      <c r="O6">
+        <v>0.3903681663124861</v>
+      </c>
+      <c r="P6">
+        <v>0.01072634530729447</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>2023</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>0.2213675876802788</v>
+      </c>
+      <c r="E7">
+        <v>0.4308516422908612</v>
+      </c>
+      <c r="F7">
+        <v>0.000307790773193698</v>
+      </c>
+      <c r="G7">
+        <v>-0.7445553994135885</v>
+      </c>
+      <c r="H7">
+        <v>0.3994182060336426</v>
+      </c>
+      <c r="I7">
+        <v>6.365706182300964E-32</v>
+      </c>
+      <c r="J7">
+        <v>13.78999996185303</v>
+      </c>
+      <c r="K7">
+        <v>35.45999908447266</v>
+      </c>
+      <c r="L7">
+        <v>0.6387667091583182</v>
+      </c>
+      <c r="M7">
+        <v>-0.6071438451790687</v>
+      </c>
+      <c r="N7">
+        <v>0.2532524410652849</v>
+      </c>
+      <c r="O7">
+        <v>0.3711861409919361</v>
+      </c>
+      <c r="P7">
+        <v>0.0107529308103833</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>2090</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>0.717442998985234</v>
+      </c>
+      <c r="E8">
+        <v>0.940752259800106</v>
+      </c>
+      <c r="F8">
+        <v>0.0002994738576423166</v>
+      </c>
+      <c r="G8">
+        <v>2.122989127408783</v>
+      </c>
+      <c r="H8">
+        <v>0.8964140100350517</v>
+      </c>
+      <c r="I8">
+        <v>5.500717301973157E-46</v>
+      </c>
+      <c r="J8">
+        <v>34.5</v>
+      </c>
+      <c r="K8">
+        <v>37.31000137329102</v>
+      </c>
+      <c r="L8">
+        <v>2.073039494742886</v>
+      </c>
+      <c r="M8">
+        <v>-2.252814955316516</v>
+      </c>
+      <c r="N8">
+        <v>0.8644532816438595</v>
+      </c>
+      <c r="O8">
+        <v>-1.06819707285387</v>
+      </c>
+      <c r="P8">
+        <v>0.01090987296717166</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>2081</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>0.717442998985234</v>
+      </c>
+      <c r="E9">
+        <v>0.8326880233433819</v>
+      </c>
+      <c r="F9">
+        <v>0.000389191204386022</v>
+      </c>
+      <c r="G9">
+        <v>-1.036280911747987</v>
+      </c>
+      <c r="H9">
+        <v>2.235116380534154</v>
+      </c>
+      <c r="I9">
+        <v>3.112837067079032E-49</v>
+      </c>
+      <c r="J9">
+        <v>34.5</v>
+      </c>
+      <c r="K9">
+        <v>16.46999931335449</v>
+      </c>
+      <c r="L9">
+        <v>1.638048300528169</v>
+      </c>
+      <c r="M9">
+        <v>-1.879442175466359</v>
+      </c>
+      <c r="N9">
+        <v>0.8186255181062653</v>
+      </c>
+      <c r="O9">
+        <v>-1.27608434091691</v>
+      </c>
+      <c r="P9">
+        <v>0.01094848290543314</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>2031</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>0.2213675876802788</v>
+      </c>
+      <c r="E10">
+        <v>0.9829013483037675</v>
+      </c>
+      <c r="F10">
+        <v>0.0005380340985654635</v>
+      </c>
+      <c r="G10">
+        <v>10.47762897352886</v>
+      </c>
+      <c r="H10">
+        <v>0.05508578663398685</v>
+      </c>
+      <c r="I10">
+        <v>9.181632150591656E-28</v>
+      </c>
+      <c r="J10">
+        <v>13.78999996185303</v>
+      </c>
+      <c r="K10">
+        <v>52.88999938964844</v>
+      </c>
+      <c r="L10">
+        <v>0.5462558417694297</v>
+      </c>
+      <c r="M10">
+        <v>-0.8374042548419069</v>
+      </c>
+      <c r="N10">
+        <v>0.2715025917786276</v>
+      </c>
+      <c r="O10">
+        <v>0.3988837668742966</v>
+      </c>
+      <c r="P10">
+        <v>0.01135015898475741</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>2018</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>0.2213675876802788</v>
+      </c>
+      <c r="E11">
+        <v>0.8647004467714553</v>
+      </c>
+      <c r="F11">
+        <v>0.0008704043080864407</v>
+      </c>
+      <c r="G11">
+        <v>6.57015295191802</v>
+      </c>
+      <c r="H11">
+        <v>0.2222163304081422</v>
+      </c>
+      <c r="I11">
+        <v>7.943129452813595E-28</v>
+      </c>
+      <c r="J11">
+        <v>13.78999996185303</v>
+      </c>
+      <c r="K11">
+        <v>31.22999954223633</v>
+      </c>
+      <c r="L11">
+        <v>0.7999140352533356</v>
+      </c>
+      <c r="M11">
+        <v>-0.5612227274950499</v>
+      </c>
+      <c r="N11">
+        <v>0.2712170441793072</v>
+      </c>
+      <c r="O11">
+        <v>0.2800311130112894</v>
+      </c>
+      <c r="P11">
+        <v>0.01226995381442509</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>N</t>
   </si>
@@ -73,37 +73,40 @@
     <t>ABEV3</t>
   </si>
   <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
     <t>ENEV3</t>
   </si>
   <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>LREN3</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
     <t>B3SA3</t>
   </si>
   <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
+    <t>FLRY3</t>
   </si>
   <si>
     <t>MRFG3</t>
   </si>
   <si>
+    <t>TAEE11</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
     <t>TIMS3</t>
-  </si>
-  <si>
-    <t>TAEE11</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
-  </si>
-  <si>
-    <t>SANB11</t>
   </si>
 </sst>
 </file>
@@ -531,49 +534,49 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>0.6061796498238144</v>
+        <v>0.5093359892100662</v>
       </c>
       <c r="E2">
-        <v>0.2546065183112632</v>
+        <v>0.2531364495864405</v>
       </c>
       <c r="F2">
-        <v>1.825428899312503E-05</v>
+        <v>1.317124434354675E-05</v>
       </c>
       <c r="G2">
-        <v>4.890432429045258</v>
+        <v>4.854655989879406</v>
       </c>
       <c r="H2">
-        <v>0.9729394420843296</v>
+        <v>0.978195893938921</v>
       </c>
       <c r="I2">
-        <v>3.760863690826951E-49</v>
+        <v>2.807311501894273E-49</v>
       </c>
       <c r="J2">
-        <v>13.23999977111816</v>
+        <v>13.03999996185303</v>
       </c>
       <c r="K2">
         <v>7.880000114440918</v>
       </c>
       <c r="L2">
-        <v>0.8377380065708877</v>
+        <v>0.8340111856044281</v>
       </c>
       <c r="M2">
-        <v>-0.4842058689849758</v>
+        <v>-0.4923733655188514</v>
       </c>
       <c r="N2">
-        <v>0.2580973330459342</v>
+        <v>0.2603535177389463</v>
       </c>
       <c r="O2">
-        <v>0.6828044271043057</v>
+        <v>0.4771602157892874</v>
       </c>
       <c r="P2">
-        <v>0.008157015384452737</v>
+        <v>0.008162723450405345</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -587,49 +590,49 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>0.6061796498238144</v>
+        <v>0.5093359892100662</v>
       </c>
       <c r="E3">
-        <v>0.5509554557362791</v>
+        <v>0.4767334308542954</v>
       </c>
       <c r="F3">
-        <v>0.0003179717408306519</v>
+        <v>0.0004783788528074136</v>
       </c>
       <c r="G3">
-        <v>4.399111439043863</v>
+        <v>4.362646204651825</v>
       </c>
       <c r="H3">
-        <v>0.6756364311879361</v>
+        <v>0.6790919383390168</v>
       </c>
       <c r="I3">
-        <v>1.469366467912309E-57</v>
+        <v>1.179866993129056E-57</v>
       </c>
       <c r="J3">
-        <v>13.23999977111816</v>
+        <v>13.03999996185303</v>
       </c>
       <c r="K3">
-        <v>12.4399995803833</v>
+        <v>12.13000011444092</v>
       </c>
       <c r="L3">
-        <v>0.6575050840502534</v>
+        <v>0.6510427991015568</v>
       </c>
       <c r="M3">
-        <v>-0.5356865733351608</v>
+        <v>-0.5389942270429646</v>
       </c>
       <c r="N3">
-        <v>0.2241326954631557</v>
+        <v>0.2264429882473506</v>
       </c>
       <c r="O3">
-        <v>0.4359714116047044</v>
+        <v>0.4399684674330242</v>
       </c>
       <c r="P3">
-        <v>0.009253426917927266</v>
+        <v>0.009489456421152689</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R3" t="s">
         <v>18</v>
@@ -637,111 +640,111 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2003</v>
+        <v>1405</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>0.2213675876802788</v>
+        <v>0.8782000141853211</v>
       </c>
       <c r="E4">
-        <v>0.7500949453500774</v>
+        <v>0.8653495197770527</v>
       </c>
       <c r="F4">
-        <v>0.0001262235546313334</v>
+        <v>6.7715767129075E-05</v>
       </c>
       <c r="G4">
-        <v>10.29401385646626</v>
+        <v>0.3825332427386767</v>
       </c>
       <c r="H4">
-        <v>0.2234478638870951</v>
+        <v>0.6365033469426384</v>
       </c>
       <c r="I4">
-        <v>2.586381470826817E-34</v>
+        <v>6.680556316212037E-62</v>
       </c>
       <c r="J4">
-        <v>13.78999996185303</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="K4">
-        <v>14.46000003814697</v>
+        <v>16.59000015258789</v>
       </c>
       <c r="L4">
-        <v>0.4836722857151745</v>
+        <v>0.3626505212107674</v>
       </c>
       <c r="M4">
-        <v>-0.4953189163600804</v>
+        <v>-0.6077399691459782</v>
       </c>
       <c r="N4">
-        <v>0.2433137092459581</v>
+        <v>0.1854750826856854</v>
       </c>
       <c r="O4">
-        <v>0.264929985055514</v>
+        <v>-0.2021240945215883</v>
       </c>
       <c r="P4">
-        <v>0.01013219059520797</v>
+        <v>0.009582247419185546</v>
       </c>
       <c r="Q4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>257</v>
+        <v>2003</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>0.5509554557362791</v>
+        <v>0.2829333135904956</v>
       </c>
       <c r="E5">
-        <v>0.2546065183112632</v>
+        <v>0.7241443459847327</v>
       </c>
       <c r="F5">
-        <v>0.0001083202261770415</v>
+        <v>0.0001791627405325769</v>
       </c>
       <c r="G5">
-        <v>1.500893392408158</v>
+        <v>10.25579052717455</v>
       </c>
       <c r="H5">
-        <v>1.336311126930931</v>
+        <v>0.227085210605883</v>
       </c>
       <c r="I5">
-        <v>2.84395551819472E-51</v>
+        <v>2.162920701433981E-35</v>
       </c>
       <c r="J5">
-        <v>12.4399995803833</v>
+        <v>13.89999961853027</v>
       </c>
       <c r="K5">
-        <v>7.880000114440918</v>
+        <v>14.34000015258789</v>
       </c>
       <c r="L5">
-        <v>0.9763261683947952</v>
+        <v>0.4886502647483759</v>
       </c>
       <c r="M5">
-        <v>-0.6670387822252053</v>
+        <v>-0.5038354937923373</v>
       </c>
       <c r="N5">
-        <v>0.3391252512965758</v>
+        <v>0.2447274859907054</v>
       </c>
       <c r="O5">
-        <v>0.4089743548307325</v>
+        <v>0.3878071366169058</v>
       </c>
       <c r="P5">
-        <v>0.01049860015069697</v>
+        <v>0.01033992174849481</v>
       </c>
       <c r="Q5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="R5" t="s">
         <v>20</v>
@@ -749,226 +752,226 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>71</v>
+        <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.6061796498238144</v>
+        <v>0.2829333135904956</v>
       </c>
       <c r="E6">
-        <v>0.2943531771620017</v>
+        <v>0.3877236378340206</v>
       </c>
       <c r="F6">
-        <v>0.0001544897675151267</v>
+        <v>0.000559876312645466</v>
       </c>
       <c r="G6">
-        <v>1.765982603561704</v>
+        <v>-0.9902917591031244</v>
       </c>
       <c r="H6">
-        <v>0.6083232392396485</v>
+        <v>0.4067701542235662</v>
       </c>
       <c r="I6">
-        <v>3.621292247969916E-49</v>
+        <v>1.382660548604251E-32</v>
       </c>
       <c r="J6">
-        <v>13.23999977111816</v>
+        <v>13.89999961853027</v>
       </c>
       <c r="K6">
-        <v>18.21999931335449</v>
+        <v>35.29999923706055</v>
       </c>
       <c r="L6">
-        <v>0.6853787688236466</v>
+        <v>0.6290963763899082</v>
       </c>
       <c r="M6">
-        <v>-0.8255559949229614</v>
+        <v>-0.608087778017703</v>
       </c>
       <c r="N6">
-        <v>0.2580262277585921</v>
+        <v>0.2564124412458315</v>
       </c>
       <c r="O6">
-        <v>0.3903681663124861</v>
+        <v>0.5313052438825085</v>
       </c>
       <c r="P6">
-        <v>0.01072634530729447</v>
+        <v>0.01114018776384984</v>
       </c>
       <c r="Q6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2023</v>
+        <v>2090</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.2213675876802788</v>
+        <v>0.695231810814919</v>
       </c>
       <c r="E7">
-        <v>0.4308516422908612</v>
+        <v>0.9435984044558724</v>
       </c>
       <c r="F7">
-        <v>0.000307790773193698</v>
+        <v>0.0003873006119321726</v>
       </c>
       <c r="G7">
-        <v>-0.7445553994135885</v>
+        <v>2.501401301725446</v>
       </c>
       <c r="H7">
-        <v>0.3994182060336426</v>
+        <v>0.8847969977150393</v>
       </c>
       <c r="I7">
-        <v>6.365706182300964E-32</v>
+        <v>3.715125498767049E-46</v>
       </c>
       <c r="J7">
-        <v>13.78999996185303</v>
+        <v>34.29999923706055</v>
       </c>
       <c r="K7">
-        <v>35.45999908447266</v>
+        <v>37.38000106811523</v>
       </c>
       <c r="L7">
-        <v>0.6387667091583182</v>
+        <v>2.082946606592451</v>
       </c>
       <c r="M7">
-        <v>-0.6071438451790687</v>
+        <v>-2.217976502524408</v>
       </c>
       <c r="N7">
-        <v>0.2532524410652849</v>
+        <v>0.8683688283616212</v>
       </c>
       <c r="O7">
-        <v>0.3711861409919361</v>
+        <v>-1.27511478431822</v>
       </c>
       <c r="P7">
-        <v>0.0107529308103833</v>
+        <v>0.01116193508812327</v>
       </c>
       <c r="Q7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2090</v>
+        <v>2081</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>0.717442998985234</v>
+        <v>0.695231810814919</v>
       </c>
       <c r="E8">
-        <v>0.940752259800106</v>
+        <v>0.8653495197770527</v>
       </c>
       <c r="F8">
-        <v>0.0002994738576423166</v>
+        <v>0.0007257867398131407</v>
       </c>
       <c r="G8">
-        <v>2.122989127408783</v>
+        <v>-0.4448823899254712</v>
       </c>
       <c r="H8">
-        <v>0.8964140100350517</v>
+        <v>2.194334672060659</v>
       </c>
       <c r="I8">
-        <v>5.500717301973157E-46</v>
+        <v>5.38237866943507E-49</v>
       </c>
       <c r="J8">
-        <v>34.5</v>
+        <v>34.29999923706055</v>
       </c>
       <c r="K8">
-        <v>37.31000137329102</v>
+        <v>16.59000015258789</v>
       </c>
       <c r="L8">
-        <v>2.073039494742886</v>
+        <v>1.636747382165826</v>
       </c>
       <c r="M8">
-        <v>-2.252814955316516</v>
+        <v>-1.838183688430135</v>
       </c>
       <c r="N8">
-        <v>0.8644532816438595</v>
+        <v>0.8282708417834161</v>
       </c>
       <c r="O8">
-        <v>-1.06819707285387</v>
+        <v>-1.659130917329222</v>
       </c>
       <c r="P8">
-        <v>0.01090987296717166</v>
+        <v>0.01147347123023219</v>
       </c>
       <c r="Q8" t="s">
         <v>21</v>
       </c>
       <c r="R8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2081</v>
+        <v>1997</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>0.717442998985234</v>
+        <v>0.2829333135904956</v>
       </c>
       <c r="E9">
-        <v>0.8326880233433819</v>
+        <v>0.9435984044558724</v>
       </c>
       <c r="F9">
-        <v>0.000389191204386022</v>
+        <v>0.0003787236068972215</v>
       </c>
       <c r="G9">
-        <v>-1.036280911747987</v>
+        <v>6.44788274341244</v>
       </c>
       <c r="H9">
-        <v>2.235116380534154</v>
+        <v>0.1908645198167289</v>
       </c>
       <c r="I9">
-        <v>3.112837067079032E-49</v>
+        <v>4.992736180857584E-33</v>
       </c>
       <c r="J9">
-        <v>34.5</v>
+        <v>13.89999961853027</v>
       </c>
       <c r="K9">
-        <v>16.46999931335449</v>
+        <v>37.38000106811523</v>
       </c>
       <c r="L9">
-        <v>1.638048300528169</v>
+        <v>0.5840935881601403</v>
       </c>
       <c r="M9">
-        <v>-1.879442175466359</v>
+        <v>-0.6294413700091717</v>
       </c>
       <c r="N9">
-        <v>0.8186255181062653</v>
+        <v>0.2545340810816933</v>
       </c>
       <c r="O9">
-        <v>-1.27608434091691</v>
+        <v>0.3176009205032049</v>
       </c>
       <c r="P9">
-        <v>0.01094848290543314</v>
+        <v>0.01155081142827234</v>
       </c>
       <c r="Q9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="R9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -976,111 +979,111 @@
         <v>2031</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>0.2213675876802788</v>
+        <v>0.2829333135904956</v>
       </c>
       <c r="E10">
-        <v>0.9829013483037675</v>
+        <v>0.9851756146039076</v>
       </c>
       <c r="F10">
-        <v>0.0005380340985654635</v>
+        <v>0.0006976134974420294</v>
       </c>
       <c r="G10">
-        <v>10.47762897352886</v>
+        <v>10.43500302922549</v>
       </c>
       <c r="H10">
-        <v>0.05508578663398685</v>
+        <v>0.05616903832978751</v>
       </c>
       <c r="I10">
-        <v>9.181632150591656E-28</v>
+        <v>1.005978710380306E-28</v>
       </c>
       <c r="J10">
-        <v>13.78999996185303</v>
+        <v>13.89999961853027</v>
       </c>
       <c r="K10">
-        <v>52.88999938964844</v>
+        <v>53.5</v>
       </c>
       <c r="L10">
-        <v>0.5462558417694297</v>
+        <v>0.5470721359470598</v>
       </c>
       <c r="M10">
-        <v>-0.8374042548419069</v>
+        <v>-0.851801848578793</v>
       </c>
       <c r="N10">
-        <v>0.2715025917786276</v>
+        <v>0.2734019271992853</v>
       </c>
       <c r="O10">
-        <v>0.3988837668742966</v>
+        <v>0.4599530386611468</v>
       </c>
       <c r="P10">
-        <v>0.01135015898475741</v>
+        <v>0.01162122000363499</v>
       </c>
       <c r="Q10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2018</v>
+        <v>2656</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>0.2213675876802788</v>
+        <v>0.888392546427601</v>
       </c>
       <c r="E11">
-        <v>0.8647004467714553</v>
+        <v>0.3286516912262424</v>
       </c>
       <c r="F11">
-        <v>0.0008704043080864407</v>
+        <v>0.0001419728706112239</v>
       </c>
       <c r="G11">
-        <v>6.57015295191802</v>
+        <v>-15.37224611178967</v>
       </c>
       <c r="H11">
-        <v>0.2222163304081422</v>
+        <v>1.772188325843582</v>
       </c>
       <c r="I11">
-        <v>7.943129452813595E-28</v>
+        <v>4.176961232971473E-46</v>
       </c>
       <c r="J11">
-        <v>13.78999996185303</v>
+        <v>18.14999961853027</v>
       </c>
       <c r="K11">
-        <v>31.22999954223633</v>
+        <v>18.3799991607666</v>
       </c>
       <c r="L11">
-        <v>0.7999140352533356</v>
+        <v>2.242536614081978</v>
       </c>
       <c r="M11">
-        <v>-0.5612227274950499</v>
+        <v>-2.563713715000841</v>
       </c>
       <c r="N11">
-        <v>0.2712170441793072</v>
+        <v>0.812267013177186</v>
       </c>
       <c r="O11">
-        <v>0.2800311130112894</v>
+        <v>0.9494257885945458</v>
       </c>
       <c r="P11">
-        <v>0.01226995381442509</v>
+        <v>0.01204392240810553</v>
       </c>
       <c r="Q11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -97,9 +97,6 @@
     <t>MRFG3</t>
   </si>
   <si>
-    <t>TAEE11</t>
-  </si>
-  <si>
     <t>ITUB4</t>
   </si>
   <si>
@@ -107,6 +104,9 @@
   </si>
   <si>
     <t>TIMS3</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
   </si>
 </sst>
 </file>
@@ -537,43 +537,43 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>0.5093359892100662</v>
+        <v>0.4560581479560306</v>
       </c>
       <c r="E2">
-        <v>0.2531364495864405</v>
+        <v>0.2416253953968303</v>
       </c>
       <c r="F2">
-        <v>1.317124434354675E-05</v>
+        <v>1.601835694602855E-05</v>
       </c>
       <c r="G2">
-        <v>4.854655989879406</v>
+        <v>4.829771664426929</v>
       </c>
       <c r="H2">
-        <v>0.978195893938921</v>
+        <v>0.9819243710371521</v>
       </c>
       <c r="I2">
-        <v>2.807311501894273E-49</v>
+        <v>1.879760591647488E-49</v>
       </c>
       <c r="J2">
-        <v>13.03999996185303</v>
+        <v>12.90999984741211</v>
       </c>
       <c r="K2">
-        <v>7.880000114440918</v>
+        <v>7.809999942779541</v>
       </c>
       <c r="L2">
-        <v>0.8340111856044281</v>
+        <v>0.830875279010046</v>
       </c>
       <c r="M2">
-        <v>-0.4923733655188514</v>
+        <v>-0.498659107327514</v>
       </c>
       <c r="N2">
-        <v>0.2603535177389463</v>
+        <v>0.2617554615302473</v>
       </c>
       <c r="O2">
-        <v>0.4771602157892874</v>
+        <v>0.4113989013711858</v>
       </c>
       <c r="P2">
-        <v>0.008162723450405345</v>
+        <v>0.008252403808084686</v>
       </c>
       <c r="Q2" t="s">
         <v>23</v>
@@ -593,43 +593,43 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>0.5093359892100662</v>
+        <v>0.4560581479560306</v>
       </c>
       <c r="E3">
-        <v>0.4767334308542954</v>
+        <v>0.4616180747560638</v>
       </c>
       <c r="F3">
-        <v>0.0004783788528074136</v>
+        <v>0.0004475424863030805</v>
       </c>
       <c r="G3">
-        <v>4.362646204651825</v>
+        <v>4.337057038406941</v>
       </c>
       <c r="H3">
-        <v>0.6790919383390168</v>
+        <v>0.6815465301177385</v>
       </c>
       <c r="I3">
-        <v>1.179866993129056E-57</v>
+        <v>6.995909018852414E-58</v>
       </c>
       <c r="J3">
-        <v>13.03999996185303</v>
+        <v>12.90999984741211</v>
       </c>
       <c r="K3">
-        <v>12.13000011444092</v>
+        <v>12.05000019073486</v>
       </c>
       <c r="L3">
-        <v>0.6510427991015568</v>
+        <v>0.6461387464214763</v>
       </c>
       <c r="M3">
-        <v>-0.5389942270429646</v>
+        <v>-0.5416574127329774</v>
       </c>
       <c r="N3">
-        <v>0.2264429882473506</v>
+        <v>0.2276920707226012</v>
       </c>
       <c r="O3">
-        <v>0.4399684674330242</v>
+        <v>0.3603069910917345</v>
       </c>
       <c r="P3">
-        <v>0.009489456421152689</v>
+        <v>0.009565486909266499</v>
       </c>
       <c r="Q3" t="s">
         <v>24</v>
@@ -649,43 +649,43 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>0.8782000141853211</v>
+        <v>0.8574057173638684</v>
       </c>
       <c r="E4">
-        <v>0.8653495197770527</v>
+        <v>0.8680830177656194</v>
       </c>
       <c r="F4">
-        <v>6.7715767129075E-05</v>
+        <v>9.584067863099033E-05</v>
       </c>
       <c r="G4">
-        <v>0.3825332427386767</v>
+        <v>0.4697834023971157</v>
       </c>
       <c r="H4">
-        <v>0.6365033469426384</v>
+        <v>0.6304874502128609</v>
       </c>
       <c r="I4">
-        <v>6.680556316212037E-62</v>
+        <v>1.524011055901698E-62</v>
       </c>
       <c r="J4">
-        <v>10.73999977111816</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="K4">
-        <v>16.59000015258789</v>
+        <v>16.60000038146973</v>
       </c>
       <c r="L4">
-        <v>0.3626505212107674</v>
+        <v>0.362040230230086</v>
       </c>
       <c r="M4">
-        <v>-0.6077399691459782</v>
+        <v>-0.6044902792688074</v>
       </c>
       <c r="N4">
-        <v>0.1854750826856854</v>
+        <v>0.1861296817974964</v>
       </c>
       <c r="O4">
-        <v>-0.2021240945215883</v>
+        <v>-0.255875011266701</v>
       </c>
       <c r="P4">
-        <v>0.009582247419185546</v>
+        <v>0.009837834447498181</v>
       </c>
       <c r="Q4" t="s">
         <v>19</v>
@@ -705,43 +705,43 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>0.2829333135904956</v>
+        <v>0.3228692237569101</v>
       </c>
       <c r="E5">
-        <v>0.7241443459847327</v>
+        <v>0.7360275001714247</v>
       </c>
       <c r="F5">
-        <v>0.0001791627405325769</v>
+        <v>0.0002095391643609896</v>
       </c>
       <c r="G5">
-        <v>10.25579052717455</v>
+        <v>10.21616837734648</v>
       </c>
       <c r="H5">
-        <v>0.227085210605883</v>
+        <v>0.2308484312851843</v>
       </c>
       <c r="I5">
-        <v>2.162920701433981E-35</v>
+        <v>1.75200627699179E-36</v>
       </c>
       <c r="J5">
-        <v>13.89999961853027</v>
+        <v>13.94999980926514</v>
       </c>
       <c r="K5">
-        <v>14.34000015258789</v>
+        <v>14.42000007629395</v>
       </c>
       <c r="L5">
-        <v>0.4886502647483759</v>
+        <v>0.4938765762756354</v>
       </c>
       <c r="M5">
-        <v>-0.5038354937923373</v>
+        <v>-0.5125707311288412</v>
       </c>
       <c r="N5">
-        <v>0.2447274859907054</v>
+        <v>0.2463171153527791</v>
       </c>
       <c r="O5">
-        <v>0.3878071366169058</v>
+        <v>0.4049970351739614</v>
       </c>
       <c r="P5">
-        <v>0.01033992174849481</v>
+        <v>0.01053264780834186</v>
       </c>
       <c r="Q5" t="s">
         <v>26</v>
@@ -752,175 +752,175 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2023</v>
+        <v>2090</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6">
-        <v>0.2829333135904956</v>
+        <v>0.6485350622589936</v>
       </c>
       <c r="E6">
-        <v>0.3877236378340206</v>
+        <v>0.8687170031803905</v>
       </c>
       <c r="F6">
-        <v>0.000559876312645466</v>
+        <v>0.0004750974276751769</v>
       </c>
       <c r="G6">
-        <v>-0.9902917591031244</v>
+        <v>2.848430791514522</v>
       </c>
       <c r="H6">
-        <v>0.4067701542235662</v>
+        <v>0.874112639660553</v>
       </c>
       <c r="I6">
-        <v>1.382660548604251E-32</v>
+        <v>3.942699955312104E-46</v>
       </c>
       <c r="J6">
-        <v>13.89999961853027</v>
+        <v>33.79999923706055</v>
       </c>
       <c r="K6">
-        <v>35.29999923706055</v>
+        <v>36.97000122070312</v>
       </c>
       <c r="L6">
-        <v>0.6290963763899082</v>
+        <v>2.093054296851044</v>
       </c>
       <c r="M6">
-        <v>-0.608087778017703</v>
+        <v>-2.184932566836871</v>
       </c>
       <c r="N6">
-        <v>0.2564124412458315</v>
+        <v>0.8731455007207899</v>
       </c>
       <c r="O6">
-        <v>0.5313052438825085</v>
+        <v>-1.364376909736649</v>
       </c>
       <c r="P6">
-        <v>0.01114018776384984</v>
+        <v>0.01142154223954922</v>
       </c>
       <c r="Q6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" t="s">
         <v>27</v>
-      </c>
-      <c r="R6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2090</v>
+        <v>1988</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>0.695231810814919</v>
+        <v>0.3228692237569101</v>
       </c>
       <c r="E7">
-        <v>0.9435984044558724</v>
+        <v>0.8680830177656194</v>
       </c>
       <c r="F7">
-        <v>0.0003873006119321726</v>
+        <v>0.0002720773633739521</v>
       </c>
       <c r="G7">
-        <v>2.501401301725446</v>
+        <v>5.817771305917581</v>
       </c>
       <c r="H7">
-        <v>0.8847969977150393</v>
+        <v>0.4731186313281429</v>
       </c>
       <c r="I7">
-        <v>3.715125498767049E-46</v>
+        <v>2.676348868549523E-34</v>
       </c>
       <c r="J7">
-        <v>34.29999923706055</v>
+        <v>13.94999980926514</v>
       </c>
       <c r="K7">
-        <v>37.38000106811523</v>
+        <v>16.60000038146973</v>
       </c>
       <c r="L7">
-        <v>2.082946606592451</v>
+        <v>0.4885677832671647</v>
       </c>
       <c r="M7">
-        <v>-2.217976502524408</v>
+        <v>-0.9138291491811827</v>
       </c>
       <c r="N7">
-        <v>0.8683688283616212</v>
+        <v>0.2553599686573205</v>
       </c>
       <c r="O7">
-        <v>-1.27511478431822</v>
+        <v>0.2784590428199483</v>
       </c>
       <c r="P7">
-        <v>0.01116193508812327</v>
+        <v>0.01178494304349184</v>
       </c>
       <c r="Q7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2081</v>
+        <v>1997</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>0.695231810814919</v>
+        <v>0.3228692237569101</v>
       </c>
       <c r="E8">
-        <v>0.8653495197770527</v>
+        <v>0.8687170031803905</v>
       </c>
       <c r="F8">
-        <v>0.0007257867398131407</v>
+        <v>0.0005554267739110057</v>
       </c>
       <c r="G8">
-        <v>-0.4448823899254712</v>
+        <v>6.338331459358392</v>
       </c>
       <c r="H8">
-        <v>2.194334672060659</v>
+        <v>0.1942373875899591</v>
       </c>
       <c r="I8">
-        <v>5.38237866943507E-49</v>
+        <v>4.47023293674214E-34</v>
       </c>
       <c r="J8">
-        <v>34.29999923706055</v>
+        <v>13.94999980926514</v>
       </c>
       <c r="K8">
-        <v>16.59000015258789</v>
+        <v>36.97000122070312</v>
       </c>
       <c r="L8">
-        <v>1.636747382165826</v>
+        <v>0.5809354488277148</v>
       </c>
       <c r="M8">
-        <v>-1.838183688430135</v>
+        <v>-0.631776915079179</v>
       </c>
       <c r="N8">
-        <v>0.8282708417834161</v>
+        <v>0.2563006792545074</v>
       </c>
       <c r="O8">
-        <v>-1.659130917329222</v>
+        <v>0.4307118935997689</v>
       </c>
       <c r="P8">
-        <v>0.01147347123023219</v>
+        <v>0.01186239573284114</v>
       </c>
       <c r="Q8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="R8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1997</v>
+        <v>2031</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -929,43 +929,43 @@
         <v>28</v>
       </c>
       <c r="D9">
-        <v>0.2829333135904956</v>
+        <v>0.3228692237569101</v>
       </c>
       <c r="E9">
-        <v>0.9435984044558724</v>
+        <v>0.9835635181596901</v>
       </c>
       <c r="F9">
-        <v>0.0003787236068972215</v>
+        <v>0.0009076195350206587</v>
       </c>
       <c r="G9">
-        <v>6.44788274341244</v>
+        <v>10.39057436501268</v>
       </c>
       <c r="H9">
-        <v>0.1908645198167289</v>
+        <v>0.05729968240375986</v>
       </c>
       <c r="I9">
-        <v>4.992736180857584E-33</v>
+        <v>1.263757393979521E-29</v>
       </c>
       <c r="J9">
-        <v>13.89999961853027</v>
+        <v>13.94999980926514</v>
       </c>
       <c r="K9">
-        <v>37.38000106811523</v>
+        <v>53.31000137329102</v>
       </c>
       <c r="L9">
-        <v>0.5840935881601403</v>
+        <v>0.5478619733454089</v>
       </c>
       <c r="M9">
-        <v>-0.6294413700091717</v>
+        <v>-0.8668915083271465</v>
       </c>
       <c r="N9">
-        <v>0.2545340810816933</v>
+        <v>0.2758302255711183</v>
       </c>
       <c r="O9">
-        <v>0.3176009205032049</v>
+        <v>0.5047792966188789</v>
       </c>
       <c r="P9">
-        <v>0.01155081142827234</v>
+        <v>0.01193763734044384</v>
       </c>
       <c r="Q9" t="s">
         <v>28</v>
@@ -976,114 +976,114 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2031</v>
+        <v>2656</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
       <c r="D10">
-        <v>0.2829333135904956</v>
+        <v>0.9084509660279225</v>
       </c>
       <c r="E10">
-        <v>0.9851756146039076</v>
+        <v>0.2920856523325519</v>
       </c>
       <c r="F10">
-        <v>0.0006976134974420294</v>
+        <v>0.0002050511442760567</v>
       </c>
       <c r="G10">
-        <v>10.43500302922549</v>
+        <v>-15.64544324916097</v>
       </c>
       <c r="H10">
-        <v>0.05616903832978751</v>
+        <v>1.788802062456085</v>
       </c>
       <c r="I10">
-        <v>1.005978710380306E-28</v>
+        <v>1.317637761982804E-46</v>
       </c>
       <c r="J10">
-        <v>13.89999961853027</v>
+        <v>18.3799991607666</v>
       </c>
       <c r="K10">
-        <v>53.5</v>
+        <v>18.20000076293945</v>
       </c>
       <c r="L10">
-        <v>0.5470721359470598</v>
+        <v>2.230795055976722</v>
       </c>
       <c r="M10">
-        <v>-0.851801848578793</v>
+        <v>-2.583250630684658</v>
       </c>
       <c r="N10">
-        <v>0.2734019271992853</v>
+        <v>0.8189701716020651</v>
       </c>
       <c r="O10">
-        <v>0.4599530386611468</v>
+        <v>1.46924350847916</v>
       </c>
       <c r="P10">
-        <v>0.01162122000363499</v>
+        <v>0.01230553677177153</v>
       </c>
       <c r="Q10" t="s">
         <v>29</v>
       </c>
       <c r="R10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2656</v>
+        <v>1996</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
       <c r="D11">
-        <v>0.888392546427601</v>
+        <v>0.3228692237569101</v>
       </c>
       <c r="E11">
-        <v>0.3286516912262424</v>
+        <v>0.8732023523344724</v>
       </c>
       <c r="F11">
-        <v>0.0001419728706112239</v>
+        <v>0.000914348232840835</v>
       </c>
       <c r="G11">
-        <v>-15.37224611178967</v>
+        <v>5.396521344807937</v>
       </c>
       <c r="H11">
-        <v>1.772188325843582</v>
+        <v>0.7343261652440698</v>
       </c>
       <c r="I11">
-        <v>4.176961232971473E-46</v>
+        <v>1.80105779197355E-34</v>
       </c>
       <c r="J11">
-        <v>18.14999961853027</v>
+        <v>13.94999980926514</v>
       </c>
       <c r="K11">
-        <v>18.3799991607666</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="L11">
-        <v>2.242536614081978</v>
+        <v>0.6053802342607728</v>
       </c>
       <c r="M11">
-        <v>-2.563713715000841</v>
+        <v>-0.6391971114564949</v>
       </c>
       <c r="N11">
-        <v>0.812267013177186</v>
+        <v>0.2546359791831135</v>
       </c>
       <c r="O11">
-        <v>0.9494257885945458</v>
+        <v>0.3290255537852182</v>
       </c>
       <c r="P11">
-        <v>0.01204392240810553</v>
+        <v>0.01255176362332238</v>
       </c>
       <c r="Q11" t="s">
         <v>30</v>
       </c>
       <c r="R11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>N</t>
   </si>
@@ -70,10 +70,43 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>ABEV3</t>
+    <t>ENEV3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
   </si>
   <si>
     <t>BBAS3</t>
+  </si>
+  <si>
+    <t>LREN3</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>TAEE11</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>IRBR3</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
   </si>
 </sst>
 </file>
@@ -431,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,58 +528,562 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>4</v>
+        <v>2003</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>0.4055246970225737</v>
+      </c>
+      <c r="E2">
+        <v>0.8259695346167188</v>
+      </c>
+      <c r="F2">
+        <v>0.0002235281095754979</v>
+      </c>
+      <c r="G2">
+        <v>10.03987980213691</v>
+      </c>
+      <c r="H2">
+        <v>0.2460807224747614</v>
+      </c>
+      <c r="I2">
+        <v>5.965546655367746E-39</v>
+      </c>
+      <c r="J2">
+        <v>13.97000026702881</v>
+      </c>
+      <c r="K2">
+        <v>14.4399995803833</v>
+      </c>
+      <c r="L2">
+        <v>0.5309420047828795</v>
+      </c>
+      <c r="M2">
+        <v>-0.5320171035159937</v>
+      </c>
+      <c r="N2">
+        <v>0.2473424516008485</v>
+      </c>
+      <c r="O2">
+        <v>0.3767149356159254</v>
+      </c>
+      <c r="P2">
+        <v>0.01046020238006206</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>2090</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="D2">
-        <v>0.6411352930364056</v>
-      </c>
-      <c r="E2">
-        <v>0.5307787110103972</v>
-      </c>
-      <c r="F2">
-        <v>0.005758609599818619</v>
-      </c>
-      <c r="G2">
-        <v>-2.325107562999758</v>
-      </c>
-      <c r="H2">
-        <v>0.5408689000761857</v>
-      </c>
-      <c r="I2">
-        <v>2.740132107842915E-37</v>
-      </c>
-      <c r="J2">
-        <v>12.72999954223633</v>
-      </c>
-      <c r="K2">
-        <v>28.42000007629395</v>
-      </c>
-      <c r="L2">
-        <v>0.9329898718085161</v>
-      </c>
-      <c r="M2">
-        <v>-0.6010615679496372</v>
-      </c>
-      <c r="N2">
-        <v>0.3074004095466648</v>
-      </c>
-      <c r="O2">
-        <v>-0.3163870761941343</v>
-      </c>
-      <c r="P2">
-        <v>0.01549556165560382</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>0.6769281147479296</v>
+      </c>
+      <c r="E3">
+        <v>0.9237361325750502</v>
+      </c>
+      <c r="F3">
+        <v>0.0002513364533566747</v>
+      </c>
+      <c r="G3">
+        <v>3.441047403104825</v>
+      </c>
+      <c r="H3">
+        <v>0.8549957619267512</v>
+      </c>
+      <c r="I3">
+        <v>3.089811349690353E-46</v>
+      </c>
+      <c r="J3">
+        <v>34.06000137329102</v>
+      </c>
+      <c r="K3">
+        <v>37</v>
+      </c>
+      <c r="L3">
+        <v>2.139451011267511</v>
+      </c>
+      <c r="M3">
+        <v>-2.097506711893331</v>
+      </c>
+      <c r="N3">
+        <v>0.8680105623693338</v>
+      </c>
+      <c r="O3">
+        <v>-1.015889221103603</v>
+      </c>
+      <c r="P3">
+        <v>0.01099516758386865</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>3129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>0.4855604214773401</v>
+      </c>
+      <c r="E4">
+        <v>0.5610298432530344</v>
+      </c>
+      <c r="F4">
+        <v>7.427788470908623E-05</v>
+      </c>
+      <c r="G4">
+        <v>6.749976961903926</v>
+      </c>
+      <c r="H4">
+        <v>0.4450597705551198</v>
+      </c>
+      <c r="I4">
+        <v>1.244643500069455E-46</v>
+      </c>
+      <c r="J4">
+        <v>18.65999984741211</v>
+      </c>
+      <c r="K4">
+        <v>24.73999977111816</v>
+      </c>
+      <c r="L4">
+        <v>1.441945682869083</v>
+      </c>
+      <c r="M4">
+        <v>-0.9208572211524597</v>
+      </c>
+      <c r="N4">
+        <v>0.4048418178444599</v>
+      </c>
+      <c r="O4">
+        <v>0.8992442638406164</v>
+      </c>
+      <c r="P4">
+        <v>0.01201806480186612</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>2023</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="R2" t="s">
-        <v>19</v>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>0.4055246970225737</v>
+      </c>
+      <c r="E5">
+        <v>0.3438718223218978</v>
+      </c>
+      <c r="F5">
+        <v>0.001462901657107972</v>
+      </c>
+      <c r="G5">
+        <v>-2.073675830157683</v>
+      </c>
+      <c r="H5">
+        <v>0.4388767997987223</v>
+      </c>
+      <c r="I5">
+        <v>3.144598030999248E-33</v>
+      </c>
+      <c r="J5">
+        <v>13.97000026702881</v>
+      </c>
+      <c r="K5">
+        <v>35.15000152587891</v>
+      </c>
+      <c r="L5">
+        <v>0.712767311026111</v>
+      </c>
+      <c r="M5">
+        <v>-0.6044478154965951</v>
+      </c>
+      <c r="N5">
+        <v>0.2722240250236275</v>
+      </c>
+      <c r="O5">
+        <v>0.617155914588551</v>
+      </c>
+      <c r="P5">
+        <v>0.01223809334368792</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>2179</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>0.8635591629419398</v>
+      </c>
+      <c r="E6">
+        <v>0.9237361325750502</v>
+      </c>
+      <c r="F6">
+        <v>0.0004519667183108814</v>
+      </c>
+      <c r="G6">
+        <v>2.056333237419672</v>
+      </c>
+      <c r="H6">
+        <v>0.3817057662047578</v>
+      </c>
+      <c r="I6">
+        <v>3.19939552946023E-59</v>
+      </c>
+      <c r="J6">
+        <v>16.59000015258789</v>
+      </c>
+      <c r="K6">
+        <v>37</v>
+      </c>
+      <c r="L6">
+        <v>0.7374361100649072</v>
+      </c>
+      <c r="M6">
+        <v>-0.6804592180866962</v>
+      </c>
+      <c r="N6">
+        <v>0.2968116108218764</v>
+      </c>
+      <c r="O6">
+        <v>0.4105535655921795</v>
+      </c>
+      <c r="P6">
+        <v>0.01238409440630682</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>2031</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>0.4055246970225737</v>
+      </c>
+      <c r="E7">
+        <v>0.9633117614521077</v>
+      </c>
+      <c r="F7">
+        <v>0.001421520018329302</v>
+      </c>
+      <c r="G7">
+        <v>10.24119390755063</v>
+      </c>
+      <c r="H7">
+        <v>0.06082391089309721</v>
+      </c>
+      <c r="I7">
+        <v>3.92596506577402E-31</v>
+      </c>
+      <c r="J7">
+        <v>13.97000026702881</v>
+      </c>
+      <c r="K7">
+        <v>53</v>
+      </c>
+      <c r="L7">
+        <v>0.5674277501526603</v>
+      </c>
+      <c r="M7">
+        <v>-0.9030302410065296</v>
+      </c>
+      <c r="N7">
+        <v>0.2819468402672876</v>
+      </c>
+      <c r="O7">
+        <v>0.5051390821440256</v>
+      </c>
+      <c r="P7">
+        <v>0.01244259922784487</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>348</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>0.5790011266936588</v>
+      </c>
+      <c r="E8">
+        <v>0.6308249479156915</v>
+      </c>
+      <c r="F8">
+        <v>0.001232194008930978</v>
+      </c>
+      <c r="G8">
+        <v>22.40397484262288</v>
+      </c>
+      <c r="H8">
+        <v>0.1164266259174604</v>
+      </c>
+      <c r="I8">
+        <v>4.821201168146456E-41</v>
+      </c>
+      <c r="J8">
+        <v>28.56999969482422</v>
+      </c>
+      <c r="K8">
+        <v>47.11000061035156</v>
+      </c>
+      <c r="L8">
+        <v>1.107396689450507</v>
+      </c>
+      <c r="M8">
+        <v>-1.221227508170095</v>
+      </c>
+      <c r="N8">
+        <v>0.4514898028323454</v>
+      </c>
+      <c r="O8">
+        <v>0.6811664341686079</v>
+      </c>
+      <c r="P8">
+        <v>0.01263187886785691</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>1997</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>0.4055246970225737</v>
+      </c>
+      <c r="E9">
+        <v>0.9237361325750502</v>
+      </c>
+      <c r="F9">
+        <v>0.001359058591603857</v>
+      </c>
+      <c r="G9">
+        <v>6.086974391882894</v>
+      </c>
+      <c r="H9">
+        <v>0.2021345651559612</v>
+      </c>
+      <c r="I9">
+        <v>7.978199231110561E-36</v>
+      </c>
+      <c r="J9">
+        <v>13.97000026702881</v>
+      </c>
+      <c r="K9">
+        <v>37</v>
+      </c>
+      <c r="L9">
+        <v>0.5683965115712404</v>
+      </c>
+      <c r="M9">
+        <v>-0.6423940241126278</v>
+      </c>
+      <c r="N9">
+        <v>0.260643803445252</v>
+      </c>
+      <c r="O9">
+        <v>0.4040469643753513</v>
+      </c>
+      <c r="P9">
+        <v>0.01267221790959583</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>2656</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>0.9607308051748437</v>
+      </c>
+      <c r="E10">
+        <v>0.4855604214773401</v>
+      </c>
+      <c r="F10">
+        <v>0.0002170836148191291</v>
+      </c>
+      <c r="G10">
+        <v>-16.81241203842231</v>
+      </c>
+      <c r="H10">
+        <v>1.859795703010522</v>
+      </c>
+      <c r="I10">
+        <v>6.983406223205956E-48</v>
+      </c>
+      <c r="J10">
+        <v>19.36000061035156</v>
+      </c>
+      <c r="K10">
+        <v>18.65999984741211</v>
+      </c>
+      <c r="L10">
+        <v>2.180166877227371</v>
+      </c>
+      <c r="M10">
+        <v>-2.667189847572729</v>
+      </c>
+      <c r="N10">
+        <v>0.8309662140823285</v>
+      </c>
+      <c r="O10">
+        <v>1.468625114379833</v>
+      </c>
+      <c r="P10">
+        <v>0.01279143603136585</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>1996</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>0.4055246970225737</v>
+      </c>
+      <c r="E11">
+        <v>0.8824061642033955</v>
+      </c>
+      <c r="F11">
+        <v>0.001669155603500831</v>
+      </c>
+      <c r="G11">
+        <v>5.153535461505587</v>
+      </c>
+      <c r="H11">
+        <v>0.7593121866747599</v>
+      </c>
+      <c r="I11">
+        <v>2.094007219101606E-36</v>
+      </c>
+      <c r="J11">
+        <v>13.97000026702881</v>
+      </c>
+      <c r="K11">
+        <v>11.19999980926514</v>
+      </c>
+      <c r="L11">
+        <v>0.5962997867495332</v>
+      </c>
+      <c r="M11">
+        <v>-0.6500644838342229</v>
+      </c>
+      <c r="N11">
+        <v>0.2581196100424696</v>
+      </c>
+      <c r="O11">
+        <v>0.3121684595932166</v>
+      </c>
+      <c r="P11">
+        <v>0.01314196672268669</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -82,31 +82,31 @@
     <t>FLRY3</t>
   </si>
   <si>
+    <t>LREN3</t>
+  </si>
+  <si>
     <t>BBAS3</t>
   </si>
   <si>
-    <t>LREN3</t>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
   </si>
   <si>
     <t>MRFG3</t>
   </si>
   <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
     <t>VBBR3</t>
   </si>
   <si>
-    <t>TAEE11</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
+    <t>ITSA4</t>
   </si>
   <si>
     <t>IRBR3</t>
   </si>
   <si>
-    <t>ITSA4</t>
+    <t>ELET3</t>
   </si>
 </sst>
 </file>
@@ -528,55 +528,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2003</v>
+        <v>1988</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>0.4055246970225737</v>
+        <v>0.4424565988148969</v>
       </c>
       <c r="E2">
-        <v>0.8259695346167188</v>
+        <v>0.873769727187002</v>
       </c>
       <c r="F2">
-        <v>0.0002235281095754979</v>
+        <v>6.080604054002617E-06</v>
       </c>
       <c r="G2">
-        <v>10.03987980213691</v>
+        <v>5.235352589103563</v>
       </c>
       <c r="H2">
-        <v>0.2460807224747614</v>
+        <v>0.5140394157871336</v>
       </c>
       <c r="I2">
-        <v>5.965546655367746E-39</v>
+        <v>3.012695140065699E-41</v>
       </c>
       <c r="J2">
-        <v>13.97000026702881</v>
+        <v>14.13000011444092</v>
       </c>
       <c r="K2">
-        <v>14.4399995803833</v>
+        <v>16.55999946594238</v>
       </c>
       <c r="L2">
-        <v>0.5309420047828795</v>
+        <v>0.4219828726106254</v>
       </c>
       <c r="M2">
-        <v>-0.5320171035159937</v>
+        <v>-0.96159315113246</v>
       </c>
       <c r="N2">
-        <v>0.2473424516008485</v>
+        <v>0.2442059705830918</v>
       </c>
       <c r="O2">
-        <v>0.3767149356159254</v>
+        <v>0.3821550744290878</v>
       </c>
       <c r="P2">
-        <v>0.01046020238006206</v>
+        <v>0.009755969792369756</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -593,43 +593,43 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>0.6769281147479296</v>
+        <v>0.6632893005270699</v>
       </c>
       <c r="E3">
-        <v>0.9237361325750502</v>
+        <v>0.9165108598489364</v>
       </c>
       <c r="F3">
-        <v>0.0002513364533566747</v>
+        <v>0.0002548638996234904</v>
       </c>
       <c r="G3">
-        <v>3.441047403104825</v>
+        <v>3.704120977469287</v>
       </c>
       <c r="H3">
-        <v>0.8549957619267512</v>
+        <v>0.8465931515497737</v>
       </c>
       <c r="I3">
-        <v>3.089811349690353E-46</v>
+        <v>2.281003055169751E-46</v>
       </c>
       <c r="J3">
-        <v>34.06000137329102</v>
+        <v>33.75</v>
       </c>
       <c r="K3">
-        <v>37</v>
+        <v>36.90999984741211</v>
       </c>
       <c r="L3">
-        <v>2.139451011267511</v>
+        <v>2.157243921624627</v>
       </c>
       <c r="M3">
-        <v>-2.097506711893331</v>
+        <v>-2.061675205331369</v>
       </c>
       <c r="N3">
-        <v>0.8680105623693338</v>
+        <v>0.8672409103128413</v>
       </c>
       <c r="O3">
-        <v>-1.015889221103603</v>
+        <v>-1.201874071991568</v>
       </c>
       <c r="P3">
-        <v>0.01099516758386865</v>
+        <v>0.01097686299865145</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -640,114 +640,114 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>3129</v>
+        <v>2003</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0.4855604214773401</v>
+        <v>0.4424565988148969</v>
       </c>
       <c r="E4">
-        <v>0.5610298432530344</v>
+        <v>0.8522819064626075</v>
       </c>
       <c r="F4">
-        <v>7.427788470908623E-05</v>
+        <v>0.0004225952231195865</v>
       </c>
       <c r="G4">
-        <v>6.749976961903926</v>
+        <v>9.984455094446988</v>
       </c>
       <c r="H4">
-        <v>0.4450597705551198</v>
+        <v>0.251116893736542</v>
       </c>
       <c r="I4">
-        <v>1.244643500069455E-46</v>
+        <v>7.844687705096988E-40</v>
       </c>
       <c r="J4">
-        <v>18.65999984741211</v>
+        <v>14.13000011444092</v>
       </c>
       <c r="K4">
-        <v>24.73999977111816</v>
+        <v>14.69999980926514</v>
       </c>
       <c r="L4">
-        <v>1.441945682869083</v>
+        <v>0.5403361054110931</v>
       </c>
       <c r="M4">
-        <v>-0.9208572211524597</v>
+        <v>-0.5413071984610998</v>
       </c>
       <c r="N4">
-        <v>0.4048418178444599</v>
+        <v>0.2500700541644557</v>
       </c>
       <c r="O4">
-        <v>0.8992442638406164</v>
+        <v>0.4541267299635092</v>
       </c>
       <c r="P4">
-        <v>0.01201806480186612</v>
+        <v>0.01105088661412065</v>
       </c>
       <c r="Q4" t="s">
         <v>26</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2023</v>
+        <v>3129</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.4055246970225737</v>
+        <v>0.497188895915291</v>
       </c>
       <c r="E5">
-        <v>0.3438718223218978</v>
+        <v>0.5849773136614012</v>
       </c>
       <c r="F5">
-        <v>0.001462901657107972</v>
+        <v>9.997837617381032E-05</v>
       </c>
       <c r="G5">
-        <v>-2.073675830157683</v>
+        <v>6.633406313163158</v>
       </c>
       <c r="H5">
-        <v>0.4388767997987223</v>
+        <v>0.4504417059025033</v>
       </c>
       <c r="I5">
-        <v>3.144598030999248E-33</v>
+        <v>1.244668125989021E-46</v>
       </c>
       <c r="J5">
-        <v>13.97000026702881</v>
+        <v>18.63999938964844</v>
       </c>
       <c r="K5">
-        <v>35.15000152587891</v>
+        <v>24.94000053405762</v>
       </c>
       <c r="L5">
-        <v>0.712767311026111</v>
+        <v>1.435023823268029</v>
       </c>
       <c r="M5">
-        <v>-0.6044478154965951</v>
+        <v>-0.9286092809892992</v>
       </c>
       <c r="N5">
-        <v>0.2722240250236275</v>
+        <v>0.4089288557283538</v>
       </c>
       <c r="O5">
-        <v>0.617155914588551</v>
+        <v>0.772576690715022</v>
       </c>
       <c r="P5">
-        <v>0.01223809334368792</v>
+        <v>0.01182024800664401</v>
       </c>
       <c r="Q5" t="s">
         <v>27</v>
       </c>
       <c r="R5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -761,43 +761,43 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>0.8635591629419398</v>
+        <v>0.873769727187002</v>
       </c>
       <c r="E6">
-        <v>0.9237361325750502</v>
+        <v>0.9165108598489364</v>
       </c>
       <c r="F6">
-        <v>0.0004519667183108814</v>
+        <v>0.0004466519677920522</v>
       </c>
       <c r="G6">
-        <v>2.056333237419672</v>
+        <v>1.958671122627603</v>
       </c>
       <c r="H6">
-        <v>0.3817057662047578</v>
+        <v>0.3845533025563713</v>
       </c>
       <c r="I6">
-        <v>3.19939552946023E-59</v>
+        <v>5.25114262184125E-61</v>
       </c>
       <c r="J6">
-        <v>16.59000015258789</v>
+        <v>16.55999946594238</v>
       </c>
       <c r="K6">
-        <v>37</v>
+        <v>36.90999984741211</v>
       </c>
       <c r="L6">
-        <v>0.7374361100649072</v>
+        <v>0.6992003029183227</v>
       </c>
       <c r="M6">
-        <v>-0.6804592180866962</v>
+        <v>-0.6799705494615402</v>
       </c>
       <c r="N6">
-        <v>0.2968116108218764</v>
+        <v>0.2922128960758654</v>
       </c>
       <c r="O6">
-        <v>0.4105535655921795</v>
+        <v>0.4074660046372909</v>
       </c>
       <c r="P6">
-        <v>0.01238409440630682</v>
+        <v>0.01216243390724355</v>
       </c>
       <c r="Q6" t="s">
         <v>25</v>
@@ -808,282 +808,282 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2031</v>
+        <v>2656</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>0.4055246970225737</v>
+        <v>0.9479145418570081</v>
       </c>
       <c r="E7">
-        <v>0.9633117614521077</v>
+        <v>0.497188895915291</v>
       </c>
       <c r="F7">
-        <v>0.001421520018329302</v>
+        <v>0.0001299472375979065</v>
       </c>
       <c r="G7">
-        <v>10.24119390755063</v>
+        <v>-17.09045791309723</v>
       </c>
       <c r="H7">
-        <v>0.06082391089309721</v>
+        <v>1.876475007211992</v>
       </c>
       <c r="I7">
-        <v>3.92596506577402E-31</v>
+        <v>1.943193442306132E-48</v>
       </c>
       <c r="J7">
-        <v>13.97000026702881</v>
+        <v>19.06999969482422</v>
       </c>
       <c r="K7">
-        <v>53</v>
+        <v>18.63999938964844</v>
       </c>
       <c r="L7">
-        <v>0.5674277501526603</v>
+        <v>2.172149520525029</v>
       </c>
       <c r="M7">
-        <v>-0.9030302410065296</v>
+        <v>-2.683033326925543</v>
       </c>
       <c r="N7">
-        <v>0.2819468402672876</v>
+        <v>0.8369410373484848</v>
       </c>
       <c r="O7">
-        <v>0.5051390821440256</v>
+        <v>1.182964618799367</v>
       </c>
       <c r="P7">
-        <v>0.01244259922784487</v>
+        <v>0.01267239054225662</v>
       </c>
       <c r="Q7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>348</v>
+        <v>1996</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>0.5790011266936588</v>
+        <v>0.4424565988148969</v>
       </c>
       <c r="E8">
-        <v>0.6308249479156915</v>
+        <v>0.8615909078130864</v>
       </c>
       <c r="F8">
-        <v>0.001232194008930978</v>
+        <v>0.00104832793977882</v>
       </c>
       <c r="G8">
-        <v>22.40397484262288</v>
+        <v>5.01854576130985</v>
       </c>
       <c r="H8">
-        <v>0.1164266259174604</v>
+        <v>0.7731256225850074</v>
       </c>
       <c r="I8">
-        <v>4.821201168146456E-41</v>
+        <v>2.816581118749191E-37</v>
       </c>
       <c r="J8">
-        <v>28.56999969482422</v>
+        <v>14.13000011444092</v>
       </c>
       <c r="K8">
-        <v>47.11000061035156</v>
+        <v>11.14999961853027</v>
       </c>
       <c r="L8">
-        <v>1.107396689450507</v>
+        <v>0.5919354839286868</v>
       </c>
       <c r="M8">
-        <v>-1.221227508170095</v>
+        <v>-0.6598202601021459</v>
       </c>
       <c r="N8">
-        <v>0.4514898028323454</v>
+        <v>0.2610103815496958</v>
       </c>
       <c r="O8">
-        <v>0.6811664341686079</v>
+        <v>0.491103956232255</v>
       </c>
       <c r="P8">
-        <v>0.01263187886785691</v>
+        <v>0.01303387072118621</v>
       </c>
       <c r="Q8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1997</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>0.4055246970225737</v>
+        <v>0.5445022850781971</v>
       </c>
       <c r="E9">
-        <v>0.9237361325750502</v>
+        <v>0.6043846763842066</v>
       </c>
       <c r="F9">
-        <v>0.001359058591603857</v>
+        <v>0.001811502671971082</v>
       </c>
       <c r="G9">
-        <v>6.086974391882894</v>
+        <v>22.37569011346739</v>
       </c>
       <c r="H9">
-        <v>0.2021345651559612</v>
+        <v>0.1171945194297991</v>
       </c>
       <c r="I9">
-        <v>7.978199231110561E-36</v>
+        <v>1.343982210013654E-41</v>
       </c>
       <c r="J9">
-        <v>13.97000026702881</v>
+        <v>28.38999938964844</v>
       </c>
       <c r="K9">
-        <v>37</v>
+        <v>46.59000015258789</v>
       </c>
       <c r="L9">
-        <v>0.5683965115712404</v>
+        <v>1.110709521233233</v>
       </c>
       <c r="M9">
-        <v>-0.6423940241126278</v>
+        <v>-1.225463068090434</v>
       </c>
       <c r="N9">
-        <v>0.260643803445252</v>
+        <v>0.4519844748166636</v>
       </c>
       <c r="O9">
-        <v>0.4040469643753513</v>
+        <v>0.5542165980642482</v>
       </c>
       <c r="P9">
-        <v>0.01267221790959583</v>
+        <v>0.01313380702460384</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2656</v>
+        <v>2089</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>0.9607308051748437</v>
+        <v>0.6632893005270699</v>
       </c>
       <c r="E10">
-        <v>0.4855604214773401</v>
+        <v>0.8615909078130864</v>
       </c>
       <c r="F10">
-        <v>0.0002170836148191291</v>
+        <v>0.003091271307273231</v>
       </c>
       <c r="G10">
-        <v>-16.81241203842231</v>
+        <v>1.40703172887336</v>
       </c>
       <c r="H10">
-        <v>1.859795703010522</v>
+        <v>3.020917600975296</v>
       </c>
       <c r="I10">
-        <v>6.983406223205956E-48</v>
+        <v>1.196070152307511E-38</v>
       </c>
       <c r="J10">
-        <v>19.36000061035156</v>
+        <v>33.75</v>
       </c>
       <c r="K10">
-        <v>18.65999984741211</v>
+        <v>11.14999961853027</v>
       </c>
       <c r="L10">
-        <v>2.180166877227371</v>
+        <v>2.053596432658914</v>
       </c>
       <c r="M10">
-        <v>-2.667189847572729</v>
+        <v>-2.039907529222329</v>
       </c>
       <c r="N10">
-        <v>0.8309662140823285</v>
+        <v>0.987072322935332</v>
       </c>
       <c r="O10">
-        <v>1.468625114379833</v>
+        <v>-1.340261827359306</v>
       </c>
       <c r="P10">
-        <v>0.01279143603136585</v>
+        <v>0.01450284869243304</v>
       </c>
       <c r="Q10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1996</v>
+        <v>1093</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
       <c r="D11">
-        <v>0.4055246970225737</v>
+        <v>0.4630820618190808</v>
       </c>
       <c r="E11">
-        <v>0.8824061642033955</v>
+        <v>0.4867080498015506</v>
       </c>
       <c r="F11">
-        <v>0.001669155603500831</v>
+        <v>0.003580402313703608</v>
       </c>
       <c r="G11">
-        <v>5.153535461505587</v>
+        <v>3.041058748672172</v>
       </c>
       <c r="H11">
-        <v>0.7593121866747599</v>
+        <v>0.2506363370268264</v>
       </c>
       <c r="I11">
-        <v>2.094007219101606E-36</v>
+        <v>8.312693199744829E-53</v>
       </c>
       <c r="J11">
-        <v>13.97000026702881</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="K11">
-        <v>11.19999980926514</v>
+        <v>42.18000030517578</v>
       </c>
       <c r="L11">
-        <v>0.5962997867495332</v>
+        <v>0.6848301528839258</v>
       </c>
       <c r="M11">
-        <v>-0.6500644838342229</v>
+        <v>-0.9497179884056095</v>
       </c>
       <c r="N11">
-        <v>0.2581196100424696</v>
+        <v>0.289673181658914</v>
       </c>
       <c r="O11">
-        <v>0.3121684595932166</v>
+        <v>-0.4628999024215759</v>
       </c>
       <c r="P11">
-        <v>0.01314196672268669</v>
+        <v>0.01452743932713143</v>
       </c>
       <c r="Q11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" t="s">
         <v>30</v>
-      </c>
-      <c r="R11" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -70,12 +70,12 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
     <t>ENEV3</t>
   </si>
   <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
     <t>TIMS3</t>
   </si>
   <si>
@@ -88,7 +88,7 @@
     <t>BBAS3</t>
   </si>
   <si>
-    <t>CCRO3</t>
+    <t>RENT3</t>
   </si>
   <si>
     <t>ITUB4</t>
@@ -106,7 +106,10 @@
     <t>IRBR3</t>
   </si>
   <si>
-    <t>ELET3</t>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>UGPA3</t>
   </si>
 </sst>
 </file>
@@ -528,338 +531,338 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1988</v>
+        <v>2090</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.4424565988148969</v>
+        <v>0.6581220138760919</v>
       </c>
       <c r="E2">
-        <v>0.873769727187002</v>
+        <v>0.8999754084488103</v>
       </c>
       <c r="F2">
-        <v>6.080604054002617E-06</v>
+        <v>0.0002385782626813893</v>
       </c>
       <c r="G2">
-        <v>5.235352589103563</v>
+        <v>3.917248337235253</v>
       </c>
       <c r="H2">
-        <v>0.5140394157871336</v>
+        <v>0.8400052657377153</v>
       </c>
       <c r="I2">
-        <v>3.012695140065699E-41</v>
+        <v>1.482327308768638E-46</v>
       </c>
       <c r="J2">
-        <v>14.13000011444092</v>
+        <v>33.70999908447266</v>
       </c>
       <c r="K2">
-        <v>16.55999946594238</v>
+        <v>36.70000076293945</v>
       </c>
       <c r="L2">
-        <v>0.4219828726106254</v>
+        <v>2.164329645474446</v>
       </c>
       <c r="M2">
-        <v>-0.96159315113246</v>
+        <v>-2.040452469895641</v>
       </c>
       <c r="N2">
-        <v>0.2442059705830918</v>
+        <v>0.8686799961602725</v>
       </c>
       <c r="O2">
-        <v>0.3821550744290878</v>
+        <v>-1.035443146209907</v>
       </c>
       <c r="P2">
-        <v>0.009755969792369756</v>
+        <v>0.01106107303055044</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2090</v>
+        <v>2003</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.6632893005270699</v>
+        <v>0.3754038416085266</v>
       </c>
       <c r="E3">
-        <v>0.9165108598489364</v>
+        <v>0.8794133625729097</v>
       </c>
       <c r="F3">
-        <v>0.0002548638996234904</v>
+        <v>0.0006533198149137418</v>
       </c>
       <c r="G3">
-        <v>3.704120977469287</v>
+        <v>9.947182933248254</v>
       </c>
       <c r="H3">
-        <v>0.8465931515497737</v>
+        <v>0.2546990951621503</v>
       </c>
       <c r="I3">
-        <v>2.281003055169751E-46</v>
+        <v>2.134342186278694E-40</v>
       </c>
       <c r="J3">
-        <v>33.75</v>
+        <v>14.01000022888184</v>
       </c>
       <c r="K3">
-        <v>36.90999984741211</v>
+        <v>13.89999961853027</v>
       </c>
       <c r="L3">
-        <v>2.157243921624627</v>
+        <v>0.5448669443499163</v>
       </c>
       <c r="M3">
-        <v>-2.061675205331369</v>
+        <v>-0.5500663269479329</v>
       </c>
       <c r="N3">
-        <v>0.8672409103128413</v>
+        <v>0.2531504012773544</v>
       </c>
       <c r="O3">
-        <v>-1.201874071991568</v>
+        <v>0.5224999700396875</v>
       </c>
       <c r="P3">
-        <v>0.01097686299865145</v>
+        <v>0.01145751917040395</v>
       </c>
       <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2003</v>
+        <v>3129</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.4424565988148969</v>
+        <v>0.5381830753693083</v>
       </c>
       <c r="E4">
-        <v>0.8522819064626075</v>
+        <v>0.5552134644174079</v>
       </c>
       <c r="F4">
-        <v>0.0004225952231195865</v>
+        <v>0.0003182263693237193</v>
       </c>
       <c r="G4">
-        <v>9.984455094446988</v>
+        <v>6.556763492482133</v>
       </c>
       <c r="H4">
-        <v>0.251116893736542</v>
+        <v>0.4540545840685325</v>
       </c>
       <c r="I4">
-        <v>7.844687705096988E-40</v>
+        <v>1.907466638253779E-46</v>
       </c>
       <c r="J4">
-        <v>14.13000011444092</v>
+        <v>18.76000022888184</v>
       </c>
       <c r="K4">
-        <v>14.69999980926514</v>
+        <v>24.65999984741211</v>
       </c>
       <c r="L4">
-        <v>0.5403361054110931</v>
+        <v>1.428766468034965</v>
       </c>
       <c r="M4">
-        <v>-0.5413071984610998</v>
+        <v>-0.9354239473217518</v>
       </c>
       <c r="N4">
-        <v>0.2500700541644557</v>
+        <v>0.4163535238062412</v>
       </c>
       <c r="O4">
-        <v>0.4541267299635092</v>
+        <v>1.006250762552922</v>
       </c>
       <c r="P4">
-        <v>0.01105088661412065</v>
+        <v>0.0124966331499717</v>
       </c>
       <c r="Q4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>3129</v>
+        <v>2179</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>0.497188895915291</v>
+        <v>0.8845167867609083</v>
       </c>
       <c r="E5">
-        <v>0.5849773136614012</v>
+        <v>0.8999754084488103</v>
       </c>
       <c r="F5">
-        <v>9.997837617381032E-05</v>
+        <v>0.0006730040715804267</v>
       </c>
       <c r="G5">
-        <v>6.633406313163158</v>
+        <v>1.850873057304613</v>
       </c>
       <c r="H5">
-        <v>0.4504417059025033</v>
+        <v>0.3878854024268834</v>
       </c>
       <c r="I5">
-        <v>1.244668125989021E-46</v>
+        <v>8.445527468081447E-62</v>
       </c>
       <c r="J5">
-        <v>18.63999938964844</v>
+        <v>16.61000061035156</v>
       </c>
       <c r="K5">
-        <v>24.94000053405762</v>
+        <v>36.70000076293945</v>
       </c>
       <c r="L5">
-        <v>1.435023823268029</v>
+        <v>0.6996790737450596</v>
       </c>
       <c r="M5">
-        <v>-0.9286092809892992</v>
+        <v>-0.6858815104306757</v>
       </c>
       <c r="N5">
-        <v>0.4089288557283538</v>
+        <v>0.2946048849442663</v>
       </c>
       <c r="O5">
-        <v>0.772576690715022</v>
+        <v>0.5237329880472519</v>
       </c>
       <c r="P5">
-        <v>0.01182024800664401</v>
+        <v>0.0125065900232858</v>
       </c>
       <c r="Q5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2179</v>
+        <v>2656</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>0.873769727187002</v>
+        <v>0.9410114103214189</v>
       </c>
       <c r="E6">
-        <v>0.9165108598489364</v>
+        <v>0.5381830753693083</v>
       </c>
       <c r="F6">
-        <v>0.0004466519677920522</v>
+        <v>9.121704992734421E-05</v>
       </c>
       <c r="G6">
-        <v>1.958671122627603</v>
+        <v>-17.31805105589174</v>
       </c>
       <c r="H6">
-        <v>0.3845533025563713</v>
+        <v>1.890152636131666</v>
       </c>
       <c r="I6">
-        <v>5.25114262184125E-61</v>
+        <v>1.465294053847038E-49</v>
       </c>
       <c r="J6">
-        <v>16.55999946594238</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>36.90999984741211</v>
+        <v>18.76000022888184</v>
       </c>
       <c r="L6">
-        <v>0.6992003029183227</v>
+        <v>2.165160532129907</v>
       </c>
       <c r="M6">
-        <v>-0.6799705494615402</v>
+        <v>-2.696440017174407</v>
       </c>
       <c r="N6">
-        <v>0.2922128960758654</v>
+        <v>0.8372052605098972</v>
       </c>
       <c r="O6">
-        <v>0.4074660046372909</v>
+        <v>0.8587871694400846</v>
       </c>
       <c r="P6">
-        <v>0.01216243390724355</v>
+        <v>0.0125153613923161</v>
       </c>
       <c r="Q6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2656</v>
+        <v>1997</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>0.9479145418570081</v>
+        <v>0.3754038416085266</v>
       </c>
       <c r="E7">
-        <v>0.497188895915291</v>
+        <v>0.8999754084488103</v>
       </c>
       <c r="F7">
-        <v>0.0001299472375979065</v>
+        <v>0.0007663935983936664</v>
       </c>
       <c r="G7">
-        <v>-17.09045791309723</v>
+        <v>5.86378731259363</v>
       </c>
       <c r="H7">
-        <v>1.876475007211992</v>
+        <v>0.2090787161912025</v>
       </c>
       <c r="I7">
-        <v>1.943193442306132E-48</v>
+        <v>2.59298255078861E-37</v>
       </c>
       <c r="J7">
-        <v>19.06999969482422</v>
+        <v>14.01000022888184</v>
       </c>
       <c r="K7">
-        <v>18.63999938964844</v>
+        <v>36.70000076293945</v>
       </c>
       <c r="L7">
-        <v>2.172149520525029</v>
+        <v>0.5595343936454391</v>
       </c>
       <c r="M7">
-        <v>-2.683033326925543</v>
+        <v>-0.6495663848965449</v>
       </c>
       <c r="N7">
-        <v>0.8369410373484848</v>
+        <v>0.2664804870755338</v>
       </c>
       <c r="O7">
-        <v>1.182964618799367</v>
+        <v>0.4730238725566736</v>
       </c>
       <c r="P7">
-        <v>0.01267239054225662</v>
+        <v>0.01273184249350421</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -867,55 +870,55 @@
         <v>1996</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
       <c r="D8">
-        <v>0.4424565988148969</v>
+        <v>0.3754038416085266</v>
       </c>
       <c r="E8">
-        <v>0.8615909078130864</v>
+        <v>0.8416820473451179</v>
       </c>
       <c r="F8">
-        <v>0.00104832793977882</v>
+        <v>0.0008293606843960114</v>
       </c>
       <c r="G8">
-        <v>5.01854576130985</v>
+        <v>4.915427481693706</v>
       </c>
       <c r="H8">
-        <v>0.7731256225850074</v>
+        <v>0.7835730224429973</v>
       </c>
       <c r="I8">
-        <v>2.816581118749191E-37</v>
+        <v>2.906215954508857E-38</v>
       </c>
       <c r="J8">
-        <v>14.13000011444092</v>
+        <v>14.01000022888184</v>
       </c>
       <c r="K8">
-        <v>11.14999961853027</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="L8">
-        <v>0.5919354839286868</v>
+        <v>0.5896573219364321</v>
       </c>
       <c r="M8">
-        <v>-0.6598202601021459</v>
+        <v>-0.6661761098826791</v>
       </c>
       <c r="N8">
-        <v>0.2610103815496958</v>
+        <v>0.2623003946866694</v>
       </c>
       <c r="O8">
-        <v>0.491103956232255</v>
+        <v>0.3969118991614735</v>
       </c>
       <c r="P8">
-        <v>0.01303387072118621</v>
+        <v>0.01305706540593132</v>
       </c>
       <c r="Q8" t="s">
         <v>28</v>
       </c>
       <c r="R8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -929,43 +932,43 @@
         <v>29</v>
       </c>
       <c r="D9">
-        <v>0.5445022850781971</v>
+        <v>0.5107853008686661</v>
       </c>
       <c r="E9">
-        <v>0.6043846763842066</v>
+        <v>0.5881558807919639</v>
       </c>
       <c r="F9">
-        <v>0.001811502671971082</v>
+        <v>0.001612933644743024</v>
       </c>
       <c r="G9">
-        <v>22.37569011346739</v>
+        <v>22.35056825965234</v>
       </c>
       <c r="H9">
-        <v>0.1171945194297991</v>
+        <v>0.117926773400412</v>
       </c>
       <c r="I9">
-        <v>1.343982210013654E-41</v>
+        <v>2.831653588969709E-42</v>
       </c>
       <c r="J9">
-        <v>28.38999938964844</v>
+        <v>28.25</v>
       </c>
       <c r="K9">
-        <v>46.59000015258789</v>
+        <v>46.11999893188477</v>
       </c>
       <c r="L9">
-        <v>1.110709521233233</v>
+        <v>1.110778698977423</v>
       </c>
       <c r="M9">
-        <v>-1.225463068090434</v>
+        <v>-1.232538539663121</v>
       </c>
       <c r="N9">
-        <v>0.4519844748166636</v>
+        <v>0.4521780761479923</v>
       </c>
       <c r="O9">
-        <v>0.5542165980642482</v>
+        <v>0.4606490770800455</v>
       </c>
       <c r="P9">
-        <v>0.01313380702460384</v>
+        <v>0.01313925436648465</v>
       </c>
       <c r="Q9" t="s">
         <v>29</v>
@@ -976,114 +979,114 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2089</v>
+        <v>2031</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>0.6632893005270699</v>
+        <v>0.3754038416085266</v>
       </c>
       <c r="E10">
-        <v>0.8615909078130864</v>
+        <v>0.9648774211925721</v>
       </c>
       <c r="F10">
-        <v>0.003091271307273231</v>
+        <v>0.001867078063703478</v>
       </c>
       <c r="G10">
-        <v>1.40703172887336</v>
+        <v>10.1438163888144</v>
       </c>
       <c r="H10">
-        <v>3.020917600975296</v>
+        <v>0.06325639229500399</v>
       </c>
       <c r="I10">
-        <v>1.196070152307511E-38</v>
+        <v>1.748380192452216E-32</v>
       </c>
       <c r="J10">
-        <v>33.75</v>
+        <v>14.01000022888184</v>
       </c>
       <c r="K10">
-        <v>11.14999961853027</v>
+        <v>53.59999847412109</v>
       </c>
       <c r="L10">
-        <v>2.053596432658914</v>
+        <v>0.6133529077612287</v>
       </c>
       <c r="M10">
-        <v>-2.039907529222329</v>
+        <v>-0.933701167789982</v>
       </c>
       <c r="N10">
-        <v>0.987072322935332</v>
+        <v>0.2887579478500325</v>
       </c>
       <c r="O10">
-        <v>-1.340261827359306</v>
+        <v>0.4756413095768219</v>
       </c>
       <c r="P10">
-        <v>0.01450284869243304</v>
+        <v>0.01321256309043853</v>
       </c>
       <c r="Q10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" t="s">
         <v>19</v>
-      </c>
-      <c r="R10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1093</v>
+        <v>3034</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.4630820618190808</v>
+        <v>0.4595993345843078</v>
       </c>
       <c r="E11">
-        <v>0.4867080498015506</v>
+        <v>0.4334346917635528</v>
       </c>
       <c r="F11">
-        <v>0.003580402313703608</v>
+        <v>0.0001827352201931308</v>
       </c>
       <c r="G11">
-        <v>3.041058748672172</v>
+        <v>5.54005176288371</v>
       </c>
       <c r="H11">
-        <v>0.2506363370268264</v>
+        <v>1.667858462411486</v>
       </c>
       <c r="I11">
-        <v>8.312693199744829E-53</v>
+        <v>5.894956668677928E-53</v>
       </c>
       <c r="J11">
-        <v>13.14999961853027</v>
+        <v>44.81999969482422</v>
       </c>
       <c r="K11">
-        <v>42.18000030517578</v>
+        <v>22.3799991607666</v>
       </c>
       <c r="L11">
-        <v>0.6848301528839258</v>
+        <v>5.847663659353955</v>
       </c>
       <c r="M11">
-        <v>-0.9497179884056095</v>
+        <v>-5.534724866614184</v>
       </c>
       <c r="N11">
-        <v>0.289673181658914</v>
+        <v>1.815465032278929</v>
       </c>
       <c r="O11">
-        <v>-0.4628999024215759</v>
+        <v>1.953276942893972</v>
       </c>
       <c r="P11">
-        <v>0.01452743932713143</v>
+        <v>0.01339602204533255</v>
       </c>
       <c r="Q11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" t="s">
         <v>24</v>
-      </c>
-      <c r="R11" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>N</t>
   </si>
@@ -70,10 +70,19 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ENEV3</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
     <t>EQTL3</t>
   </si>
   <si>
-    <t>ENEV3</t>
+    <t>COGN3</t>
   </si>
   <si>
     <t>TIMS3</t>
@@ -85,10 +94,7 @@
     <t>LREN3</t>
   </si>
   <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>RENT3</t>
+    <t>DXCO3</t>
   </si>
   <si>
     <t>ITUB4</t>
@@ -97,19 +103,10 @@
     <t>MRFG3</t>
   </si>
   <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
     <t>VBBR3</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>IRBR3</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
   </si>
 </sst>
 </file>
@@ -531,63 +528,63 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2090</v>
+        <v>1988</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>0.6581220138760919</v>
+        <v>0.3949788116431191</v>
       </c>
       <c r="E2">
-        <v>0.8999754084488103</v>
+        <v>0.8688622177288399</v>
       </c>
       <c r="F2">
-        <v>0.0002385782626813893</v>
+        <v>3.680181191495881E-06</v>
       </c>
       <c r="G2">
-        <v>3.917248337235253</v>
+        <v>5.093848285295024</v>
       </c>
       <c r="H2">
-        <v>0.8400052657377153</v>
+        <v>0.5238149673430198</v>
       </c>
       <c r="I2">
-        <v>1.482327308768638E-46</v>
+        <v>8.057843750477177E-44</v>
       </c>
       <c r="J2">
-        <v>33.70999908447266</v>
+        <v>14.02999973297119</v>
       </c>
       <c r="K2">
-        <v>36.70000076293945</v>
+        <v>16.54000091552734</v>
       </c>
       <c r="L2">
-        <v>2.164329645474446</v>
+        <v>0.4168752637235471</v>
       </c>
       <c r="M2">
-        <v>-2.040452469895641</v>
+        <v>-0.9706329714985777</v>
       </c>
       <c r="N2">
-        <v>0.8686799961602725</v>
+        <v>0.2443702676355172</v>
       </c>
       <c r="O2">
-        <v>-1.035443146209907</v>
+        <v>0.2722514082556931</v>
       </c>
       <c r="P2">
-        <v>0.01106107303055044</v>
+        <v>0.009727981361560388</v>
       </c>
       <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2003</v>
+        <v>761</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -596,497 +593,497 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>0.3754038416085266</v>
+        <v>0.3191405831076065</v>
       </c>
       <c r="E3">
-        <v>0.8794133625729097</v>
+        <v>0.2269079869233788</v>
       </c>
       <c r="F3">
-        <v>0.0006533198149137418</v>
+        <v>0.000116813093051586</v>
       </c>
       <c r="G3">
-        <v>9.947182933248254</v>
+        <v>11.22396231761921</v>
       </c>
       <c r="H3">
-        <v>0.2546990951621503</v>
+        <v>3.022166123016986</v>
       </c>
       <c r="I3">
-        <v>2.134342186278694E-40</v>
+        <v>7.21132812018156E-49</v>
       </c>
       <c r="J3">
-        <v>14.01000022888184</v>
+        <v>34.70999908447266</v>
       </c>
       <c r="K3">
-        <v>13.89999961853027</v>
+        <v>8.079999923706055</v>
       </c>
       <c r="L3">
-        <v>0.5448669443499163</v>
+        <v>2.597688470902412</v>
       </c>
       <c r="M3">
-        <v>-0.5500663269479329</v>
+        <v>-2.315393170759705</v>
       </c>
       <c r="N3">
-        <v>0.2531504012773544</v>
+        <v>0.8150959926135027</v>
       </c>
       <c r="O3">
-        <v>0.5224999700396875</v>
+        <v>-0.9330652765508241</v>
       </c>
       <c r="P3">
-        <v>0.01145751917040395</v>
+        <v>0.01009252101245477</v>
       </c>
       <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" t="s">
         <v>26</v>
-      </c>
-      <c r="R3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>3129</v>
+        <v>1405</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>0.5381830753693083</v>
+        <v>0.8300998798316335</v>
       </c>
       <c r="E4">
-        <v>0.5552134644174079</v>
+        <v>0.8688622177288399</v>
       </c>
       <c r="F4">
-        <v>0.0003182263693237193</v>
+        <v>0.0001532990272223092</v>
       </c>
       <c r="G4">
-        <v>6.556763492482133</v>
+        <v>0.6312887798341343</v>
       </c>
       <c r="H4">
-        <v>0.4540545840685325</v>
+        <v>0.6194213353826353</v>
       </c>
       <c r="I4">
-        <v>1.907466638253779E-46</v>
+        <v>1.547170298025507E-65</v>
       </c>
       <c r="J4">
-        <v>18.76000022888184</v>
+        <v>10.64999961853027</v>
       </c>
       <c r="K4">
-        <v>24.65999984741211</v>
+        <v>16.54000091552734</v>
       </c>
       <c r="L4">
-        <v>1.428766468034965</v>
+        <v>0.3599070592536648</v>
       </c>
       <c r="M4">
-        <v>-0.9354239473217518</v>
+        <v>-0.5995230970752665</v>
       </c>
       <c r="N4">
-        <v>0.4163535238062412</v>
+        <v>0.186558219678594</v>
       </c>
       <c r="O4">
-        <v>1.006250762552922</v>
+        <v>-0.2265186156298196</v>
       </c>
       <c r="P4">
-        <v>0.0124966331499717</v>
+        <v>0.01037488530538101</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2179</v>
+        <v>2090</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.8845167867609083</v>
+        <v>0.6302041761659019</v>
       </c>
       <c r="E5">
-        <v>0.8999754084488103</v>
+        <v>0.8911937926464666</v>
       </c>
       <c r="F5">
-        <v>0.0006730040715804267</v>
+        <v>0.0003055830564086308</v>
       </c>
       <c r="G5">
-        <v>1.850873057304613</v>
+        <v>4.161251172083506</v>
       </c>
       <c r="H5">
-        <v>0.3878854024268834</v>
+        <v>0.8387097696664503</v>
       </c>
       <c r="I5">
-        <v>8.445527468081447E-62</v>
+        <v>1.578099235911064E-46</v>
       </c>
       <c r="J5">
-        <v>16.61000061035156</v>
+        <v>33.36999893188477</v>
       </c>
       <c r="K5">
-        <v>36.70000076293945</v>
+        <v>36.32701873779297</v>
       </c>
       <c r="L5">
-        <v>0.6996790737450596</v>
+        <v>2.172729034925837</v>
       </c>
       <c r="M5">
-        <v>-0.6858815104306757</v>
+        <v>-2.015844445130362</v>
       </c>
       <c r="N5">
-        <v>0.2946048849442663</v>
+        <v>0.872230043002697</v>
       </c>
       <c r="O5">
-        <v>0.5237329880472519</v>
+        <v>-1.259077758441904</v>
       </c>
       <c r="P5">
-        <v>0.0125065900232858</v>
+        <v>0.01129218349786969</v>
       </c>
       <c r="Q5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2656</v>
+        <v>2003</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.9410114103214189</v>
+        <v>0.3949788116431191</v>
       </c>
       <c r="E6">
-        <v>0.5381830753693083</v>
+        <v>0.9236620263592739</v>
       </c>
       <c r="F6">
-        <v>9.121704992734421E-05</v>
+        <v>0.0004299328265128785</v>
       </c>
       <c r="G6">
-        <v>-17.31805105589174</v>
+        <v>9.913725650077833</v>
       </c>
       <c r="H6">
-        <v>1.890152636131666</v>
+        <v>0.2578506300487052</v>
       </c>
       <c r="I6">
-        <v>1.465294053847038E-49</v>
+        <v>2.084653483187356E-41</v>
       </c>
       <c r="J6">
-        <v>19</v>
+        <v>14.02999973297119</v>
       </c>
       <c r="K6">
-        <v>18.76000022888184</v>
+        <v>14.5</v>
       </c>
       <c r="L6">
-        <v>2.165160532129907</v>
+        <v>0.5495191975752327</v>
       </c>
       <c r="M6">
-        <v>-2.696440017174407</v>
+        <v>-0.5571062682719585</v>
       </c>
       <c r="N6">
-        <v>0.8372052605098972</v>
+        <v>0.254310336491431</v>
       </c>
       <c r="O6">
-        <v>0.8587871694400846</v>
+        <v>0.3774399471871335</v>
       </c>
       <c r="P6">
-        <v>0.0125153613923161</v>
+        <v>0.01138036756494754</v>
       </c>
       <c r="Q6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1997</v>
+        <v>1274</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.3754038416085266</v>
+        <v>0.5890655747170556</v>
       </c>
       <c r="E7">
-        <v>0.8999754084488103</v>
+        <v>0.2001567588854345</v>
       </c>
       <c r="F7">
-        <v>0.0007663935983936664</v>
+        <v>0.0004338599167923019</v>
       </c>
       <c r="G7">
-        <v>5.86378731259363</v>
+        <v>-2.273843003719172</v>
       </c>
       <c r="H7">
-        <v>0.2090787161912025</v>
+        <v>0.3197647398877246</v>
       </c>
       <c r="I7">
-        <v>2.59298255078861E-37</v>
+        <v>7.407508530950874E-68</v>
       </c>
       <c r="J7">
-        <v>14.01000022888184</v>
+        <v>1.409999966621399</v>
       </c>
       <c r="K7">
-        <v>36.70000076293945</v>
+        <v>12.05000019073486</v>
       </c>
       <c r="L7">
-        <v>0.5595343936454391</v>
+        <v>0.3344087749666369</v>
       </c>
       <c r="M7">
-        <v>-0.6495663848965449</v>
+        <v>-0.2966610338927818</v>
       </c>
       <c r="N7">
-        <v>0.2664804870755338</v>
+        <v>0.133846575536533</v>
       </c>
       <c r="O7">
-        <v>0.4730238725566736</v>
+        <v>-0.1693222062967945</v>
       </c>
       <c r="P7">
-        <v>0.01273184249350421</v>
+        <v>0.0117464746258594</v>
       </c>
       <c r="Q7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1996</v>
+        <v>3129</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.3754038416085266</v>
+        <v>0.4591572953790127</v>
       </c>
       <c r="E8">
-        <v>0.8416820473451179</v>
+        <v>0.540156812530831</v>
       </c>
       <c r="F8">
-        <v>0.0008293606843960114</v>
+        <v>0.0002089339440309358</v>
       </c>
       <c r="G8">
-        <v>4.915427481693706</v>
+        <v>6.503938278511519</v>
       </c>
       <c r="H8">
-        <v>0.7835730224429973</v>
+        <v>0.4565748128364555</v>
       </c>
       <c r="I8">
-        <v>2.906215954508857E-38</v>
+        <v>1.657029571285585E-46</v>
       </c>
       <c r="J8">
-        <v>14.01000022888184</v>
+        <v>18.48999977111816</v>
       </c>
       <c r="K8">
-        <v>11.10000038146973</v>
+        <v>24.5</v>
       </c>
       <c r="L8">
-        <v>0.5896573219364321</v>
+        <v>1.423763158982293</v>
       </c>
       <c r="M8">
-        <v>-0.6661761098826791</v>
+        <v>-0.9408160188515495</v>
       </c>
       <c r="N8">
-        <v>0.2623003946866694</v>
+        <v>0.420369120110137</v>
       </c>
       <c r="O8">
-        <v>0.3969118991614735</v>
+        <v>0.7999785781134854</v>
       </c>
       <c r="P8">
-        <v>0.01305706540593132</v>
+        <v>0.01248301121914269</v>
       </c>
       <c r="Q8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>348</v>
+        <v>2179</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>0.5107853008686661</v>
+        <v>0.8688622177288399</v>
       </c>
       <c r="E9">
-        <v>0.5881558807919639</v>
+        <v>0.8911937926464666</v>
       </c>
       <c r="F9">
-        <v>0.001612933644743024</v>
+        <v>0.0006556757797170458</v>
       </c>
       <c r="G9">
-        <v>22.35056825965234</v>
+        <v>1.757815095847277</v>
       </c>
       <c r="H9">
-        <v>0.117926773400412</v>
+        <v>0.3937015955266386</v>
       </c>
       <c r="I9">
-        <v>2.831653588969709E-42</v>
+        <v>1.350224925875126E-62</v>
       </c>
       <c r="J9">
-        <v>28.25</v>
+        <v>16.54000091552734</v>
       </c>
       <c r="K9">
-        <v>46.11999893188477</v>
+        <v>36.32701873779297</v>
       </c>
       <c r="L9">
-        <v>1.110778698977423</v>
+        <v>0.6999846935827705</v>
       </c>
       <c r="M9">
-        <v>-1.232538539663121</v>
+        <v>-0.6911006146848262</v>
       </c>
       <c r="N9">
-        <v>0.4521780761479923</v>
+        <v>0.2964013269272365</v>
       </c>
       <c r="O9">
-        <v>0.4606490770800455</v>
+        <v>0.4801805818848752</v>
       </c>
       <c r="P9">
-        <v>0.01313925436648465</v>
+        <v>0.01264697461099986</v>
       </c>
       <c r="Q9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2031</v>
+        <v>2656</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>0.3754038416085266</v>
+        <v>0.9314715029071674</v>
       </c>
       <c r="E10">
-        <v>0.9648774211925721</v>
+        <v>0.4591572953790127</v>
       </c>
       <c r="F10">
-        <v>0.001867078063703478</v>
+        <v>0.0001262490474392271</v>
       </c>
       <c r="G10">
-        <v>10.1438163888144</v>
+        <v>-17.57395591969295</v>
       </c>
       <c r="H10">
-        <v>0.06325639229500399</v>
+        <v>1.905615602388854</v>
       </c>
       <c r="I10">
-        <v>1.748380192452216E-32</v>
+        <v>2.2935207722906E-50</v>
       </c>
       <c r="J10">
-        <v>14.01000022888184</v>
+        <v>18.86000061035156</v>
       </c>
       <c r="K10">
-        <v>53.59999847412109</v>
+        <v>18.48999977111816</v>
       </c>
       <c r="L10">
-        <v>0.6133529077612287</v>
+        <v>2.155863320306231</v>
       </c>
       <c r="M10">
-        <v>-0.933701167789982</v>
+        <v>-2.712992631801889</v>
       </c>
       <c r="N10">
-        <v>0.2887579478500325</v>
+        <v>0.8404728905927833</v>
       </c>
       <c r="O10">
-        <v>0.4756413095768219</v>
+        <v>1.199124478035401</v>
       </c>
       <c r="P10">
-        <v>0.01321256309043853</v>
+        <v>0.01264942839309141</v>
       </c>
       <c r="Q10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="R10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>3034</v>
+        <v>1997</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>0.4595993345843078</v>
+        <v>0.3949788116431191</v>
       </c>
       <c r="E11">
-        <v>0.4334346917635528</v>
+        <v>0.8911937926464666</v>
       </c>
       <c r="F11">
-        <v>0.0001827352201931308</v>
+        <v>0.0009743617549543164</v>
       </c>
       <c r="G11">
-        <v>5.54005176288371</v>
+        <v>5.766685323023733</v>
       </c>
       <c r="H11">
-        <v>1.667858462411486</v>
+        <v>0.21367735679176</v>
       </c>
       <c r="I11">
-        <v>5.894956668677928E-53</v>
+        <v>5.098778434699691E-38</v>
       </c>
       <c r="J11">
-        <v>44.81999969482422</v>
+        <v>14.02999973297119</v>
       </c>
       <c r="K11">
-        <v>22.3799991607666</v>
+        <v>36.32701873779297</v>
       </c>
       <c r="L11">
-        <v>5.847663659353955</v>
+        <v>0.5562222430204145</v>
       </c>
       <c r="M11">
-        <v>-5.534724866614184</v>
+        <v>-0.6521470077200036</v>
       </c>
       <c r="N11">
-        <v>1.815465032278929</v>
+        <v>0.2689507685203831</v>
       </c>
       <c r="O11">
-        <v>1.953276942893972</v>
+        <v>0.5010530659311199</v>
       </c>
       <c r="P11">
-        <v>0.01339602204533255</v>
+        <v>0.01308850175760486</v>
       </c>
       <c r="Q11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -73,40 +73,43 @@
     <t>ENEV3</t>
   </si>
   <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
     <t>BPAC11</t>
   </si>
   <si>
-    <t>CPLE6</t>
+    <t>ABEV3</t>
   </si>
   <si>
     <t>EQTL3</t>
   </si>
   <si>
-    <t>COGN3</t>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
   </si>
   <si>
     <t>TIMS3</t>
   </si>
   <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>LREN3</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
     <t>ITUB4</t>
   </si>
   <si>
     <t>MRFG3</t>
   </si>
   <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
+    <t>ITSA4</t>
   </si>
 </sst>
 </file>
@@ -534,49 +537,49 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.3949788116431191</v>
+        <v>0.4028297480524378</v>
       </c>
       <c r="E2">
-        <v>0.8688622177288399</v>
+        <v>0.8674277498306903</v>
       </c>
       <c r="F2">
-        <v>3.680181191495881E-06</v>
+        <v>2.80555730465109E-07</v>
       </c>
       <c r="G2">
-        <v>5.093848285295024</v>
+        <v>4.882067347652161</v>
       </c>
       <c r="H2">
-        <v>0.5238149673430198</v>
+        <v>0.5394193165241734</v>
       </c>
       <c r="I2">
-        <v>8.057843750477177E-44</v>
+        <v>5.632998970600767E-52</v>
       </c>
       <c r="J2">
-        <v>14.02999973297119</v>
+        <v>14</v>
       </c>
       <c r="K2">
-        <v>16.54000091552734</v>
+        <v>16.45000076293945</v>
       </c>
       <c r="L2">
-        <v>0.4168752637235471</v>
+        <v>0.4007857016960763</v>
       </c>
       <c r="M2">
-        <v>-0.9706329714985777</v>
+        <v>-0.8036898068709366</v>
       </c>
       <c r="N2">
-        <v>0.2443702676355172</v>
+        <v>0.212403891803722</v>
       </c>
       <c r="O2">
-        <v>0.2722514082556931</v>
+        <v>0.2444844839809086</v>
       </c>
       <c r="P2">
-        <v>0.009727981361560388</v>
+        <v>0.007801898359355792</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -584,7 +587,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>761</v>
+        <v>2439</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -593,43 +596,43 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>0.3191405831076065</v>
+        <v>0.1850698987638746</v>
       </c>
       <c r="E3">
-        <v>0.2269079869233788</v>
+        <v>0.2330861631051006</v>
       </c>
       <c r="F3">
-        <v>0.000116813093051586</v>
+        <v>0.002235839089373205</v>
       </c>
       <c r="G3">
-        <v>11.22396231761921</v>
+        <v>6.829716928574316</v>
       </c>
       <c r="H3">
-        <v>3.022166123016986</v>
+        <v>4.800139544234747</v>
       </c>
       <c r="I3">
-        <v>7.21132812018156E-49</v>
+        <v>3.477286293798042E-53</v>
       </c>
       <c r="J3">
-        <v>34.70999908447266</v>
+        <v>21.23999977111816</v>
       </c>
       <c r="K3">
-        <v>8.079999923706055</v>
+        <v>3.140000104904175</v>
       </c>
       <c r="L3">
-        <v>2.597688470902412</v>
+        <v>1.099830239308265</v>
       </c>
       <c r="M3">
-        <v>-2.315393170759705</v>
+        <v>-1.138282666915106</v>
       </c>
       <c r="N3">
-        <v>0.8150959926135027</v>
+        <v>0.4669862360906335</v>
       </c>
       <c r="O3">
-        <v>-0.9330652765508241</v>
+        <v>-0.6621558299079346</v>
       </c>
       <c r="P3">
-        <v>0.01009252101245477</v>
+        <v>0.009798363065908337</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -646,57 +649,57 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>0.8300998798316335</v>
+        <v>0.7754899543553226</v>
       </c>
       <c r="E4">
-        <v>0.8688622177288399</v>
+        <v>0.8674277498306903</v>
       </c>
       <c r="F4">
-        <v>0.0001532990272223092</v>
+        <v>0.0003420177547006486</v>
       </c>
       <c r="G4">
-        <v>0.6312887798341343</v>
+        <v>0.6980476539110754</v>
       </c>
       <c r="H4">
-        <v>0.6194213353826353</v>
+        <v>0.6147999770241561</v>
       </c>
       <c r="I4">
-        <v>1.547170298025507E-65</v>
+        <v>1.857832571324914E-64</v>
       </c>
       <c r="J4">
-        <v>10.64999961853027</v>
+        <v>10.52000045776367</v>
       </c>
       <c r="K4">
-        <v>16.54000091552734</v>
+        <v>16.45000076293945</v>
       </c>
       <c r="L4">
-        <v>0.3599070592536648</v>
+        <v>0.3597041616630943</v>
       </c>
       <c r="M4">
-        <v>-0.5995230970752665</v>
+        <v>-0.5967607917040425</v>
       </c>
       <c r="N4">
-        <v>0.186558219678594</v>
+        <v>0.1890960807154638</v>
       </c>
       <c r="O4">
-        <v>-0.2265186156298196</v>
+        <v>-0.2915072872499298</v>
       </c>
       <c r="P4">
-        <v>0.01037488530538101</v>
+        <v>0.01083784097256717</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2090</v>
+        <v>761</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -705,43 +708,43 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.6302041761659019</v>
+        <v>0.3150473847290876</v>
       </c>
       <c r="E5">
-        <v>0.8911937926464666</v>
+        <v>0.451113690208524</v>
       </c>
       <c r="F5">
-        <v>0.0003055830564086308</v>
+        <v>0.0004184393374490523</v>
       </c>
       <c r="G5">
-        <v>4.161251172083506</v>
+        <v>11.11307329120548</v>
       </c>
       <c r="H5">
-        <v>0.8387097696664503</v>
+        <v>3.036850921614251</v>
       </c>
       <c r="I5">
-        <v>1.578099235911064E-46</v>
+        <v>2.565530323584061E-47</v>
       </c>
       <c r="J5">
-        <v>33.36999893188477</v>
+        <v>33.33000183105469</v>
       </c>
       <c r="K5">
-        <v>36.32701873779297</v>
+        <v>7.889999866485596</v>
       </c>
       <c r="L5">
-        <v>2.172729034925837</v>
+        <v>2.596826178030327</v>
       </c>
       <c r="M5">
-        <v>-2.015844445130362</v>
+        <v>-2.315227525209167</v>
       </c>
       <c r="N5">
-        <v>0.872230043002697</v>
+        <v>0.8265165408148316</v>
       </c>
       <c r="O5">
-        <v>-1.259077758441904</v>
+        <v>-1.743824826223886</v>
       </c>
       <c r="P5">
-        <v>0.01129218349786969</v>
+        <v>0.01088783571550491</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
@@ -752,111 +755,111 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2003</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.3949788116431191</v>
+        <v>0.6492520801213018</v>
       </c>
       <c r="E6">
-        <v>0.9236620263592739</v>
+        <v>0.4882259751115708</v>
       </c>
       <c r="F6">
-        <v>0.0004299328265128785</v>
+        <v>0.0003566795571058514</v>
       </c>
       <c r="G6">
-        <v>9.913725650077833</v>
+        <v>2.259525611099811</v>
       </c>
       <c r="H6">
-        <v>0.2578506300487052</v>
+        <v>0.5777665733370758</v>
       </c>
       <c r="I6">
-        <v>2.084653483187356E-41</v>
+        <v>3.767161038515805E-54</v>
       </c>
       <c r="J6">
-        <v>14.02999973297119</v>
+        <v>12.76000022888184</v>
       </c>
       <c r="K6">
-        <v>14.5</v>
+        <v>18.72999954223633</v>
       </c>
       <c r="L6">
-        <v>0.5495191975752327</v>
+        <v>0.4573405674041204</v>
       </c>
       <c r="M6">
-        <v>-0.5571062682719585</v>
+        <v>-0.7846629228189386</v>
       </c>
       <c r="N6">
-        <v>0.254310336491431</v>
+        <v>0.2365726786607276</v>
       </c>
       <c r="O6">
-        <v>0.3774399471871335</v>
+        <v>-0.3210930363408568</v>
       </c>
       <c r="P6">
-        <v>0.01138036756494754</v>
+        <v>0.01097393536604687</v>
       </c>
       <c r="Q6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" t="s">
         <v>28</v>
-      </c>
-      <c r="R6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1274</v>
+        <v>2090</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.5890655747170556</v>
+        <v>0.610004117825207</v>
       </c>
       <c r="E7">
-        <v>0.2001567588854345</v>
+        <v>0.8608986592080714</v>
       </c>
       <c r="F7">
-        <v>0.0004338599167923019</v>
+        <v>0.0003375469943817146</v>
       </c>
       <c r="G7">
-        <v>-2.273843003719172</v>
+        <v>4.328930137999357</v>
       </c>
       <c r="H7">
-        <v>0.3197647398877246</v>
+        <v>0.8324524224870306</v>
       </c>
       <c r="I7">
-        <v>7.407508530950874E-68</v>
+        <v>1.767722831489117E-46</v>
       </c>
       <c r="J7">
-        <v>1.409999966621399</v>
+        <v>32.65000152587891</v>
       </c>
       <c r="K7">
-        <v>12.05000019073486</v>
+        <v>35.93000030517578</v>
       </c>
       <c r="L7">
-        <v>0.3344087749666369</v>
+        <v>2.212647987193829</v>
       </c>
       <c r="M7">
-        <v>-0.2966610338927818</v>
+        <v>-1.962591726404369</v>
       </c>
       <c r="N7">
-        <v>0.133846575536533</v>
+        <v>0.8663129426704017</v>
       </c>
       <c r="O7">
-        <v>-0.1693222062967945</v>
+        <v>-1.588944406123776</v>
       </c>
       <c r="P7">
-        <v>0.0117464746258594</v>
+        <v>0.01107324874207973</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
         <v>29</v>
@@ -864,170 +867,170 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>3129</v>
+        <v>2003</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.4591572953790127</v>
+        <v>0.4028297480524378</v>
       </c>
       <c r="E8">
-        <v>0.540156812530831</v>
+        <v>0.7849897825541068</v>
       </c>
       <c r="F8">
-        <v>0.0002089339440309358</v>
+        <v>0.0008422483849197924</v>
       </c>
       <c r="G8">
-        <v>6.503938278511519</v>
+        <v>9.915130002911198</v>
       </c>
       <c r="H8">
-        <v>0.4565748128364555</v>
+        <v>0.2583338599744198</v>
       </c>
       <c r="I8">
-        <v>1.657029571285585E-46</v>
+        <v>7.556720499900584E-41</v>
       </c>
       <c r="J8">
-        <v>18.48999977111816</v>
+        <v>14</v>
       </c>
       <c r="K8">
-        <v>24.5</v>
+        <v>14.26000022888184</v>
       </c>
       <c r="L8">
-        <v>1.423763158982293</v>
+        <v>0.5436981230549325</v>
       </c>
       <c r="M8">
-        <v>-0.9408160188515495</v>
+        <v>-0.5647201258350929</v>
       </c>
       <c r="N8">
-        <v>0.420369120110137</v>
+        <v>0.2559862519251349</v>
       </c>
       <c r="O8">
-        <v>0.7999785781134854</v>
+        <v>0.4010290947256481</v>
       </c>
       <c r="P8">
-        <v>0.01248301121914269</v>
+        <v>0.01191658846037738</v>
       </c>
       <c r="Q8" t="s">
         <v>30</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2179</v>
+        <v>1996</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.8688622177288399</v>
+        <v>0.4028297480524378</v>
       </c>
       <c r="E9">
-        <v>0.8911937926464666</v>
+        <v>0.8062497385166111</v>
       </c>
       <c r="F9">
-        <v>0.0006556757797170458</v>
+        <v>0.0004810112887020614</v>
       </c>
       <c r="G9">
-        <v>1.757815095847277</v>
+        <v>4.765099853028307</v>
       </c>
       <c r="H9">
-        <v>0.3937015955266386</v>
+        <v>0.8036875119837439</v>
       </c>
       <c r="I9">
-        <v>1.350224925875126E-62</v>
+        <v>1.390186915740293E-41</v>
       </c>
       <c r="J9">
-        <v>16.54000091552734</v>
+        <v>14</v>
       </c>
       <c r="K9">
-        <v>36.32701873779297</v>
+        <v>10.97000026702881</v>
       </c>
       <c r="L9">
-        <v>0.6999846935827705</v>
+        <v>0.572290389996633</v>
       </c>
       <c r="M9">
-        <v>-0.6911006146848262</v>
+        <v>-0.6900318647285779</v>
       </c>
       <c r="N9">
-        <v>0.2964013269272365</v>
+        <v>0.2528504148068533</v>
       </c>
       <c r="O9">
-        <v>0.4801805818848752</v>
+        <v>0.4184479259023046</v>
       </c>
       <c r="P9">
-        <v>0.01264697461099986</v>
+        <v>0.01216090216686524</v>
       </c>
       <c r="Q9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2656</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>0.9314715029071674</v>
+        <v>0.429953174394471</v>
       </c>
       <c r="E10">
-        <v>0.4591572953790127</v>
+        <v>0.451113690208524</v>
       </c>
       <c r="F10">
-        <v>0.0001262490474392271</v>
+        <v>0.0006974179625494354</v>
       </c>
       <c r="G10">
-        <v>-17.57395591969295</v>
+        <v>1.513258500960502</v>
       </c>
       <c r="H10">
-        <v>1.905615602388854</v>
+        <v>1.333524124783334</v>
       </c>
       <c r="I10">
-        <v>2.2935207722906E-50</v>
+        <v>8.780247127581442E-52</v>
       </c>
       <c r="J10">
-        <v>18.86000061035156</v>
+        <v>11.60000038146973</v>
       </c>
       <c r="K10">
-        <v>18.48999977111816</v>
+        <v>7.889999866485596</v>
       </c>
       <c r="L10">
-        <v>2.155863320306231</v>
+        <v>0.9852816265373594</v>
       </c>
       <c r="M10">
-        <v>-2.712992631801889</v>
+        <v>-0.6574980535253321</v>
       </c>
       <c r="N10">
-        <v>0.8404728905927833</v>
+        <v>0.3304325938877381</v>
       </c>
       <c r="O10">
-        <v>1.199124478035401</v>
+        <v>-0.4347632859866017</v>
       </c>
       <c r="P10">
-        <v>0.01264942839309141</v>
+        <v>0.01216097401633187</v>
       </c>
       <c r="Q10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1038,49 +1041,49 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>0.3949788116431191</v>
+        <v>0.4028297480524378</v>
       </c>
       <c r="E11">
-        <v>0.8911937926464666</v>
+        <v>0.8608986592080714</v>
       </c>
       <c r="F11">
-        <v>0.0009743617549543164</v>
+        <v>0.0008791316513353579</v>
       </c>
       <c r="G11">
-        <v>5.766685323023733</v>
+        <v>5.719967755419291</v>
       </c>
       <c r="H11">
-        <v>0.21367735679176</v>
+        <v>0.2155761913365179</v>
       </c>
       <c r="I11">
-        <v>5.098778434699691E-38</v>
+        <v>8.834917874245899E-40</v>
       </c>
       <c r="J11">
-        <v>14.02999973297119</v>
+        <v>14</v>
       </c>
       <c r="K11">
-        <v>36.32701873779297</v>
+        <v>35.93000030517578</v>
       </c>
       <c r="L11">
-        <v>0.5562222430204145</v>
+        <v>0.5399606730699897</v>
       </c>
       <c r="M11">
-        <v>-0.6521470077200036</v>
+        <v>-0.5617699266573624</v>
       </c>
       <c r="N11">
-        <v>0.2689507685203831</v>
+        <v>0.260609524511093</v>
       </c>
       <c r="O11">
-        <v>0.5010530659311199</v>
+        <v>0.534379624070989</v>
       </c>
       <c r="P11">
-        <v>0.01308850175760486</v>
+        <v>0.01245270680912179</v>
       </c>
       <c r="Q11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R11" t="s">
         <v>18</v>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -73,43 +73,43 @@
     <t>ENEV3</t>
   </si>
   <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
     <t>CPLE6</t>
   </si>
   <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
     <t>BPAC11</t>
   </si>
   <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>RENT3</t>
   </si>
   <si>
     <t>FLRY3</t>
   </si>
   <si>
-    <t>RAIZ4</t>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
   </si>
   <si>
     <t>DXCO3</t>
   </si>
   <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
     <t>ITSA4</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>UGPA3</t>
   </si>
 </sst>
 </file>
@@ -540,43 +540,43 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>0.4028297480524378</v>
+        <v>0.3977410979137714</v>
       </c>
       <c r="E2">
-        <v>0.8674277498306903</v>
+        <v>0.7971879623247584</v>
       </c>
       <c r="F2">
-        <v>2.80555730465109E-07</v>
+        <v>6.34162246189817E-06</v>
       </c>
       <c r="G2">
-        <v>4.882067347652161</v>
+        <v>4.798743966188127</v>
       </c>
       <c r="H2">
-        <v>0.5394193165241734</v>
+        <v>0.545549243348428</v>
       </c>
       <c r="I2">
-        <v>5.632998970600767E-52</v>
+        <v>2.833150547136084E-55</v>
       </c>
       <c r="J2">
-        <v>14</v>
+        <v>13.85000038146973</v>
       </c>
       <c r="K2">
-        <v>16.45000076293945</v>
+        <v>16.10000038146973</v>
       </c>
       <c r="L2">
-        <v>0.4007857016960763</v>
+        <v>0.3983644594698852</v>
       </c>
       <c r="M2">
-        <v>-0.8036898068709366</v>
+        <v>-0.5738368018086781</v>
       </c>
       <c r="N2">
-        <v>0.212403891803722</v>
+        <v>0.2023826220092103</v>
       </c>
       <c r="O2">
-        <v>0.2444844839809086</v>
+        <v>0.2679133892613876</v>
       </c>
       <c r="P2">
-        <v>0.007801898359355792</v>
+        <v>0.008309497709591511</v>
       </c>
       <c r="Q2" t="s">
         <v>25</v>
@@ -587,335 +587,335 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2439</v>
+        <v>1405</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>0.1850698987638746</v>
+        <v>0.6503162755240548</v>
       </c>
       <c r="E3">
-        <v>0.2330861631051006</v>
+        <v>0.7971879623247584</v>
       </c>
       <c r="F3">
-        <v>0.002235839089373205</v>
+        <v>0.0001796932991701765</v>
       </c>
       <c r="G3">
-        <v>6.829716928574316</v>
+        <v>0.7477038243058152</v>
       </c>
       <c r="H3">
-        <v>4.800139544234747</v>
+        <v>0.6113033206529711</v>
       </c>
       <c r="I3">
-        <v>3.477286293798042E-53</v>
+        <v>3.044098503523701E-64</v>
       </c>
       <c r="J3">
-        <v>21.23999977111816</v>
+        <v>10.34000015258789</v>
       </c>
       <c r="K3">
-        <v>3.140000104904175</v>
+        <v>16.10000038146973</v>
       </c>
       <c r="L3">
-        <v>1.099830239308265</v>
+        <v>0.3604062109018749</v>
       </c>
       <c r="M3">
-        <v>-1.138282666915106</v>
+        <v>-0.5938151822338398</v>
       </c>
       <c r="N3">
-        <v>0.4669862360906335</v>
+        <v>0.1902175913475358</v>
       </c>
       <c r="O3">
-        <v>-0.6621558299079346</v>
+        <v>-0.2496873674244711</v>
       </c>
       <c r="P3">
-        <v>0.009798363065908337</v>
+        <v>0.01079592962837734</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1405</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>0.7754899543553226</v>
+        <v>0.58986925995379</v>
       </c>
       <c r="E4">
-        <v>0.8674277498306903</v>
+        <v>0.5779306953525732</v>
       </c>
       <c r="F4">
-        <v>0.0003420177547006486</v>
+        <v>0.0004582364482298347</v>
       </c>
       <c r="G4">
-        <v>0.6980476539110754</v>
+        <v>2.346782270524924</v>
       </c>
       <c r="H4">
-        <v>0.6147999770241561</v>
+        <v>0.5763023775689442</v>
       </c>
       <c r="I4">
-        <v>1.857832571324914E-64</v>
+        <v>7.273050274358834E-54</v>
       </c>
       <c r="J4">
-        <v>10.52000045776367</v>
+        <v>12.75</v>
       </c>
       <c r="K4">
-        <v>16.45000076293945</v>
+        <v>18.60605430603027</v>
       </c>
       <c r="L4">
-        <v>0.3597041616630943</v>
+        <v>0.464293850550515</v>
       </c>
       <c r="M4">
-        <v>-0.5967607917040425</v>
+        <v>-0.7796096637731207</v>
       </c>
       <c r="N4">
-        <v>0.1890960807154638</v>
+        <v>0.237998488807704</v>
       </c>
       <c r="O4">
-        <v>-0.2915072872499298</v>
+        <v>-0.3194956042670629</v>
       </c>
       <c r="P4">
-        <v>0.01083784097256717</v>
+        <v>0.01124561988922709</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>761</v>
+        <v>2090</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>0.3150473847290876</v>
+        <v>0.5975979477762599</v>
       </c>
       <c r="E5">
-        <v>0.451113690208524</v>
+        <v>0.7871203258588926</v>
       </c>
       <c r="F5">
-        <v>0.0004184393374490523</v>
+        <v>0.0004680916204404483</v>
       </c>
       <c r="G5">
-        <v>11.11307329120548</v>
+        <v>4.508482763217931</v>
       </c>
       <c r="H5">
-        <v>3.036850921614251</v>
+        <v>0.8264166422744527</v>
       </c>
       <c r="I5">
-        <v>2.565530323584061E-47</v>
+        <v>2.534551812187386E-46</v>
       </c>
       <c r="J5">
-        <v>33.33000183105469</v>
+        <v>32.5</v>
       </c>
       <c r="K5">
-        <v>7.889999866485596</v>
+        <v>35.72000122070312</v>
       </c>
       <c r="L5">
-        <v>2.596826178030327</v>
+        <v>2.233348665540909</v>
       </c>
       <c r="M5">
-        <v>-2.315227525209167</v>
+        <v>-1.929035656794795</v>
       </c>
       <c r="N5">
-        <v>0.8265165408148316</v>
+        <v>0.8675900203390016</v>
       </c>
       <c r="O5">
-        <v>-1.743824826223886</v>
+        <v>-1.528086234070756</v>
       </c>
       <c r="P5">
-        <v>0.01088783571550491</v>
+        <v>0.01130307309181341</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>71</v>
+        <v>2003</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.6492520801213018</v>
+        <v>0.3977410979137714</v>
       </c>
       <c r="E6">
-        <v>0.4882259751115708</v>
+        <v>0.7620154433151238</v>
       </c>
       <c r="F6">
-        <v>0.0003566795571058514</v>
+        <v>0.0008439563040337637</v>
       </c>
       <c r="G6">
-        <v>2.259525611099811</v>
+        <v>9.904778349217825</v>
       </c>
       <c r="H6">
-        <v>0.5777665733370758</v>
+        <v>0.2595157187694044</v>
       </c>
       <c r="I6">
-        <v>3.767161038515805E-54</v>
+        <v>4.562782758051616E-41</v>
       </c>
       <c r="J6">
-        <v>12.76000022888184</v>
+        <v>13.85000038146973</v>
       </c>
       <c r="K6">
-        <v>18.72999954223633</v>
+        <v>14.06999969482422</v>
       </c>
       <c r="L6">
-        <v>0.4573405674041204</v>
+        <v>0.5432475869563866</v>
       </c>
       <c r="M6">
-        <v>-0.7846629228189386</v>
+        <v>-0.569555358108115</v>
       </c>
       <c r="N6">
-        <v>0.2365726786607276</v>
+        <v>0.256845510030452</v>
       </c>
       <c r="O6">
-        <v>-0.3210930363408568</v>
+        <v>0.2938359483642943</v>
       </c>
       <c r="P6">
-        <v>0.01097393536604687</v>
+        <v>0.01208635274056736</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="R6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2090</v>
+        <v>761</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.610004117825207</v>
+        <v>0.3208735219613588</v>
       </c>
       <c r="E7">
-        <v>0.8608986592080714</v>
+        <v>0.3606589663776209</v>
       </c>
       <c r="F7">
-        <v>0.0003375469943817146</v>
+        <v>0.001453786459838794</v>
       </c>
       <c r="G7">
-        <v>4.328930137999357</v>
+        <v>11.25265105339185</v>
       </c>
       <c r="H7">
-        <v>0.8324524224870306</v>
+        <v>3.015366596061709</v>
       </c>
       <c r="I7">
-        <v>1.767722831489117E-46</v>
+        <v>2.643615727894156E-46</v>
       </c>
       <c r="J7">
-        <v>32.65000152587891</v>
+        <v>32.79000091552734</v>
       </c>
       <c r="K7">
-        <v>35.93000030517578</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="L7">
-        <v>2.212647987193829</v>
+        <v>2.620744136167261</v>
       </c>
       <c r="M7">
-        <v>-1.962591726404369</v>
+        <v>-2.292813473548939</v>
       </c>
       <c r="N7">
-        <v>0.8663129426704017</v>
+        <v>0.8397324108028721</v>
       </c>
       <c r="O7">
-        <v>-1.588944406123776</v>
+        <v>-1.952355806158113</v>
       </c>
       <c r="P7">
-        <v>0.01107324874207973</v>
+        <v>0.01212220093752356</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.4028297480524378</v>
+        <v>0.3977410979137714</v>
       </c>
       <c r="E8">
-        <v>0.7849897825541068</v>
+        <v>0.7819243888387667</v>
       </c>
       <c r="F8">
-        <v>0.0008422483849197924</v>
+        <v>0.0006446867983960613</v>
       </c>
       <c r="G8">
-        <v>9.915130002911198</v>
+        <v>4.715261014895534</v>
       </c>
       <c r="H8">
-        <v>0.2583338599744198</v>
+        <v>0.809266149403035</v>
       </c>
       <c r="I8">
-        <v>7.556720499900584E-41</v>
+        <v>6.784533609632657E-43</v>
       </c>
       <c r="J8">
-        <v>14</v>
+        <v>13.85000038146973</v>
       </c>
       <c r="K8">
-        <v>14.26000022888184</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="L8">
-        <v>0.5436981230549325</v>
+        <v>0.5660948101014274</v>
       </c>
       <c r="M8">
-        <v>-0.5647201258350929</v>
+        <v>-0.6983945971403394</v>
       </c>
       <c r="N8">
-        <v>0.2559862519251349</v>
+        <v>0.2490946495650154</v>
       </c>
       <c r="O8">
-        <v>0.4010290947256481</v>
+        <v>0.3137386467916485</v>
       </c>
       <c r="P8">
-        <v>0.01191658846037738</v>
+        <v>0.01224353179325866</v>
       </c>
       <c r="Q8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R8" t="s">
         <v>18</v>
@@ -923,55 +923,55 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>0.4028297480524378</v>
+        <v>0.3977410979137714</v>
       </c>
       <c r="E9">
-        <v>0.8062497385166111</v>
+        <v>0.7871203258588926</v>
       </c>
       <c r="F9">
-        <v>0.0004810112887020614</v>
+        <v>0.00114168724276268</v>
       </c>
       <c r="G9">
-        <v>4.765099853028307</v>
+        <v>5.675873722192454</v>
       </c>
       <c r="H9">
-        <v>0.8036875119837439</v>
+        <v>0.2171131896371434</v>
       </c>
       <c r="I9">
-        <v>1.390186915740293E-41</v>
+        <v>1.230131637280539E-40</v>
       </c>
       <c r="J9">
-        <v>14</v>
+        <v>13.85000038146973</v>
       </c>
       <c r="K9">
-        <v>10.97000026702881</v>
+        <v>35.72000122070312</v>
       </c>
       <c r="L9">
-        <v>0.572290389996633</v>
+        <v>0.5330766852449571</v>
       </c>
       <c r="M9">
-        <v>-0.6900318647285779</v>
+        <v>-0.5697365410488757</v>
       </c>
       <c r="N9">
-        <v>0.2528504148068533</v>
+        <v>0.2587066902277693</v>
       </c>
       <c r="O9">
-        <v>0.4184479259023046</v>
+        <v>0.4188432604077637</v>
       </c>
       <c r="P9">
-        <v>0.01216090216686524</v>
+        <v>0.01264744187269216</v>
       </c>
       <c r="Q9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="R9" t="s">
         <v>18</v>
@@ -979,114 +979,114 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>257</v>
+        <v>3129</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>0.429953174394471</v>
+        <v>0.5779306953525732</v>
       </c>
       <c r="E10">
-        <v>0.451113690208524</v>
+        <v>0.659984894331141</v>
       </c>
       <c r="F10">
-        <v>0.0006974179625494354</v>
+        <v>0.009031445938169002</v>
       </c>
       <c r="G10">
-        <v>1.513258500960502</v>
+        <v>6.24922302061362</v>
       </c>
       <c r="H10">
-        <v>1.333524124783334</v>
+        <v>0.4679652356928378</v>
       </c>
       <c r="I10">
-        <v>8.780247127581442E-52</v>
+        <v>1.894089878148657E-45</v>
       </c>
       <c r="J10">
-        <v>11.60000038146973</v>
+        <v>18.60605430603027</v>
       </c>
       <c r="K10">
-        <v>7.889999866485596</v>
+        <v>23.54586219787598</v>
       </c>
       <c r="L10">
-        <v>0.9852816265373594</v>
+        <v>1.401052017096617</v>
       </c>
       <c r="M10">
-        <v>-0.6574980535253321</v>
+        <v>-0.9493912280454566</v>
       </c>
       <c r="N10">
-        <v>0.3304325938877381</v>
+        <v>0.4322303091180507</v>
       </c>
       <c r="O10">
-        <v>-0.4347632859866017</v>
+        <v>1.338186332396543</v>
       </c>
       <c r="P10">
-        <v>0.01216097401633187</v>
+        <v>0.01355615106931654</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="R10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1997</v>
+        <v>3034</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.4028297480524378</v>
+        <v>0.4860689953727442</v>
       </c>
       <c r="E11">
-        <v>0.8608986592080714</v>
+        <v>0.5817375694608385</v>
       </c>
       <c r="F11">
-        <v>0.0008791316513353579</v>
+        <v>0.0003311866457044572</v>
       </c>
       <c r="G11">
-        <v>5.719967755419291</v>
+        <v>4.907644950258856</v>
       </c>
       <c r="H11">
-        <v>0.2155761913365179</v>
+        <v>1.698291748513882</v>
       </c>
       <c r="I11">
-        <v>8.834917874245899E-40</v>
+        <v>1.544592592793557E-52</v>
       </c>
       <c r="J11">
-        <v>14</v>
+        <v>42.70999908447266</v>
       </c>
       <c r="K11">
-        <v>35.93000030517578</v>
+        <v>21.11000061035156</v>
       </c>
       <c r="L11">
-        <v>0.5399606730699897</v>
+        <v>5.803432832473241</v>
       </c>
       <c r="M11">
-        <v>-0.5617699266573624</v>
+        <v>-5.617500277395628</v>
       </c>
       <c r="N11">
-        <v>0.260609524511093</v>
+        <v>1.796771411005081</v>
       </c>
       <c r="O11">
-        <v>0.534379624070989</v>
+        <v>1.951414286530728</v>
       </c>
       <c r="P11">
-        <v>0.01245270680912179</v>
+        <v>0.01371299548606582</v>
       </c>
       <c r="Q11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -70,46 +70,55 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>EZTC3</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
     <t>ENEV3</t>
   </si>
   <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
   </si>
   <si>
     <t>TIMS3</t>
   </si>
   <si>
-    <t>RENT3</t>
-  </si>
-  <si>
     <t>FLRY3</t>
   </si>
   <si>
     <t>ITUB4</t>
   </si>
   <si>
+    <t>ITSA4</t>
+  </si>
+  <si>
     <t>MRFG3</t>
   </si>
   <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>NTCO3</t>
   </si>
 </sst>
 </file>
@@ -531,55 +540,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1988</v>
+        <v>1158</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.3977410979137714</v>
+        <v>0.8699960320991498</v>
       </c>
       <c r="E2">
-        <v>0.7971879623247584</v>
+        <v>0.6893048319253574</v>
       </c>
       <c r="F2">
-        <v>6.34162246189817E-06</v>
+        <v>9.12559287163963E-05</v>
       </c>
       <c r="G2">
-        <v>4.798743966188127</v>
+        <v>3.286316123738071</v>
       </c>
       <c r="H2">
-        <v>0.545549243348428</v>
+        <v>0.1540924134907243</v>
       </c>
       <c r="I2">
-        <v>2.833150547136084E-55</v>
+        <v>9.968752100703833E-70</v>
       </c>
       <c r="J2">
-        <v>13.85000038146973</v>
+        <v>11.32999992370605</v>
       </c>
       <c r="K2">
-        <v>16.10000038146973</v>
+        <v>50.0099983215332</v>
       </c>
       <c r="L2">
-        <v>0.3983644594698852</v>
+        <v>0.7162955284855492</v>
       </c>
       <c r="M2">
-        <v>-0.5738368018086781</v>
+        <v>-0.8212601717197021</v>
       </c>
       <c r="N2">
-        <v>0.2023826220092103</v>
+        <v>0.304213677031094</v>
       </c>
       <c r="O2">
-        <v>0.2679133892613876</v>
+        <v>0.3375224599358591</v>
       </c>
       <c r="P2">
-        <v>0.008309497709591511</v>
+        <v>0.009777414426748149</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -587,58 +596,58 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1405</v>
+        <v>2152</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.6503162755240548</v>
+        <v>0.1012942072471593</v>
       </c>
       <c r="E3">
-        <v>0.7971879623247584</v>
+        <v>0.1904554853402612</v>
       </c>
       <c r="F3">
-        <v>0.0001796932991701765</v>
+        <v>0.009047200035213724</v>
       </c>
       <c r="G3">
-        <v>0.7477038243058152</v>
+        <v>0.4853088059915793</v>
       </c>
       <c r="H3">
-        <v>0.6113033206529711</v>
+        <v>4.404530743087584</v>
       </c>
       <c r="I3">
-        <v>3.044098503523701E-64</v>
+        <v>3.22969175981273E-41</v>
       </c>
       <c r="J3">
-        <v>10.34000015258789</v>
+        <v>13.32999992370605</v>
       </c>
       <c r="K3">
-        <v>16.10000038146973</v>
+        <v>3.099999904632568</v>
       </c>
       <c r="L3">
-        <v>0.3604062109018749</v>
+        <v>1.105160384028066</v>
       </c>
       <c r="M3">
-        <v>-0.5938151822338398</v>
+        <v>-1.566668105642425</v>
       </c>
       <c r="N3">
-        <v>0.1902175913475358</v>
+        <v>0.5421340694429813</v>
       </c>
       <c r="O3">
-        <v>-0.2496873674244711</v>
+        <v>-0.8093537658082504</v>
       </c>
       <c r="P3">
-        <v>0.01079592962837734</v>
+        <v>0.01115328458391512</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -649,385 +658,385 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.58986925995379</v>
+        <v>0.6076668873822972</v>
       </c>
       <c r="E4">
-        <v>0.5779306953525732</v>
+        <v>0.5858981720828764</v>
       </c>
       <c r="F4">
-        <v>0.0004582364482298347</v>
+        <v>0.0004284910787814914</v>
       </c>
       <c r="G4">
-        <v>2.346782270524924</v>
+        <v>2.465980509856127</v>
       </c>
       <c r="H4">
-        <v>0.5763023775689442</v>
+        <v>0.5690858621746591</v>
       </c>
       <c r="I4">
-        <v>7.273050274358834E-54</v>
+        <v>3.3045386686821E-53</v>
       </c>
       <c r="J4">
-        <v>12.75</v>
+        <v>12.76000022888184</v>
       </c>
       <c r="K4">
-        <v>18.60605430603027</v>
+        <v>18.79000091552734</v>
       </c>
       <c r="L4">
-        <v>0.464293850550515</v>
+        <v>0.4738905723540316</v>
       </c>
       <c r="M4">
-        <v>-0.7796096637731207</v>
+        <v>-0.7734262887199996</v>
       </c>
       <c r="N4">
-        <v>0.237998488807704</v>
+        <v>0.2403624858744257</v>
       </c>
       <c r="O4">
-        <v>-0.3194956042670629</v>
+        <v>-0.3991041522498033</v>
       </c>
       <c r="P4">
-        <v>0.01124561988922709</v>
+        <v>0.01152084568030289</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2090</v>
+        <v>1405</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.5975979477762599</v>
+        <v>0.6633518054267833</v>
       </c>
       <c r="E5">
-        <v>0.7871203258588926</v>
+        <v>0.7952794490212458</v>
       </c>
       <c r="F5">
-        <v>0.0004680916204404483</v>
+        <v>0.0006134419362979716</v>
       </c>
       <c r="G5">
-        <v>4.508482763217931</v>
+        <v>0.7985359741294795</v>
       </c>
       <c r="H5">
-        <v>0.8264166422744527</v>
+        <v>0.6075682693804094</v>
       </c>
       <c r="I5">
-        <v>2.534551812187386E-46</v>
+        <v>1.603991525018392E-64</v>
       </c>
       <c r="J5">
-        <v>32.5</v>
+        <v>10.27999973297119</v>
       </c>
       <c r="K5">
-        <v>35.72000122070312</v>
+        <v>16.09000015258789</v>
       </c>
       <c r="L5">
-        <v>2.233348665540909</v>
+        <v>0.3633650220189537</v>
       </c>
       <c r="M5">
-        <v>-1.929035656794795</v>
+        <v>-0.5884592701013425</v>
       </c>
       <c r="N5">
-        <v>0.8675900203390016</v>
+        <v>0.1894953995384465</v>
       </c>
       <c r="O5">
-        <v>-1.528086234070756</v>
+        <v>-0.2943097881966352</v>
       </c>
       <c r="P5">
-        <v>0.01130307309181341</v>
+        <v>0.0115433628944568</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2003</v>
+        <v>2090</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.3977410979137714</v>
+        <v>0.6120902436788779</v>
       </c>
       <c r="E6">
-        <v>0.7620154433151238</v>
+        <v>0.7892828220863363</v>
       </c>
       <c r="F6">
-        <v>0.0008439563040337637</v>
+        <v>0.0006095981188837673</v>
       </c>
       <c r="G6">
-        <v>9.904778349217825</v>
+        <v>4.695533850362072</v>
       </c>
       <c r="H6">
-        <v>0.2595157187694044</v>
+        <v>0.8202548540099215</v>
       </c>
       <c r="I6">
-        <v>4.562782758051616E-41</v>
+        <v>4.704770238885399E-46</v>
       </c>
       <c r="J6">
-        <v>13.85000038146973</v>
+        <v>32.58000183105469</v>
       </c>
       <c r="K6">
-        <v>14.06999969482422</v>
+        <v>35.70999908447266</v>
       </c>
       <c r="L6">
-        <v>0.5432475869563866</v>
+        <v>2.250725168400969</v>
       </c>
       <c r="M6">
-        <v>-0.569555358108115</v>
+        <v>-1.916544990831532</v>
       </c>
       <c r="N6">
-        <v>0.256845510030452</v>
+        <v>0.8707521728006956</v>
       </c>
       <c r="O6">
-        <v>0.2938359483642943</v>
+        <v>-1.406832105035932</v>
       </c>
       <c r="P6">
-        <v>0.01208635274056736</v>
+        <v>0.01154431681842999</v>
       </c>
       <c r="Q6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>761</v>
+        <v>1996</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>0.3208735219613588</v>
+        <v>0.4511766972950835</v>
       </c>
       <c r="E7">
-        <v>0.3606589663776209</v>
+        <v>0.7872658173488168</v>
       </c>
       <c r="F7">
-        <v>0.001453786459838794</v>
+        <v>0.0004405378088886967</v>
       </c>
       <c r="G7">
-        <v>11.25265105339185</v>
+        <v>4.62338355493177</v>
       </c>
       <c r="H7">
-        <v>3.015366596061709</v>
+        <v>0.8189812169279005</v>
       </c>
       <c r="I7">
-        <v>2.643615727894156E-46</v>
+        <v>1.050245369044098E-43</v>
       </c>
       <c r="J7">
-        <v>32.79000091552734</v>
+        <v>14.02000045776367</v>
       </c>
       <c r="K7">
-        <v>7.789999961853027</v>
+        <v>10.90999984741211</v>
       </c>
       <c r="L7">
-        <v>2.620744136167261</v>
+        <v>0.5603896322375608</v>
       </c>
       <c r="M7">
-        <v>-2.292813473548939</v>
+        <v>-0.7078751555541842</v>
       </c>
       <c r="N7">
-        <v>0.8397324108028721</v>
+        <v>0.2494841115745482</v>
       </c>
       <c r="O7">
-        <v>-1.952355806158113</v>
+        <v>0.4615319511151235</v>
       </c>
       <c r="P7">
-        <v>0.01212220093752356</v>
+        <v>0.01193666010398413</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1996</v>
+        <v>1274</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>0.3977410979137714</v>
+        <v>0.4032518287094903</v>
       </c>
       <c r="E8">
-        <v>0.7819243888387667</v>
+        <v>0.2130812753357135</v>
       </c>
       <c r="F8">
-        <v>0.0006446867983960613</v>
+        <v>0.001370628840635161</v>
       </c>
       <c r="G8">
-        <v>4.715261014895534</v>
+        <v>-2.321734278713381</v>
       </c>
       <c r="H8">
-        <v>0.809266149403035</v>
+        <v>0.3234173554135698</v>
       </c>
       <c r="I8">
-        <v>6.784533609632657E-43</v>
+        <v>1.061997591815731E-63</v>
       </c>
       <c r="J8">
-        <v>13.85000038146973</v>
+        <v>1.320000052452087</v>
       </c>
       <c r="K8">
-        <v>10.89999961853027</v>
+        <v>12.11999988555908</v>
       </c>
       <c r="L8">
-        <v>0.5660948101014274</v>
+        <v>0.328048111488803</v>
       </c>
       <c r="M8">
-        <v>-0.6983945971403394</v>
+        <v>-0.3052042530257539</v>
       </c>
       <c r="N8">
-        <v>0.2490946495650154</v>
+        <v>0.1347059406156368</v>
       </c>
       <c r="O8">
-        <v>0.3137386467916485</v>
+        <v>-0.2780839794348182</v>
       </c>
       <c r="P8">
-        <v>0.01224353179325866</v>
+        <v>0.01225726496470512</v>
       </c>
       <c r="Q8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.3977410979137714</v>
+        <v>0.4511766972950835</v>
       </c>
       <c r="E9">
-        <v>0.7871203258588926</v>
+        <v>0.8492902014360278</v>
       </c>
       <c r="F9">
-        <v>0.00114168724276268</v>
+        <v>0.00169187133016607</v>
       </c>
       <c r="G9">
-        <v>5.675873722192454</v>
+        <v>9.865324462979398</v>
       </c>
       <c r="H9">
-        <v>0.2171131896371434</v>
+        <v>0.2631640280705715</v>
       </c>
       <c r="I9">
-        <v>1.230131637280539E-40</v>
+        <v>3.38726371657794E-41</v>
       </c>
       <c r="J9">
-        <v>13.85000038146973</v>
+        <v>14.02000045776367</v>
       </c>
       <c r="K9">
-        <v>35.72000122070312</v>
+        <v>13.89999961853027</v>
       </c>
       <c r="L9">
-        <v>0.5330766852449571</v>
+        <v>0.5493559249295981</v>
       </c>
       <c r="M9">
-        <v>-0.5697365410488757</v>
+        <v>-0.5769822477814071</v>
       </c>
       <c r="N9">
-        <v>0.2587066902277693</v>
+        <v>0.2602008307685899</v>
       </c>
       <c r="O9">
-        <v>0.4188432604077637</v>
+        <v>0.4966961049924392</v>
       </c>
       <c r="P9">
-        <v>0.01264744187269216</v>
+        <v>0.012579348932814</v>
       </c>
       <c r="Q9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>3129</v>
+        <v>2031</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0.5779306953525732</v>
+        <v>0.4511766972950835</v>
       </c>
       <c r="E10">
-        <v>0.659984894331141</v>
+        <v>0.9813692135026812</v>
       </c>
       <c r="F10">
-        <v>0.009031445938169002</v>
+        <v>0.002745934640021899</v>
       </c>
       <c r="G10">
-        <v>6.24922302061362</v>
+        <v>10.07140204496113</v>
       </c>
       <c r="H10">
-        <v>0.4679652356928378</v>
+        <v>0.06533718553659293</v>
       </c>
       <c r="I10">
-        <v>1.894089878148657E-45</v>
+        <v>1.184302512624274E-33</v>
       </c>
       <c r="J10">
-        <v>18.60605430603027</v>
+        <v>14.02000045776367</v>
       </c>
       <c r="K10">
-        <v>23.54586219787598</v>
+        <v>55.38999938964844</v>
       </c>
       <c r="L10">
-        <v>1.401052017096617</v>
+        <v>0.574819356607982</v>
       </c>
       <c r="M10">
-        <v>-0.9493912280454566</v>
+        <v>-0.9708220252436899</v>
       </c>
       <c r="N10">
-        <v>0.4322303091180507</v>
+        <v>0.2952571553031315</v>
       </c>
       <c r="O10">
-        <v>1.338186332396543</v>
+        <v>0.3295717458093157</v>
       </c>
       <c r="P10">
-        <v>0.01355615106931654</v>
+        <v>0.01394148070869307</v>
       </c>
       <c r="Q10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R10" t="s">
         <v>23</v>
@@ -1035,58 +1044,58 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>3034</v>
+        <v>1594</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>0.4860689953727442</v>
+        <v>0.2130812753357135</v>
       </c>
       <c r="E11">
-        <v>0.5817375694608385</v>
+        <v>0.6493256824170651</v>
       </c>
       <c r="F11">
-        <v>0.0003311866457044572</v>
+        <v>0.0008941461966579339</v>
       </c>
       <c r="G11">
-        <v>4.907644950258856</v>
+        <v>2.019595937320354</v>
       </c>
       <c r="H11">
-        <v>1.698291748513882</v>
+        <v>0.6948300041624624</v>
       </c>
       <c r="I11">
-        <v>1.544592592793557E-52</v>
+        <v>1.342665173249806E-41</v>
       </c>
       <c r="J11">
-        <v>42.70999908447266</v>
+        <v>12.11999988555908</v>
       </c>
       <c r="K11">
-        <v>21.11000061035156</v>
+        <v>13.53999996185303</v>
       </c>
       <c r="L11">
-        <v>5.803432832473241</v>
+        <v>1.61511537623894</v>
       </c>
       <c r="M11">
-        <v>-5.617500277395628</v>
+        <v>-1.815136802844458</v>
       </c>
       <c r="N11">
-        <v>1.796771411005081</v>
+        <v>0.564496032621301</v>
       </c>
       <c r="O11">
-        <v>1.951414286530728</v>
+        <v>0.6924057183846486</v>
       </c>
       <c r="P11">
-        <v>0.01371299548606582</v>
+        <v>0.01417747439926907</v>
       </c>
       <c r="Q11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -73,52 +73,43 @@
     <t>CMIG4</t>
   </si>
   <si>
-    <t>EZTC3</t>
+    <t>ENEV3</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
   </si>
   <si>
     <t>ABEV3</t>
   </si>
   <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
     <t>EQTL3</t>
   </si>
   <si>
-    <t>ENEV3</t>
-  </si>
-  <si>
-    <t>COGN3</t>
-  </si>
-  <si>
     <t>CSNA3</t>
   </si>
   <si>
     <t>EMBR3</t>
   </si>
   <si>
-    <t>RAIZ4</t>
+    <t>ITSA4</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
   </si>
   <si>
     <t>TIMS3</t>
   </si>
   <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
     <t>ITUB4</t>
   </si>
   <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
     <t>MRFG3</t>
   </si>
   <si>
-    <t>WEGE3</t>
-  </si>
-  <si>
-    <t>NTCO3</t>
+    <t>LREN3</t>
+  </si>
+  <si>
+    <t>USIM5</t>
   </si>
 </sst>
 </file>
@@ -546,49 +537,49 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>0.8699960320991498</v>
+        <v>0.8673548969544302</v>
       </c>
       <c r="E2">
-        <v>0.6893048319253574</v>
+        <v>0.6931150435294533</v>
       </c>
       <c r="F2">
-        <v>9.12559287163963E-05</v>
+        <v>8.384762104995183E-05</v>
       </c>
       <c r="G2">
-        <v>3.286316123738071</v>
+        <v>3.259146593147772</v>
       </c>
       <c r="H2">
-        <v>0.1540924134907243</v>
+        <v>0.1548552778743035</v>
       </c>
       <c r="I2">
-        <v>9.968752100703833E-70</v>
+        <v>5.040579676238127E-71</v>
       </c>
       <c r="J2">
-        <v>11.32999992370605</v>
+        <v>11.34000015258789</v>
       </c>
       <c r="K2">
-        <v>50.0099983215332</v>
+        <v>50.15999984741211</v>
       </c>
       <c r="L2">
-        <v>0.7162955284855492</v>
+        <v>0.718504135513907</v>
       </c>
       <c r="M2">
-        <v>-0.8212601717197021</v>
+        <v>-0.8181737926490307</v>
       </c>
       <c r="N2">
-        <v>0.304213677031094</v>
+        <v>0.304320413105574</v>
       </c>
       <c r="O2">
-        <v>0.3375224599358591</v>
+        <v>0.3133128448940967</v>
       </c>
       <c r="P2">
-        <v>0.009777414426748149</v>
+        <v>0.009793336633221093</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -596,170 +587,170 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2152</v>
+        <v>1996</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>0.1012942072471593</v>
+        <v>0.3976032524208321</v>
       </c>
       <c r="E3">
-        <v>0.1904554853402612</v>
+        <v>0.8219524290298519</v>
       </c>
       <c r="F3">
-        <v>0.009047200035213724</v>
+        <v>0.0002338394303617077</v>
       </c>
       <c r="G3">
-        <v>0.4853088059915793</v>
+        <v>4.565494160029195</v>
       </c>
       <c r="H3">
-        <v>4.404530743087584</v>
+        <v>0.8248870952420447</v>
       </c>
       <c r="I3">
-        <v>3.22969175981273E-41</v>
+        <v>1.446443257592745E-44</v>
       </c>
       <c r="J3">
-        <v>13.32999992370605</v>
+        <v>13.90999984741211</v>
       </c>
       <c r="K3">
-        <v>3.099999904632568</v>
+        <v>11</v>
       </c>
       <c r="L3">
-        <v>1.105160384028066</v>
+        <v>0.5589576500001279</v>
       </c>
       <c r="M3">
-        <v>-1.566668105642425</v>
+        <v>-0.7116030127969282</v>
       </c>
       <c r="N3">
-        <v>0.5421340694429813</v>
+        <v>0.2496697816854073</v>
       </c>
       <c r="O3">
-        <v>-0.8093537658082504</v>
+        <v>0.2707476397204225</v>
       </c>
       <c r="P3">
-        <v>0.01115328458391512</v>
+        <v>0.01169317013542275</v>
       </c>
       <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>71</v>
+        <v>1405</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.6076668873822972</v>
+        <v>0.5494616507753627</v>
       </c>
       <c r="E4">
-        <v>0.5858981720828764</v>
+        <v>0.7451263909245031</v>
       </c>
       <c r="F4">
-        <v>0.0004284910787814914</v>
+        <v>0.0007110903318244548</v>
       </c>
       <c r="G4">
-        <v>2.465980509856127</v>
+        <v>0.8411379159073316</v>
       </c>
       <c r="H4">
-        <v>0.5690858621746591</v>
+        <v>0.6045618208928267</v>
       </c>
       <c r="I4">
-        <v>3.3045386686821E-53</v>
+        <v>1.618867636590299E-64</v>
       </c>
       <c r="J4">
-        <v>12.76000022888184</v>
+        <v>10.14000034332275</v>
       </c>
       <c r="K4">
-        <v>18.79000091552734</v>
+        <v>15.86999988555908</v>
       </c>
       <c r="L4">
-        <v>0.4738905723540316</v>
+        <v>0.3640619930375451</v>
       </c>
       <c r="M4">
-        <v>-0.7734262887199996</v>
+        <v>-0.585833850442615</v>
       </c>
       <c r="N4">
-        <v>0.2403624858744257</v>
+        <v>0.1904905925558819</v>
       </c>
       <c r="O4">
-        <v>-0.3991041522498033</v>
+        <v>-0.2955336009671292</v>
       </c>
       <c r="P4">
-        <v>0.01152084568030289</v>
+        <v>0.0118046438833695</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1405</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.6633518054267833</v>
+        <v>0.5816908314850164</v>
       </c>
       <c r="E5">
-        <v>0.7952794490212458</v>
+        <v>0.5687681655295913</v>
       </c>
       <c r="F5">
-        <v>0.0006134419362979716</v>
+        <v>0.0006350688214966198</v>
       </c>
       <c r="G5">
-        <v>0.7985359741294795</v>
+        <v>2.574383301720487</v>
       </c>
       <c r="H5">
-        <v>0.6075682693804094</v>
+        <v>0.5625319269644919</v>
       </c>
       <c r="I5">
-        <v>1.603991525018392E-64</v>
+        <v>4.836217080092571E-53</v>
       </c>
       <c r="J5">
-        <v>10.27999973297119</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="K5">
-        <v>16.09000015258789</v>
+        <v>18.73999977111816</v>
       </c>
       <c r="L5">
-        <v>0.3633650220189537</v>
+        <v>0.484110260102014</v>
       </c>
       <c r="M5">
-        <v>-0.5884592701013425</v>
+        <v>-0.7679593065557775</v>
       </c>
       <c r="N5">
-        <v>0.1894953995384465</v>
+        <v>0.2424163198762984</v>
       </c>
       <c r="O5">
-        <v>-0.2943097881966352</v>
+        <v>-0.4362311791059454</v>
       </c>
       <c r="P5">
-        <v>0.0115433628944568</v>
+        <v>0.01199955548995005</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -770,332 +761,332 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.6120902436788779</v>
+        <v>0.6063231358577863</v>
       </c>
       <c r="E6">
-        <v>0.7892828220863363</v>
+        <v>0.8304582389015556</v>
       </c>
       <c r="F6">
-        <v>0.0006095981188837673</v>
+        <v>0.001179467279506189</v>
       </c>
       <c r="G6">
-        <v>4.695533850362072</v>
+        <v>5.012777026392542</v>
       </c>
       <c r="H6">
-        <v>0.8202548540099215</v>
+        <v>0.8103324566296297</v>
       </c>
       <c r="I6">
-        <v>4.704770238885399E-46</v>
+        <v>2.26621844940876E-45</v>
       </c>
       <c r="J6">
-        <v>32.58000183105469</v>
+        <v>32.43000030517578</v>
       </c>
       <c r="K6">
-        <v>35.70999908447266</v>
+        <v>36.15999984741211</v>
       </c>
       <c r="L6">
-        <v>2.250725168400969</v>
+        <v>2.26267913077946</v>
       </c>
       <c r="M6">
-        <v>-1.916544990831532</v>
+        <v>-1.915387038182523</v>
       </c>
       <c r="N6">
-        <v>0.8707521728006956</v>
+        <v>0.882449372771401</v>
       </c>
       <c r="O6">
-        <v>-1.406832105035932</v>
+        <v>-1.884398229297251</v>
       </c>
       <c r="P6">
-        <v>0.01154431681842999</v>
+        <v>0.01211764475538423</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.4511766972950835</v>
+        <v>0.3976032524208321</v>
       </c>
       <c r="E7">
-        <v>0.7872658173488168</v>
+        <v>0.8304582389015556</v>
       </c>
       <c r="F7">
-        <v>0.0004405378088886967</v>
+        <v>0.0004953436578837638</v>
       </c>
       <c r="G7">
-        <v>4.62338355493177</v>
+        <v>5.537274005912387</v>
       </c>
       <c r="H7">
-        <v>0.8189812169279005</v>
+        <v>0.2215584569430604</v>
       </c>
       <c r="I7">
-        <v>1.050245369044098E-43</v>
+        <v>1.307649948956586E-41</v>
       </c>
       <c r="J7">
-        <v>14.02000045776367</v>
+        <v>13.90999984741211</v>
       </c>
       <c r="K7">
-        <v>10.90999984741211</v>
+        <v>36.15999984741211</v>
       </c>
       <c r="L7">
-        <v>0.5603896322375608</v>
+        <v>0.5708741572574247</v>
       </c>
       <c r="M7">
-        <v>-0.7078751555541842</v>
+        <v>-0.5817020791675915</v>
       </c>
       <c r="N7">
-        <v>0.2494841115745482</v>
+        <v>0.2622625663686966</v>
       </c>
       <c r="O7">
-        <v>0.4615319511151235</v>
+        <v>0.3611720722457967</v>
       </c>
       <c r="P7">
-        <v>0.01193666010398413</v>
+        <v>0.01228962661600886</v>
       </c>
       <c r="Q7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1274</v>
+        <v>2003</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.4032518287094903</v>
+        <v>0.3976032524208321</v>
       </c>
       <c r="E8">
-        <v>0.2130812753357135</v>
+        <v>0.8807094891302667</v>
       </c>
       <c r="F8">
-        <v>0.001370628840635161</v>
+        <v>0.0009622086499796892</v>
       </c>
       <c r="G8">
-        <v>-2.321734278713381</v>
+        <v>9.843296478098162</v>
       </c>
       <c r="H8">
-        <v>0.3234173554135698</v>
+        <v>0.2652486690402294</v>
       </c>
       <c r="I8">
-        <v>1.061997591815731E-63</v>
+        <v>5.31463760623815E-42</v>
       </c>
       <c r="J8">
-        <v>1.320000052452087</v>
+        <v>13.90999984741211</v>
       </c>
       <c r="K8">
-        <v>12.11999988555908</v>
+        <v>14.1899995803833</v>
       </c>
       <c r="L8">
-        <v>0.328048111488803</v>
+        <v>0.5523302906324563</v>
       </c>
       <c r="M8">
-        <v>-0.3052042530257539</v>
+        <v>-0.5817419001555013</v>
       </c>
       <c r="N8">
-        <v>0.1347059406156368</v>
+        <v>0.2605613694036766</v>
       </c>
       <c r="O8">
-        <v>-0.2780839794348182</v>
+        <v>0.3028248669358633</v>
       </c>
       <c r="P8">
-        <v>0.01225726496470512</v>
+        <v>0.01230465344258118</v>
       </c>
       <c r="Q8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2003</v>
+        <v>1414</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>0.4511766972950835</v>
+        <v>0.5494616507753627</v>
       </c>
       <c r="E9">
-        <v>0.8492902014360278</v>
+        <v>0.8304582389015556</v>
       </c>
       <c r="F9">
-        <v>0.00169187133016607</v>
+        <v>0.000826625913375824</v>
       </c>
       <c r="G9">
-        <v>9.865324462979398</v>
+        <v>1.276565015580593</v>
       </c>
       <c r="H9">
-        <v>0.2631640280705715</v>
+        <v>0.256697995789018</v>
       </c>
       <c r="I9">
-        <v>3.38726371657794E-41</v>
+        <v>2.157164740791394E-63</v>
       </c>
       <c r="J9">
-        <v>14.02000045776367</v>
+        <v>10.14000034332275</v>
       </c>
       <c r="K9">
-        <v>13.89999961853027</v>
+        <v>36.15999984741211</v>
       </c>
       <c r="L9">
-        <v>0.5493559249295981</v>
+        <v>0.4523576795118824</v>
       </c>
       <c r="M9">
-        <v>-0.5769822477814071</v>
+        <v>-0.4313353502328408</v>
       </c>
       <c r="N9">
-        <v>0.2602008307685899</v>
+        <v>0.1940952765295079</v>
       </c>
       <c r="O9">
-        <v>0.4966961049924392</v>
+        <v>-0.4187641608197232</v>
       </c>
       <c r="P9">
-        <v>0.012579348932814</v>
+        <v>0.0138588518192694</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="R9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2031</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>0.4511766972950835</v>
+        <v>0.5816908314850164</v>
       </c>
       <c r="E10">
-        <v>0.9813692135026812</v>
+        <v>0.871883016933193</v>
       </c>
       <c r="F10">
-        <v>0.002745934640021899</v>
+        <v>0.00188672121801857</v>
       </c>
       <c r="G10">
-        <v>10.07140204496113</v>
+        <v>8.185602178259305</v>
       </c>
       <c r="H10">
-        <v>0.06533718553659293</v>
+        <v>0.265316538944142</v>
       </c>
       <c r="I10">
-        <v>1.184302512624274E-33</v>
+        <v>9.482562791889356E-52</v>
       </c>
       <c r="J10">
-        <v>14.02000045776367</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="K10">
-        <v>55.38999938964844</v>
+        <v>18.06999969482422</v>
       </c>
       <c r="L10">
-        <v>0.574819356607982</v>
+        <v>0.5835465562641602</v>
       </c>
       <c r="M10">
-        <v>-0.9708220252436899</v>
+        <v>-0.4690965374602776</v>
       </c>
       <c r="N10">
-        <v>0.2952571553031315</v>
+        <v>0.2476920618114644</v>
       </c>
       <c r="O10">
-        <v>0.3295717458093157</v>
+        <v>-0.2998716508359873</v>
       </c>
       <c r="P10">
-        <v>0.01394148070869307</v>
+        <v>0.01441626667253201</v>
       </c>
       <c r="Q10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="R10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1594</v>
+        <v>1615</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.2130812753357135</v>
+        <v>0.1900900232577916</v>
       </c>
       <c r="E11">
-        <v>0.6493256824170651</v>
+        <v>0.5874923463842413</v>
       </c>
       <c r="F11">
-        <v>0.0008941461966579339</v>
+        <v>0.003129288462982633</v>
       </c>
       <c r="G11">
-        <v>2.019595937320354</v>
+        <v>7.16620813422311</v>
       </c>
       <c r="H11">
-        <v>0.6948300041624624</v>
+        <v>0.740394304962773</v>
       </c>
       <c r="I11">
-        <v>1.342665173249806E-41</v>
+        <v>3.041724838404447E-58</v>
       </c>
       <c r="J11">
-        <v>12.11999988555908</v>
+        <v>12.18000030517578</v>
       </c>
       <c r="K11">
-        <v>13.53999996185303</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="L11">
-        <v>1.61511537623894</v>
+        <v>1.043747491083105</v>
       </c>
       <c r="M11">
-        <v>-1.815136802844458</v>
+        <v>-1.336672743461289</v>
       </c>
       <c r="N11">
-        <v>0.564496032621301</v>
+        <v>0.4290337987759298</v>
       </c>
       <c r="O11">
-        <v>0.6924057183846486</v>
+        <v>0.541810597221323</v>
       </c>
       <c r="P11">
-        <v>0.01417747439926907</v>
+        <v>0.01471101998144341</v>
       </c>
       <c r="Q11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>N</t>
   </si>
@@ -70,34 +70,31 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
     <t>ENEV3</t>
   </si>
   <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
     <t>CPLE6</t>
   </si>
   <si>
     <t>ABEV3</t>
   </si>
   <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
     <t>EMBR3</t>
   </si>
   <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>TIMS3</t>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
   </si>
   <si>
     <t>ITUB4</t>
@@ -106,10 +103,10 @@
     <t>MRFG3</t>
   </si>
   <si>
-    <t>LREN3</t>
-  </si>
-  <si>
-    <t>USIM5</t>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
   </si>
 </sst>
 </file>
@@ -531,55 +528,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1158</v>
+        <v>1997</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.8673548969544302</v>
+        <v>0.4306049021105344</v>
       </c>
       <c r="E2">
-        <v>0.6931150435294533</v>
+        <v>0.8621040412385856</v>
       </c>
       <c r="F2">
-        <v>8.384762104995183E-05</v>
+        <v>0.0004444181399925952</v>
       </c>
       <c r="G2">
-        <v>3.259146593147772</v>
+        <v>5.477276759614844</v>
       </c>
       <c r="H2">
-        <v>0.1548552778743035</v>
+        <v>0.2234235788762994</v>
       </c>
       <c r="I2">
-        <v>5.040579676238127E-71</v>
+        <v>1.787489001126307E-42</v>
       </c>
       <c r="J2">
-        <v>11.34000015258789</v>
+        <v>13.97000026702881</v>
       </c>
       <c r="K2">
-        <v>50.15999984741211</v>
+        <v>36.61999893188477</v>
       </c>
       <c r="L2">
-        <v>0.718504135513907</v>
+        <v>0.5642679010265752</v>
       </c>
       <c r="M2">
-        <v>-0.8181737926490307</v>
+        <v>-0.5848777075475269</v>
       </c>
       <c r="N2">
-        <v>0.304320413105574</v>
+        <v>0.2626744580472221</v>
       </c>
       <c r="O2">
-        <v>0.3133128448940967</v>
+        <v>0.3109522876060105</v>
       </c>
       <c r="P2">
-        <v>0.009793336633221093</v>
+        <v>0.01233475201491003</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -587,167 +584,167 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1996</v>
+        <v>2003</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0.3976032524208321</v>
+        <v>0.4306049021105344</v>
       </c>
       <c r="E3">
-        <v>0.8219524290298519</v>
+        <v>0.8454746478621149</v>
       </c>
       <c r="F3">
-        <v>0.0002338394303617077</v>
+        <v>0.001340070237910564</v>
       </c>
       <c r="G3">
-        <v>4.565494160029195</v>
+        <v>9.81663804587037</v>
       </c>
       <c r="H3">
-        <v>0.8248870952420447</v>
+        <v>0.2678005538526677</v>
       </c>
       <c r="I3">
-        <v>1.446443257592745E-44</v>
+        <v>1.330091251182214E-42</v>
       </c>
       <c r="J3">
-        <v>13.90999984741211</v>
+        <v>13.97000026702881</v>
       </c>
       <c r="K3">
-        <v>11</v>
+        <v>13.93000030517578</v>
       </c>
       <c r="L3">
-        <v>0.5589576500001279</v>
+        <v>0.5556644947984424</v>
       </c>
       <c r="M3">
-        <v>-0.7116030127969282</v>
+        <v>-0.587875188741009</v>
       </c>
       <c r="N3">
-        <v>0.2496697816854073</v>
+        <v>0.2621178864137803</v>
       </c>
       <c r="O3">
-        <v>0.2707476397204225</v>
+        <v>0.4229004242645349</v>
       </c>
       <c r="P3">
-        <v>0.01169317013542275</v>
+        <v>0.01260832757860971</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1405</v>
+        <v>2090</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.5494616507753627</v>
+        <v>0.6061520020451754</v>
       </c>
       <c r="E4">
-        <v>0.7451263909245031</v>
+        <v>0.8621040412385856</v>
       </c>
       <c r="F4">
-        <v>0.0007110903318244548</v>
+        <v>0.00194670284511234</v>
       </c>
       <c r="G4">
-        <v>0.8411379159073316</v>
+        <v>5.414407128152782</v>
       </c>
       <c r="H4">
-        <v>0.6045618208928267</v>
+        <v>0.7978470727363246</v>
       </c>
       <c r="I4">
-        <v>1.618867636590299E-64</v>
+        <v>1.704932810677137E-44</v>
       </c>
       <c r="J4">
-        <v>10.14000034332275</v>
+        <v>32.54999923706055</v>
       </c>
       <c r="K4">
-        <v>15.86999988555908</v>
+        <v>36.61999893188477</v>
       </c>
       <c r="L4">
-        <v>0.3640619930375451</v>
+        <v>2.27528186926412</v>
       </c>
       <c r="M4">
-        <v>-0.585833850442615</v>
+        <v>-2.081566842503833</v>
       </c>
       <c r="N4">
-        <v>0.1904905925558819</v>
+        <v>0.8970759042374149</v>
       </c>
       <c r="O4">
-        <v>-0.2955336009671292</v>
+        <v>-2.081566842503829</v>
       </c>
       <c r="P4">
-        <v>0.0118046438833695</v>
+        <v>0.01275799368259096</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>71</v>
+        <v>2179</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.5816908314850164</v>
+        <v>0.6916859907229206</v>
       </c>
       <c r="E5">
-        <v>0.5687681655295913</v>
+        <v>0.8621040412385856</v>
       </c>
       <c r="F5">
-        <v>0.0006350688214966198</v>
+        <v>0.002263572187685033</v>
       </c>
       <c r="G5">
-        <v>2.574383301720487</v>
+        <v>1.673017945724905</v>
       </c>
       <c r="H5">
-        <v>0.5625319269644919</v>
+        <v>0.3959199014402641</v>
       </c>
       <c r="I5">
-        <v>4.836217080092571E-53</v>
+        <v>4.217171169008096E-65</v>
       </c>
       <c r="J5">
-        <v>12.68000030517578</v>
+        <v>15.60999965667725</v>
       </c>
       <c r="K5">
-        <v>18.73999977111816</v>
+        <v>36.61999893188477</v>
       </c>
       <c r="L5">
-        <v>0.484110260102014</v>
+        <v>0.7138689284319124</v>
       </c>
       <c r="M5">
-        <v>-0.7679593065557775</v>
+        <v>-0.6814369084242387</v>
       </c>
       <c r="N5">
-        <v>0.2424163198762984</v>
+        <v>0.2940775873948448</v>
       </c>
       <c r="O5">
-        <v>-0.4362311791059454</v>
+        <v>-0.5616046569020501</v>
       </c>
       <c r="P5">
-        <v>0.01199955548995005</v>
+        <v>0.01319776395244529</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R5" t="s">
         <v>27</v>
@@ -755,338 +752,338 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2090</v>
+        <v>1414</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.6063231358577863</v>
+        <v>0.6268042870581019</v>
       </c>
       <c r="E6">
-        <v>0.8304582389015556</v>
+        <v>0.8621040412385856</v>
       </c>
       <c r="F6">
-        <v>0.001179467279506189</v>
+        <v>0.00072409718224149</v>
       </c>
       <c r="G6">
-        <v>5.012777026392542</v>
+        <v>1.347384968611987</v>
       </c>
       <c r="H6">
-        <v>0.8103324566296297</v>
+        <v>0.254496432752906</v>
       </c>
       <c r="I6">
-        <v>2.26621844940876E-45</v>
+        <v>3.26938549710525E-63</v>
       </c>
       <c r="J6">
-        <v>32.43000030517578</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="K6">
-        <v>36.15999984741211</v>
+        <v>36.61999893188477</v>
       </c>
       <c r="L6">
-        <v>2.26267913077946</v>
+        <v>0.4535035605685636</v>
       </c>
       <c r="M6">
-        <v>-1.915387038182523</v>
+        <v>-0.427297394826768</v>
       </c>
       <c r="N6">
-        <v>0.882449372771401</v>
+        <v>0.1959255598332864</v>
       </c>
       <c r="O6">
-        <v>-1.884398229297251</v>
+        <v>-0.3670438734570229</v>
       </c>
       <c r="P6">
-        <v>0.01211764475538423</v>
+        <v>0.01411617712251416</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1997</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.3976032524208321</v>
+        <v>0.631632640158023</v>
       </c>
       <c r="E7">
-        <v>0.8304582389015556</v>
+        <v>0.6830740375440822</v>
       </c>
       <c r="F7">
-        <v>0.0004953436578837638</v>
+        <v>0.001170791293295535</v>
       </c>
       <c r="G7">
-        <v>5.537274005912387</v>
+        <v>5.189321769099298</v>
       </c>
       <c r="H7">
-        <v>0.2215584569430604</v>
+        <v>0.3026952360130118</v>
       </c>
       <c r="I7">
-        <v>1.307649948956586E-41</v>
+        <v>8.409126447770128E-50</v>
       </c>
       <c r="J7">
-        <v>13.90999984741211</v>
+        <v>12.84000015258789</v>
       </c>
       <c r="K7">
-        <v>36.15999984741211</v>
+        <v>24.10000038146973</v>
       </c>
       <c r="L7">
-        <v>0.5708741572574247</v>
+        <v>0.7322440426742425</v>
       </c>
       <c r="M7">
-        <v>-0.5817020791675915</v>
+        <v>-0.592751132684743</v>
       </c>
       <c r="N7">
-        <v>0.2622625663686966</v>
+        <v>0.2577390258684518</v>
       </c>
       <c r="O7">
-        <v>0.3611720722457967</v>
+        <v>0.3557230801059399</v>
       </c>
       <c r="P7">
-        <v>0.01228962661600886</v>
+        <v>0.01431523998948048</v>
       </c>
       <c r="Q7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2003</v>
+        <v>1955</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>0.3976032524208321</v>
+        <v>0.6851067750762858</v>
       </c>
       <c r="E8">
-        <v>0.8807094891302667</v>
+        <v>0.8454746478621149</v>
       </c>
       <c r="F8">
-        <v>0.0009622086499796892</v>
+        <v>0.00287074619998811</v>
       </c>
       <c r="G8">
-        <v>9.843296478098162</v>
+        <v>0.8699295052539024</v>
       </c>
       <c r="H8">
-        <v>0.2652486690402294</v>
+        <v>3.251094548656653</v>
       </c>
       <c r="I8">
-        <v>5.31463760623815E-42</v>
+        <v>1.991534040494564E-52</v>
       </c>
       <c r="J8">
-        <v>13.90999984741211</v>
+        <v>50.13000106811523</v>
       </c>
       <c r="K8">
-        <v>14.1899995803833</v>
+        <v>13.93000030517578</v>
       </c>
       <c r="L8">
-        <v>0.5523302906324563</v>
+        <v>6.170191158516808</v>
       </c>
       <c r="M8">
-        <v>-0.5817419001555013</v>
+        <v>-6.535808336157189</v>
       </c>
       <c r="N8">
-        <v>0.2605613694036766</v>
+        <v>2.582723931247144</v>
       </c>
       <c r="O8">
-        <v>0.3028248669358633</v>
+        <v>3.972323507918844</v>
       </c>
       <c r="P8">
-        <v>0.01230465344258118</v>
+        <v>0.0150065595615068</v>
       </c>
       <c r="Q8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1414</v>
+        <v>307</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>0.5494616507753627</v>
+        <v>0.3669846846975088</v>
       </c>
       <c r="E9">
-        <v>0.8304582389015556</v>
+        <v>0.6830740375440822</v>
       </c>
       <c r="F9">
-        <v>0.000826625913375824</v>
+        <v>8.794136488990607E-05</v>
       </c>
       <c r="G9">
-        <v>1.276565015580593</v>
+        <v>2.317688290272263</v>
       </c>
       <c r="H9">
-        <v>0.256697995789018</v>
+        <v>0.3916024802517628</v>
       </c>
       <c r="I9">
-        <v>2.157164740791394E-63</v>
+        <v>3.262765270851286E-46</v>
       </c>
       <c r="J9">
-        <v>10.14000034332275</v>
+        <v>10.85000038146973</v>
       </c>
       <c r="K9">
-        <v>36.15999984741211</v>
+        <v>24.10000038146973</v>
       </c>
       <c r="L9">
-        <v>0.4523576795118824</v>
+        <v>1.284276102373994</v>
       </c>
       <c r="M9">
-        <v>-0.4313353502328408</v>
+        <v>-0.9300639688947534</v>
       </c>
       <c r="N9">
-        <v>0.1940952765295079</v>
+        <v>0.3596865826598137</v>
       </c>
       <c r="O9">
-        <v>-0.4187641608197232</v>
+        <v>-0.9053078322545094</v>
       </c>
       <c r="P9">
-        <v>0.0138588518192694</v>
+        <v>0.01665521180184676</v>
       </c>
       <c r="Q9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>47</v>
+        <v>1847</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10">
-        <v>0.5816908314850164</v>
+        <v>0.3225722068937914</v>
       </c>
       <c r="E10">
-        <v>0.871883016933193</v>
+        <v>0.2089551778947878</v>
       </c>
       <c r="F10">
-        <v>0.00188672121801857</v>
+        <v>0.008546058097529407</v>
       </c>
       <c r="G10">
-        <v>8.185602178259305</v>
+        <v>-2.073545569640597</v>
       </c>
       <c r="H10">
-        <v>0.265316538944142</v>
+        <v>1.892829137990676</v>
       </c>
       <c r="I10">
-        <v>9.482562791889356E-52</v>
+        <v>1.244587451791279E-46</v>
       </c>
       <c r="J10">
-        <v>12.68000030517578</v>
+        <v>39.72999954223633</v>
       </c>
       <c r="K10">
-        <v>18.06999969482422</v>
+        <v>21.20999908447266</v>
       </c>
       <c r="L10">
-        <v>0.5835465562641602</v>
+        <v>2.615229708366215</v>
       </c>
       <c r="M10">
-        <v>-0.4690965374602776</v>
+        <v>-2.315085884357245</v>
       </c>
       <c r="N10">
-        <v>0.2476920618114644</v>
+        <v>1.114089740466665</v>
       </c>
       <c r="O10">
-        <v>-0.2998716508359873</v>
+        <v>1.65664082803152</v>
       </c>
       <c r="P10">
-        <v>0.01441626667253201</v>
+        <v>0.01676961973285487</v>
       </c>
       <c r="Q10" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="R10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1615</v>
+        <v>1779</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>0.1900900232577916</v>
+        <v>0.4133083841058307</v>
       </c>
       <c r="E11">
-        <v>0.5874923463842413</v>
+        <v>0.6830740375440822</v>
       </c>
       <c r="F11">
-        <v>0.003129288462982633</v>
+        <v>0.005913322874930479</v>
       </c>
       <c r="G11">
-        <v>7.16620813422311</v>
+        <v>1.574666496678029</v>
       </c>
       <c r="H11">
-        <v>0.740394304962773</v>
+        <v>0.2558164036926529</v>
       </c>
       <c r="I11">
-        <v>3.041724838404447E-58</v>
+        <v>1.636108195375521E-36</v>
       </c>
       <c r="J11">
-        <v>12.18000030517578</v>
+        <v>8.239999771118164</v>
       </c>
       <c r="K11">
-        <v>6.039999961853027</v>
+        <v>24.10000038146973</v>
       </c>
       <c r="L11">
-        <v>1.043747491083105</v>
+        <v>0.9121456526505698</v>
       </c>
       <c r="M11">
-        <v>-1.336672743461289</v>
+        <v>-0.6154978500076886</v>
       </c>
       <c r="N11">
-        <v>0.4290337987759298</v>
+        <v>0.2928202049429766</v>
       </c>
       <c r="O11">
-        <v>0.541810597221323</v>
+        <v>0.5001578478609865</v>
       </c>
       <c r="P11">
-        <v>0.01471101998144341</v>
+        <v>0.01683367728021555</v>
       </c>
       <c r="Q11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -70,43 +70,52 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
     <t>ENEV3</t>
   </si>
   <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
     <t>FLRY3</t>
   </si>
   <si>
-    <t>CPLE6</t>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>CCRO3</t>
   </si>
   <si>
     <t>ABEV3</t>
   </si>
   <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
     <t>EMBR3</t>
   </si>
   <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>ELET3</t>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
   </si>
   <si>
     <t>DXCO3</t>
   </si>
   <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
     <t>VBBR3</t>
   </si>
   <si>
-    <t>IGTI11</t>
+    <t>BBDC4</t>
   </si>
 </sst>
 </file>
@@ -528,7 +537,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1997</v>
+        <v>2439</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -537,161 +546,161 @@
         <v>27</v>
       </c>
       <c r="D2">
-        <v>0.4306049021105344</v>
+        <v>0.1088546131788944</v>
       </c>
       <c r="E2">
-        <v>0.8621040412385856</v>
+        <v>0.1433699279605878</v>
       </c>
       <c r="F2">
-        <v>0.0004444181399925952</v>
+        <v>0.003748748070326799</v>
       </c>
       <c r="G2">
-        <v>5.477276759614844</v>
+        <v>6.545285734406312</v>
       </c>
       <c r="H2">
-        <v>0.2234235788762994</v>
+        <v>4.890703142892811</v>
       </c>
       <c r="I2">
-        <v>1.787489001126307E-42</v>
+        <v>1.353661133172036E-50</v>
       </c>
       <c r="J2">
-        <v>13.97000026702881</v>
+        <v>21.1299991607666</v>
       </c>
       <c r="K2">
-        <v>36.61999893188477</v>
+        <v>3.160000085830688</v>
       </c>
       <c r="L2">
-        <v>0.5642679010265752</v>
+        <v>1.089929737837561</v>
       </c>
       <c r="M2">
-        <v>-0.5848777075475269</v>
+        <v>-1.130035357263459</v>
       </c>
       <c r="N2">
-        <v>0.2626744580472221</v>
+        <v>0.4708154904181053</v>
       </c>
       <c r="O2">
-        <v>0.3109522876060105</v>
+        <v>-0.8699089249534122</v>
       </c>
       <c r="P2">
-        <v>0.01233475201491003</v>
+        <v>0.009915246601898568</v>
       </c>
       <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
         <v>27</v>
-      </c>
-      <c r="R2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2003</v>
+        <v>1158</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
       </c>
       <c r="D3">
-        <v>0.4306049021105344</v>
+        <v>0.6288247319787652</v>
       </c>
       <c r="E3">
-        <v>0.8454746478621149</v>
+        <v>0.6969451647325272</v>
       </c>
       <c r="F3">
-        <v>0.001340070237910564</v>
+        <v>7.777093810631782E-05</v>
       </c>
       <c r="G3">
-        <v>9.81663804587037</v>
+        <v>3.143509558325057</v>
       </c>
       <c r="H3">
-        <v>0.2678005538526677</v>
+        <v>0.1579431709807275</v>
       </c>
       <c r="I3">
-        <v>1.330091251182214E-42</v>
+        <v>2.057427196067531E-69</v>
       </c>
       <c r="J3">
-        <v>13.97000026702881</v>
+        <v>11.31999969482422</v>
       </c>
       <c r="K3">
-        <v>13.93000030517578</v>
+        <v>48.27000045776367</v>
       </c>
       <c r="L3">
-        <v>0.5556644947984424</v>
+        <v>0.7331053041250257</v>
       </c>
       <c r="M3">
-        <v>-0.587875188741009</v>
+        <v>-0.8000220190909317</v>
       </c>
       <c r="N3">
-        <v>0.2621178864137803</v>
+        <v>0.3102520984854236</v>
       </c>
       <c r="O3">
-        <v>0.4229004242645349</v>
+        <v>0.5525732009587978</v>
       </c>
       <c r="P3">
-        <v>0.01260832757860971</v>
+        <v>0.0101208748133093</v>
       </c>
       <c r="Q3" t="s">
         <v>28</v>
       </c>
       <c r="R3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2090</v>
+        <v>2003</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>0.6061520020451754</v>
+        <v>0.5322683948190141</v>
       </c>
       <c r="E4">
-        <v>0.8621040412385856</v>
+        <v>0.8327027645854201</v>
       </c>
       <c r="F4">
-        <v>0.00194670284511234</v>
+        <v>0.002134070663887414</v>
       </c>
       <c r="G4">
-        <v>5.414407128152782</v>
+        <v>9.780032032144041</v>
       </c>
       <c r="H4">
-        <v>0.7978470727363246</v>
+        <v>0.2711576581300083</v>
       </c>
       <c r="I4">
-        <v>1.704932810677137E-44</v>
+        <v>1.092639935885625E-41</v>
       </c>
       <c r="J4">
-        <v>32.54999923706055</v>
+        <v>14.01000022888184</v>
       </c>
       <c r="K4">
-        <v>36.61999893188477</v>
+        <v>13.84000015258789</v>
       </c>
       <c r="L4">
-        <v>2.27528186926412</v>
+        <v>0.5615865742773085</v>
       </c>
       <c r="M4">
-        <v>-2.081566842503833</v>
+        <v>-0.5980875338583242</v>
       </c>
       <c r="N4">
-        <v>0.8970759042374149</v>
+        <v>0.2668641542016339</v>
       </c>
       <c r="O4">
-        <v>-2.081566842503829</v>
+        <v>0.4771461668431063</v>
       </c>
       <c r="P4">
-        <v>0.01275799368259096</v>
+        <v>0.01308011404828915</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -699,391 +708,391 @@
         <v>2179</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>0.6916859907229206</v>
+        <v>0.6839457579162667</v>
       </c>
       <c r="E5">
-        <v>0.8621040412385856</v>
+        <v>0.8712688800214039</v>
       </c>
       <c r="F5">
-        <v>0.002263572187685033</v>
+        <v>0.001684147621341383</v>
       </c>
       <c r="G5">
-        <v>1.673017945724905</v>
+        <v>1.780586333085466</v>
       </c>
       <c r="H5">
-        <v>0.3959199014402641</v>
+        <v>0.3927673888831071</v>
       </c>
       <c r="I5">
-        <v>4.217171169008096E-65</v>
+        <v>1.386277031923184E-64</v>
       </c>
       <c r="J5">
-        <v>15.60999965667725</v>
+        <v>15.59000015258789</v>
       </c>
       <c r="K5">
-        <v>36.61999893188477</v>
+        <v>36.7599983215332</v>
       </c>
       <c r="L5">
-        <v>0.7138689284319124</v>
+        <v>0.7070784463163413</v>
       </c>
       <c r="M5">
-        <v>-0.6814369084242387</v>
+        <v>-0.6287147365935724</v>
       </c>
       <c r="N5">
-        <v>0.2940775873948448</v>
+        <v>0.2945130784394075</v>
       </c>
       <c r="O5">
-        <v>-0.5616046569020501</v>
+        <v>-0.6287147365935706</v>
       </c>
       <c r="P5">
-        <v>0.01319776395244529</v>
+        <v>0.0130971508341797</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1414</v>
+        <v>750</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>0.6268042870581019</v>
+        <v>0.1721288342531187</v>
       </c>
       <c r="E6">
-        <v>0.8621040412385856</v>
+        <v>0.3223042541744994</v>
       </c>
       <c r="F6">
-        <v>0.00072409718224149</v>
+        <v>0.002643484887083622</v>
       </c>
       <c r="G6">
-        <v>1.347384968611987</v>
+        <v>3.652894875566744</v>
       </c>
       <c r="H6">
-        <v>0.254496432752906</v>
+        <v>2.35540625562268</v>
       </c>
       <c r="I6">
-        <v>3.26938549710525E-63</v>
+        <v>4.047766389408577E-47</v>
       </c>
       <c r="J6">
-        <v>10.30000019073486</v>
+        <v>34.09999847412109</v>
       </c>
       <c r="K6">
-        <v>36.61999893188477</v>
+        <v>12.39000034332275</v>
       </c>
       <c r="L6">
-        <v>0.4535035605685636</v>
+        <v>1.836824411689982</v>
       </c>
       <c r="M6">
-        <v>-0.427297394826768</v>
+        <v>-2.355406199561806</v>
       </c>
       <c r="N6">
-        <v>0.1959255598332864</v>
+        <v>0.8114857821376179</v>
       </c>
       <c r="O6">
-        <v>-0.3670438734570229</v>
+        <v>1.263619282724786</v>
       </c>
       <c r="P6">
-        <v>0.01411617712251416</v>
+        <v>0.01378326973581877</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>76</v>
+        <v>1126</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>0.631632640158023</v>
+        <v>0.3223042541744994</v>
       </c>
       <c r="E7">
-        <v>0.6830740375440822</v>
+        <v>0.1433699279605878</v>
       </c>
       <c r="F7">
-        <v>0.001170791293295535</v>
+        <v>0.004863763056166709</v>
       </c>
       <c r="G7">
-        <v>5.189321769099298</v>
+        <v>3.860253260433124</v>
       </c>
       <c r="H7">
-        <v>0.3026952360130118</v>
+        <v>2.886181052231032</v>
       </c>
       <c r="I7">
-        <v>8.409126447770128E-50</v>
+        <v>1.805835081450502E-43</v>
       </c>
       <c r="J7">
-        <v>12.84000015258789</v>
+        <v>12.39000034332275</v>
       </c>
       <c r="K7">
-        <v>24.10000038146973</v>
+        <v>3.160000085830688</v>
       </c>
       <c r="L7">
-        <v>0.7322440426742425</v>
+        <v>0.8557562220017711</v>
       </c>
       <c r="M7">
-        <v>-0.592751132684743</v>
+        <v>-1.050640176751346</v>
       </c>
       <c r="N7">
-        <v>0.2577390258684518</v>
+        <v>0.3238342573002249</v>
       </c>
       <c r="O7">
-        <v>0.3557230801059399</v>
+        <v>-0.5905852898833395</v>
       </c>
       <c r="P7">
-        <v>0.01431523998948048</v>
+        <v>0.01455722335241503</v>
       </c>
       <c r="Q7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1955</v>
+        <v>761</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.6851067750762858</v>
+        <v>0.1721288342531187</v>
       </c>
       <c r="E8">
-        <v>0.8454746478621149</v>
+        <v>0.4945907317291807</v>
       </c>
       <c r="F8">
-        <v>0.00287074619998811</v>
+        <v>0.007514578457753191</v>
       </c>
       <c r="G8">
-        <v>0.8699295052539024</v>
+        <v>12.53063587588689</v>
       </c>
       <c r="H8">
-        <v>3.251094548656653</v>
+        <v>2.83481406841548</v>
       </c>
       <c r="I8">
-        <v>1.991534040494564E-52</v>
+        <v>4.171656736036529E-38</v>
       </c>
       <c r="J8">
-        <v>50.13000106811523</v>
+        <v>34.09999847412109</v>
       </c>
       <c r="K8">
-        <v>13.93000030517578</v>
+        <v>8.25</v>
       </c>
       <c r="L8">
-        <v>6.170191158516808</v>
+        <v>2.716764073166388</v>
       </c>
       <c r="M8">
-        <v>-6.535808336157189</v>
+        <v>-2.735932569465362</v>
       </c>
       <c r="N8">
-        <v>2.582723931247144</v>
+        <v>0.9438623366251366</v>
       </c>
       <c r="O8">
-        <v>3.972323507918844</v>
+        <v>-1.817853466193505</v>
       </c>
       <c r="P8">
-        <v>0.0150065595615068</v>
+        <v>0.01556652889968253</v>
       </c>
       <c r="Q8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>307</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>0.3669846846975088</v>
+        <v>0.6626209628188663</v>
       </c>
       <c r="E9">
-        <v>0.6830740375440822</v>
+        <v>0.3759114676333675</v>
       </c>
       <c r="F9">
-        <v>8.794136488990607E-05</v>
+        <v>0.005750779209907483</v>
       </c>
       <c r="G9">
-        <v>2.317688290272263</v>
+        <v>-2.292960923677713</v>
       </c>
       <c r="H9">
-        <v>0.3916024802517628</v>
+        <v>0.5396468418816109</v>
       </c>
       <c r="I9">
-        <v>3.262765270851286E-46</v>
+        <v>1.676625751686577E-38</v>
       </c>
       <c r="J9">
-        <v>10.85000038146973</v>
+        <v>12.92000007629395</v>
       </c>
       <c r="K9">
-        <v>24.10000038146973</v>
+        <v>27.25</v>
       </c>
       <c r="L9">
-        <v>1.284276102373994</v>
+        <v>0.9322531368279918</v>
       </c>
       <c r="M9">
-        <v>-0.9300639688947534</v>
+        <v>-0.6015406112727124</v>
       </c>
       <c r="N9">
-        <v>0.3596865826598137</v>
+        <v>0.3079016312320543</v>
       </c>
       <c r="O9">
-        <v>-0.9053078322545094</v>
+        <v>0.5075845586977596</v>
       </c>
       <c r="P9">
-        <v>0.01665521180184676</v>
+        <v>0.01577536694194925</v>
       </c>
       <c r="Q9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" t="s">
         <v>24</v>
-      </c>
-      <c r="R9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1847</v>
+        <v>307</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.3225722068937914</v>
+        <v>0.3832898798295438</v>
       </c>
       <c r="E10">
-        <v>0.2089551778947878</v>
+        <v>0.6482543274559329</v>
       </c>
       <c r="F10">
-        <v>0.008546058097529407</v>
+        <v>0.002295563353610543</v>
       </c>
       <c r="G10">
-        <v>-2.073545569640597</v>
+        <v>2.308938968622983</v>
       </c>
       <c r="H10">
-        <v>1.892829137990676</v>
+        <v>0.3906645405093818</v>
       </c>
       <c r="I10">
-        <v>1.244587451791279E-46</v>
+        <v>4.083743609989334E-50</v>
       </c>
       <c r="J10">
-        <v>39.72999954223633</v>
+        <v>10.72999954223633</v>
       </c>
       <c r="K10">
-        <v>21.20999908447266</v>
+        <v>23.6200008392334</v>
       </c>
       <c r="L10">
-        <v>2.615229708366215</v>
+        <v>0.9583635698949422</v>
       </c>
       <c r="M10">
-        <v>-2.315085884357245</v>
+        <v>-0.8987947138162298</v>
       </c>
       <c r="N10">
-        <v>1.114089740466665</v>
+        <v>0.328120347754245</v>
       </c>
       <c r="O10">
-        <v>1.65664082803152</v>
+        <v>-0.8064362010769823</v>
       </c>
       <c r="P10">
-        <v>0.01676961973285487</v>
+        <v>0.0159086052610682</v>
       </c>
       <c r="Q10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1779</v>
+        <v>312</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.4133083841058307</v>
+        <v>0.3759114676333675</v>
       </c>
       <c r="E11">
-        <v>0.6830740375440822</v>
+        <v>0.7952355712959562</v>
       </c>
       <c r="F11">
-        <v>0.005913322874930479</v>
+        <v>0.001048973902920084</v>
       </c>
       <c r="G11">
-        <v>1.574666496678029</v>
+        <v>17.64575601701148</v>
       </c>
       <c r="H11">
-        <v>0.2558164036926529</v>
+        <v>0.6729263856348744</v>
       </c>
       <c r="I11">
-        <v>1.636108195375521E-36</v>
+        <v>1.587912971562509E-48</v>
       </c>
       <c r="J11">
-        <v>8.239999771118164</v>
+        <v>27.25</v>
       </c>
       <c r="K11">
-        <v>24.10000038146973</v>
+        <v>14.9399995803833</v>
       </c>
       <c r="L11">
-        <v>0.9121456526505698</v>
+        <v>0.6963215153183526</v>
       </c>
       <c r="M11">
-        <v>-0.6154978500076886</v>
+        <v>-1.627490851478022</v>
       </c>
       <c r="N11">
-        <v>0.2928202049429766</v>
+        <v>0.4059838212384292</v>
       </c>
       <c r="O11">
-        <v>0.5001578478609865</v>
+        <v>-0.4492759360253533</v>
       </c>
       <c r="P11">
-        <v>0.01683367728021555</v>
+        <v>0.01593965199762086</v>
       </c>
       <c r="Q11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -76,46 +76,49 @@
     <t>CMIG4</t>
   </si>
   <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
     <t>ENEV3</t>
   </si>
   <si>
-    <t>FLRY3</t>
+    <t>EMBR3</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
   </si>
   <si>
     <t>BPAC11</t>
   </si>
   <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>NTCO3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>TAEE11</t>
+  </si>
+  <si>
     <t>CCRO3</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>EMBR3</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
-    <t>BBDC4</t>
   </si>
 </sst>
 </file>
@@ -546,43 +549,43 @@
         <v>27</v>
       </c>
       <c r="D2">
-        <v>0.1088546131788944</v>
+        <v>0.1005789129845632</v>
       </c>
       <c r="E2">
-        <v>0.1433699279605878</v>
+        <v>0.1561730970524192</v>
       </c>
       <c r="F2">
-        <v>0.003748748070326799</v>
+        <v>0.003796561842741817</v>
       </c>
       <c r="G2">
-        <v>6.545285734406312</v>
+        <v>6.549846213248935</v>
       </c>
       <c r="H2">
-        <v>4.890703142892811</v>
+        <v>4.887759253584883</v>
       </c>
       <c r="I2">
-        <v>1.353661133172036E-50</v>
+        <v>1.487642175370407E-49</v>
       </c>
       <c r="J2">
-        <v>21.1299991607666</v>
+        <v>21.07999992370605</v>
       </c>
       <c r="K2">
-        <v>3.160000085830688</v>
+        <v>3.099999904632568</v>
       </c>
       <c r="L2">
-        <v>1.089929737837561</v>
+        <v>1.094936899245702</v>
       </c>
       <c r="M2">
-        <v>-1.130035357263459</v>
+        <v>-1.125618114408876</v>
       </c>
       <c r="N2">
-        <v>0.4708154904181053</v>
+        <v>0.4737828099527687</v>
       </c>
       <c r="O2">
-        <v>-0.8699089249534122</v>
+        <v>-0.6218995095229705</v>
       </c>
       <c r="P2">
-        <v>0.009915246601898568</v>
+        <v>0.009913513258508129</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -599,49 +602,49 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>0.6288247319787652</v>
+        <v>0.7436534195842821</v>
       </c>
       <c r="E3">
-        <v>0.6969451647325272</v>
+        <v>0.6482330130624474</v>
       </c>
       <c r="F3">
-        <v>7.777093810631782E-05</v>
+        <v>0.0002920208153033794</v>
       </c>
       <c r="G3">
-        <v>3.143509558325057</v>
+        <v>3.164614797417808</v>
       </c>
       <c r="H3">
-        <v>0.1579431709807275</v>
+        <v>0.1576650167298239</v>
       </c>
       <c r="I3">
-        <v>2.057427196067531E-69</v>
+        <v>2.04745900669998E-69</v>
       </c>
       <c r="J3">
-        <v>11.31999969482422</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="K3">
-        <v>48.27000045776367</v>
+        <v>47.97000122070312</v>
       </c>
       <c r="L3">
-        <v>0.7331053041250257</v>
+        <v>0.7211022261357023</v>
       </c>
       <c r="M3">
-        <v>-0.8000220190909317</v>
+        <v>-0.8123459285675416</v>
       </c>
       <c r="N3">
-        <v>0.3102520984854236</v>
+        <v>0.3091217799569789</v>
       </c>
       <c r="O3">
-        <v>0.5525732009587978</v>
+        <v>0.6721937761206336</v>
       </c>
       <c r="P3">
-        <v>0.0101208748133093</v>
+        <v>0.01068835113578938</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -649,450 +652,450 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2003</v>
+        <v>1304</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.5322683948190141</v>
+        <v>0.6033666935875112</v>
       </c>
       <c r="E4">
-        <v>0.8327027645854201</v>
+        <v>0.464534001717985</v>
       </c>
       <c r="F4">
-        <v>0.002134070663887414</v>
+        <v>0.0004984182582040708</v>
       </c>
       <c r="G4">
-        <v>9.780032032144041</v>
+        <v>-1.980105255779367</v>
       </c>
       <c r="H4">
-        <v>0.2711576581300083</v>
+        <v>0.2435650578239101</v>
       </c>
       <c r="I4">
-        <v>1.092639935885625E-41</v>
+        <v>6.231926430310873E-61</v>
       </c>
       <c r="J4">
-        <v>14.01000022888184</v>
+        <v>1.279999971389771</v>
       </c>
       <c r="K4">
-        <v>13.84000015258789</v>
+        <v>14.05000019073486</v>
       </c>
       <c r="L4">
-        <v>0.5615865742773085</v>
+        <v>0.2875206290348358</v>
       </c>
       <c r="M4">
-        <v>-0.5980875338583242</v>
+        <v>-0.5294901678948625</v>
       </c>
       <c r="N4">
-        <v>0.2668641542016339</v>
+        <v>0.1318269275888655</v>
       </c>
       <c r="O4">
-        <v>0.4771461668431063</v>
+        <v>-0.1619838817131467</v>
       </c>
       <c r="P4">
-        <v>0.01308011404828915</v>
+        <v>0.01183843545146788</v>
       </c>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2179</v>
+        <v>1774</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.6839457579162667</v>
+        <v>0.5716688511603102</v>
       </c>
       <c r="E5">
-        <v>0.8712688800214039</v>
+        <v>0.5840886699014191</v>
       </c>
       <c r="F5">
-        <v>0.001684147621341383</v>
+        <v>0.001201547243643109</v>
       </c>
       <c r="G5">
-        <v>1.780586333085466</v>
+        <v>-0.3247134109025778</v>
       </c>
       <c r="H5">
-        <v>0.3927673888831071</v>
+        <v>0.4563881666109023</v>
       </c>
       <c r="I5">
-        <v>1.386277031923184E-64</v>
+        <v>8.192191700952774E-37</v>
       </c>
       <c r="J5">
-        <v>15.59000015258789</v>
+        <v>8.550000190734863</v>
       </c>
       <c r="K5">
-        <v>36.7599983215332</v>
+        <v>18.72999954223633</v>
       </c>
       <c r="L5">
-        <v>0.7070784463163413</v>
+        <v>0.750359455616552</v>
       </c>
       <c r="M5">
-        <v>-0.6287147365935724</v>
+        <v>-0.673631819739283</v>
       </c>
       <c r="N5">
-        <v>0.2945130784394075</v>
+        <v>0.2880569288433442</v>
       </c>
       <c r="O5">
-        <v>-0.6287147365935706</v>
+        <v>0.3265634499331664</v>
       </c>
       <c r="P5">
-        <v>0.0130971508341797</v>
+        <v>0.01282015686941394</v>
       </c>
       <c r="Q5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" t="s">
         <v>21</v>
-      </c>
-      <c r="R5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>750</v>
+        <v>2179</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.1721288342531187</v>
+        <v>0.65266748236626</v>
       </c>
       <c r="E6">
-        <v>0.3223042541744994</v>
+        <v>0.8012150390471786</v>
       </c>
       <c r="F6">
-        <v>0.002643484887083622</v>
+        <v>0.0007380469311470453</v>
       </c>
       <c r="G6">
-        <v>3.652894875566744</v>
+        <v>1.850635985980466</v>
       </c>
       <c r="H6">
-        <v>2.35540625562268</v>
+        <v>0.3908655122105954</v>
       </c>
       <c r="I6">
-        <v>4.047766389408577E-47</v>
+        <v>1.132282552150222E-64</v>
       </c>
       <c r="J6">
-        <v>34.09999847412109</v>
+        <v>15.43000030517578</v>
       </c>
       <c r="K6">
-        <v>12.39000034332275</v>
+        <v>36.09235000610352</v>
       </c>
       <c r="L6">
-        <v>1.836824411689982</v>
+        <v>0.7039342854912718</v>
       </c>
       <c r="M6">
-        <v>-2.355406199561806</v>
+        <v>-0.6218286379401832</v>
       </c>
       <c r="N6">
-        <v>0.8114857821376179</v>
+        <v>0.2942819535842721</v>
       </c>
       <c r="O6">
-        <v>1.263619282724786</v>
+        <v>-0.527890552824422</v>
       </c>
       <c r="P6">
-        <v>0.01378326973581877</v>
+        <v>0.01296021871747022</v>
       </c>
       <c r="Q6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1126</v>
+        <v>2003</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>0.3223042541744994</v>
+        <v>0.5337828010293614</v>
       </c>
       <c r="E7">
-        <v>0.1433699279605878</v>
+        <v>0.790531816840035</v>
       </c>
       <c r="F7">
-        <v>0.004863763056166709</v>
+        <v>0.001827061274718353</v>
       </c>
       <c r="G7">
-        <v>3.860253260433124</v>
+        <v>9.747429771511962</v>
       </c>
       <c r="H7">
-        <v>2.886181052231032</v>
+        <v>0.2741542732029471</v>
       </c>
       <c r="I7">
-        <v>1.805835081450502E-43</v>
+        <v>8.766298854228735E-42</v>
       </c>
       <c r="J7">
-        <v>12.39000034332275</v>
+        <v>13.97000026702881</v>
       </c>
       <c r="K7">
-        <v>3.160000085830688</v>
+        <v>13.64000034332275</v>
       </c>
       <c r="L7">
-        <v>0.8557562220017711</v>
+        <v>0.5667997721139209</v>
       </c>
       <c r="M7">
-        <v>-1.050640176751346</v>
+        <v>-0.609115989945666</v>
       </c>
       <c r="N7">
-        <v>0.3238342573002249</v>
+        <v>0.26978819413072</v>
       </c>
       <c r="O7">
-        <v>-0.5905852898833395</v>
+        <v>0.4831061149052478</v>
       </c>
       <c r="P7">
-        <v>0.01455722335241503</v>
+        <v>0.01313907035881639</v>
       </c>
       <c r="Q7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" t="s">
         <v>23</v>
-      </c>
-      <c r="R7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>761</v>
+        <v>1955</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
       </c>
       <c r="D8">
-        <v>0.1721288342531187</v>
+        <v>0.6482330130624474</v>
       </c>
       <c r="E8">
-        <v>0.4945907317291807</v>
+        <v>0.790531816840035</v>
       </c>
       <c r="F8">
-        <v>0.007514578457753191</v>
+        <v>0.001197324863808173</v>
       </c>
       <c r="G8">
-        <v>12.53063587588689</v>
+        <v>2.052469343887221</v>
       </c>
       <c r="H8">
-        <v>2.83481406841548</v>
+        <v>3.167218788152725</v>
       </c>
       <c r="I8">
-        <v>4.171656736036529E-38</v>
+        <v>1.713935915043621E-53</v>
       </c>
       <c r="J8">
-        <v>34.09999847412109</v>
+        <v>47.97000122070312</v>
       </c>
       <c r="K8">
-        <v>8.25</v>
+        <v>13.64000034332275</v>
       </c>
       <c r="L8">
-        <v>2.716764073166388</v>
+        <v>5.936286206378583</v>
       </c>
       <c r="M8">
-        <v>-2.735932569465362</v>
+        <v>-6.1912306065568</v>
       </c>
       <c r="N8">
-        <v>0.9438623366251366</v>
+        <v>2.425600287656419</v>
       </c>
       <c r="O8">
-        <v>-1.817853466193505</v>
+        <v>2.716666519034455</v>
       </c>
       <c r="P8">
-        <v>0.01556652889968253</v>
+        <v>0.01341885762006025</v>
       </c>
       <c r="Q8" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>4</v>
+        <v>2031</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.6626209628188663</v>
+        <v>0.5337828010293614</v>
       </c>
       <c r="E9">
-        <v>0.3759114676333675</v>
+        <v>0.9651382824471374</v>
       </c>
       <c r="F9">
-        <v>0.005750779209907483</v>
+        <v>0.002575379596714816</v>
       </c>
       <c r="G9">
-        <v>-2.292960923677713</v>
+        <v>9.988106178342463</v>
       </c>
       <c r="H9">
-        <v>0.5396468418816109</v>
+        <v>0.067478786430544</v>
       </c>
       <c r="I9">
-        <v>1.676625751686577E-38</v>
+        <v>6.627387331019837E-36</v>
       </c>
       <c r="J9">
-        <v>12.92000007629395</v>
+        <v>13.97000026702881</v>
       </c>
       <c r="K9">
-        <v>27.25</v>
+        <v>54.38999938964844</v>
       </c>
       <c r="L9">
-        <v>0.9322531368279918</v>
+        <v>0.5607095747096267</v>
       </c>
       <c r="M9">
-        <v>-0.6015406112727124</v>
+        <v>-0.9958207111040345</v>
       </c>
       <c r="N9">
-        <v>0.3079016312320543</v>
+        <v>0.2977196751236844</v>
       </c>
       <c r="O9">
-        <v>0.5075845586977596</v>
+        <v>0.3117229359148403</v>
       </c>
       <c r="P9">
-        <v>0.01577536694194925</v>
+        <v>0.01410948667981666</v>
       </c>
       <c r="Q9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>307</v>
+        <v>2070</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0.3832898798295438</v>
+        <v>0.111939453737711</v>
       </c>
       <c r="E10">
-        <v>0.6482543274559329</v>
+        <v>0.235921396253171</v>
       </c>
       <c r="F10">
-        <v>0.002295563353610543</v>
+        <v>0.001159040451115344</v>
       </c>
       <c r="G10">
-        <v>2.308938968622983</v>
+        <v>-3.947958788230547</v>
       </c>
       <c r="H10">
-        <v>0.3906645405093818</v>
+        <v>1.462686069702122</v>
       </c>
       <c r="I10">
-        <v>4.083743609989334E-50</v>
+        <v>7.104793390170981E-27</v>
       </c>
       <c r="J10">
-        <v>10.72999954223633</v>
+        <v>44.79000091552734</v>
       </c>
       <c r="K10">
-        <v>23.6200008392334</v>
+        <v>34.2400016784668</v>
       </c>
       <c r="L10">
-        <v>0.9583635698949422</v>
+        <v>2.333501200104095</v>
       </c>
       <c r="M10">
-        <v>-0.8987947138162298</v>
+        <v>-2.590804306815599</v>
       </c>
       <c r="N10">
-        <v>0.328120347754245</v>
+        <v>1.023748473076714</v>
       </c>
       <c r="O10">
-        <v>-0.8064362010769823</v>
+        <v>-1.344413777912756</v>
       </c>
       <c r="P10">
-        <v>0.0159086052610682</v>
+        <v>0.0144743152357215</v>
       </c>
       <c r="Q10" t="s">
         <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>312</v>
+        <v>750</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>0.3759114676333675</v>
+        <v>0.2344714246704238</v>
       </c>
       <c r="E11">
-        <v>0.7952355712959562</v>
+        <v>0.3238595866080227</v>
       </c>
       <c r="F11">
-        <v>0.001048973902920084</v>
+        <v>0.004165223131772307</v>
       </c>
       <c r="G11">
-        <v>17.64575601701148</v>
+        <v>3.977254983201208</v>
       </c>
       <c r="H11">
-        <v>0.6729263856348744</v>
+        <v>2.330096711776864</v>
       </c>
       <c r="I11">
-        <v>1.587912971562509E-48</v>
+        <v>2.818816460861973E-46</v>
       </c>
       <c r="J11">
-        <v>27.25</v>
+        <v>33.27000045776367</v>
       </c>
       <c r="K11">
-        <v>14.9399995803833</v>
+        <v>12.10000038146973</v>
       </c>
       <c r="L11">
-        <v>0.6963215153183526</v>
+        <v>1.841488374051124</v>
       </c>
       <c r="M11">
-        <v>-1.627490851478022</v>
+        <v>-2.352007719220367</v>
       </c>
       <c r="N11">
-        <v>0.4059838212384292</v>
+        <v>0.8139249331373498</v>
       </c>
       <c r="O11">
-        <v>-0.4492759360253533</v>
+        <v>1.098574373201057</v>
       </c>
       <c r="P11">
-        <v>0.01593965199762086</v>
+        <v>0.01457974852390981</v>
       </c>
       <c r="Q11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" t="s">
         <v>26</v>
-      </c>
-      <c r="R11" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -70,10 +70,16 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>CASH3</t>
+  </si>
+  <si>
     <t>IGTI11</t>
   </si>
   <si>
-    <t>CMIG4</t>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>ENEV3</t>
   </si>
   <si>
     <t>COGN3</t>
@@ -85,40 +91,25 @@
     <t>FLRY3</t>
   </si>
   <si>
-    <t>ENEV3</t>
-  </si>
-  <si>
     <t>EMBR3</t>
   </si>
   <si>
-    <t>ENGI11</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
     <t>RAIZ4</t>
   </si>
   <si>
+    <t>ITSA4</t>
+  </si>
+  <si>
     <t>NTCO3</t>
   </si>
   <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
     <t>TIMS3</t>
   </si>
   <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
     <t>MRFG3</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
-  </si>
-  <si>
-    <t>TAEE11</t>
-  </si>
-  <si>
-    <t>CCRO3</t>
   </si>
 </sst>
 </file>
@@ -540,223 +531,223 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2439</v>
+        <v>1031</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.1005789129845632</v>
+        <v>0.5672607556690724</v>
       </c>
       <c r="E2">
-        <v>0.1561730970524192</v>
+        <v>0.6192335935730967</v>
       </c>
       <c r="F2">
-        <v>0.003796561842741817</v>
+        <v>0.006837421439913482</v>
       </c>
       <c r="G2">
-        <v>6.549846213248935</v>
+        <v>0.5062124434196084</v>
       </c>
       <c r="H2">
-        <v>4.887759253584883</v>
+        <v>0.07654634228371318</v>
       </c>
       <c r="I2">
-        <v>1.487642175370407E-49</v>
+        <v>2.88565870195934E-57</v>
       </c>
       <c r="J2">
-        <v>21.07999992370605</v>
+        <v>3.890000104904175</v>
       </c>
       <c r="K2">
-        <v>3.099999904632568</v>
+        <v>47.13000106811523</v>
       </c>
       <c r="L2">
-        <v>1.094936899245702</v>
+        <v>0.5655217641214536</v>
       </c>
       <c r="M2">
-        <v>-1.125618114408876</v>
+        <v>-0.4289400294075776</v>
       </c>
       <c r="N2">
-        <v>0.4737828099527687</v>
+        <v>0.1887703802280384</v>
       </c>
       <c r="O2">
-        <v>-0.6218995095229705</v>
+        <v>-0.2238415321071501</v>
       </c>
       <c r="P2">
-        <v>0.009913513258508129</v>
+        <v>0.009108237580833326</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1158</v>
+        <v>2439</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.7436534195842821</v>
+        <v>0.1479406463894555</v>
       </c>
       <c r="E3">
-        <v>0.6482330130624474</v>
+        <v>0.1381506289784703</v>
       </c>
       <c r="F3">
-        <v>0.0002920208153033794</v>
+        <v>0.006375063497786035</v>
       </c>
       <c r="G3">
-        <v>3.164614797417808</v>
+        <v>6.54908898023394</v>
       </c>
       <c r="H3">
-        <v>0.1576650167298239</v>
+        <v>4.886497152072437</v>
       </c>
       <c r="I3">
-        <v>2.04745900669998E-69</v>
+        <v>1.38695266416412E-48</v>
       </c>
       <c r="J3">
-        <v>11.39999961853027</v>
+        <v>21.04999923706055</v>
       </c>
       <c r="K3">
-        <v>47.97000122070312</v>
+        <v>3.109999895095825</v>
       </c>
       <c r="L3">
-        <v>0.7211022261357023</v>
+        <v>1.099795962176149</v>
       </c>
       <c r="M3">
-        <v>-0.8123459285675416</v>
+        <v>-1.121011960817331</v>
       </c>
       <c r="N3">
-        <v>0.3091217799569789</v>
+        <v>0.4774500543439531</v>
       </c>
       <c r="O3">
-        <v>0.6721937761206336</v>
+        <v>-0.6960953735047202</v>
       </c>
       <c r="P3">
-        <v>0.01068835113578938</v>
+        <v>0.01008866125678545</v>
       </c>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1304</v>
+        <v>1405</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>0.6033666935875112</v>
+        <v>0.5655826193548568</v>
       </c>
       <c r="E4">
-        <v>0.464534001717985</v>
+        <v>0.631146653853595</v>
       </c>
       <c r="F4">
-        <v>0.0004984182582040708</v>
+        <v>0.0002443993036162339</v>
       </c>
       <c r="G4">
-        <v>-1.980105255779367</v>
+        <v>0.7493029031902949</v>
       </c>
       <c r="H4">
-        <v>0.2435650578239101</v>
+        <v>0.5998049334816482</v>
       </c>
       <c r="I4">
-        <v>6.231926430310873E-61</v>
+        <v>2.708753560804896E-66</v>
       </c>
       <c r="J4">
-        <v>1.279999971389771</v>
+        <v>10.0600004196167</v>
       </c>
       <c r="K4">
-        <v>14.05000019073486</v>
+        <v>15.14000034332275</v>
       </c>
       <c r="L4">
-        <v>0.2875206290348358</v>
+        <v>0.3343381665565914</v>
       </c>
       <c r="M4">
-        <v>-0.5294901678948625</v>
+        <v>-0.5695850585477338</v>
       </c>
       <c r="N4">
-        <v>0.1318269275888655</v>
+        <v>0.1824301655614354</v>
       </c>
       <c r="O4">
-        <v>-0.1619838817131467</v>
+        <v>0.2296506175875699</v>
       </c>
       <c r="P4">
-        <v>0.01183843545146788</v>
+        <v>0.01060607485212641</v>
       </c>
       <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" t="s">
         <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1774</v>
+        <v>1996</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.5716688511603102</v>
+        <v>0.5064016524479197</v>
       </c>
       <c r="E5">
-        <v>0.5840886699014191</v>
+        <v>0.7628068117294806</v>
       </c>
       <c r="F5">
-        <v>0.001201547243643109</v>
+        <v>0.0001233733691870338</v>
       </c>
       <c r="G5">
-        <v>-0.3247134109025778</v>
+        <v>4.256503438314297</v>
       </c>
       <c r="H5">
-        <v>0.4563881666109023</v>
+        <v>0.8579112118630055</v>
       </c>
       <c r="I5">
-        <v>8.192191700952774E-37</v>
+        <v>1.375659078358624E-51</v>
       </c>
       <c r="J5">
-        <v>8.550000190734863</v>
+        <v>13.93000030517578</v>
       </c>
       <c r="K5">
-        <v>18.72999954223633</v>
+        <v>10.89000034332275</v>
       </c>
       <c r="L5">
-        <v>0.750359455616552</v>
+        <v>0.5362388490017231</v>
       </c>
       <c r="M5">
-        <v>-0.673631819739283</v>
+        <v>-0.5268483145168599</v>
       </c>
       <c r="N5">
-        <v>0.2880569288433442</v>
+        <v>0.2315629623066925</v>
       </c>
       <c r="O5">
-        <v>0.3265634499331664</v>
+        <v>0.3308434751329141</v>
       </c>
       <c r="P5">
-        <v>0.01282015686941394</v>
+        <v>0.01061151060115726</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R5" t="s">
         <v>21</v>
@@ -764,338 +755,338 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2179</v>
+        <v>1304</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.65266748236626</v>
+        <v>0.4186453798716071</v>
       </c>
       <c r="E6">
-        <v>0.8012150390471786</v>
+        <v>0.4127966302411872</v>
       </c>
       <c r="F6">
-        <v>0.0007380469311470453</v>
+        <v>0.0002887252947095614</v>
       </c>
       <c r="G6">
-        <v>1.850635985980466</v>
+        <v>-1.972525498195889</v>
       </c>
       <c r="H6">
-        <v>0.3908655122105954</v>
+        <v>0.2429041127350087</v>
       </c>
       <c r="I6">
-        <v>1.132282552150222E-64</v>
+        <v>6.854909724151447E-61</v>
       </c>
       <c r="J6">
-        <v>15.43000030517578</v>
+        <v>1.279999971389771</v>
       </c>
       <c r="K6">
-        <v>36.09235000610352</v>
+        <v>14.03999996185303</v>
       </c>
       <c r="L6">
-        <v>0.7039342854912718</v>
+        <v>0.2896898115126525</v>
       </c>
       <c r="M6">
-        <v>-0.6218286379401832</v>
+        <v>-0.5262436454768231</v>
       </c>
       <c r="N6">
-        <v>0.2942819535842721</v>
+        <v>0.131240997318697</v>
       </c>
       <c r="O6">
-        <v>-0.527890552824422</v>
+        <v>-0.1578482639478058</v>
       </c>
       <c r="P6">
-        <v>0.01296021871747022</v>
+        <v>0.0115084174152444</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.5337828010293614</v>
+        <v>0.5064016524479197</v>
       </c>
       <c r="E7">
-        <v>0.790531816840035</v>
+        <v>0.7395793763749349</v>
       </c>
       <c r="F7">
-        <v>0.001827061274718353</v>
+        <v>0.001438391432982186</v>
       </c>
       <c r="G7">
-        <v>9.747429771511962</v>
+        <v>5.284106032063289</v>
       </c>
       <c r="H7">
-        <v>0.2741542732029471</v>
+        <v>0.2300324313166229</v>
       </c>
       <c r="I7">
-        <v>8.766298854228735E-42</v>
+        <v>2.238643428736554E-45</v>
       </c>
       <c r="J7">
-        <v>13.97000026702881</v>
+        <v>13.93000030517578</v>
       </c>
       <c r="K7">
-        <v>13.64000034332275</v>
+        <v>35.5</v>
       </c>
       <c r="L7">
-        <v>0.5667997721139209</v>
+        <v>0.5254510951816336</v>
       </c>
       <c r="M7">
-        <v>-0.609115989945666</v>
+        <v>-0.5345825802253312</v>
       </c>
       <c r="N7">
-        <v>0.26978819413072</v>
+        <v>0.2569937566559063</v>
       </c>
       <c r="O7">
-        <v>0.4831061149052478</v>
+        <v>0.4797429613723789</v>
       </c>
       <c r="P7">
-        <v>0.01313907035881639</v>
+        <v>0.01287476197401099</v>
       </c>
       <c r="Q7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1955</v>
+        <v>1774</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.6482330130624474</v>
+        <v>0.5062647013673898</v>
       </c>
       <c r="E8">
-        <v>0.790531816840035</v>
+        <v>0.5828554727222861</v>
       </c>
       <c r="F8">
-        <v>0.001197324863808173</v>
+        <v>0.00142519798793496</v>
       </c>
       <c r="G8">
-        <v>2.052469343887221</v>
+        <v>-0.4087793076325026</v>
       </c>
       <c r="H8">
-        <v>3.167218788152725</v>
+        <v>0.4614133262100135</v>
       </c>
       <c r="I8">
-        <v>1.713935915043621E-53</v>
+        <v>3.124960110267246E-37</v>
       </c>
       <c r="J8">
-        <v>47.97000122070312</v>
+        <v>8.720000267028809</v>
       </c>
       <c r="K8">
-        <v>13.64000034332275</v>
+        <v>18.60000038146973</v>
       </c>
       <c r="L8">
-        <v>5.936286206378583</v>
+        <v>0.7472835424372208</v>
       </c>
       <c r="M8">
-        <v>-6.1912306065568</v>
+        <v>-0.6775233055696974</v>
       </c>
       <c r="N8">
-        <v>2.425600287656419</v>
+        <v>0.2905196854914696</v>
       </c>
       <c r="O8">
-        <v>2.716666519034455</v>
+        <v>0.5464915311398446</v>
       </c>
       <c r="P8">
-        <v>0.01341885762006025</v>
+        <v>0.01287858367002095</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2031</v>
+        <v>1988</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>0.5337828010293614</v>
+        <v>0.5064016524479197</v>
       </c>
       <c r="E9">
-        <v>0.9651382824471374</v>
+        <v>0.631146653853595</v>
       </c>
       <c r="F9">
-        <v>0.002575379596714816</v>
+        <v>0.00736642750899315</v>
       </c>
       <c r="G9">
-        <v>9.988106178342463</v>
+        <v>4.481226294957195</v>
       </c>
       <c r="H9">
-        <v>0.067478786430544</v>
+        <v>0.5693377904279717</v>
       </c>
       <c r="I9">
-        <v>6.627387331019837E-36</v>
+        <v>1.970870788262189E-51</v>
       </c>
       <c r="J9">
-        <v>13.97000026702881</v>
+        <v>13.93000030517578</v>
       </c>
       <c r="K9">
-        <v>54.38999938964844</v>
+        <v>15.14000034332275</v>
       </c>
       <c r="L9">
-        <v>0.5607095747096267</v>
+        <v>0.8289996676724769</v>
       </c>
       <c r="M9">
-        <v>-0.9958207111040345</v>
+        <v>-0.6197689212833701</v>
       </c>
       <c r="N9">
-        <v>0.2977196751236844</v>
+        <v>0.2321704613966665</v>
       </c>
       <c r="O9">
-        <v>0.3117229359148403</v>
+        <v>0.8289996676724751</v>
       </c>
       <c r="P9">
-        <v>0.01410948667981666</v>
+        <v>0.01326061841920971</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2070</v>
+        <v>2179</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>0.111939453737711</v>
+        <v>0.631146653853595</v>
       </c>
       <c r="E10">
-        <v>0.235921396253171</v>
+        <v>0.7395793763749349</v>
       </c>
       <c r="F10">
-        <v>0.001159040451115344</v>
+        <v>0.002019754750909308</v>
       </c>
       <c r="G10">
-        <v>-3.947958788230547</v>
+        <v>1.913883261034274</v>
       </c>
       <c r="H10">
-        <v>1.462686069702122</v>
+        <v>0.3889613500230724</v>
       </c>
       <c r="I10">
-        <v>7.104793390170981E-27</v>
+        <v>1.723035102650382E-64</v>
       </c>
       <c r="J10">
-        <v>44.79000091552734</v>
+        <v>15.14000034332275</v>
       </c>
       <c r="K10">
-        <v>34.2400016784668</v>
+        <v>35.5</v>
       </c>
       <c r="L10">
-        <v>2.333501200104095</v>
+        <v>0.7015292804019992</v>
       </c>
       <c r="M10">
-        <v>-2.590804306815599</v>
+        <v>-0.6151131266855074</v>
       </c>
       <c r="N10">
-        <v>1.023748473076714</v>
+        <v>0.2949778624439345</v>
       </c>
       <c r="O10">
-        <v>-1.344413777912756</v>
+        <v>-0.5820108435305915</v>
       </c>
       <c r="P10">
-        <v>0.0144743152357215</v>
+        <v>0.01333192770779673</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>750</v>
+        <v>2003</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.2344714246704238</v>
+        <v>0.5064016524479197</v>
       </c>
       <c r="E11">
-        <v>0.3238595866080227</v>
+        <v>0.8254874107120611</v>
       </c>
       <c r="F11">
-        <v>0.004165223131772307</v>
+        <v>0.002208745953353413</v>
       </c>
       <c r="G11">
-        <v>3.977254983201208</v>
+        <v>9.703799418281122</v>
       </c>
       <c r="H11">
-        <v>2.330096711776864</v>
+        <v>0.2779026911784495</v>
       </c>
       <c r="I11">
-        <v>2.818816460861973E-46</v>
+        <v>2.328101560163595E-42</v>
       </c>
       <c r="J11">
-        <v>33.27000045776367</v>
+        <v>13.93000030517578</v>
       </c>
       <c r="K11">
-        <v>12.10000038146973</v>
+        <v>13.75</v>
       </c>
       <c r="L11">
-        <v>1.841488374051124</v>
+        <v>0.576169583761752</v>
       </c>
       <c r="M11">
-        <v>-2.352007719220367</v>
+        <v>-0.6200626040110375</v>
       </c>
       <c r="N11">
-        <v>0.8139249331373498</v>
+        <v>0.2703297972411602</v>
       </c>
       <c r="O11">
-        <v>1.098574373201057</v>
+        <v>0.4050388831909792</v>
       </c>
       <c r="P11">
-        <v>0.01457974852390981</v>
+        <v>0.01338614412394884</v>
       </c>
       <c r="Q11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -70,46 +70,55 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>CASH3</t>
-  </si>
-  <si>
     <t>IGTI11</t>
   </si>
   <si>
     <t>CPLE6</t>
   </si>
   <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
     <t>ENEV3</t>
   </si>
   <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>EMBR3</t>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
   </si>
   <si>
     <t>RAIZ4</t>
   </si>
   <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
     <t>NTCO3</t>
   </si>
   <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
     <t>ITUB4</t>
   </si>
   <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
+    <t>LREN3</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>TAEE11</t>
   </si>
 </sst>
 </file>
@@ -531,223 +540,223 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1031</v>
+        <v>2439</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.5672607556690724</v>
+        <v>0.1427275149392109</v>
       </c>
       <c r="E2">
-        <v>0.6192335935730967</v>
+        <v>0.141911559288222</v>
       </c>
       <c r="F2">
-        <v>0.006837421439913482</v>
+        <v>0.007619322993606356</v>
       </c>
       <c r="G2">
-        <v>0.5062124434196084</v>
+        <v>6.590963252986348</v>
       </c>
       <c r="H2">
-        <v>0.07654634228371318</v>
+        <v>4.870751251921159</v>
       </c>
       <c r="I2">
-        <v>2.88565870195934E-57</v>
+        <v>3.335117624088686E-48</v>
       </c>
       <c r="J2">
-        <v>3.890000104904175</v>
+        <v>21.07999992370605</v>
       </c>
       <c r="K2">
-        <v>47.13000106811523</v>
+        <v>3.160000085830688</v>
       </c>
       <c r="L2">
-        <v>0.5655217641214536</v>
+        <v>1.109095864915393</v>
       </c>
       <c r="M2">
-        <v>-0.4289400294075776</v>
+        <v>-1.114867339296268</v>
       </c>
       <c r="N2">
-        <v>0.1887703802280384</v>
+        <v>0.4818708175035917</v>
       </c>
       <c r="O2">
-        <v>-0.2238415321071501</v>
+        <v>-0.90253770341109</v>
       </c>
       <c r="P2">
-        <v>0.009108237580833326</v>
+        <v>0.01045522824274099</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2439</v>
+        <v>1405</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>0.1479406463894555</v>
+        <v>0.6294911080400865</v>
       </c>
       <c r="E3">
-        <v>0.1381506289784703</v>
+        <v>0.6332011089887744</v>
       </c>
       <c r="F3">
-        <v>0.006375063497786035</v>
+        <v>0.0003205013065115601</v>
       </c>
       <c r="G3">
-        <v>6.54908898023394</v>
+        <v>0.7376674076974309</v>
       </c>
       <c r="H3">
-        <v>4.886497152072437</v>
+        <v>0.6001445991220395</v>
       </c>
       <c r="I3">
-        <v>1.38695266416412E-48</v>
+        <v>2.223002079660379E-66</v>
       </c>
       <c r="J3">
-        <v>21.04999923706055</v>
+        <v>10.14999961853027</v>
       </c>
       <c r="K3">
-        <v>3.109999895095825</v>
+        <v>15.21000003814697</v>
       </c>
       <c r="L3">
-        <v>1.099795962176149</v>
+        <v>0.3326886123442776</v>
       </c>
       <c r="M3">
-        <v>-1.121011960817331</v>
+        <v>-0.5713000063455738</v>
       </c>
       <c r="N3">
-        <v>0.4774500543439531</v>
+        <v>0.1832901978399398</v>
       </c>
       <c r="O3">
-        <v>-0.6960953735047202</v>
+        <v>0.2841328352929207</v>
       </c>
       <c r="P3">
-        <v>0.01008866125678545</v>
+        <v>0.01082827259303977</v>
       </c>
       <c r="Q3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1405</v>
+        <v>1304</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.5655826193548568</v>
+        <v>0.4230773762872752</v>
       </c>
       <c r="E4">
-        <v>0.631146653853595</v>
+        <v>0.3810347335582972</v>
       </c>
       <c r="F4">
-        <v>0.0002443993036162339</v>
+        <v>0.0004164454433182978</v>
       </c>
       <c r="G4">
-        <v>0.7493029031902949</v>
+        <v>-1.99105992662227</v>
       </c>
       <c r="H4">
-        <v>0.5998049334816482</v>
+        <v>0.2439962018352753</v>
       </c>
       <c r="I4">
-        <v>2.708753560804896E-66</v>
+        <v>3.351382430061382E-61</v>
       </c>
       <c r="J4">
-        <v>10.0600004196167</v>
+        <v>1.269999980926514</v>
       </c>
       <c r="K4">
-        <v>15.14000034332275</v>
+        <v>14.26000022888184</v>
       </c>
       <c r="L4">
-        <v>0.3343381665565914</v>
+        <v>0.2921159257101014</v>
       </c>
       <c r="M4">
-        <v>-0.5695850585477338</v>
+        <v>-0.5255976355962915</v>
       </c>
       <c r="N4">
-        <v>0.1824301655614354</v>
+        <v>0.1320842998426333</v>
       </c>
       <c r="O4">
-        <v>0.2296506175875699</v>
+        <v>-0.2183259864685407</v>
       </c>
       <c r="P4">
-        <v>0.01060607485212641</v>
+        <v>0.01176276926520398</v>
       </c>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1996</v>
+        <v>1774</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.5064016524479197</v>
+        <v>0.5354099295217187</v>
       </c>
       <c r="E5">
-        <v>0.7628068117294806</v>
+        <v>0.7037035204722347</v>
       </c>
       <c r="F5">
-        <v>0.0001233733691870338</v>
+        <v>0.001335869110344517</v>
       </c>
       <c r="G5">
-        <v>4.256503438314297</v>
+        <v>-0.518095498605343</v>
       </c>
       <c r="H5">
-        <v>0.8579112118630055</v>
+        <v>0.4680304508533553</v>
       </c>
       <c r="I5">
-        <v>1.375659078358624E-51</v>
+        <v>4.069708158922248E-38</v>
       </c>
       <c r="J5">
-        <v>13.93000030517578</v>
+        <v>8.75</v>
       </c>
       <c r="K5">
-        <v>10.89000034332275</v>
+        <v>18.75</v>
       </c>
       <c r="L5">
-        <v>0.5362388490017231</v>
+        <v>0.7418494548291061</v>
       </c>
       <c r="M5">
-        <v>-0.5268483145168599</v>
+        <v>-0.6840292993901116</v>
       </c>
       <c r="N5">
-        <v>0.2315629623066925</v>
+        <v>0.2925464584301147</v>
       </c>
       <c r="O5">
-        <v>0.3308434751329141</v>
+        <v>0.4925245451049314</v>
       </c>
       <c r="P5">
-        <v>0.01061151060115726</v>
+        <v>0.01299248708709998</v>
       </c>
       <c r="Q5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
         <v>21</v>
@@ -755,58 +764,58 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1304</v>
+        <v>2179</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.4186453798716071</v>
+        <v>0.6332011089887744</v>
       </c>
       <c r="E6">
-        <v>0.4127966302411872</v>
+        <v>0.7724904374061385</v>
       </c>
       <c r="F6">
-        <v>0.0002887252947095614</v>
+        <v>0.002562643912165396</v>
       </c>
       <c r="G6">
-        <v>-1.972525498195889</v>
+        <v>1.988249957307292</v>
       </c>
       <c r="H6">
-        <v>0.2429041127350087</v>
+        <v>0.3866092044059108</v>
       </c>
       <c r="I6">
-        <v>6.854909724151447E-61</v>
+        <v>4.071250466955078E-64</v>
       </c>
       <c r="J6">
-        <v>1.279999971389771</v>
+        <v>15.21000003814697</v>
       </c>
       <c r="K6">
-        <v>14.03999996185303</v>
+        <v>35.72000122070312</v>
       </c>
       <c r="L6">
-        <v>0.2896898115126525</v>
+        <v>0.7023165377974472</v>
       </c>
       <c r="M6">
-        <v>-0.5262436454768231</v>
+        <v>-0.6030572155471319</v>
       </c>
       <c r="N6">
-        <v>0.131240997318697</v>
+        <v>0.2981609470680139</v>
       </c>
       <c r="O6">
-        <v>-0.1578482639478058</v>
+        <v>-0.5879311724745193</v>
       </c>
       <c r="P6">
-        <v>0.0115084174152444</v>
+        <v>0.01380665990079309</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -814,279 +823,279 @@
         <v>1997</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.5064016524479197</v>
+        <v>0.6557212094072954</v>
       </c>
       <c r="E7">
-        <v>0.7395793763749349</v>
+        <v>0.7724904374061385</v>
       </c>
       <c r="F7">
-        <v>0.001438391432982186</v>
+        <v>0.005155021801337813</v>
       </c>
       <c r="G7">
-        <v>5.284106032063289</v>
+        <v>5.18963239329556</v>
       </c>
       <c r="H7">
-        <v>0.2300324313166229</v>
+        <v>0.2330205426937051</v>
       </c>
       <c r="I7">
-        <v>2.238643428736554E-45</v>
+        <v>4.036135879353448E-45</v>
       </c>
       <c r="J7">
-        <v>13.93000030517578</v>
+        <v>14.26000022888184</v>
       </c>
       <c r="K7">
-        <v>35.5</v>
+        <v>35.72000122070312</v>
       </c>
       <c r="L7">
-        <v>0.5254510951816336</v>
+        <v>0.7468737661182274</v>
       </c>
       <c r="M7">
-        <v>-0.5345825802253312</v>
+        <v>-0.5415667009321083</v>
       </c>
       <c r="N7">
-        <v>0.2569937566559063</v>
+        <v>0.2638633125688609</v>
       </c>
       <c r="O7">
-        <v>0.4797429613723789</v>
+        <v>0.7468737661182256</v>
       </c>
       <c r="P7">
-        <v>0.01287476197401099</v>
+        <v>0.01410981859197458</v>
       </c>
       <c r="Q7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1774</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.5062647013673898</v>
+        <v>0.9402368033811181</v>
       </c>
       <c r="E8">
-        <v>0.5828554727222861</v>
+        <v>0.8696627069374374</v>
       </c>
       <c r="F8">
-        <v>0.00142519798793496</v>
+        <v>0.004038536565402531</v>
       </c>
       <c r="G8">
-        <v>-0.4087793076325026</v>
+        <v>8.104413095252594</v>
       </c>
       <c r="H8">
-        <v>0.4614133262100135</v>
+        <v>0.2704011734275407</v>
       </c>
       <c r="I8">
-        <v>3.124960110267246E-37</v>
+        <v>2.191924165407852E-54</v>
       </c>
       <c r="J8">
-        <v>8.720000267028809</v>
+        <v>13.72000026702881</v>
       </c>
       <c r="K8">
-        <v>18.60000038146973</v>
+        <v>18.35000038146973</v>
       </c>
       <c r="L8">
-        <v>0.7472835424372208</v>
+        <v>0.6635180901372841</v>
       </c>
       <c r="M8">
-        <v>-0.6775233055696974</v>
+        <v>-0.4732560402162846</v>
       </c>
       <c r="N8">
-        <v>0.2905196854914696</v>
+        <v>0.2485866318220874</v>
       </c>
       <c r="O8">
-        <v>0.5464915311398446</v>
+        <v>0.6537255362309811</v>
       </c>
       <c r="P8">
-        <v>0.01287858367002095</v>
+        <v>0.01413915171739111</v>
       </c>
       <c r="Q8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1988</v>
+        <v>2031</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.5064016524479197</v>
+        <v>0.6557212094072954</v>
       </c>
       <c r="E9">
-        <v>0.631146653853595</v>
+        <v>0.9668005519640462</v>
       </c>
       <c r="F9">
-        <v>0.00736642750899315</v>
+        <v>0.004413952260856453</v>
       </c>
       <c r="G9">
-        <v>4.481226294957195</v>
+        <v>9.917244739745993</v>
       </c>
       <c r="H9">
-        <v>0.5693377904279717</v>
+        <v>0.06914149444783821</v>
       </c>
       <c r="I9">
-        <v>1.970870788262189E-51</v>
+        <v>1.334495055096274E-37</v>
       </c>
       <c r="J9">
-        <v>13.93000030517578</v>
+        <v>14.26000022888184</v>
       </c>
       <c r="K9">
-        <v>15.14000034332275</v>
+        <v>55.34999847412109</v>
       </c>
       <c r="L9">
-        <v>0.8289996676724769</v>
+        <v>0.567476658674531</v>
       </c>
       <c r="M9">
-        <v>-0.6197689212833701</v>
+        <v>-1.01237683650198</v>
       </c>
       <c r="N9">
-        <v>0.2321704613966665</v>
+        <v>0.2990372362806369</v>
       </c>
       <c r="O9">
-        <v>0.8289996676724751</v>
+        <v>0.5157738769495466</v>
       </c>
       <c r="P9">
-        <v>0.01326061841920971</v>
+        <v>0.01450701292171205</v>
       </c>
       <c r="Q9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2179</v>
+        <v>760</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0.631146653853595</v>
+        <v>0.1575297585373093</v>
       </c>
       <c r="E10">
-        <v>0.7395793763749349</v>
+        <v>0.1058672499072026</v>
       </c>
       <c r="F10">
-        <v>0.002019754750909308</v>
+        <v>0.006199081848013894</v>
       </c>
       <c r="G10">
-        <v>1.913883261034274</v>
+        <v>11.36550505518132</v>
       </c>
       <c r="H10">
-        <v>0.3889613500230724</v>
+        <v>1.0640441740223</v>
       </c>
       <c r="I10">
-        <v>1.723035102650382E-64</v>
+        <v>1.982181113386216E-47</v>
       </c>
       <c r="J10">
-        <v>15.14000034332275</v>
+        <v>32.45000076293945</v>
       </c>
       <c r="K10">
-        <v>35.5</v>
+        <v>21.54000091552734</v>
       </c>
       <c r="L10">
-        <v>0.7015292804019992</v>
+        <v>1.955231092027532</v>
       </c>
       <c r="M10">
-        <v>-0.6151131266855074</v>
+        <v>-2.091321063352993</v>
       </c>
       <c r="N10">
-        <v>0.2949778624439345</v>
+        <v>0.7970676554198939</v>
       </c>
       <c r="O10">
-        <v>-0.5820108435305915</v>
+        <v>-1.835016774843748</v>
       </c>
       <c r="P10">
-        <v>0.01333192770779673</v>
+        <v>0.01472621943159545</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2003</v>
+        <v>2070</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>0.5064016524479197</v>
+        <v>0.1140870882010266</v>
       </c>
       <c r="E11">
-        <v>0.8254874107120611</v>
+        <v>0.2306194757440777</v>
       </c>
       <c r="F11">
-        <v>0.002208745953353413</v>
+        <v>0.001547656204201592</v>
       </c>
       <c r="G11">
-        <v>9.703799418281122</v>
+        <v>-4.40108771078577</v>
       </c>
       <c r="H11">
-        <v>0.2779026911784495</v>
+        <v>1.474843601960359</v>
       </c>
       <c r="I11">
-        <v>2.328101560163595E-42</v>
+        <v>3.853812240470413E-27</v>
       </c>
       <c r="J11">
-        <v>13.93000030517578</v>
+        <v>44.75</v>
       </c>
       <c r="K11">
-        <v>13.75</v>
+        <v>34.47000122070312</v>
       </c>
       <c r="L11">
-        <v>0.576169583761752</v>
+        <v>2.356375063460661</v>
       </c>
       <c r="M11">
-        <v>-0.6200626040110375</v>
+        <v>-2.556008415155887</v>
       </c>
       <c r="N11">
-        <v>0.2703297972411602</v>
+        <v>1.022470334038852</v>
       </c>
       <c r="O11">
-        <v>0.4050388831909792</v>
+        <v>-1.686773049133997</v>
       </c>
       <c r="P11">
-        <v>0.01338614412394884</v>
+        <v>0.01475406347696471</v>
       </c>
       <c r="Q11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="R11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -70,55 +70,55 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
+    <t>CRFB3</t>
+  </si>
+  <si>
+    <t>LREN3</t>
   </si>
   <si>
     <t>COGN3</t>
   </si>
   <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
     <t>DXCO3</t>
   </si>
   <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
     <t>ENEV3</t>
   </si>
   <si>
-    <t>ABEV3</t>
+    <t>BBAS3</t>
   </si>
   <si>
     <t>BPAC11</t>
   </si>
   <si>
-    <t>ENGI11</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
+    <t>GOLL4</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
   </si>
   <si>
     <t>NTCO3</t>
   </si>
   <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
     <t>ITUB4</t>
   </si>
   <si>
-    <t>LREN3</t>
-  </si>
-  <si>
     <t>WEGE3</t>
   </si>
   <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>IRBR3</t>
+  </si>
+  <si>
     <t>CYRE3</t>
-  </si>
-  <si>
-    <t>TAEE11</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2439</v>
+        <v>1466</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -549,43 +549,43 @@
         <v>27</v>
       </c>
       <c r="D2">
-        <v>0.1427275149392109</v>
+        <v>0.3467382221279167</v>
       </c>
       <c r="E2">
-        <v>0.141911559288222</v>
+        <v>0.1364184231364326</v>
       </c>
       <c r="F2">
-        <v>0.007619322993606356</v>
+        <v>0.0006393708673159974</v>
       </c>
       <c r="G2">
-        <v>6.590963252986348</v>
+        <v>1.774613513822821</v>
       </c>
       <c r="H2">
-        <v>4.870751251921159</v>
+        <v>7.058483732760855</v>
       </c>
       <c r="I2">
-        <v>3.335117624088686E-48</v>
+        <v>1.799164486590978E-69</v>
       </c>
       <c r="J2">
-        <v>21.07999992370605</v>
+        <v>8.640000343322754</v>
       </c>
       <c r="K2">
-        <v>3.160000085830688</v>
+        <v>1.039999961853027</v>
       </c>
       <c r="L2">
-        <v>1.109095864915393</v>
+        <v>1.16403632099896</v>
       </c>
       <c r="M2">
-        <v>-1.114867339296268</v>
+        <v>-1.477075341413313</v>
       </c>
       <c r="N2">
-        <v>0.4818708175035917</v>
+        <v>0.4650243088377597</v>
       </c>
       <c r="O2">
-        <v>-0.90253770341109</v>
+        <v>-0.4754359833115691</v>
       </c>
       <c r="P2">
-        <v>0.01045522824274099</v>
+        <v>0.01171898710374957</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -596,55 +596,55 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1405</v>
+        <v>2656</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0.6294911080400865</v>
+        <v>0.8944365718921057</v>
       </c>
       <c r="E3">
-        <v>0.6332011089887744</v>
+        <v>0.5382497454749823</v>
       </c>
       <c r="F3">
-        <v>0.0003205013065115601</v>
+        <v>0.0001146763963049846</v>
       </c>
       <c r="G3">
-        <v>0.7376674076974309</v>
+        <v>-17.70601262826665</v>
       </c>
       <c r="H3">
-        <v>0.6001445991220395</v>
+        <v>1.919101804540742</v>
       </c>
       <c r="I3">
-        <v>2.223002079660379E-66</v>
+        <v>2.798231406756279E-56</v>
       </c>
       <c r="J3">
-        <v>10.14999961853027</v>
+        <v>17.95999908447266</v>
       </c>
       <c r="K3">
-        <v>15.21000003814697</v>
+        <v>18.06999969482422</v>
       </c>
       <c r="L3">
-        <v>0.3326886123442776</v>
+        <v>2.118286045037312</v>
       </c>
       <c r="M3">
-        <v>-0.5713000063455738</v>
+        <v>-2.714988957218775</v>
       </c>
       <c r="N3">
-        <v>0.1832901978399398</v>
+        <v>0.8184230345718544</v>
       </c>
       <c r="O3">
-        <v>0.2841328352929207</v>
+        <v>0.9878426903514921</v>
       </c>
       <c r="P3">
-        <v>0.01082827259303977</v>
+        <v>0.01184702848049542</v>
       </c>
       <c r="Q3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -658,217 +658,217 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>0.4230773762872752</v>
+        <v>0.4613602033061051</v>
       </c>
       <c r="E4">
-        <v>0.3810347335582972</v>
+        <v>0.3401008041158045</v>
       </c>
       <c r="F4">
-        <v>0.0004164454433182978</v>
+        <v>0.001272866689581438</v>
       </c>
       <c r="G4">
-        <v>-1.99105992662227</v>
+        <v>-2.01222400490074</v>
       </c>
       <c r="H4">
-        <v>0.2439962018352753</v>
+        <v>0.2452007304058462</v>
       </c>
       <c r="I4">
-        <v>3.351382430061382E-61</v>
+        <v>1.015075812699494E-60</v>
       </c>
       <c r="J4">
-        <v>1.269999980926514</v>
+        <v>1.230000019073486</v>
       </c>
       <c r="K4">
-        <v>14.26000022888184</v>
+        <v>14.63000011444092</v>
       </c>
       <c r="L4">
-        <v>0.2921159257101014</v>
+        <v>0.2955132075726512</v>
       </c>
       <c r="M4">
-        <v>-0.5255976355962915</v>
+        <v>-0.5241637342928915</v>
       </c>
       <c r="N4">
-        <v>0.1320842998426333</v>
+        <v>0.1348171042621385</v>
       </c>
       <c r="O4">
-        <v>-0.2183259864685407</v>
+        <v>-0.3450626899242999</v>
       </c>
       <c r="P4">
-        <v>0.01176276926520398</v>
+        <v>0.01253809348628279</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1774</v>
+        <v>2179</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>0.5354099295217187</v>
+        <v>0.6267551188150982</v>
       </c>
       <c r="E5">
-        <v>0.7037035204722347</v>
+        <v>0.6943847121522195</v>
       </c>
       <c r="F5">
-        <v>0.001335869110344517</v>
+        <v>0.00120664033158269</v>
       </c>
       <c r="G5">
-        <v>-0.518095498605343</v>
+        <v>2.010739358257409</v>
       </c>
       <c r="H5">
-        <v>0.4680304508533553</v>
+        <v>0.3858714355242787</v>
       </c>
       <c r="I5">
-        <v>4.069708158922248E-38</v>
+        <v>2.326810348194741E-64</v>
       </c>
       <c r="J5">
-        <v>8.75</v>
+        <v>15.14999961853027</v>
       </c>
       <c r="K5">
-        <v>18.75</v>
+        <v>34.84000015258789</v>
       </c>
       <c r="L5">
-        <v>0.7418494548291061</v>
+        <v>0.7034009639869794</v>
       </c>
       <c r="M5">
-        <v>-0.6840292993901116</v>
+        <v>-0.5984394893056155</v>
       </c>
       <c r="N5">
-        <v>0.2925464584301147</v>
+        <v>0.2982180812660606</v>
       </c>
       <c r="O5">
-        <v>0.4925245451049314</v>
+        <v>-0.304500612272312</v>
       </c>
       <c r="P5">
-        <v>0.01299248708709998</v>
+        <v>0.0133072297056834</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2179</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>0.6332011089887744</v>
+        <v>0.8476289160084642</v>
       </c>
       <c r="E6">
-        <v>0.7724904374061385</v>
+        <v>0.8944365718921057</v>
       </c>
       <c r="F6">
-        <v>0.002562643912165396</v>
+        <v>0.001636992253528765</v>
       </c>
       <c r="G6">
-        <v>1.988249957307292</v>
+        <v>8.07408072209771</v>
       </c>
       <c r="H6">
-        <v>0.3866092044059108</v>
+        <v>0.2726217411594237</v>
       </c>
       <c r="I6">
-        <v>4.071250466955078E-64</v>
+        <v>5.215894011996444E-55</v>
       </c>
       <c r="J6">
-        <v>15.21000003814697</v>
+        <v>13.39999961853027</v>
       </c>
       <c r="K6">
-        <v>35.72000122070312</v>
+        <v>17.95999908447266</v>
       </c>
       <c r="L6">
-        <v>0.7023165377974472</v>
+        <v>0.6541689160598452</v>
       </c>
       <c r="M6">
-        <v>-0.6030572155471319</v>
+        <v>-0.4801972048398451</v>
       </c>
       <c r="N6">
-        <v>0.2981609470680139</v>
+        <v>0.250390201863754</v>
       </c>
       <c r="O6">
-        <v>-0.5879311724745193</v>
+        <v>0.4296326748019732</v>
       </c>
       <c r="P6">
-        <v>0.01380665990079309</v>
+        <v>0.01357544805162056</v>
       </c>
       <c r="Q6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" t="s">
         <v>22</v>
-      </c>
-      <c r="R6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1997</v>
+        <v>1774</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.6557212094072954</v>
+        <v>0.4833905224756213</v>
       </c>
       <c r="E7">
-        <v>0.7724904374061385</v>
+        <v>0.5382497454749823</v>
       </c>
       <c r="F7">
-        <v>0.005155021801337813</v>
+        <v>0.002896758295235315</v>
       </c>
       <c r="G7">
-        <v>5.18963239329556</v>
+        <v>-0.6047492604511562</v>
       </c>
       <c r="H7">
-        <v>0.2330205426937051</v>
+        <v>0.4733964524115781</v>
       </c>
       <c r="I7">
-        <v>4.036135879353448E-45</v>
+        <v>3.450625505134486E-38</v>
       </c>
       <c r="J7">
-        <v>14.26000022888184</v>
+        <v>8.640000343322754</v>
       </c>
       <c r="K7">
-        <v>35.72000122070312</v>
+        <v>18.06999969482422</v>
       </c>
       <c r="L7">
-        <v>0.7468737661182274</v>
+        <v>0.7354498914966037</v>
       </c>
       <c r="M7">
-        <v>-0.5415667009321083</v>
+        <v>-0.6912988135253144</v>
       </c>
       <c r="N7">
-        <v>0.2638633125688609</v>
+        <v>0.2973351652023857</v>
       </c>
       <c r="O7">
-        <v>0.7468737661182256</v>
+        <v>0.6904758531658253</v>
       </c>
       <c r="P7">
-        <v>0.01410981859197458</v>
+        <v>0.01373398817585347</v>
       </c>
       <c r="Q7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R7" t="s">
         <v>23</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>47</v>
+        <v>2031</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -885,43 +885,43 @@
         <v>31</v>
       </c>
       <c r="D8">
-        <v>0.9402368033811181</v>
+        <v>0.581459891726871</v>
       </c>
       <c r="E8">
-        <v>0.8696627069374374</v>
+        <v>0.9614631027402222</v>
       </c>
       <c r="F8">
-        <v>0.004038536565402531</v>
+        <v>0.003523206794084546</v>
       </c>
       <c r="G8">
-        <v>8.104413095252594</v>
+        <v>9.889276891439909</v>
       </c>
       <c r="H8">
-        <v>0.2704011734275407</v>
+        <v>0.06983863033956479</v>
       </c>
       <c r="I8">
-        <v>2.191924165407852E-54</v>
+        <v>2.280282134033223E-38</v>
       </c>
       <c r="J8">
-        <v>13.72000026702881</v>
+        <v>14.10999965667725</v>
       </c>
       <c r="K8">
-        <v>18.35000038146973</v>
+        <v>54.59999847412109</v>
       </c>
       <c r="L8">
-        <v>0.6635180901372841</v>
+        <v>0.5685711927210075</v>
       </c>
       <c r="M8">
-        <v>-0.4732560402162846</v>
+        <v>-1.021061089071935</v>
       </c>
       <c r="N8">
-        <v>0.2485866318220874</v>
+        <v>0.2999935698463451</v>
       </c>
       <c r="O8">
-        <v>0.6537255362309811</v>
+        <v>0.4075336552623923</v>
       </c>
       <c r="P8">
-        <v>0.01413915171739111</v>
+        <v>0.01445060360954808</v>
       </c>
       <c r="Q8" t="s">
         <v>31</v>
@@ -932,63 +932,63 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2031</v>
+        <v>2003</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
       </c>
       <c r="D9">
-        <v>0.6557212094072954</v>
+        <v>0.581459891726871</v>
       </c>
       <c r="E9">
-        <v>0.9668005519640462</v>
+        <v>0.7954823807428273</v>
       </c>
       <c r="F9">
-        <v>0.004413952260856453</v>
+        <v>0.004881102242085041</v>
       </c>
       <c r="G9">
-        <v>9.917244739745993</v>
+        <v>9.634787496737331</v>
       </c>
       <c r="H9">
-        <v>0.06914149444783821</v>
+        <v>0.2845659135698069</v>
       </c>
       <c r="I9">
-        <v>1.334495055096274E-37</v>
+        <v>1.3091626522196E-42</v>
       </c>
       <c r="J9">
-        <v>14.26000022888184</v>
+        <v>14.10999965667725</v>
       </c>
       <c r="K9">
-        <v>55.34999847412109</v>
+        <v>13.63000011444092</v>
       </c>
       <c r="L9">
-        <v>0.567476658674531</v>
+        <v>0.6982030706045279</v>
       </c>
       <c r="M9">
-        <v>-1.01237683650198</v>
+        <v>-0.6480672032814105</v>
       </c>
       <c r="N9">
-        <v>0.2990372362806369</v>
+        <v>0.2796944968889664</v>
       </c>
       <c r="O9">
-        <v>0.5157738769495466</v>
+        <v>0.5965787254174617</v>
       </c>
       <c r="P9">
-        <v>0.01450701292171205</v>
+        <v>0.01446777999099165</v>
       </c>
       <c r="Q9" t="s">
         <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>760</v>
+        <v>348</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -997,43 +997,43 @@
         <v>33</v>
       </c>
       <c r="D10">
-        <v>0.1575297585373093</v>
+        <v>0.3735571821294777</v>
       </c>
       <c r="E10">
-        <v>0.1058672499072026</v>
+        <v>0.6081871434211833</v>
       </c>
       <c r="F10">
-        <v>0.006199081848013894</v>
+        <v>0.003770519325699768</v>
       </c>
       <c r="G10">
-        <v>11.36550505518132</v>
+        <v>22.51703627208707</v>
       </c>
       <c r="H10">
-        <v>1.0640441740223</v>
+        <v>0.1125203205725216</v>
       </c>
       <c r="I10">
-        <v>1.982181113386216E-47</v>
+        <v>2.255315242069954E-41</v>
       </c>
       <c r="J10">
-        <v>32.45000076293945</v>
+        <v>26.89999961853027</v>
       </c>
       <c r="K10">
-        <v>21.54000091552734</v>
+        <v>43.70999908447266</v>
       </c>
       <c r="L10">
-        <v>1.955231092027532</v>
+        <v>1.120128534980559</v>
       </c>
       <c r="M10">
-        <v>-2.091321063352993</v>
+        <v>-1.170043283086294</v>
       </c>
       <c r="N10">
-        <v>0.7970676554198939</v>
+        <v>0.4589509030198143</v>
       </c>
       <c r="O10">
-        <v>-1.835016774843748</v>
+        <v>-0.5352997627662894</v>
       </c>
       <c r="P10">
-        <v>0.01472621943159545</v>
+        <v>0.0147028188545652</v>
       </c>
       <c r="Q10" t="s">
         <v>25</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2070</v>
+        <v>760</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1053,43 +1053,43 @@
         <v>34</v>
       </c>
       <c r="D11">
-        <v>0.1140870882010266</v>
+        <v>0.1582693747698506</v>
       </c>
       <c r="E11">
-        <v>0.2306194757440777</v>
+        <v>0.1824300944529049</v>
       </c>
       <c r="F11">
-        <v>0.001547656204201592</v>
+        <v>0.005618981287516606</v>
       </c>
       <c r="G11">
-        <v>-4.40108771078577</v>
+        <v>11.38835049573918</v>
       </c>
       <c r="H11">
-        <v>1.474843601960359</v>
+        <v>1.06240089057757</v>
       </c>
       <c r="I11">
-        <v>3.853812240470413E-27</v>
+        <v>5.168371931528448E-47</v>
       </c>
       <c r="J11">
-        <v>44.75</v>
+        <v>32.29000091552734</v>
       </c>
       <c r="K11">
-        <v>34.47000122070312</v>
+        <v>21.19000053405762</v>
       </c>
       <c r="L11">
-        <v>2.356375063460661</v>
+        <v>1.967519050138904</v>
       </c>
       <c r="M11">
-        <v>-2.556008415155887</v>
+        <v>-2.079378193260546</v>
       </c>
       <c r="N11">
-        <v>1.022470334038852</v>
+        <v>0.8058199647440039</v>
       </c>
       <c r="O11">
-        <v>-1.686773049133997</v>
+        <v>-1.610625018933835</v>
       </c>
       <c r="P11">
-        <v>0.01475406347696471</v>
+        <v>0.01494940202901928</v>
       </c>
       <c r="Q11" t="s">
         <v>26</v>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -527,519 +527,519 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1158</v>
+        <v>1405</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CMIG4</t>
+          <t>CPLE6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EMBR3</t>
+          <t>FLRY3</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7195498480851465</v>
+        <v>0.6656228535540312</v>
       </c>
       <c r="E2" t="n">
-        <v>0.602694055783402</v>
+        <v>0.6375012323188662</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001143214824529444</v>
+        <v>0.0001890510826270166</v>
       </c>
       <c r="G2" t="n">
-        <v>3.199480181991466</v>
+        <v>0.7118218996757335</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1578500708634354</v>
+        <v>0.6025073918969077</v>
       </c>
       <c r="I2" t="n">
-        <v>2.926772141351449e-66</v>
+        <v>1.06938683206819e-65</v>
       </c>
       <c r="J2" t="n">
-        <v>11.15999984741211</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="K2" t="n">
-        <v>45.93999862670898</v>
+        <v>15.0600004196167</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9088533393446667</v>
+        <v>0.3338628115327076</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.8298431737048251</v>
+        <v>-0.5727583566182783</v>
       </c>
       <c r="N2" t="n">
-        <v>0.323398849019051</v>
+        <v>0.1853427103607013</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7088876267285036</v>
+        <v>0.3144169070044001</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01212397061431254</v>
+        <v>0.01053083588313122</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>EMBR3</t>
+          <t>FLRY3</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>CMIG4</t>
+          <t>CPLE6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2796</v>
+        <v>1996</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MULT3</t>
+          <t>ENEV3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SBSP3</t>
+          <t>ITSA4</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5595861401664149</v>
+        <v>0.5498351164295099</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6787683083758513</v>
+        <v>0.727586744834143</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0009470400212550353</v>
+        <v>0.001906442552403221</v>
       </c>
       <c r="G3" t="n">
-        <v>10.17464160887073</v>
+        <v>3.89659829705417</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1694397380673165</v>
+        <v>0.8962451914796173</v>
       </c>
       <c r="I3" t="n">
-        <v>8.27405070062231e-50</v>
+        <v>5.137756335181615e-51</v>
       </c>
       <c r="J3" t="n">
-        <v>25.79000091552734</v>
+        <v>13.97000026702881</v>
       </c>
       <c r="K3" t="n">
-        <v>88.12000274658203</v>
+        <v>10.65999984741211</v>
       </c>
       <c r="L3" t="n">
-        <v>2.882967761145078</v>
+        <v>0.7132019880487235</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.211319094866841</v>
+        <v>-0.5615088018402545</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6660771755011536</v>
+        <v>0.2477095839072305</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6843291227845398</v>
+        <v>0.5194283655580829</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01242384833219564</v>
+        <v>0.0128085585984417</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>SBSP3</t>
+          <t>ITSA4</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>MULT3</t>
+          <t>ENEV3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2656</v>
+        <v>2835</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LREN3</t>
+          <t>NTCO3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TIMS3</t>
+          <t>YDUQ3</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7719641520670009</v>
+        <v>0.2370502861757458</v>
       </c>
       <c r="E4" t="n">
-        <v>0.412667454182556</v>
+        <v>0.1134642530566475</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0002779525534635805</v>
+        <v>0.001615911277265879</v>
       </c>
       <c r="G4" t="n">
-        <v>-17.96763597879079</v>
+        <v>9.49980331356759</v>
       </c>
       <c r="H4" t="n">
-        <v>1.935850472906637</v>
+        <v>0.4883611680652314</v>
       </c>
       <c r="I4" t="n">
-        <v>1.150985514540338e-55</v>
+        <v>1.710378410612615e-52</v>
       </c>
       <c r="J4" t="n">
-        <v>18.11000061035156</v>
+        <v>15.22999954223633</v>
       </c>
       <c r="K4" t="n">
-        <v>17.75</v>
+        <v>10.14999961853027</v>
       </c>
       <c r="L4" t="n">
-        <v>2.094557402007759</v>
+        <v>1.985426544223078</v>
       </c>
       <c r="M4" t="n">
-        <v>-2.746524262012947</v>
+        <v>-1.112256189340131</v>
       </c>
       <c r="N4" t="n">
-        <v>0.828081476541669</v>
+        <v>0.55102679986187</v>
       </c>
       <c r="O4" t="n">
-        <v>1.716290695049537</v>
+        <v>0.7733305591016402</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01285763671484822</v>
+        <v>0.01313196549302116</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>TIMS3</t>
+          <t>YDUQ3</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>LREN3</t>
+          <t>NTCO3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1996</v>
+        <v>2656</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENEV3</t>
+          <t>LREN3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>TIMS3</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6068243891566174</v>
+        <v>0.7068152498455147</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7146408313642829</v>
+        <v>0.3941224736554975</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002726004801907034</v>
+        <v>0.0003529816445743703</v>
       </c>
       <c r="G5" t="n">
-        <v>3.961731230257397</v>
+        <v>-18.04648586215154</v>
       </c>
       <c r="H5" t="n">
-        <v>0.889206038332123</v>
+        <v>1.942405244436174</v>
       </c>
       <c r="I5" t="n">
-        <v>6.516268873976174e-51</v>
+        <v>5.444851398341151e-55</v>
       </c>
       <c r="J5" t="n">
-        <v>14.10000038146973</v>
+        <v>17.70000076293945</v>
       </c>
       <c r="K5" t="n">
-        <v>10.61999988555908</v>
+        <v>17.48999977111816</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7226840808941599</v>
+        <v>2.085153954385852</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.5541896858066835</v>
+        <v>-2.764375958951561</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2456811635293593</v>
+        <v>0.8425045725702879</v>
       </c>
       <c r="O5" t="n">
-        <v>0.694901125886739</v>
+        <v>1.773819344483591</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0128637293367423</v>
+        <v>0.01325487031200687</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>TIMS3</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>ENEV3</t>
+          <t>LREN3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>47</v>
+        <v>1051</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ABEV3</t>
+          <t>CASH3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LREN3</t>
+          <t>MRFG3</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8139866385110304</v>
+        <v>0.5065910934717524</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7719641520670009</v>
+        <v>0.5705240978671215</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001743879090992811</v>
+        <v>0.001664705754532619</v>
       </c>
       <c r="G6" t="n">
-        <v>8.050952017065013</v>
+        <v>0.4733582856711112</v>
       </c>
       <c r="H6" t="n">
-        <v>0.273833441141097</v>
+        <v>0.2578705370951474</v>
       </c>
       <c r="I6" t="n">
-        <v>1.2629265907846e-55</v>
+        <v>3.224123173639015e-49</v>
       </c>
       <c r="J6" t="n">
-        <v>13.27999973297119</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="K6" t="n">
-        <v>18.11000061035156</v>
+        <v>13.44999980926514</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6556445414031415</v>
+        <v>0.6506396297279804</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.4774075979551426</v>
+        <v>-0.4836232009281547</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2481815732482649</v>
+        <v>0.2162301196572853</v>
       </c>
       <c r="O6" t="n">
-        <v>0.269923929706243</v>
+        <v>-0.2617168936587402</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01348344419685344</v>
+        <v>0.01340754014947801</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>LREN3</t>
+          <t>CASH3</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>ABEV3</t>
+          <t>MRFG3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2179</v>
+        <v>1774</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FLRY3</t>
+          <t>DXCO3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ITUB4</t>
+          <t>TIMS3</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6473966613604852</v>
+        <v>0.4369379980388444</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7239958321560277</v>
+        <v>0.3941224736554975</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002433487775692219</v>
+        <v>0.003690568757330081</v>
       </c>
       <c r="G7" t="n">
-        <v>2.01889346762144</v>
+        <v>-0.5982734830855423</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3858055982187428</v>
+        <v>0.4725698954631864</v>
       </c>
       <c r="I7" t="n">
-        <v>2.557998776226396e-64</v>
+        <v>1.588900758659668e-38</v>
       </c>
       <c r="J7" t="n">
-        <v>15.14999961853027</v>
+        <v>8.329999923706055</v>
       </c>
       <c r="K7" t="n">
-        <v>34.90999984741211</v>
+        <v>17.48999977111816</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6973497432801707</v>
+        <v>0.8601574571442576</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.6041746023422796</v>
+        <v>-0.6833070333370443</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2958090303061378</v>
+        <v>0.2927705588111809</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.3373672240382124</v>
+        <v>0.6630260433031321</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01368978144461733</v>
+        <v>0.01376966837016738</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>FLRY3</t>
+          <t>TIMS3</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>ITUB4</t>
+          <t>DXCO3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1491</v>
+        <v>47</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CRFB3</t>
+          <t>ABEV3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RENT3</t>
+          <t>LREN3</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.294612686604551</v>
+        <v>0.8034668212816991</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2150363831743296</v>
+        <v>0.7068152498455147</v>
       </c>
       <c r="F8" t="n">
-        <v>0.005355357392946438</v>
+        <v>0.002422984066620724</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.124735343346456</v>
+        <v>8.033132317560689</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3217589512702265</v>
+        <v>0.2746523880498875</v>
       </c>
       <c r="I8" t="n">
-        <v>5.381945687441429e-51</v>
+        <v>4.757937704399757e-56</v>
       </c>
       <c r="J8" t="n">
-        <v>8.350000381469727</v>
+        <v>13.17000007629395</v>
       </c>
       <c r="K8" t="n">
-        <v>41.90000152587891</v>
+        <v>17.70000076293945</v>
       </c>
       <c r="L8" t="n">
-        <v>1.216116516605716</v>
+        <v>0.6588296589600908</v>
       </c>
       <c r="M8" t="n">
-        <v>-1.971159440635194</v>
+        <v>-0.4796458443125182</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6085807451208568</v>
+        <v>0.2482873169698143</v>
       </c>
       <c r="O8" t="n">
-        <v>-1.006964824371504</v>
+        <v>0.2755202807071058</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01432029834469681</v>
+        <v>0.0137875781288707</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>CRFB3</t>
+          <t>LREN3</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>RENT3</t>
+          <t>ABEV3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2070</v>
+        <v>2179</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGI11</t>
+          <t>FLRY3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TAEE11</t>
+          <t>ITUB4</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.1092714314949889</v>
+        <v>0.6375012323188662</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2928003799289657</v>
+        <v>0.7384961349651645</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00106458709368131</v>
+        <v>0.003892029119545803</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.741062050619764</v>
+        <v>2.064815723779622</v>
       </c>
       <c r="H9" t="n">
-        <v>1.512052155132118</v>
+        <v>0.3843405518181206</v>
       </c>
       <c r="I9" t="n">
-        <v>2.683071239906519e-28</v>
+        <v>1.05621205587453e-63</v>
       </c>
       <c r="J9" t="n">
-        <v>44.25</v>
+        <v>15.0600004196167</v>
       </c>
       <c r="K9" t="n">
-        <v>34.2599983215332</v>
+        <v>35.13999938964844</v>
       </c>
       <c r="L9" t="n">
-        <v>2.379538729256396</v>
+        <v>0.6982391838951365</v>
       </c>
       <c r="M9" t="n">
-        <v>-2.496356964289163</v>
+        <v>-0.5976187461055762</v>
       </c>
       <c r="N9" t="n">
-        <v>1.005036062182249</v>
+        <v>0.2989092152331026</v>
       </c>
       <c r="O9" t="n">
-        <v>-1.81184224627728</v>
+        <v>-0.5105420604688256</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0143322367493964</v>
+        <v>0.01417336247693853</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>ENGI11</t>
+          <t>FLRY3</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>TAEE11</t>
+          <t>ITUB4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2031</v>
+        <v>2003</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1048,51 +1048,51 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>WEGE3</t>
+          <t>MRFG3</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.6068243891566174</v>
+        <v>0.5498351164295099</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9450763121888307</v>
+        <v>0.5705240978671215</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003869705790583398</v>
+        <v>0.003273022883814302</v>
       </c>
       <c r="G10" t="n">
-        <v>9.825414037163865</v>
+        <v>9.512884862985494</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07122153638086381</v>
+        <v>0.2948344729561252</v>
       </c>
       <c r="I10" t="n">
-        <v>1.102432225895737e-38</v>
+        <v>1.018522790154713e-42</v>
       </c>
       <c r="J10" t="n">
-        <v>14.10000038146973</v>
+        <v>13.97000026702881</v>
       </c>
       <c r="K10" t="n">
-        <v>54.5</v>
+        <v>13.44999980926514</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5791255470612686</v>
+        <v>0.6783995828666001</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.029904608008678</v>
+        <v>-0.675674798503227</v>
       </c>
       <c r="N10" t="n">
-        <v>0.3015990676648095</v>
+        <v>0.2846972405764636</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3930126115487833</v>
+        <v>0.4915917990186425</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01450824626629998</v>
+        <v>0.01428720879601252</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>WEGE3</t>
+          <t>MRFG3</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1103,65 +1103,65 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2003</v>
+        <v>1491</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENEV3</t>
+          <t>CRFB3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MRFG3</t>
+          <t>RENT3</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.6068243891566174</v>
+        <v>0.3302239758269939</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7676363270520015</v>
+        <v>0.3694825420023407</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006342730560838264</v>
+        <v>0.003165877760937773</v>
       </c>
       <c r="G11" t="n">
-        <v>9.545969312741603</v>
+        <v>-4.111164093171576</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2918737826789251</v>
+        <v>0.3211334044320783</v>
       </c>
       <c r="I11" t="n">
-        <v>1.190161686015546e-42</v>
+        <v>8.272546220556089e-50</v>
       </c>
       <c r="J11" t="n">
-        <v>14.10000038146973</v>
+        <v>7.909999847412109</v>
       </c>
       <c r="K11" t="n">
-        <v>13.46000003814697</v>
+        <v>41.41999816894531</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6861726595005617</v>
+        <v>1.234369499754175</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.6656515965809469</v>
+        <v>-1.954234998484006</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2821971409829443</v>
+        <v>0.615309368880206</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6254099427356912</v>
+        <v>-1.280181082980175</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01475942791553587</v>
+        <v>0.01451489710919162</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>MRFG3</t>
+          <t>CRFB3</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>ENEV3</t>
+          <t>RENT3</t>
         </is>
       </c>
     </row>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -527,65 +527,65 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1405</v>
+        <v>1158</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CPLE6</t>
+          <t>CMIG4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FLRY3</t>
+          <t>EMBR3</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6656228535540312</v>
+        <v>0.772365577260284</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6375012323188662</v>
+        <v>0.715521781485519</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0001890510826270166</v>
+        <v>0.0008774816460842212</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7118218996757335</v>
+        <v>3.208781733137187</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6025073918969077</v>
+        <v>0.1580701641472574</v>
       </c>
       <c r="I2" t="n">
-        <v>1.06938683206819e-65</v>
+        <v>2.851977359889734e-65</v>
       </c>
       <c r="J2" t="n">
-        <v>10.10000038146973</v>
+        <v>11.15999984741211</v>
       </c>
       <c r="K2" t="n">
-        <v>15.0600004196167</v>
+        <v>45.93000030517578</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3338628115327076</v>
+        <v>0.8896079735687028</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.5727583566182783</v>
+        <v>-0.8479418536735768</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1853427103607013</v>
+        <v>0.3283895864294659</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3144169070044001</v>
+        <v>0.6910554267522055</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01053083588313122</v>
+        <v>0.01217196846838159</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>FLRY3</t>
+          <t>EMBR3</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>CPLE6</t>
+          <t>CMIG4</t>
         </is>
       </c>
     </row>
@@ -604,43 +604,43 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5498351164295099</v>
+        <v>0.6934708916212969</v>
       </c>
       <c r="E3" t="n">
-        <v>0.727586744834143</v>
+        <v>0.7269897248333619</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001906442552403221</v>
+        <v>0.002849134058474545</v>
       </c>
       <c r="G3" t="n">
-        <v>3.89659829705417</v>
+        <v>3.836100635493628</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8962451914796173</v>
+        <v>0.9028026341211166</v>
       </c>
       <c r="I3" t="n">
-        <v>5.137756335181615e-51</v>
+        <v>1.160890792673566e-50</v>
       </c>
       <c r="J3" t="n">
-        <v>13.97000026702881</v>
+        <v>14.0600004196167</v>
       </c>
       <c r="K3" t="n">
         <v>10.65999984741211</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7132019880487235</v>
+        <v>0.7041907551079092</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.5615088018402545</v>
+        <v>-0.5685067279645377</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2477095839072305</v>
+        <v>0.2520404387243081</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5194283655580829</v>
+        <v>0.600023842148719</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0128085585984417</v>
+        <v>0.01330125927156138</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -655,75 +655,75 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2835</v>
+        <v>1051</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NTCO3</t>
+          <t>CASH3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>YDUQ3</t>
+          <t>MRFG3</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.2370502861757458</v>
+        <v>0.4806394807598877</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1134642530566475</v>
+        <v>0.577801455456872</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001615911277265879</v>
+        <v>0.002723847185382103</v>
       </c>
       <c r="G4" t="n">
-        <v>9.49980331356759</v>
+        <v>0.464508085473445</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4883611680652314</v>
+        <v>0.2582442852072536</v>
       </c>
       <c r="I4" t="n">
-        <v>1.710378410612615e-52</v>
+        <v>4.649040642965223e-49</v>
       </c>
       <c r="J4" t="n">
-        <v>15.22999954223633</v>
+        <v>3.619999885559082</v>
       </c>
       <c r="K4" t="n">
-        <v>10.14999961853027</v>
+        <v>13.46000003814697</v>
       </c>
       <c r="L4" t="n">
-        <v>1.985426544223078</v>
+        <v>0.6549413153727999</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.112256189340131</v>
+        <v>-0.4786711936538146</v>
       </c>
       <c r="N4" t="n">
-        <v>0.55102679986187</v>
+        <v>0.2165490192752847</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7733305591016402</v>
+        <v>-0.3204762886552337</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01313196549302116</v>
+        <v>0.01383433360452911</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>YDUQ3</t>
+          <t>CASH3</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>NTCO3</t>
+          <t>MRFG3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2656</v>
+        <v>1774</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LREN3</t>
+          <t>DXCO3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -732,43 +732,43 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7068152498455147</v>
+        <v>0.4502318185919253</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3941224736554975</v>
+        <v>0.3959341446876607</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0003529816445743703</v>
+        <v>0.003626203958329965</v>
       </c>
       <c r="G5" t="n">
-        <v>-18.04648586215154</v>
+        <v>-0.617459673784166</v>
       </c>
       <c r="H5" t="n">
-        <v>1.942405244436174</v>
+        <v>0.4738066722135249</v>
       </c>
       <c r="I5" t="n">
-        <v>5.444851398341151e-55</v>
+        <v>3.101118133557725e-38</v>
       </c>
       <c r="J5" t="n">
-        <v>17.70000076293945</v>
+        <v>8.260000228881836</v>
       </c>
       <c r="K5" t="n">
-        <v>17.48999977111816</v>
+        <v>17.52000045776367</v>
       </c>
       <c r="L5" t="n">
-        <v>2.085153954385852</v>
+        <v>0.8573908605243723</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.764375958951561</v>
+        <v>-0.6857686418029463</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8425045725702879</v>
+        <v>0.2956773384587683</v>
       </c>
       <c r="O5" t="n">
-        <v>1.773819344483591</v>
+        <v>0.5763667885935639</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01325487031200687</v>
+        <v>0.01394476232829144</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -777,269 +777,269 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>LREN3</t>
+          <t>DXCO3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1051</v>
+        <v>2656</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CASH3</t>
+          <t>LREN3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MRFG3</t>
+          <t>TIMS3</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5065910934717524</v>
+        <v>0.8954124309384008</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5705240978671215</v>
+        <v>0.3959341446876607</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001664705754532619</v>
+        <v>0.0006110881175750253</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4733582856711112</v>
+        <v>-18.17753049224687</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2578705370951474</v>
+        <v>1.949991434158574</v>
       </c>
       <c r="I6" t="n">
-        <v>3.224123173639015e-49</v>
+        <v>2.88086080908564e-54</v>
       </c>
       <c r="J6" t="n">
-        <v>3.680000066757202</v>
+        <v>18</v>
       </c>
       <c r="K6" t="n">
-        <v>13.44999980926514</v>
+        <v>17.52000045776367</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6506396297279804</v>
+        <v>2.063528195687887</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.4836232009281547</v>
+        <v>-2.784144661083708</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2162301196572853</v>
+        <v>0.858586130212044</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.2617168936587402</v>
+        <v>2.013679673153426</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01340754014947801</v>
+        <v>0.01404715708152938</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>CASH3</t>
+          <t>TIMS3</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>MRFG3</t>
+          <t>LREN3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1774</v>
+        <v>3034</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DXCO3</t>
+          <t>RENT3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TIMS3</t>
+          <t>UGPA3</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.4369379980388444</v>
+        <v>0.2664836100415288</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3941224736554975</v>
+        <v>0.4507224665275237</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003690568757330081</v>
+        <v>0.0006602111084819349</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.5982734830855423</v>
+        <v>5.687617824652895</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4725698954631864</v>
+        <v>1.651303408443701</v>
       </c>
       <c r="I7" t="n">
-        <v>1.588900758659668e-38</v>
+        <v>3.017481928573057e-46</v>
       </c>
       <c r="J7" t="n">
-        <v>8.329999923706055</v>
+        <v>42.86000061035156</v>
       </c>
       <c r="K7" t="n">
-        <v>17.48999977111816</v>
+        <v>20.97999954223633</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8601574571442576</v>
+        <v>5.605779225723509</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.6833070333370443</v>
+        <v>-5.667205747786909</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2927705588111809</v>
+        <v>1.800409848497572</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6630260433031321</v>
+        <v>2.528038032456521</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01376966837016738</v>
+        <v>0.01432287784820912</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>TIMS3</t>
+          <t>UGPA3</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>DXCO3</t>
+          <t>RENT3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>47</v>
+        <v>2179</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ABEV3</t>
+          <t>FLRY3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LREN3</t>
+          <t>ITUB4</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8034668212816991</v>
+        <v>0.6412271365757453</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7068152498455147</v>
+        <v>0.7562869027129786</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002422984066620724</v>
+        <v>0.004409431688885885</v>
       </c>
       <c r="G8" t="n">
-        <v>8.033132317560689</v>
+        <v>2.117968639479977</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2746523880498875</v>
+        <v>0.3826702176339807</v>
       </c>
       <c r="I8" t="n">
-        <v>4.757937704399757e-56</v>
+        <v>3.858175976007489e-63</v>
       </c>
       <c r="J8" t="n">
-        <v>13.17000007629395</v>
+        <v>15.14999961853027</v>
       </c>
       <c r="K8" t="n">
-        <v>17.70000076293945</v>
+        <v>35.34999847412109</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6588296589600908</v>
+        <v>0.6984565561002043</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.4796458443125182</v>
+        <v>-0.5961097812767111</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2482873169698143</v>
+        <v>0.3017185650409284</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2755202807071058</v>
+        <v>-0.4953606304025104</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0137875781288707</v>
+        <v>0.01446682457121998</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>LREN3</t>
+          <t>FLRY3</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>ABEV3</t>
+          <t>ITUB4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2179</v>
+        <v>71</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FLRY3</t>
+          <t>ABEV3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ITUB4</t>
+          <t>TIMS3</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.6375012323188662</v>
+        <v>0.7878326875137126</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7384961349651645</v>
+        <v>0.3959341446876607</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003892029119545803</v>
+        <v>0.006613756441954866</v>
       </c>
       <c r="G9" t="n">
-        <v>2.064815723779622</v>
+        <v>2.327867008062906</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3843405518181206</v>
+        <v>0.5775969810486725</v>
       </c>
       <c r="I9" t="n">
-        <v>1.05621205587453e-63</v>
+        <v>8.30118285047575e-51</v>
       </c>
       <c r="J9" t="n">
-        <v>15.0600004196167</v>
+        <v>13.07999992370605</v>
       </c>
       <c r="K9" t="n">
-        <v>35.13999938964844</v>
+        <v>17.52000045776367</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6982391838951365</v>
+        <v>0.7399620018912145</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.5976187461055762</v>
+        <v>-0.7831871786984337</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2989092152331026</v>
+        <v>0.2730255912627676</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.5105420604688256</v>
+        <v>0.6326335432674917</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01417336247693853</v>
+        <v>0.01458370247075768</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>FLRY3</t>
+          <t>TIMS3</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>ITUB4</t>
+          <t>ABEV3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2003</v>
+        <v>2031</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1048,51 +1048,51 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MRFG3</t>
+          <t>WEGE3</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.5498351164295099</v>
+        <v>0.6934708916212969</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5705240978671215</v>
+        <v>0.9356647325055469</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003273022883814302</v>
+        <v>0.004262328274955719</v>
       </c>
       <c r="G10" t="n">
-        <v>9.512884862985494</v>
+        <v>9.771267557383133</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2948344729561252</v>
+        <v>0.07250013931987877</v>
       </c>
       <c r="I10" t="n">
-        <v>1.018522790154713e-42</v>
+        <v>1.730568516327168e-39</v>
       </c>
       <c r="J10" t="n">
-        <v>13.97000026702881</v>
+        <v>14.0600004196167</v>
       </c>
       <c r="K10" t="n">
-        <v>13.44999980926514</v>
+        <v>54.31000137329102</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6783995828666001</v>
+        <v>0.5839844973989763</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.675674798503227</v>
+        <v>-1.042981005513525</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2846972405764636</v>
+        <v>0.3039819835812965</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4915917990186425</v>
+        <v>0.3512501962071601</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01428720879601252</v>
+        <v>0.014730706196924</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>MRFG3</t>
+          <t>WEGE3</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1103,65 +1103,65 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1491</v>
+        <v>348</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CRFB3</t>
+          <t>BBAS3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RENT3</t>
+          <t>IRBR3</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.3302239758269939</v>
+        <v>0.3863766512316805</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3694825420023407</v>
+        <v>0.6439084921701507</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003165877760937773</v>
+        <v>0.004422840595935322</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.111164093171576</v>
+        <v>22.56625837746883</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3211334044320783</v>
+        <v>0.1112277125785414</v>
       </c>
       <c r="I11" t="n">
-        <v>8.272546220556089e-50</v>
+        <v>1.953497293632017e-40</v>
       </c>
       <c r="J11" t="n">
-        <v>7.909999847412109</v>
+        <v>26.97999954223633</v>
       </c>
       <c r="K11" t="n">
-        <v>41.41999816894531</v>
+        <v>44</v>
       </c>
       <c r="L11" t="n">
-        <v>1.234369499754175</v>
+        <v>1.114181818766077</v>
       </c>
       <c r="M11" t="n">
-        <v>-1.954234998484006</v>
+        <v>-1.163335163697106</v>
       </c>
       <c r="N11" t="n">
-        <v>0.615309368880206</v>
+        <v>0.4646237313717544</v>
       </c>
       <c r="O11" t="n">
-        <v>-1.280181082980175</v>
+        <v>-0.4802781886883203</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01451489710919162</v>
+        <v>0.01500193448492026</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>CRFB3</t>
+          <t>BBAS3</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>RENT3</t>
+          <t>IRBR3</t>
         </is>
       </c>
     </row>
